--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.16709</v>
+        <v>0.258904</v>
       </c>
       <c r="C2" t="n">
-        <v>0.18801</v>
+        <v>0.22402</v>
       </c>
       <c r="D2" t="n">
-        <v>0.181951</v>
+        <v>0.220009</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.171599</v>
+        <v>0.266285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.191203</v>
+        <v>0.225443</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183198</v>
+        <v>0.220672</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.177856</v>
+        <v>0.275915</v>
       </c>
       <c r="C4" t="n">
-        <v>0.199274</v>
+        <v>0.231011</v>
       </c>
       <c r="D4" t="n">
-        <v>0.18613</v>
+        <v>0.222429</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.186768</v>
+        <v>0.29118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.209062</v>
+        <v>0.240398</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188283</v>
+        <v>0.225713</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.194787</v>
+        <v>0.313132</v>
       </c>
       <c r="C6" t="n">
-        <v>0.225417</v>
+        <v>0.250834</v>
       </c>
       <c r="D6" t="n">
-        <v>0.193689</v>
+        <v>0.229458</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.213989</v>
+        <v>0.347484</v>
       </c>
       <c r="C7" t="n">
-        <v>0.249344</v>
+        <v>0.274786</v>
       </c>
       <c r="D7" t="n">
-        <v>0.202545</v>
+        <v>0.237579</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245645</v>
+        <v>0.387468</v>
       </c>
       <c r="C8" t="n">
-        <v>0.279195</v>
+        <v>0.306896</v>
       </c>
       <c r="D8" t="n">
-        <v>0.213892</v>
+        <v>0.252013</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.294625</v>
+        <v>0.43084</v>
       </c>
       <c r="C9" t="n">
-        <v>0.32626</v>
+        <v>0.360124</v>
       </c>
       <c r="D9" t="n">
-        <v>0.177508</v>
+        <v>0.216267</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.159264</v>
+        <v>0.241468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174623</v>
+        <v>0.213807</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178137</v>
+        <v>0.216143</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.160162</v>
+        <v>0.242998</v>
       </c>
       <c r="C11" t="n">
-        <v>0.175383</v>
+        <v>0.213987</v>
       </c>
       <c r="D11" t="n">
-        <v>0.178506</v>
+        <v>0.216213</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.16142</v>
+        <v>0.245127</v>
       </c>
       <c r="C12" t="n">
-        <v>0.176524</v>
+        <v>0.215545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.178763</v>
+        <v>0.216823</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.16236</v>
+        <v>0.246946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1778</v>
+        <v>0.216771</v>
       </c>
       <c r="D13" t="n">
-        <v>0.178424</v>
+        <v>0.216875</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.164267</v>
+        <v>0.249919</v>
       </c>
       <c r="C14" t="n">
-        <v>0.180455</v>
+        <v>0.218142</v>
       </c>
       <c r="D14" t="n">
-        <v>0.179441</v>
+        <v>0.217269</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.166272</v>
+        <v>0.254229</v>
       </c>
       <c r="C15" t="n">
-        <v>0.18321</v>
+        <v>0.220364</v>
       </c>
       <c r="D15" t="n">
-        <v>0.180221</v>
+        <v>0.217939</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.169482</v>
+        <v>0.259224</v>
       </c>
       <c r="C16" t="n">
-        <v>0.187392</v>
+        <v>0.223037</v>
       </c>
       <c r="D16" t="n">
-        <v>0.180858</v>
+        <v>0.218901</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.173273</v>
+        <v>0.265806</v>
       </c>
       <c r="C17" t="n">
-        <v>0.191875</v>
+        <v>0.226035</v>
       </c>
       <c r="D17" t="n">
-        <v>0.18221</v>
+        <v>0.219922</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.179109</v>
+        <v>0.27672</v>
       </c>
       <c r="C18" t="n">
-        <v>0.197734</v>
+        <v>0.232586</v>
       </c>
       <c r="D18" t="n">
-        <v>0.18409</v>
+        <v>0.221668</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.187409</v>
+        <v>0.29186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.205517</v>
+        <v>0.241666</v>
       </c>
       <c r="D19" t="n">
-        <v>0.186609</v>
+        <v>0.224558</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.199295</v>
+        <v>0.313499</v>
       </c>
       <c r="C20" t="n">
-        <v>0.218672</v>
+        <v>0.252883</v>
       </c>
       <c r="D20" t="n">
-        <v>0.190388</v>
+        <v>0.227649</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.219332</v>
+        <v>0.340057</v>
       </c>
       <c r="C21" t="n">
-        <v>0.236583</v>
+        <v>0.26926</v>
       </c>
       <c r="D21" t="n">
-        <v>0.195874</v>
+        <v>0.23401</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.248382</v>
+        <v>0.377062</v>
       </c>
       <c r="C22" t="n">
-        <v>0.262726</v>
+        <v>0.299217</v>
       </c>
       <c r="D22" t="n">
-        <v>0.206574</v>
+        <v>0.246417</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293817</v>
+        <v>0.423125</v>
       </c>
       <c r="C23" t="n">
-        <v>0.31152</v>
+        <v>0.345331</v>
       </c>
       <c r="D23" t="n">
-        <v>0.177252</v>
+        <v>0.21602</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.161647</v>
+        <v>0.245404</v>
       </c>
       <c r="C24" t="n">
-        <v>0.174274</v>
+        <v>0.215045</v>
       </c>
       <c r="D24" t="n">
-        <v>0.177554</v>
+        <v>0.216395</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.162373</v>
+        <v>0.246644</v>
       </c>
       <c r="C25" t="n">
-        <v>0.174488</v>
+        <v>0.215388</v>
       </c>
       <c r="D25" t="n">
-        <v>0.177621</v>
+        <v>0.216483</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.163239</v>
+        <v>0.248333</v>
       </c>
       <c r="C26" t="n">
-        <v>0.175476</v>
+        <v>0.216364</v>
       </c>
       <c r="D26" t="n">
-        <v>0.177747</v>
+        <v>0.216956</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.164443</v>
+        <v>0.250281</v>
       </c>
       <c r="C27" t="n">
-        <v>0.177044</v>
+        <v>0.217137</v>
       </c>
       <c r="D27" t="n">
-        <v>0.178303</v>
+        <v>0.217213</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.165967</v>
+        <v>0.253727</v>
       </c>
       <c r="C28" t="n">
-        <v>0.178767</v>
+        <v>0.218915</v>
       </c>
       <c r="D28" t="n">
-        <v>0.178566</v>
+        <v>0.217947</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.168132</v>
+        <v>0.257489</v>
       </c>
       <c r="C29" t="n">
-        <v>0.181902</v>
+        <v>0.220712</v>
       </c>
       <c r="D29" t="n">
-        <v>0.179207</v>
+        <v>0.218381</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.170997</v>
+        <v>0.262941</v>
       </c>
       <c r="C30" t="n">
-        <v>0.18466</v>
+        <v>0.223414</v>
       </c>
       <c r="D30" t="n">
-        <v>0.180056</v>
+        <v>0.219071</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.174539</v>
+        <v>0.269217</v>
       </c>
       <c r="C31" t="n">
-        <v>0.189285</v>
+        <v>0.227657</v>
       </c>
       <c r="D31" t="n">
-        <v>0.181065</v>
+        <v>0.220156</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.18009</v>
+        <v>0.279047</v>
       </c>
       <c r="C32" t="n">
-        <v>0.194497</v>
+        <v>0.233357</v>
       </c>
       <c r="D32" t="n">
-        <v>0.182711</v>
+        <v>0.222173</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.187682</v>
+        <v>0.293056</v>
       </c>
       <c r="C33" t="n">
-        <v>0.203544</v>
+        <v>0.243141</v>
       </c>
       <c r="D33" t="n">
-        <v>0.185148</v>
+        <v>0.225183</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.198147</v>
+        <v>0.311706</v>
       </c>
       <c r="C34" t="n">
-        <v>0.214618</v>
+        <v>0.255682</v>
       </c>
       <c r="D34" t="n">
-        <v>0.18832</v>
+        <v>0.229272</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.21523</v>
+        <v>0.336522</v>
       </c>
       <c r="C35" t="n">
-        <v>0.231105</v>
+        <v>0.272589</v>
       </c>
       <c r="D35" t="n">
-        <v>0.193093</v>
+        <v>0.236343</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.243416</v>
+        <v>0.372337</v>
       </c>
       <c r="C36" t="n">
-        <v>0.258401</v>
+        <v>0.301155</v>
       </c>
       <c r="D36" t="n">
-        <v>0.202664</v>
+        <v>0.248474</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28537</v>
+        <v>0.41739</v>
       </c>
       <c r="C37" t="n">
-        <v>0.299455</v>
+        <v>0.341183</v>
       </c>
       <c r="D37" t="n">
-        <v>0.177752</v>
+        <v>0.216204</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.162722</v>
+        <v>0.246878</v>
       </c>
       <c r="C38" t="n">
-        <v>0.174354</v>
+        <v>0.21624</v>
       </c>
       <c r="D38" t="n">
-        <v>0.177894</v>
+        <v>0.216364</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.163606</v>
+        <v>0.248375</v>
       </c>
       <c r="C39" t="n">
-        <v>0.175409</v>
+        <v>0.217029</v>
       </c>
       <c r="D39" t="n">
-        <v>0.178177</v>
+        <v>0.217026</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.164479</v>
+        <v>0.249802</v>
       </c>
       <c r="C40" t="n">
-        <v>0.17664</v>
+        <v>0.217883</v>
       </c>
       <c r="D40" t="n">
-        <v>0.178396</v>
+        <v>0.217014</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.165528</v>
+        <v>0.251831</v>
       </c>
       <c r="C41" t="n">
-        <v>0.177862</v>
+        <v>0.218927</v>
       </c>
       <c r="D41" t="n">
-        <v>0.178762</v>
+        <v>0.218172</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.167189</v>
+        <v>0.254609</v>
       </c>
       <c r="C42" t="n">
-        <v>0.179319</v>
+        <v>0.220906</v>
       </c>
       <c r="D42" t="n">
-        <v>0.179245</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.169016</v>
+        <v>0.258614</v>
       </c>
       <c r="C43" t="n">
-        <v>0.181457</v>
+        <v>0.222926</v>
       </c>
       <c r="D43" t="n">
-        <v>0.179642</v>
+        <v>0.218838</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.171651</v>
+        <v>0.263879</v>
       </c>
       <c r="C44" t="n">
-        <v>0.184794</v>
+        <v>0.226217</v>
       </c>
       <c r="D44" t="n">
-        <v>0.180521</v>
+        <v>0.219815</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.175213</v>
+        <v>0.270873</v>
       </c>
       <c r="C45" t="n">
-        <v>0.188967</v>
+        <v>0.229734</v>
       </c>
       <c r="D45" t="n">
-        <v>0.181627</v>
+        <v>0.220865</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.17978</v>
+        <v>0.27968</v>
       </c>
       <c r="C46" t="n">
-        <v>0.194742</v>
+        <v>0.235912</v>
       </c>
       <c r="D46" t="n">
-        <v>0.183413</v>
+        <v>0.222733</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.187155</v>
+        <v>0.291618</v>
       </c>
       <c r="C47" t="n">
-        <v>0.202796</v>
+        <v>0.244319</v>
       </c>
       <c r="D47" t="n">
-        <v>0.185572</v>
+        <v>0.225628</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.197556</v>
+        <v>0.308924</v>
       </c>
       <c r="C48" t="n">
-        <v>0.214158</v>
+        <v>0.25451</v>
       </c>
       <c r="D48" t="n">
-        <v>0.188755</v>
+        <v>0.229659</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.213531</v>
+        <v>0.332626</v>
       </c>
       <c r="C49" t="n">
-        <v>0.230271</v>
+        <v>0.270308</v>
       </c>
       <c r="D49" t="n">
-        <v>0.193398</v>
+        <v>0.23605</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.237503</v>
+        <v>0.363843</v>
       </c>
       <c r="C50" t="n">
-        <v>0.257539</v>
+        <v>0.294712</v>
       </c>
       <c r="D50" t="n">
-        <v>0.201959</v>
+        <v>0.247162</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275652</v>
+        <v>0.407924</v>
       </c>
       <c r="C51" t="n">
-        <v>0.293274</v>
+        <v>0.331537</v>
       </c>
       <c r="D51" t="n">
-        <v>0.177691</v>
+        <v>0.218058</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.333023</v>
+        <v>0.460075</v>
       </c>
       <c r="C52" t="n">
-        <v>0.350867</v>
+        <v>0.384649</v>
       </c>
       <c r="D52" t="n">
-        <v>0.178002</v>
+        <v>0.218173</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.166684</v>
+        <v>0.252528</v>
       </c>
       <c r="C53" t="n">
-        <v>0.176758</v>
+        <v>0.22232</v>
       </c>
       <c r="D53" t="n">
-        <v>0.178324</v>
+        <v>0.220132</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.167606</v>
+        <v>0.252971</v>
       </c>
       <c r="C54" t="n">
-        <v>0.177859</v>
+        <v>0.221595</v>
       </c>
       <c r="D54" t="n">
-        <v>0.17872</v>
+        <v>0.21898</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.168531</v>
+        <v>0.255462</v>
       </c>
       <c r="C55" t="n">
-        <v>0.179232</v>
+        <v>0.223263</v>
       </c>
       <c r="D55" t="n">
-        <v>0.179186</v>
+        <v>0.21973</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.170067</v>
+        <v>0.259026</v>
       </c>
       <c r="C56" t="n">
-        <v>0.180945</v>
+        <v>0.224466</v>
       </c>
       <c r="D56" t="n">
-        <v>0.179762</v>
+        <v>0.220418</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.171884</v>
+        <v>0.2626</v>
       </c>
       <c r="C57" t="n">
-        <v>0.183248</v>
+        <v>0.226557</v>
       </c>
       <c r="D57" t="n">
-        <v>0.180407</v>
+        <v>0.220961</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.174422</v>
+        <v>0.26641</v>
       </c>
       <c r="C58" t="n">
-        <v>0.186553</v>
+        <v>0.229393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.181274</v>
+        <v>0.221969</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.177735</v>
+        <v>0.272614</v>
       </c>
       <c r="C59" t="n">
-        <v>0.190907</v>
+        <v>0.232682</v>
       </c>
       <c r="D59" t="n">
-        <v>0.182377</v>
+        <v>0.222954</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.182599</v>
+        <v>0.28107</v>
       </c>
       <c r="C60" t="n">
-        <v>0.19622</v>
+        <v>0.237235</v>
       </c>
       <c r="D60" t="n">
-        <v>0.183865</v>
+        <v>0.224475</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.188922</v>
+        <v>0.292422</v>
       </c>
       <c r="C61" t="n">
-        <v>0.203884</v>
+        <v>0.243652</v>
       </c>
       <c r="D61" t="n">
-        <v>0.18586</v>
+        <v>0.226674</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.198399</v>
+        <v>0.307906</v>
       </c>
       <c r="C62" t="n">
-        <v>0.214577</v>
+        <v>0.253962</v>
       </c>
       <c r="D62" t="n">
-        <v>0.188892</v>
+        <v>0.229932</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.213027</v>
+        <v>0.329238</v>
       </c>
       <c r="C63" t="n">
-        <v>0.230358</v>
+        <v>0.268233</v>
       </c>
       <c r="D63" t="n">
-        <v>0.194006</v>
+        <v>0.235439</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.235067</v>
+        <v>0.35947</v>
       </c>
       <c r="C64" t="n">
-        <v>0.25435</v>
+        <v>0.291378</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201855</v>
+        <v>0.244661</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268286</v>
+        <v>0.40215</v>
       </c>
       <c r="C65" t="n">
-        <v>0.290711</v>
+        <v>0.32563</v>
       </c>
       <c r="D65" t="n">
-        <v>0.216172</v>
+        <v>0.261447</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.32026</v>
+        <v>0.455327</v>
       </c>
       <c r="C66" t="n">
-        <v>0.343419</v>
+        <v>0.377896</v>
       </c>
       <c r="D66" t="n">
-        <v>0.185751</v>
+        <v>0.23054</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.185214</v>
+        <v>0.261897</v>
       </c>
       <c r="C67" t="n">
-        <v>0.188184</v>
+        <v>0.234132</v>
       </c>
       <c r="D67" t="n">
-        <v>0.187054</v>
+        <v>0.230296</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.18623</v>
+        <v>0.261271</v>
       </c>
       <c r="C68" t="n">
-        <v>0.188924</v>
+        <v>0.236495</v>
       </c>
       <c r="D68" t="n">
-        <v>0.18673</v>
+        <v>0.23188</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.186913</v>
+        <v>0.266249</v>
       </c>
       <c r="C69" t="n">
-        <v>0.190716</v>
+        <v>0.237097</v>
       </c>
       <c r="D69" t="n">
-        <v>0.187346</v>
+        <v>0.231279</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.188392</v>
+        <v>0.267225</v>
       </c>
       <c r="C70" t="n">
-        <v>0.192766</v>
+        <v>0.236933</v>
       </c>
       <c r="D70" t="n">
-        <v>0.18799</v>
+        <v>0.232386</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.19006</v>
+        <v>0.271655</v>
       </c>
       <c r="C71" t="n">
-        <v>0.195481</v>
+        <v>0.238631</v>
       </c>
       <c r="D71" t="n">
-        <v>0.188791</v>
+        <v>0.232497</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.192371</v>
+        <v>0.276584</v>
       </c>
       <c r="C72" t="n">
-        <v>0.198836</v>
+        <v>0.243016</v>
       </c>
       <c r="D72" t="n">
-        <v>0.189814</v>
+        <v>0.234676</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.195423</v>
+        <v>0.283552</v>
       </c>
       <c r="C73" t="n">
-        <v>0.20329</v>
+        <v>0.245812</v>
       </c>
       <c r="D73" t="n">
-        <v>0.191162</v>
+        <v>0.234492</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.199606</v>
+        <v>0.291041</v>
       </c>
       <c r="C74" t="n">
-        <v>0.209195</v>
+        <v>0.254705</v>
       </c>
       <c r="D74" t="n">
-        <v>0.192822</v>
+        <v>0.239719</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.205732</v>
+        <v>0.301246</v>
       </c>
       <c r="C75" t="n">
-        <v>0.217544</v>
+        <v>0.259556</v>
       </c>
       <c r="D75" t="n">
-        <v>0.195221</v>
+        <v>0.239884</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.214462</v>
+        <v>0.318742</v>
       </c>
       <c r="C76" t="n">
-        <v>0.228673</v>
+        <v>0.267085</v>
       </c>
       <c r="D76" t="n">
-        <v>0.198701</v>
+        <v>0.242438</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.227014</v>
+        <v>0.338471</v>
       </c>
       <c r="C77" t="n">
-        <v>0.244104</v>
+        <v>0.282182</v>
       </c>
       <c r="D77" t="n">
-        <v>0.203674</v>
+        <v>0.248913</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.2461</v>
+        <v>0.366211</v>
       </c>
       <c r="C78" t="n">
-        <v>0.266734</v>
+        <v>0.302558</v>
       </c>
       <c r="D78" t="n">
-        <v>0.212168</v>
+        <v>0.255859</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.277256</v>
+        <v>0.410001</v>
       </c>
       <c r="C79" t="n">
-        <v>0.301201</v>
+        <v>0.333465</v>
       </c>
       <c r="D79" t="n">
-        <v>0.225314</v>
+        <v>0.272123</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324182</v>
+        <v>0.465838</v>
       </c>
       <c r="C80" t="n">
-        <v>0.350645</v>
+        <v>0.387845</v>
       </c>
       <c r="D80" t="n">
-        <v>0.20525</v>
+        <v>0.247483</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.203176</v>
+        <v>0.277113</v>
       </c>
       <c r="C81" t="n">
-        <v>0.205711</v>
+        <v>0.253463</v>
       </c>
       <c r="D81" t="n">
-        <v>0.205434</v>
+        <v>0.248092</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.204121</v>
+        <v>0.278934</v>
       </c>
       <c r="C82" t="n">
-        <v>0.206759</v>
+        <v>0.254362</v>
       </c>
       <c r="D82" t="n">
-        <v>0.205888</v>
+        <v>0.248168</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.205208</v>
+        <v>0.280986</v>
       </c>
       <c r="C83" t="n">
-        <v>0.208044</v>
+        <v>0.256029</v>
       </c>
       <c r="D83" t="n">
-        <v>0.20641</v>
+        <v>0.248947</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.206464</v>
+        <v>0.283631</v>
       </c>
       <c r="C84" t="n">
-        <v>0.209822</v>
+        <v>0.257212</v>
       </c>
       <c r="D84" t="n">
-        <v>0.207031</v>
+        <v>0.250127</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.208038</v>
+        <v>0.287104</v>
       </c>
       <c r="C85" t="n">
-        <v>0.211869</v>
+        <v>0.259313</v>
       </c>
       <c r="D85" t="n">
-        <v>0.207654</v>
+        <v>0.250243</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.210016</v>
+        <v>0.292379</v>
       </c>
       <c r="C86" t="n">
-        <v>0.214573</v>
+        <v>0.262064</v>
       </c>
       <c r="D86" t="n">
-        <v>0.208559</v>
+        <v>0.250728</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.212769</v>
+        <v>0.298542</v>
       </c>
       <c r="C87" t="n">
-        <v>0.218305</v>
+        <v>0.265282</v>
       </c>
       <c r="D87" t="n">
-        <v>0.209697</v>
+        <v>0.252526</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.216507</v>
+        <v>0.306867</v>
       </c>
       <c r="C88" t="n">
-        <v>0.223495</v>
+        <v>0.269951</v>
       </c>
       <c r="D88" t="n">
-        <v>0.211211</v>
+        <v>0.253341</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.221821</v>
+        <v>0.317342</v>
       </c>
       <c r="C89" t="n">
-        <v>0.231006</v>
+        <v>0.276389</v>
       </c>
       <c r="D89" t="n">
-        <v>0.213583</v>
+        <v>0.255784</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.229532</v>
+        <v>0.332376</v>
       </c>
       <c r="C90" t="n">
-        <v>0.240953</v>
+        <v>0.285781</v>
       </c>
       <c r="D90" t="n">
-        <v>0.216837</v>
+        <v>0.259212</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.241075</v>
+        <v>0.352717</v>
       </c>
       <c r="C91" t="n">
-        <v>0.255088</v>
+        <v>0.299304</v>
       </c>
       <c r="D91" t="n">
-        <v>0.221517</v>
+        <v>0.264161</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.258641</v>
+        <v>0.38126</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275379</v>
+        <v>0.318781</v>
       </c>
       <c r="D92" t="n">
-        <v>0.229128</v>
+        <v>0.272131</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.28644</v>
+        <v>0.421233</v>
       </c>
       <c r="C93" t="n">
-        <v>0.306991</v>
+        <v>0.348569</v>
       </c>
       <c r="D93" t="n">
-        <v>0.241745</v>
+        <v>0.28594</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.330025</v>
+        <v>0.476273</v>
       </c>
       <c r="C94" t="n">
-        <v>0.355154</v>
+        <v>0.393612</v>
       </c>
       <c r="D94" t="n">
-        <v>0.214166</v>
+        <v>0.258693</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.215095</v>
+        <v>0.28724</v>
       </c>
       <c r="C95" t="n">
-        <v>0.215962</v>
+        <v>0.266527</v>
       </c>
       <c r="D95" t="n">
-        <v>0.214593</v>
+        <v>0.259013</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.216077</v>
+        <v>0.288844</v>
       </c>
       <c r="C96" t="n">
-        <v>0.217262</v>
+        <v>0.267949</v>
       </c>
       <c r="D96" t="n">
-        <v>0.215241</v>
+        <v>0.260134</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.217257</v>
+        <v>0.291374</v>
       </c>
       <c r="C97" t="n">
-        <v>0.218625</v>
+        <v>0.269238</v>
       </c>
       <c r="D97" t="n">
-        <v>0.215774</v>
+        <v>0.259898</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.218665</v>
+        <v>0.293898</v>
       </c>
       <c r="C98" t="n">
-        <v>0.220397</v>
+        <v>0.271321</v>
       </c>
       <c r="D98" t="n">
-        <v>0.216517</v>
+        <v>0.260972</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.220359</v>
+        <v>0.297739</v>
       </c>
       <c r="C99" t="n">
-        <v>0.222699</v>
+        <v>0.272798</v>
       </c>
       <c r="D99" t="n">
-        <v>0.217151</v>
+        <v>0.261716</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.222559</v>
+        <v>0.302484</v>
       </c>
       <c r="C100" t="n">
-        <v>0.225756</v>
+        <v>0.275942</v>
       </c>
       <c r="D100" t="n">
-        <v>0.218264</v>
+        <v>0.263166</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.225529</v>
+        <v>0.308903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.229861</v>
+        <v>0.279222</v>
       </c>
       <c r="D101" t="n">
-        <v>0.219382</v>
+        <v>0.264024</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.229506</v>
+        <v>0.316725</v>
       </c>
       <c r="C102" t="n">
-        <v>0.235657</v>
+        <v>0.285002</v>
       </c>
       <c r="D102" t="n">
-        <v>0.22098</v>
+        <v>0.265454</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.235271</v>
+        <v>0.32779</v>
       </c>
       <c r="C103" t="n">
-        <v>0.243778</v>
+        <v>0.29184</v>
       </c>
       <c r="D103" t="n">
-        <v>0.223413</v>
+        <v>0.267759</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.243614</v>
+        <v>0.342693</v>
       </c>
       <c r="C104" t="n">
-        <v>0.255185</v>
+        <v>0.302191</v>
       </c>
       <c r="D104" t="n">
-        <v>0.226666</v>
+        <v>0.270758</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255461</v>
+        <v>0.363053</v>
       </c>
       <c r="C105" t="n">
-        <v>0.271046</v>
+        <v>0.316373</v>
       </c>
       <c r="D105" t="n">
-        <v>0.231696</v>
+        <v>0.275836</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274101</v>
+        <v>0.392059</v>
       </c>
       <c r="C106" t="n">
-        <v>0.293163</v>
+        <v>0.337887</v>
       </c>
       <c r="D106" t="n">
-        <v>0.239201</v>
+        <v>0.283608</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.302222</v>
+        <v>0.433176</v>
       </c>
       <c r="C107" t="n">
-        <v>0.325854</v>
+        <v>0.368428</v>
       </c>
       <c r="D107" t="n">
-        <v>0.251962</v>
+        <v>0.296377</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.345285</v>
+        <v>0.490702</v>
       </c>
       <c r="C108" t="n">
-        <v>0.373972</v>
+        <v>0.41729</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219278</v>
+        <v>0.265291</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.410248</v>
+        <v>0.585782</v>
       </c>
       <c r="C109" t="n">
-        <v>0.44166</v>
+        <v>0.492563</v>
       </c>
       <c r="D109" t="n">
-        <v>0.220084</v>
+        <v>0.266134</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.233175</v>
+        <v>0.29527</v>
       </c>
       <c r="C110" t="n">
-        <v>0.234269</v>
+        <v>0.288133</v>
       </c>
       <c r="D110" t="n">
-        <v>0.220965</v>
+        <v>0.267213</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.234165</v>
+        <v>0.298365</v>
       </c>
       <c r="C111" t="n">
-        <v>0.237881</v>
+        <v>0.292846</v>
       </c>
       <c r="D111" t="n">
-        <v>0.22165</v>
+        <v>0.26801</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.242317</v>
+        <v>0.302281</v>
       </c>
       <c r="C112" t="n">
-        <v>0.244492</v>
+        <v>0.298891</v>
       </c>
       <c r="D112" t="n">
-        <v>0.223287</v>
+        <v>0.269176</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.249475</v>
+        <v>0.307306</v>
       </c>
       <c r="C113" t="n">
-        <v>0.251784</v>
+        <v>0.305206</v>
       </c>
       <c r="D113" t="n">
-        <v>0.224699</v>
+        <v>0.271214</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.256386</v>
+        <v>0.313152</v>
       </c>
       <c r="C114" t="n">
-        <v>0.259357</v>
+        <v>0.312137</v>
       </c>
       <c r="D114" t="n">
-        <v>0.227874</v>
+        <v>0.273036</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.263496</v>
+        <v>0.321303</v>
       </c>
       <c r="C115" t="n">
-        <v>0.26806</v>
+        <v>0.320365</v>
       </c>
       <c r="D115" t="n">
-        <v>0.229987</v>
+        <v>0.276045</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.272047</v>
+        <v>0.332652</v>
       </c>
       <c r="C116" t="n">
-        <v>0.278216</v>
+        <v>0.330414</v>
       </c>
       <c r="D116" t="n">
-        <v>0.23331</v>
+        <v>0.279375</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.282029</v>
+        <v>0.346776</v>
       </c>
       <c r="C117" t="n">
-        <v>0.289924</v>
+        <v>0.340954</v>
       </c>
       <c r="D117" t="n">
-        <v>0.239163</v>
+        <v>0.283947</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.29406</v>
+        <v>0.365313</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303512</v>
+        <v>0.355241</v>
       </c>
       <c r="D118" t="n">
-        <v>0.245655</v>
+        <v>0.290438</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.304145</v>
+        <v>0.390677</v>
       </c>
       <c r="C119" t="n">
-        <v>0.31915</v>
+        <v>0.373242</v>
       </c>
       <c r="D119" t="n">
-        <v>0.253456</v>
+        <v>0.297952</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.329305</v>
+        <v>0.4244</v>
       </c>
       <c r="C120" t="n">
-        <v>0.344919</v>
+        <v>0.397957</v>
       </c>
       <c r="D120" t="n">
-        <v>0.266476</v>
+        <v>0.309778</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.359134</v>
+        <v>0.470437</v>
       </c>
       <c r="C121" t="n">
-        <v>0.374747</v>
+        <v>0.4319</v>
       </c>
       <c r="D121" t="n">
-        <v>0.283103</v>
+        <v>0.326364</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403148</v>
+        <v>0.534345</v>
       </c>
       <c r="C122" t="n">
-        <v>0.428421</v>
+        <v>0.484959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.30846</v>
+        <v>0.3537</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471035</v>
+        <v>0.621191</v>
       </c>
       <c r="C123" t="n">
-        <v>0.506572</v>
+        <v>0.570375</v>
       </c>
       <c r="D123" t="n">
-        <v>0.248594</v>
+        <v>0.295839</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.290387</v>
+        <v>0.328738</v>
       </c>
       <c r="C124" t="n">
-        <v>0.286535</v>
+        <v>0.343217</v>
       </c>
       <c r="D124" t="n">
-        <v>0.254076</v>
+        <v>0.2976</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.287229</v>
+        <v>0.33187</v>
       </c>
       <c r="C125" t="n">
-        <v>0.289188</v>
+        <v>0.344597</v>
       </c>
       <c r="D125" t="n">
-        <v>0.256051</v>
+        <v>0.301388</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.291136</v>
+        <v>0.338172</v>
       </c>
       <c r="C126" t="n">
-        <v>0.294969</v>
+        <v>0.351804</v>
       </c>
       <c r="D126" t="n">
-        <v>0.25927</v>
+        <v>0.304874</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.29725</v>
+        <v>0.347777</v>
       </c>
       <c r="C127" t="n">
-        <v>0.300181</v>
+        <v>0.356371</v>
       </c>
       <c r="D127" t="n">
-        <v>0.263131</v>
+        <v>0.311373</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.302458</v>
+        <v>0.355869</v>
       </c>
       <c r="C128" t="n">
-        <v>0.304431</v>
+        <v>0.36459</v>
       </c>
       <c r="D128" t="n">
-        <v>0.264692</v>
+        <v>0.311789</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.313057</v>
+        <v>0.362322</v>
       </c>
       <c r="C129" t="n">
-        <v>0.310464</v>
+        <v>0.370298</v>
       </c>
       <c r="D129" t="n">
-        <v>0.267997</v>
+        <v>0.315464</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.31351</v>
+        <v>0.373233</v>
       </c>
       <c r="C130" t="n">
-        <v>0.320935</v>
+        <v>0.37625</v>
       </c>
       <c r="D130" t="n">
-        <v>0.274148</v>
+        <v>0.319598</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.309922</v>
+        <v>0.387883</v>
       </c>
       <c r="C131" t="n">
-        <v>0.331603</v>
+        <v>0.389686</v>
       </c>
       <c r="D131" t="n">
-        <v>0.277689</v>
+        <v>0.325508</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.332929</v>
+        <v>0.408095</v>
       </c>
       <c r="C132" t="n">
-        <v>0.34582</v>
+        <v>0.404135</v>
       </c>
       <c r="D132" t="n">
-        <v>0.283954</v>
+        <v>0.329685</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.34877</v>
+        <v>0.431598</v>
       </c>
       <c r="C133" t="n">
-        <v>0.361887</v>
+        <v>0.421166</v>
       </c>
       <c r="D133" t="n">
-        <v>0.289325</v>
+        <v>0.337426</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.367707</v>
+        <v>0.462031</v>
       </c>
       <c r="C134" t="n">
-        <v>0.389628</v>
+        <v>0.444569</v>
       </c>
       <c r="D134" t="n">
-        <v>0.300868</v>
+        <v>0.349499</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.397775</v>
+        <v>0.510762</v>
       </c>
       <c r="C135" t="n">
-        <v>0.423499</v>
+        <v>0.48479</v>
       </c>
       <c r="D135" t="n">
-        <v>0.315273</v>
+        <v>0.365235</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.441543</v>
+        <v>0.5761810000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.473939</v>
+        <v>0.539189</v>
       </c>
       <c r="D136" t="n">
-        <v>0.337781</v>
+        <v>0.391041</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511507</v>
+        <v>0.667171</v>
       </c>
       <c r="C137" t="n">
-        <v>0.552766</v>
+        <v>0.623641</v>
       </c>
       <c r="D137" t="n">
-        <v>0.38776</v>
+        <v>0.43984</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.449702</v>
+        <v>0.489442</v>
       </c>
       <c r="C138" t="n">
-        <v>0.427474</v>
+        <v>0.489038</v>
       </c>
       <c r="D138" t="n">
-        <v>0.387902</v>
+        <v>0.443607</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.453971</v>
+        <v>0.501138</v>
       </c>
       <c r="C139" t="n">
-        <v>0.432742</v>
+        <v>0.497167</v>
       </c>
       <c r="D139" t="n">
-        <v>0.390751</v>
+        <v>0.439784</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.454913</v>
+        <v>0.512267</v>
       </c>
       <c r="C140" t="n">
-        <v>0.437964</v>
+        <v>0.501957</v>
       </c>
       <c r="D140" t="n">
-        <v>0.391597</v>
+        <v>0.451689</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.461598</v>
+        <v>0.515144</v>
       </c>
       <c r="C141" t="n">
-        <v>0.448305</v>
+        <v>0.515785</v>
       </c>
       <c r="D141" t="n">
-        <v>0.401133</v>
+        <v>0.453133</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.457119</v>
+        <v>0.529177</v>
       </c>
       <c r="C142" t="n">
-        <v>0.455847</v>
+        <v>0.5219</v>
       </c>
       <c r="D142" t="n">
-        <v>0.4047</v>
+        <v>0.451133</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.465654</v>
+        <v>0.5333830000000001</v>
       </c>
       <c r="C143" t="n">
-        <v>0.462849</v>
+        <v>0.527153</v>
       </c>
       <c r="D143" t="n">
-        <v>0.406481</v>
+        <v>0.460952</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.258904</v>
+        <v>0.260776</v>
       </c>
       <c r="C2" t="n">
-        <v>0.22402</v>
+        <v>0.224816</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220009</v>
+        <v>0.219879</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266285</v>
+        <v>0.268165</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225443</v>
+        <v>0.225676</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220672</v>
+        <v>0.220263</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.275915</v>
+        <v>0.278581</v>
       </c>
       <c r="C4" t="n">
-        <v>0.231011</v>
+        <v>0.231</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222429</v>
+        <v>0.222377</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.29118</v>
+        <v>0.294584</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240398</v>
+        <v>0.240651</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225713</v>
+        <v>0.225509</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313132</v>
+        <v>0.316585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.250834</v>
+        <v>0.251987</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229458</v>
+        <v>0.228883</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.347484</v>
+        <v>0.350616</v>
       </c>
       <c r="C7" t="n">
-        <v>0.274786</v>
+        <v>0.276459</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237579</v>
+        <v>0.237004</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.387468</v>
+        <v>0.391178</v>
       </c>
       <c r="C8" t="n">
-        <v>0.306896</v>
+        <v>0.309484</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252013</v>
+        <v>0.251766</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.43084</v>
+        <v>0.434381</v>
       </c>
       <c r="C9" t="n">
-        <v>0.360124</v>
+        <v>0.364313</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216267</v>
+        <v>0.216488</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241468</v>
+        <v>0.242001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213807</v>
+        <v>0.214343</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216143</v>
+        <v>0.216297</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242998</v>
+        <v>0.24348</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213987</v>
+        <v>0.214235</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216213</v>
+        <v>0.216382</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245127</v>
+        <v>0.245804</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215545</v>
+        <v>0.21559</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216823</v>
+        <v>0.216893</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.246946</v>
+        <v>0.247809</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216771</v>
+        <v>0.216847</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216875</v>
+        <v>0.216934</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.249919</v>
+        <v>0.250894</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218142</v>
+        <v>0.218091</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217269</v>
+        <v>0.217375</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.254229</v>
+        <v>0.255557</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220364</v>
+        <v>0.220462</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217939</v>
+        <v>0.217981</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259224</v>
+        <v>0.260721</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223037</v>
+        <v>0.22323</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218901</v>
+        <v>0.219136</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265806</v>
+        <v>0.267715</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226035</v>
+        <v>0.226187</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219922</v>
+        <v>0.219938</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27672</v>
+        <v>0.278872</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232586</v>
+        <v>0.232654</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221668</v>
+        <v>0.221585</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.29186</v>
+        <v>0.294297</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241666</v>
+        <v>0.241908</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224558</v>
+        <v>0.22448</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.313499</v>
+        <v>0.31658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252883</v>
+        <v>0.253601</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227649</v>
+        <v>0.227477</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.340057</v>
+        <v>0.343569</v>
       </c>
       <c r="C21" t="n">
-        <v>0.26926</v>
+        <v>0.270003</v>
       </c>
       <c r="D21" t="n">
-        <v>0.23401</v>
+        <v>0.233672</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.377062</v>
+        <v>0.380728</v>
       </c>
       <c r="C22" t="n">
-        <v>0.299217</v>
+        <v>0.300616</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246417</v>
+        <v>0.246142</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.423125</v>
+        <v>0.426487</v>
       </c>
       <c r="C23" t="n">
-        <v>0.345331</v>
+        <v>0.347837</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21602</v>
+        <v>0.216164</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245404</v>
+        <v>0.24577</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215045</v>
+        <v>0.215333</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216395</v>
+        <v>0.216612</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.246644</v>
+        <v>0.247195</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215388</v>
+        <v>0.215404</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216483</v>
+        <v>0.216594</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248333</v>
+        <v>0.248935</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216364</v>
+        <v>0.216228</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216956</v>
+        <v>0.216959</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250281</v>
+        <v>0.251003</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217137</v>
+        <v>0.217035</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217213</v>
+        <v>0.217263</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.253727</v>
+        <v>0.254557</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218915</v>
+        <v>0.218796</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217947</v>
+        <v>0.218008</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257489</v>
+        <v>0.258491</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220712</v>
+        <v>0.220721</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218381</v>
+        <v>0.218503</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262941</v>
+        <v>0.264251</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223414</v>
+        <v>0.223282</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219071</v>
+        <v>0.219266</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269217</v>
+        <v>0.270881</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227657</v>
+        <v>0.227543</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220156</v>
+        <v>0.220345</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279047</v>
+        <v>0.281242</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233357</v>
+        <v>0.233728</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222173</v>
+        <v>0.222299</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293056</v>
+        <v>0.295627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243141</v>
+        <v>0.243008</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225183</v>
+        <v>0.225398</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.311706</v>
+        <v>0.314626</v>
       </c>
       <c r="C34" t="n">
-        <v>0.255682</v>
+        <v>0.256547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229272</v>
+        <v>0.229419</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.336522</v>
+        <v>0.339728</v>
       </c>
       <c r="C35" t="n">
-        <v>0.272589</v>
+        <v>0.273146</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236343</v>
+        <v>0.236274</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.372337</v>
+        <v>0.375634</v>
       </c>
       <c r="C36" t="n">
-        <v>0.301155</v>
+        <v>0.302706</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248474</v>
+        <v>0.248416</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.41739</v>
+        <v>0.421502</v>
       </c>
       <c r="C37" t="n">
-        <v>0.341183</v>
+        <v>0.343231</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216204</v>
+        <v>0.216318</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246878</v>
+        <v>0.247242</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21624</v>
+        <v>0.216132</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216364</v>
+        <v>0.216461</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248375</v>
+        <v>0.248816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217029</v>
+        <v>0.217018</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217026</v>
+        <v>0.216807</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.249802</v>
+        <v>0.2503</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217883</v>
+        <v>0.217715</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217014</v>
+        <v>0.217087</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.251831</v>
+        <v>0.252519</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218927</v>
+        <v>0.218985</v>
       </c>
       <c r="D41" t="n">
-        <v>0.218172</v>
+        <v>0.217674</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254609</v>
+        <v>0.255395</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220906</v>
+        <v>0.220973</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218</v>
+        <v>0.218278</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.258614</v>
+        <v>0.259533</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222926</v>
+        <v>0.22278</v>
       </c>
       <c r="D43" t="n">
-        <v>0.218838</v>
+        <v>0.21896</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.263879</v>
+        <v>0.265115</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226217</v>
+        <v>0.226335</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219815</v>
+        <v>0.219788</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270873</v>
+        <v>0.272569</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229734</v>
+        <v>0.229701</v>
       </c>
       <c r="D45" t="n">
-        <v>0.220865</v>
+        <v>0.220953</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.27968</v>
+        <v>0.281621</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235912</v>
+        <v>0.236109</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222733</v>
+        <v>0.222981</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291618</v>
+        <v>0.294566</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244319</v>
+        <v>0.244522</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225628</v>
+        <v>0.225896</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.308924</v>
+        <v>0.311753</v>
       </c>
       <c r="C48" t="n">
-        <v>0.25451</v>
+        <v>0.25502</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229659</v>
+        <v>0.229875</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.332626</v>
+        <v>0.335652</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270308</v>
+        <v>0.271228</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23605</v>
+        <v>0.236377</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.363843</v>
+        <v>0.367285</v>
       </c>
       <c r="C50" t="n">
-        <v>0.294712</v>
+        <v>0.296215</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247162</v>
+        <v>0.247827</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.407924</v>
+        <v>0.411741</v>
       </c>
       <c r="C51" t="n">
-        <v>0.331537</v>
+        <v>0.335151</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218058</v>
+        <v>0.219112</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.460075</v>
+        <v>0.462029</v>
       </c>
       <c r="C52" t="n">
-        <v>0.384649</v>
+        <v>0.414496</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218173</v>
+        <v>0.218909</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.252528</v>
+        <v>0.251563</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22232</v>
+        <v>0.222328</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220132</v>
+        <v>0.219827</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.252971</v>
+        <v>0.253316</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221595</v>
+        <v>0.224413</v>
       </c>
       <c r="D54" t="n">
-        <v>0.21898</v>
+        <v>0.221187</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255462</v>
+        <v>0.255925</v>
       </c>
       <c r="C55" t="n">
-        <v>0.223263</v>
+        <v>0.225415</v>
       </c>
       <c r="D55" t="n">
-        <v>0.21973</v>
+        <v>0.222169</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259026</v>
+        <v>0.258721</v>
       </c>
       <c r="C56" t="n">
-        <v>0.224466</v>
+        <v>0.225418</v>
       </c>
       <c r="D56" t="n">
-        <v>0.220418</v>
+        <v>0.220769</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.2626</v>
+        <v>0.262691</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226557</v>
+        <v>0.227273</v>
       </c>
       <c r="D57" t="n">
-        <v>0.220961</v>
+        <v>0.221555</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.26641</v>
+        <v>0.267639</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229393</v>
+        <v>0.230455</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221969</v>
+        <v>0.223303</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272614</v>
+        <v>0.273893</v>
       </c>
       <c r="C59" t="n">
-        <v>0.232682</v>
+        <v>0.233178</v>
       </c>
       <c r="D59" t="n">
-        <v>0.222954</v>
+        <v>0.223317</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.28107</v>
+        <v>0.282057</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237235</v>
+        <v>0.237218</v>
       </c>
       <c r="D60" t="n">
-        <v>0.224475</v>
+        <v>0.22457</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.292422</v>
+        <v>0.294312</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243652</v>
+        <v>0.244382</v>
       </c>
       <c r="D61" t="n">
-        <v>0.226674</v>
+        <v>0.227193</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.307906</v>
+        <v>0.310998</v>
       </c>
       <c r="C62" t="n">
-        <v>0.253962</v>
+        <v>0.254286</v>
       </c>
       <c r="D62" t="n">
-        <v>0.229932</v>
+        <v>0.230217</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.329238</v>
+        <v>0.332592</v>
       </c>
       <c r="C63" t="n">
-        <v>0.268233</v>
+        <v>0.268156</v>
       </c>
       <c r="D63" t="n">
-        <v>0.235439</v>
+        <v>0.235702</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.35947</v>
+        <v>0.361417</v>
       </c>
       <c r="C64" t="n">
-        <v>0.291378</v>
+        <v>0.291075</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244661</v>
+        <v>0.24512</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.40215</v>
+        <v>0.403555</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32563</v>
+        <v>0.341379</v>
       </c>
       <c r="D65" t="n">
-        <v>0.261447</v>
+        <v>0.261176</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.455327</v>
+        <v>0.456298</v>
       </c>
       <c r="C66" t="n">
-        <v>0.377896</v>
+        <v>0.402543</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23054</v>
+        <v>0.230143</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.261897</v>
+        <v>0.2626</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234132</v>
+        <v>0.234973</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230296</v>
+        <v>0.23114</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.261271</v>
+        <v>0.264529</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236495</v>
+        <v>0.237386</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23188</v>
+        <v>0.232943</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.266249</v>
+        <v>0.266271</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237097</v>
+        <v>0.238422</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231279</v>
+        <v>0.231647</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.267225</v>
+        <v>0.270054</v>
       </c>
       <c r="C70" t="n">
-        <v>0.236933</v>
+        <v>0.240886</v>
       </c>
       <c r="D70" t="n">
-        <v>0.232386</v>
+        <v>0.233463</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271655</v>
+        <v>0.273904</v>
       </c>
       <c r="C71" t="n">
-        <v>0.238631</v>
+        <v>0.240666</v>
       </c>
       <c r="D71" t="n">
-        <v>0.232497</v>
+        <v>0.2322</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.276584</v>
+        <v>0.275636</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243016</v>
+        <v>0.246521</v>
       </c>
       <c r="D72" t="n">
-        <v>0.234676</v>
+        <v>0.236785</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283552</v>
+        <v>0.284588</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245812</v>
+        <v>0.248318</v>
       </c>
       <c r="D73" t="n">
-        <v>0.234492</v>
+        <v>0.236069</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.291041</v>
+        <v>0.293139</v>
       </c>
       <c r="C74" t="n">
-        <v>0.254705</v>
+        <v>0.251553</v>
       </c>
       <c r="D74" t="n">
-        <v>0.239719</v>
+        <v>0.237377</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.301246</v>
+        <v>0.303387</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259556</v>
+        <v>0.26013</v>
       </c>
       <c r="D75" t="n">
-        <v>0.239884</v>
+        <v>0.240604</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318742</v>
+        <v>0.320078</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267085</v>
+        <v>0.280821</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242438</v>
+        <v>0.24267</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.338471</v>
+        <v>0.34194</v>
       </c>
       <c r="C77" t="n">
-        <v>0.282182</v>
+        <v>0.283283</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248913</v>
+        <v>0.247957</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.366211</v>
+        <v>0.371122</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302558</v>
+        <v>0.304013</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255859</v>
+        <v>0.255741</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.410001</v>
+        <v>0.410991</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333465</v>
+        <v>0.334252</v>
       </c>
       <c r="D79" t="n">
-        <v>0.272123</v>
+        <v>0.270509</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465838</v>
+        <v>0.468108</v>
       </c>
       <c r="C80" t="n">
-        <v>0.387845</v>
+        <v>0.390285</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247483</v>
+        <v>0.248088</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277113</v>
+        <v>0.27754</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253463</v>
+        <v>0.25378</v>
       </c>
       <c r="D81" t="n">
-        <v>0.248092</v>
+        <v>0.2482</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.278934</v>
+        <v>0.27921</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254362</v>
+        <v>0.254714</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248168</v>
+        <v>0.248391</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.280986</v>
+        <v>0.281588</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256029</v>
+        <v>0.25622</v>
       </c>
       <c r="D83" t="n">
-        <v>0.248947</v>
+        <v>0.249125</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.283631</v>
+        <v>0.284481</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257212</v>
+        <v>0.25725</v>
       </c>
       <c r="D84" t="n">
-        <v>0.250127</v>
+        <v>0.249512</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287104</v>
+        <v>0.287708</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259313</v>
+        <v>0.259719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250243</v>
+        <v>0.250071</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292379</v>
+        <v>0.292723</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262064</v>
+        <v>0.261883</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250728</v>
+        <v>0.250639</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298542</v>
+        <v>0.299253</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265282</v>
+        <v>0.26487</v>
       </c>
       <c r="D87" t="n">
-        <v>0.252526</v>
+        <v>0.252086</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.306867</v>
+        <v>0.30784</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269951</v>
+        <v>0.269513</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253341</v>
+        <v>0.253447</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.317342</v>
+        <v>0.319163</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276389</v>
+        <v>0.276462</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255784</v>
+        <v>0.255599</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.332376</v>
+        <v>0.333651</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285781</v>
+        <v>0.286142</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259212</v>
+        <v>0.259206</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352717</v>
+        <v>0.355136</v>
       </c>
       <c r="C91" t="n">
-        <v>0.299304</v>
+        <v>0.299464</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264161</v>
+        <v>0.263981</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.38126</v>
+        <v>0.383444</v>
       </c>
       <c r="C92" t="n">
-        <v>0.318781</v>
+        <v>0.319398</v>
       </c>
       <c r="D92" t="n">
-        <v>0.272131</v>
+        <v>0.272875</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421233</v>
+        <v>0.42368</v>
       </c>
       <c r="C93" t="n">
-        <v>0.348569</v>
+        <v>0.348762</v>
       </c>
       <c r="D93" t="n">
-        <v>0.28594</v>
+        <v>0.286008</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.476273</v>
+        <v>0.500852</v>
       </c>
       <c r="C94" t="n">
-        <v>0.393612</v>
+        <v>0.41733</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258693</v>
+        <v>0.258288</v>
       </c>
     </row>
     <row r="95">
@@ -4550,10 +4550,10 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.28724</v>
+        <v>0.287088</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266527</v>
+        <v>0.266269</v>
       </c>
       <c r="D95" t="n">
         <v>0.259013</v>
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288844</v>
+        <v>0.288749</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267949</v>
+        <v>0.2676</v>
       </c>
       <c r="D96" t="n">
-        <v>0.260134</v>
+        <v>0.259301</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291374</v>
+        <v>0.291178</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269238</v>
+        <v>0.268943</v>
       </c>
       <c r="D97" t="n">
-        <v>0.259898</v>
+        <v>0.260476</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.293898</v>
+        <v>0.294143</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271321</v>
+        <v>0.265852</v>
       </c>
       <c r="D98" t="n">
-        <v>0.260972</v>
+        <v>0.260793</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.297739</v>
+        <v>0.297978</v>
       </c>
       <c r="C99" t="n">
-        <v>0.272798</v>
+        <v>0.268541</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261716</v>
+        <v>0.26145</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.302484</v>
+        <v>0.302936</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275942</v>
+        <v>0.275699</v>
       </c>
       <c r="D100" t="n">
-        <v>0.263166</v>
+        <v>0.259668</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308903</v>
+        <v>0.309713</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279222</v>
+        <v>0.274511</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264024</v>
+        <v>0.260698</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.316725</v>
+        <v>0.321015</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285002</v>
+        <v>0.2842</v>
       </c>
       <c r="D102" t="n">
-        <v>0.265454</v>
+        <v>0.265052</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.32779</v>
+        <v>0.328551</v>
       </c>
       <c r="C103" t="n">
-        <v>0.29184</v>
+        <v>0.291331</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267759</v>
+        <v>0.263772</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.342693</v>
+        <v>0.343865</v>
       </c>
       <c r="C104" t="n">
-        <v>0.302191</v>
+        <v>0.301599</v>
       </c>
       <c r="D104" t="n">
-        <v>0.270758</v>
+        <v>0.270987</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.363053</v>
+        <v>0.364242</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316373</v>
+        <v>0.315597</v>
       </c>
       <c r="D105" t="n">
-        <v>0.275836</v>
+        <v>0.275545</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.392059</v>
+        <v>0.393026</v>
       </c>
       <c r="C106" t="n">
-        <v>0.337887</v>
+        <v>0.350185</v>
       </c>
       <c r="D106" t="n">
-        <v>0.283608</v>
+        <v>0.283407</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.433176</v>
+        <v>0.435012</v>
       </c>
       <c r="C107" t="n">
-        <v>0.368428</v>
+        <v>0.384779</v>
       </c>
       <c r="D107" t="n">
-        <v>0.296377</v>
+        <v>0.296426</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.490702</v>
+        <v>0.494174</v>
       </c>
       <c r="C108" t="n">
-        <v>0.41729</v>
+        <v>0.434611</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265291</v>
+        <v>0.265002</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.585782</v>
+        <v>0.5807600000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>0.492563</v>
+        <v>0.513051</v>
       </c>
       <c r="D109" t="n">
-        <v>0.266134</v>
+        <v>0.265563</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29527</v>
+        <v>0.29503</v>
       </c>
       <c r="C110" t="n">
-        <v>0.288133</v>
+        <v>0.287474</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267213</v>
+        <v>0.266377</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298365</v>
+        <v>0.297822</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292846</v>
+        <v>0.292075</v>
       </c>
       <c r="D111" t="n">
-        <v>0.26801</v>
+        <v>0.267117</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302281</v>
+        <v>0.301767</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298891</v>
+        <v>0.298068</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269176</v>
+        <v>0.269121</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307306</v>
+        <v>0.30621</v>
       </c>
       <c r="C113" t="n">
-        <v>0.305206</v>
+        <v>0.3046</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271214</v>
+        <v>0.270222</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.313152</v>
+        <v>0.31242</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312137</v>
+        <v>0.311906</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273036</v>
+        <v>0.272789</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321303</v>
+        <v>0.320605</v>
       </c>
       <c r="C115" t="n">
-        <v>0.320365</v>
+        <v>0.317996</v>
       </c>
       <c r="D115" t="n">
-        <v>0.276045</v>
+        <v>0.274517</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332652</v>
+        <v>0.332053</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330414</v>
+        <v>0.329848</v>
       </c>
       <c r="D116" t="n">
-        <v>0.279375</v>
+        <v>0.278949</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.346776</v>
+        <v>0.346587</v>
       </c>
       <c r="C117" t="n">
-        <v>0.340954</v>
+        <v>0.340961</v>
       </c>
       <c r="D117" t="n">
-        <v>0.283947</v>
+        <v>0.283269</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365313</v>
+        <v>0.366343</v>
       </c>
       <c r="C118" t="n">
-        <v>0.355241</v>
+        <v>0.355658</v>
       </c>
       <c r="D118" t="n">
-        <v>0.290438</v>
+        <v>0.288058</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.390677</v>
+        <v>0.392005</v>
       </c>
       <c r="C119" t="n">
-        <v>0.373242</v>
+        <v>0.373987</v>
       </c>
       <c r="D119" t="n">
-        <v>0.297952</v>
+        <v>0.297562</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.4244</v>
+        <v>0.426618</v>
       </c>
       <c r="C120" t="n">
-        <v>0.397957</v>
+        <v>0.398575</v>
       </c>
       <c r="D120" t="n">
-        <v>0.309778</v>
+        <v>0.310003</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.470437</v>
+        <v>0.47375</v>
       </c>
       <c r="C121" t="n">
-        <v>0.4319</v>
+        <v>0.433825</v>
       </c>
       <c r="D121" t="n">
-        <v>0.326364</v>
+        <v>0.326836</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.534345</v>
+        <v>0.540145</v>
       </c>
       <c r="C122" t="n">
-        <v>0.484959</v>
+        <v>0.488601</v>
       </c>
       <c r="D122" t="n">
-        <v>0.3537</v>
+        <v>0.354604</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.621191</v>
+        <v>0.6250599999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.570375</v>
+        <v>0.572626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.295839</v>
+        <v>0.294471</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.328738</v>
+        <v>0.325895</v>
       </c>
       <c r="C124" t="n">
-        <v>0.343217</v>
+        <v>0.337538</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2976</v>
+        <v>0.297347</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.33187</v>
+        <v>0.332113</v>
       </c>
       <c r="C125" t="n">
-        <v>0.344597</v>
+        <v>0.342886</v>
       </c>
       <c r="D125" t="n">
-        <v>0.301388</v>
+        <v>0.302037</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.338172</v>
+        <v>0.337001</v>
       </c>
       <c r="C126" t="n">
-        <v>0.351804</v>
+        <v>0.350588</v>
       </c>
       <c r="D126" t="n">
-        <v>0.304874</v>
+        <v>0.305405</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.347777</v>
+        <v>0.344251</v>
       </c>
       <c r="C127" t="n">
-        <v>0.356371</v>
+        <v>0.352101</v>
       </c>
       <c r="D127" t="n">
-        <v>0.311373</v>
+        <v>0.307203</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.355869</v>
+        <v>0.352271</v>
       </c>
       <c r="C128" t="n">
-        <v>0.36459</v>
+        <v>0.361032</v>
       </c>
       <c r="D128" t="n">
-        <v>0.311789</v>
+        <v>0.309669</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362322</v>
+        <v>0.363249</v>
       </c>
       <c r="C129" t="n">
-        <v>0.370298</v>
+        <v>0.367933</v>
       </c>
       <c r="D129" t="n">
-        <v>0.315464</v>
+        <v>0.314478</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.373233</v>
+        <v>0.373856</v>
       </c>
       <c r="C130" t="n">
-        <v>0.37625</v>
+        <v>0.375605</v>
       </c>
       <c r="D130" t="n">
-        <v>0.319598</v>
+        <v>0.31901</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.387883</v>
+        <v>0.388258</v>
       </c>
       <c r="C131" t="n">
-        <v>0.389686</v>
+        <v>0.388256</v>
       </c>
       <c r="D131" t="n">
-        <v>0.325508</v>
+        <v>0.323301</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.408095</v>
+        <v>0.411163</v>
       </c>
       <c r="C132" t="n">
-        <v>0.404135</v>
+        <v>0.401897</v>
       </c>
       <c r="D132" t="n">
-        <v>0.329685</v>
+        <v>0.329506</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431598</v>
+        <v>0.429456</v>
       </c>
       <c r="C133" t="n">
-        <v>0.421166</v>
+        <v>0.417526</v>
       </c>
       <c r="D133" t="n">
-        <v>0.337426</v>
+        <v>0.334829</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462031</v>
+        <v>0.465901</v>
       </c>
       <c r="C134" t="n">
-        <v>0.444569</v>
+        <v>0.442745</v>
       </c>
       <c r="D134" t="n">
-        <v>0.349499</v>
+        <v>0.34933</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.510762</v>
+        <v>0.508848</v>
       </c>
       <c r="C135" t="n">
-        <v>0.48479</v>
+        <v>0.480287</v>
       </c>
       <c r="D135" t="n">
-        <v>0.365235</v>
+        <v>0.362843</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5761810000000001</v>
+        <v>0.572287</v>
       </c>
       <c r="C136" t="n">
-        <v>0.539189</v>
+        <v>0.537191</v>
       </c>
       <c r="D136" t="n">
-        <v>0.391041</v>
+        <v>0.388293</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.667171</v>
+        <v>0.667197</v>
       </c>
       <c r="C137" t="n">
-        <v>0.623641</v>
+        <v>0.643494</v>
       </c>
       <c r="D137" t="n">
-        <v>0.43984</v>
+        <v>0.43294</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.489442</v>
+        <v>0.488587</v>
       </c>
       <c r="C138" t="n">
-        <v>0.489038</v>
+        <v>0.483074</v>
       </c>
       <c r="D138" t="n">
-        <v>0.443607</v>
+        <v>0.438649</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.501138</v>
+        <v>0.492875</v>
       </c>
       <c r="C139" t="n">
-        <v>0.497167</v>
+        <v>0.495092</v>
       </c>
       <c r="D139" t="n">
-        <v>0.439784</v>
+        <v>0.4452</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.512267</v>
+        <v>0.494805</v>
       </c>
       <c r="C140" t="n">
-        <v>0.501957</v>
+        <v>0.489062</v>
       </c>
       <c r="D140" t="n">
-        <v>0.451689</v>
+        <v>0.452319</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.515144</v>
+        <v>0.500208</v>
       </c>
       <c r="C141" t="n">
-        <v>0.515785</v>
+        <v>0.505279</v>
       </c>
       <c r="D141" t="n">
-        <v>0.453133</v>
+        <v>0.435774</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.529177</v>
+        <v>0.514566</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5219</v>
+        <v>0.498452</v>
       </c>
       <c r="D142" t="n">
-        <v>0.451133</v>
+        <v>0.455158</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5333830000000001</v>
+        <v>0.5356</v>
       </c>
       <c r="C143" t="n">
-        <v>0.527153</v>
+        <v>0.5221519999999999</v>
       </c>
       <c r="D143" t="n">
-        <v>0.460952</v>
+        <v>0.462258</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260776</v>
+        <v>0.260616</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224816</v>
+        <v>0.224088</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219879</v>
+        <v>0.219761</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268165</v>
+        <v>0.268195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225676</v>
+        <v>0.225798</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220263</v>
+        <v>0.220356</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278581</v>
+        <v>0.278517</v>
       </c>
       <c r="C4" t="n">
-        <v>0.231</v>
+        <v>0.23102</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222377</v>
+        <v>0.222399</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294584</v>
+        <v>0.294549</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240651</v>
+        <v>0.240706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225509</v>
+        <v>0.22555</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.316585</v>
+        <v>0.31655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251987</v>
+        <v>0.251831</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228883</v>
+        <v>0.228958</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.350616</v>
+        <v>0.3508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.276459</v>
+        <v>0.275983</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237004</v>
+        <v>0.236986</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.391178</v>
+        <v>0.391177</v>
       </c>
       <c r="C8" t="n">
-        <v>0.309484</v>
+        <v>0.309319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.251766</v>
+        <v>0.25181</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.434381</v>
+        <v>0.434517</v>
       </c>
       <c r="C9" t="n">
-        <v>0.364313</v>
+        <v>0.364197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216488</v>
+        <v>0.216364</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.242001</v>
+        <v>0.241992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214343</v>
+        <v>0.214068</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216297</v>
+        <v>0.216388</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.24348</v>
+        <v>0.243445</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214235</v>
+        <v>0.214295</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216382</v>
+        <v>0.216415</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245804</v>
+        <v>0.245887</v>
       </c>
       <c r="C12" t="n">
-        <v>0.21559</v>
+        <v>0.215724</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216893</v>
+        <v>0.216966</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247809</v>
+        <v>0.247871</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216847</v>
+        <v>0.216871</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216934</v>
+        <v>0.216954</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250894</v>
+        <v>0.250947</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218091</v>
+        <v>0.218318</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217375</v>
+        <v>0.21742</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.255557</v>
+        <v>0.255477</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220462</v>
+        <v>0.220526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217981</v>
+        <v>0.218039</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260721</v>
+        <v>0.260734</v>
       </c>
       <c r="C16" t="n">
-        <v>0.22323</v>
+        <v>0.223299</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219136</v>
+        <v>0.218999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267715</v>
+        <v>0.26773</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226187</v>
+        <v>0.226381</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219938</v>
+        <v>0.219903</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278872</v>
+        <v>0.278782</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232654</v>
+        <v>0.23286</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221585</v>
+        <v>0.221624</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294297</v>
+        <v>0.294305</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241908</v>
+        <v>0.24191</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22448</v>
+        <v>0.224512</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.31658</v>
+        <v>0.316376</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253601</v>
+        <v>0.253815</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227477</v>
+        <v>0.227787</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.343569</v>
+        <v>0.343288</v>
       </c>
       <c r="C21" t="n">
-        <v>0.270003</v>
+        <v>0.27018</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233672</v>
+        <v>0.233734</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.380728</v>
+        <v>0.380549</v>
       </c>
       <c r="C22" t="n">
-        <v>0.300616</v>
+        <v>0.300919</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246142</v>
+        <v>0.246096</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.426487</v>
+        <v>0.426776</v>
       </c>
       <c r="C23" t="n">
-        <v>0.347837</v>
+        <v>0.347791</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216164</v>
+        <v>0.216122</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.24577</v>
+        <v>0.245765</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215333</v>
+        <v>0.21509</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216612</v>
+        <v>0.216789</v>
       </c>
     </row>
     <row r="25">
@@ -3570,10 +3570,10 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.247195</v>
+        <v>0.247253</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215404</v>
+        <v>0.215371</v>
       </c>
       <c r="D25" t="n">
         <v>0.216594</v>
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248935</v>
+        <v>0.248853</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216228</v>
+        <v>0.216284</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216959</v>
+        <v>0.21694</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.251003</v>
+        <v>0.251014</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217035</v>
+        <v>0.217192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217263</v>
+        <v>0.217255</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254557</v>
+        <v>0.254584</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218796</v>
+        <v>0.21901</v>
       </c>
       <c r="D28" t="n">
-        <v>0.218008</v>
+        <v>0.2181</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.258491</v>
+        <v>0.25842</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220721</v>
+        <v>0.220893</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218503</v>
+        <v>0.218494</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264251</v>
+        <v>0.264187</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223282</v>
+        <v>0.223615</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219266</v>
+        <v>0.219376</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270881</v>
+        <v>0.270823</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227543</v>
+        <v>0.227861</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220345</v>
+        <v>0.220551</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281242</v>
+        <v>0.281112</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233728</v>
+        <v>0.233827</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222299</v>
+        <v>0.222456</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.295627</v>
+        <v>0.295496</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243008</v>
+        <v>0.243528</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225398</v>
+        <v>0.225475</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314626</v>
+        <v>0.314497</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256547</v>
+        <v>0.256596</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229419</v>
+        <v>0.229525</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.339728</v>
+        <v>0.339805</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273146</v>
+        <v>0.273471</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236274</v>
+        <v>0.236427</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.375634</v>
+        <v>0.375673</v>
       </c>
       <c r="C36" t="n">
-        <v>0.302706</v>
+        <v>0.303281</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248416</v>
+        <v>0.248543</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.421502</v>
+        <v>0.421768</v>
       </c>
       <c r="C37" t="n">
-        <v>0.343231</v>
+        <v>0.343249</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216318</v>
+        <v>0.216455</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247242</v>
+        <v>0.247248</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216132</v>
+        <v>0.216443</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216461</v>
+        <v>0.216713</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248816</v>
+        <v>0.248867</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217018</v>
+        <v>0.217164</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216807</v>
+        <v>0.216993</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.2503</v>
+        <v>0.250339</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217715</v>
+        <v>0.217871</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217087</v>
+        <v>0.217232</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252519</v>
+        <v>0.252526</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218985</v>
+        <v>0.219116</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217674</v>
+        <v>0.217734</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.255395</v>
+        <v>0.255366</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220973</v>
+        <v>0.220928</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218278</v>
+        <v>0.21839</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.259533</v>
+        <v>0.259489</v>
       </c>
       <c r="C43" t="n">
-        <v>0.22278</v>
+        <v>0.22288</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21896</v>
+        <v>0.219093</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265115</v>
+        <v>0.265101</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226335</v>
+        <v>0.226178</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219788</v>
+        <v>0.220045</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272569</v>
+        <v>0.27245</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229701</v>
+        <v>0.229794</v>
       </c>
       <c r="D45" t="n">
-        <v>0.220953</v>
+        <v>0.221096</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.281621</v>
+        <v>0.281552</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236109</v>
+        <v>0.236663</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222981</v>
+        <v>0.223401</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.294566</v>
+        <v>0.293857</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244522</v>
+        <v>0.246709</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225896</v>
+        <v>0.227469</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.311753</v>
+        <v>0.311611</v>
       </c>
       <c r="C48" t="n">
-        <v>0.25502</v>
+        <v>0.256044</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229875</v>
+        <v>0.230382</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335652</v>
+        <v>0.335563</v>
       </c>
       <c r="C49" t="n">
-        <v>0.271228</v>
+        <v>0.271255</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236377</v>
+        <v>0.236457</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.367285</v>
+        <v>0.367178</v>
       </c>
       <c r="C50" t="n">
-        <v>0.296215</v>
+        <v>0.29649</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247827</v>
+        <v>0.247731</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.411741</v>
+        <v>0.411624</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335151</v>
+        <v>0.335076</v>
       </c>
       <c r="D51" t="n">
-        <v>0.219112</v>
+        <v>0.218228</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.462029</v>
+        <v>0.461626</v>
       </c>
       <c r="C52" t="n">
-        <v>0.414496</v>
+        <v>0.389108</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218909</v>
+        <v>0.218107</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251563</v>
+        <v>0.25145</v>
       </c>
       <c r="C53" t="n">
-        <v>0.222328</v>
+        <v>0.22241</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219827</v>
+        <v>0.220217</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.253316</v>
+        <v>0.253955</v>
       </c>
       <c r="C54" t="n">
-        <v>0.224413</v>
+        <v>0.223997</v>
       </c>
       <c r="D54" t="n">
-        <v>0.221187</v>
+        <v>0.221172</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255925</v>
+        <v>0.256391</v>
       </c>
       <c r="C55" t="n">
-        <v>0.225415</v>
+        <v>0.224552</v>
       </c>
       <c r="D55" t="n">
-        <v>0.222169</v>
+        <v>0.221254</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258721</v>
+        <v>0.259934</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225418</v>
+        <v>0.22522</v>
       </c>
       <c r="D56" t="n">
-        <v>0.220769</v>
+        <v>0.221099</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262691</v>
+        <v>0.262862</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227273</v>
+        <v>0.226221</v>
       </c>
       <c r="D57" t="n">
-        <v>0.221555</v>
+        <v>0.220932</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.267639</v>
+        <v>0.269636</v>
       </c>
       <c r="C58" t="n">
-        <v>0.230455</v>
+        <v>0.228784</v>
       </c>
       <c r="D58" t="n">
-        <v>0.223303</v>
+        <v>0.221892</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273893</v>
+        <v>0.273908</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233178</v>
+        <v>0.232832</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223317</v>
+        <v>0.223261</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282057</v>
+        <v>0.282198</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237218</v>
+        <v>0.238442</v>
       </c>
       <c r="D60" t="n">
-        <v>0.22457</v>
+        <v>0.225249</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294312</v>
+        <v>0.294284</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244382</v>
+        <v>0.244887</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227193</v>
+        <v>0.227379</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.310998</v>
+        <v>0.310267</v>
       </c>
       <c r="C62" t="n">
-        <v>0.254286</v>
+        <v>0.254891</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230217</v>
+        <v>0.230548</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.332592</v>
+        <v>0.332779</v>
       </c>
       <c r="C63" t="n">
-        <v>0.268156</v>
+        <v>0.269123</v>
       </c>
       <c r="D63" t="n">
-        <v>0.235702</v>
+        <v>0.236195</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.361417</v>
+        <v>0.362562</v>
       </c>
       <c r="C64" t="n">
-        <v>0.291075</v>
+        <v>0.292022</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24512</v>
+        <v>0.245436</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.403555</v>
+        <v>0.404848</v>
       </c>
       <c r="C65" t="n">
-        <v>0.341379</v>
+        <v>0.345862</v>
       </c>
       <c r="D65" t="n">
-        <v>0.261176</v>
+        <v>0.261941</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.456298</v>
+        <v>0.45847</v>
       </c>
       <c r="C66" t="n">
-        <v>0.402543</v>
+        <v>0.381703</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230143</v>
+        <v>0.230075</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.2626</v>
+        <v>0.26134</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234973</v>
+        <v>0.236028</v>
       </c>
       <c r="D67" t="n">
-        <v>0.23114</v>
+        <v>0.231817</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264529</v>
+        <v>0.26565</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237386</v>
+        <v>0.236689</v>
       </c>
       <c r="D68" t="n">
-        <v>0.232943</v>
+        <v>0.230934</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.266271</v>
+        <v>0.267107</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238422</v>
+        <v>0.237738</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231647</v>
+        <v>0.231401</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.270054</v>
+        <v>0.270268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240886</v>
+        <v>0.239999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.233463</v>
+        <v>0.234096</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.273904</v>
+        <v>0.271623</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240666</v>
+        <v>0.242471</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2322</v>
+        <v>0.234604</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275636</v>
+        <v>0.278047</v>
       </c>
       <c r="C72" t="n">
-        <v>0.246521</v>
+        <v>0.245193</v>
       </c>
       <c r="D72" t="n">
-        <v>0.236785</v>
+        <v>0.234852</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.284588</v>
+        <v>0.284925</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248318</v>
+        <v>0.248644</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236069</v>
+        <v>0.235551</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.293139</v>
+        <v>0.291518</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251553</v>
+        <v>0.253111</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237377</v>
+        <v>0.237475</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.303387</v>
+        <v>0.304262</v>
       </c>
       <c r="C75" t="n">
-        <v>0.26013</v>
+        <v>0.260392</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240604</v>
+        <v>0.240521</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.320078</v>
+        <v>0.31981</v>
       </c>
       <c r="C76" t="n">
-        <v>0.280821</v>
+        <v>0.268653</v>
       </c>
       <c r="D76" t="n">
-        <v>0.24267</v>
+        <v>0.242891</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.34194</v>
+        <v>0.340721</v>
       </c>
       <c r="C77" t="n">
-        <v>0.283283</v>
+        <v>0.281951</v>
       </c>
       <c r="D77" t="n">
-        <v>0.247957</v>
+        <v>0.247131</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.371122</v>
+        <v>0.368931</v>
       </c>
       <c r="C78" t="n">
-        <v>0.304013</v>
+        <v>0.302785</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255741</v>
+        <v>0.255603</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.410991</v>
+        <v>0.413854</v>
       </c>
       <c r="C79" t="n">
-        <v>0.334252</v>
+        <v>0.33313</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270509</v>
+        <v>0.270324</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.468108</v>
+        <v>0.463581</v>
       </c>
       <c r="C80" t="n">
-        <v>0.390285</v>
+        <v>0.408036</v>
       </c>
       <c r="D80" t="n">
-        <v>0.248088</v>
+        <v>0.247542</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.27754</v>
+        <v>0.277388</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25378</v>
+        <v>0.25369</v>
       </c>
       <c r="D81" t="n">
-        <v>0.2482</v>
+        <v>0.248008</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.27921</v>
+        <v>0.279058</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254714</v>
+        <v>0.254608</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248391</v>
+        <v>0.248192</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281588</v>
+        <v>0.281402</v>
       </c>
       <c r="C83" t="n">
-        <v>0.25622</v>
+        <v>0.256565</v>
       </c>
       <c r="D83" t="n">
-        <v>0.249125</v>
+        <v>0.248729</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284481</v>
+        <v>0.284497</v>
       </c>
       <c r="C84" t="n">
-        <v>0.25725</v>
+        <v>0.257705</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249512</v>
+        <v>0.249069</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287708</v>
+        <v>0.287981</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259719</v>
+        <v>0.259454</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250071</v>
+        <v>0.249828</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292723</v>
+        <v>0.292717</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261883</v>
+        <v>0.262111</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250639</v>
+        <v>0.251416</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299253</v>
+        <v>0.299373</v>
       </c>
       <c r="C87" t="n">
-        <v>0.26487</v>
+        <v>0.265382</v>
       </c>
       <c r="D87" t="n">
-        <v>0.252086</v>
+        <v>0.251919</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30784</v>
+        <v>0.307842</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269513</v>
+        <v>0.270341</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253447</v>
+        <v>0.253526</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.319163</v>
+        <v>0.319043</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276462</v>
+        <v>0.285852</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255599</v>
+        <v>0.255545</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.333651</v>
+        <v>0.33506</v>
       </c>
       <c r="C90" t="n">
-        <v>0.286142</v>
+        <v>0.286514</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259206</v>
+        <v>0.259647</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.355136</v>
+        <v>0.355358</v>
       </c>
       <c r="C91" t="n">
-        <v>0.299464</v>
+        <v>0.300025</v>
       </c>
       <c r="D91" t="n">
-        <v>0.263981</v>
+        <v>0.264464</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.383444</v>
+        <v>0.384471</v>
       </c>
       <c r="C92" t="n">
-        <v>0.319398</v>
+        <v>0.319431</v>
       </c>
       <c r="D92" t="n">
-        <v>0.272875</v>
+        <v>0.272527</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.42368</v>
+        <v>0.42473</v>
       </c>
       <c r="C93" t="n">
-        <v>0.348762</v>
+        <v>0.366641</v>
       </c>
       <c r="D93" t="n">
-        <v>0.286008</v>
+        <v>0.28657</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.500852</v>
+        <v>0.489462</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41733</v>
+        <v>0.39599</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258288</v>
+        <v>0.258975</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287088</v>
+        <v>0.287561</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266269</v>
+        <v>0.266782</v>
       </c>
       <c r="D95" t="n">
-        <v>0.259013</v>
+        <v>0.259475</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288749</v>
+        <v>0.289598</v>
       </c>
       <c r="C96" t="n">
-        <v>0.2676</v>
+        <v>0.267864</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259301</v>
+        <v>0.25735</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291178</v>
+        <v>0.291467</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268943</v>
+        <v>0.269363</v>
       </c>
       <c r="D97" t="n">
-        <v>0.260476</v>
+        <v>0.260472</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294143</v>
+        <v>0.295027</v>
       </c>
       <c r="C98" t="n">
-        <v>0.265852</v>
+        <v>0.271099</v>
       </c>
       <c r="D98" t="n">
-        <v>0.260793</v>
+        <v>0.26097</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.297978</v>
+        <v>0.298616</v>
       </c>
       <c r="C99" t="n">
-        <v>0.268541</v>
+        <v>0.272849</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26145</v>
+        <v>0.261997</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.302936</v>
+        <v>0.303804</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275699</v>
+        <v>0.271937</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259668</v>
+        <v>0.260301</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309713</v>
+        <v>0.310177</v>
       </c>
       <c r="C101" t="n">
-        <v>0.274511</v>
+        <v>0.275288</v>
       </c>
       <c r="D101" t="n">
-        <v>0.260698</v>
+        <v>0.261606</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.321015</v>
+        <v>0.31835</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2842</v>
+        <v>0.281021</v>
       </c>
       <c r="D102" t="n">
-        <v>0.265052</v>
+        <v>0.263083</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.328551</v>
+        <v>0.329749</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291331</v>
+        <v>0.291454</v>
       </c>
       <c r="D103" t="n">
-        <v>0.263772</v>
+        <v>0.268129</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.343865</v>
+        <v>0.344453</v>
       </c>
       <c r="C104" t="n">
-        <v>0.301599</v>
+        <v>0.302577</v>
       </c>
       <c r="D104" t="n">
-        <v>0.270987</v>
+        <v>0.271525</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.364242</v>
+        <v>0.365293</v>
       </c>
       <c r="C105" t="n">
-        <v>0.315597</v>
+        <v>0.316416</v>
       </c>
       <c r="D105" t="n">
-        <v>0.275545</v>
+        <v>0.276284</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.393026</v>
+        <v>0.394355</v>
       </c>
       <c r="C106" t="n">
-        <v>0.350185</v>
+        <v>0.338697</v>
       </c>
       <c r="D106" t="n">
-        <v>0.283407</v>
+        <v>0.284493</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.435012</v>
+        <v>0.435735</v>
       </c>
       <c r="C107" t="n">
-        <v>0.384779</v>
+        <v>0.368719</v>
       </c>
       <c r="D107" t="n">
-        <v>0.296426</v>
+        <v>0.297199</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.494174</v>
+        <v>0.493645</v>
       </c>
       <c r="C108" t="n">
-        <v>0.434611</v>
+        <v>0.4188</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265002</v>
+        <v>0.265107</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5807600000000001</v>
+        <v>0.566266</v>
       </c>
       <c r="C109" t="n">
-        <v>0.513051</v>
+        <v>0.517463</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265563</v>
+        <v>0.265962</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29503</v>
+        <v>0.295889</v>
       </c>
       <c r="C110" t="n">
-        <v>0.287474</v>
+        <v>0.286933</v>
       </c>
       <c r="D110" t="n">
-        <v>0.266377</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.297822</v>
+        <v>0.298642</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292075</v>
+        <v>0.293028</v>
       </c>
       <c r="D111" t="n">
-        <v>0.267117</v>
+        <v>0.26813</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.301767</v>
+        <v>0.302156</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298068</v>
+        <v>0.298441</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269121</v>
+        <v>0.269423</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.30621</v>
+        <v>0.307029</v>
       </c>
       <c r="C113" t="n">
-        <v>0.3046</v>
+        <v>0.302743</v>
       </c>
       <c r="D113" t="n">
-        <v>0.270222</v>
+        <v>0.270496</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.31242</v>
+        <v>0.313136</v>
       </c>
       <c r="C114" t="n">
-        <v>0.311906</v>
+        <v>0.310105</v>
       </c>
       <c r="D114" t="n">
-        <v>0.272789</v>
+        <v>0.272681</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320605</v>
+        <v>0.321105</v>
       </c>
       <c r="C115" t="n">
-        <v>0.317996</v>
+        <v>0.320528</v>
       </c>
       <c r="D115" t="n">
-        <v>0.274517</v>
+        <v>0.275665</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332053</v>
+        <v>0.332614</v>
       </c>
       <c r="C116" t="n">
-        <v>0.329848</v>
+        <v>0.330329</v>
       </c>
       <c r="D116" t="n">
-        <v>0.278949</v>
+        <v>0.279218</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.346587</v>
+        <v>0.34744</v>
       </c>
       <c r="C117" t="n">
-        <v>0.340961</v>
+        <v>0.341514</v>
       </c>
       <c r="D117" t="n">
-        <v>0.283269</v>
+        <v>0.283838</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.366343</v>
+        <v>0.36676</v>
       </c>
       <c r="C118" t="n">
-        <v>0.355658</v>
+        <v>0.355856</v>
       </c>
       <c r="D118" t="n">
-        <v>0.288058</v>
+        <v>0.290054</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.392005</v>
+        <v>0.392567</v>
       </c>
       <c r="C119" t="n">
-        <v>0.373987</v>
+        <v>0.373721</v>
       </c>
       <c r="D119" t="n">
-        <v>0.297562</v>
+        <v>0.29826</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.426618</v>
+        <v>0.426803</v>
       </c>
       <c r="C120" t="n">
-        <v>0.398575</v>
+        <v>0.398813</v>
       </c>
       <c r="D120" t="n">
-        <v>0.310003</v>
+        <v>0.310133</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.47375</v>
+        <v>0.473537</v>
       </c>
       <c r="C121" t="n">
-        <v>0.433825</v>
+        <v>0.440524</v>
       </c>
       <c r="D121" t="n">
-        <v>0.326836</v>
+        <v>0.327368</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.540145</v>
+        <v>0.538344</v>
       </c>
       <c r="C122" t="n">
-        <v>0.488601</v>
+        <v>0.48711</v>
       </c>
       <c r="D122" t="n">
-        <v>0.354604</v>
+        <v>0.354843</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6250599999999999</v>
+        <v>0.6259400000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.572626</v>
+        <v>0.5956050000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.294471</v>
+        <v>0.294407</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.325895</v>
+        <v>0.326153</v>
       </c>
       <c r="C124" t="n">
-        <v>0.337538</v>
+        <v>0.337708</v>
       </c>
       <c r="D124" t="n">
-        <v>0.297347</v>
+        <v>0.297593</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.332113</v>
+        <v>0.331875</v>
       </c>
       <c r="C125" t="n">
-        <v>0.342886</v>
+        <v>0.343673</v>
       </c>
       <c r="D125" t="n">
-        <v>0.302037</v>
+        <v>0.301968</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337001</v>
+        <v>0.336996</v>
       </c>
       <c r="C126" t="n">
-        <v>0.350588</v>
+        <v>0.348469</v>
       </c>
       <c r="D126" t="n">
-        <v>0.305405</v>
+        <v>0.302899</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.344251</v>
+        <v>0.344252</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352101</v>
+        <v>0.355862</v>
       </c>
       <c r="D127" t="n">
-        <v>0.307203</v>
+        <v>0.308396</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.352271</v>
+        <v>0.355052</v>
       </c>
       <c r="C128" t="n">
-        <v>0.361032</v>
+        <v>0.359232</v>
       </c>
       <c r="D128" t="n">
-        <v>0.309669</v>
+        <v>0.312281</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.363249</v>
+        <v>0.362002</v>
       </c>
       <c r="C129" t="n">
-        <v>0.367933</v>
+        <v>0.367905</v>
       </c>
       <c r="D129" t="n">
-        <v>0.314478</v>
+        <v>0.315023</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.373856</v>
+        <v>0.373604</v>
       </c>
       <c r="C130" t="n">
-        <v>0.375605</v>
+        <v>0.379539</v>
       </c>
       <c r="D130" t="n">
-        <v>0.31901</v>
+        <v>0.318596</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.388258</v>
+        <v>0.386511</v>
       </c>
       <c r="C131" t="n">
-        <v>0.388256</v>
+        <v>0.386305</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323301</v>
+        <v>0.322864</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.411163</v>
+        <v>0.407112</v>
       </c>
       <c r="C132" t="n">
-        <v>0.401897</v>
+        <v>0.401294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.329506</v>
+        <v>0.328664</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.429456</v>
+        <v>0.431806</v>
       </c>
       <c r="C133" t="n">
-        <v>0.417526</v>
+        <v>0.420439</v>
       </c>
       <c r="D133" t="n">
-        <v>0.334829</v>
+        <v>0.336887</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.465901</v>
+        <v>0.462461</v>
       </c>
       <c r="C134" t="n">
-        <v>0.442745</v>
+        <v>0.444425</v>
       </c>
       <c r="D134" t="n">
-        <v>0.34933</v>
+        <v>0.346722</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.508848</v>
+        <v>0.508762</v>
       </c>
       <c r="C135" t="n">
-        <v>0.480287</v>
+        <v>0.479582</v>
       </c>
       <c r="D135" t="n">
-        <v>0.362843</v>
+        <v>0.361209</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.572287</v>
+        <v>0.58553</v>
       </c>
       <c r="C136" t="n">
-        <v>0.537191</v>
+        <v>0.53664</v>
       </c>
       <c r="D136" t="n">
-        <v>0.388293</v>
+        <v>0.385378</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.667197</v>
+        <v>0.667123</v>
       </c>
       <c r="C137" t="n">
-        <v>0.643494</v>
+        <v>0.621569</v>
       </c>
       <c r="D137" t="n">
-        <v>0.43294</v>
+        <v>0.434843</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.488587</v>
+        <v>0.481284</v>
       </c>
       <c r="C138" t="n">
-        <v>0.483074</v>
+        <v>0.489779</v>
       </c>
       <c r="D138" t="n">
-        <v>0.438649</v>
+        <v>0.438458</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.492875</v>
+        <v>0.500901</v>
       </c>
       <c r="C139" t="n">
-        <v>0.495092</v>
+        <v>0.496364</v>
       </c>
       <c r="D139" t="n">
-        <v>0.4452</v>
+        <v>0.43681</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.494805</v>
+        <v>0.501359</v>
       </c>
       <c r="C140" t="n">
-        <v>0.489062</v>
+        <v>0.502467</v>
       </c>
       <c r="D140" t="n">
-        <v>0.452319</v>
+        <v>0.435382</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.500208</v>
+        <v>0.514089</v>
       </c>
       <c r="C141" t="n">
-        <v>0.505279</v>
+        <v>0.501795</v>
       </c>
       <c r="D141" t="n">
-        <v>0.435774</v>
+        <v>0.438991</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.514566</v>
+        <v>0.519</v>
       </c>
       <c r="C142" t="n">
-        <v>0.498452</v>
+        <v>0.5094880000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.455158</v>
+        <v>0.447728</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.5356</v>
+        <v>0.518476</v>
       </c>
       <c r="C143" t="n">
-        <v>0.5221519999999999</v>
+        <v>0.51719</v>
       </c>
       <c r="D143" t="n">
-        <v>0.462258</v>
+        <v>0.446657</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260616</v>
+        <v>0.260757</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224088</v>
+        <v>0.224144</v>
       </c>
       <c r="D2" t="n">
-        <v>0.219761</v>
+        <v>0.220009</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268195</v>
+        <v>0.268125</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225798</v>
+        <v>0.225642</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220356</v>
+        <v>0.220395</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278517</v>
+        <v>0.278538</v>
       </c>
       <c r="C4" t="n">
-        <v>0.23102</v>
+        <v>0.231343</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222399</v>
+        <v>0.222075</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294549</v>
+        <v>0.294337</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240706</v>
+        <v>0.240658</v>
       </c>
       <c r="D5" t="n">
-        <v>0.22555</v>
+        <v>0.225487</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31655</v>
+        <v>0.316622</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251831</v>
+        <v>0.251951</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228958</v>
+        <v>0.228846</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.3508</v>
+        <v>0.350607</v>
       </c>
       <c r="C7" t="n">
-        <v>0.275983</v>
+        <v>0.276068</v>
       </c>
       <c r="D7" t="n">
-        <v>0.236986</v>
+        <v>0.237157</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.391177</v>
+        <v>0.391157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.309319</v>
+        <v>0.309307</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25181</v>
+        <v>0.252183</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.434517</v>
+        <v>0.434563</v>
       </c>
       <c r="C9" t="n">
-        <v>0.364197</v>
+        <v>0.365635</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216364</v>
+        <v>0.216374</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241992</v>
+        <v>0.241844</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214068</v>
+        <v>0.213895</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216388</v>
+        <v>0.216729</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243445</v>
+        <v>0.243309</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214295</v>
+        <v>0.214291</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216415</v>
+        <v>0.21629</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245887</v>
+        <v>0.245706</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215724</v>
+        <v>0.215475</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216966</v>
+        <v>0.21683</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247871</v>
+        <v>0.247664</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216871</v>
+        <v>0.216776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216954</v>
+        <v>0.216819</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250947</v>
+        <v>0.25076</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218318</v>
+        <v>0.217987</v>
       </c>
       <c r="D14" t="n">
-        <v>0.21742</v>
+        <v>0.217512</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.255477</v>
+        <v>0.255264</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220526</v>
+        <v>0.220416</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218039</v>
+        <v>0.217878</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260734</v>
+        <v>0.260447</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223299</v>
+        <v>0.223105</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218999</v>
+        <v>0.218917</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26773</v>
+        <v>0.267523</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226381</v>
+        <v>0.226167</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219903</v>
+        <v>0.219821</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278782</v>
+        <v>0.278646</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23286</v>
+        <v>0.232583</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221624</v>
+        <v>0.221524</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294305</v>
+        <v>0.294075</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24191</v>
+        <v>0.241839</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224512</v>
+        <v>0.224329</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.316376</v>
+        <v>0.316173</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253815</v>
+        <v>0.253459</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227787</v>
+        <v>0.227462</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.343288</v>
+        <v>0.343125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.27018</v>
+        <v>0.269868</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233734</v>
+        <v>0.233428</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.380549</v>
+        <v>0.380343</v>
       </c>
       <c r="C22" t="n">
-        <v>0.300919</v>
+        <v>0.30014</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246096</v>
+        <v>0.245825</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.426776</v>
+        <v>0.426304</v>
       </c>
       <c r="C23" t="n">
-        <v>0.347791</v>
+        <v>0.347711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216122</v>
+        <v>0.21607</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245765</v>
+        <v>0.245592</v>
       </c>
       <c r="C24" t="n">
-        <v>0.21509</v>
+        <v>0.214951</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216789</v>
+        <v>0.216629</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.247253</v>
+        <v>0.247093</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215371</v>
+        <v>0.215199</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216594</v>
+        <v>0.216432</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248853</v>
+        <v>0.248694</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216284</v>
+        <v>0.216064</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21694</v>
+        <v>0.216757</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.251014</v>
+        <v>0.250793</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217192</v>
+        <v>0.217311</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217255</v>
+        <v>0.21719</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254584</v>
+        <v>0.254354</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21901</v>
+        <v>0.218689</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2181</v>
+        <v>0.217895</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.25842</v>
+        <v>0.258301</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220893</v>
+        <v>0.221168</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218494</v>
+        <v>0.218212</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264187</v>
+        <v>0.264011</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223615</v>
+        <v>0.223195</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219376</v>
+        <v>0.219281</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270823</v>
+        <v>0.270631</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227861</v>
+        <v>0.227645</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220551</v>
+        <v>0.220207</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281112</v>
+        <v>0.281003</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233827</v>
+        <v>0.233496</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222456</v>
+        <v>0.222059</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.295496</v>
+        <v>0.295194</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243528</v>
+        <v>0.242951</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225475</v>
+        <v>0.225207</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314497</v>
+        <v>0.314171</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256596</v>
+        <v>0.256153</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229525</v>
+        <v>0.229286</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.339805</v>
+        <v>0.3392</v>
       </c>
       <c r="C35" t="n">
-        <v>0.273471</v>
+        <v>0.2739</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236427</v>
+        <v>0.236291</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.375673</v>
+        <v>0.374854</v>
       </c>
       <c r="C36" t="n">
-        <v>0.303281</v>
+        <v>0.302634</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248543</v>
+        <v>0.248334</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.421768</v>
+        <v>0.42069</v>
       </c>
       <c r="C37" t="n">
-        <v>0.343249</v>
+        <v>0.34299</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216455</v>
+        <v>0.216414</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247248</v>
+        <v>0.24718</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216443</v>
+        <v>0.216111</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216713</v>
+        <v>0.216411</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248867</v>
+        <v>0.248851</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217164</v>
+        <v>0.216583</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216993</v>
+        <v>0.216828</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.250339</v>
+        <v>0.250305</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217871</v>
+        <v>0.217311</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217232</v>
+        <v>0.21705</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252526</v>
+        <v>0.252541</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219116</v>
+        <v>0.21845</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217734</v>
+        <v>0.217504</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.255366</v>
+        <v>0.255376</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220928</v>
+        <v>0.22036</v>
       </c>
       <c r="D42" t="n">
-        <v>0.21839</v>
+        <v>0.218047</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.259489</v>
+        <v>0.25924</v>
       </c>
       <c r="C43" t="n">
-        <v>0.22288</v>
+        <v>0.222235</v>
       </c>
       <c r="D43" t="n">
-        <v>0.219093</v>
+        <v>0.218784</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265101</v>
+        <v>0.264898</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226178</v>
+        <v>0.225935</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220045</v>
+        <v>0.219832</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27245</v>
+        <v>0.272195</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229794</v>
+        <v>0.228803</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221096</v>
+        <v>0.22071</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.281552</v>
+        <v>0.281401</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236663</v>
+        <v>0.236979</v>
       </c>
       <c r="D46" t="n">
-        <v>0.223401</v>
+        <v>0.224052</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.293857</v>
+        <v>0.293662</v>
       </c>
       <c r="C47" t="n">
-        <v>0.246709</v>
+        <v>0.245133</v>
       </c>
       <c r="D47" t="n">
-        <v>0.227469</v>
+        <v>0.226926</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.311611</v>
+        <v>0.311398</v>
       </c>
       <c r="C48" t="n">
-        <v>0.256044</v>
+        <v>0.254436</v>
       </c>
       <c r="D48" t="n">
-        <v>0.230382</v>
+        <v>0.229377</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335563</v>
+        <v>0.335501</v>
       </c>
       <c r="C49" t="n">
-        <v>0.271255</v>
+        <v>0.270789</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236457</v>
+        <v>0.23626</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.367178</v>
+        <v>0.367137</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29649</v>
+        <v>0.310963</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247731</v>
+        <v>0.247586</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.411624</v>
+        <v>0.411602</v>
       </c>
       <c r="C51" t="n">
-        <v>0.335076</v>
+        <v>0.334768</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218228</v>
+        <v>0.217466</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.461626</v>
+        <v>0.462689</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389108</v>
+        <v>0.389445</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218107</v>
+        <v>0.218063</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.25145</v>
+        <v>0.251181</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22241</v>
+        <v>0.219912</v>
       </c>
       <c r="D53" t="n">
-        <v>0.220217</v>
+        <v>0.218566</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.253955</v>
+        <v>0.253076</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223997</v>
+        <v>0.220759</v>
       </c>
       <c r="D54" t="n">
-        <v>0.221172</v>
+        <v>0.218987</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256391</v>
+        <v>0.256103</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224552</v>
+        <v>0.22265</v>
       </c>
       <c r="D55" t="n">
-        <v>0.221254</v>
+        <v>0.219507</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259934</v>
+        <v>0.259326</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22522</v>
+        <v>0.223557</v>
       </c>
       <c r="D56" t="n">
-        <v>0.221099</v>
+        <v>0.219906</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262862</v>
+        <v>0.262351</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226221</v>
+        <v>0.226472</v>
       </c>
       <c r="D57" t="n">
-        <v>0.220932</v>
+        <v>0.221338</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.269636</v>
+        <v>0.267465</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228784</v>
+        <v>0.229345</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221892</v>
+        <v>0.222092</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273908</v>
+        <v>0.273475</v>
       </c>
       <c r="C59" t="n">
-        <v>0.232832</v>
+        <v>0.231922</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223261</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282198</v>
+        <v>0.282484</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238442</v>
+        <v>0.238079</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225249</v>
+        <v>0.225679</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294284</v>
+        <v>0.293922</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244887</v>
+        <v>0.245828</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227379</v>
+        <v>0.228181</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.310267</v>
+        <v>0.310774</v>
       </c>
       <c r="C62" t="n">
-        <v>0.254891</v>
+        <v>0.254822</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230548</v>
+        <v>0.230289</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.332779</v>
+        <v>0.33115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.269123</v>
+        <v>0.26878</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236195</v>
+        <v>0.236051</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.362562</v>
+        <v>0.361548</v>
       </c>
       <c r="C64" t="n">
-        <v>0.292022</v>
+        <v>0.291659</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245436</v>
+        <v>0.244612</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.404848</v>
+        <v>0.405887</v>
       </c>
       <c r="C65" t="n">
-        <v>0.345862</v>
+        <v>0.326274</v>
       </c>
       <c r="D65" t="n">
-        <v>0.261941</v>
+        <v>0.261786</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.45847</v>
+        <v>0.481153</v>
       </c>
       <c r="C66" t="n">
-        <v>0.381703</v>
+        <v>0.382032</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230075</v>
+        <v>0.228547</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26134</v>
+        <v>0.261702</v>
       </c>
       <c r="C67" t="n">
-        <v>0.236028</v>
+        <v>0.235184</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231817</v>
+        <v>0.232726</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.26565</v>
+        <v>0.263567</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236689</v>
+        <v>0.234002</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230934</v>
+        <v>0.230065</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.267107</v>
+        <v>0.265067</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237738</v>
+        <v>0.237326</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231401</v>
+        <v>0.231985</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.270268</v>
+        <v>0.268555</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239999</v>
+        <v>0.238106</v>
       </c>
       <c r="D70" t="n">
-        <v>0.234096</v>
+        <v>0.23283</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271623</v>
+        <v>0.276352</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242471</v>
+        <v>0.240062</v>
       </c>
       <c r="D71" t="n">
-        <v>0.234604</v>
+        <v>0.232394</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278047</v>
+        <v>0.275802</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245193</v>
+        <v>0.241927</v>
       </c>
       <c r="D72" t="n">
-        <v>0.234852</v>
+        <v>0.232831</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.284925</v>
+        <v>0.283174</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248644</v>
+        <v>0.245896</v>
       </c>
       <c r="D73" t="n">
-        <v>0.235551</v>
+        <v>0.235215</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.291518</v>
+        <v>0.291058</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253111</v>
+        <v>0.251003</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237475</v>
+        <v>0.236832</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.304262</v>
+        <v>0.303162</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260392</v>
+        <v>0.257936</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240521</v>
+        <v>0.239361</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.31981</v>
+        <v>0.317888</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268653</v>
+        <v>0.267595</v>
       </c>
       <c r="D76" t="n">
-        <v>0.242891</v>
+        <v>0.241861</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.340721</v>
+        <v>0.353728</v>
       </c>
       <c r="C77" t="n">
-        <v>0.281951</v>
+        <v>0.281544</v>
       </c>
       <c r="D77" t="n">
-        <v>0.247131</v>
+        <v>0.246341</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368931</v>
+        <v>0.37119</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302785</v>
+        <v>0.302386</v>
       </c>
       <c r="D78" t="n">
-        <v>0.255603</v>
+        <v>0.254263</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.413854</v>
+        <v>0.411522</v>
       </c>
       <c r="C79" t="n">
-        <v>0.33313</v>
+        <v>0.333662</v>
       </c>
       <c r="D79" t="n">
-        <v>0.270324</v>
+        <v>0.269502</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.463581</v>
+        <v>0.486305</v>
       </c>
       <c r="C80" t="n">
-        <v>0.408036</v>
+        <v>0.385301</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247542</v>
+        <v>0.248016</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277388</v>
+        <v>0.283377</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25369</v>
+        <v>0.253421</v>
       </c>
       <c r="D81" t="n">
-        <v>0.248008</v>
+        <v>0.248252</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.279058</v>
+        <v>0.284866</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254608</v>
+        <v>0.254805</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248192</v>
+        <v>0.248434</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281402</v>
+        <v>0.282367</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256565</v>
+        <v>0.255633</v>
       </c>
       <c r="D83" t="n">
-        <v>0.248729</v>
+        <v>0.249011</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284497</v>
+        <v>0.284288</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257705</v>
+        <v>0.257578</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249069</v>
+        <v>0.249082</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287981</v>
+        <v>0.294646</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259454</v>
+        <v>0.259224</v>
       </c>
       <c r="D85" t="n">
-        <v>0.249828</v>
+        <v>0.250048</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292717</v>
+        <v>0.299773</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262111</v>
+        <v>0.261874</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251416</v>
+        <v>0.250583</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299373</v>
+        <v>0.303624</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265382</v>
+        <v>0.265099</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251919</v>
+        <v>0.251505</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.307842</v>
+        <v>0.313871</v>
       </c>
       <c r="C88" t="n">
-        <v>0.270341</v>
+        <v>0.269966</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253526</v>
+        <v>0.253399</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.319043</v>
+        <v>0.322283</v>
       </c>
       <c r="C89" t="n">
-        <v>0.285852</v>
+        <v>0.277023</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255545</v>
+        <v>0.255164</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.33506</v>
+        <v>0.336255</v>
       </c>
       <c r="C90" t="n">
-        <v>0.286514</v>
+        <v>0.286428</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259647</v>
+        <v>0.258771</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.355358</v>
+        <v>0.365952</v>
       </c>
       <c r="C91" t="n">
-        <v>0.300025</v>
+        <v>0.300154</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264464</v>
+        <v>0.264016</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.384471</v>
+        <v>0.391292</v>
       </c>
       <c r="C92" t="n">
-        <v>0.319431</v>
+        <v>0.319947</v>
       </c>
       <c r="D92" t="n">
-        <v>0.272527</v>
+        <v>0.272654</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.42473</v>
+        <v>0.433486</v>
       </c>
       <c r="C93" t="n">
-        <v>0.366641</v>
+        <v>0.365517</v>
       </c>
       <c r="D93" t="n">
-        <v>0.28657</v>
+        <v>0.286085</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.489462</v>
+        <v>0.502586</v>
       </c>
       <c r="C94" t="n">
-        <v>0.39599</v>
+        <v>0.39904</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258975</v>
+        <v>0.258366</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287561</v>
+        <v>0.288327</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266782</v>
+        <v>0.26606</v>
       </c>
       <c r="D95" t="n">
-        <v>0.259475</v>
+        <v>0.25872</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.289598</v>
+        <v>0.296021</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267864</v>
+        <v>0.267612</v>
       </c>
       <c r="D96" t="n">
-        <v>0.25735</v>
+        <v>0.259096</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291467</v>
+        <v>0.295811</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269363</v>
+        <v>0.268827</v>
       </c>
       <c r="D97" t="n">
-        <v>0.260472</v>
+        <v>0.259762</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.295027</v>
+        <v>0.30554</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271099</v>
+        <v>0.270333</v>
       </c>
       <c r="D98" t="n">
-        <v>0.26097</v>
+        <v>0.260759</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298616</v>
+        <v>0.304592</v>
       </c>
       <c r="C99" t="n">
-        <v>0.272849</v>
+        <v>0.27296</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261997</v>
+        <v>0.261609</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.303804</v>
+        <v>0.309754</v>
       </c>
       <c r="C100" t="n">
-        <v>0.271937</v>
+        <v>0.275595</v>
       </c>
       <c r="D100" t="n">
-        <v>0.260301</v>
+        <v>0.262826</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.310177</v>
+        <v>0.309915</v>
       </c>
       <c r="C101" t="n">
-        <v>0.275288</v>
+        <v>0.280211</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261606</v>
+        <v>0.263756</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.31835</v>
+        <v>0.324299</v>
       </c>
       <c r="C102" t="n">
-        <v>0.281021</v>
+        <v>0.285148</v>
       </c>
       <c r="D102" t="n">
-        <v>0.263083</v>
+        <v>0.26555</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.329749</v>
+        <v>0.337808</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291454</v>
+        <v>0.293227</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268129</v>
+        <v>0.268003</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.344453</v>
+        <v>0.354048</v>
       </c>
       <c r="C104" t="n">
-        <v>0.302577</v>
+        <v>0.303135</v>
       </c>
       <c r="D104" t="n">
-        <v>0.271525</v>
+        <v>0.271167</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.365293</v>
+        <v>0.383179</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316416</v>
+        <v>0.316963</v>
       </c>
       <c r="D105" t="n">
-        <v>0.276284</v>
+        <v>0.27632</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.394355</v>
+        <v>0.409907</v>
       </c>
       <c r="C106" t="n">
-        <v>0.338697</v>
+        <v>0.351489</v>
       </c>
       <c r="D106" t="n">
-        <v>0.284493</v>
+        <v>0.2845</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.435735</v>
+        <v>0.44994</v>
       </c>
       <c r="C107" t="n">
-        <v>0.368719</v>
+        <v>0.379787</v>
       </c>
       <c r="D107" t="n">
-        <v>0.297199</v>
+        <v>0.29779</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.493645</v>
+        <v>0.497892</v>
       </c>
       <c r="C108" t="n">
-        <v>0.4188</v>
+        <v>0.441785</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265107</v>
+        <v>0.265372</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.566266</v>
+        <v>0.587863</v>
       </c>
       <c r="C109" t="n">
-        <v>0.517463</v>
+        <v>0.523798</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265962</v>
+        <v>0.266148</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295889</v>
+        <v>0.30636</v>
       </c>
       <c r="C110" t="n">
-        <v>0.286933</v>
+        <v>0.289001</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267</v>
+        <v>0.26708</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298642</v>
+        <v>0.306954</v>
       </c>
       <c r="C111" t="n">
-        <v>0.293028</v>
+        <v>0.294441</v>
       </c>
       <c r="D111" t="n">
-        <v>0.26813</v>
+        <v>0.267962</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302156</v>
+        <v>0.313121</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298441</v>
+        <v>0.300625</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269423</v>
+        <v>0.269548</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307029</v>
+        <v>0.312005</v>
       </c>
       <c r="C113" t="n">
-        <v>0.302743</v>
+        <v>0.307458</v>
       </c>
       <c r="D113" t="n">
-        <v>0.270496</v>
+        <v>0.271196</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.313136</v>
+        <v>0.324029</v>
       </c>
       <c r="C114" t="n">
-        <v>0.310105</v>
+        <v>0.315378</v>
       </c>
       <c r="D114" t="n">
-        <v>0.272681</v>
+        <v>0.273554</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321105</v>
+        <v>0.328727</v>
       </c>
       <c r="C115" t="n">
-        <v>0.320528</v>
+        <v>0.33054</v>
       </c>
       <c r="D115" t="n">
-        <v>0.275665</v>
+        <v>0.276143</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332614</v>
+        <v>0.338811</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330329</v>
+        <v>0.334137</v>
       </c>
       <c r="D116" t="n">
-        <v>0.279218</v>
+        <v>0.280345</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.34744</v>
+        <v>0.352179</v>
       </c>
       <c r="C117" t="n">
-        <v>0.341514</v>
+        <v>0.345875</v>
       </c>
       <c r="D117" t="n">
-        <v>0.283838</v>
+        <v>0.285349</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.36676</v>
+        <v>0.372855</v>
       </c>
       <c r="C118" t="n">
-        <v>0.355856</v>
+        <v>0.360963</v>
       </c>
       <c r="D118" t="n">
-        <v>0.290054</v>
+        <v>0.292052</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.392567</v>
+        <v>0.410609</v>
       </c>
       <c r="C119" t="n">
-        <v>0.373721</v>
+        <v>0.379537</v>
       </c>
       <c r="D119" t="n">
-        <v>0.29826</v>
+        <v>0.300826</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.426803</v>
+        <v>0.445954</v>
       </c>
       <c r="C120" t="n">
-        <v>0.398813</v>
+        <v>0.404941</v>
       </c>
       <c r="D120" t="n">
-        <v>0.310133</v>
+        <v>0.312135</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.473537</v>
+        <v>0.505201</v>
       </c>
       <c r="C121" t="n">
-        <v>0.440524</v>
+        <v>0.441279</v>
       </c>
       <c r="D121" t="n">
-        <v>0.327368</v>
+        <v>0.330091</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.538344</v>
+        <v>0.5573050000000001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.48711</v>
+        <v>0.495999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.354843</v>
+        <v>0.358374</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6259400000000001</v>
+        <v>0.667892</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5956050000000001</v>
+        <v>0.584106</v>
       </c>
       <c r="D123" t="n">
-        <v>0.294407</v>
+        <v>0.302212</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.326153</v>
+        <v>0.339394</v>
       </c>
       <c r="C124" t="n">
-        <v>0.337708</v>
+        <v>0.348198</v>
       </c>
       <c r="D124" t="n">
-        <v>0.297593</v>
+        <v>0.304438</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.331875</v>
+        <v>0.34139</v>
       </c>
       <c r="C125" t="n">
-        <v>0.343673</v>
+        <v>0.351722</v>
       </c>
       <c r="D125" t="n">
-        <v>0.301968</v>
+        <v>0.306105</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336996</v>
+        <v>0.352779</v>
       </c>
       <c r="C126" t="n">
-        <v>0.348469</v>
+        <v>0.355862</v>
       </c>
       <c r="D126" t="n">
-        <v>0.302899</v>
+        <v>0.307005</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.344252</v>
+        <v>0.354996</v>
       </c>
       <c r="C127" t="n">
-        <v>0.355862</v>
+        <v>0.361775</v>
       </c>
       <c r="D127" t="n">
-        <v>0.308396</v>
+        <v>0.310478</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.355052</v>
+        <v>0.370969</v>
       </c>
       <c r="C128" t="n">
-        <v>0.359232</v>
+        <v>0.367364</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312281</v>
+        <v>0.316221</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.362002</v>
+        <v>0.371509</v>
       </c>
       <c r="C129" t="n">
-        <v>0.367905</v>
+        <v>0.376623</v>
       </c>
       <c r="D129" t="n">
-        <v>0.315023</v>
+        <v>0.321555</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.373604</v>
+        <v>0.38283</v>
       </c>
       <c r="C130" t="n">
-        <v>0.379539</v>
+        <v>0.386384</v>
       </c>
       <c r="D130" t="n">
-        <v>0.318596</v>
+        <v>0.326171</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386511</v>
+        <v>0.395944</v>
       </c>
       <c r="C131" t="n">
-        <v>0.386305</v>
+        <v>0.396376</v>
       </c>
       <c r="D131" t="n">
-        <v>0.322864</v>
+        <v>0.327479</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.407112</v>
+        <v>0.421928</v>
       </c>
       <c r="C132" t="n">
-        <v>0.401294</v>
+        <v>0.410251</v>
       </c>
       <c r="D132" t="n">
-        <v>0.328664</v>
+        <v>0.33596</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431806</v>
+        <v>0.444544</v>
       </c>
       <c r="C133" t="n">
-        <v>0.420439</v>
+        <v>0.42913</v>
       </c>
       <c r="D133" t="n">
-        <v>0.336887</v>
+        <v>0.342646</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462461</v>
+        <v>0.47905</v>
       </c>
       <c r="C134" t="n">
-        <v>0.444425</v>
+        <v>0.455158</v>
       </c>
       <c r="D134" t="n">
-        <v>0.346722</v>
+        <v>0.351913</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.508762</v>
+        <v>0.524647</v>
       </c>
       <c r="C135" t="n">
-        <v>0.479582</v>
+        <v>0.493972</v>
       </c>
       <c r="D135" t="n">
-        <v>0.361209</v>
+        <v>0.37236</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.58553</v>
+        <v>0.601036</v>
       </c>
       <c r="C136" t="n">
-        <v>0.53664</v>
+        <v>0.551455</v>
       </c>
       <c r="D136" t="n">
-        <v>0.385378</v>
+        <v>0.395406</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.667123</v>
+        <v>0.688986</v>
       </c>
       <c r="C137" t="n">
-        <v>0.621569</v>
+        <v>0.637618</v>
       </c>
       <c r="D137" t="n">
-        <v>0.434843</v>
+        <v>0.456166</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.481284</v>
+        <v>0.52404</v>
       </c>
       <c r="C138" t="n">
-        <v>0.489779</v>
+        <v>0.507576</v>
       </c>
       <c r="D138" t="n">
-        <v>0.438458</v>
+        <v>0.461647</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.500901</v>
+        <v>0.52612</v>
       </c>
       <c r="C139" t="n">
-        <v>0.496364</v>
+        <v>0.522322</v>
       </c>
       <c r="D139" t="n">
-        <v>0.43681</v>
+        <v>0.467066</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.501359</v>
+        <v>0.5406530000000001</v>
       </c>
       <c r="C140" t="n">
-        <v>0.502467</v>
+        <v>0.52339</v>
       </c>
       <c r="D140" t="n">
-        <v>0.435382</v>
+        <v>0.465338</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.514089</v>
+        <v>0.541972</v>
       </c>
       <c r="C141" t="n">
-        <v>0.501795</v>
+        <v>0.525892</v>
       </c>
       <c r="D141" t="n">
-        <v>0.438991</v>
+        <v>0.474655</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.519</v>
+        <v>0.5457</v>
       </c>
       <c r="C142" t="n">
-        <v>0.5094880000000001</v>
+        <v>0.53975</v>
       </c>
       <c r="D142" t="n">
-        <v>0.447728</v>
+        <v>0.470003</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.518476</v>
+        <v>0.563512</v>
       </c>
       <c r="C143" t="n">
-        <v>0.51719</v>
+        <v>0.552356</v>
       </c>
       <c r="D143" t="n">
-        <v>0.446657</v>
+        <v>0.478821</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260757</v>
+        <v>0.260554</v>
       </c>
       <c r="C2" t="n">
-        <v>0.224144</v>
+        <v>0.222584</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220009</v>
+        <v>0.220072</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268125</v>
+        <v>0.268258</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225642</v>
+        <v>0.224228</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220395</v>
+        <v>0.220727</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278538</v>
+        <v>0.278523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.231343</v>
+        <v>0.229275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222075</v>
+        <v>0.222287</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294337</v>
+        <v>0.295184</v>
       </c>
       <c r="C5" t="n">
-        <v>0.240658</v>
+        <v>0.23825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225487</v>
+        <v>0.225948</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.316622</v>
+        <v>0.316932</v>
       </c>
       <c r="C6" t="n">
-        <v>0.251951</v>
+        <v>0.249436</v>
       </c>
       <c r="D6" t="n">
-        <v>0.228846</v>
+        <v>0.229161</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.350607</v>
+        <v>0.353223</v>
       </c>
       <c r="C7" t="n">
-        <v>0.276068</v>
+        <v>0.273657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237157</v>
+        <v>0.237412</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.391157</v>
+        <v>0.394017</v>
       </c>
       <c r="C8" t="n">
-        <v>0.309307</v>
+        <v>0.306897</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252183</v>
+        <v>0.252343</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.434563</v>
+        <v>0.437301</v>
       </c>
       <c r="C9" t="n">
-        <v>0.365635</v>
+        <v>0.362953</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216374</v>
+        <v>0.216419</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241844</v>
+        <v>0.241828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213895</v>
+        <v>0.213625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216729</v>
+        <v>0.216372</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243309</v>
+        <v>0.243259</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214291</v>
+        <v>0.213679</v>
       </c>
       <c r="D11" t="n">
-        <v>0.21629</v>
+        <v>0.216403</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245706</v>
+        <v>0.245647</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215475</v>
+        <v>0.215204</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21683</v>
+        <v>0.216974</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247664</v>
+        <v>0.247593</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216776</v>
+        <v>0.216648</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216819</v>
+        <v>0.217057</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.25076</v>
+        <v>0.250627</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217987</v>
+        <v>0.217646</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217512</v>
+        <v>0.217616</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.255264</v>
+        <v>0.255142</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220416</v>
+        <v>0.219973</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217878</v>
+        <v>0.218312</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260447</v>
+        <v>0.260513</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223105</v>
+        <v>0.223033</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218917</v>
+        <v>0.219252</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267523</v>
+        <v>0.26756</v>
       </c>
       <c r="C17" t="n">
-        <v>0.226167</v>
+        <v>0.22552</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219821</v>
+        <v>0.22013</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278646</v>
+        <v>0.278555</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232583</v>
+        <v>0.232058</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221524</v>
+        <v>0.221901</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294075</v>
+        <v>0.294907</v>
       </c>
       <c r="C19" t="n">
-        <v>0.241839</v>
+        <v>0.240768</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224329</v>
+        <v>0.224637</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.316173</v>
+        <v>0.316848</v>
       </c>
       <c r="C20" t="n">
-        <v>0.253459</v>
+        <v>0.252258</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227462</v>
+        <v>0.227963</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.343125</v>
+        <v>0.345346</v>
       </c>
       <c r="C21" t="n">
-        <v>0.269868</v>
+        <v>0.268031</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233428</v>
+        <v>0.234113</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.380343</v>
+        <v>0.382328</v>
       </c>
       <c r="C22" t="n">
-        <v>0.30014</v>
+        <v>0.298507</v>
       </c>
       <c r="D22" t="n">
-        <v>0.245825</v>
+        <v>0.249246</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.426304</v>
+        <v>0.429661</v>
       </c>
       <c r="C23" t="n">
-        <v>0.347711</v>
+        <v>0.347038</v>
       </c>
       <c r="D23" t="n">
-        <v>0.21607</v>
+        <v>0.216527</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245592</v>
+        <v>0.245584</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214951</v>
+        <v>0.215371</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216629</v>
+        <v>0.216785</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.247093</v>
+        <v>0.247168</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215199</v>
+        <v>0.215769</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216432</v>
+        <v>0.216556</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248694</v>
+        <v>0.248768</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216064</v>
+        <v>0.216692</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216757</v>
+        <v>0.216971</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250793</v>
+        <v>0.250835</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217311</v>
+        <v>0.217659</v>
       </c>
       <c r="D27" t="n">
-        <v>0.21719</v>
+        <v>0.217367</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254354</v>
+        <v>0.254569</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218689</v>
+        <v>0.21945</v>
       </c>
       <c r="D28" t="n">
-        <v>0.217895</v>
+        <v>0.218089</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.258301</v>
+        <v>0.258342</v>
       </c>
       <c r="C29" t="n">
-        <v>0.221168</v>
+        <v>0.221494</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218212</v>
+        <v>0.218482</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264011</v>
+        <v>0.264219</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223195</v>
+        <v>0.224039</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219281</v>
+        <v>0.219433</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270631</v>
+        <v>0.270757</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227645</v>
+        <v>0.228174</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220207</v>
+        <v>0.220512</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281003</v>
+        <v>0.281255</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233496</v>
+        <v>0.234026</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222059</v>
+        <v>0.222438</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.295194</v>
+        <v>0.295671</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242951</v>
+        <v>0.243223</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225207</v>
+        <v>0.22561</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314171</v>
+        <v>0.314865</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256153</v>
+        <v>0.256168</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229286</v>
+        <v>0.22957</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.3392</v>
+        <v>0.340305</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2739</v>
+        <v>0.272726</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236291</v>
+        <v>0.236882</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.374854</v>
+        <v>0.376404</v>
       </c>
       <c r="C36" t="n">
-        <v>0.302634</v>
+        <v>0.301372</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248334</v>
+        <v>0.249145</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.42069</v>
+        <v>0.422632</v>
       </c>
       <c r="C37" t="n">
-        <v>0.34299</v>
+        <v>0.341973</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216414</v>
+        <v>0.216301</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.24718</v>
+        <v>0.247144</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216111</v>
+        <v>0.216502</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216411</v>
+        <v>0.216507</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248851</v>
+        <v>0.248802</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216583</v>
+        <v>0.217367</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216828</v>
+        <v>0.2172</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.250305</v>
+        <v>0.250228</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217311</v>
+        <v>0.218411</v>
       </c>
       <c r="D40" t="n">
-        <v>0.21705</v>
+        <v>0.217627</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252541</v>
+        <v>0.252465</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21845</v>
+        <v>0.219447</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217504</v>
+        <v>0.21769</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.255376</v>
+        <v>0.255408</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22036</v>
+        <v>0.221339</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218047</v>
+        <v>0.218456</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.25924</v>
+        <v>0.259559</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222235</v>
+        <v>0.223225</v>
       </c>
       <c r="D43" t="n">
-        <v>0.218784</v>
+        <v>0.219163</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264898</v>
+        <v>0.265266</v>
       </c>
       <c r="C44" t="n">
-        <v>0.225935</v>
+        <v>0.226504</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219832</v>
+        <v>0.220118</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272195</v>
+        <v>0.272521</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228803</v>
+        <v>0.230253</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22071</v>
+        <v>0.221243</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.281401</v>
+        <v>0.281765</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236979</v>
+        <v>0.236651</v>
       </c>
       <c r="D46" t="n">
-        <v>0.224052</v>
+        <v>0.223233</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.293662</v>
+        <v>0.2941</v>
       </c>
       <c r="C47" t="n">
-        <v>0.245133</v>
+        <v>0.245086</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226926</v>
+        <v>0.226278</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.311398</v>
+        <v>0.311948</v>
       </c>
       <c r="C48" t="n">
-        <v>0.254436</v>
+        <v>0.254762</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229377</v>
+        <v>0.230208</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335501</v>
+        <v>0.335826</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270789</v>
+        <v>0.270594</v>
       </c>
       <c r="D49" t="n">
-        <v>0.23626</v>
+        <v>0.236451</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.367137</v>
+        <v>0.367178</v>
       </c>
       <c r="C50" t="n">
-        <v>0.310963</v>
+        <v>0.30966</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247586</v>
+        <v>0.247733</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.411602</v>
+        <v>0.412156</v>
       </c>
       <c r="C51" t="n">
-        <v>0.334768</v>
+        <v>0.352832</v>
       </c>
       <c r="D51" t="n">
-        <v>0.217466</v>
+        <v>0.218195</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.462689</v>
+        <v>0.463325</v>
       </c>
       <c r="C52" t="n">
-        <v>0.389445</v>
+        <v>0.38902</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218063</v>
+        <v>0.218376</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251181</v>
+        <v>0.251546</v>
       </c>
       <c r="C53" t="n">
-        <v>0.219912</v>
+        <v>0.22136</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218566</v>
+        <v>0.219327</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.253076</v>
+        <v>0.256202</v>
       </c>
       <c r="C54" t="n">
-        <v>0.220759</v>
+        <v>0.221766</v>
       </c>
       <c r="D54" t="n">
-        <v>0.218987</v>
+        <v>0.219318</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256103</v>
+        <v>0.256186</v>
       </c>
       <c r="C55" t="n">
-        <v>0.22265</v>
+        <v>0.223788</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219507</v>
+        <v>0.220678</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.259326</v>
+        <v>0.258911</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223557</v>
+        <v>0.223915</v>
       </c>
       <c r="D56" t="n">
-        <v>0.219906</v>
+        <v>0.220151</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262351</v>
+        <v>0.26259</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226472</v>
+        <v>0.227105</v>
       </c>
       <c r="D57" t="n">
-        <v>0.221338</v>
+        <v>0.221674</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.267465</v>
+        <v>0.268984</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229345</v>
+        <v>0.229387</v>
       </c>
       <c r="D58" t="n">
-        <v>0.222092</v>
+        <v>0.22225</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273475</v>
+        <v>0.273795</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231922</v>
+        <v>0.234366</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223</v>
+        <v>0.224613</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282484</v>
+        <v>0.283641</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238079</v>
+        <v>0.2399</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225679</v>
+        <v>0.227143</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293922</v>
+        <v>0.29598</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245828</v>
+        <v>0.24764</v>
       </c>
       <c r="D61" t="n">
-        <v>0.228181</v>
+        <v>0.230566</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.310774</v>
+        <v>0.3109</v>
       </c>
       <c r="C62" t="n">
-        <v>0.254822</v>
+        <v>0.259815</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230289</v>
+        <v>0.235813</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.33115</v>
+        <v>0.332179</v>
       </c>
       <c r="C63" t="n">
-        <v>0.26878</v>
+        <v>0.277427</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236051</v>
+        <v>0.237811</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.361548</v>
+        <v>0.36291</v>
       </c>
       <c r="C64" t="n">
-        <v>0.291659</v>
+        <v>0.290076</v>
       </c>
       <c r="D64" t="n">
-        <v>0.244612</v>
+        <v>0.245653</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.405887</v>
+        <v>0.406892</v>
       </c>
       <c r="C65" t="n">
-        <v>0.326274</v>
+        <v>0.324129</v>
       </c>
       <c r="D65" t="n">
-        <v>0.261786</v>
+        <v>0.262143</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.481153</v>
+        <v>0.456929</v>
       </c>
       <c r="C66" t="n">
-        <v>0.382032</v>
+        <v>0.405319</v>
       </c>
       <c r="D66" t="n">
-        <v>0.228547</v>
+        <v>0.230186</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.261702</v>
+        <v>0.262744</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235184</v>
+        <v>0.23499</v>
       </c>
       <c r="D67" t="n">
-        <v>0.232726</v>
+        <v>0.231578</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.263567</v>
+        <v>0.262522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.234002</v>
+        <v>0.237537</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230065</v>
+        <v>0.232731</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.265067</v>
+        <v>0.265413</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237326</v>
+        <v>0.238068</v>
       </c>
       <c r="D69" t="n">
-        <v>0.231985</v>
+        <v>0.232452</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268555</v>
+        <v>0.269618</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238106</v>
+        <v>0.239304</v>
       </c>
       <c r="D70" t="n">
-        <v>0.23283</v>
+        <v>0.232303</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.276352</v>
+        <v>0.273357</v>
       </c>
       <c r="C71" t="n">
-        <v>0.240062</v>
+        <v>0.242136</v>
       </c>
       <c r="D71" t="n">
-        <v>0.232394</v>
+        <v>0.233895</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.275802</v>
+        <v>0.278618</v>
       </c>
       <c r="C72" t="n">
-        <v>0.241927</v>
+        <v>0.245239</v>
       </c>
       <c r="D72" t="n">
-        <v>0.232831</v>
+        <v>0.236268</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283174</v>
+        <v>0.282942</v>
       </c>
       <c r="C73" t="n">
-        <v>0.245896</v>
+        <v>0.247669</v>
       </c>
       <c r="D73" t="n">
-        <v>0.235215</v>
+        <v>0.236522</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.291058</v>
+        <v>0.291689</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251003</v>
+        <v>0.249885</v>
       </c>
       <c r="D74" t="n">
-        <v>0.236832</v>
+        <v>0.236453</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.303162</v>
+        <v>0.305178</v>
       </c>
       <c r="C75" t="n">
-        <v>0.257936</v>
+        <v>0.25938</v>
       </c>
       <c r="D75" t="n">
-        <v>0.239361</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.317888</v>
+        <v>0.323068</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267595</v>
+        <v>0.267427</v>
       </c>
       <c r="D76" t="n">
-        <v>0.241861</v>
+        <v>0.243627</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.353728</v>
+        <v>0.34061</v>
       </c>
       <c r="C77" t="n">
-        <v>0.281544</v>
+        <v>0.280984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.246341</v>
+        <v>0.248962</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.37119</v>
+        <v>0.372896</v>
       </c>
       <c r="C78" t="n">
-        <v>0.302386</v>
+        <v>0.304127</v>
       </c>
       <c r="D78" t="n">
-        <v>0.254263</v>
+        <v>0.257592</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.411522</v>
+        <v>0.415587</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333662</v>
+        <v>0.332157</v>
       </c>
       <c r="D79" t="n">
-        <v>0.269502</v>
+        <v>0.272034</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.486305</v>
+        <v>0.468172</v>
       </c>
       <c r="C80" t="n">
-        <v>0.385301</v>
+        <v>0.388083</v>
       </c>
       <c r="D80" t="n">
-        <v>0.248016</v>
+        <v>0.247612</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.283377</v>
+        <v>0.277344</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253421</v>
+        <v>0.253511</v>
       </c>
       <c r="D81" t="n">
-        <v>0.248252</v>
+        <v>0.247823</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.284866</v>
+        <v>0.27885</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254805</v>
+        <v>0.253125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248434</v>
+        <v>0.248494</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.282367</v>
+        <v>0.281636</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255633</v>
+        <v>0.255235</v>
       </c>
       <c r="D83" t="n">
-        <v>0.249011</v>
+        <v>0.2489</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284288</v>
+        <v>0.284127</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257578</v>
+        <v>0.256915</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249082</v>
+        <v>0.249225</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.294646</v>
+        <v>0.287817</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259224</v>
+        <v>0.259237</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250048</v>
+        <v>0.249995</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.299773</v>
+        <v>0.293133</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261874</v>
+        <v>0.261428</v>
       </c>
       <c r="D86" t="n">
-        <v>0.250583</v>
+        <v>0.251534</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.303624</v>
+        <v>0.300327</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265099</v>
+        <v>0.265091</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251505</v>
+        <v>0.251788</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.313871</v>
+        <v>0.308091</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269966</v>
+        <v>0.269518</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253399</v>
+        <v>0.253446</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.322283</v>
+        <v>0.319501</v>
       </c>
       <c r="C89" t="n">
-        <v>0.277023</v>
+        <v>0.276445</v>
       </c>
       <c r="D89" t="n">
-        <v>0.255164</v>
+        <v>0.256122</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.336255</v>
+        <v>0.334888</v>
       </c>
       <c r="C90" t="n">
-        <v>0.286428</v>
+        <v>0.285403</v>
       </c>
       <c r="D90" t="n">
-        <v>0.258771</v>
+        <v>0.259741</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.365952</v>
+        <v>0.356114</v>
       </c>
       <c r="C91" t="n">
-        <v>0.300154</v>
+        <v>0.296954</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264016</v>
+        <v>0.264127</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.391292</v>
+        <v>0.385345</v>
       </c>
       <c r="C92" t="n">
-        <v>0.319947</v>
+        <v>0.317939</v>
       </c>
       <c r="D92" t="n">
-        <v>0.272654</v>
+        <v>0.273282</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.433486</v>
+        <v>0.425796</v>
       </c>
       <c r="C93" t="n">
-        <v>0.365517</v>
+        <v>0.347647</v>
       </c>
       <c r="D93" t="n">
-        <v>0.286085</v>
+        <v>0.286713</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.502586</v>
+        <v>0.482391</v>
       </c>
       <c r="C94" t="n">
-        <v>0.39904</v>
+        <v>0.41579</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258366</v>
+        <v>0.258576</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.288327</v>
+        <v>0.286868</v>
       </c>
       <c r="C95" t="n">
-        <v>0.26606</v>
+        <v>0.266695</v>
       </c>
       <c r="D95" t="n">
-        <v>0.25872</v>
+        <v>0.259095</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.296021</v>
+        <v>0.288998</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267612</v>
+        <v>0.267867</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259096</v>
+        <v>0.257858</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.295811</v>
+        <v>0.291178</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268827</v>
+        <v>0.26907</v>
       </c>
       <c r="D97" t="n">
-        <v>0.259762</v>
+        <v>0.259959</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.30554</v>
+        <v>0.294009</v>
       </c>
       <c r="C98" t="n">
-        <v>0.270333</v>
+        <v>0.270895</v>
       </c>
       <c r="D98" t="n">
-        <v>0.260759</v>
+        <v>0.260426</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.304592</v>
+        <v>0.298076</v>
       </c>
       <c r="C99" t="n">
-        <v>0.27296</v>
+        <v>0.270632</v>
       </c>
       <c r="D99" t="n">
-        <v>0.261609</v>
+        <v>0.259208</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.309754</v>
+        <v>0.303802</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275595</v>
+        <v>0.275624</v>
       </c>
       <c r="D100" t="n">
-        <v>0.262826</v>
+        <v>0.262569</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309915</v>
+        <v>0.309325</v>
       </c>
       <c r="C101" t="n">
-        <v>0.280211</v>
+        <v>0.274712</v>
       </c>
       <c r="D101" t="n">
-        <v>0.263756</v>
+        <v>0.264057</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.324299</v>
+        <v>0.318352</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285148</v>
+        <v>0.285994</v>
       </c>
       <c r="D102" t="n">
-        <v>0.26555</v>
+        <v>0.265505</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.337808</v>
+        <v>0.329563</v>
       </c>
       <c r="C103" t="n">
-        <v>0.293227</v>
+        <v>0.292897</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268003</v>
+        <v>0.268356</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.354048</v>
+        <v>0.344744</v>
       </c>
       <c r="C104" t="n">
-        <v>0.303135</v>
+        <v>0.298693</v>
       </c>
       <c r="D104" t="n">
-        <v>0.271167</v>
+        <v>0.268187</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.383179</v>
+        <v>0.366273</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316963</v>
+        <v>0.313512</v>
       </c>
       <c r="D105" t="n">
-        <v>0.27632</v>
+        <v>0.276764</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.409907</v>
+        <v>0.396002</v>
       </c>
       <c r="C106" t="n">
-        <v>0.351489</v>
+        <v>0.33278</v>
       </c>
       <c r="D106" t="n">
-        <v>0.2845</v>
+        <v>0.284835</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.44994</v>
+        <v>0.437789</v>
       </c>
       <c r="C107" t="n">
-        <v>0.379787</v>
+        <v>0.386366</v>
       </c>
       <c r="D107" t="n">
-        <v>0.29779</v>
+        <v>0.297491</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.497892</v>
+        <v>0.497134</v>
       </c>
       <c r="C108" t="n">
-        <v>0.441785</v>
+        <v>0.418567</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265372</v>
+        <v>0.265286</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.587863</v>
+        <v>0.590825</v>
       </c>
       <c r="C109" t="n">
-        <v>0.523798</v>
+        <v>0.520993</v>
       </c>
       <c r="D109" t="n">
-        <v>0.266148</v>
+        <v>0.265874</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.30636</v>
+        <v>0.295648</v>
       </c>
       <c r="C110" t="n">
-        <v>0.289001</v>
+        <v>0.288938</v>
       </c>
       <c r="D110" t="n">
-        <v>0.26708</v>
+        <v>0.266906</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.306954</v>
+        <v>0.298551</v>
       </c>
       <c r="C111" t="n">
-        <v>0.294441</v>
+        <v>0.291282</v>
       </c>
       <c r="D111" t="n">
-        <v>0.267962</v>
+        <v>0.268296</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.313121</v>
+        <v>0.302589</v>
       </c>
       <c r="C112" t="n">
-        <v>0.300625</v>
+        <v>0.299819</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269548</v>
+        <v>0.268916</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.312005</v>
+        <v>0.307313</v>
       </c>
       <c r="C113" t="n">
-        <v>0.307458</v>
+        <v>0.303616</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271196</v>
+        <v>0.27166</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.324029</v>
+        <v>0.3142</v>
       </c>
       <c r="C114" t="n">
-        <v>0.315378</v>
+        <v>0.313106</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273554</v>
+        <v>0.273511</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.328727</v>
+        <v>0.322311</v>
       </c>
       <c r="C115" t="n">
-        <v>0.33054</v>
+        <v>0.318952</v>
       </c>
       <c r="D115" t="n">
-        <v>0.276143</v>
+        <v>0.27562</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.338811</v>
+        <v>0.333034</v>
       </c>
       <c r="C116" t="n">
-        <v>0.334137</v>
+        <v>0.330346</v>
       </c>
       <c r="D116" t="n">
-        <v>0.280345</v>
+        <v>0.279028</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.352179</v>
+        <v>0.348377</v>
       </c>
       <c r="C117" t="n">
-        <v>0.345875</v>
+        <v>0.339105</v>
       </c>
       <c r="D117" t="n">
-        <v>0.285349</v>
+        <v>0.283829</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.372855</v>
+        <v>0.367804</v>
       </c>
       <c r="C118" t="n">
-        <v>0.360963</v>
+        <v>0.352756</v>
       </c>
       <c r="D118" t="n">
-        <v>0.292052</v>
+        <v>0.289764</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.410609</v>
+        <v>0.393722</v>
       </c>
       <c r="C119" t="n">
-        <v>0.379537</v>
+        <v>0.370125</v>
       </c>
       <c r="D119" t="n">
-        <v>0.300826</v>
+        <v>0.298163</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.445954</v>
+        <v>0.427709</v>
       </c>
       <c r="C120" t="n">
-        <v>0.404941</v>
+        <v>0.394047</v>
       </c>
       <c r="D120" t="n">
-        <v>0.312135</v>
+        <v>0.310217</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.505201</v>
+        <v>0.475037</v>
       </c>
       <c r="C121" t="n">
-        <v>0.441279</v>
+        <v>0.432136</v>
       </c>
       <c r="D121" t="n">
-        <v>0.330091</v>
+        <v>0.326519</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.5573050000000001</v>
+        <v>0.550986</v>
       </c>
       <c r="C122" t="n">
-        <v>0.495999</v>
+        <v>0.497185</v>
       </c>
       <c r="D122" t="n">
-        <v>0.358374</v>
+        <v>0.362102</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.667892</v>
+        <v>0.628144</v>
       </c>
       <c r="C123" t="n">
-        <v>0.584106</v>
+        <v>0.595619</v>
       </c>
       <c r="D123" t="n">
-        <v>0.302212</v>
+        <v>0.293322</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.339394</v>
+        <v>0.326163</v>
       </c>
       <c r="C124" t="n">
-        <v>0.348198</v>
+        <v>0.34132</v>
       </c>
       <c r="D124" t="n">
-        <v>0.304438</v>
+        <v>0.298382</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.34139</v>
+        <v>0.333457</v>
       </c>
       <c r="C125" t="n">
-        <v>0.351722</v>
+        <v>0.342113</v>
       </c>
       <c r="D125" t="n">
-        <v>0.306105</v>
+        <v>0.303321</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.352779</v>
+        <v>0.337798</v>
       </c>
       <c r="C126" t="n">
-        <v>0.355862</v>
+        <v>0.348891</v>
       </c>
       <c r="D126" t="n">
-        <v>0.307005</v>
+        <v>0.3045</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.354996</v>
+        <v>0.344456</v>
       </c>
       <c r="C127" t="n">
-        <v>0.361775</v>
+        <v>0.354214</v>
       </c>
       <c r="D127" t="n">
-        <v>0.310478</v>
+        <v>0.308129</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.370969</v>
+        <v>0.354414</v>
       </c>
       <c r="C128" t="n">
-        <v>0.367364</v>
+        <v>0.35929</v>
       </c>
       <c r="D128" t="n">
-        <v>0.316221</v>
+        <v>0.311649</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.371509</v>
+        <v>0.364429</v>
       </c>
       <c r="C129" t="n">
-        <v>0.376623</v>
+        <v>0.367915</v>
       </c>
       <c r="D129" t="n">
-        <v>0.321555</v>
+        <v>0.313884</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.38283</v>
+        <v>0.374959</v>
       </c>
       <c r="C130" t="n">
-        <v>0.386384</v>
+        <v>0.37613</v>
       </c>
       <c r="D130" t="n">
-        <v>0.326171</v>
+        <v>0.31787</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.395944</v>
+        <v>0.387817</v>
       </c>
       <c r="C131" t="n">
-        <v>0.396376</v>
+        <v>0.387737</v>
       </c>
       <c r="D131" t="n">
-        <v>0.327479</v>
+        <v>0.323855</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.421928</v>
+        <v>0.404751</v>
       </c>
       <c r="C132" t="n">
-        <v>0.410251</v>
+        <v>0.402106</v>
       </c>
       <c r="D132" t="n">
-        <v>0.33596</v>
+        <v>0.329966</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.444544</v>
+        <v>0.433181</v>
       </c>
       <c r="C133" t="n">
-        <v>0.42913</v>
+        <v>0.4202</v>
       </c>
       <c r="D133" t="n">
-        <v>0.342646</v>
+        <v>0.335351</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.47905</v>
+        <v>0.463024</v>
       </c>
       <c r="C134" t="n">
-        <v>0.455158</v>
+        <v>0.446789</v>
       </c>
       <c r="D134" t="n">
-        <v>0.351913</v>
+        <v>0.348857</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.524647</v>
+        <v>0.511499</v>
       </c>
       <c r="C135" t="n">
-        <v>0.493972</v>
+        <v>0.477964</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37236</v>
+        <v>0.360901</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.601036</v>
+        <v>0.5749570000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>0.551455</v>
+        <v>0.540503</v>
       </c>
       <c r="D136" t="n">
-        <v>0.395406</v>
+        <v>0.387971</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.688986</v>
+        <v>0.666933</v>
       </c>
       <c r="C137" t="n">
-        <v>0.637618</v>
+        <v>0.64291</v>
       </c>
       <c r="D137" t="n">
-        <v>0.456166</v>
+        <v>0.438779</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.52404</v>
+        <v>0.493802</v>
       </c>
       <c r="C138" t="n">
-        <v>0.507576</v>
+        <v>0.488356</v>
       </c>
       <c r="D138" t="n">
-        <v>0.461647</v>
+        <v>0.436469</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.52612</v>
+        <v>0.496816</v>
       </c>
       <c r="C139" t="n">
-        <v>0.522322</v>
+        <v>0.493525</v>
       </c>
       <c r="D139" t="n">
-        <v>0.467066</v>
+        <v>0.428082</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5406530000000001</v>
+        <v>0.478637</v>
       </c>
       <c r="C140" t="n">
-        <v>0.52339</v>
+        <v>0.5027</v>
       </c>
       <c r="D140" t="n">
-        <v>0.465338</v>
+        <v>0.446894</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.541972</v>
+        <v>0.505759</v>
       </c>
       <c r="C141" t="n">
-        <v>0.525892</v>
+        <v>0.510556</v>
       </c>
       <c r="D141" t="n">
-        <v>0.474655</v>
+        <v>0.439268</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.5457</v>
+        <v>0.52618</v>
       </c>
       <c r="C142" t="n">
-        <v>0.53975</v>
+        <v>0.511521</v>
       </c>
       <c r="D142" t="n">
-        <v>0.470003</v>
+        <v>0.446197</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.563512</v>
+        <v>0.536418</v>
       </c>
       <c r="C143" t="n">
-        <v>0.552356</v>
+        <v>0.525413</v>
       </c>
       <c r="D143" t="n">
-        <v>0.478821</v>
+        <v>0.461176</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260554</v>
+        <v>0.259397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222584</v>
+        <v>0.223817</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220072</v>
+        <v>0.220305</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.268258</v>
+        <v>0.266595</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224228</v>
+        <v>0.224983</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220727</v>
+        <v>0.220745</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278523</v>
+        <v>0.276605</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229275</v>
+        <v>0.229803</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222287</v>
+        <v>0.222785</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.295184</v>
+        <v>0.292148</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23825</v>
+        <v>0.238097</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225948</v>
+        <v>0.226082</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.316932</v>
+        <v>0.31383</v>
       </c>
       <c r="C6" t="n">
-        <v>0.249436</v>
+        <v>0.249011</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229161</v>
+        <v>0.229435</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.353223</v>
+        <v>0.348486</v>
       </c>
       <c r="C7" t="n">
-        <v>0.273657</v>
+        <v>0.272972</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237412</v>
+        <v>0.237524</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.394017</v>
+        <v>0.389779</v>
       </c>
       <c r="C8" t="n">
-        <v>0.306897</v>
+        <v>0.306108</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252343</v>
+        <v>0.252094</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.437301</v>
+        <v>0.435929</v>
       </c>
       <c r="C9" t="n">
-        <v>0.362953</v>
+        <v>0.363028</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216419</v>
+        <v>0.216359</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241828</v>
+        <v>0.241933</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213625</v>
+        <v>0.213887</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216372</v>
+        <v>0.216294</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243259</v>
+        <v>0.243307</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213679</v>
+        <v>0.214132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216403</v>
+        <v>0.216436</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245647</v>
+        <v>0.245543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215204</v>
+        <v>0.215572</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216974</v>
+        <v>0.216972</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247593</v>
+        <v>0.247399</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216648</v>
+        <v>0.216761</v>
       </c>
       <c r="D13" t="n">
-        <v>0.217057</v>
+        <v>0.216875</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250627</v>
+        <v>0.250342</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217646</v>
+        <v>0.217899</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217616</v>
+        <v>0.217412</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.255142</v>
+        <v>0.254704</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219973</v>
+        <v>0.220215</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218312</v>
+        <v>0.218072</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260513</v>
+        <v>0.259464</v>
       </c>
       <c r="C16" t="n">
-        <v>0.223033</v>
+        <v>0.222682</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219252</v>
+        <v>0.218966</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26756</v>
+        <v>0.266151</v>
       </c>
       <c r="C17" t="n">
-        <v>0.22552</v>
+        <v>0.225613</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22013</v>
+        <v>0.219963</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.278555</v>
+        <v>0.277059</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232058</v>
+        <v>0.232391</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221901</v>
+        <v>0.221864</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294907</v>
+        <v>0.29225</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240768</v>
+        <v>0.240543</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224637</v>
+        <v>0.22462</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.316848</v>
+        <v>0.314032</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252258</v>
+        <v>0.251898</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227963</v>
+        <v>0.227712</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.345346</v>
+        <v>0.341523</v>
       </c>
       <c r="C21" t="n">
-        <v>0.268031</v>
+        <v>0.267482</v>
       </c>
       <c r="D21" t="n">
-        <v>0.234113</v>
+        <v>0.233913</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.382328</v>
+        <v>0.379277</v>
       </c>
       <c r="C22" t="n">
-        <v>0.298507</v>
+        <v>0.297713</v>
       </c>
       <c r="D22" t="n">
-        <v>0.249246</v>
+        <v>0.246708</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.429661</v>
+        <v>0.449277</v>
       </c>
       <c r="C23" t="n">
-        <v>0.347038</v>
+        <v>0.345924</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216527</v>
+        <v>0.216272</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245584</v>
+        <v>0.245722</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215371</v>
+        <v>0.215151</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216785</v>
+        <v>0.216631</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.247168</v>
+        <v>0.246988</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215769</v>
+        <v>0.215651</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216556</v>
+        <v>0.216751</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248768</v>
+        <v>0.248607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216692</v>
+        <v>0.216454</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216971</v>
+        <v>0.2171</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250835</v>
+        <v>0.250633</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217659</v>
+        <v>0.217134</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217367</v>
+        <v>0.217328</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254569</v>
+        <v>0.254064</v>
       </c>
       <c r="C28" t="n">
-        <v>0.21945</v>
+        <v>0.218985</v>
       </c>
       <c r="D28" t="n">
-        <v>0.218089</v>
+        <v>0.218247</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.258342</v>
+        <v>0.257809</v>
       </c>
       <c r="C29" t="n">
-        <v>0.221494</v>
+        <v>0.22061</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218482</v>
+        <v>0.218625</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264219</v>
+        <v>0.263371</v>
       </c>
       <c r="C30" t="n">
-        <v>0.224039</v>
+        <v>0.223367</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219433</v>
+        <v>0.219474</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270757</v>
+        <v>0.269577</v>
       </c>
       <c r="C31" t="n">
-        <v>0.228174</v>
+        <v>0.227256</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220512</v>
+        <v>0.220498</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281255</v>
+        <v>0.279672</v>
       </c>
       <c r="C32" t="n">
-        <v>0.234026</v>
+        <v>0.233022</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222438</v>
+        <v>0.22235</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.295671</v>
+        <v>0.293753</v>
       </c>
       <c r="C33" t="n">
-        <v>0.243223</v>
+        <v>0.242266</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22561</v>
+        <v>0.22554</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314865</v>
+        <v>0.312731</v>
       </c>
       <c r="C34" t="n">
-        <v>0.256168</v>
+        <v>0.254372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.22957</v>
+        <v>0.229524</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.340305</v>
+        <v>0.33812</v>
       </c>
       <c r="C35" t="n">
-        <v>0.272726</v>
+        <v>0.27053</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236882</v>
+        <v>0.236579</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.376404</v>
+        <v>0.374355</v>
       </c>
       <c r="C36" t="n">
-        <v>0.301372</v>
+        <v>0.299584</v>
       </c>
       <c r="D36" t="n">
-        <v>0.249145</v>
+        <v>0.24866</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422632</v>
+        <v>0.422381</v>
       </c>
       <c r="C37" t="n">
-        <v>0.341973</v>
+        <v>0.340223</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216301</v>
+        <v>0.216578</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247144</v>
+        <v>0.247124</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216502</v>
+        <v>0.216538</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216507</v>
+        <v>0.216783</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248802</v>
+        <v>0.248637</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217367</v>
+        <v>0.217288</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2172</v>
+        <v>0.217014</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.250228</v>
+        <v>0.250014</v>
       </c>
       <c r="C40" t="n">
-        <v>0.218411</v>
+        <v>0.218149</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217627</v>
+        <v>0.217469</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252465</v>
+        <v>0.252119</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219447</v>
+        <v>0.219374</v>
       </c>
       <c r="D41" t="n">
-        <v>0.21769</v>
+        <v>0.217945</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.255408</v>
+        <v>0.254747</v>
       </c>
       <c r="C42" t="n">
-        <v>0.221339</v>
+        <v>0.221102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218456</v>
+        <v>0.218577</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.259559</v>
+        <v>0.2587</v>
       </c>
       <c r="C43" t="n">
-        <v>0.223225</v>
+        <v>0.222962</v>
       </c>
       <c r="D43" t="n">
-        <v>0.219163</v>
+        <v>0.21922</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.265266</v>
+        <v>0.264018</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226504</v>
+        <v>0.226321</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220118</v>
+        <v>0.220332</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272521</v>
+        <v>0.271201</v>
       </c>
       <c r="C45" t="n">
-        <v>0.230253</v>
+        <v>0.229655</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221243</v>
+        <v>0.221352</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.281765</v>
+        <v>0.279924</v>
       </c>
       <c r="C46" t="n">
-        <v>0.236651</v>
+        <v>0.235836</v>
       </c>
       <c r="D46" t="n">
-        <v>0.223233</v>
+        <v>0.223279</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.2941</v>
+        <v>0.292016</v>
       </c>
       <c r="C47" t="n">
-        <v>0.245086</v>
+        <v>0.244104</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226278</v>
+        <v>0.226135</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.311948</v>
+        <v>0.309597</v>
       </c>
       <c r="C48" t="n">
-        <v>0.254762</v>
+        <v>0.253385</v>
       </c>
       <c r="D48" t="n">
-        <v>0.230208</v>
+        <v>0.229974</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335826</v>
+        <v>0.333708</v>
       </c>
       <c r="C49" t="n">
-        <v>0.270594</v>
+        <v>0.268686</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236451</v>
+        <v>0.236345</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.367178</v>
+        <v>0.365906</v>
       </c>
       <c r="C50" t="n">
-        <v>0.30966</v>
+        <v>0.292933</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247733</v>
+        <v>0.247658</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.412156</v>
+        <v>0.41175</v>
       </c>
       <c r="C51" t="n">
-        <v>0.352832</v>
+        <v>0.33141</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218195</v>
+        <v>0.218166</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.463325</v>
+        <v>0.46602</v>
       </c>
       <c r="C52" t="n">
-        <v>0.38902</v>
+        <v>0.387102</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218376</v>
+        <v>0.218293</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251546</v>
+        <v>0.251746</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22136</v>
+        <v>0.2206</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219327</v>
+        <v>0.218934</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.256202</v>
+        <v>0.253226</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221766</v>
+        <v>0.221963</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219318</v>
+        <v>0.219476</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256186</v>
+        <v>0.256119</v>
       </c>
       <c r="C55" t="n">
-        <v>0.223788</v>
+        <v>0.223127</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220678</v>
+        <v>0.220079</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258911</v>
+        <v>0.258228</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223915</v>
+        <v>0.22445</v>
       </c>
       <c r="D56" t="n">
-        <v>0.220151</v>
+        <v>0.220754</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.26259</v>
+        <v>0.262782</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227105</v>
+        <v>0.226801</v>
       </c>
       <c r="D57" t="n">
-        <v>0.221674</v>
+        <v>0.221613</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.268984</v>
+        <v>0.267229</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229387</v>
+        <v>0.228711</v>
       </c>
       <c r="D58" t="n">
-        <v>0.22225</v>
+        <v>0.222084</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273795</v>
+        <v>0.272901</v>
       </c>
       <c r="C59" t="n">
-        <v>0.234366</v>
+        <v>0.23352</v>
       </c>
       <c r="D59" t="n">
-        <v>0.224613</v>
+        <v>0.223941</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.283641</v>
+        <v>0.280968</v>
       </c>
       <c r="C60" t="n">
-        <v>0.2399</v>
+        <v>0.238488</v>
       </c>
       <c r="D60" t="n">
-        <v>0.227143</v>
+        <v>0.225832</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.29598</v>
+        <v>0.292767</v>
       </c>
       <c r="C61" t="n">
-        <v>0.24764</v>
+        <v>0.243913</v>
       </c>
       <c r="D61" t="n">
-        <v>0.230566</v>
+        <v>0.227241</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.3109</v>
+        <v>0.309228</v>
       </c>
       <c r="C62" t="n">
-        <v>0.259815</v>
+        <v>0.253249</v>
       </c>
       <c r="D62" t="n">
-        <v>0.235813</v>
+        <v>0.230393</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.332179</v>
+        <v>0.330451</v>
       </c>
       <c r="C63" t="n">
-        <v>0.277427</v>
+        <v>0.267312</v>
       </c>
       <c r="D63" t="n">
-        <v>0.237811</v>
+        <v>0.236321</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.36291</v>
+        <v>0.360308</v>
       </c>
       <c r="C64" t="n">
-        <v>0.290076</v>
+        <v>0.289334</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245653</v>
+        <v>0.24549</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.406892</v>
+        <v>0.404029</v>
       </c>
       <c r="C65" t="n">
-        <v>0.324129</v>
+        <v>0.323832</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262143</v>
+        <v>0.262227</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.456929</v>
+        <v>0.461264</v>
       </c>
       <c r="C66" t="n">
-        <v>0.405319</v>
+        <v>0.377187</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230186</v>
+        <v>0.229669</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.262744</v>
+        <v>0.263104</v>
       </c>
       <c r="C67" t="n">
-        <v>0.23499</v>
+        <v>0.235354</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231578</v>
+        <v>0.231092</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.262522</v>
+        <v>0.264255</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237537</v>
+        <v>0.236376</v>
       </c>
       <c r="D68" t="n">
-        <v>0.232731</v>
+        <v>0.231242</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.265413</v>
+        <v>0.267039</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238068</v>
+        <v>0.236855</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232452</v>
+        <v>0.232017</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.269618</v>
+        <v>0.26875</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239304</v>
+        <v>0.240466</v>
       </c>
       <c r="D70" t="n">
-        <v>0.232303</v>
+        <v>0.233805</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.273357</v>
+        <v>0.272258</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242136</v>
+        <v>0.246286</v>
       </c>
       <c r="D71" t="n">
-        <v>0.233895</v>
+        <v>0.239265</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278618</v>
+        <v>0.276177</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245239</v>
+        <v>0.244991</v>
       </c>
       <c r="D72" t="n">
-        <v>0.236268</v>
+        <v>0.236137</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.282942</v>
+        <v>0.282524</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247669</v>
+        <v>0.248618</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236522</v>
+        <v>0.236243</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.291689</v>
+        <v>0.290661</v>
       </c>
       <c r="C74" t="n">
-        <v>0.249885</v>
+        <v>0.252258</v>
       </c>
       <c r="D74" t="n">
-        <v>0.236453</v>
+        <v>0.237857</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.305178</v>
+        <v>0.302679</v>
       </c>
       <c r="C75" t="n">
-        <v>0.25938</v>
+        <v>0.260189</v>
       </c>
       <c r="D75" t="n">
-        <v>0.2396</v>
+        <v>0.241183</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.323068</v>
+        <v>0.317769</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267427</v>
+        <v>0.269052</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243627</v>
+        <v>0.244239</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.34061</v>
+        <v>0.338747</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280984</v>
+        <v>0.280994</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248962</v>
+        <v>0.248134</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.372896</v>
+        <v>0.367787</v>
       </c>
       <c r="C78" t="n">
-        <v>0.304127</v>
+        <v>0.300644</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257592</v>
+        <v>0.257175</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.415587</v>
+        <v>0.409687</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332157</v>
+        <v>0.331781</v>
       </c>
       <c r="D79" t="n">
-        <v>0.272034</v>
+        <v>0.271836</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.468172</v>
+        <v>0.467692</v>
       </c>
       <c r="C80" t="n">
-        <v>0.388083</v>
+        <v>0.382178</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247612</v>
+        <v>0.247637</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277344</v>
+        <v>0.277175</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253511</v>
+        <v>0.25235</v>
       </c>
       <c r="D81" t="n">
-        <v>0.247823</v>
+        <v>0.248045</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.27885</v>
+        <v>0.279041</v>
       </c>
       <c r="C82" t="n">
-        <v>0.253125</v>
+        <v>0.254678</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248494</v>
+        <v>0.24865</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281636</v>
+        <v>0.281364</v>
       </c>
       <c r="C83" t="n">
-        <v>0.255235</v>
+        <v>0.256358</v>
       </c>
       <c r="D83" t="n">
-        <v>0.2489</v>
+        <v>0.249339</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284127</v>
+        <v>0.283909</v>
       </c>
       <c r="C84" t="n">
-        <v>0.256915</v>
+        <v>0.257785</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249225</v>
+        <v>0.24954</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287817</v>
+        <v>0.287926</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259237</v>
+        <v>0.259407</v>
       </c>
       <c r="D85" t="n">
-        <v>0.249995</v>
+        <v>0.250591</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.293133</v>
+        <v>0.29292</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261428</v>
+        <v>0.261903</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251534</v>
+        <v>0.2514</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300327</v>
+        <v>0.298752</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265091</v>
+        <v>0.265292</v>
       </c>
       <c r="D87" t="n">
-        <v>0.251788</v>
+        <v>0.25257</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308091</v>
+        <v>0.306921</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269518</v>
+        <v>0.269722</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253446</v>
+        <v>0.253827</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.319501</v>
+        <v>0.318655</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276445</v>
+        <v>0.27634</v>
       </c>
       <c r="D89" t="n">
-        <v>0.256122</v>
+        <v>0.256303</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.334888</v>
+        <v>0.332727</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285403</v>
+        <v>0.285779</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259741</v>
+        <v>0.259303</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356114</v>
+        <v>0.352929</v>
       </c>
       <c r="C91" t="n">
-        <v>0.296954</v>
+        <v>0.298493</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264127</v>
+        <v>0.26456</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.385345</v>
+        <v>0.381441</v>
       </c>
       <c r="C92" t="n">
-        <v>0.317939</v>
+        <v>0.317364</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273282</v>
+        <v>0.273525</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.425796</v>
+        <v>0.422094</v>
       </c>
       <c r="C93" t="n">
-        <v>0.347647</v>
+        <v>0.346605</v>
       </c>
       <c r="D93" t="n">
-        <v>0.286713</v>
+        <v>0.287277</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.482391</v>
+        <v>0.478014</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41579</v>
+        <v>0.393223</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258576</v>
+        <v>0.258816</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.286868</v>
+        <v>0.287373</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266695</v>
+        <v>0.267075</v>
       </c>
       <c r="D95" t="n">
-        <v>0.259095</v>
+        <v>0.259129</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288998</v>
+        <v>0.289462</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267867</v>
+        <v>0.268</v>
       </c>
       <c r="D96" t="n">
-        <v>0.257858</v>
+        <v>0.259589</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291178</v>
+        <v>0.291658</v>
       </c>
       <c r="C97" t="n">
-        <v>0.26907</v>
+        <v>0.269486</v>
       </c>
       <c r="D97" t="n">
-        <v>0.259959</v>
+        <v>0.25787</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294009</v>
+        <v>0.294506</v>
       </c>
       <c r="C98" t="n">
-        <v>0.270895</v>
+        <v>0.271107</v>
       </c>
       <c r="D98" t="n">
-        <v>0.260426</v>
+        <v>0.261242</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298076</v>
+        <v>0.298123</v>
       </c>
       <c r="C99" t="n">
-        <v>0.270632</v>
+        <v>0.273416</v>
       </c>
       <c r="D99" t="n">
-        <v>0.259208</v>
+        <v>0.26229</v>
       </c>
     </row>
     <row r="100">
@@ -4623,10 +4623,10 @@
         <v>0.303802</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275624</v>
+        <v>0.275893</v>
       </c>
       <c r="D100" t="n">
-        <v>0.262569</v>
+        <v>0.26315</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309325</v>
+        <v>0.309361</v>
       </c>
       <c r="C101" t="n">
-        <v>0.274712</v>
+        <v>0.279935</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264057</v>
+        <v>0.264195</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.318352</v>
+        <v>0.317484</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285994</v>
+        <v>0.280311</v>
       </c>
       <c r="D102" t="n">
-        <v>0.265505</v>
+        <v>0.262833</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.329563</v>
+        <v>0.328726</v>
       </c>
       <c r="C103" t="n">
-        <v>0.292897</v>
+        <v>0.29186</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268356</v>
+        <v>0.268104</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.344744</v>
+        <v>0.343124</v>
       </c>
       <c r="C104" t="n">
-        <v>0.298693</v>
+        <v>0.302889</v>
       </c>
       <c r="D104" t="n">
-        <v>0.268187</v>
+        <v>0.271619</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.366273</v>
+        <v>0.363451</v>
       </c>
       <c r="C105" t="n">
-        <v>0.313512</v>
+        <v>0.316635</v>
       </c>
       <c r="D105" t="n">
-        <v>0.276764</v>
+        <v>0.276849</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.396002</v>
+        <v>0.392528</v>
       </c>
       <c r="C106" t="n">
-        <v>0.33278</v>
+        <v>0.336624</v>
       </c>
       <c r="D106" t="n">
-        <v>0.284835</v>
+        <v>0.284876</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.437789</v>
+        <v>0.433955</v>
       </c>
       <c r="C107" t="n">
-        <v>0.386366</v>
+        <v>0.367519</v>
       </c>
       <c r="D107" t="n">
-        <v>0.297491</v>
+        <v>0.298146</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.497134</v>
+        <v>0.492801</v>
       </c>
       <c r="C108" t="n">
-        <v>0.418567</v>
+        <v>0.41619</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265286</v>
+        <v>0.265583</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.590825</v>
+        <v>0.5860649999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.520993</v>
+        <v>0.488732</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265874</v>
+        <v>0.265914</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295648</v>
+        <v>0.29585</v>
       </c>
       <c r="C110" t="n">
-        <v>0.288938</v>
+        <v>0.28768</v>
       </c>
       <c r="D110" t="n">
-        <v>0.266906</v>
+        <v>0.267468</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298551</v>
+        <v>0.298639</v>
       </c>
       <c r="C111" t="n">
-        <v>0.291282</v>
+        <v>0.292508</v>
       </c>
       <c r="D111" t="n">
-        <v>0.268296</v>
+        <v>0.268357</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302589</v>
+        <v>0.302229</v>
       </c>
       <c r="C112" t="n">
-        <v>0.299819</v>
+        <v>0.298194</v>
       </c>
       <c r="D112" t="n">
-        <v>0.268916</v>
+        <v>0.269552</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307313</v>
+        <v>0.307118</v>
       </c>
       <c r="C113" t="n">
-        <v>0.303616</v>
+        <v>0.305126</v>
       </c>
       <c r="D113" t="n">
-        <v>0.27166</v>
+        <v>0.271228</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3142</v>
+        <v>0.313284</v>
       </c>
       <c r="C114" t="n">
-        <v>0.313106</v>
+        <v>0.311794</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273511</v>
+        <v>0.273145</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.322311</v>
+        <v>0.321093</v>
       </c>
       <c r="C115" t="n">
-        <v>0.318952</v>
+        <v>0.318514</v>
       </c>
       <c r="D115" t="n">
-        <v>0.27562</v>
+        <v>0.276257</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.333034</v>
+        <v>0.332842</v>
       </c>
       <c r="C116" t="n">
-        <v>0.330346</v>
+        <v>0.329935</v>
       </c>
       <c r="D116" t="n">
-        <v>0.279028</v>
+        <v>0.280551</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.348377</v>
+        <v>0.346247</v>
       </c>
       <c r="C117" t="n">
-        <v>0.339105</v>
+        <v>0.341175</v>
       </c>
       <c r="D117" t="n">
-        <v>0.283829</v>
+        <v>0.284368</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.367804</v>
+        <v>0.365714</v>
       </c>
       <c r="C118" t="n">
-        <v>0.352756</v>
+        <v>0.35486</v>
       </c>
       <c r="D118" t="n">
-        <v>0.289764</v>
+        <v>0.289608</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.393722</v>
+        <v>0.390969</v>
       </c>
       <c r="C119" t="n">
-        <v>0.370125</v>
+        <v>0.369785</v>
       </c>
       <c r="D119" t="n">
-        <v>0.298163</v>
+        <v>0.298963</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.427709</v>
+        <v>0.425189</v>
       </c>
       <c r="C120" t="n">
-        <v>0.394047</v>
+        <v>0.393525</v>
       </c>
       <c r="D120" t="n">
-        <v>0.310217</v>
+        <v>0.309296</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.475037</v>
+        <v>0.475765</v>
       </c>
       <c r="C121" t="n">
-        <v>0.432136</v>
+        <v>0.431275</v>
       </c>
       <c r="D121" t="n">
-        <v>0.326519</v>
+        <v>0.328254</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.550986</v>
+        <v>0.536113</v>
       </c>
       <c r="C122" t="n">
-        <v>0.497185</v>
+        <v>0.484288</v>
       </c>
       <c r="D122" t="n">
-        <v>0.362102</v>
+        <v>0.356351</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628144</v>
+        <v>0.626107</v>
       </c>
       <c r="C123" t="n">
-        <v>0.595619</v>
+        <v>0.571568</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293322</v>
+        <v>0.293408</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.326163</v>
+        <v>0.326089</v>
       </c>
       <c r="C124" t="n">
-        <v>0.34132</v>
+        <v>0.339827</v>
       </c>
       <c r="D124" t="n">
-        <v>0.298382</v>
+        <v>0.296477</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.333457</v>
+        <v>0.339134</v>
       </c>
       <c r="C125" t="n">
-        <v>0.342113</v>
+        <v>0.345362</v>
       </c>
       <c r="D125" t="n">
-        <v>0.303321</v>
+        <v>0.300701</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337798</v>
+        <v>0.338051</v>
       </c>
       <c r="C126" t="n">
-        <v>0.348891</v>
+        <v>0.349134</v>
       </c>
       <c r="D126" t="n">
-        <v>0.3045</v>
+        <v>0.303553</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.344456</v>
+        <v>0.345482</v>
       </c>
       <c r="C127" t="n">
-        <v>0.354214</v>
+        <v>0.355526</v>
       </c>
       <c r="D127" t="n">
-        <v>0.308129</v>
+        <v>0.308471</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.354414</v>
+        <v>0.353953</v>
       </c>
       <c r="C128" t="n">
-        <v>0.35929</v>
+        <v>0.362374</v>
       </c>
       <c r="D128" t="n">
-        <v>0.311649</v>
+        <v>0.312009</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.364429</v>
+        <v>0.360547</v>
       </c>
       <c r="C129" t="n">
-        <v>0.367915</v>
+        <v>0.368166</v>
       </c>
       <c r="D129" t="n">
-        <v>0.313884</v>
+        <v>0.316193</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.374959</v>
+        <v>0.375252</v>
       </c>
       <c r="C130" t="n">
-        <v>0.37613</v>
+        <v>0.375014</v>
       </c>
       <c r="D130" t="n">
-        <v>0.31787</v>
+        <v>0.317952</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.387817</v>
+        <v>0.386588</v>
       </c>
       <c r="C131" t="n">
-        <v>0.387737</v>
+        <v>0.385934</v>
       </c>
       <c r="D131" t="n">
-        <v>0.323855</v>
+        <v>0.324991</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.404751</v>
+        <v>0.404773</v>
       </c>
       <c r="C132" t="n">
-        <v>0.402106</v>
+        <v>0.401569</v>
       </c>
       <c r="D132" t="n">
-        <v>0.329966</v>
+        <v>0.335232</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.433181</v>
+        <v>0.431225</v>
       </c>
       <c r="C133" t="n">
-        <v>0.4202</v>
+        <v>0.418067</v>
       </c>
       <c r="D133" t="n">
-        <v>0.335351</v>
+        <v>0.335566</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.463024</v>
+        <v>0.462972</v>
       </c>
       <c r="C134" t="n">
-        <v>0.446789</v>
+        <v>0.443817</v>
       </c>
       <c r="D134" t="n">
-        <v>0.348857</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.511499</v>
+        <v>0.506901</v>
       </c>
       <c r="C135" t="n">
-        <v>0.477964</v>
+        <v>0.477822</v>
       </c>
       <c r="D135" t="n">
-        <v>0.360901</v>
+        <v>0.359844</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5749570000000001</v>
+        <v>0.580955</v>
       </c>
       <c r="C136" t="n">
-        <v>0.540503</v>
+        <v>0.530267</v>
       </c>
       <c r="D136" t="n">
-        <v>0.387971</v>
+        <v>0.390383</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.666933</v>
+        <v>0.671121</v>
       </c>
       <c r="C137" t="n">
-        <v>0.64291</v>
+        <v>0.623156</v>
       </c>
       <c r="D137" t="n">
-        <v>0.438779</v>
+        <v>0.427632</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.493802</v>
+        <v>0.494413</v>
       </c>
       <c r="C138" t="n">
-        <v>0.488356</v>
+        <v>0.487634</v>
       </c>
       <c r="D138" t="n">
-        <v>0.436469</v>
+        <v>0.442007</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.496816</v>
+        <v>0.48837</v>
       </c>
       <c r="C139" t="n">
-        <v>0.493525</v>
+        <v>0.493768</v>
       </c>
       <c r="D139" t="n">
-        <v>0.428082</v>
+        <v>0.433961</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.478637</v>
+        <v>0.491487</v>
       </c>
       <c r="C140" t="n">
-        <v>0.5027</v>
+        <v>0.500102</v>
       </c>
       <c r="D140" t="n">
-        <v>0.446894</v>
+        <v>0.443899</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.505759</v>
+        <v>0.505565</v>
       </c>
       <c r="C141" t="n">
-        <v>0.510556</v>
+        <v>0.5145960000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.439268</v>
+        <v>0.445971</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.52618</v>
+        <v>0.526819</v>
       </c>
       <c r="C142" t="n">
-        <v>0.511521</v>
+        <v>0.518186</v>
       </c>
       <c r="D142" t="n">
-        <v>0.446197</v>
+        <v>0.450668</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.536418</v>
+        <v>0.53117</v>
       </c>
       <c r="C143" t="n">
-        <v>0.525413</v>
+        <v>0.512965</v>
       </c>
       <c r="D143" t="n">
-        <v>0.461176</v>
+        <v>0.450023</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259397</v>
+        <v>0.259204</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223817</v>
+        <v>0.223685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220305</v>
+        <v>0.220229</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266595</v>
+        <v>0.266633</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224983</v>
+        <v>0.225119</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220745</v>
+        <v>0.220811</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276605</v>
+        <v>0.276431</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229803</v>
+        <v>0.230448</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222785</v>
+        <v>0.222515</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.292148</v>
+        <v>0.291753</v>
       </c>
       <c r="C5" t="n">
-        <v>0.238097</v>
+        <v>0.237838</v>
       </c>
       <c r="D5" t="n">
-        <v>0.226082</v>
+        <v>0.225848</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31383</v>
+        <v>0.313898</v>
       </c>
       <c r="C6" t="n">
-        <v>0.249011</v>
+        <v>0.249192</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229435</v>
+        <v>0.229265</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.348486</v>
+        <v>0.348514</v>
       </c>
       <c r="C7" t="n">
-        <v>0.272972</v>
+        <v>0.272916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237524</v>
+        <v>0.237373</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.389779</v>
+        <v>0.389802</v>
       </c>
       <c r="C8" t="n">
-        <v>0.306108</v>
+        <v>0.30598</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252094</v>
+        <v>0.252046</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.435929</v>
+        <v>0.435553</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363028</v>
+        <v>0.363236</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216359</v>
+        <v>0.216246</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241933</v>
+        <v>0.24175</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213887</v>
+        <v>0.213898</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216294</v>
+        <v>0.216297</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243307</v>
+        <v>0.243153</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214132</v>
+        <v>0.214004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216436</v>
+        <v>0.216284</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245543</v>
+        <v>0.245404</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215572</v>
+        <v>0.215541</v>
       </c>
       <c r="D12" t="n">
-        <v>0.216972</v>
+        <v>0.21705</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247399</v>
+        <v>0.247277</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216761</v>
+        <v>0.216776</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216875</v>
+        <v>0.216901</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250342</v>
+        <v>0.250244</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217899</v>
+        <v>0.217893</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217412</v>
+        <v>0.217385</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.254704</v>
+        <v>0.254604</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220215</v>
+        <v>0.220067</v>
       </c>
       <c r="D15" t="n">
-        <v>0.218072</v>
+        <v>0.217952</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259464</v>
+        <v>0.259349</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222682</v>
+        <v>0.222636</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218966</v>
+        <v>0.218968</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266151</v>
+        <v>0.266073</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225613</v>
+        <v>0.225475</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219963</v>
+        <v>0.219868</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277059</v>
+        <v>0.27698</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232391</v>
+        <v>0.232133</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221864</v>
+        <v>0.221716</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.29225</v>
+        <v>0.292074</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240543</v>
+        <v>0.240368</v>
       </c>
       <c r="D19" t="n">
-        <v>0.22462</v>
+        <v>0.224494</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.314032</v>
+        <v>0.313935</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251898</v>
+        <v>0.251561</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227712</v>
+        <v>0.227604</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.341523</v>
+        <v>0.34137</v>
       </c>
       <c r="C21" t="n">
-        <v>0.267482</v>
+        <v>0.266941</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233913</v>
+        <v>0.233722</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.379277</v>
+        <v>0.379427</v>
       </c>
       <c r="C22" t="n">
-        <v>0.297713</v>
+        <v>0.297534</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246708</v>
+        <v>0.246502</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.449277</v>
+        <v>0.427582</v>
       </c>
       <c r="C23" t="n">
-        <v>0.345924</v>
+        <v>0.346036</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216272</v>
+        <v>0.216079</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245722</v>
+        <v>0.245489</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215151</v>
+        <v>0.214999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216631</v>
+        <v>0.216525</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.246988</v>
+        <v>0.246936</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215651</v>
+        <v>0.215298</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216751</v>
+        <v>0.216692</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248607</v>
+        <v>0.248318</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216454</v>
+        <v>0.216121</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2171</v>
+        <v>0.216801</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250633</v>
+        <v>0.250427</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217134</v>
+        <v>0.216863</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217328</v>
+        <v>0.217121</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254064</v>
+        <v>0.253877</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218985</v>
+        <v>0.218622</v>
       </c>
       <c r="D28" t="n">
-        <v>0.218247</v>
+        <v>0.218486</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257809</v>
+        <v>0.257472</v>
       </c>
       <c r="C29" t="n">
-        <v>0.22061</v>
+        <v>0.220435</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218625</v>
+        <v>0.218439</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263371</v>
+        <v>0.262934</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223367</v>
+        <v>0.222967</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219474</v>
+        <v>0.219196</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269577</v>
+        <v>0.269512</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227256</v>
+        <v>0.227106</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220498</v>
+        <v>0.220278</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279672</v>
+        <v>0.279427</v>
       </c>
       <c r="C32" t="n">
-        <v>0.233022</v>
+        <v>0.232986</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22235</v>
+        <v>0.222208</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293753</v>
+        <v>0.293417</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242266</v>
+        <v>0.241988</v>
       </c>
       <c r="D33" t="n">
-        <v>0.22554</v>
+        <v>0.225429</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.312731</v>
+        <v>0.312454</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254372</v>
+        <v>0.254061</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229524</v>
+        <v>0.229231</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.33812</v>
+        <v>0.338029</v>
       </c>
       <c r="C35" t="n">
-        <v>0.27053</v>
+        <v>0.270306</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236579</v>
+        <v>0.236368</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.374355</v>
+        <v>0.374377</v>
       </c>
       <c r="C36" t="n">
-        <v>0.299584</v>
+        <v>0.29917</v>
       </c>
       <c r="D36" t="n">
-        <v>0.24866</v>
+        <v>0.248467</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.422381</v>
+        <v>0.421448</v>
       </c>
       <c r="C37" t="n">
-        <v>0.340223</v>
+        <v>0.339838</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216578</v>
+        <v>0.216613</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247124</v>
+        <v>0.246958</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216538</v>
+        <v>0.216336</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216783</v>
+        <v>0.216852</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248637</v>
+        <v>0.248501</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217288</v>
+        <v>0.217093</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217014</v>
+        <v>0.217</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.250014</v>
+        <v>0.249905</v>
       </c>
       <c r="C40" t="n">
-        <v>0.218149</v>
+        <v>0.217965</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217469</v>
+        <v>0.217718</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252119</v>
+        <v>0.251928</v>
       </c>
       <c r="C41" t="n">
-        <v>0.219374</v>
+        <v>0.21897</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217945</v>
+        <v>0.217747</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254747</v>
+        <v>0.254667</v>
       </c>
       <c r="C42" t="n">
-        <v>0.221102</v>
+        <v>0.220687</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218577</v>
+        <v>0.218181</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2587</v>
+        <v>0.258536</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222962</v>
+        <v>0.222638</v>
       </c>
       <c r="D43" t="n">
-        <v>0.21922</v>
+        <v>0.219478</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264018</v>
+        <v>0.26395</v>
       </c>
       <c r="C44" t="n">
-        <v>0.226321</v>
+        <v>0.225903</v>
       </c>
       <c r="D44" t="n">
-        <v>0.220332</v>
+        <v>0.219866</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.271201</v>
+        <v>0.270988</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229655</v>
+        <v>0.229217</v>
       </c>
       <c r="D45" t="n">
-        <v>0.221352</v>
+        <v>0.22101</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.279924</v>
+        <v>0.27987</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235836</v>
+        <v>0.235152</v>
       </c>
       <c r="D46" t="n">
-        <v>0.223279</v>
+        <v>0.222841</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.292016</v>
+        <v>0.29192</v>
       </c>
       <c r="C47" t="n">
-        <v>0.244104</v>
+        <v>0.243088</v>
       </c>
       <c r="D47" t="n">
-        <v>0.226135</v>
+        <v>0.225657</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309597</v>
+        <v>0.309441</v>
       </c>
       <c r="C48" t="n">
-        <v>0.253385</v>
+        <v>0.252939</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229974</v>
+        <v>0.229633</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.333708</v>
+        <v>0.333465</v>
       </c>
       <c r="C49" t="n">
-        <v>0.268686</v>
+        <v>0.268118</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236345</v>
+        <v>0.236168</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.365906</v>
+        <v>0.365697</v>
       </c>
       <c r="C50" t="n">
-        <v>0.292933</v>
+        <v>0.292075</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247658</v>
+        <v>0.247335</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.41175</v>
+        <v>0.411442</v>
       </c>
       <c r="C51" t="n">
-        <v>0.33141</v>
+        <v>0.330312</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218166</v>
+        <v>0.218446</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.46602</v>
+        <v>0.465324</v>
       </c>
       <c r="C52" t="n">
-        <v>0.387102</v>
+        <v>0.385279</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218293</v>
+        <v>0.218638</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251746</v>
+        <v>0.252317</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2206</v>
+        <v>0.220013</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218934</v>
+        <v>0.218747</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.253226</v>
+        <v>0.252795</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221963</v>
+        <v>0.221054</v>
       </c>
       <c r="D54" t="n">
-        <v>0.219476</v>
+        <v>0.2191</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.256119</v>
+        <v>0.255262</v>
       </c>
       <c r="C55" t="n">
-        <v>0.223127</v>
+        <v>0.222296</v>
       </c>
       <c r="D55" t="n">
-        <v>0.220079</v>
+        <v>0.219728</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258228</v>
+        <v>0.258294</v>
       </c>
       <c r="C56" t="n">
-        <v>0.22445</v>
+        <v>0.224257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.220754</v>
+        <v>0.22073</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262782</v>
+        <v>0.262219</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226801</v>
+        <v>0.226645</v>
       </c>
       <c r="D57" t="n">
-        <v>0.221613</v>
+        <v>0.22151</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.267229</v>
+        <v>0.2677</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228711</v>
+        <v>0.22844</v>
       </c>
       <c r="D58" t="n">
-        <v>0.222084</v>
+        <v>0.221895</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.272901</v>
+        <v>0.273081</v>
       </c>
       <c r="C59" t="n">
-        <v>0.23352</v>
+        <v>0.231698</v>
       </c>
       <c r="D59" t="n">
-        <v>0.223941</v>
+        <v>0.222928</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280968</v>
+        <v>0.280558</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238488</v>
+        <v>0.236589</v>
       </c>
       <c r="D60" t="n">
-        <v>0.225832</v>
+        <v>0.22468</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.292767</v>
+        <v>0.292534</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243913</v>
+        <v>0.244114</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227241</v>
+        <v>0.227755</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.309228</v>
+        <v>0.308556</v>
       </c>
       <c r="C62" t="n">
-        <v>0.253249</v>
+        <v>0.255134</v>
       </c>
       <c r="D62" t="n">
-        <v>0.230393</v>
+        <v>0.231979</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330451</v>
+        <v>0.33021</v>
       </c>
       <c r="C63" t="n">
-        <v>0.267312</v>
+        <v>0.266833</v>
       </c>
       <c r="D63" t="n">
-        <v>0.236321</v>
+        <v>0.235864</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360308</v>
+        <v>0.360519</v>
       </c>
       <c r="C64" t="n">
-        <v>0.289334</v>
+        <v>0.288484</v>
       </c>
       <c r="D64" t="n">
-        <v>0.24549</v>
+        <v>0.245062</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.404029</v>
+        <v>0.405823</v>
       </c>
       <c r="C65" t="n">
-        <v>0.323832</v>
+        <v>0.323704</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262227</v>
+        <v>0.262002</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.461264</v>
+        <v>0.458759</v>
       </c>
       <c r="C66" t="n">
-        <v>0.377187</v>
+        <v>0.379039</v>
       </c>
       <c r="D66" t="n">
-        <v>0.229669</v>
+        <v>0.230754</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.263104</v>
+        <v>0.261815</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235354</v>
+        <v>0.235565</v>
       </c>
       <c r="D67" t="n">
-        <v>0.231092</v>
+        <v>0.232389</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264255</v>
+        <v>0.264803</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236376</v>
+        <v>0.237465</v>
       </c>
       <c r="D68" t="n">
-        <v>0.231242</v>
+        <v>0.233119</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.267039</v>
+        <v>0.264912</v>
       </c>
       <c r="C69" t="n">
-        <v>0.236855</v>
+        <v>0.239053</v>
       </c>
       <c r="D69" t="n">
-        <v>0.232017</v>
+        <v>0.233054</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.26875</v>
+        <v>0.269619</v>
       </c>
       <c r="C70" t="n">
-        <v>0.240466</v>
+        <v>0.238768</v>
       </c>
       <c r="D70" t="n">
-        <v>0.233805</v>
+        <v>0.232913</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.272258</v>
+        <v>0.271357</v>
       </c>
       <c r="C71" t="n">
-        <v>0.246286</v>
+        <v>0.241365</v>
       </c>
       <c r="D71" t="n">
-        <v>0.239265</v>
+        <v>0.233496</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.276177</v>
+        <v>0.276838</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244991</v>
+        <v>0.244531</v>
       </c>
       <c r="D72" t="n">
-        <v>0.236137</v>
+        <v>0.235689</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.282524</v>
+        <v>0.282484</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248618</v>
+        <v>0.246451</v>
       </c>
       <c r="D73" t="n">
-        <v>0.236243</v>
+        <v>0.2357</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290661</v>
+        <v>0.292206</v>
       </c>
       <c r="C74" t="n">
-        <v>0.252258</v>
+        <v>0.251476</v>
       </c>
       <c r="D74" t="n">
-        <v>0.237857</v>
+        <v>0.236881</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.302679</v>
+        <v>0.302973</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260189</v>
+        <v>0.257785</v>
       </c>
       <c r="D75" t="n">
-        <v>0.241183</v>
+        <v>0.240327</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.317769</v>
+        <v>0.316277</v>
       </c>
       <c r="C76" t="n">
-        <v>0.269052</v>
+        <v>0.268247</v>
       </c>
       <c r="D76" t="n">
-        <v>0.244239</v>
+        <v>0.243487</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.338747</v>
+        <v>0.33938</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280994</v>
+        <v>0.282823</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248134</v>
+        <v>0.248714</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.367787</v>
+        <v>0.37141</v>
       </c>
       <c r="C78" t="n">
-        <v>0.300644</v>
+        <v>0.301499</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257175</v>
+        <v>0.257084</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.409687</v>
+        <v>0.409279</v>
       </c>
       <c r="C79" t="n">
-        <v>0.331781</v>
+        <v>0.333223</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271836</v>
+        <v>0.271592</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.467692</v>
+        <v>0.467134</v>
       </c>
       <c r="C80" t="n">
-        <v>0.382178</v>
+        <v>0.383423</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247637</v>
+        <v>0.247534</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277175</v>
+        <v>0.277013</v>
       </c>
       <c r="C81" t="n">
-        <v>0.25235</v>
+        <v>0.253714</v>
       </c>
       <c r="D81" t="n">
-        <v>0.248045</v>
+        <v>0.247683</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.279041</v>
+        <v>0.278912</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254678</v>
+        <v>0.254656</v>
       </c>
       <c r="D82" t="n">
-        <v>0.24865</v>
+        <v>0.248497</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281364</v>
+        <v>0.281243</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256358</v>
+        <v>0.256116</v>
       </c>
       <c r="D83" t="n">
-        <v>0.249339</v>
+        <v>0.248774</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.283909</v>
+        <v>0.283953</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257785</v>
+        <v>0.257066</v>
       </c>
       <c r="D84" t="n">
-        <v>0.24954</v>
+        <v>0.249576</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287926</v>
+        <v>0.28797</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259407</v>
+        <v>0.259122</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250591</v>
+        <v>0.250046</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.29292</v>
+        <v>0.292064</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261903</v>
+        <v>0.261675</v>
       </c>
       <c r="D86" t="n">
-        <v>0.2514</v>
+        <v>0.251016</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298752</v>
+        <v>0.298591</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265292</v>
+        <v>0.264854</v>
       </c>
       <c r="D87" t="n">
-        <v>0.25257</v>
+        <v>0.252438</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.306921</v>
+        <v>0.306879</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269722</v>
+        <v>0.269694</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253827</v>
+        <v>0.253619</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.318655</v>
+        <v>0.317672</v>
       </c>
       <c r="C89" t="n">
-        <v>0.27634</v>
+        <v>0.276058</v>
       </c>
       <c r="D89" t="n">
-        <v>0.256303</v>
+        <v>0.25618</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.332727</v>
+        <v>0.332571</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285779</v>
+        <v>0.284946</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259303</v>
+        <v>0.259518</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352929</v>
+        <v>0.353141</v>
       </c>
       <c r="C91" t="n">
-        <v>0.298493</v>
+        <v>0.297969</v>
       </c>
       <c r="D91" t="n">
-        <v>0.26456</v>
+        <v>0.264993</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.381441</v>
+        <v>0.382009</v>
       </c>
       <c r="C92" t="n">
-        <v>0.317364</v>
+        <v>0.317131</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273525</v>
+        <v>0.273067</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.422094</v>
+        <v>0.421534</v>
       </c>
       <c r="C93" t="n">
-        <v>0.346605</v>
+        <v>0.346656</v>
       </c>
       <c r="D93" t="n">
-        <v>0.287277</v>
+        <v>0.287161</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.478014</v>
+        <v>0.478419</v>
       </c>
       <c r="C94" t="n">
-        <v>0.393223</v>
+        <v>0.392905</v>
       </c>
       <c r="D94" t="n">
-        <v>0.258816</v>
+        <v>0.259202</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287373</v>
+        <v>0.287109</v>
       </c>
       <c r="C95" t="n">
-        <v>0.267075</v>
+        <v>0.266765</v>
       </c>
       <c r="D95" t="n">
-        <v>0.259129</v>
+        <v>0.259321</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.289462</v>
+        <v>0.289063</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268</v>
+        <v>0.267973</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259589</v>
+        <v>0.259717</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291658</v>
+        <v>0.291273</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269486</v>
+        <v>0.269149</v>
       </c>
       <c r="D97" t="n">
-        <v>0.25787</v>
+        <v>0.260307</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294506</v>
+        <v>0.29398</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271107</v>
+        <v>0.271078</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261242</v>
+        <v>0.261426</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298123</v>
+        <v>0.297719</v>
       </c>
       <c r="C99" t="n">
-        <v>0.273416</v>
+        <v>0.272983</v>
       </c>
       <c r="D99" t="n">
-        <v>0.26229</v>
+        <v>0.262112</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.303802</v>
+        <v>0.302885</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275893</v>
+        <v>0.275463</v>
       </c>
       <c r="D100" t="n">
-        <v>0.26315</v>
+        <v>0.262833</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309361</v>
+        <v>0.30903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279935</v>
+        <v>0.279953</v>
       </c>
       <c r="D101" t="n">
-        <v>0.264195</v>
+        <v>0.263998</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.317484</v>
+        <v>0.317848</v>
       </c>
       <c r="C102" t="n">
-        <v>0.280311</v>
+        <v>0.285083</v>
       </c>
       <c r="D102" t="n">
-        <v>0.262833</v>
+        <v>0.265758</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.328726</v>
+        <v>0.328375</v>
       </c>
       <c r="C103" t="n">
-        <v>0.29186</v>
+        <v>0.291501</v>
       </c>
       <c r="D103" t="n">
-        <v>0.268104</v>
+        <v>0.267894</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.343124</v>
+        <v>0.343014</v>
       </c>
       <c r="C104" t="n">
-        <v>0.302889</v>
+        <v>0.301977</v>
       </c>
       <c r="D104" t="n">
-        <v>0.271619</v>
+        <v>0.271436</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.363451</v>
+        <v>0.363267</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316635</v>
+        <v>0.316569</v>
       </c>
       <c r="D105" t="n">
-        <v>0.276849</v>
+        <v>0.276192</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.392528</v>
+        <v>0.392303</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336624</v>
+        <v>0.336664</v>
       </c>
       <c r="D106" t="n">
-        <v>0.284876</v>
+        <v>0.284868</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.433955</v>
+        <v>0.434037</v>
       </c>
       <c r="C107" t="n">
-        <v>0.367519</v>
+        <v>0.368162</v>
       </c>
       <c r="D107" t="n">
-        <v>0.298146</v>
+        <v>0.297492</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.492801</v>
+        <v>0.49309</v>
       </c>
       <c r="C108" t="n">
-        <v>0.41619</v>
+        <v>0.415565</v>
       </c>
       <c r="D108" t="n">
-        <v>0.265583</v>
+        <v>0.264996</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5860649999999999</v>
+        <v>0.569326</v>
       </c>
       <c r="C109" t="n">
-        <v>0.488732</v>
+        <v>0.492708</v>
       </c>
       <c r="D109" t="n">
-        <v>0.265914</v>
+        <v>0.266153</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29585</v>
+        <v>0.295355</v>
       </c>
       <c r="C110" t="n">
-        <v>0.28768</v>
+        <v>0.288705</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267468</v>
+        <v>0.267021</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298639</v>
+        <v>0.298379</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292508</v>
+        <v>0.292435</v>
       </c>
       <c r="D111" t="n">
-        <v>0.268357</v>
+        <v>0.268494</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302229</v>
+        <v>0.30228</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298194</v>
+        <v>0.298697</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269552</v>
+        <v>0.269793</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307118</v>
+        <v>0.306702</v>
       </c>
       <c r="C113" t="n">
-        <v>0.305126</v>
+        <v>0.304861</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271228</v>
+        <v>0.271474</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.313284</v>
+        <v>0.312821</v>
       </c>
       <c r="C114" t="n">
-        <v>0.311794</v>
+        <v>0.312164</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273145</v>
+        <v>0.273358</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321093</v>
+        <v>0.321457</v>
       </c>
       <c r="C115" t="n">
-        <v>0.318514</v>
+        <v>0.320168</v>
       </c>
       <c r="D115" t="n">
-        <v>0.276257</v>
+        <v>0.276624</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332842</v>
+        <v>0.332248</v>
       </c>
       <c r="C116" t="n">
-        <v>0.329935</v>
+        <v>0.329927</v>
       </c>
       <c r="D116" t="n">
-        <v>0.280551</v>
+        <v>0.279859</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.346247</v>
+        <v>0.346795</v>
       </c>
       <c r="C117" t="n">
-        <v>0.341175</v>
+        <v>0.340802</v>
       </c>
       <c r="D117" t="n">
-        <v>0.284368</v>
+        <v>0.284699</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365714</v>
+        <v>0.365958</v>
       </c>
       <c r="C118" t="n">
-        <v>0.35486</v>
+        <v>0.35488</v>
       </c>
       <c r="D118" t="n">
-        <v>0.289608</v>
+        <v>0.290997</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.390969</v>
+        <v>0.391199</v>
       </c>
       <c r="C119" t="n">
-        <v>0.369785</v>
+        <v>0.372609</v>
       </c>
       <c r="D119" t="n">
-        <v>0.298963</v>
+        <v>0.299353</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.425189</v>
+        <v>0.424562</v>
       </c>
       <c r="C120" t="n">
-        <v>0.393525</v>
+        <v>0.396922</v>
       </c>
       <c r="D120" t="n">
-        <v>0.309296</v>
+        <v>0.310425</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.475765</v>
+        <v>0.470848</v>
       </c>
       <c r="C121" t="n">
-        <v>0.431275</v>
+        <v>0.431063</v>
       </c>
       <c r="D121" t="n">
-        <v>0.328254</v>
+        <v>0.327887</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.536113</v>
+        <v>0.536071</v>
       </c>
       <c r="C122" t="n">
-        <v>0.484288</v>
+        <v>0.484293</v>
       </c>
       <c r="D122" t="n">
-        <v>0.356351</v>
+        <v>0.355737</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.626107</v>
+        <v>0.625857</v>
       </c>
       <c r="C123" t="n">
-        <v>0.571568</v>
+        <v>0.571252</v>
       </c>
       <c r="D123" t="n">
-        <v>0.293408</v>
+        <v>0.296227</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.326089</v>
+        <v>0.326426</v>
       </c>
       <c r="C124" t="n">
-        <v>0.339827</v>
+        <v>0.339017</v>
       </c>
       <c r="D124" t="n">
-        <v>0.296477</v>
+        <v>0.298235</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.339134</v>
+        <v>0.332426</v>
       </c>
       <c r="C125" t="n">
-        <v>0.345362</v>
+        <v>0.343601</v>
       </c>
       <c r="D125" t="n">
-        <v>0.300701</v>
+        <v>0.302479</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.338051</v>
+        <v>0.336847</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349134</v>
+        <v>0.349529</v>
       </c>
       <c r="D126" t="n">
-        <v>0.303553</v>
+        <v>0.309706</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.345482</v>
+        <v>0.344029</v>
       </c>
       <c r="C127" t="n">
-        <v>0.355526</v>
+        <v>0.35414</v>
       </c>
       <c r="D127" t="n">
-        <v>0.308471</v>
+        <v>0.309269</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.353953</v>
+        <v>0.35274</v>
       </c>
       <c r="C128" t="n">
-        <v>0.362374</v>
+        <v>0.360566</v>
       </c>
       <c r="D128" t="n">
-        <v>0.312009</v>
+        <v>0.311914</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360547</v>
+        <v>0.365004</v>
       </c>
       <c r="C129" t="n">
-        <v>0.368166</v>
+        <v>0.366698</v>
       </c>
       <c r="D129" t="n">
-        <v>0.316193</v>
+        <v>0.31547</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.375252</v>
+        <v>0.372052</v>
       </c>
       <c r="C130" t="n">
-        <v>0.375014</v>
+        <v>0.376862</v>
       </c>
       <c r="D130" t="n">
-        <v>0.317952</v>
+        <v>0.321876</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386588</v>
+        <v>0.386926</v>
       </c>
       <c r="C131" t="n">
-        <v>0.385934</v>
+        <v>0.386917</v>
       </c>
       <c r="D131" t="n">
-        <v>0.324991</v>
+        <v>0.32453</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.404773</v>
+        <v>0.406184</v>
       </c>
       <c r="C132" t="n">
-        <v>0.401569</v>
+        <v>0.402208</v>
       </c>
       <c r="D132" t="n">
-        <v>0.335232</v>
+        <v>0.330345</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.431225</v>
+        <v>0.429192</v>
       </c>
       <c r="C133" t="n">
-        <v>0.418067</v>
+        <v>0.422238</v>
       </c>
       <c r="D133" t="n">
-        <v>0.335566</v>
+        <v>0.337947</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.462972</v>
+        <v>0.464523</v>
       </c>
       <c r="C134" t="n">
-        <v>0.443817</v>
+        <v>0.444871</v>
       </c>
       <c r="D134" t="n">
-        <v>0.3448</v>
+        <v>0.349121</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.506901</v>
+        <v>0.508139</v>
       </c>
       <c r="C135" t="n">
-        <v>0.477822</v>
+        <v>0.480123</v>
       </c>
       <c r="D135" t="n">
-        <v>0.359844</v>
+        <v>0.363457</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.580955</v>
+        <v>0.577225</v>
       </c>
       <c r="C136" t="n">
-        <v>0.530267</v>
+        <v>0.531377</v>
       </c>
       <c r="D136" t="n">
-        <v>0.390383</v>
+        <v>0.389297</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.671121</v>
+        <v>0.667645</v>
       </c>
       <c r="C137" t="n">
-        <v>0.623156</v>
+        <v>0.620395</v>
       </c>
       <c r="D137" t="n">
-        <v>0.427632</v>
+        <v>0.440195</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.494413</v>
+        <v>0.495886</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487634</v>
+        <v>0.492608</v>
       </c>
       <c r="D138" t="n">
-        <v>0.442007</v>
+        <v>0.443957</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.48837</v>
+        <v>0.5105189999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>0.493768</v>
+        <v>0.496477</v>
       </c>
       <c r="D139" t="n">
-        <v>0.433961</v>
+        <v>0.440741</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.491487</v>
+        <v>0.513629</v>
       </c>
       <c r="C140" t="n">
-        <v>0.500102</v>
+        <v>0.503905</v>
       </c>
       <c r="D140" t="n">
-        <v>0.443899</v>
+        <v>0.451565</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.505565</v>
+        <v>0.523498</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5145960000000001</v>
+        <v>0.512424</v>
       </c>
       <c r="D141" t="n">
-        <v>0.445971</v>
+        <v>0.4549</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.526819</v>
+        <v>0.535931</v>
       </c>
       <c r="C142" t="n">
-        <v>0.518186</v>
+        <v>0.515521</v>
       </c>
       <c r="D142" t="n">
-        <v>0.450668</v>
+        <v>0.456475</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.53117</v>
+        <v>0.533794</v>
       </c>
       <c r="C143" t="n">
-        <v>0.512965</v>
+        <v>0.525051</v>
       </c>
       <c r="D143" t="n">
-        <v>0.450023</v>
+        <v>0.467741</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259204</v>
+        <v>0.259273</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223685</v>
+        <v>0.223392</v>
       </c>
       <c r="D2" t="n">
-        <v>0.220229</v>
+        <v>0.226127</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266633</v>
+        <v>0.266681</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225119</v>
+        <v>0.224685</v>
       </c>
       <c r="D3" t="n">
-        <v>0.220811</v>
+        <v>0.226562</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276431</v>
+        <v>0.276626</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230448</v>
+        <v>0.229616</v>
       </c>
       <c r="D4" t="n">
-        <v>0.222515</v>
+        <v>0.228647</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.291753</v>
+        <v>0.291961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237838</v>
+        <v>0.237926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.225848</v>
+        <v>0.232433</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313898</v>
+        <v>0.31386</v>
       </c>
       <c r="C6" t="n">
-        <v>0.249192</v>
+        <v>0.248905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.229265</v>
+        <v>0.236037</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.348514</v>
+        <v>0.348312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.272916</v>
+        <v>0.272049</v>
       </c>
       <c r="D7" t="n">
-        <v>0.237373</v>
+        <v>0.244265</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.389802</v>
+        <v>0.389447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.30598</v>
+        <v>0.304383</v>
       </c>
       <c r="D8" t="n">
-        <v>0.252046</v>
+        <v>0.259547</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.435553</v>
+        <v>0.435583</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363236</v>
+        <v>0.358164</v>
       </c>
       <c r="D9" t="n">
-        <v>0.216246</v>
+        <v>0.222235</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.24175</v>
+        <v>0.241834</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213898</v>
+        <v>0.213747</v>
       </c>
       <c r="D10" t="n">
-        <v>0.216297</v>
+        <v>0.22225</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243153</v>
+        <v>0.243195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214004</v>
+        <v>0.213822</v>
       </c>
       <c r="D11" t="n">
-        <v>0.216284</v>
+        <v>0.222367</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245404</v>
+        <v>0.245478</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215541</v>
+        <v>0.215343</v>
       </c>
       <c r="D12" t="n">
-        <v>0.21705</v>
+        <v>0.222927</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247277</v>
+        <v>0.247335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216776</v>
+        <v>0.216479</v>
       </c>
       <c r="D13" t="n">
-        <v>0.216901</v>
+        <v>0.223026</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250244</v>
+        <v>0.250363</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217893</v>
+        <v>0.217669</v>
       </c>
       <c r="D14" t="n">
-        <v>0.217385</v>
+        <v>0.223433</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.254604</v>
+        <v>0.254723</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220067</v>
+        <v>0.219923</v>
       </c>
       <c r="D15" t="n">
-        <v>0.217952</v>
+        <v>0.224154</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259349</v>
+        <v>0.25946</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222636</v>
+        <v>0.222326</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218968</v>
+        <v>0.225179</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266073</v>
+        <v>0.266154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225475</v>
+        <v>0.225328</v>
       </c>
       <c r="D17" t="n">
-        <v>0.219868</v>
+        <v>0.226298</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27698</v>
+        <v>0.276996</v>
       </c>
       <c r="C18" t="n">
-        <v>0.232133</v>
+        <v>0.231662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.221716</v>
+        <v>0.228107</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.292074</v>
+        <v>0.292166</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240368</v>
+        <v>0.240365</v>
       </c>
       <c r="D19" t="n">
-        <v>0.224494</v>
+        <v>0.231177</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.313935</v>
+        <v>0.314167</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251561</v>
+        <v>0.252058</v>
       </c>
       <c r="D20" t="n">
-        <v>0.227604</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.34137</v>
+        <v>0.341586</v>
       </c>
       <c r="C21" t="n">
-        <v>0.266941</v>
+        <v>0.267094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.233722</v>
+        <v>0.24095</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.379427</v>
+        <v>0.379278</v>
       </c>
       <c r="C22" t="n">
-        <v>0.297534</v>
+        <v>0.296285</v>
       </c>
       <c r="D22" t="n">
-        <v>0.246502</v>
+        <v>0.253615</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.427582</v>
+        <v>0.427475</v>
       </c>
       <c r="C23" t="n">
-        <v>0.346036</v>
+        <v>0.343161</v>
       </c>
       <c r="D23" t="n">
-        <v>0.216079</v>
+        <v>0.22352</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245489</v>
+        <v>0.245642</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214999</v>
+        <v>0.214998</v>
       </c>
       <c r="D24" t="n">
-        <v>0.216525</v>
+        <v>0.223966</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.246936</v>
+        <v>0.246983</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215298</v>
+        <v>0.215149</v>
       </c>
       <c r="D25" t="n">
-        <v>0.216692</v>
+        <v>0.22399</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248318</v>
+        <v>0.248441</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216121</v>
+        <v>0.215918</v>
       </c>
       <c r="D26" t="n">
-        <v>0.216801</v>
+        <v>0.224379</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250427</v>
+        <v>0.250489</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216863</v>
+        <v>0.216988</v>
       </c>
       <c r="D27" t="n">
-        <v>0.217121</v>
+        <v>0.224709</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.253877</v>
+        <v>0.25391</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218622</v>
+        <v>0.218689</v>
       </c>
       <c r="D28" t="n">
-        <v>0.218486</v>
+        <v>0.22557</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257472</v>
+        <v>0.257719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220435</v>
+        <v>0.220301</v>
       </c>
       <c r="D29" t="n">
-        <v>0.218439</v>
+        <v>0.22592</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262934</v>
+        <v>0.263162</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222967</v>
+        <v>0.222825</v>
       </c>
       <c r="D30" t="n">
-        <v>0.219196</v>
+        <v>0.226877</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269512</v>
+        <v>0.269731</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227106</v>
+        <v>0.227208</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220278</v>
+        <v>0.227975</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279427</v>
+        <v>0.279644</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232986</v>
+        <v>0.232995</v>
       </c>
       <c r="D32" t="n">
-        <v>0.222208</v>
+        <v>0.229911</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293417</v>
+        <v>0.293458</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241988</v>
+        <v>0.242076</v>
       </c>
       <c r="D33" t="n">
-        <v>0.225429</v>
+        <v>0.233136</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.312454</v>
+        <v>0.312282</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254061</v>
+        <v>0.254654</v>
       </c>
       <c r="D34" t="n">
-        <v>0.229231</v>
+        <v>0.23731</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.338029</v>
+        <v>0.337652</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270306</v>
+        <v>0.270934</v>
       </c>
       <c r="D35" t="n">
-        <v>0.236368</v>
+        <v>0.244371</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.374377</v>
+        <v>0.373347</v>
       </c>
       <c r="C36" t="n">
-        <v>0.29917</v>
+        <v>0.298574</v>
       </c>
       <c r="D36" t="n">
-        <v>0.248467</v>
+        <v>0.25666</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.421448</v>
+        <v>0.421503</v>
       </c>
       <c r="C37" t="n">
-        <v>0.339838</v>
+        <v>0.337605</v>
       </c>
       <c r="D37" t="n">
-        <v>0.216613</v>
+        <v>0.224612</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246958</v>
+        <v>0.247086</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216336</v>
+        <v>0.215779</v>
       </c>
       <c r="D38" t="n">
-        <v>0.216852</v>
+        <v>0.224818</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248501</v>
+        <v>0.248608</v>
       </c>
       <c r="C39" t="n">
-        <v>0.217093</v>
+        <v>0.21651</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217</v>
+        <v>0.225213</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.249905</v>
+        <v>0.249962</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217965</v>
+        <v>0.217334</v>
       </c>
       <c r="D40" t="n">
-        <v>0.217718</v>
+        <v>0.225461</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.251928</v>
+        <v>0.252055</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21897</v>
+        <v>0.218819</v>
       </c>
       <c r="D41" t="n">
-        <v>0.217747</v>
+        <v>0.225876</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254667</v>
+        <v>0.254809</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220687</v>
+        <v>0.22065</v>
       </c>
       <c r="D42" t="n">
-        <v>0.218181</v>
+        <v>0.226579</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.258536</v>
+        <v>0.258673</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222638</v>
+        <v>0.222454</v>
       </c>
       <c r="D43" t="n">
-        <v>0.219478</v>
+        <v>0.22735</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26395</v>
+        <v>0.264029</v>
       </c>
       <c r="C44" t="n">
-        <v>0.225903</v>
+        <v>0.225966</v>
       </c>
       <c r="D44" t="n">
-        <v>0.219866</v>
+        <v>0.228211</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270988</v>
+        <v>0.27102</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229217</v>
+        <v>0.229692</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22101</v>
+        <v>0.229514</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.27987</v>
+        <v>0.280003</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235152</v>
+        <v>0.235285</v>
       </c>
       <c r="D46" t="n">
-        <v>0.222841</v>
+        <v>0.231357</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.29192</v>
+        <v>0.291997</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243088</v>
+        <v>0.243437</v>
       </c>
       <c r="D47" t="n">
-        <v>0.225657</v>
+        <v>0.234221</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309441</v>
+        <v>0.309542</v>
       </c>
       <c r="C48" t="n">
-        <v>0.252939</v>
+        <v>0.253781</v>
       </c>
       <c r="D48" t="n">
-        <v>0.229633</v>
+        <v>0.23841</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.333465</v>
+        <v>0.333489</v>
       </c>
       <c r="C49" t="n">
-        <v>0.268118</v>
+        <v>0.268823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.236168</v>
+        <v>0.244794</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.365697</v>
+        <v>0.365805</v>
       </c>
       <c r="C50" t="n">
-        <v>0.292075</v>
+        <v>0.292073</v>
       </c>
       <c r="D50" t="n">
-        <v>0.247335</v>
+        <v>0.256121</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.411442</v>
+        <v>0.411693</v>
       </c>
       <c r="C51" t="n">
-        <v>0.330312</v>
+        <v>0.328913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.218446</v>
+        <v>0.229987</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465324</v>
+        <v>0.465021</v>
       </c>
       <c r="C52" t="n">
-        <v>0.385279</v>
+        <v>0.38154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.218638</v>
+        <v>0.228825</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.252317</v>
+        <v>0.253004</v>
       </c>
       <c r="C53" t="n">
-        <v>0.220013</v>
+        <v>0.223461</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218747</v>
+        <v>0.230802</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.252795</v>
+        <v>0.254838</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221054</v>
+        <v>0.223335</v>
       </c>
       <c r="D54" t="n">
-        <v>0.2191</v>
+        <v>0.229966</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255262</v>
+        <v>0.255378</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222296</v>
+        <v>0.224393</v>
       </c>
       <c r="D55" t="n">
-        <v>0.219728</v>
+        <v>0.230559</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258294</v>
+        <v>0.258385</v>
       </c>
       <c r="C56" t="n">
-        <v>0.224257</v>
+        <v>0.224937</v>
       </c>
       <c r="D56" t="n">
-        <v>0.22073</v>
+        <v>0.23023</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262219</v>
+        <v>0.262129</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226645</v>
+        <v>0.227632</v>
       </c>
       <c r="D57" t="n">
-        <v>0.22151</v>
+        <v>0.231643</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.2677</v>
+        <v>0.267474</v>
       </c>
       <c r="C58" t="n">
-        <v>0.22844</v>
+        <v>0.229624</v>
       </c>
       <c r="D58" t="n">
-        <v>0.221895</v>
+        <v>0.231761</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273081</v>
+        <v>0.274708</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231698</v>
+        <v>0.233642</v>
       </c>
       <c r="D59" t="n">
-        <v>0.222928</v>
+        <v>0.233223</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280558</v>
+        <v>0.280673</v>
       </c>
       <c r="C60" t="n">
-        <v>0.236589</v>
+        <v>0.23733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.22468</v>
+        <v>0.234011</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.292534</v>
+        <v>0.294341</v>
       </c>
       <c r="C61" t="n">
-        <v>0.244114</v>
+        <v>0.2451</v>
       </c>
       <c r="D61" t="n">
-        <v>0.227755</v>
+        <v>0.237884</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.308556</v>
+        <v>0.310811</v>
       </c>
       <c r="C62" t="n">
-        <v>0.255134</v>
+        <v>0.253708</v>
       </c>
       <c r="D62" t="n">
-        <v>0.231979</v>
+        <v>0.240347</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.33021</v>
+        <v>0.330062</v>
       </c>
       <c r="C63" t="n">
-        <v>0.266833</v>
+        <v>0.268624</v>
       </c>
       <c r="D63" t="n">
-        <v>0.235864</v>
+        <v>0.24694</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360519</v>
+        <v>0.360189</v>
       </c>
       <c r="C64" t="n">
-        <v>0.288484</v>
+        <v>0.28836</v>
       </c>
       <c r="D64" t="n">
-        <v>0.245062</v>
+        <v>0.254067</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.405823</v>
+        <v>0.403395</v>
       </c>
       <c r="C65" t="n">
-        <v>0.323704</v>
+        <v>0.321489</v>
       </c>
       <c r="D65" t="n">
-        <v>0.262002</v>
+        <v>0.270657</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.458759</v>
+        <v>0.458282</v>
       </c>
       <c r="C66" t="n">
-        <v>0.379039</v>
+        <v>0.374309</v>
       </c>
       <c r="D66" t="n">
-        <v>0.230754</v>
+        <v>0.24266</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.261815</v>
+        <v>0.263567</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235565</v>
+        <v>0.235523</v>
       </c>
       <c r="D67" t="n">
-        <v>0.232389</v>
+        <v>0.24229</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.264803</v>
+        <v>0.265536</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237465</v>
+        <v>0.23649</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233119</v>
+        <v>0.243349</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.264912</v>
+        <v>0.267116</v>
       </c>
       <c r="C69" t="n">
-        <v>0.239053</v>
+        <v>0.237893</v>
       </c>
       <c r="D69" t="n">
-        <v>0.233054</v>
+        <v>0.244831</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.269619</v>
+        <v>0.268278</v>
       </c>
       <c r="C70" t="n">
-        <v>0.238768</v>
+        <v>0.239181</v>
       </c>
       <c r="D70" t="n">
-        <v>0.232913</v>
+        <v>0.244323</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271357</v>
+        <v>0.273798</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241365</v>
+        <v>0.24345</v>
       </c>
       <c r="D71" t="n">
-        <v>0.233496</v>
+        <v>0.246096</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.276838</v>
+        <v>0.276101</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244531</v>
+        <v>0.243637</v>
       </c>
       <c r="D72" t="n">
-        <v>0.235689</v>
+        <v>0.244708</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.282484</v>
+        <v>0.283711</v>
       </c>
       <c r="C73" t="n">
-        <v>0.246451</v>
+        <v>0.248454</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2357</v>
+        <v>0.249248</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292206</v>
+        <v>0.292751</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251476</v>
+        <v>0.250729</v>
       </c>
       <c r="D74" t="n">
-        <v>0.236881</v>
+        <v>0.248623</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.302973</v>
+        <v>0.304604</v>
       </c>
       <c r="C75" t="n">
-        <v>0.257785</v>
+        <v>0.259828</v>
       </c>
       <c r="D75" t="n">
-        <v>0.240327</v>
+        <v>0.250875</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.316277</v>
+        <v>0.317818</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268247</v>
+        <v>0.26967</v>
       </c>
       <c r="D76" t="n">
-        <v>0.243487</v>
+        <v>0.256479</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.33938</v>
+        <v>0.340477</v>
       </c>
       <c r="C77" t="n">
-        <v>0.282823</v>
+        <v>0.280755</v>
       </c>
       <c r="D77" t="n">
-        <v>0.248714</v>
+        <v>0.259499</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.37141</v>
+        <v>0.369444</v>
       </c>
       <c r="C78" t="n">
-        <v>0.301499</v>
+        <v>0.301285</v>
       </c>
       <c r="D78" t="n">
-        <v>0.257084</v>
+        <v>0.268141</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.409279</v>
+        <v>0.41238</v>
       </c>
       <c r="C79" t="n">
-        <v>0.333223</v>
+        <v>0.330201</v>
       </c>
       <c r="D79" t="n">
-        <v>0.271592</v>
+        <v>0.282619</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.467134</v>
+        <v>0.467255</v>
       </c>
       <c r="C80" t="n">
-        <v>0.383423</v>
+        <v>0.380974</v>
       </c>
       <c r="D80" t="n">
-        <v>0.247534</v>
+        <v>0.260485</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277013</v>
+        <v>0.277028</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253714</v>
+        <v>0.2538</v>
       </c>
       <c r="D81" t="n">
-        <v>0.247683</v>
+        <v>0.261149</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.278912</v>
+        <v>0.27907</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254656</v>
+        <v>0.255386</v>
       </c>
       <c r="D82" t="n">
-        <v>0.248497</v>
+        <v>0.26124</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281243</v>
+        <v>0.281021</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256116</v>
+        <v>0.256388</v>
       </c>
       <c r="D83" t="n">
-        <v>0.248774</v>
+        <v>0.262441</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.283953</v>
+        <v>0.284001</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257066</v>
+        <v>0.257495</v>
       </c>
       <c r="D84" t="n">
-        <v>0.249576</v>
+        <v>0.262509</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.28797</v>
+        <v>0.287457</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259122</v>
+        <v>0.259317</v>
       </c>
       <c r="D85" t="n">
-        <v>0.250046</v>
+        <v>0.263134</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292064</v>
+        <v>0.292598</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261675</v>
+        <v>0.261563</v>
       </c>
       <c r="D86" t="n">
-        <v>0.251016</v>
+        <v>0.264311</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298591</v>
+        <v>0.298567</v>
       </c>
       <c r="C87" t="n">
-        <v>0.264854</v>
+        <v>0.265582</v>
       </c>
       <c r="D87" t="n">
-        <v>0.252438</v>
+        <v>0.265636</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.306879</v>
+        <v>0.307235</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269694</v>
+        <v>0.269722</v>
       </c>
       <c r="D88" t="n">
-        <v>0.253619</v>
+        <v>0.267145</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.317672</v>
+        <v>0.317413</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276058</v>
+        <v>0.276055</v>
       </c>
       <c r="D89" t="n">
-        <v>0.25618</v>
+        <v>0.26852</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.332571</v>
+        <v>0.332891</v>
       </c>
       <c r="C90" t="n">
-        <v>0.284946</v>
+        <v>0.285212</v>
       </c>
       <c r="D90" t="n">
-        <v>0.259518</v>
+        <v>0.272272</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353141</v>
+        <v>0.352503</v>
       </c>
       <c r="C91" t="n">
-        <v>0.297969</v>
+        <v>0.298436</v>
       </c>
       <c r="D91" t="n">
-        <v>0.264993</v>
+        <v>0.277218</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382009</v>
+        <v>0.381172</v>
       </c>
       <c r="C92" t="n">
-        <v>0.317131</v>
+        <v>0.317718</v>
       </c>
       <c r="D92" t="n">
-        <v>0.273067</v>
+        <v>0.285429</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421534</v>
+        <v>0.422767</v>
       </c>
       <c r="C93" t="n">
-        <v>0.346656</v>
+        <v>0.346489</v>
       </c>
       <c r="D93" t="n">
-        <v>0.287161</v>
+        <v>0.299248</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.478419</v>
+        <v>0.477535</v>
       </c>
       <c r="C94" t="n">
-        <v>0.392905</v>
+        <v>0.392639</v>
       </c>
       <c r="D94" t="n">
-        <v>0.259202</v>
+        <v>0.272509</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287109</v>
+        <v>0.28735</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266765</v>
+        <v>0.267122</v>
       </c>
       <c r="D95" t="n">
-        <v>0.259321</v>
+        <v>0.272712</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.289063</v>
+        <v>0.28901</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267973</v>
+        <v>0.268028</v>
       </c>
       <c r="D96" t="n">
-        <v>0.259717</v>
+        <v>0.273536</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291273</v>
+        <v>0.291317</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269149</v>
+        <v>0.269244</v>
       </c>
       <c r="D97" t="n">
-        <v>0.260307</v>
+        <v>0.273664</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.29398</v>
+        <v>0.294456</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271078</v>
+        <v>0.2714</v>
       </c>
       <c r="D98" t="n">
-        <v>0.261426</v>
+        <v>0.274416</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.297719</v>
+        <v>0.298181</v>
       </c>
       <c r="C99" t="n">
-        <v>0.272983</v>
+        <v>0.272847</v>
       </c>
       <c r="D99" t="n">
-        <v>0.262112</v>
+        <v>0.275065</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.302885</v>
+        <v>0.303223</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275463</v>
+        <v>0.275753</v>
       </c>
       <c r="D100" t="n">
-        <v>0.262833</v>
+        <v>0.27629</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.30903</v>
+        <v>0.308986</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279953</v>
+        <v>0.279504</v>
       </c>
       <c r="D101" t="n">
-        <v>0.263998</v>
+        <v>0.277922</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.317848</v>
+        <v>0.31705</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285083</v>
+        <v>0.283894</v>
       </c>
       <c r="D102" t="n">
-        <v>0.265758</v>
+        <v>0.279521</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.328375</v>
+        <v>0.328211</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291501</v>
+        <v>0.291314</v>
       </c>
       <c r="D103" t="n">
-        <v>0.267894</v>
+        <v>0.281597</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.343014</v>
+        <v>0.342667</v>
       </c>
       <c r="C104" t="n">
-        <v>0.301977</v>
+        <v>0.300413</v>
       </c>
       <c r="D104" t="n">
-        <v>0.271436</v>
+        <v>0.284591</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.363267</v>
+        <v>0.372054</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316569</v>
+        <v>0.315939</v>
       </c>
       <c r="D105" t="n">
-        <v>0.276192</v>
+        <v>0.289449</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.392303</v>
+        <v>0.391479</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336664</v>
+        <v>0.335717</v>
       </c>
       <c r="D106" t="n">
-        <v>0.284868</v>
+        <v>0.297237</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.434037</v>
+        <v>0.432725</v>
       </c>
       <c r="C107" t="n">
-        <v>0.368162</v>
+        <v>0.366892</v>
       </c>
       <c r="D107" t="n">
-        <v>0.297492</v>
+        <v>0.310473</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.49309</v>
+        <v>0.490888</v>
       </c>
       <c r="C108" t="n">
-        <v>0.415565</v>
+        <v>0.414942</v>
       </c>
       <c r="D108" t="n">
-        <v>0.264996</v>
+        <v>0.279006</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.569326</v>
+        <v>0.588876</v>
       </c>
       <c r="C109" t="n">
-        <v>0.492708</v>
+        <v>0.489142</v>
       </c>
       <c r="D109" t="n">
-        <v>0.266153</v>
+        <v>0.279766</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295355</v>
+        <v>0.295356</v>
       </c>
       <c r="C110" t="n">
-        <v>0.288705</v>
+        <v>0.287689</v>
       </c>
       <c r="D110" t="n">
-        <v>0.267021</v>
+        <v>0.280573</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298379</v>
+        <v>0.297967</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292435</v>
+        <v>0.292565</v>
       </c>
       <c r="D111" t="n">
-        <v>0.268494</v>
+        <v>0.281584</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30228</v>
+        <v>0.302041</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298697</v>
+        <v>0.298061</v>
       </c>
       <c r="D112" t="n">
-        <v>0.269793</v>
+        <v>0.283257</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.306702</v>
+        <v>0.306861</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304861</v>
+        <v>0.304344</v>
       </c>
       <c r="D113" t="n">
-        <v>0.271474</v>
+        <v>0.285048</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.312821</v>
+        <v>0.312641</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312164</v>
+        <v>0.311484</v>
       </c>
       <c r="D114" t="n">
-        <v>0.273358</v>
+        <v>0.286746</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321457</v>
+        <v>0.320598</v>
       </c>
       <c r="C115" t="n">
-        <v>0.320168</v>
+        <v>0.319701</v>
       </c>
       <c r="D115" t="n">
-        <v>0.276624</v>
+        <v>0.289869</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332248</v>
+        <v>0.33145</v>
       </c>
       <c r="C116" t="n">
-        <v>0.329927</v>
+        <v>0.328544</v>
       </c>
       <c r="D116" t="n">
-        <v>0.279859</v>
+        <v>0.29319</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.346795</v>
+        <v>0.345855</v>
       </c>
       <c r="C117" t="n">
-        <v>0.340802</v>
+        <v>0.339882</v>
       </c>
       <c r="D117" t="n">
-        <v>0.284699</v>
+        <v>0.297355</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365958</v>
+        <v>0.365038</v>
       </c>
       <c r="C118" t="n">
-        <v>0.35488</v>
+        <v>0.353554</v>
       </c>
       <c r="D118" t="n">
-        <v>0.290997</v>
+        <v>0.30363</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.391199</v>
+        <v>0.390404</v>
       </c>
       <c r="C119" t="n">
-        <v>0.372609</v>
+        <v>0.37069</v>
       </c>
       <c r="D119" t="n">
-        <v>0.299353</v>
+        <v>0.31177</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.424562</v>
+        <v>0.424287</v>
       </c>
       <c r="C120" t="n">
-        <v>0.396922</v>
+        <v>0.394626</v>
       </c>
       <c r="D120" t="n">
-        <v>0.310425</v>
+        <v>0.323971</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.470848</v>
+        <v>0.470722</v>
       </c>
       <c r="C121" t="n">
-        <v>0.431063</v>
+        <v>0.428877</v>
       </c>
       <c r="D121" t="n">
-        <v>0.327887</v>
+        <v>0.340658</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.536071</v>
+        <v>0.53532</v>
       </c>
       <c r="C122" t="n">
-        <v>0.484293</v>
+        <v>0.481015</v>
       </c>
       <c r="D122" t="n">
-        <v>0.355737</v>
+        <v>0.36775</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.625857</v>
+        <v>0.624858</v>
       </c>
       <c r="C123" t="n">
-        <v>0.571252</v>
+        <v>0.5646870000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.296227</v>
+        <v>0.309214</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.326426</v>
+        <v>0.327486</v>
       </c>
       <c r="C124" t="n">
-        <v>0.339017</v>
+        <v>0.33955</v>
       </c>
       <c r="D124" t="n">
-        <v>0.298235</v>
+        <v>0.313894</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.332426</v>
+        <v>0.333188</v>
       </c>
       <c r="C125" t="n">
-        <v>0.343601</v>
+        <v>0.344731</v>
       </c>
       <c r="D125" t="n">
-        <v>0.302479</v>
+        <v>0.314861</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.336847</v>
+        <v>0.337848</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349529</v>
+        <v>0.345745</v>
       </c>
       <c r="D126" t="n">
-        <v>0.309706</v>
+        <v>0.31824</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.344029</v>
+        <v>0.343926</v>
       </c>
       <c r="C127" t="n">
-        <v>0.35414</v>
+        <v>0.351797</v>
       </c>
       <c r="D127" t="n">
-        <v>0.309269</v>
+        <v>0.321987</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.35274</v>
+        <v>0.351227</v>
       </c>
       <c r="C128" t="n">
-        <v>0.360566</v>
+        <v>0.356646</v>
       </c>
       <c r="D128" t="n">
-        <v>0.311914</v>
+        <v>0.325924</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.365004</v>
+        <v>0.361531</v>
       </c>
       <c r="C129" t="n">
-        <v>0.366698</v>
+        <v>0.36436</v>
       </c>
       <c r="D129" t="n">
-        <v>0.31547</v>
+        <v>0.330346</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372052</v>
+        <v>0.372464</v>
       </c>
       <c r="C130" t="n">
-        <v>0.376862</v>
+        <v>0.372482</v>
       </c>
       <c r="D130" t="n">
-        <v>0.321876</v>
+        <v>0.334047</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386926</v>
+        <v>0.386136</v>
       </c>
       <c r="C131" t="n">
-        <v>0.386917</v>
+        <v>0.382621</v>
       </c>
       <c r="D131" t="n">
-        <v>0.32453</v>
+        <v>0.336943</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.406184</v>
+        <v>0.406653</v>
       </c>
       <c r="C132" t="n">
-        <v>0.402208</v>
+        <v>0.397457</v>
       </c>
       <c r="D132" t="n">
-        <v>0.330345</v>
+        <v>0.343101</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.429192</v>
+        <v>0.429637</v>
       </c>
       <c r="C133" t="n">
-        <v>0.422238</v>
+        <v>0.415571</v>
       </c>
       <c r="D133" t="n">
-        <v>0.337947</v>
+        <v>0.351326</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.464523</v>
+        <v>0.464912</v>
       </c>
       <c r="C134" t="n">
-        <v>0.444871</v>
+        <v>0.43794</v>
       </c>
       <c r="D134" t="n">
-        <v>0.349121</v>
+        <v>0.360804</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.508139</v>
+        <v>0.507363</v>
       </c>
       <c r="C135" t="n">
-        <v>0.480123</v>
+        <v>0.478197</v>
       </c>
       <c r="D135" t="n">
-        <v>0.363457</v>
+        <v>0.377929</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.577225</v>
+        <v>0.572006</v>
       </c>
       <c r="C136" t="n">
-        <v>0.531377</v>
+        <v>0.52969</v>
       </c>
       <c r="D136" t="n">
-        <v>0.389297</v>
+        <v>0.401521</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.667645</v>
+        <v>0.66753</v>
       </c>
       <c r="C137" t="n">
-        <v>0.620395</v>
+        <v>0.613307</v>
       </c>
       <c r="D137" t="n">
-        <v>0.440195</v>
+        <v>0.44343</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.495886</v>
+        <v>0.4938</v>
       </c>
       <c r="C138" t="n">
-        <v>0.492608</v>
+        <v>0.487614</v>
       </c>
       <c r="D138" t="n">
-        <v>0.443957</v>
+        <v>0.447682</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.5105189999999999</v>
+        <v>0.513136</v>
       </c>
       <c r="C139" t="n">
-        <v>0.496477</v>
+        <v>0.497209</v>
       </c>
       <c r="D139" t="n">
-        <v>0.440741</v>
+        <v>0.457596</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.513629</v>
+        <v>0.513367</v>
       </c>
       <c r="C140" t="n">
-        <v>0.503905</v>
+        <v>0.503888</v>
       </c>
       <c r="D140" t="n">
-        <v>0.451565</v>
+        <v>0.463666</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.523498</v>
+        <v>0.51774</v>
       </c>
       <c r="C141" t="n">
-        <v>0.512424</v>
+        <v>0.5056310000000001</v>
       </c>
       <c r="D141" t="n">
-        <v>0.4549</v>
+        <v>0.466222</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.535931</v>
+        <v>0.531135</v>
       </c>
       <c r="C142" t="n">
-        <v>0.515521</v>
+        <v>0.513148</v>
       </c>
       <c r="D142" t="n">
-        <v>0.456475</v>
+        <v>0.466998</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.533794</v>
+        <v>0.530923</v>
       </c>
       <c r="C143" t="n">
-        <v>0.525051</v>
+        <v>0.523218</v>
       </c>
       <c r="D143" t="n">
-        <v>0.467741</v>
+        <v>0.473401</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259273</v>
+        <v>0.259091</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223392</v>
+        <v>0.223323</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226127</v>
+        <v>0.226073</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266681</v>
+        <v>0.266483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.224685</v>
+        <v>0.22406</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226562</v>
+        <v>0.226491</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276626</v>
+        <v>0.276418</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229616</v>
+        <v>0.229372</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228647</v>
+        <v>0.22853</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.291961</v>
+        <v>0.291781</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237926</v>
+        <v>0.237909</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232433</v>
+        <v>0.232174</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.31386</v>
+        <v>0.313393</v>
       </c>
       <c r="C6" t="n">
-        <v>0.248905</v>
+        <v>0.248683</v>
       </c>
       <c r="D6" t="n">
-        <v>0.236037</v>
+        <v>0.235809</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.348312</v>
+        <v>0.348253</v>
       </c>
       <c r="C7" t="n">
-        <v>0.272049</v>
+        <v>0.271832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.244265</v>
+        <v>0.243884</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.389447</v>
+        <v>0.389194</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304383</v>
+        <v>0.303796</v>
       </c>
       <c r="D8" t="n">
-        <v>0.259547</v>
+        <v>0.25947</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.435583</v>
+        <v>0.435414</v>
       </c>
       <c r="C9" t="n">
-        <v>0.358164</v>
+        <v>0.358525</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222235</v>
+        <v>0.222018</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241834</v>
+        <v>0.241554</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213747</v>
+        <v>0.213553</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22225</v>
+        <v>0.222077</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243195</v>
+        <v>0.242994</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213822</v>
+        <v>0.213656</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222367</v>
+        <v>0.222159</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245478</v>
+        <v>0.245232</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215343</v>
+        <v>0.215182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222927</v>
+        <v>0.222746</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247335</v>
+        <v>0.247116</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216479</v>
+        <v>0.216288</v>
       </c>
       <c r="D13" t="n">
-        <v>0.223026</v>
+        <v>0.222819</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250363</v>
+        <v>0.250126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217669</v>
+        <v>0.217438</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223433</v>
+        <v>0.22322</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.254723</v>
+        <v>0.254464</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219923</v>
+        <v>0.219638</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224154</v>
+        <v>0.22395</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25946</v>
+        <v>0.259191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222326</v>
+        <v>0.222175</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225179</v>
+        <v>0.225017</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.266154</v>
+        <v>0.265903</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225328</v>
+        <v>0.224949</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226298</v>
+        <v>0.226043</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276996</v>
+        <v>0.276804</v>
       </c>
       <c r="C18" t="n">
-        <v>0.231662</v>
+        <v>0.23171</v>
       </c>
       <c r="D18" t="n">
-        <v>0.228107</v>
+        <v>0.227927</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.292166</v>
+        <v>0.291951</v>
       </c>
       <c r="C19" t="n">
-        <v>0.240365</v>
+        <v>0.24026</v>
       </c>
       <c r="D19" t="n">
-        <v>0.231177</v>
+        <v>0.230938</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.314167</v>
+        <v>0.313762</v>
       </c>
       <c r="C20" t="n">
-        <v>0.252058</v>
+        <v>0.25159</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2344</v>
+        <v>0.234265</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.341586</v>
+        <v>0.3412</v>
       </c>
       <c r="C21" t="n">
-        <v>0.267094</v>
+        <v>0.266643</v>
       </c>
       <c r="D21" t="n">
-        <v>0.24095</v>
+        <v>0.240829</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.379278</v>
+        <v>0.37875</v>
       </c>
       <c r="C22" t="n">
-        <v>0.296285</v>
+        <v>0.296365</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253615</v>
+        <v>0.253365</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.427475</v>
+        <v>0.426968</v>
       </c>
       <c r="C23" t="n">
-        <v>0.343161</v>
+        <v>0.342537</v>
       </c>
       <c r="D23" t="n">
-        <v>0.22352</v>
+        <v>0.223401</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245642</v>
+        <v>0.245489</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214998</v>
+        <v>0.214631</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223966</v>
+        <v>0.223804</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.246983</v>
+        <v>0.246777</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215149</v>
+        <v>0.215169</v>
       </c>
       <c r="D25" t="n">
-        <v>0.22399</v>
+        <v>0.223791</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248441</v>
+        <v>0.248232</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215918</v>
+        <v>0.215958</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224379</v>
+        <v>0.224167</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250489</v>
+        <v>0.250336</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216988</v>
+        <v>0.21675</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224709</v>
+        <v>0.224511</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.25391</v>
+        <v>0.253691</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218689</v>
+        <v>0.218283</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22557</v>
+        <v>0.225329</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257719</v>
+        <v>0.257458</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220301</v>
+        <v>0.220192</v>
       </c>
       <c r="D29" t="n">
-        <v>0.22592</v>
+        <v>0.225814</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263162</v>
+        <v>0.263173</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222825</v>
+        <v>0.222713</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226877</v>
+        <v>0.226682</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269731</v>
+        <v>0.269222</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227208</v>
+        <v>0.226892</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227975</v>
+        <v>0.227761</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279644</v>
+        <v>0.279338</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232995</v>
+        <v>0.232459</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229911</v>
+        <v>0.229774</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293458</v>
+        <v>0.293216</v>
       </c>
       <c r="C33" t="n">
-        <v>0.242076</v>
+        <v>0.241616</v>
       </c>
       <c r="D33" t="n">
-        <v>0.233136</v>
+        <v>0.23307</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.312282</v>
+        <v>0.312426</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254654</v>
+        <v>0.254044</v>
       </c>
       <c r="D34" t="n">
-        <v>0.23731</v>
+        <v>0.237125</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.337652</v>
+        <v>0.337553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270934</v>
+        <v>0.270457</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244371</v>
+        <v>0.244372</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.373347</v>
+        <v>0.373947</v>
       </c>
       <c r="C36" t="n">
-        <v>0.298574</v>
+        <v>0.298943</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25666</v>
+        <v>0.25686</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.421503</v>
+        <v>0.42107</v>
       </c>
       <c r="C37" t="n">
-        <v>0.337605</v>
+        <v>0.338708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224612</v>
+        <v>0.224423</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247086</v>
+        <v>0.246851</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215779</v>
+        <v>0.216026</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224818</v>
+        <v>0.224643</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248608</v>
+        <v>0.248391</v>
       </c>
       <c r="C39" t="n">
-        <v>0.21651</v>
+        <v>0.216552</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225213</v>
+        <v>0.225052</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.249962</v>
+        <v>0.249822</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217334</v>
+        <v>0.217662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225461</v>
+        <v>0.225409</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252055</v>
+        <v>0.25196</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218819</v>
+        <v>0.218683</v>
       </c>
       <c r="D41" t="n">
-        <v>0.225876</v>
+        <v>0.225847</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254809</v>
+        <v>0.254609</v>
       </c>
       <c r="C42" t="n">
-        <v>0.22065</v>
+        <v>0.220474</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226579</v>
+        <v>0.226502</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.258673</v>
+        <v>0.25851</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222454</v>
+        <v>0.222285</v>
       </c>
       <c r="D43" t="n">
-        <v>0.22735</v>
+        <v>0.227188</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264029</v>
+        <v>0.26389</v>
       </c>
       <c r="C44" t="n">
-        <v>0.225966</v>
+        <v>0.225437</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228211</v>
+        <v>0.228122</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27102</v>
+        <v>0.270925</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229692</v>
+        <v>0.228964</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229514</v>
+        <v>0.229283</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.280003</v>
+        <v>0.27973</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235285</v>
+        <v>0.234913</v>
       </c>
       <c r="D46" t="n">
-        <v>0.231357</v>
+        <v>0.231272</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291997</v>
+        <v>0.291819</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243437</v>
+        <v>0.243012</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234221</v>
+        <v>0.234223</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309542</v>
+        <v>0.309356</v>
       </c>
       <c r="C48" t="n">
-        <v>0.253781</v>
+        <v>0.25299</v>
       </c>
       <c r="D48" t="n">
-        <v>0.23841</v>
+        <v>0.238343</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.333489</v>
+        <v>0.333517</v>
       </c>
       <c r="C49" t="n">
-        <v>0.268823</v>
+        <v>0.268554</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244794</v>
+        <v>0.244764</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.365805</v>
+        <v>0.365694</v>
       </c>
       <c r="C50" t="n">
-        <v>0.292073</v>
+        <v>0.292413</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256121</v>
+        <v>0.256048</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.411693</v>
+        <v>0.411382</v>
       </c>
       <c r="C51" t="n">
-        <v>0.328913</v>
+        <v>0.330214</v>
       </c>
       <c r="D51" t="n">
-        <v>0.229987</v>
+        <v>0.227533</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465021</v>
+        <v>0.465099</v>
       </c>
       <c r="C52" t="n">
-        <v>0.38154</v>
+        <v>0.382945</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228825</v>
+        <v>0.227068</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.253004</v>
+        <v>0.250816</v>
       </c>
       <c r="C53" t="n">
-        <v>0.223461</v>
+        <v>0.220053</v>
       </c>
       <c r="D53" t="n">
-        <v>0.230802</v>
+        <v>0.227445</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.254838</v>
+        <v>0.253617</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223335</v>
+        <v>0.222428</v>
       </c>
       <c r="D54" t="n">
-        <v>0.229966</v>
+        <v>0.22926</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255378</v>
+        <v>0.255123</v>
       </c>
       <c r="C55" t="n">
-        <v>0.224393</v>
+        <v>0.222696</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230559</v>
+        <v>0.228809</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258385</v>
+        <v>0.258181</v>
       </c>
       <c r="C56" t="n">
-        <v>0.224937</v>
+        <v>0.224526</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23023</v>
+        <v>0.229512</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262129</v>
+        <v>0.262844</v>
       </c>
       <c r="C57" t="n">
-        <v>0.227632</v>
+        <v>0.22719</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231643</v>
+        <v>0.231062</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.267474</v>
+        <v>0.266638</v>
       </c>
       <c r="C58" t="n">
-        <v>0.229624</v>
+        <v>0.228467</v>
       </c>
       <c r="D58" t="n">
-        <v>0.231761</v>
+        <v>0.230957</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.274708</v>
+        <v>0.275142</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233642</v>
+        <v>0.233234</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233223</v>
+        <v>0.233305</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.280673</v>
+        <v>0.281068</v>
       </c>
       <c r="C60" t="n">
-        <v>0.23733</v>
+        <v>0.238919</v>
       </c>
       <c r="D60" t="n">
-        <v>0.234011</v>
+        <v>0.235941</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294341</v>
+        <v>0.293747</v>
       </c>
       <c r="C61" t="n">
-        <v>0.2451</v>
+        <v>0.245652</v>
       </c>
       <c r="D61" t="n">
-        <v>0.237884</v>
+        <v>0.238367</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.310811</v>
+        <v>0.309728</v>
       </c>
       <c r="C62" t="n">
-        <v>0.253708</v>
+        <v>0.255062</v>
       </c>
       <c r="D62" t="n">
-        <v>0.240347</v>
+        <v>0.241192</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.330062</v>
+        <v>0.329892</v>
       </c>
       <c r="C63" t="n">
-        <v>0.268624</v>
+        <v>0.267599</v>
       </c>
       <c r="D63" t="n">
-        <v>0.24694</v>
+        <v>0.246088</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360189</v>
+        <v>0.359684</v>
       </c>
       <c r="C64" t="n">
-        <v>0.28836</v>
+        <v>0.29045</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254067</v>
+        <v>0.255631</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.403395</v>
+        <v>0.406704</v>
       </c>
       <c r="C65" t="n">
-        <v>0.321489</v>
+        <v>0.32862</v>
       </c>
       <c r="D65" t="n">
-        <v>0.270657</v>
+        <v>0.276211</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.458282</v>
+        <v>0.463012</v>
       </c>
       <c r="C66" t="n">
-        <v>0.374309</v>
+        <v>0.377111</v>
       </c>
       <c r="D66" t="n">
-        <v>0.24266</v>
+        <v>0.242195</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.263567</v>
+        <v>0.260593</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235523</v>
+        <v>0.235793</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24229</v>
+        <v>0.240989</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.265536</v>
+        <v>0.262597</v>
       </c>
       <c r="C68" t="n">
-        <v>0.23649</v>
+        <v>0.237781</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243349</v>
+        <v>0.243506</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.267116</v>
+        <v>0.266251</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237893</v>
+        <v>0.236762</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244831</v>
+        <v>0.242201</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268278</v>
+        <v>0.26712</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239181</v>
+        <v>0.239073</v>
       </c>
       <c r="D70" t="n">
-        <v>0.244323</v>
+        <v>0.243805</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.273798</v>
+        <v>0.273267</v>
       </c>
       <c r="C71" t="n">
-        <v>0.24345</v>
+        <v>0.242008</v>
       </c>
       <c r="D71" t="n">
-        <v>0.246096</v>
+        <v>0.246248</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.276101</v>
+        <v>0.277346</v>
       </c>
       <c r="C72" t="n">
-        <v>0.243637</v>
+        <v>0.244276</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244708</v>
+        <v>0.246173</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283711</v>
+        <v>0.284332</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248454</v>
+        <v>0.247372</v>
       </c>
       <c r="D73" t="n">
-        <v>0.249248</v>
+        <v>0.248624</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292751</v>
+        <v>0.290663</v>
       </c>
       <c r="C74" t="n">
-        <v>0.250729</v>
+        <v>0.25318</v>
       </c>
       <c r="D74" t="n">
-        <v>0.248623</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.304604</v>
+        <v>0.302305</v>
       </c>
       <c r="C75" t="n">
-        <v>0.259828</v>
+        <v>0.258302</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250875</v>
+        <v>0.250462</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.317818</v>
+        <v>0.318108</v>
       </c>
       <c r="C76" t="n">
-        <v>0.26967</v>
+        <v>0.267947</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256479</v>
+        <v>0.254028</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.340477</v>
+        <v>0.338615</v>
       </c>
       <c r="C77" t="n">
-        <v>0.280755</v>
+        <v>0.28156</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259499</v>
+        <v>0.259324</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.369444</v>
+        <v>0.368143</v>
       </c>
       <c r="C78" t="n">
-        <v>0.301285</v>
+        <v>0.300176</v>
       </c>
       <c r="D78" t="n">
-        <v>0.268141</v>
+        <v>0.267547</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.41238</v>
+        <v>0.411033</v>
       </c>
       <c r="C79" t="n">
-        <v>0.330201</v>
+        <v>0.33284</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282619</v>
+        <v>0.284852</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.467255</v>
+        <v>0.465867</v>
       </c>
       <c r="C80" t="n">
-        <v>0.380974</v>
+        <v>0.381494</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260485</v>
+        <v>0.260514</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277028</v>
+        <v>0.276942</v>
       </c>
       <c r="C81" t="n">
-        <v>0.2538</v>
+        <v>0.253661</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261149</v>
+        <v>0.261014</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.27907</v>
+        <v>0.278623</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255386</v>
+        <v>0.254583</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26124</v>
+        <v>0.261382</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281021</v>
+        <v>0.281072</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256388</v>
+        <v>0.256043</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262441</v>
+        <v>0.262264</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284001</v>
+        <v>0.284114</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257495</v>
+        <v>0.257646</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262509</v>
+        <v>0.262811</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287457</v>
+        <v>0.287181</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259317</v>
+        <v>0.259156</v>
       </c>
       <c r="D85" t="n">
-        <v>0.263134</v>
+        <v>0.263329</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292598</v>
+        <v>0.29254</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261563</v>
+        <v>0.261849</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264311</v>
+        <v>0.264471</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298567</v>
+        <v>0.299068</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265582</v>
+        <v>0.265328</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265636</v>
+        <v>0.265403</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.307235</v>
+        <v>0.306789</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269722</v>
+        <v>0.26959</v>
       </c>
       <c r="D88" t="n">
-        <v>0.267145</v>
+        <v>0.267345</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.317413</v>
+        <v>0.317684</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276055</v>
+        <v>0.276332</v>
       </c>
       <c r="D89" t="n">
-        <v>0.26852</v>
+        <v>0.269126</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.332891</v>
+        <v>0.332739</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285212</v>
+        <v>0.285453</v>
       </c>
       <c r="D90" t="n">
-        <v>0.272272</v>
+        <v>0.273137</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352503</v>
+        <v>0.353684</v>
       </c>
       <c r="C91" t="n">
-        <v>0.298436</v>
+        <v>0.298127</v>
       </c>
       <c r="D91" t="n">
-        <v>0.277218</v>
+        <v>0.27793</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.381172</v>
+        <v>0.381437</v>
       </c>
       <c r="C92" t="n">
-        <v>0.317718</v>
+        <v>0.317443</v>
       </c>
       <c r="D92" t="n">
-        <v>0.285429</v>
+        <v>0.285598</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.422767</v>
+        <v>0.421957</v>
       </c>
       <c r="C93" t="n">
-        <v>0.346489</v>
+        <v>0.346441</v>
       </c>
       <c r="D93" t="n">
-        <v>0.299248</v>
+        <v>0.299381</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.477535</v>
+        <v>0.477534</v>
       </c>
       <c r="C94" t="n">
-        <v>0.392639</v>
+        <v>0.391969</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272509</v>
+        <v>0.272358</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.28735</v>
+        <v>0.286941</v>
       </c>
       <c r="C95" t="n">
-        <v>0.267122</v>
+        <v>0.267461</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272712</v>
+        <v>0.27315</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.28901</v>
+        <v>0.289165</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268028</v>
+        <v>0.268064</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273536</v>
+        <v>0.273273</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291317</v>
+        <v>0.29123</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269244</v>
+        <v>0.269562</v>
       </c>
       <c r="D97" t="n">
-        <v>0.273664</v>
+        <v>0.274165</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294456</v>
+        <v>0.294047</v>
       </c>
       <c r="C98" t="n">
-        <v>0.2714</v>
+        <v>0.270958</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274416</v>
+        <v>0.275174</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298181</v>
+        <v>0.297774</v>
       </c>
       <c r="C99" t="n">
-        <v>0.272847</v>
+        <v>0.273405</v>
       </c>
       <c r="D99" t="n">
-        <v>0.275065</v>
+        <v>0.2755</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.303223</v>
+        <v>0.302787</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275753</v>
+        <v>0.276342</v>
       </c>
       <c r="D100" t="n">
-        <v>0.27629</v>
+        <v>0.276606</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308986</v>
+        <v>0.308941</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279504</v>
+        <v>0.279509</v>
       </c>
       <c r="D101" t="n">
-        <v>0.277922</v>
+        <v>0.277504</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.31705</v>
+        <v>0.316928</v>
       </c>
       <c r="C102" t="n">
-        <v>0.283894</v>
+        <v>0.285407</v>
       </c>
       <c r="D102" t="n">
-        <v>0.279521</v>
+        <v>0.279496</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.328211</v>
+        <v>0.328111</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291314</v>
+        <v>0.291582</v>
       </c>
       <c r="D103" t="n">
-        <v>0.281597</v>
+        <v>0.281631</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.342667</v>
+        <v>0.342878</v>
       </c>
       <c r="C104" t="n">
-        <v>0.300413</v>
+        <v>0.301731</v>
       </c>
       <c r="D104" t="n">
-        <v>0.284591</v>
+        <v>0.284758</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.372054</v>
+        <v>0.36353</v>
       </c>
       <c r="C105" t="n">
-        <v>0.315939</v>
+        <v>0.316798</v>
       </c>
       <c r="D105" t="n">
-        <v>0.289449</v>
+        <v>0.289596</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.391479</v>
+        <v>0.391846</v>
       </c>
       <c r="C106" t="n">
-        <v>0.335717</v>
+        <v>0.337941</v>
       </c>
       <c r="D106" t="n">
-        <v>0.297237</v>
+        <v>0.297767</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.432725</v>
+        <v>0.43388</v>
       </c>
       <c r="C107" t="n">
-        <v>0.366892</v>
+        <v>0.368434</v>
       </c>
       <c r="D107" t="n">
-        <v>0.310473</v>
+        <v>0.309836</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.490888</v>
+        <v>0.493034</v>
       </c>
       <c r="C108" t="n">
-        <v>0.414942</v>
+        <v>0.416941</v>
       </c>
       <c r="D108" t="n">
-        <v>0.279006</v>
+        <v>0.279172</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.588876</v>
+        <v>0.589561</v>
       </c>
       <c r="C109" t="n">
-        <v>0.489142</v>
+        <v>0.48896</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279766</v>
+        <v>0.279827</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295356</v>
+        <v>0.295392</v>
       </c>
       <c r="C110" t="n">
-        <v>0.287689</v>
+        <v>0.28855</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280573</v>
+        <v>0.280958</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.297967</v>
+        <v>0.298214</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292565</v>
+        <v>0.292278</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281584</v>
+        <v>0.281785</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302041</v>
+        <v>0.30182</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298061</v>
+        <v>0.297945</v>
       </c>
       <c r="D112" t="n">
-        <v>0.283257</v>
+        <v>0.283536</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.306861</v>
+        <v>0.306772</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304344</v>
+        <v>0.305127</v>
       </c>
       <c r="D113" t="n">
-        <v>0.285048</v>
+        <v>0.284706</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.312641</v>
+        <v>0.312812</v>
       </c>
       <c r="C114" t="n">
-        <v>0.311484</v>
+        <v>0.311668</v>
       </c>
       <c r="D114" t="n">
-        <v>0.286746</v>
+        <v>0.286937</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.320598</v>
+        <v>0.321147</v>
       </c>
       <c r="C115" t="n">
-        <v>0.319701</v>
+        <v>0.319611</v>
       </c>
       <c r="D115" t="n">
-        <v>0.289869</v>
+        <v>0.289815</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.33145</v>
+        <v>0.331871</v>
       </c>
       <c r="C116" t="n">
-        <v>0.328544</v>
+        <v>0.329025</v>
       </c>
       <c r="D116" t="n">
-        <v>0.29319</v>
+        <v>0.293337</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.345855</v>
+        <v>0.346044</v>
       </c>
       <c r="C117" t="n">
-        <v>0.339882</v>
+        <v>0.339734</v>
       </c>
       <c r="D117" t="n">
-        <v>0.297355</v>
+        <v>0.297903</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.365038</v>
+        <v>0.364967</v>
       </c>
       <c r="C118" t="n">
-        <v>0.353554</v>
+        <v>0.353558</v>
       </c>
       <c r="D118" t="n">
-        <v>0.30363</v>
+        <v>0.304032</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.390404</v>
+        <v>0.39099</v>
       </c>
       <c r="C119" t="n">
-        <v>0.37069</v>
+        <v>0.371183</v>
       </c>
       <c r="D119" t="n">
-        <v>0.31177</v>
+        <v>0.312146</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.424287</v>
+        <v>0.424498</v>
       </c>
       <c r="C120" t="n">
-        <v>0.394626</v>
+        <v>0.395573</v>
       </c>
       <c r="D120" t="n">
-        <v>0.323971</v>
+        <v>0.323906</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.470722</v>
+        <v>0.471036</v>
       </c>
       <c r="C121" t="n">
-        <v>0.428877</v>
+        <v>0.429425</v>
       </c>
       <c r="D121" t="n">
-        <v>0.340658</v>
+        <v>0.340777</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.53532</v>
+        <v>0.536216</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481015</v>
+        <v>0.481612</v>
       </c>
       <c r="D122" t="n">
-        <v>0.36775</v>
+        <v>0.367896</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.624858</v>
+        <v>0.628895</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5646870000000001</v>
+        <v>0.564819</v>
       </c>
       <c r="D123" t="n">
-        <v>0.309214</v>
+        <v>0.311091</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.327486</v>
+        <v>0.329957</v>
       </c>
       <c r="C124" t="n">
-        <v>0.33955</v>
+        <v>0.341986</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313894</v>
+        <v>0.314335</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.333188</v>
+        <v>0.333982</v>
       </c>
       <c r="C125" t="n">
-        <v>0.344731</v>
+        <v>0.343233</v>
       </c>
       <c r="D125" t="n">
-        <v>0.314861</v>
+        <v>0.316443</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337848</v>
+        <v>0.338703</v>
       </c>
       <c r="C126" t="n">
-        <v>0.345745</v>
+        <v>0.348728</v>
       </c>
       <c r="D126" t="n">
-        <v>0.31824</v>
+        <v>0.318286</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.343926</v>
+        <v>0.344873</v>
       </c>
       <c r="C127" t="n">
-        <v>0.351797</v>
+        <v>0.353237</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321987</v>
+        <v>0.321453</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.351227</v>
+        <v>0.352226</v>
       </c>
       <c r="C128" t="n">
-        <v>0.356646</v>
+        <v>0.360021</v>
       </c>
       <c r="D128" t="n">
-        <v>0.325924</v>
+        <v>0.325586</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.361531</v>
+        <v>0.361864</v>
       </c>
       <c r="C129" t="n">
-        <v>0.36436</v>
+        <v>0.364479</v>
       </c>
       <c r="D129" t="n">
-        <v>0.330346</v>
+        <v>0.329291</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372464</v>
+        <v>0.372599</v>
       </c>
       <c r="C130" t="n">
-        <v>0.372482</v>
+        <v>0.375667</v>
       </c>
       <c r="D130" t="n">
-        <v>0.334047</v>
+        <v>0.336876</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386136</v>
+        <v>0.385498</v>
       </c>
       <c r="C131" t="n">
-        <v>0.382621</v>
+        <v>0.385247</v>
       </c>
       <c r="D131" t="n">
-        <v>0.336943</v>
+        <v>0.338894</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.406653</v>
+        <v>0.405585</v>
       </c>
       <c r="C132" t="n">
-        <v>0.397457</v>
+        <v>0.397196</v>
       </c>
       <c r="D132" t="n">
-        <v>0.343101</v>
+        <v>0.344671</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.429637</v>
+        <v>0.428426</v>
       </c>
       <c r="C133" t="n">
-        <v>0.415571</v>
+        <v>0.416818</v>
       </c>
       <c r="D133" t="n">
-        <v>0.351326</v>
+        <v>0.352307</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.464912</v>
+        <v>0.463547</v>
       </c>
       <c r="C134" t="n">
-        <v>0.43794</v>
+        <v>0.44026</v>
       </c>
       <c r="D134" t="n">
-        <v>0.360804</v>
+        <v>0.36621</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.507363</v>
+        <v>0.5048319999999999</v>
       </c>
       <c r="C135" t="n">
-        <v>0.478197</v>
+        <v>0.478528</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377929</v>
+        <v>0.37673</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.572006</v>
+        <v>0.585042</v>
       </c>
       <c r="C136" t="n">
-        <v>0.52969</v>
+        <v>0.531004</v>
       </c>
       <c r="D136" t="n">
-        <v>0.401521</v>
+        <v>0.403153</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.66753</v>
+        <v>0.670917</v>
       </c>
       <c r="C137" t="n">
-        <v>0.613307</v>
+        <v>0.6145119999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.44343</v>
+        <v>0.451386</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.4938</v>
+        <v>0.493777</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487614</v>
+        <v>0.487663</v>
       </c>
       <c r="D138" t="n">
-        <v>0.447682</v>
+        <v>0.453241</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.513136</v>
+        <v>0.499429</v>
       </c>
       <c r="C139" t="n">
-        <v>0.497209</v>
+        <v>0.498321</v>
       </c>
       <c r="D139" t="n">
-        <v>0.457596</v>
+        <v>0.451325</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.513367</v>
+        <v>0.509254</v>
       </c>
       <c r="C140" t="n">
-        <v>0.503888</v>
+        <v>0.508584</v>
       </c>
       <c r="D140" t="n">
-        <v>0.463666</v>
+        <v>0.460576</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.51774</v>
+        <v>0.518363</v>
       </c>
       <c r="C141" t="n">
-        <v>0.5056310000000001</v>
+        <v>0.512622</v>
       </c>
       <c r="D141" t="n">
-        <v>0.466222</v>
+        <v>0.46171</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.531135</v>
+        <v>0.533037</v>
       </c>
       <c r="C142" t="n">
-        <v>0.513148</v>
+        <v>0.516277</v>
       </c>
       <c r="D142" t="n">
-        <v>0.466998</v>
+        <v>0.469289</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.530923</v>
+        <v>0.533985</v>
       </c>
       <c r="C143" t="n">
-        <v>0.523218</v>
+        <v>0.521916</v>
       </c>
       <c r="D143" t="n">
-        <v>0.473401</v>
+        <v>0.474035</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259091</v>
+        <v>0.259266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223323</v>
+        <v>0.222633</v>
       </c>
       <c r="D2" t="n">
-        <v>0.226073</v>
+        <v>0.225671</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266483</v>
+        <v>0.266495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.22406</v>
+        <v>0.223687</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226491</v>
+        <v>0.226161</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276418</v>
+        <v>0.276161</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229372</v>
+        <v>0.228319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.22853</v>
+        <v>0.228036</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.291781</v>
+        <v>0.291604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.237909</v>
+        <v>0.236729</v>
       </c>
       <c r="D5" t="n">
-        <v>0.232174</v>
+        <v>0.231446</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313393</v>
+        <v>0.313272</v>
       </c>
       <c r="C6" t="n">
-        <v>0.248683</v>
+        <v>0.247267</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235809</v>
+        <v>0.234886</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.348253</v>
+        <v>0.347794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.271832</v>
+        <v>0.270041</v>
       </c>
       <c r="D7" t="n">
-        <v>0.243884</v>
+        <v>0.242969</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.389194</v>
+        <v>0.388137</v>
       </c>
       <c r="C8" t="n">
-        <v>0.303796</v>
+        <v>0.301505</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25947</v>
+        <v>0.257599</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.435414</v>
+        <v>0.431608</v>
       </c>
       <c r="C9" t="n">
-        <v>0.358525</v>
+        <v>0.357461</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222018</v>
+        <v>0.222244</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241554</v>
+        <v>0.241766</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213553</v>
+        <v>0.213858</v>
       </c>
       <c r="D10" t="n">
-        <v>0.222077</v>
+        <v>0.222206</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242994</v>
+        <v>0.243172</v>
       </c>
       <c r="C11" t="n">
-        <v>0.213656</v>
+        <v>0.214055</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222159</v>
+        <v>0.222311</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245232</v>
+        <v>0.245433</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215182</v>
+        <v>0.215497</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222746</v>
+        <v>0.222834</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247116</v>
+        <v>0.247188</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216288</v>
+        <v>0.216655</v>
       </c>
       <c r="D13" t="n">
-        <v>0.222819</v>
+        <v>0.222889</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250126</v>
+        <v>0.250153</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217438</v>
+        <v>0.217713</v>
       </c>
       <c r="D14" t="n">
-        <v>0.22322</v>
+        <v>0.223298</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.254464</v>
+        <v>0.254554</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219638</v>
+        <v>0.219721</v>
       </c>
       <c r="D15" t="n">
-        <v>0.22395</v>
+        <v>0.224062</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259191</v>
+        <v>0.259491</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222175</v>
+        <v>0.222195</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225017</v>
+        <v>0.225016</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.265903</v>
+        <v>0.26616</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224949</v>
+        <v>0.225054</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226043</v>
+        <v>0.226011</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.276804</v>
+        <v>0.277001</v>
       </c>
       <c r="C18" t="n">
-        <v>0.23171</v>
+        <v>0.231099</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227927</v>
+        <v>0.227773</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.291951</v>
+        <v>0.292199</v>
       </c>
       <c r="C19" t="n">
-        <v>0.24026</v>
+        <v>0.238956</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230938</v>
+        <v>0.230669</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.313762</v>
+        <v>0.313929</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25159</v>
+        <v>0.250347</v>
       </c>
       <c r="D20" t="n">
-        <v>0.234265</v>
+        <v>0.233918</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.3412</v>
+        <v>0.340493</v>
       </c>
       <c r="C21" t="n">
-        <v>0.266643</v>
+        <v>0.265304</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240829</v>
+        <v>0.240154</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.37875</v>
+        <v>0.377312</v>
       </c>
       <c r="C22" t="n">
-        <v>0.296365</v>
+        <v>0.294593</v>
       </c>
       <c r="D22" t="n">
-        <v>0.253365</v>
+        <v>0.252438</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.426968</v>
+        <v>0.423723</v>
       </c>
       <c r="C23" t="n">
-        <v>0.342537</v>
+        <v>0.341584</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223401</v>
+        <v>0.223551</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245489</v>
+        <v>0.245631</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214631</v>
+        <v>0.215219</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223804</v>
+        <v>0.223933</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.246777</v>
+        <v>0.247052</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215169</v>
+        <v>0.215529</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223791</v>
+        <v>0.223909</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248232</v>
+        <v>0.248486</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215958</v>
+        <v>0.216316</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224167</v>
+        <v>0.224329</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250336</v>
+        <v>0.250586</v>
       </c>
       <c r="C27" t="n">
-        <v>0.21675</v>
+        <v>0.217599</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224511</v>
+        <v>0.224653</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.253691</v>
+        <v>0.254065</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218283</v>
+        <v>0.219008</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225329</v>
+        <v>0.225447</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257458</v>
+        <v>0.257714</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220192</v>
+        <v>0.220719</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225814</v>
+        <v>0.225902</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263173</v>
+        <v>0.263202</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222713</v>
+        <v>0.223389</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226682</v>
+        <v>0.226754</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269222</v>
+        <v>0.269409</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226892</v>
+        <v>0.227103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227761</v>
+        <v>0.227824</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279338</v>
+        <v>0.27969</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232459</v>
+        <v>0.232726</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229774</v>
+        <v>0.229743</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293216</v>
+        <v>0.293459</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241616</v>
+        <v>0.241757</v>
       </c>
       <c r="D33" t="n">
-        <v>0.23307</v>
+        <v>0.232956</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.312426</v>
+        <v>0.31237</v>
       </c>
       <c r="C34" t="n">
-        <v>0.254044</v>
+        <v>0.253774</v>
       </c>
       <c r="D34" t="n">
-        <v>0.237125</v>
+        <v>0.237051</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.337553</v>
+        <v>0.336937</v>
       </c>
       <c r="C35" t="n">
-        <v>0.270457</v>
+        <v>0.26954</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244372</v>
+        <v>0.243963</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.373947</v>
+        <v>0.371952</v>
       </c>
       <c r="C36" t="n">
-        <v>0.298943</v>
+        <v>0.29726</v>
       </c>
       <c r="D36" t="n">
-        <v>0.25686</v>
+        <v>0.257417</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.42107</v>
+        <v>0.418422</v>
       </c>
       <c r="C37" t="n">
-        <v>0.338708</v>
+        <v>0.337897</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224423</v>
+        <v>0.224661</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.246851</v>
+        <v>0.247093</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216026</v>
+        <v>0.216201</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224643</v>
+        <v>0.224941</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248391</v>
+        <v>0.248622</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216552</v>
+        <v>0.216969</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225052</v>
+        <v>0.225367</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.249822</v>
+        <v>0.250041</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217662</v>
+        <v>0.217742</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225409</v>
+        <v>0.225606</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.25196</v>
+        <v>0.252104</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218683</v>
+        <v>0.21897</v>
       </c>
       <c r="D41" t="n">
-        <v>0.225847</v>
+        <v>0.226017</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254609</v>
+        <v>0.254825</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220474</v>
+        <v>0.220799</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226502</v>
+        <v>0.226627</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.25851</v>
+        <v>0.25882</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222285</v>
+        <v>0.222715</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227188</v>
+        <v>0.227314</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.26389</v>
+        <v>0.264127</v>
       </c>
       <c r="C44" t="n">
-        <v>0.225437</v>
+        <v>0.225761</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228122</v>
+        <v>0.228407</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.270925</v>
+        <v>0.27117</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228964</v>
+        <v>0.229356</v>
       </c>
       <c r="D45" t="n">
-        <v>0.229283</v>
+        <v>0.22946</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.27973</v>
+        <v>0.279924</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234913</v>
+        <v>0.235132</v>
       </c>
       <c r="D46" t="n">
-        <v>0.231272</v>
+        <v>0.231376</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291819</v>
+        <v>0.291915</v>
       </c>
       <c r="C47" t="n">
-        <v>0.243012</v>
+        <v>0.242928</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234223</v>
+        <v>0.234292</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309356</v>
+        <v>0.309276</v>
       </c>
       <c r="C48" t="n">
-        <v>0.25299</v>
+        <v>0.252579</v>
       </c>
       <c r="D48" t="n">
-        <v>0.238343</v>
+        <v>0.238299</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.333517</v>
+        <v>0.332824</v>
       </c>
       <c r="C49" t="n">
-        <v>0.268554</v>
+        <v>0.267697</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244764</v>
+        <v>0.244726</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.365694</v>
+        <v>0.364191</v>
       </c>
       <c r="C50" t="n">
-        <v>0.292413</v>
+        <v>0.291528</v>
       </c>
       <c r="D50" t="n">
-        <v>0.256048</v>
+        <v>0.255802</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.411382</v>
+        <v>0.409092</v>
       </c>
       <c r="C51" t="n">
-        <v>0.330214</v>
+        <v>0.328873</v>
       </c>
       <c r="D51" t="n">
-        <v>0.227533</v>
+        <v>0.226785</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.465099</v>
+        <v>0.45986</v>
       </c>
       <c r="C52" t="n">
-        <v>0.382945</v>
+        <v>0.381503</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227068</v>
+        <v>0.227191</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.250816</v>
+        <v>0.253214</v>
       </c>
       <c r="C53" t="n">
-        <v>0.220053</v>
+        <v>0.220738</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227445</v>
+        <v>0.227809</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.253617</v>
+        <v>0.254692</v>
       </c>
       <c r="C54" t="n">
-        <v>0.222428</v>
+        <v>0.221818</v>
       </c>
       <c r="D54" t="n">
-        <v>0.22926</v>
+        <v>0.228236</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255123</v>
+        <v>0.255544</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222696</v>
+        <v>0.223187</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228809</v>
+        <v>0.229326</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258181</v>
+        <v>0.25857</v>
       </c>
       <c r="C56" t="n">
-        <v>0.224526</v>
+        <v>0.225035</v>
       </c>
       <c r="D56" t="n">
-        <v>0.229512</v>
+        <v>0.230144</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262844</v>
+        <v>0.262026</v>
       </c>
       <c r="C57" t="n">
-        <v>0.22719</v>
+        <v>0.226796</v>
       </c>
       <c r="D57" t="n">
-        <v>0.231062</v>
+        <v>0.230217</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.266638</v>
+        <v>0.268535</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228467</v>
+        <v>0.228738</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230957</v>
+        <v>0.230855</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.275142</v>
+        <v>0.273307</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233234</v>
+        <v>0.233015</v>
       </c>
       <c r="D59" t="n">
-        <v>0.233305</v>
+        <v>0.232746</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281068</v>
+        <v>0.281248</v>
       </c>
       <c r="C60" t="n">
-        <v>0.238919</v>
+        <v>0.237762</v>
       </c>
       <c r="D60" t="n">
-        <v>0.235941</v>
+        <v>0.234742</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.293747</v>
+        <v>0.292966</v>
       </c>
       <c r="C61" t="n">
-        <v>0.245652</v>
+        <v>0.243311</v>
       </c>
       <c r="D61" t="n">
-        <v>0.238367</v>
+        <v>0.236183</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.309728</v>
+        <v>0.308475</v>
       </c>
       <c r="C62" t="n">
-        <v>0.255062</v>
+        <v>0.252891</v>
       </c>
       <c r="D62" t="n">
-        <v>0.241192</v>
+        <v>0.239605</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.329892</v>
+        <v>0.329882</v>
       </c>
       <c r="C63" t="n">
-        <v>0.267599</v>
+        <v>0.266073</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246088</v>
+        <v>0.244821</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.359684</v>
+        <v>0.360952</v>
       </c>
       <c r="C64" t="n">
-        <v>0.29045</v>
+        <v>0.287515</v>
       </c>
       <c r="D64" t="n">
-        <v>0.255631</v>
+        <v>0.254505</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.406704</v>
+        <v>0.402355</v>
       </c>
       <c r="C65" t="n">
-        <v>0.32862</v>
+        <v>0.321123</v>
       </c>
       <c r="D65" t="n">
-        <v>0.276211</v>
+        <v>0.270642</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.463012</v>
+        <v>0.455786</v>
       </c>
       <c r="C66" t="n">
-        <v>0.377111</v>
+        <v>0.375413</v>
       </c>
       <c r="D66" t="n">
-        <v>0.242195</v>
+        <v>0.241979</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.260593</v>
+        <v>0.261174</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235793</v>
+        <v>0.237246</v>
       </c>
       <c r="D67" t="n">
-        <v>0.240989</v>
+        <v>0.244458</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.262597</v>
+        <v>0.263934</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237781</v>
+        <v>0.236022</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243506</v>
+        <v>0.241984</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.266251</v>
+        <v>0.267174</v>
       </c>
       <c r="C69" t="n">
-        <v>0.236762</v>
+        <v>0.237124</v>
       </c>
       <c r="D69" t="n">
-        <v>0.242201</v>
+        <v>0.241971</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.26712</v>
+        <v>0.268851</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239073</v>
+        <v>0.239243</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243805</v>
+        <v>0.243421</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.273267</v>
+        <v>0.272208</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242008</v>
+        <v>0.242422</v>
       </c>
       <c r="D71" t="n">
-        <v>0.246248</v>
+        <v>0.244893</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277346</v>
+        <v>0.276502</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244276</v>
+        <v>0.245036</v>
       </c>
       <c r="D72" t="n">
-        <v>0.246173</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.284332</v>
+        <v>0.282803</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247372</v>
+        <v>0.247671</v>
       </c>
       <c r="D73" t="n">
-        <v>0.248624</v>
+        <v>0.247226</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.290663</v>
+        <v>0.29153</v>
       </c>
       <c r="C74" t="n">
-        <v>0.25318</v>
+        <v>0.251892</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2499</v>
+        <v>0.249279</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.302305</v>
+        <v>0.303711</v>
       </c>
       <c r="C75" t="n">
-        <v>0.258302</v>
+        <v>0.258129</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250462</v>
+        <v>0.251908</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318108</v>
+        <v>0.318329</v>
       </c>
       <c r="C76" t="n">
-        <v>0.267947</v>
+        <v>0.266129</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254028</v>
+        <v>0.254635</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.338615</v>
+        <v>0.340433</v>
       </c>
       <c r="C77" t="n">
-        <v>0.28156</v>
+        <v>0.282433</v>
       </c>
       <c r="D77" t="n">
-        <v>0.259324</v>
+        <v>0.261341</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.368143</v>
+        <v>0.369858</v>
       </c>
       <c r="C78" t="n">
-        <v>0.300176</v>
+        <v>0.30166</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267547</v>
+        <v>0.26882</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.411033</v>
+        <v>0.412525</v>
       </c>
       <c r="C79" t="n">
-        <v>0.33284</v>
+        <v>0.330031</v>
       </c>
       <c r="D79" t="n">
-        <v>0.284852</v>
+        <v>0.282516</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.465867</v>
+        <v>0.46316</v>
       </c>
       <c r="C80" t="n">
-        <v>0.381494</v>
+        <v>0.380945</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260514</v>
+        <v>0.260877</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.276942</v>
+        <v>0.277297</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253661</v>
+        <v>0.254206</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261014</v>
+        <v>0.261189</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.278623</v>
+        <v>0.278721</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254583</v>
+        <v>0.255643</v>
       </c>
       <c r="D82" t="n">
-        <v>0.261382</v>
+        <v>0.261414</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.281072</v>
+        <v>0.280846</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256043</v>
+        <v>0.256258</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262264</v>
+        <v>0.262134</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284114</v>
+        <v>0.283775</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257646</v>
+        <v>0.258063</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262811</v>
+        <v>0.262236</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287181</v>
+        <v>0.287714</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259156</v>
+        <v>0.259565</v>
       </c>
       <c r="D85" t="n">
-        <v>0.263329</v>
+        <v>0.263578</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.29254</v>
+        <v>0.292072</v>
       </c>
       <c r="C86" t="n">
-        <v>0.261849</v>
+        <v>0.262022</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264471</v>
+        <v>0.264324</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.299068</v>
+        <v>0.298491</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265328</v>
+        <v>0.265691</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265403</v>
+        <v>0.264859</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.306789</v>
+        <v>0.307129</v>
       </c>
       <c r="C88" t="n">
-        <v>0.26959</v>
+        <v>0.270233</v>
       </c>
       <c r="D88" t="n">
-        <v>0.267345</v>
+        <v>0.266774</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.317684</v>
+        <v>0.317926</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276332</v>
+        <v>0.276222</v>
       </c>
       <c r="D89" t="n">
-        <v>0.269126</v>
+        <v>0.268612</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.332739</v>
+        <v>0.333003</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285453</v>
+        <v>0.285048</v>
       </c>
       <c r="D90" t="n">
-        <v>0.273137</v>
+        <v>0.272245</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353684</v>
+        <v>0.352778</v>
       </c>
       <c r="C91" t="n">
-        <v>0.298127</v>
+        <v>0.297283</v>
       </c>
       <c r="D91" t="n">
-        <v>0.27793</v>
+        <v>0.277362</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.381437</v>
+        <v>0.381731</v>
       </c>
       <c r="C92" t="n">
-        <v>0.317443</v>
+        <v>0.316335</v>
       </c>
       <c r="D92" t="n">
-        <v>0.285598</v>
+        <v>0.285597</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421957</v>
+        <v>0.421515</v>
       </c>
       <c r="C93" t="n">
-        <v>0.346441</v>
+        <v>0.345163</v>
       </c>
       <c r="D93" t="n">
-        <v>0.299381</v>
+        <v>0.298731</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.477534</v>
+        <v>0.476299</v>
       </c>
       <c r="C94" t="n">
-        <v>0.391969</v>
+        <v>0.390052</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272358</v>
+        <v>0.272336</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.286941</v>
+        <v>0.287166</v>
       </c>
       <c r="C95" t="n">
-        <v>0.267461</v>
+        <v>0.26699</v>
       </c>
       <c r="D95" t="n">
-        <v>0.27315</v>
+        <v>0.272759</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.289165</v>
+        <v>0.288951</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268064</v>
+        <v>0.26837</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273273</v>
+        <v>0.273501</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.29123</v>
+        <v>0.291154</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269562</v>
+        <v>0.269879</v>
       </c>
       <c r="D97" t="n">
-        <v>0.274165</v>
+        <v>0.273478</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294047</v>
+        <v>0.294233</v>
       </c>
       <c r="C98" t="n">
-        <v>0.270958</v>
+        <v>0.271344</v>
       </c>
       <c r="D98" t="n">
-        <v>0.275174</v>
+        <v>0.274138</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.297774</v>
+        <v>0.297914</v>
       </c>
       <c r="C99" t="n">
-        <v>0.273405</v>
+        <v>0.273467</v>
       </c>
       <c r="D99" t="n">
-        <v>0.2755</v>
+        <v>0.275619</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.302787</v>
+        <v>0.30273</v>
       </c>
       <c r="C100" t="n">
-        <v>0.276342</v>
+        <v>0.275983</v>
       </c>
       <c r="D100" t="n">
-        <v>0.276606</v>
+        <v>0.276063</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308941</v>
+        <v>0.309086</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279509</v>
+        <v>0.280073</v>
       </c>
       <c r="D101" t="n">
-        <v>0.277504</v>
+        <v>0.277387</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.316928</v>
+        <v>0.316892</v>
       </c>
       <c r="C102" t="n">
-        <v>0.285407</v>
+        <v>0.284788</v>
       </c>
       <c r="D102" t="n">
-        <v>0.279496</v>
+        <v>0.279128</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.328111</v>
+        <v>0.328286</v>
       </c>
       <c r="C103" t="n">
-        <v>0.291582</v>
+        <v>0.29189</v>
       </c>
       <c r="D103" t="n">
-        <v>0.281631</v>
+        <v>0.281344</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.342878</v>
+        <v>0.342949</v>
       </c>
       <c r="C104" t="n">
-        <v>0.301731</v>
+        <v>0.301556</v>
       </c>
       <c r="D104" t="n">
-        <v>0.284758</v>
+        <v>0.284792</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.36353</v>
+        <v>0.36357</v>
       </c>
       <c r="C105" t="n">
-        <v>0.316798</v>
+        <v>0.315641</v>
       </c>
       <c r="D105" t="n">
-        <v>0.289596</v>
+        <v>0.289542</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.391846</v>
+        <v>0.391752</v>
       </c>
       <c r="C106" t="n">
-        <v>0.337941</v>
+        <v>0.335667</v>
       </c>
       <c r="D106" t="n">
-        <v>0.297767</v>
+        <v>0.297403</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.43388</v>
+        <v>0.43292</v>
       </c>
       <c r="C107" t="n">
-        <v>0.368434</v>
+        <v>0.365931</v>
       </c>
       <c r="D107" t="n">
-        <v>0.309836</v>
+        <v>0.310591</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.493034</v>
+        <v>0.501287</v>
       </c>
       <c r="C108" t="n">
-        <v>0.416941</v>
+        <v>0.412604</v>
       </c>
       <c r="D108" t="n">
-        <v>0.279172</v>
+        <v>0.278935</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.589561</v>
+        <v>0.567984</v>
       </c>
       <c r="C109" t="n">
-        <v>0.48896</v>
+        <v>0.491265</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279827</v>
+        <v>0.280048</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295392</v>
+        <v>0.295321</v>
       </c>
       <c r="C110" t="n">
-        <v>0.28855</v>
+        <v>0.288858</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280958</v>
+        <v>0.281175</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298214</v>
+        <v>0.298689</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292278</v>
+        <v>0.292981</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281785</v>
+        <v>0.281766</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.30182</v>
+        <v>0.302112</v>
       </c>
       <c r="C112" t="n">
-        <v>0.297945</v>
+        <v>0.298823</v>
       </c>
       <c r="D112" t="n">
-        <v>0.283536</v>
+        <v>0.283845</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.306772</v>
+        <v>0.307088</v>
       </c>
       <c r="C113" t="n">
         <v>0.305127</v>
       </c>
       <c r="D113" t="n">
-        <v>0.284706</v>
+        <v>0.285001</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.312812</v>
+        <v>0.312841</v>
       </c>
       <c r="C114" t="n">
-        <v>0.311668</v>
+        <v>0.312489</v>
       </c>
       <c r="D114" t="n">
-        <v>0.286937</v>
+        <v>0.287378</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321147</v>
+        <v>0.321127</v>
       </c>
       <c r="C115" t="n">
-        <v>0.319611</v>
+        <v>0.320519</v>
       </c>
       <c r="D115" t="n">
-        <v>0.289815</v>
+        <v>0.290057</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.331871</v>
+        <v>0.33158</v>
       </c>
       <c r="C116" t="n">
-        <v>0.329025</v>
+        <v>0.33001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.293337</v>
+        <v>0.29345</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.346044</v>
+        <v>0.346774</v>
       </c>
       <c r="C117" t="n">
-        <v>0.339734</v>
+        <v>0.340649</v>
       </c>
       <c r="D117" t="n">
-        <v>0.297903</v>
+        <v>0.297935</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.364967</v>
+        <v>0.364837</v>
       </c>
       <c r="C118" t="n">
-        <v>0.353558</v>
+        <v>0.354382</v>
       </c>
       <c r="D118" t="n">
-        <v>0.304032</v>
+        <v>0.30403</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.39099</v>
+        <v>0.390679</v>
       </c>
       <c r="C119" t="n">
-        <v>0.371183</v>
+        <v>0.371807</v>
       </c>
       <c r="D119" t="n">
-        <v>0.312146</v>
+        <v>0.312404</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.424498</v>
+        <v>0.424104</v>
       </c>
       <c r="C120" t="n">
-        <v>0.395573</v>
+        <v>0.395304</v>
       </c>
       <c r="D120" t="n">
-        <v>0.323906</v>
+        <v>0.324022</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.471036</v>
+        <v>0.470489</v>
       </c>
       <c r="C121" t="n">
-        <v>0.429425</v>
+        <v>0.428471</v>
       </c>
       <c r="D121" t="n">
-        <v>0.340777</v>
+        <v>0.340475</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.536216</v>
+        <v>0.534366</v>
       </c>
       <c r="C122" t="n">
-        <v>0.481612</v>
+        <v>0.480643</v>
       </c>
       <c r="D122" t="n">
-        <v>0.367896</v>
+        <v>0.367661</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628895</v>
+        <v>0.639472</v>
       </c>
       <c r="C123" t="n">
-        <v>0.564819</v>
+        <v>0.5653899999999999</v>
       </c>
       <c r="D123" t="n">
-        <v>0.311091</v>
+        <v>0.308209</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.329957</v>
+        <v>0.327983</v>
       </c>
       <c r="C124" t="n">
-        <v>0.341986</v>
+        <v>0.339455</v>
       </c>
       <c r="D124" t="n">
-        <v>0.314335</v>
+        <v>0.311436</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.333982</v>
+        <v>0.330751</v>
       </c>
       <c r="C125" t="n">
-        <v>0.343233</v>
+        <v>0.344276</v>
       </c>
       <c r="D125" t="n">
-        <v>0.316443</v>
+        <v>0.315998</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.338703</v>
+        <v>0.337535</v>
       </c>
       <c r="C126" t="n">
-        <v>0.348728</v>
+        <v>0.349722</v>
       </c>
       <c r="D126" t="n">
-        <v>0.318286</v>
+        <v>0.320868</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.344873</v>
+        <v>0.345062</v>
       </c>
       <c r="C127" t="n">
-        <v>0.353237</v>
+        <v>0.355779</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321453</v>
+        <v>0.321847</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.352226</v>
+        <v>0.351085</v>
       </c>
       <c r="C128" t="n">
-        <v>0.360021</v>
+        <v>0.359971</v>
       </c>
       <c r="D128" t="n">
-        <v>0.325586</v>
+        <v>0.325597</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.361864</v>
+        <v>0.361366</v>
       </c>
       <c r="C129" t="n">
-        <v>0.364479</v>
+        <v>0.368308</v>
       </c>
       <c r="D129" t="n">
-        <v>0.329291</v>
+        <v>0.328979</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372599</v>
+        <v>0.372708</v>
       </c>
       <c r="C130" t="n">
-        <v>0.375667</v>
+        <v>0.375397</v>
       </c>
       <c r="D130" t="n">
-        <v>0.336876</v>
+        <v>0.333852</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.385498</v>
+        <v>0.391867</v>
       </c>
       <c r="C131" t="n">
-        <v>0.385247</v>
+        <v>0.390789</v>
       </c>
       <c r="D131" t="n">
-        <v>0.338894</v>
+        <v>0.337841</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.405585</v>
+        <v>0.404394</v>
       </c>
       <c r="C132" t="n">
-        <v>0.397196</v>
+        <v>0.40065</v>
       </c>
       <c r="D132" t="n">
-        <v>0.344671</v>
+        <v>0.343456</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.428426</v>
+        <v>0.428215</v>
       </c>
       <c r="C133" t="n">
-        <v>0.416818</v>
+        <v>0.416307</v>
       </c>
       <c r="D133" t="n">
-        <v>0.352307</v>
+        <v>0.352005</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.463547</v>
+        <v>0.459744</v>
       </c>
       <c r="C134" t="n">
-        <v>0.44026</v>
+        <v>0.442033</v>
       </c>
       <c r="D134" t="n">
-        <v>0.36621</v>
+        <v>0.360753</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.5048319999999999</v>
+        <v>0.505558</v>
       </c>
       <c r="C135" t="n">
-        <v>0.478528</v>
+        <v>0.477697</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37673</v>
+        <v>0.377275</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.585042</v>
+        <v>0.5696059999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>0.531004</v>
+        <v>0.531285</v>
       </c>
       <c r="D136" t="n">
-        <v>0.403153</v>
+        <v>0.402681</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.670917</v>
+        <v>0.683909</v>
       </c>
       <c r="C137" t="n">
-        <v>0.6145119999999999</v>
+        <v>0.613899</v>
       </c>
       <c r="D137" t="n">
-        <v>0.451386</v>
+        <v>0.452583</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.493777</v>
+        <v>0.494744</v>
       </c>
       <c r="C138" t="n">
-        <v>0.487663</v>
+        <v>0.485039</v>
       </c>
       <c r="D138" t="n">
-        <v>0.453241</v>
+        <v>0.44819</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.499429</v>
+        <v>0.50541</v>
       </c>
       <c r="C139" t="n">
-        <v>0.498321</v>
+        <v>0.498611</v>
       </c>
       <c r="D139" t="n">
-        <v>0.451325</v>
+        <v>0.46115</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.509254</v>
+        <v>0.50845</v>
       </c>
       <c r="C140" t="n">
-        <v>0.508584</v>
+        <v>0.50529</v>
       </c>
       <c r="D140" t="n">
-        <v>0.460576</v>
+        <v>0.459055</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.518363</v>
+        <v>0.515385</v>
       </c>
       <c r="C141" t="n">
-        <v>0.512622</v>
+        <v>0.505307</v>
       </c>
       <c r="D141" t="n">
-        <v>0.46171</v>
+        <v>0.466125</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.533037</v>
+        <v>0.520639</v>
       </c>
       <c r="C142" t="n">
-        <v>0.516277</v>
+        <v>0.511273</v>
       </c>
       <c r="D142" t="n">
-        <v>0.469289</v>
+        <v>0.468794</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.533985</v>
+        <v>0.53229</v>
       </c>
       <c r="C143" t="n">
-        <v>0.521916</v>
+        <v>0.525854</v>
       </c>
       <c r="D143" t="n">
-        <v>0.474035</v>
+        <v>0.468286</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.259266</v>
+        <v>0.260279</v>
       </c>
       <c r="C2" t="n">
-        <v>0.222633</v>
+        <v>0.223918</v>
       </c>
       <c r="D2" t="n">
-        <v>0.225671</v>
+        <v>0.224691</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.266495</v>
+        <v>0.267983</v>
       </c>
       <c r="C3" t="n">
-        <v>0.223687</v>
+        <v>0.225319</v>
       </c>
       <c r="D3" t="n">
-        <v>0.226161</v>
+        <v>0.225192</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.276161</v>
+        <v>0.278289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.228319</v>
+        <v>0.230138</v>
       </c>
       <c r="D4" t="n">
-        <v>0.228036</v>
+        <v>0.227195</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.291604</v>
+        <v>0.294981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236729</v>
+        <v>0.23865</v>
       </c>
       <c r="D5" t="n">
-        <v>0.231446</v>
+        <v>0.230715</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.313272</v>
+        <v>0.317109</v>
       </c>
       <c r="C6" t="n">
-        <v>0.247267</v>
+        <v>0.249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234886</v>
+        <v>0.234374</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.347794</v>
+        <v>0.35297</v>
       </c>
       <c r="C7" t="n">
-        <v>0.270041</v>
+        <v>0.27171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242969</v>
+        <v>0.242241</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.388137</v>
+        <v>0.394295</v>
       </c>
       <c r="C8" t="n">
-        <v>0.301505</v>
+        <v>0.302553</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257599</v>
+        <v>0.257337</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.431608</v>
+        <v>0.438279</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357461</v>
+        <v>0.357487</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222244</v>
+        <v>0.222186</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241766</v>
+        <v>0.241542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213858</v>
+        <v>0.213882</v>
       </c>
       <c r="D10" t="n">
-        <v>0.222206</v>
+        <v>0.222081</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.243172</v>
+        <v>0.242982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214055</v>
+        <v>0.214049</v>
       </c>
       <c r="D11" t="n">
-        <v>0.222311</v>
+        <v>0.221651</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245433</v>
+        <v>0.245377</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215497</v>
+        <v>0.215445</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222834</v>
+        <v>0.222933</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247188</v>
+        <v>0.247308</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216655</v>
+        <v>0.216664</v>
       </c>
       <c r="D13" t="n">
-        <v>0.222889</v>
+        <v>0.222253</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250153</v>
+        <v>0.250412</v>
       </c>
       <c r="C14" t="n">
-        <v>0.217713</v>
+        <v>0.218204</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223298</v>
+        <v>0.222656</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.254554</v>
+        <v>0.25488</v>
       </c>
       <c r="C15" t="n">
-        <v>0.219721</v>
+        <v>0.220052</v>
       </c>
       <c r="D15" t="n">
-        <v>0.224062</v>
+        <v>0.223411</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.259491</v>
+        <v>0.260045</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222195</v>
+        <v>0.222844</v>
       </c>
       <c r="D16" t="n">
-        <v>0.225016</v>
+        <v>0.224451</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.26616</v>
+        <v>0.267219</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225054</v>
+        <v>0.225945</v>
       </c>
       <c r="D17" t="n">
-        <v>0.226011</v>
+        <v>0.225412</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.277001</v>
+        <v>0.27822</v>
       </c>
       <c r="C18" t="n">
-        <v>0.231099</v>
+        <v>0.231508</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227773</v>
+        <v>0.227272</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.292199</v>
+        <v>0.294584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.238956</v>
+        <v>0.239961</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230669</v>
+        <v>0.230242</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.313929</v>
+        <v>0.316782</v>
       </c>
       <c r="C20" t="n">
-        <v>0.250347</v>
+        <v>0.251086</v>
       </c>
       <c r="D20" t="n">
-        <v>0.233918</v>
+        <v>0.23354</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.340493</v>
+        <v>0.34482</v>
       </c>
       <c r="C21" t="n">
-        <v>0.265304</v>
+        <v>0.266509</v>
       </c>
       <c r="D21" t="n">
-        <v>0.240154</v>
+        <v>0.239909</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.377312</v>
+        <v>0.382391</v>
       </c>
       <c r="C22" t="n">
-        <v>0.294593</v>
+        <v>0.295381</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252438</v>
+        <v>0.252905</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.423723</v>
+        <v>0.429403</v>
       </c>
       <c r="C23" t="n">
-        <v>0.341584</v>
+        <v>0.340894</v>
       </c>
       <c r="D23" t="n">
-        <v>0.223551</v>
+        <v>0.222998</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245631</v>
+        <v>0.245467</v>
       </c>
       <c r="C24" t="n">
-        <v>0.215219</v>
+        <v>0.214896</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223933</v>
+        <v>0.223403</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.247052</v>
+        <v>0.246945</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215529</v>
+        <v>0.215266</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223909</v>
+        <v>0.223373</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248486</v>
+        <v>0.248525</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216316</v>
+        <v>0.216083</v>
       </c>
       <c r="D26" t="n">
-        <v>0.224329</v>
+        <v>0.223767</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250586</v>
+        <v>0.250721</v>
       </c>
       <c r="C27" t="n">
-        <v>0.217599</v>
+        <v>0.216834</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224653</v>
+        <v>0.224066</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254065</v>
+        <v>0.254334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.219008</v>
+        <v>0.218496</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225447</v>
+        <v>0.224903</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.257714</v>
+        <v>0.258109</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220719</v>
+        <v>0.220248</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225902</v>
+        <v>0.225317</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.263202</v>
+        <v>0.264152</v>
       </c>
       <c r="C30" t="n">
-        <v>0.223389</v>
+        <v>0.222773</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226754</v>
+        <v>0.226225</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269409</v>
+        <v>0.270528</v>
       </c>
       <c r="C31" t="n">
-        <v>0.227103</v>
+        <v>0.226704</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227824</v>
+        <v>0.227267</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.27969</v>
+        <v>0.281122</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232726</v>
+        <v>0.232433</v>
       </c>
       <c r="D32" t="n">
-        <v>0.229743</v>
+        <v>0.22932</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.293459</v>
+        <v>0.295531</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241757</v>
+        <v>0.241194</v>
       </c>
       <c r="D33" t="n">
-        <v>0.232956</v>
+        <v>0.232538</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.31237</v>
+        <v>0.314635</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253774</v>
+        <v>0.253795</v>
       </c>
       <c r="D34" t="n">
-        <v>0.237051</v>
+        <v>0.236687</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.336937</v>
+        <v>0.340361</v>
       </c>
       <c r="C35" t="n">
-        <v>0.26954</v>
+        <v>0.269493</v>
       </c>
       <c r="D35" t="n">
-        <v>0.243963</v>
+        <v>0.244009</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.371952</v>
+        <v>0.376552</v>
       </c>
       <c r="C36" t="n">
-        <v>0.29726</v>
+        <v>0.296988</v>
       </c>
       <c r="D36" t="n">
-        <v>0.257417</v>
+        <v>0.256316</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.418422</v>
+        <v>0.42298</v>
       </c>
       <c r="C37" t="n">
-        <v>0.337897</v>
+        <v>0.335534</v>
       </c>
       <c r="D37" t="n">
-        <v>0.224661</v>
+        <v>0.223979</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247093</v>
+        <v>0.247052</v>
       </c>
       <c r="C38" t="n">
-        <v>0.216201</v>
+        <v>0.215707</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224941</v>
+        <v>0.224153</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248622</v>
+        <v>0.248556</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216969</v>
+        <v>0.216439</v>
       </c>
       <c r="D39" t="n">
-        <v>0.225367</v>
+        <v>0.224648</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.250041</v>
+        <v>0.250056</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217742</v>
+        <v>0.217367</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225606</v>
+        <v>0.224926</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.252104</v>
+        <v>0.25223</v>
       </c>
       <c r="C41" t="n">
-        <v>0.21897</v>
+        <v>0.218439</v>
       </c>
       <c r="D41" t="n">
-        <v>0.226017</v>
+        <v>0.225331</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.254825</v>
+        <v>0.255198</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220799</v>
+        <v>0.220044</v>
       </c>
       <c r="D42" t="n">
-        <v>0.226627</v>
+        <v>0.225917</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.25882</v>
+        <v>0.259369</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222715</v>
+        <v>0.222143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.227314</v>
+        <v>0.226792</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264127</v>
+        <v>0.264954</v>
       </c>
       <c r="C44" t="n">
-        <v>0.225761</v>
+        <v>0.22515</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228407</v>
+        <v>0.227636</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.27117</v>
+        <v>0.272321</v>
       </c>
       <c r="C45" t="n">
-        <v>0.229356</v>
+        <v>0.228631</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22946</v>
+        <v>0.228789</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.279924</v>
+        <v>0.281526</v>
       </c>
       <c r="C46" t="n">
-        <v>0.235132</v>
+        <v>0.234496</v>
       </c>
       <c r="D46" t="n">
-        <v>0.231376</v>
+        <v>0.23071</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291915</v>
+        <v>0.293873</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242928</v>
+        <v>0.242307</v>
       </c>
       <c r="D47" t="n">
-        <v>0.234292</v>
+        <v>0.233682</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309276</v>
+        <v>0.311623</v>
       </c>
       <c r="C48" t="n">
-        <v>0.252579</v>
+        <v>0.252329</v>
       </c>
       <c r="D48" t="n">
-        <v>0.238299</v>
+        <v>0.237787</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.332824</v>
+        <v>0.335917</v>
       </c>
       <c r="C49" t="n">
-        <v>0.267697</v>
+        <v>0.267341</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244726</v>
+        <v>0.244424</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.364191</v>
+        <v>0.367608</v>
       </c>
       <c r="C50" t="n">
-        <v>0.291528</v>
+        <v>0.29074</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255802</v>
+        <v>0.255794</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.409092</v>
+        <v>0.413225</v>
       </c>
       <c r="C51" t="n">
-        <v>0.328873</v>
+        <v>0.328203</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226785</v>
+        <v>0.226237</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.45986</v>
+        <v>0.471139</v>
       </c>
       <c r="C52" t="n">
-        <v>0.381503</v>
+        <v>0.380696</v>
       </c>
       <c r="D52" t="n">
-        <v>0.227191</v>
+        <v>0.228006</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.253214</v>
+        <v>0.251298</v>
       </c>
       <c r="C53" t="n">
-        <v>0.220738</v>
+        <v>0.221421</v>
       </c>
       <c r="D53" t="n">
-        <v>0.227809</v>
+        <v>0.228573</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.254692</v>
+        <v>0.253129</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221818</v>
+        <v>0.221996</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228236</v>
+        <v>0.228828</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255544</v>
+        <v>0.255675</v>
       </c>
       <c r="C55" t="n">
-        <v>0.223187</v>
+        <v>0.222807</v>
       </c>
       <c r="D55" t="n">
-        <v>0.229326</v>
+        <v>0.228911</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.25857</v>
+        <v>0.258866</v>
       </c>
       <c r="C56" t="n">
-        <v>0.225035</v>
+        <v>0.223184</v>
       </c>
       <c r="D56" t="n">
-        <v>0.230144</v>
+        <v>0.228775</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.262026</v>
+        <v>0.263734</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226796</v>
+        <v>0.226059</v>
       </c>
       <c r="D57" t="n">
-        <v>0.230217</v>
+        <v>0.229986</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.268535</v>
+        <v>0.268092</v>
       </c>
       <c r="C58" t="n">
-        <v>0.228738</v>
+        <v>0.227788</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230855</v>
+        <v>0.230549</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273307</v>
+        <v>0.274027</v>
       </c>
       <c r="C59" t="n">
-        <v>0.233015</v>
+        <v>0.231733</v>
       </c>
       <c r="D59" t="n">
-        <v>0.232746</v>
+        <v>0.231998</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.281248</v>
+        <v>0.282165</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237762</v>
+        <v>0.237421</v>
       </c>
       <c r="D60" t="n">
-        <v>0.234742</v>
+        <v>0.23528</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.292966</v>
+        <v>0.294239</v>
       </c>
       <c r="C61" t="n">
-        <v>0.243311</v>
+        <v>0.242829</v>
       </c>
       <c r="D61" t="n">
-        <v>0.236183</v>
+        <v>0.236252</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.308475</v>
+        <v>0.310866</v>
       </c>
       <c r="C62" t="n">
-        <v>0.252891</v>
+        <v>0.251886</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239605</v>
+        <v>0.239267</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.329882</v>
+        <v>0.332106</v>
       </c>
       <c r="C63" t="n">
-        <v>0.266073</v>
+        <v>0.266768</v>
       </c>
       <c r="D63" t="n">
-        <v>0.244821</v>
+        <v>0.246054</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.360952</v>
+        <v>0.363153</v>
       </c>
       <c r="C64" t="n">
-        <v>0.287515</v>
+        <v>0.289671</v>
       </c>
       <c r="D64" t="n">
-        <v>0.254505</v>
+        <v>0.25574</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.402355</v>
+        <v>0.40616</v>
       </c>
       <c r="C65" t="n">
-        <v>0.321123</v>
+        <v>0.330271</v>
       </c>
       <c r="D65" t="n">
-        <v>0.270642</v>
+        <v>0.271673</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.455786</v>
+        <v>0.45905</v>
       </c>
       <c r="C66" t="n">
-        <v>0.375413</v>
+        <v>0.374228</v>
       </c>
       <c r="D66" t="n">
-        <v>0.241979</v>
+        <v>0.23846</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.261174</v>
+        <v>0.261448</v>
       </c>
       <c r="C67" t="n">
-        <v>0.237246</v>
+        <v>0.234414</v>
       </c>
       <c r="D67" t="n">
-        <v>0.244458</v>
+        <v>0.24078</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.263934</v>
+        <v>0.263671</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236022</v>
+        <v>0.237752</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241984</v>
+        <v>0.243052</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.267174</v>
+        <v>0.266285</v>
       </c>
       <c r="C69" t="n">
-        <v>0.237124</v>
+        <v>0.238523</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241971</v>
+        <v>0.244869</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268851</v>
+        <v>0.268884</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239243</v>
+        <v>0.239494</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243421</v>
+        <v>0.243446</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.272208</v>
+        <v>0.271887</v>
       </c>
       <c r="C71" t="n">
-        <v>0.242422</v>
+        <v>0.241141</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244893</v>
+        <v>0.24427</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.276502</v>
+        <v>0.277272</v>
       </c>
       <c r="C72" t="n">
-        <v>0.245036</v>
+        <v>0.244489</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2465</v>
+        <v>0.244443</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.282803</v>
+        <v>0.284895</v>
       </c>
       <c r="C73" t="n">
-        <v>0.247671</v>
+        <v>0.248875</v>
       </c>
       <c r="D73" t="n">
-        <v>0.247226</v>
+        <v>0.249466</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.29153</v>
+        <v>0.293139</v>
       </c>
       <c r="C74" t="n">
-        <v>0.251892</v>
+        <v>0.249522</v>
       </c>
       <c r="D74" t="n">
-        <v>0.249279</v>
+        <v>0.247237</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.303711</v>
+        <v>0.303212</v>
       </c>
       <c r="C75" t="n">
-        <v>0.258129</v>
+        <v>0.256996</v>
       </c>
       <c r="D75" t="n">
-        <v>0.251908</v>
+        <v>0.250764</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.318329</v>
+        <v>0.321388</v>
       </c>
       <c r="C76" t="n">
-        <v>0.266129</v>
+        <v>0.268878</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254635</v>
+        <v>0.256597</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.340433</v>
+        <v>0.342812</v>
       </c>
       <c r="C77" t="n">
-        <v>0.282433</v>
+        <v>0.279463</v>
       </c>
       <c r="D77" t="n">
-        <v>0.261341</v>
+        <v>0.260302</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.369858</v>
+        <v>0.374202</v>
       </c>
       <c r="C78" t="n">
-        <v>0.30166</v>
+        <v>0.31669</v>
       </c>
       <c r="D78" t="n">
-        <v>0.26882</v>
+        <v>0.269005</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.412525</v>
+        <v>0.415162</v>
       </c>
       <c r="C79" t="n">
-        <v>0.330031</v>
+        <v>0.332095</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282516</v>
+        <v>0.285632</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.46316</v>
+        <v>0.488124</v>
       </c>
       <c r="C80" t="n">
-        <v>0.380945</v>
+        <v>0.382456</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260877</v>
+        <v>0.260647</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.277297</v>
+        <v>0.276901</v>
       </c>
       <c r="C81" t="n">
-        <v>0.254206</v>
+        <v>0.253967</v>
       </c>
       <c r="D81" t="n">
-        <v>0.261189</v>
+        <v>0.260728</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.278721</v>
+        <v>0.279883</v>
       </c>
       <c r="C82" t="n">
-        <v>0.255643</v>
+        <v>0.254443</v>
       </c>
       <c r="D82" t="n">
-        <v>0.261414</v>
+        <v>0.261498</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.280846</v>
+        <v>0.282292</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256258</v>
+        <v>0.256333</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262134</v>
+        <v>0.262362</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.283775</v>
+        <v>0.284037</v>
       </c>
       <c r="C84" t="n">
-        <v>0.258063</v>
+        <v>0.257417</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262236</v>
+        <v>0.262817</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.287714</v>
+        <v>0.288255</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259565</v>
+        <v>0.259207</v>
       </c>
       <c r="D85" t="n">
-        <v>0.263578</v>
+        <v>0.263129</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.292072</v>
+        <v>0.293345</v>
       </c>
       <c r="C86" t="n">
-        <v>0.262022</v>
+        <v>0.260962</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264324</v>
+        <v>0.264396</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298491</v>
+        <v>0.300217</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265691</v>
+        <v>0.265062</v>
       </c>
       <c r="D87" t="n">
-        <v>0.264859</v>
+        <v>0.265334</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.307129</v>
+        <v>0.308057</v>
       </c>
       <c r="C88" t="n">
-        <v>0.270233</v>
+        <v>0.269982</v>
       </c>
       <c r="D88" t="n">
-        <v>0.266774</v>
+        <v>0.26654</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.317926</v>
+        <v>0.319469</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276222</v>
+        <v>0.276472</v>
       </c>
       <c r="D89" t="n">
-        <v>0.268612</v>
+        <v>0.26874</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.333003</v>
+        <v>0.33492</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285048</v>
+        <v>0.284373</v>
       </c>
       <c r="D90" t="n">
-        <v>0.272245</v>
+        <v>0.272143</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.352778</v>
+        <v>0.355437</v>
       </c>
       <c r="C91" t="n">
-        <v>0.297283</v>
+        <v>0.296477</v>
       </c>
       <c r="D91" t="n">
-        <v>0.277362</v>
+        <v>0.277972</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.381731</v>
+        <v>0.385213</v>
       </c>
       <c r="C92" t="n">
-        <v>0.316335</v>
+        <v>0.31534</v>
       </c>
       <c r="D92" t="n">
-        <v>0.285597</v>
+        <v>0.287021</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.421515</v>
+        <v>0.426622</v>
       </c>
       <c r="C93" t="n">
-        <v>0.345163</v>
+        <v>0.344544</v>
       </c>
       <c r="D93" t="n">
-        <v>0.298731</v>
+        <v>0.300936</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.476299</v>
+        <v>0.482414</v>
       </c>
       <c r="C94" t="n">
-        <v>0.390052</v>
+        <v>0.417619</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272336</v>
+        <v>0.272289</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287166</v>
+        <v>0.287249</v>
       </c>
       <c r="C95" t="n">
-        <v>0.26699</v>
+        <v>0.266588</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272759</v>
+        <v>0.272907</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288951</v>
+        <v>0.288918</v>
       </c>
       <c r="C96" t="n">
-        <v>0.26837</v>
+        <v>0.267549</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273501</v>
+        <v>0.273298</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.291154</v>
+        <v>0.290823</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269879</v>
+        <v>0.269263</v>
       </c>
       <c r="D97" t="n">
-        <v>0.273478</v>
+        <v>0.273436</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294233</v>
+        <v>0.294002</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271344</v>
+        <v>0.270591</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274138</v>
+        <v>0.274624</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.297914</v>
+        <v>0.298125</v>
       </c>
       <c r="C99" t="n">
-        <v>0.273467</v>
+        <v>0.272709</v>
       </c>
       <c r="D99" t="n">
-        <v>0.275619</v>
+        <v>0.275154</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.30273</v>
+        <v>0.303241</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275983</v>
+        <v>0.275202</v>
       </c>
       <c r="D100" t="n">
-        <v>0.276063</v>
+        <v>0.276248</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309086</v>
+        <v>0.309218</v>
       </c>
       <c r="C101" t="n">
-        <v>0.280073</v>
+        <v>0.279085</v>
       </c>
       <c r="D101" t="n">
-        <v>0.277387</v>
+        <v>0.27733</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.316892</v>
+        <v>0.318027</v>
       </c>
       <c r="C102" t="n">
-        <v>0.284788</v>
+        <v>0.284687</v>
       </c>
       <c r="D102" t="n">
-        <v>0.279128</v>
+        <v>0.279005</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.328286</v>
+        <v>0.329469</v>
       </c>
       <c r="C103" t="n">
-        <v>0.29189</v>
+        <v>0.290302</v>
       </c>
       <c r="D103" t="n">
-        <v>0.281344</v>
+        <v>0.281613</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.342949</v>
+        <v>0.344309</v>
       </c>
       <c r="C104" t="n">
-        <v>0.301556</v>
+        <v>0.300662</v>
       </c>
       <c r="D104" t="n">
-        <v>0.284792</v>
+        <v>0.285038</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.36357</v>
+        <v>0.365426</v>
       </c>
       <c r="C105" t="n">
-        <v>0.315641</v>
+        <v>0.313503</v>
       </c>
       <c r="D105" t="n">
-        <v>0.289542</v>
+        <v>0.289523</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.391752</v>
+        <v>0.394625</v>
       </c>
       <c r="C106" t="n">
-        <v>0.335667</v>
+        <v>0.353053</v>
       </c>
       <c r="D106" t="n">
-        <v>0.297403</v>
+        <v>0.298387</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.43292</v>
+        <v>0.436654</v>
       </c>
       <c r="C107" t="n">
-        <v>0.365931</v>
+        <v>0.365212</v>
       </c>
       <c r="D107" t="n">
-        <v>0.310591</v>
+        <v>0.311077</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.501287</v>
+        <v>0.495663</v>
       </c>
       <c r="C108" t="n">
-        <v>0.412604</v>
+        <v>0.436241</v>
       </c>
       <c r="D108" t="n">
-        <v>0.278935</v>
+        <v>0.27885</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.567984</v>
+        <v>0.5690539999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>0.491265</v>
+        <v>0.51285</v>
       </c>
       <c r="D109" t="n">
-        <v>0.280048</v>
+        <v>0.279534</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.295321</v>
+        <v>0.29543</v>
       </c>
       <c r="C110" t="n">
-        <v>0.288858</v>
+        <v>0.288881</v>
       </c>
       <c r="D110" t="n">
-        <v>0.281175</v>
+        <v>0.280369</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298689</v>
+        <v>0.298345</v>
       </c>
       <c r="C111" t="n">
-        <v>0.292981</v>
+        <v>0.29232</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281766</v>
+        <v>0.281569</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.302112</v>
+        <v>0.301712</v>
       </c>
       <c r="C112" t="n">
-        <v>0.298823</v>
+        <v>0.29752</v>
       </c>
       <c r="D112" t="n">
-        <v>0.283845</v>
+        <v>0.28295</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307088</v>
+        <v>0.307377</v>
       </c>
       <c r="C113" t="n">
-        <v>0.305127</v>
+        <v>0.304156</v>
       </c>
       <c r="D113" t="n">
-        <v>0.285001</v>
+        <v>0.284441</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.312841</v>
+        <v>0.313116</v>
       </c>
       <c r="C114" t="n">
-        <v>0.312489</v>
+        <v>0.310973</v>
       </c>
       <c r="D114" t="n">
-        <v>0.287378</v>
+        <v>0.286531</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321127</v>
+        <v>0.321844</v>
       </c>
       <c r="C115" t="n">
-        <v>0.320519</v>
+        <v>0.319089</v>
       </c>
       <c r="D115" t="n">
-        <v>0.290057</v>
+        <v>0.289971</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.33158</v>
+        <v>0.332287</v>
       </c>
       <c r="C116" t="n">
-        <v>0.33001</v>
+        <v>0.329105</v>
       </c>
       <c r="D116" t="n">
-        <v>0.29345</v>
+        <v>0.292823</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.346774</v>
+        <v>0.347556</v>
       </c>
       <c r="C117" t="n">
-        <v>0.340649</v>
+        <v>0.338873</v>
       </c>
       <c r="D117" t="n">
-        <v>0.297935</v>
+        <v>0.297873</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.364837</v>
+        <v>0.366155</v>
       </c>
       <c r="C118" t="n">
-        <v>0.354382</v>
+        <v>0.352168</v>
       </c>
       <c r="D118" t="n">
-        <v>0.30403</v>
+        <v>0.303771</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.390679</v>
+        <v>0.392465</v>
       </c>
       <c r="C119" t="n">
-        <v>0.371807</v>
+        <v>0.369381</v>
       </c>
       <c r="D119" t="n">
-        <v>0.312404</v>
+        <v>0.31261</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.424104</v>
+        <v>0.426424</v>
       </c>
       <c r="C120" t="n">
-        <v>0.395304</v>
+        <v>0.400473</v>
       </c>
       <c r="D120" t="n">
-        <v>0.324022</v>
+        <v>0.323921</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.470489</v>
+        <v>0.474003</v>
       </c>
       <c r="C121" t="n">
-        <v>0.428471</v>
+        <v>0.437084</v>
       </c>
       <c r="D121" t="n">
-        <v>0.340475</v>
+        <v>0.341101</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.534366</v>
+        <v>0.539421</v>
       </c>
       <c r="C122" t="n">
-        <v>0.480643</v>
+        <v>0.503618</v>
       </c>
       <c r="D122" t="n">
-        <v>0.367661</v>
+        <v>0.36856</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.639472</v>
+        <v>0.628684</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5653899999999999</v>
+        <v>0.584795</v>
       </c>
       <c r="D123" t="n">
-        <v>0.308209</v>
+        <v>0.308781</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.327983</v>
+        <v>0.329015</v>
       </c>
       <c r="C124" t="n">
-        <v>0.339455</v>
+        <v>0.338995</v>
       </c>
       <c r="D124" t="n">
-        <v>0.311436</v>
+        <v>0.313501</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.330751</v>
+        <v>0.334568</v>
       </c>
       <c r="C125" t="n">
-        <v>0.344276</v>
+        <v>0.345909</v>
       </c>
       <c r="D125" t="n">
-        <v>0.315998</v>
+        <v>0.314493</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.337535</v>
+        <v>0.33749</v>
       </c>
       <c r="C126" t="n">
-        <v>0.349722</v>
+        <v>0.346263</v>
       </c>
       <c r="D126" t="n">
-        <v>0.320868</v>
+        <v>0.318278</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.345062</v>
+        <v>0.343089</v>
       </c>
       <c r="C127" t="n">
-        <v>0.355779</v>
+        <v>0.352282</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321847</v>
+        <v>0.321277</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.351085</v>
+        <v>0.352989</v>
       </c>
       <c r="C128" t="n">
-        <v>0.359971</v>
+        <v>0.359296</v>
       </c>
       <c r="D128" t="n">
-        <v>0.325597</v>
+        <v>0.32614</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.361366</v>
+        <v>0.360815</v>
       </c>
       <c r="C129" t="n">
-        <v>0.368308</v>
+        <v>0.3667</v>
       </c>
       <c r="D129" t="n">
-        <v>0.328979</v>
+        <v>0.329592</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.372708</v>
+        <v>0.373098</v>
       </c>
       <c r="C130" t="n">
-        <v>0.375397</v>
+        <v>0.373737</v>
       </c>
       <c r="D130" t="n">
-        <v>0.333852</v>
+        <v>0.332443</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.391867</v>
+        <v>0.386294</v>
       </c>
       <c r="C131" t="n">
-        <v>0.390789</v>
+        <v>0.384124</v>
       </c>
       <c r="D131" t="n">
-        <v>0.337841</v>
+        <v>0.338697</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.404394</v>
+        <v>0.406786</v>
       </c>
       <c r="C132" t="n">
-        <v>0.40065</v>
+        <v>0.397066</v>
       </c>
       <c r="D132" t="n">
-        <v>0.343456</v>
+        <v>0.343441</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.428215</v>
+        <v>0.433656</v>
       </c>
       <c r="C133" t="n">
-        <v>0.416307</v>
+        <v>0.413702</v>
       </c>
       <c r="D133" t="n">
-        <v>0.352005</v>
+        <v>0.353315</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.459744</v>
+        <v>0.463732</v>
       </c>
       <c r="C134" t="n">
-        <v>0.442033</v>
+        <v>0.441956</v>
       </c>
       <c r="D134" t="n">
-        <v>0.360753</v>
+        <v>0.362393</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.505558</v>
+        <v>0.509856</v>
       </c>
       <c r="C135" t="n">
-        <v>0.477697</v>
+        <v>0.475176</v>
       </c>
       <c r="D135" t="n">
-        <v>0.377275</v>
+        <v>0.37938</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5696059999999999</v>
+        <v>0.588757</v>
       </c>
       <c r="C136" t="n">
-        <v>0.531285</v>
+        <v>0.525903</v>
       </c>
       <c r="D136" t="n">
-        <v>0.402681</v>
+        <v>0.402243</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.683909</v>
+        <v>0.669733</v>
       </c>
       <c r="C137" t="n">
-        <v>0.613899</v>
+        <v>0.638474</v>
       </c>
       <c r="D137" t="n">
-        <v>0.452583</v>
+        <v>0.44801</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.494744</v>
+        <v>0.495952</v>
       </c>
       <c r="C138" t="n">
-        <v>0.485039</v>
+        <v>0.492603</v>
       </c>
       <c r="D138" t="n">
-        <v>0.44819</v>
+        <v>0.457531</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.50541</v>
+        <v>0.502686</v>
       </c>
       <c r="C139" t="n">
-        <v>0.498611</v>
+        <v>0.492903</v>
       </c>
       <c r="D139" t="n">
-        <v>0.46115</v>
+        <v>0.464369</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.50845</v>
+        <v>0.5119359999999999</v>
       </c>
       <c r="C140" t="n">
-        <v>0.50529</v>
+        <v>0.506775</v>
       </c>
       <c r="D140" t="n">
-        <v>0.459055</v>
+        <v>0.464579</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.515385</v>
+        <v>0.506051</v>
       </c>
       <c r="C141" t="n">
-        <v>0.505307</v>
+        <v>0.502962</v>
       </c>
       <c r="D141" t="n">
-        <v>0.466125</v>
+        <v>0.458262</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.520639</v>
+        <v>0.522921</v>
       </c>
       <c r="C142" t="n">
-        <v>0.511273</v>
+        <v>0.512825</v>
       </c>
       <c r="D142" t="n">
-        <v>0.468794</v>
+        <v>0.468407</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.53229</v>
+        <v>0.540188</v>
       </c>
       <c r="C143" t="n">
-        <v>0.525854</v>
+        <v>0.519232</v>
       </c>
       <c r="D143" t="n">
-        <v>0.468286</v>
+        <v>0.47112</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.260279</v>
+        <v>0.243866</v>
       </c>
       <c r="C2" t="n">
-        <v>0.223918</v>
+        <v>0.217296</v>
       </c>
       <c r="D2" t="n">
-        <v>0.224691</v>
+        <v>0.211933</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.267983</v>
+        <v>0.252032</v>
       </c>
       <c r="C3" t="n">
-        <v>0.225319</v>
+        <v>0.221082</v>
       </c>
       <c r="D3" t="n">
-        <v>0.225192</v>
+        <v>0.212542</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.278289</v>
+        <v>0.267886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230138</v>
+        <v>0.230411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.227195</v>
+        <v>0.217385</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.294981</v>
+        <v>0.288024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.23865</v>
+        <v>0.24737</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230715</v>
+        <v>0.224057</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.317109</v>
+        <v>0.308745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.249</v>
+        <v>0.261887</v>
       </c>
       <c r="D6" t="n">
-        <v>0.234374</v>
+        <v>0.230174</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.35297</v>
+        <v>0.342725</v>
       </c>
       <c r="C7" t="n">
-        <v>0.27171</v>
+        <v>0.28679</v>
       </c>
       <c r="D7" t="n">
-        <v>0.242241</v>
+        <v>0.241664</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.394295</v>
+        <v>0.386822</v>
       </c>
       <c r="C8" t="n">
-        <v>0.302553</v>
+        <v>0.32477</v>
       </c>
       <c r="D8" t="n">
-        <v>0.257337</v>
+        <v>0.261959</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.438279</v>
+        <v>0.440987</v>
       </c>
       <c r="C9" t="n">
-        <v>0.357487</v>
+        <v>0.364828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222186</v>
+        <v>0.21689</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.241542</v>
+        <v>0.228106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213882</v>
+        <v>0.213063</v>
       </c>
       <c r="D10" t="n">
-        <v>0.222081</v>
+        <v>0.218166</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.242982</v>
+        <v>0.230537</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214049</v>
+        <v>0.214917</v>
       </c>
       <c r="D11" t="n">
-        <v>0.221651</v>
+        <v>0.218936</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.245377</v>
+        <v>0.234598</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215445</v>
+        <v>0.217607</v>
       </c>
       <c r="D12" t="n">
-        <v>0.222933</v>
+        <v>0.221141</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.247308</v>
+        <v>0.237454</v>
       </c>
       <c r="C13" t="n">
-        <v>0.216664</v>
+        <v>0.219026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.222253</v>
+        <v>0.221633</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.250412</v>
+        <v>0.242883</v>
       </c>
       <c r="C14" t="n">
-        <v>0.218204</v>
+        <v>0.222542</v>
       </c>
       <c r="D14" t="n">
-        <v>0.222656</v>
+        <v>0.223964</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.25488</v>
+        <v>0.24852</v>
       </c>
       <c r="C15" t="n">
-        <v>0.220052</v>
+        <v>0.225883</v>
       </c>
       <c r="D15" t="n">
-        <v>0.223411</v>
+        <v>0.225406</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.260045</v>
+        <v>0.255382</v>
       </c>
       <c r="C16" t="n">
-        <v>0.222844</v>
+        <v>0.229489</v>
       </c>
       <c r="D16" t="n">
-        <v>0.224451</v>
+        <v>0.226996</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.267219</v>
+        <v>0.263796</v>
       </c>
       <c r="C17" t="n">
-        <v>0.225945</v>
+        <v>0.234111</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225412</v>
+        <v>0.22827</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.27822</v>
+        <v>0.274227</v>
       </c>
       <c r="C18" t="n">
-        <v>0.231508</v>
+        <v>0.240717</v>
       </c>
       <c r="D18" t="n">
-        <v>0.227272</v>
+        <v>0.230372</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.294584</v>
+        <v>0.289101</v>
       </c>
       <c r="C19" t="n">
-        <v>0.239961</v>
+        <v>0.248306</v>
       </c>
       <c r="D19" t="n">
-        <v>0.230242</v>
+        <v>0.234437</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.316782</v>
+        <v>0.308541</v>
       </c>
       <c r="C20" t="n">
-        <v>0.251086</v>
+        <v>0.261831</v>
       </c>
       <c r="D20" t="n">
-        <v>0.23354</v>
+        <v>0.238551</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.34482</v>
+        <v>0.340408</v>
       </c>
       <c r="C21" t="n">
-        <v>0.266509</v>
+        <v>0.280532</v>
       </c>
       <c r="D21" t="n">
-        <v>0.239909</v>
+        <v>0.246557</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.382391</v>
+        <v>0.381828</v>
       </c>
       <c r="C22" t="n">
-        <v>0.295381</v>
+        <v>0.311325</v>
       </c>
       <c r="D22" t="n">
-        <v>0.252905</v>
+        <v>0.260695</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.429403</v>
+        <v>0.432989</v>
       </c>
       <c r="C23" t="n">
-        <v>0.340894</v>
+        <v>0.358008</v>
       </c>
       <c r="D23" t="n">
-        <v>0.222998</v>
+        <v>0.227775</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.245467</v>
+        <v>0.240549</v>
       </c>
       <c r="C24" t="n">
-        <v>0.214896</v>
+        <v>0.223827</v>
       </c>
       <c r="D24" t="n">
-        <v>0.223403</v>
+        <v>0.228606</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.246945</v>
+        <v>0.241981</v>
       </c>
       <c r="C25" t="n">
-        <v>0.215266</v>
+        <v>0.224141</v>
       </c>
       <c r="D25" t="n">
-        <v>0.223373</v>
+        <v>0.228631</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.248525</v>
+        <v>0.244358</v>
       </c>
       <c r="C26" t="n">
-        <v>0.216083</v>
+        <v>0.225512</v>
       </c>
       <c r="D26" t="n">
-        <v>0.223767</v>
+        <v>0.229364</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.250721</v>
+        <v>0.247103</v>
       </c>
       <c r="C27" t="n">
-        <v>0.216834</v>
+        <v>0.226895</v>
       </c>
       <c r="D27" t="n">
-        <v>0.224066</v>
+        <v>0.229945</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.254334</v>
+        <v>0.251537</v>
       </c>
       <c r="C28" t="n">
-        <v>0.218496</v>
+        <v>0.228943</v>
       </c>
       <c r="D28" t="n">
-        <v>0.224903</v>
+        <v>0.231148</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.258109</v>
+        <v>0.256144</v>
       </c>
       <c r="C29" t="n">
-        <v>0.220248</v>
+        <v>0.231396</v>
       </c>
       <c r="D29" t="n">
-        <v>0.225317</v>
+        <v>0.231522</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.264152</v>
+        <v>0.262055</v>
       </c>
       <c r="C30" t="n">
-        <v>0.222773</v>
+        <v>0.235169</v>
       </c>
       <c r="D30" t="n">
-        <v>0.226225</v>
+        <v>0.232698</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.270528</v>
+        <v>0.269632</v>
       </c>
       <c r="C31" t="n">
-        <v>0.226704</v>
+        <v>0.238442</v>
       </c>
       <c r="D31" t="n">
-        <v>0.227267</v>
+        <v>0.233752</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.281122</v>
+        <v>0.279699</v>
       </c>
       <c r="C32" t="n">
-        <v>0.232433</v>
+        <v>0.244441</v>
       </c>
       <c r="D32" t="n">
-        <v>0.22932</v>
+        <v>0.235824</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.295531</v>
+        <v>0.29412</v>
       </c>
       <c r="C33" t="n">
-        <v>0.241194</v>
+        <v>0.252835</v>
       </c>
       <c r="D33" t="n">
-        <v>0.232538</v>
+        <v>0.238809</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314635</v>
+        <v>0.314677</v>
       </c>
       <c r="C34" t="n">
-        <v>0.253795</v>
+        <v>0.264576</v>
       </c>
       <c r="D34" t="n">
-        <v>0.236687</v>
+        <v>0.243406</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.340361</v>
+        <v>0.342432</v>
       </c>
       <c r="C35" t="n">
-        <v>0.269493</v>
+        <v>0.283409</v>
       </c>
       <c r="D35" t="n">
-        <v>0.244009</v>
+        <v>0.250386</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.376552</v>
+        <v>0.380157</v>
       </c>
       <c r="C36" t="n">
-        <v>0.296988</v>
+        <v>0.311909</v>
       </c>
       <c r="D36" t="n">
-        <v>0.256316</v>
+        <v>0.263426</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.42298</v>
+        <v>0.43166</v>
       </c>
       <c r="C37" t="n">
-        <v>0.335534</v>
+        <v>0.355719</v>
       </c>
       <c r="D37" t="n">
-        <v>0.223979</v>
+        <v>0.231186</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.247052</v>
+        <v>0.243062</v>
       </c>
       <c r="C38" t="n">
-        <v>0.215707</v>
+        <v>0.227017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.224153</v>
+        <v>0.231236</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.248556</v>
+        <v>0.245091</v>
       </c>
       <c r="C39" t="n">
-        <v>0.216439</v>
+        <v>0.228222</v>
       </c>
       <c r="D39" t="n">
-        <v>0.224648</v>
+        <v>0.231929</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.250056</v>
+        <v>0.246849</v>
       </c>
       <c r="C40" t="n">
-        <v>0.217367</v>
+        <v>0.228941</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224926</v>
+        <v>0.232127</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.25223</v>
+        <v>0.249448</v>
       </c>
       <c r="C41" t="n">
-        <v>0.218439</v>
+        <v>0.229909</v>
       </c>
       <c r="D41" t="n">
-        <v>0.225331</v>
+        <v>0.232503</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.255198</v>
+        <v>0.253057</v>
       </c>
       <c r="C42" t="n">
-        <v>0.220044</v>
+        <v>0.231696</v>
       </c>
       <c r="D42" t="n">
-        <v>0.225917</v>
+        <v>0.23322</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.259369</v>
+        <v>0.257299</v>
       </c>
       <c r="C43" t="n">
-        <v>0.222143</v>
+        <v>0.233682</v>
       </c>
       <c r="D43" t="n">
-        <v>0.226792</v>
+        <v>0.233935</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.264954</v>
+        <v>0.262505</v>
       </c>
       <c r="C44" t="n">
-        <v>0.22515</v>
+        <v>0.236795</v>
       </c>
       <c r="D44" t="n">
-        <v>0.227636</v>
+        <v>0.235013</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.272321</v>
+        <v>0.269803</v>
       </c>
       <c r="C45" t="n">
-        <v>0.228631</v>
+        <v>0.240666</v>
       </c>
       <c r="D45" t="n">
-        <v>0.228789</v>
+        <v>0.236345</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.281526</v>
+        <v>0.279437</v>
       </c>
       <c r="C46" t="n">
-        <v>0.234496</v>
+        <v>0.245679</v>
       </c>
       <c r="D46" t="n">
-        <v>0.23071</v>
+        <v>0.238222</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.293873</v>
+        <v>0.291492</v>
       </c>
       <c r="C47" t="n">
-        <v>0.242307</v>
+        <v>0.253501</v>
       </c>
       <c r="D47" t="n">
-        <v>0.233682</v>
+        <v>0.240814</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.311623</v>
+        <v>0.309536</v>
       </c>
       <c r="C48" t="n">
-        <v>0.252329</v>
+        <v>0.263504</v>
       </c>
       <c r="D48" t="n">
-        <v>0.237787</v>
+        <v>0.244568</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335917</v>
+        <v>0.335771</v>
       </c>
       <c r="C49" t="n">
-        <v>0.267341</v>
+        <v>0.279847</v>
       </c>
       <c r="D49" t="n">
-        <v>0.244424</v>
+        <v>0.251233</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.367608</v>
+        <v>0.372116</v>
       </c>
       <c r="C50" t="n">
-        <v>0.29074</v>
+        <v>0.305648</v>
       </c>
       <c r="D50" t="n">
-        <v>0.255794</v>
+        <v>0.2623</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.413225</v>
+        <v>0.419642</v>
       </c>
       <c r="C51" t="n">
-        <v>0.328203</v>
+        <v>0.346876</v>
       </c>
       <c r="D51" t="n">
-        <v>0.226237</v>
+        <v>0.233703</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.471139</v>
+        <v>0.472708</v>
       </c>
       <c r="C52" t="n">
-        <v>0.380696</v>
+        <v>0.40341</v>
       </c>
       <c r="D52" t="n">
-        <v>0.228006</v>
+        <v>0.233792</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.251298</v>
+        <v>0.248211</v>
       </c>
       <c r="C53" t="n">
-        <v>0.221421</v>
+        <v>0.230417</v>
       </c>
       <c r="D53" t="n">
-        <v>0.228573</v>
+        <v>0.234317</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.253129</v>
+        <v>0.250309</v>
       </c>
       <c r="C54" t="n">
-        <v>0.221996</v>
+        <v>0.231217</v>
       </c>
       <c r="D54" t="n">
-        <v>0.228828</v>
+        <v>0.23465</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.255675</v>
+        <v>0.253699</v>
       </c>
       <c r="C55" t="n">
-        <v>0.222807</v>
+        <v>0.232614</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228911</v>
+        <v>0.235199</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258866</v>
+        <v>0.258673</v>
       </c>
       <c r="C56" t="n">
-        <v>0.223184</v>
+        <v>0.234259</v>
       </c>
       <c r="D56" t="n">
-        <v>0.228775</v>
+        <v>0.235918</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.263734</v>
+        <v>0.260815</v>
       </c>
       <c r="C57" t="n">
-        <v>0.226059</v>
+        <v>0.236533</v>
       </c>
       <c r="D57" t="n">
-        <v>0.229986</v>
+        <v>0.236816</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.268092</v>
+        <v>0.266728</v>
       </c>
       <c r="C58" t="n">
-        <v>0.227788</v>
+        <v>0.238695</v>
       </c>
       <c r="D58" t="n">
-        <v>0.230549</v>
+        <v>0.237502</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.274027</v>
+        <v>0.27262</v>
       </c>
       <c r="C59" t="n">
-        <v>0.231733</v>
+        <v>0.243043</v>
       </c>
       <c r="D59" t="n">
-        <v>0.231998</v>
+        <v>0.239339</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282165</v>
+        <v>0.282117</v>
       </c>
       <c r="C60" t="n">
-        <v>0.237421</v>
+        <v>0.247815</v>
       </c>
       <c r="D60" t="n">
-        <v>0.23528</v>
+        <v>0.241006</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294239</v>
+        <v>0.294481</v>
       </c>
       <c r="C61" t="n">
-        <v>0.242829</v>
+        <v>0.254287</v>
       </c>
       <c r="D61" t="n">
-        <v>0.236252</v>
+        <v>0.242803</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.310866</v>
+        <v>0.313473</v>
       </c>
       <c r="C62" t="n">
-        <v>0.251886</v>
+        <v>0.263537</v>
       </c>
       <c r="D62" t="n">
-        <v>0.239267</v>
+        <v>0.24617</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.332106</v>
+        <v>0.336216</v>
       </c>
       <c r="C63" t="n">
-        <v>0.266768</v>
+        <v>0.277731</v>
       </c>
       <c r="D63" t="n">
-        <v>0.246054</v>
+        <v>0.251482</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.363153</v>
+        <v>0.367889</v>
       </c>
       <c r="C64" t="n">
-        <v>0.289671</v>
+        <v>0.302206</v>
       </c>
       <c r="D64" t="n">
-        <v>0.25574</v>
+        <v>0.261386</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.40616</v>
+        <v>0.415245</v>
       </c>
       <c r="C65" t="n">
-        <v>0.330271</v>
+        <v>0.337417</v>
       </c>
       <c r="D65" t="n">
-        <v>0.271673</v>
+        <v>0.277651</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.45905</v>
+        <v>0.46748</v>
       </c>
       <c r="C66" t="n">
-        <v>0.374228</v>
+        <v>0.394147</v>
       </c>
       <c r="D66" t="n">
-        <v>0.23846</v>
+        <v>0.240809</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.261448</v>
+        <v>0.26075</v>
       </c>
       <c r="C67" t="n">
-        <v>0.234414</v>
+        <v>0.238746</v>
       </c>
       <c r="D67" t="n">
-        <v>0.24078</v>
+        <v>0.241966</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.263671</v>
+        <v>0.262321</v>
       </c>
       <c r="C68" t="n">
-        <v>0.237752</v>
+        <v>0.238964</v>
       </c>
       <c r="D68" t="n">
-        <v>0.243052</v>
+        <v>0.241768</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.266285</v>
+        <v>0.264828</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238523</v>
+        <v>0.240374</v>
       </c>
       <c r="D69" t="n">
-        <v>0.244869</v>
+        <v>0.2425</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.268884</v>
+        <v>0.26833</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239494</v>
+        <v>0.241645</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243446</v>
+        <v>0.243444</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271887</v>
+        <v>0.27152</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241141</v>
+        <v>0.244113</v>
       </c>
       <c r="D71" t="n">
-        <v>0.24427</v>
+        <v>0.244043</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277272</v>
+        <v>0.278076</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244489</v>
+        <v>0.247555</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244443</v>
+        <v>0.244871</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.284895</v>
+        <v>0.283872</v>
       </c>
       <c r="C73" t="n">
-        <v>0.248875</v>
+        <v>0.250514</v>
       </c>
       <c r="D73" t="n">
-        <v>0.249466</v>
+        <v>0.245818</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.293139</v>
+        <v>0.292906</v>
       </c>
       <c r="C74" t="n">
-        <v>0.249522</v>
+        <v>0.254843</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247237</v>
+        <v>0.247195</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.303212</v>
+        <v>0.306486</v>
       </c>
       <c r="C75" t="n">
-        <v>0.256996</v>
+        <v>0.26144</v>
       </c>
       <c r="D75" t="n">
-        <v>0.250764</v>
+        <v>0.249725</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.321388</v>
+        <v>0.32019</v>
       </c>
       <c r="C76" t="n">
-        <v>0.268878</v>
+        <v>0.272394</v>
       </c>
       <c r="D76" t="n">
-        <v>0.256597</v>
+        <v>0.254281</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342812</v>
+        <v>0.342546</v>
       </c>
       <c r="C77" t="n">
-        <v>0.279463</v>
+        <v>0.285533</v>
       </c>
       <c r="D77" t="n">
-        <v>0.260302</v>
+        <v>0.258595</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.374202</v>
+        <v>0.374219</v>
       </c>
       <c r="C78" t="n">
-        <v>0.31669</v>
+        <v>0.307526</v>
       </c>
       <c r="D78" t="n">
-        <v>0.269005</v>
+        <v>0.267251</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.415162</v>
+        <v>0.41784</v>
       </c>
       <c r="C79" t="n">
-        <v>0.332095</v>
+        <v>0.341573</v>
       </c>
       <c r="D79" t="n">
-        <v>0.285632</v>
+        <v>0.282785</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.488124</v>
+        <v>0.476468</v>
       </c>
       <c r="C80" t="n">
-        <v>0.382456</v>
+        <v>0.394158</v>
       </c>
       <c r="D80" t="n">
-        <v>0.260647</v>
+        <v>0.250015</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.276901</v>
+        <v>0.274951</v>
       </c>
       <c r="C81" t="n">
-        <v>0.253967</v>
+        <v>0.24709</v>
       </c>
       <c r="D81" t="n">
-        <v>0.260728</v>
+        <v>0.250352</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.279883</v>
+        <v>0.277089</v>
       </c>
       <c r="C82" t="n">
-        <v>0.254443</v>
+        <v>0.253429</v>
       </c>
       <c r="D82" t="n">
-        <v>0.261498</v>
+        <v>0.250856</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.282292</v>
+        <v>0.279405</v>
       </c>
       <c r="C83" t="n">
-        <v>0.256333</v>
+        <v>0.249181</v>
       </c>
       <c r="D83" t="n">
-        <v>0.262362</v>
+        <v>0.251324</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.284037</v>
+        <v>0.282241</v>
       </c>
       <c r="C84" t="n">
-        <v>0.257417</v>
+        <v>0.251431</v>
       </c>
       <c r="D84" t="n">
-        <v>0.262817</v>
+        <v>0.251984</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.288255</v>
+        <v>0.286575</v>
       </c>
       <c r="C85" t="n">
-        <v>0.259207</v>
+        <v>0.253444</v>
       </c>
       <c r="D85" t="n">
-        <v>0.263129</v>
+        <v>0.253123</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.293345</v>
+        <v>0.291329</v>
       </c>
       <c r="C86" t="n">
-        <v>0.260962</v>
+        <v>0.255755</v>
       </c>
       <c r="D86" t="n">
-        <v>0.264396</v>
+        <v>0.253399</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.300217</v>
+        <v>0.29745</v>
       </c>
       <c r="C87" t="n">
-        <v>0.265062</v>
+        <v>0.260074</v>
       </c>
       <c r="D87" t="n">
-        <v>0.265334</v>
+        <v>0.254782</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.308057</v>
+        <v>0.30589</v>
       </c>
       <c r="C88" t="n">
-        <v>0.269982</v>
+        <v>0.264589</v>
       </c>
       <c r="D88" t="n">
-        <v>0.26654</v>
+        <v>0.256377</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.319469</v>
+        <v>0.320594</v>
       </c>
       <c r="C89" t="n">
-        <v>0.276472</v>
+        <v>0.271075</v>
       </c>
       <c r="D89" t="n">
-        <v>0.26874</v>
+        <v>0.259227</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.33492</v>
+        <v>0.334166</v>
       </c>
       <c r="C90" t="n">
-        <v>0.284373</v>
+        <v>0.285382</v>
       </c>
       <c r="D90" t="n">
-        <v>0.272143</v>
+        <v>0.262169</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.355437</v>
+        <v>0.356057</v>
       </c>
       <c r="C91" t="n">
-        <v>0.296477</v>
+        <v>0.294718</v>
       </c>
       <c r="D91" t="n">
-        <v>0.277972</v>
+        <v>0.268039</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.385213</v>
+        <v>0.382299</v>
       </c>
       <c r="C92" t="n">
-        <v>0.31534</v>
+        <v>0.314895</v>
       </c>
       <c r="D92" t="n">
-        <v>0.287021</v>
+        <v>0.276638</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.426622</v>
+        <v>0.42429</v>
       </c>
       <c r="C93" t="n">
-        <v>0.344544</v>
+        <v>0.344596</v>
       </c>
       <c r="D93" t="n">
-        <v>0.300936</v>
+        <v>0.290186</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.482414</v>
+        <v>0.492095</v>
       </c>
       <c r="C94" t="n">
-        <v>0.417619</v>
+        <v>0.393441</v>
       </c>
       <c r="D94" t="n">
-        <v>0.272289</v>
+        <v>0.25623</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.287249</v>
+        <v>0.28532</v>
       </c>
       <c r="C95" t="n">
-        <v>0.266588</v>
+        <v>0.254506</v>
       </c>
       <c r="D95" t="n">
-        <v>0.272907</v>
+        <v>0.256924</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.288918</v>
+        <v>0.287464</v>
       </c>
       <c r="C96" t="n">
-        <v>0.267549</v>
+        <v>0.255482</v>
       </c>
       <c r="D96" t="n">
-        <v>0.273298</v>
+        <v>0.257165</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.290823</v>
+        <v>0.289584</v>
       </c>
       <c r="C97" t="n">
-        <v>0.269263</v>
+        <v>0.25719</v>
       </c>
       <c r="D97" t="n">
-        <v>0.273436</v>
+        <v>0.25754</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.294002</v>
+        <v>0.292914</v>
       </c>
       <c r="C98" t="n">
-        <v>0.270591</v>
+        <v>0.259183</v>
       </c>
       <c r="D98" t="n">
-        <v>0.274624</v>
+        <v>0.258356</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.298125</v>
+        <v>0.296683</v>
       </c>
       <c r="C99" t="n">
-        <v>0.272709</v>
+        <v>0.261555</v>
       </c>
       <c r="D99" t="n">
-        <v>0.275154</v>
+        <v>0.259224</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.303241</v>
+        <v>0.301521</v>
       </c>
       <c r="C100" t="n">
-        <v>0.275202</v>
+        <v>0.264818</v>
       </c>
       <c r="D100" t="n">
-        <v>0.276248</v>
+        <v>0.26032</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.309218</v>
+        <v>0.308553</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279085</v>
+        <v>0.26851</v>
       </c>
       <c r="D101" t="n">
-        <v>0.27733</v>
+        <v>0.261667</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.318027</v>
+        <v>0.316096</v>
       </c>
       <c r="C102" t="n">
-        <v>0.284687</v>
+        <v>0.27476</v>
       </c>
       <c r="D102" t="n">
-        <v>0.279005</v>
+        <v>0.263707</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.329469</v>
+        <v>0.32941</v>
       </c>
       <c r="C103" t="n">
-        <v>0.290302</v>
+        <v>0.281429</v>
       </c>
       <c r="D103" t="n">
-        <v>0.281613</v>
+        <v>0.265615</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.344309</v>
+        <v>0.345623</v>
       </c>
       <c r="C104" t="n">
-        <v>0.300662</v>
+        <v>0.292326</v>
       </c>
       <c r="D104" t="n">
-        <v>0.285038</v>
+        <v>0.26908</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.365426</v>
+        <v>0.360328</v>
       </c>
       <c r="C105" t="n">
-        <v>0.313503</v>
+        <v>0.306093</v>
       </c>
       <c r="D105" t="n">
-        <v>0.289523</v>
+        <v>0.274651</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.394625</v>
+        <v>0.394961</v>
       </c>
       <c r="C106" t="n">
-        <v>0.353053</v>
+        <v>0.330972</v>
       </c>
       <c r="D106" t="n">
-        <v>0.298387</v>
+        <v>0.287765</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.436654</v>
+        <v>0.430175</v>
       </c>
       <c r="C107" t="n">
-        <v>0.365212</v>
+        <v>0.360076</v>
       </c>
       <c r="D107" t="n">
-        <v>0.311077</v>
+        <v>0.296153</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.495663</v>
+        <v>0.503433</v>
       </c>
       <c r="C108" t="n">
-        <v>0.436241</v>
+        <v>0.408315</v>
       </c>
       <c r="D108" t="n">
-        <v>0.27885</v>
+        <v>0.26041</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5690539999999999</v>
+        <v>0.583859</v>
       </c>
       <c r="C109" t="n">
-        <v>0.51285</v>
+        <v>0.485659</v>
       </c>
       <c r="D109" t="n">
-        <v>0.279534</v>
+        <v>0.261083</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.29543</v>
+        <v>0.293528</v>
       </c>
       <c r="C110" t="n">
-        <v>0.288881</v>
+        <v>0.272455</v>
       </c>
       <c r="D110" t="n">
-        <v>0.280369</v>
+        <v>0.262041</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.298345</v>
+        <v>0.296654</v>
       </c>
       <c r="C111" t="n">
-        <v>0.29232</v>
+        <v>0.277512</v>
       </c>
       <c r="D111" t="n">
-        <v>0.281569</v>
+        <v>0.262814</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.301712</v>
+        <v>0.300551</v>
       </c>
       <c r="C112" t="n">
-        <v>0.29752</v>
+        <v>0.282202</v>
       </c>
       <c r="D112" t="n">
-        <v>0.28295</v>
+        <v>0.264394</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.307377</v>
+        <v>0.304899</v>
       </c>
       <c r="C113" t="n">
-        <v>0.304156</v>
+        <v>0.288961</v>
       </c>
       <c r="D113" t="n">
-        <v>0.284441</v>
+        <v>0.265838</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.313116</v>
+        <v>0.3123</v>
       </c>
       <c r="C114" t="n">
-        <v>0.310973</v>
+        <v>0.296137</v>
       </c>
       <c r="D114" t="n">
-        <v>0.286531</v>
+        <v>0.267971</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.321844</v>
+        <v>0.319759</v>
       </c>
       <c r="C115" t="n">
-        <v>0.319089</v>
+        <v>0.304501</v>
       </c>
       <c r="D115" t="n">
-        <v>0.289971</v>
+        <v>0.270901</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.332287</v>
+        <v>0.329424</v>
       </c>
       <c r="C116" t="n">
-        <v>0.329105</v>
+        <v>0.313977</v>
       </c>
       <c r="D116" t="n">
-        <v>0.292823</v>
+        <v>0.274247</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.347556</v>
+        <v>0.343201</v>
       </c>
       <c r="C117" t="n">
-        <v>0.338873</v>
+        <v>0.325907</v>
       </c>
       <c r="D117" t="n">
-        <v>0.297873</v>
+        <v>0.279263</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.366155</v>
+        <v>0.361098</v>
       </c>
       <c r="C118" t="n">
-        <v>0.352168</v>
+        <v>0.339214</v>
       </c>
       <c r="D118" t="n">
-        <v>0.303771</v>
+        <v>0.285302</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.392465</v>
+        <v>0.38475</v>
       </c>
       <c r="C119" t="n">
-        <v>0.369381</v>
+        <v>0.356985</v>
       </c>
       <c r="D119" t="n">
-        <v>0.31261</v>
+        <v>0.29419</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.426424</v>
+        <v>0.421118</v>
       </c>
       <c r="C120" t="n">
-        <v>0.400473</v>
+        <v>0.381297</v>
       </c>
       <c r="D120" t="n">
-        <v>0.323921</v>
+        <v>0.305286</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.474003</v>
+        <v>0.467583</v>
       </c>
       <c r="C121" t="n">
-        <v>0.437084</v>
+        <v>0.414697</v>
       </c>
       <c r="D121" t="n">
-        <v>0.341101</v>
+        <v>0.323009</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.539421</v>
+        <v>0.529212</v>
       </c>
       <c r="C122" t="n">
-        <v>0.503618</v>
+        <v>0.465326</v>
       </c>
       <c r="D122" t="n">
-        <v>0.36856</v>
+        <v>0.349738</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.628684</v>
+        <v>0.6255309999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.584795</v>
+        <v>0.549276</v>
       </c>
       <c r="D123" t="n">
-        <v>0.308781</v>
+        <v>0.28765</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.329015</v>
+        <v>0.319922</v>
       </c>
       <c r="C124" t="n">
-        <v>0.338995</v>
+        <v>0.320224</v>
       </c>
       <c r="D124" t="n">
-        <v>0.313501</v>
+        <v>0.293231</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.334568</v>
+        <v>0.325812</v>
       </c>
       <c r="C125" t="n">
-        <v>0.345909</v>
+        <v>0.325456</v>
       </c>
       <c r="D125" t="n">
-        <v>0.314493</v>
+        <v>0.293911</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.33749</v>
+        <v>0.331598</v>
       </c>
       <c r="C126" t="n">
-        <v>0.346263</v>
+        <v>0.329975</v>
       </c>
       <c r="D126" t="n">
-        <v>0.318278</v>
+        <v>0.296726</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.343089</v>
+        <v>0.340552</v>
       </c>
       <c r="C127" t="n">
-        <v>0.352282</v>
+        <v>0.334295</v>
       </c>
       <c r="D127" t="n">
-        <v>0.321277</v>
+        <v>0.303803</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.352989</v>
+        <v>0.345722</v>
       </c>
       <c r="C128" t="n">
-        <v>0.359296</v>
+        <v>0.340832</v>
       </c>
       <c r="D128" t="n">
-        <v>0.32614</v>
+        <v>0.304239</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.360815</v>
+        <v>0.353147</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3667</v>
+        <v>0.346697</v>
       </c>
       <c r="D129" t="n">
-        <v>0.329592</v>
+        <v>0.308815</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.373098</v>
+        <v>0.364205</v>
       </c>
       <c r="C130" t="n">
-        <v>0.373737</v>
+        <v>0.358398</v>
       </c>
       <c r="D130" t="n">
-        <v>0.332443</v>
+        <v>0.310442</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.386294</v>
+        <v>0.379705</v>
       </c>
       <c r="C131" t="n">
-        <v>0.384124</v>
+        <v>0.365297</v>
       </c>
       <c r="D131" t="n">
-        <v>0.338697</v>
+        <v>0.317137</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.406786</v>
+        <v>0.393647</v>
       </c>
       <c r="C132" t="n">
-        <v>0.397066</v>
+        <v>0.382753</v>
       </c>
       <c r="D132" t="n">
-        <v>0.343441</v>
+        <v>0.322404</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.433656</v>
+        <v>0.418666</v>
       </c>
       <c r="C133" t="n">
-        <v>0.413702</v>
+        <v>0.400574</v>
       </c>
       <c r="D133" t="n">
-        <v>0.353315</v>
+        <v>0.328257</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.463732</v>
+        <v>0.448889</v>
       </c>
       <c r="C134" t="n">
-        <v>0.441956</v>
+        <v>0.421663</v>
       </c>
       <c r="D134" t="n">
-        <v>0.362393</v>
+        <v>0.341675</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.509856</v>
+        <v>0.489867</v>
       </c>
       <c r="C135" t="n">
-        <v>0.475176</v>
+        <v>0.453729</v>
       </c>
       <c r="D135" t="n">
-        <v>0.37938</v>
+        <v>0.357047</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.588757</v>
+        <v>0.563261</v>
       </c>
       <c r="C136" t="n">
-        <v>0.525903</v>
+        <v>0.5089590000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.402243</v>
+        <v>0.383692</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.669733</v>
+        <v>0.665239</v>
       </c>
       <c r="C137" t="n">
-        <v>0.638474</v>
+        <v>0.590347</v>
       </c>
       <c r="D137" t="n">
-        <v>0.44801</v>
+        <v>0.422592</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.495952</v>
+        <v>0.463619</v>
       </c>
       <c r="C138" t="n">
-        <v>0.492603</v>
+        <v>0.465128</v>
       </c>
       <c r="D138" t="n">
-        <v>0.457531</v>
+        <v>0.426834</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.502686</v>
+        <v>0.464393</v>
       </c>
       <c r="C139" t="n">
-        <v>0.492903</v>
+        <v>0.468192</v>
       </c>
       <c r="D139" t="n">
-        <v>0.464369</v>
+        <v>0.422789</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.5119359999999999</v>
+        <v>0.468159</v>
       </c>
       <c r="C140" t="n">
-        <v>0.506775</v>
+        <v>0.477554</v>
       </c>
       <c r="D140" t="n">
-        <v>0.464579</v>
+        <v>0.43531</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.506051</v>
+        <v>0.470216</v>
       </c>
       <c r="C141" t="n">
-        <v>0.502962</v>
+        <v>0.485475</v>
       </c>
       <c r="D141" t="n">
-        <v>0.458262</v>
+        <v>0.434852</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.522921</v>
+        <v>0.472489</v>
       </c>
       <c r="C142" t="n">
-        <v>0.512825</v>
+        <v>0.484304</v>
       </c>
       <c r="D142" t="n">
-        <v>0.468407</v>
+        <v>0.434792</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.540188</v>
+        <v>0.489908</v>
       </c>
       <c r="C143" t="n">
-        <v>0.519232</v>
+        <v>0.490146</v>
       </c>
       <c r="D143" t="n">
-        <v>0.47112</v>
+        <v>0.43794</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243866</v>
+        <v>0.243869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.217296</v>
+        <v>0.215931</v>
       </c>
       <c r="D2" t="n">
-        <v>0.211933</v>
+        <v>0.217953</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.252032</v>
+        <v>0.251692</v>
       </c>
       <c r="C3" t="n">
-        <v>0.221082</v>
+        <v>0.219575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.212542</v>
+        <v>0.219501</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.267886</v>
+        <v>0.268208</v>
       </c>
       <c r="C4" t="n">
-        <v>0.230411</v>
+        <v>0.229327</v>
       </c>
       <c r="D4" t="n">
-        <v>0.217385</v>
+        <v>0.223922</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.288024</v>
+        <v>0.288228</v>
       </c>
       <c r="C5" t="n">
-        <v>0.24737</v>
+        <v>0.245989</v>
       </c>
       <c r="D5" t="n">
-        <v>0.224057</v>
+        <v>0.230021</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.308745</v>
+        <v>0.308847</v>
       </c>
       <c r="C6" t="n">
-        <v>0.261887</v>
+        <v>0.260039</v>
       </c>
       <c r="D6" t="n">
-        <v>0.230174</v>
+        <v>0.235056</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342725</v>
+        <v>0.342806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28679</v>
+        <v>0.285369</v>
       </c>
       <c r="D7" t="n">
-        <v>0.241664</v>
+        <v>0.246257</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.386822</v>
+        <v>0.386969</v>
       </c>
       <c r="C8" t="n">
-        <v>0.32477</v>
+        <v>0.323244</v>
       </c>
       <c r="D8" t="n">
-        <v>0.261959</v>
+        <v>0.264732</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.440987</v>
+        <v>0.440648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.364828</v>
+        <v>0.363468</v>
       </c>
       <c r="D9" t="n">
-        <v>0.21689</v>
+        <v>0.222406</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228106</v>
+        <v>0.228278</v>
       </c>
       <c r="C10" t="n">
-        <v>0.213063</v>
+        <v>0.211163</v>
       </c>
       <c r="D10" t="n">
-        <v>0.218166</v>
+        <v>0.22363</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230537</v>
+        <v>0.230779</v>
       </c>
       <c r="C11" t="n">
-        <v>0.214917</v>
+        <v>0.212166</v>
       </c>
       <c r="D11" t="n">
-        <v>0.218936</v>
+        <v>0.224314</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234598</v>
+        <v>0.234897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.217607</v>
+        <v>0.215087</v>
       </c>
       <c r="D12" t="n">
-        <v>0.221141</v>
+        <v>0.226672</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.237454</v>
+        <v>0.237764</v>
       </c>
       <c r="C13" t="n">
-        <v>0.219026</v>
+        <v>0.21722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.221633</v>
+        <v>0.227412</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.242883</v>
+        <v>0.243212</v>
       </c>
       <c r="C14" t="n">
-        <v>0.222542</v>
+        <v>0.220876</v>
       </c>
       <c r="D14" t="n">
-        <v>0.223964</v>
+        <v>0.229491</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.24852</v>
+        <v>0.248979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.225883</v>
+        <v>0.224169</v>
       </c>
       <c r="D15" t="n">
-        <v>0.225406</v>
+        <v>0.231126</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255382</v>
+        <v>0.255655</v>
       </c>
       <c r="C16" t="n">
-        <v>0.229489</v>
+        <v>0.227977</v>
       </c>
       <c r="D16" t="n">
-        <v>0.226996</v>
+        <v>0.232498</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.263796</v>
+        <v>0.263654</v>
       </c>
       <c r="C17" t="n">
-        <v>0.234111</v>
+        <v>0.232252</v>
       </c>
       <c r="D17" t="n">
-        <v>0.22827</v>
+        <v>0.233718</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274227</v>
+        <v>0.274527</v>
       </c>
       <c r="C18" t="n">
-        <v>0.240717</v>
+        <v>0.238955</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230372</v>
+        <v>0.235985</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.289101</v>
+        <v>0.289244</v>
       </c>
       <c r="C19" t="n">
-        <v>0.248306</v>
+        <v>0.246453</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234437</v>
+        <v>0.239589</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.308541</v>
+        <v>0.30874</v>
       </c>
       <c r="C20" t="n">
-        <v>0.261831</v>
+        <v>0.25949</v>
       </c>
       <c r="D20" t="n">
-        <v>0.238551</v>
+        <v>0.243584</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.340408</v>
+        <v>0.340362</v>
       </c>
       <c r="C21" t="n">
-        <v>0.280532</v>
+        <v>0.278191</v>
       </c>
       <c r="D21" t="n">
-        <v>0.246557</v>
+        <v>0.251014</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.381828</v>
+        <v>0.38187</v>
       </c>
       <c r="C22" t="n">
-        <v>0.311325</v>
+        <v>0.309168</v>
       </c>
       <c r="D22" t="n">
-        <v>0.260695</v>
+        <v>0.26446</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.432989</v>
+        <v>0.433038</v>
       </c>
       <c r="C23" t="n">
-        <v>0.358008</v>
+        <v>0.35598</v>
       </c>
       <c r="D23" t="n">
-        <v>0.227775</v>
+        <v>0.231558</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240549</v>
+        <v>0.240553</v>
       </c>
       <c r="C24" t="n">
-        <v>0.223827</v>
+        <v>0.220784</v>
       </c>
       <c r="D24" t="n">
-        <v>0.228606</v>
+        <v>0.232325</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.241981</v>
+        <v>0.242056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.224141</v>
+        <v>0.221121</v>
       </c>
       <c r="D25" t="n">
-        <v>0.228631</v>
+        <v>0.232413</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.244358</v>
+        <v>0.244546</v>
       </c>
       <c r="C26" t="n">
-        <v>0.225512</v>
+        <v>0.222509</v>
       </c>
       <c r="D26" t="n">
-        <v>0.229364</v>
+        <v>0.233116</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.247103</v>
+        <v>0.247352</v>
       </c>
       <c r="C27" t="n">
-        <v>0.226895</v>
+        <v>0.223965</v>
       </c>
       <c r="D27" t="n">
-        <v>0.229945</v>
+        <v>0.233699</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.251537</v>
+        <v>0.251623</v>
       </c>
       <c r="C28" t="n">
-        <v>0.228943</v>
+        <v>0.226095</v>
       </c>
       <c r="D28" t="n">
-        <v>0.231148</v>
+        <v>0.234858</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.256144</v>
+        <v>0.256371</v>
       </c>
       <c r="C29" t="n">
-        <v>0.231396</v>
+        <v>0.228567</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231522</v>
+        <v>0.235282</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262055</v>
+        <v>0.262209</v>
       </c>
       <c r="C30" t="n">
-        <v>0.235169</v>
+        <v>0.232451</v>
       </c>
       <c r="D30" t="n">
-        <v>0.232698</v>
+        <v>0.236512</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269632</v>
+        <v>0.269776</v>
       </c>
       <c r="C31" t="n">
-        <v>0.238442</v>
+        <v>0.235775</v>
       </c>
       <c r="D31" t="n">
-        <v>0.233752</v>
+        <v>0.237591</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.279699</v>
+        <v>0.27987</v>
       </c>
       <c r="C32" t="n">
-        <v>0.244441</v>
+        <v>0.241751</v>
       </c>
       <c r="D32" t="n">
-        <v>0.235824</v>
+        <v>0.239569</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.29412</v>
+        <v>0.294261</v>
       </c>
       <c r="C33" t="n">
-        <v>0.252835</v>
+        <v>0.250245</v>
       </c>
       <c r="D33" t="n">
-        <v>0.238809</v>
+        <v>0.242385</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314677</v>
+        <v>0.314955</v>
       </c>
       <c r="C34" t="n">
-        <v>0.264576</v>
+        <v>0.261928</v>
       </c>
       <c r="D34" t="n">
-        <v>0.243406</v>
+        <v>0.246794</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.342432</v>
+        <v>0.342485</v>
       </c>
       <c r="C35" t="n">
-        <v>0.283409</v>
+        <v>0.280435</v>
       </c>
       <c r="D35" t="n">
-        <v>0.250386</v>
+        <v>0.253523</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.380157</v>
+        <v>0.38044</v>
       </c>
       <c r="C36" t="n">
-        <v>0.311909</v>
+        <v>0.308773</v>
       </c>
       <c r="D36" t="n">
-        <v>0.263426</v>
+        <v>0.266053</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.43166</v>
+        <v>0.437074</v>
       </c>
       <c r="C37" t="n">
-        <v>0.355719</v>
+        <v>0.354196</v>
       </c>
       <c r="D37" t="n">
-        <v>0.231186</v>
+        <v>0.234073</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243062</v>
+        <v>0.243162</v>
       </c>
       <c r="C38" t="n">
-        <v>0.227017</v>
+        <v>0.223391</v>
       </c>
       <c r="D38" t="n">
-        <v>0.231236</v>
+        <v>0.234136</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245091</v>
+        <v>0.245232</v>
       </c>
       <c r="C39" t="n">
-        <v>0.228222</v>
+        <v>0.224749</v>
       </c>
       <c r="D39" t="n">
-        <v>0.231929</v>
+        <v>0.234818</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.246849</v>
+        <v>0.247023</v>
       </c>
       <c r="C40" t="n">
-        <v>0.228941</v>
+        <v>0.225567</v>
       </c>
       <c r="D40" t="n">
-        <v>0.232127</v>
+        <v>0.234994</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.249448</v>
+        <v>0.249609</v>
       </c>
       <c r="C41" t="n">
-        <v>0.229909</v>
+        <v>0.226681</v>
       </c>
       <c r="D41" t="n">
-        <v>0.232503</v>
+        <v>0.235333</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.253057</v>
+        <v>0.253136</v>
       </c>
       <c r="C42" t="n">
-        <v>0.231696</v>
+        <v>0.228414</v>
       </c>
       <c r="D42" t="n">
-        <v>0.23322</v>
+        <v>0.235981</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.257299</v>
+        <v>0.2575</v>
       </c>
       <c r="C43" t="n">
-        <v>0.233682</v>
+        <v>0.230647</v>
       </c>
       <c r="D43" t="n">
-        <v>0.233935</v>
+        <v>0.236716</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.262505</v>
+        <v>0.262709</v>
       </c>
       <c r="C44" t="n">
-        <v>0.236795</v>
+        <v>0.233862</v>
       </c>
       <c r="D44" t="n">
-        <v>0.235013</v>
+        <v>0.237702</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.269803</v>
+        <v>0.269977</v>
       </c>
       <c r="C45" t="n">
-        <v>0.240666</v>
+        <v>0.237862</v>
       </c>
       <c r="D45" t="n">
-        <v>0.236345</v>
+        <v>0.239075</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.279437</v>
+        <v>0.279547</v>
       </c>
       <c r="C46" t="n">
-        <v>0.245679</v>
+        <v>0.243034</v>
       </c>
       <c r="D46" t="n">
-        <v>0.238222</v>
+        <v>0.240883</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291492</v>
+        <v>0.291652</v>
       </c>
       <c r="C47" t="n">
-        <v>0.253501</v>
+        <v>0.251083</v>
       </c>
       <c r="D47" t="n">
-        <v>0.240814</v>
+        <v>0.243489</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309536</v>
+        <v>0.309619</v>
       </c>
       <c r="C48" t="n">
-        <v>0.263504</v>
+        <v>0.260929</v>
       </c>
       <c r="D48" t="n">
-        <v>0.244568</v>
+        <v>0.246928</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335771</v>
+        <v>0.335876</v>
       </c>
       <c r="C49" t="n">
-        <v>0.279847</v>
+        <v>0.277136</v>
       </c>
       <c r="D49" t="n">
-        <v>0.251233</v>
+        <v>0.253377</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.372116</v>
+        <v>0.372298</v>
       </c>
       <c r="C50" t="n">
-        <v>0.305648</v>
+        <v>0.302435</v>
       </c>
       <c r="D50" t="n">
-        <v>0.2623</v>
+        <v>0.264128</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.419642</v>
+        <v>0.419864</v>
       </c>
       <c r="C51" t="n">
-        <v>0.346876</v>
+        <v>0.344048</v>
       </c>
       <c r="D51" t="n">
-        <v>0.233703</v>
+        <v>0.235514</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.472708</v>
+        <v>0.487854</v>
       </c>
       <c r="C52" t="n">
-        <v>0.40341</v>
+        <v>0.401246</v>
       </c>
       <c r="D52" t="n">
-        <v>0.233792</v>
+        <v>0.235777</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.248211</v>
+        <v>0.248349</v>
       </c>
       <c r="C53" t="n">
-        <v>0.230417</v>
+        <v>0.22726</v>
       </c>
       <c r="D53" t="n">
-        <v>0.234317</v>
+        <v>0.236046</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.250309</v>
+        <v>0.250369</v>
       </c>
       <c r="C54" t="n">
-        <v>0.231217</v>
+        <v>0.22829</v>
       </c>
       <c r="D54" t="n">
-        <v>0.23465</v>
+        <v>0.236471</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.253699</v>
+        <v>0.253065</v>
       </c>
       <c r="C55" t="n">
-        <v>0.232614</v>
+        <v>0.229655</v>
       </c>
       <c r="D55" t="n">
-        <v>0.235199</v>
+        <v>0.236973</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.258673</v>
+        <v>0.256747</v>
       </c>
       <c r="C56" t="n">
-        <v>0.234259</v>
+        <v>0.231203</v>
       </c>
       <c r="D56" t="n">
-        <v>0.235918</v>
+        <v>0.23753</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260815</v>
+        <v>0.260792</v>
       </c>
       <c r="C57" t="n">
-        <v>0.236533</v>
+        <v>0.234001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.236816</v>
+        <v>0.238531</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.266728</v>
+        <v>0.266223</v>
       </c>
       <c r="C58" t="n">
-        <v>0.238695</v>
+        <v>0.236757</v>
       </c>
       <c r="D58" t="n">
-        <v>0.237502</v>
+        <v>0.239554</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.27262</v>
+        <v>0.273049</v>
       </c>
       <c r="C59" t="n">
-        <v>0.243043</v>
+        <v>0.240534</v>
       </c>
       <c r="D59" t="n">
-        <v>0.239339</v>
+        <v>0.240563</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282117</v>
+        <v>0.282177</v>
       </c>
       <c r="C60" t="n">
-        <v>0.247815</v>
+        <v>0.244811</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241006</v>
+        <v>0.241876</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.294481</v>
+        <v>0.29459</v>
       </c>
       <c r="C61" t="n">
-        <v>0.254287</v>
+        <v>0.252169</v>
       </c>
       <c r="D61" t="n">
-        <v>0.242803</v>
+        <v>0.24417</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.313473</v>
+        <v>0.315239</v>
       </c>
       <c r="C62" t="n">
-        <v>0.263537</v>
+        <v>0.261431</v>
       </c>
       <c r="D62" t="n">
-        <v>0.24617</v>
+        <v>0.247449</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.336216</v>
+        <v>0.337206</v>
       </c>
       <c r="C63" t="n">
-        <v>0.277731</v>
+        <v>0.276005</v>
       </c>
       <c r="D63" t="n">
-        <v>0.251482</v>
+        <v>0.252839</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.367889</v>
+        <v>0.368203</v>
       </c>
       <c r="C64" t="n">
-        <v>0.302206</v>
+        <v>0.300026</v>
       </c>
       <c r="D64" t="n">
-        <v>0.261386</v>
+        <v>0.262343</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.415245</v>
+        <v>0.413922</v>
       </c>
       <c r="C65" t="n">
-        <v>0.337417</v>
+        <v>0.337201</v>
       </c>
       <c r="D65" t="n">
-        <v>0.277651</v>
+        <v>0.279397</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.46748</v>
+        <v>0.467918</v>
       </c>
       <c r="C66" t="n">
-        <v>0.394147</v>
+        <v>0.393771</v>
       </c>
       <c r="D66" t="n">
-        <v>0.240809</v>
+        <v>0.240764</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.26075</v>
+        <v>0.261093</v>
       </c>
       <c r="C67" t="n">
-        <v>0.238746</v>
+        <v>0.235134</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241966</v>
+        <v>0.241795</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.262321</v>
+        <v>0.263872</v>
       </c>
       <c r="C68" t="n">
-        <v>0.238964</v>
+        <v>0.236668</v>
       </c>
       <c r="D68" t="n">
-        <v>0.241768</v>
+        <v>0.242025</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.264828</v>
+        <v>0.265494</v>
       </c>
       <c r="C69" t="n">
-        <v>0.240374</v>
+        <v>0.238057</v>
       </c>
       <c r="D69" t="n">
-        <v>0.2425</v>
+        <v>0.242599</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.26833</v>
+        <v>0.26813</v>
       </c>
       <c r="C70" t="n">
-        <v>0.241645</v>
+        <v>0.239657</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243444</v>
+        <v>0.243383</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.27152</v>
+        <v>0.271986</v>
       </c>
       <c r="C71" t="n">
-        <v>0.244113</v>
+        <v>0.241498</v>
       </c>
       <c r="D71" t="n">
-        <v>0.244043</v>
+        <v>0.243683</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.278076</v>
+        <v>0.277552</v>
       </c>
       <c r="C72" t="n">
-        <v>0.247555</v>
+        <v>0.244329</v>
       </c>
       <c r="D72" t="n">
-        <v>0.244871</v>
+        <v>0.24459</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.283872</v>
+        <v>0.285025</v>
       </c>
       <c r="C73" t="n">
-        <v>0.250514</v>
+        <v>0.24773</v>
       </c>
       <c r="D73" t="n">
-        <v>0.245818</v>
+        <v>0.245974</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.292906</v>
+        <v>0.294827</v>
       </c>
       <c r="C74" t="n">
-        <v>0.254843</v>
+        <v>0.253336</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247195</v>
+        <v>0.247426</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.306486</v>
+        <v>0.30557</v>
       </c>
       <c r="C75" t="n">
-        <v>0.26144</v>
+        <v>0.260281</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249725</v>
+        <v>0.249945</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.32019</v>
+        <v>0.324845</v>
       </c>
       <c r="C76" t="n">
-        <v>0.272394</v>
+        <v>0.270034</v>
       </c>
       <c r="D76" t="n">
-        <v>0.254281</v>
+        <v>0.253262</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.342546</v>
+        <v>0.343033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.285533</v>
+        <v>0.284122</v>
       </c>
       <c r="D77" t="n">
-        <v>0.258595</v>
+        <v>0.25816</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.374219</v>
+        <v>0.376766</v>
       </c>
       <c r="C78" t="n">
-        <v>0.307526</v>
+        <v>0.304535</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267251</v>
+        <v>0.266503</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.41784</v>
+        <v>0.420388</v>
       </c>
       <c r="C79" t="n">
-        <v>0.341573</v>
+        <v>0.337813</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282785</v>
+        <v>0.281122</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.476468</v>
+        <v>0.477123</v>
       </c>
       <c r="C80" t="n">
-        <v>0.394158</v>
+        <v>0.389316</v>
       </c>
       <c r="D80" t="n">
-        <v>0.250015</v>
+        <v>0.24938</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.274951</v>
+        <v>0.275814</v>
       </c>
       <c r="C81" t="n">
-        <v>0.24709</v>
+        <v>0.245404</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250352</v>
+        <v>0.250967</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277089</v>
+        <v>0.277125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.253429</v>
+        <v>0.246647</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250856</v>
+        <v>0.250783</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.279405</v>
+        <v>0.279431</v>
       </c>
       <c r="C83" t="n">
-        <v>0.249181</v>
+        <v>0.247945</v>
       </c>
       <c r="D83" t="n">
-        <v>0.251324</v>
+        <v>0.250862</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.282241</v>
+        <v>0.282397</v>
       </c>
       <c r="C84" t="n">
-        <v>0.251431</v>
+        <v>0.249079</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251984</v>
+        <v>0.251218</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.286575</v>
+        <v>0.286379</v>
       </c>
       <c r="C85" t="n">
-        <v>0.253444</v>
+        <v>0.25158</v>
       </c>
       <c r="D85" t="n">
-        <v>0.253123</v>
+        <v>0.252148</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.291329</v>
+        <v>0.291522</v>
       </c>
       <c r="C86" t="n">
-        <v>0.255755</v>
+        <v>0.254341</v>
       </c>
       <c r="D86" t="n">
-        <v>0.253399</v>
+        <v>0.252847</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.29745</v>
+        <v>0.298041</v>
       </c>
       <c r="C87" t="n">
-        <v>0.260074</v>
+        <v>0.258056</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254782</v>
+        <v>0.254172</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.30589</v>
+        <v>0.306289</v>
       </c>
       <c r="C88" t="n">
-        <v>0.264589</v>
+        <v>0.262906</v>
       </c>
       <c r="D88" t="n">
-        <v>0.256377</v>
+        <v>0.255908</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.320594</v>
+        <v>0.317855</v>
       </c>
       <c r="C89" t="n">
-        <v>0.271075</v>
+        <v>0.269297</v>
       </c>
       <c r="D89" t="n">
-        <v>0.259227</v>
+        <v>0.257767</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.334166</v>
+        <v>0.332287</v>
       </c>
       <c r="C90" t="n">
-        <v>0.285382</v>
+        <v>0.279185</v>
       </c>
       <c r="D90" t="n">
-        <v>0.262169</v>
+        <v>0.261236</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.356057</v>
+        <v>0.353838</v>
       </c>
       <c r="C91" t="n">
-        <v>0.294718</v>
+        <v>0.29298</v>
       </c>
       <c r="D91" t="n">
-        <v>0.268039</v>
+        <v>0.26657</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.382299</v>
+        <v>0.38237</v>
       </c>
       <c r="C92" t="n">
-        <v>0.314895</v>
+        <v>0.313236</v>
       </c>
       <c r="D92" t="n">
-        <v>0.276638</v>
+        <v>0.274741</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.42429</v>
+        <v>0.42454</v>
       </c>
       <c r="C93" t="n">
-        <v>0.344596</v>
+        <v>0.342476</v>
       </c>
       <c r="D93" t="n">
-        <v>0.290186</v>
+        <v>0.288691</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.492095</v>
+        <v>0.482292</v>
       </c>
       <c r="C94" t="n">
-        <v>0.393441</v>
+        <v>0.391787</v>
       </c>
       <c r="D94" t="n">
-        <v>0.25623</v>
+        <v>0.255519</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.28532</v>
+        <v>0.285941</v>
       </c>
       <c r="C95" t="n">
-        <v>0.254506</v>
+        <v>0.252788</v>
       </c>
       <c r="D95" t="n">
-        <v>0.256924</v>
+        <v>0.255823</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.287464</v>
+        <v>0.28784</v>
       </c>
       <c r="C96" t="n">
-        <v>0.255482</v>
+        <v>0.25388</v>
       </c>
       <c r="D96" t="n">
-        <v>0.257165</v>
+        <v>0.256352</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.289584</v>
+        <v>0.289982</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25719</v>
+        <v>0.25528</v>
       </c>
       <c r="D97" t="n">
-        <v>0.25754</v>
+        <v>0.256398</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.292914</v>
+        <v>0.292913</v>
       </c>
       <c r="C98" t="n">
-        <v>0.259183</v>
+        <v>0.257222</v>
       </c>
       <c r="D98" t="n">
-        <v>0.258356</v>
+        <v>0.257583</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.296683</v>
+        <v>0.296523</v>
       </c>
       <c r="C99" t="n">
-        <v>0.261555</v>
+        <v>0.259186</v>
       </c>
       <c r="D99" t="n">
-        <v>0.259224</v>
+        <v>0.258208</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.301521</v>
+        <v>0.301328</v>
       </c>
       <c r="C100" t="n">
-        <v>0.264818</v>
+        <v>0.262832</v>
       </c>
       <c r="D100" t="n">
-        <v>0.26032</v>
+        <v>0.259651</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.308553</v>
+        <v>0.307865</v>
       </c>
       <c r="C101" t="n">
-        <v>0.26851</v>
+        <v>0.266371</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261667</v>
+        <v>0.261277</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.316096</v>
+        <v>0.315793</v>
       </c>
       <c r="C102" t="n">
-        <v>0.27476</v>
+        <v>0.271929</v>
       </c>
       <c r="D102" t="n">
-        <v>0.263707</v>
+        <v>0.262389</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.32941</v>
+        <v>0.326376</v>
       </c>
       <c r="C103" t="n">
-        <v>0.281429</v>
+        <v>0.279946</v>
       </c>
       <c r="D103" t="n">
-        <v>0.265615</v>
+        <v>0.264478</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.345623</v>
+        <v>0.340734</v>
       </c>
       <c r="C104" t="n">
-        <v>0.292326</v>
+        <v>0.290869</v>
       </c>
       <c r="D104" t="n">
-        <v>0.26908</v>
+        <v>0.268017</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.360328</v>
+        <v>0.365177</v>
       </c>
       <c r="C105" t="n">
-        <v>0.306093</v>
+        <v>0.304886</v>
       </c>
       <c r="D105" t="n">
-        <v>0.274651</v>
+        <v>0.272925</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.394961</v>
+        <v>0.388662</v>
       </c>
       <c r="C106" t="n">
-        <v>0.330972</v>
+        <v>0.326578</v>
       </c>
       <c r="D106" t="n">
-        <v>0.287765</v>
+        <v>0.280554</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.430175</v>
+        <v>0.431172</v>
       </c>
       <c r="C107" t="n">
-        <v>0.360076</v>
+        <v>0.355785</v>
       </c>
       <c r="D107" t="n">
-        <v>0.296153</v>
+        <v>0.294273</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.503433</v>
+        <v>0.500219</v>
       </c>
       <c r="C108" t="n">
-        <v>0.408315</v>
+        <v>0.404758</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26041</v>
+        <v>0.259115</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.583859</v>
+        <v>0.592611</v>
       </c>
       <c r="C109" t="n">
-        <v>0.485659</v>
+        <v>0.481473</v>
       </c>
       <c r="D109" t="n">
-        <v>0.261083</v>
+        <v>0.260226</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.293528</v>
+        <v>0.294293</v>
       </c>
       <c r="C110" t="n">
-        <v>0.272455</v>
+        <v>0.270686</v>
       </c>
       <c r="D110" t="n">
-        <v>0.262041</v>
+        <v>0.260794</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.296654</v>
+        <v>0.296792</v>
       </c>
       <c r="C111" t="n">
-        <v>0.277512</v>
+        <v>0.275154</v>
       </c>
       <c r="D111" t="n">
-        <v>0.262814</v>
+        <v>0.261633</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.300551</v>
+        <v>0.300224</v>
       </c>
       <c r="C112" t="n">
-        <v>0.282202</v>
+        <v>0.281054</v>
       </c>
       <c r="D112" t="n">
-        <v>0.264394</v>
+        <v>0.263222</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.304899</v>
+        <v>0.304861</v>
       </c>
       <c r="C113" t="n">
-        <v>0.288961</v>
+        <v>0.287219</v>
       </c>
       <c r="D113" t="n">
-        <v>0.265838</v>
+        <v>0.264536</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.3123</v>
+        <v>0.310509</v>
       </c>
       <c r="C114" t="n">
-        <v>0.296137</v>
+        <v>0.294191</v>
       </c>
       <c r="D114" t="n">
-        <v>0.267971</v>
+        <v>0.26714</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.319759</v>
+        <v>0.318758</v>
       </c>
       <c r="C115" t="n">
-        <v>0.304501</v>
+        <v>0.302958</v>
       </c>
       <c r="D115" t="n">
-        <v>0.270901</v>
+        <v>0.26955</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.329424</v>
+        <v>0.329829</v>
       </c>
       <c r="C116" t="n">
-        <v>0.313977</v>
+        <v>0.312044</v>
       </c>
       <c r="D116" t="n">
-        <v>0.274247</v>
+        <v>0.273654</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.343201</v>
+        <v>0.345437</v>
       </c>
       <c r="C117" t="n">
-        <v>0.325907</v>
+        <v>0.324139</v>
       </c>
       <c r="D117" t="n">
-        <v>0.279263</v>
+        <v>0.278479</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.361098</v>
+        <v>0.361887</v>
       </c>
       <c r="C118" t="n">
-        <v>0.339214</v>
+        <v>0.337457</v>
       </c>
       <c r="D118" t="n">
-        <v>0.285302</v>
+        <v>0.283617</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.38475</v>
+        <v>0.384811</v>
       </c>
       <c r="C119" t="n">
-        <v>0.356985</v>
+        <v>0.355281</v>
       </c>
       <c r="D119" t="n">
-        <v>0.29419</v>
+        <v>0.293845</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.421118</v>
+        <v>0.423911</v>
       </c>
       <c r="C120" t="n">
-        <v>0.381297</v>
+        <v>0.378912</v>
       </c>
       <c r="D120" t="n">
-        <v>0.305286</v>
+        <v>0.305417</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.467583</v>
+        <v>0.470631</v>
       </c>
       <c r="C121" t="n">
-        <v>0.414697</v>
+        <v>0.412384</v>
       </c>
       <c r="D121" t="n">
-        <v>0.323009</v>
+        <v>0.32031</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.529212</v>
+        <v>0.548071</v>
       </c>
       <c r="C122" t="n">
-        <v>0.465326</v>
+        <v>0.462809</v>
       </c>
       <c r="D122" t="n">
-        <v>0.349738</v>
+        <v>0.34732</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6255309999999999</v>
+        <v>0.635273</v>
       </c>
       <c r="C123" t="n">
-        <v>0.549276</v>
+        <v>0.545957</v>
       </c>
       <c r="D123" t="n">
-        <v>0.28765</v>
+        <v>0.285778</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319922</v>
+        <v>0.319863</v>
       </c>
       <c r="C124" t="n">
-        <v>0.320224</v>
+        <v>0.318561</v>
       </c>
       <c r="D124" t="n">
-        <v>0.293231</v>
+        <v>0.292026</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.325812</v>
+        <v>0.326725</v>
       </c>
       <c r="C125" t="n">
-        <v>0.325456</v>
+        <v>0.323085</v>
       </c>
       <c r="D125" t="n">
-        <v>0.293911</v>
+        <v>0.294468</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.331598</v>
+        <v>0.330982</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329975</v>
+        <v>0.329799</v>
       </c>
       <c r="D126" t="n">
-        <v>0.296726</v>
+        <v>0.297523</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.340552</v>
+        <v>0.338774</v>
       </c>
       <c r="C127" t="n">
-        <v>0.334295</v>
+        <v>0.332409</v>
       </c>
       <c r="D127" t="n">
-        <v>0.303803</v>
+        <v>0.300403</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.345722</v>
+        <v>0.346251</v>
       </c>
       <c r="C128" t="n">
-        <v>0.340832</v>
+        <v>0.338377</v>
       </c>
       <c r="D128" t="n">
-        <v>0.304239</v>
+        <v>0.303748</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.353147</v>
+        <v>0.353256</v>
       </c>
       <c r="C129" t="n">
-        <v>0.346697</v>
+        <v>0.345967</v>
       </c>
       <c r="D129" t="n">
-        <v>0.308815</v>
+        <v>0.312186</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.364205</v>
+        <v>0.366235</v>
       </c>
       <c r="C130" t="n">
-        <v>0.358398</v>
+        <v>0.355205</v>
       </c>
       <c r="D130" t="n">
-        <v>0.310442</v>
+        <v>0.311107</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.379705</v>
+        <v>0.376669</v>
       </c>
       <c r="C131" t="n">
-        <v>0.365297</v>
+        <v>0.363959</v>
       </c>
       <c r="D131" t="n">
-        <v>0.317137</v>
+        <v>0.317969</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.393647</v>
+        <v>0.392778</v>
       </c>
       <c r="C132" t="n">
-        <v>0.382753</v>
+        <v>0.38004</v>
       </c>
       <c r="D132" t="n">
-        <v>0.322404</v>
+        <v>0.318295</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.418666</v>
+        <v>0.416045</v>
       </c>
       <c r="C133" t="n">
-        <v>0.400574</v>
+        <v>0.397995</v>
       </c>
       <c r="D133" t="n">
-        <v>0.328257</v>
+        <v>0.326153</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.448889</v>
+        <v>0.450042</v>
       </c>
       <c r="C134" t="n">
-        <v>0.421663</v>
+        <v>0.421643</v>
       </c>
       <c r="D134" t="n">
-        <v>0.341675</v>
+        <v>0.336871</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.489867</v>
+        <v>0.493612</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453729</v>
+        <v>0.456236</v>
       </c>
       <c r="D135" t="n">
-        <v>0.357047</v>
+        <v>0.357268</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.563261</v>
+        <v>0.5566</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5089590000000001</v>
+        <v>0.504574</v>
       </c>
       <c r="D136" t="n">
-        <v>0.383692</v>
+        <v>0.380131</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.665239</v>
+        <v>0.6582170000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.590347</v>
+        <v>0.5922190000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>0.422592</v>
+        <v>0.416853</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.463619</v>
+        <v>0.448886</v>
       </c>
       <c r="C138" t="n">
-        <v>0.465128</v>
+        <v>0.459514</v>
       </c>
       <c r="D138" t="n">
-        <v>0.426834</v>
+        <v>0.418</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.464393</v>
+        <v>0.45972</v>
       </c>
       <c r="C139" t="n">
-        <v>0.468192</v>
+        <v>0.47264</v>
       </c>
       <c r="D139" t="n">
-        <v>0.422789</v>
+        <v>0.434217</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.468159</v>
+        <v>0.463829</v>
       </c>
       <c r="C140" t="n">
-        <v>0.477554</v>
+        <v>0.470014</v>
       </c>
       <c r="D140" t="n">
-        <v>0.43531</v>
+        <v>0.430836</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.470216</v>
+        <v>0.466959</v>
       </c>
       <c r="C141" t="n">
-        <v>0.485475</v>
+        <v>0.480241</v>
       </c>
       <c r="D141" t="n">
-        <v>0.434852</v>
+        <v>0.438632</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.472489</v>
+        <v>0.483604</v>
       </c>
       <c r="C142" t="n">
-        <v>0.484304</v>
+        <v>0.491199</v>
       </c>
       <c r="D142" t="n">
-        <v>0.434792</v>
+        <v>0.440686</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.489908</v>
+        <v>0.488884</v>
       </c>
       <c r="C143" t="n">
-        <v>0.490146</v>
+        <v>0.492132</v>
       </c>
       <c r="D143" t="n">
-        <v>0.43794</v>
+        <v>0.448005</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.243869</v>
+        <v>0.0985123</v>
       </c>
       <c r="C2" t="n">
-        <v>0.215931</v>
+        <v>0.0603829</v>
       </c>
       <c r="D2" t="n">
-        <v>0.217953</v>
+        <v>0.0703275</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.251692</v>
+        <v>0.106551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.219575</v>
+        <v>0.0613001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.219501</v>
+        <v>0.0707344</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.268208</v>
+        <v>0.118882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.229327</v>
+        <v>0.0638186</v>
       </c>
       <c r="D4" t="n">
-        <v>0.223922</v>
+        <v>0.0692711</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.288228</v>
+        <v>0.140335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.245989</v>
+        <v>0.0736692</v>
       </c>
       <c r="D5" t="n">
-        <v>0.230021</v>
+        <v>0.0704983</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.308847</v>
+        <v>0.165459</v>
       </c>
       <c r="C6" t="n">
-        <v>0.260039</v>
+        <v>0.0891965</v>
       </c>
       <c r="D6" t="n">
-        <v>0.235056</v>
+        <v>0.07152550000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.342806</v>
+        <v>0.202944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.285369</v>
+        <v>0.110926</v>
       </c>
       <c r="D7" t="n">
-        <v>0.246257</v>
+        <v>0.07451579999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.386969</v>
+        <v>0.240846</v>
       </c>
       <c r="C8" t="n">
-        <v>0.323244</v>
+        <v>0.150769</v>
       </c>
       <c r="D8" t="n">
-        <v>0.264732</v>
+        <v>0.0885338</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.440648</v>
+        <v>0.284092</v>
       </c>
       <c r="C9" t="n">
-        <v>0.363468</v>
+        <v>0.191095</v>
       </c>
       <c r="D9" t="n">
-        <v>0.222406</v>
+        <v>0.0699337</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.228278</v>
+        <v>0.0906547</v>
       </c>
       <c r="C10" t="n">
-        <v>0.211163</v>
+        <v>0.0609813</v>
       </c>
       <c r="D10" t="n">
-        <v>0.22363</v>
+        <v>0.0702488</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.230779</v>
+        <v>0.0915816</v>
       </c>
       <c r="C11" t="n">
-        <v>0.212166</v>
+        <v>0.0599627</v>
       </c>
       <c r="D11" t="n">
-        <v>0.224314</v>
+        <v>0.07028760000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.234897</v>
+        <v>0.0927627</v>
       </c>
       <c r="C12" t="n">
-        <v>0.215087</v>
+        <v>0.0601483</v>
       </c>
       <c r="D12" t="n">
-        <v>0.226672</v>
+        <v>0.0704186</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.237764</v>
+        <v>0.09490560000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.21722</v>
+        <v>0.0603389</v>
       </c>
       <c r="D13" t="n">
-        <v>0.227412</v>
+        <v>0.0704709</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.243212</v>
+        <v>0.097332</v>
       </c>
       <c r="C14" t="n">
-        <v>0.220876</v>
+        <v>0.0610497</v>
       </c>
       <c r="D14" t="n">
-        <v>0.229491</v>
+        <v>0.07089529999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.248979</v>
+        <v>0.100719</v>
       </c>
       <c r="C15" t="n">
-        <v>0.224169</v>
+        <v>0.06360300000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.231126</v>
+        <v>0.07102940000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.255655</v>
+        <v>0.105629</v>
       </c>
       <c r="C16" t="n">
-        <v>0.227977</v>
+        <v>0.06936150000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.232498</v>
+        <v>0.07136770000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.263654</v>
+        <v>0.113625</v>
       </c>
       <c r="C17" t="n">
-        <v>0.232252</v>
+        <v>0.0708148</v>
       </c>
       <c r="D17" t="n">
-        <v>0.233718</v>
+        <v>0.07169780000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.274527</v>
+        <v>0.125373</v>
       </c>
       <c r="C18" t="n">
-        <v>0.238955</v>
+        <v>0.0799956</v>
       </c>
       <c r="D18" t="n">
-        <v>0.235985</v>
+        <v>0.0718526</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.289244</v>
+        <v>0.143215</v>
       </c>
       <c r="C19" t="n">
-        <v>0.246453</v>
+        <v>0.0894689</v>
       </c>
       <c r="D19" t="n">
-        <v>0.239589</v>
+        <v>0.0733574</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.30874</v>
+        <v>0.164049</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25949</v>
+        <v>0.106492</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243584</v>
+        <v>0.07694380000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.340362</v>
+        <v>0.192735</v>
       </c>
       <c r="C21" t="n">
-        <v>0.278191</v>
+        <v>0.120249</v>
       </c>
       <c r="D21" t="n">
-        <v>0.251014</v>
+        <v>0.08495469999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.38187</v>
+        <v>0.235078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.309168</v>
+        <v>0.154046</v>
       </c>
       <c r="D22" t="n">
-        <v>0.26446</v>
+        <v>0.10245</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.433038</v>
+        <v>0.27651</v>
       </c>
       <c r="C23" t="n">
-        <v>0.35598</v>
+        <v>0.208299</v>
       </c>
       <c r="D23" t="n">
-        <v>0.231558</v>
+        <v>0.0717604</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.240553</v>
+        <v>0.0956465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.220784</v>
+        <v>0.07530249999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.232325</v>
+        <v>0.0727184</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.242056</v>
+        <v>0.09688570000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>0.221121</v>
+        <v>0.0750962</v>
       </c>
       <c r="D25" t="n">
-        <v>0.232413</v>
+        <v>0.0759097</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.244546</v>
+        <v>0.09910819999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.222509</v>
+        <v>0.0661403</v>
       </c>
       <c r="D26" t="n">
-        <v>0.233116</v>
+        <v>0.0733383</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.247352</v>
+        <v>0.101223</v>
       </c>
       <c r="C27" t="n">
-        <v>0.223965</v>
+        <v>0.0770337</v>
       </c>
       <c r="D27" t="n">
-        <v>0.233699</v>
+        <v>0.0725367</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.251623</v>
+        <v>0.104061</v>
       </c>
       <c r="C28" t="n">
-        <v>0.226095</v>
+        <v>0.06829349999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.234858</v>
+        <v>0.0741484</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.256371</v>
+        <v>0.108072</v>
       </c>
       <c r="C29" t="n">
-        <v>0.228567</v>
+        <v>0.0785666</v>
       </c>
       <c r="D29" t="n">
-        <v>0.235282</v>
+        <v>0.07396610000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.262209</v>
+        <v>0.114236</v>
       </c>
       <c r="C30" t="n">
-        <v>0.232451</v>
+        <v>0.07776329999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236512</v>
+        <v>0.0747811</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.269776</v>
+        <v>0.12224</v>
       </c>
       <c r="C31" t="n">
-        <v>0.235775</v>
+        <v>0.0904232</v>
       </c>
       <c r="D31" t="n">
-        <v>0.237591</v>
+        <v>0.0780486</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.27987</v>
+        <v>0.133752</v>
       </c>
       <c r="C32" t="n">
-        <v>0.241751</v>
+        <v>0.0846432</v>
       </c>
       <c r="D32" t="n">
-        <v>0.239569</v>
+        <v>0.0766756</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.294261</v>
+        <v>0.147311</v>
       </c>
       <c r="C33" t="n">
-        <v>0.250245</v>
+        <v>0.09226520000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.242385</v>
+        <v>0.0871792</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.314955</v>
+        <v>0.165901</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261928</v>
+        <v>0.104902</v>
       </c>
       <c r="D34" t="n">
-        <v>0.246794</v>
+        <v>0.0828338</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.342485</v>
+        <v>0.192468</v>
       </c>
       <c r="C35" t="n">
-        <v>0.280435</v>
+        <v>0.132408</v>
       </c>
       <c r="D35" t="n">
-        <v>0.253523</v>
+        <v>0.0963841</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.38044</v>
+        <v>0.227138</v>
       </c>
       <c r="C36" t="n">
-        <v>0.308773</v>
+        <v>0.146592</v>
       </c>
       <c r="D36" t="n">
-        <v>0.266053</v>
+        <v>0.107257</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.437074</v>
+        <v>0.271111</v>
       </c>
       <c r="C37" t="n">
-        <v>0.354196</v>
+        <v>0.189317</v>
       </c>
       <c r="D37" t="n">
-        <v>0.234073</v>
+        <v>0.07400569999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.243162</v>
+        <v>0.0995318</v>
       </c>
       <c r="C38" t="n">
-        <v>0.223391</v>
+        <v>0.07823869999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.234136</v>
+        <v>0.0745335</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.245232</v>
+        <v>0.108823</v>
       </c>
       <c r="C39" t="n">
-        <v>0.224749</v>
+        <v>0.07043629999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.234818</v>
+        <v>0.07391010000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.247023</v>
+        <v>0.110966</v>
       </c>
       <c r="C40" t="n">
-        <v>0.225567</v>
+        <v>0.0803141</v>
       </c>
       <c r="D40" t="n">
-        <v>0.234994</v>
+        <v>0.07510550000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.249609</v>
+        <v>0.113924</v>
       </c>
       <c r="C41" t="n">
-        <v>0.226681</v>
+        <v>0.0736889</v>
       </c>
       <c r="D41" t="n">
-        <v>0.235333</v>
+        <v>0.0855269</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.253136</v>
+        <v>0.116877</v>
       </c>
       <c r="C42" t="n">
-        <v>0.228414</v>
+        <v>0.07369240000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.235981</v>
+        <v>0.0756648</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.2575</v>
+        <v>0.111864</v>
       </c>
       <c r="C43" t="n">
-        <v>0.230647</v>
+        <v>0.0759179</v>
       </c>
       <c r="D43" t="n">
-        <v>0.236716</v>
+        <v>0.0846816</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.262709</v>
+        <v>0.116832</v>
       </c>
       <c r="C44" t="n">
-        <v>0.233862</v>
+        <v>0.0778913</v>
       </c>
       <c r="D44" t="n">
-        <v>0.237702</v>
+        <v>0.0796303</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.269977</v>
+        <v>0.1327</v>
       </c>
       <c r="C45" t="n">
-        <v>0.237862</v>
+        <v>0.0843467</v>
       </c>
       <c r="D45" t="n">
-        <v>0.239075</v>
+        <v>0.0788155</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.279547</v>
+        <v>0.132895</v>
       </c>
       <c r="C46" t="n">
-        <v>0.243034</v>
+        <v>0.09199839999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.240883</v>
+        <v>0.0798483</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.291652</v>
+        <v>0.144863</v>
       </c>
       <c r="C47" t="n">
-        <v>0.251083</v>
+        <v>0.0948104</v>
       </c>
       <c r="D47" t="n">
-        <v>0.243489</v>
+        <v>0.081567</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.309619</v>
+        <v>0.164891</v>
       </c>
       <c r="C48" t="n">
-        <v>0.260929</v>
+        <v>0.101918</v>
       </c>
       <c r="D48" t="n">
-        <v>0.246928</v>
+        <v>0.08939130000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.335876</v>
+        <v>0.186732</v>
       </c>
       <c r="C49" t="n">
-        <v>0.277136</v>
+        <v>0.115338</v>
       </c>
       <c r="D49" t="n">
-        <v>0.253377</v>
+        <v>0.100746</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.372298</v>
+        <v>0.221106</v>
       </c>
       <c r="C50" t="n">
-        <v>0.302435</v>
+        <v>0.136104</v>
       </c>
       <c r="D50" t="n">
-        <v>0.264128</v>
+        <v>0.105168</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.419864</v>
+        <v>0.258976</v>
       </c>
       <c r="C51" t="n">
-        <v>0.344048</v>
+        <v>0.171288</v>
       </c>
       <c r="D51" t="n">
-        <v>0.235514</v>
+        <v>0.0868041</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.487854</v>
+        <v>0.322471</v>
       </c>
       <c r="C52" t="n">
-        <v>0.401246</v>
+        <v>0.227358</v>
       </c>
       <c r="D52" t="n">
-        <v>0.235777</v>
+        <v>0.07993989999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.248349</v>
+        <v>0.112958</v>
       </c>
       <c r="C53" t="n">
-        <v>0.22726</v>
+        <v>0.0867904</v>
       </c>
       <c r="D53" t="n">
-        <v>0.236046</v>
+        <v>0.0862185</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.250369</v>
+        <v>0.106267</v>
       </c>
       <c r="C54" t="n">
-        <v>0.22829</v>
+        <v>0.084479</v>
       </c>
       <c r="D54" t="n">
-        <v>0.236471</v>
+        <v>0.0852392</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.253065</v>
+        <v>0.116883</v>
       </c>
       <c r="C55" t="n">
-        <v>0.229655</v>
+        <v>0.0810514</v>
       </c>
       <c r="D55" t="n">
-        <v>0.236973</v>
+        <v>0.08851299999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.256747</v>
+        <v>0.114276</v>
       </c>
       <c r="C56" t="n">
-        <v>0.231203</v>
+        <v>0.0773501</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23753</v>
+        <v>0.0777312</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.260792</v>
+        <v>0.115039</v>
       </c>
       <c r="C57" t="n">
-        <v>0.234001</v>
+        <v>0.0878355</v>
       </c>
       <c r="D57" t="n">
-        <v>0.238531</v>
+        <v>0.0783648</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.266223</v>
+        <v>0.119517</v>
       </c>
       <c r="C58" t="n">
-        <v>0.236757</v>
+        <v>0.08526110000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.239554</v>
+        <v>0.08266419999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.273049</v>
+        <v>0.136385</v>
       </c>
       <c r="C59" t="n">
-        <v>0.240534</v>
+        <v>0.0891972</v>
       </c>
       <c r="D59" t="n">
-        <v>0.240563</v>
+        <v>0.08093259999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.282177</v>
+        <v>0.13755</v>
       </c>
       <c r="C60" t="n">
-        <v>0.244811</v>
+        <v>0.09768540000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.241876</v>
+        <v>0.0813241</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.29459</v>
+        <v>0.155207</v>
       </c>
       <c r="C61" t="n">
-        <v>0.252169</v>
+        <v>0.0942099</v>
       </c>
       <c r="D61" t="n">
-        <v>0.24417</v>
+        <v>0.0912227</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.315239</v>
+        <v>0.161017</v>
       </c>
       <c r="C62" t="n">
-        <v>0.261431</v>
+        <v>0.106418</v>
       </c>
       <c r="D62" t="n">
-        <v>0.247449</v>
+        <v>0.08974269999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.337206</v>
+        <v>0.181145</v>
       </c>
       <c r="C63" t="n">
-        <v>0.276005</v>
+        <v>0.116086</v>
       </c>
       <c r="D63" t="n">
-        <v>0.252839</v>
+        <v>0.0947691</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.368203</v>
+        <v>0.21279</v>
       </c>
       <c r="C64" t="n">
-        <v>0.300026</v>
+        <v>0.135323</v>
       </c>
       <c r="D64" t="n">
-        <v>0.262343</v>
+        <v>0.10567</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.413922</v>
+        <v>0.263927</v>
       </c>
       <c r="C65" t="n">
-        <v>0.337201</v>
+        <v>0.167807</v>
       </c>
       <c r="D65" t="n">
-        <v>0.279397</v>
+        <v>0.114451</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.467918</v>
+        <v>0.303436</v>
       </c>
       <c r="C66" t="n">
-        <v>0.393771</v>
+        <v>0.219327</v>
       </c>
       <c r="D66" t="n">
-        <v>0.240764</v>
+        <v>0.08308309999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.261093</v>
+        <v>0.116074</v>
       </c>
       <c r="C67" t="n">
-        <v>0.235134</v>
+        <v>0.08497010000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.241795</v>
+        <v>0.0831134</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.263872</v>
+        <v>0.118396</v>
       </c>
       <c r="C68" t="n">
-        <v>0.236668</v>
+        <v>0.084884</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242025</v>
+        <v>0.0837777</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.265494</v>
+        <v>0.11996</v>
       </c>
       <c r="C69" t="n">
-        <v>0.238057</v>
+        <v>0.0822312</v>
       </c>
       <c r="D69" t="n">
-        <v>0.242599</v>
+        <v>0.0839155</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.26813</v>
+        <v>0.122929</v>
       </c>
       <c r="C70" t="n">
-        <v>0.239657</v>
+        <v>0.0880403</v>
       </c>
       <c r="D70" t="n">
-        <v>0.243383</v>
+        <v>0.0844292</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.271986</v>
+        <v>0.127262</v>
       </c>
       <c r="C71" t="n">
-        <v>0.241498</v>
+        <v>0.090322</v>
       </c>
       <c r="D71" t="n">
-        <v>0.243683</v>
+        <v>0.0898516</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.277552</v>
+        <v>0.137414</v>
       </c>
       <c r="C72" t="n">
-        <v>0.244329</v>
+        <v>0.0935063</v>
       </c>
       <c r="D72" t="n">
-        <v>0.24459</v>
+        <v>0.0872479</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.285025</v>
+        <v>0.137554</v>
       </c>
       <c r="C73" t="n">
-        <v>0.24773</v>
+        <v>0.090298</v>
       </c>
       <c r="D73" t="n">
-        <v>0.245974</v>
+        <v>0.0866281</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.294827</v>
+        <v>0.15034</v>
       </c>
       <c r="C74" t="n">
-        <v>0.253336</v>
+        <v>0.100137</v>
       </c>
       <c r="D74" t="n">
-        <v>0.247426</v>
+        <v>0.0888891</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.30557</v>
+        <v>0.156047</v>
       </c>
       <c r="C75" t="n">
-        <v>0.260281</v>
+        <v>0.103061</v>
       </c>
       <c r="D75" t="n">
-        <v>0.249945</v>
+        <v>0.0896383</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.324845</v>
+        <v>0.175346</v>
       </c>
       <c r="C76" t="n">
-        <v>0.270034</v>
+        <v>0.10984</v>
       </c>
       <c r="D76" t="n">
-        <v>0.253262</v>
+        <v>0.0935016</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.343033</v>
+        <v>0.193342</v>
       </c>
       <c r="C77" t="n">
-        <v>0.284122</v>
+        <v>0.118675</v>
       </c>
       <c r="D77" t="n">
-        <v>0.25816</v>
+        <v>0.112226</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.376766</v>
+        <v>0.217572</v>
       </c>
       <c r="C78" t="n">
-        <v>0.304535</v>
+        <v>0.147683</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266503</v>
+        <v>0.111684</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.420388</v>
+        <v>0.266354</v>
       </c>
       <c r="C79" t="n">
-        <v>0.337813</v>
+        <v>0.174756</v>
       </c>
       <c r="D79" t="n">
-        <v>0.281122</v>
+        <v>0.123936</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.477123</v>
+        <v>0.327294</v>
       </c>
       <c r="C80" t="n">
-        <v>0.389316</v>
+        <v>0.214259</v>
       </c>
       <c r="D80" t="n">
-        <v>0.24938</v>
+        <v>0.095081</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.275814</v>
+        <v>0.129328</v>
       </c>
       <c r="C81" t="n">
-        <v>0.245404</v>
+        <v>0.09227399999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.250967</v>
+        <v>0.0909436</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.277125</v>
+        <v>0.13107</v>
       </c>
       <c r="C82" t="n">
-        <v>0.246647</v>
+        <v>0.08954579999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.250783</v>
+        <v>0.09152780000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.279431</v>
+        <v>0.139539</v>
       </c>
       <c r="C83" t="n">
-        <v>0.247945</v>
+        <v>0.0888919</v>
       </c>
       <c r="D83" t="n">
-        <v>0.250862</v>
+        <v>0.0918742</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.282397</v>
+        <v>0.135348</v>
       </c>
       <c r="C84" t="n">
-        <v>0.249079</v>
+        <v>0.0902323</v>
       </c>
       <c r="D84" t="n">
-        <v>0.251218</v>
+        <v>0.0921498</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.286379</v>
+        <v>0.140448</v>
       </c>
       <c r="C85" t="n">
-        <v>0.25158</v>
+        <v>0.0919801</v>
       </c>
       <c r="D85" t="n">
-        <v>0.252148</v>
+        <v>0.0931355</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.291522</v>
+        <v>0.143388</v>
       </c>
       <c r="C86" t="n">
-        <v>0.254341</v>
+        <v>0.0967696</v>
       </c>
       <c r="D86" t="n">
-        <v>0.252847</v>
+        <v>0.0936652</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.298041</v>
+        <v>0.149822</v>
       </c>
       <c r="C87" t="n">
-        <v>0.258056</v>
+        <v>0.09776799999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.254172</v>
+        <v>0.0947688</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.306289</v>
+        <v>0.156665</v>
       </c>
       <c r="C88" t="n">
-        <v>0.262906</v>
+        <v>0.105044</v>
       </c>
       <c r="D88" t="n">
-        <v>0.255908</v>
+        <v>0.09615219999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.317855</v>
+        <v>0.171556</v>
       </c>
       <c r="C89" t="n">
-        <v>0.269297</v>
+        <v>0.108268</v>
       </c>
       <c r="D89" t="n">
-        <v>0.257767</v>
+        <v>0.0983419</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.332287</v>
+        <v>0.181524</v>
       </c>
       <c r="C90" t="n">
-        <v>0.279185</v>
+        <v>0.12371</v>
       </c>
       <c r="D90" t="n">
-        <v>0.261236</v>
+        <v>0.10136</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.353838</v>
+        <v>0.202068</v>
       </c>
       <c r="C91" t="n">
-        <v>0.29298</v>
+        <v>0.13386</v>
       </c>
       <c r="D91" t="n">
-        <v>0.26657</v>
+        <v>0.11554</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.38237</v>
+        <v>0.236613</v>
       </c>
       <c r="C92" t="n">
-        <v>0.313236</v>
+        <v>0.156351</v>
       </c>
       <c r="D92" t="n">
-        <v>0.274741</v>
+        <v>0.113537</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.42454</v>
+        <v>0.273807</v>
       </c>
       <c r="C93" t="n">
-        <v>0.342476</v>
+        <v>0.186251</v>
       </c>
       <c r="D93" t="n">
-        <v>0.288691</v>
+        <v>0.125042</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.482292</v>
+        <v>0.337385</v>
       </c>
       <c r="C94" t="n">
-        <v>0.391787</v>
+        <v>0.217754</v>
       </c>
       <c r="D94" t="n">
-        <v>0.255519</v>
+        <v>0.0976582</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.285941</v>
+        <v>0.137588</v>
       </c>
       <c r="C95" t="n">
-        <v>0.252788</v>
+        <v>0.105557</v>
       </c>
       <c r="D95" t="n">
-        <v>0.255823</v>
+        <v>0.0988701</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.28784</v>
+        <v>0.140236</v>
       </c>
       <c r="C96" t="n">
-        <v>0.25388</v>
+        <v>0.104194</v>
       </c>
       <c r="D96" t="n">
-        <v>0.256352</v>
+        <v>0.108395</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.289982</v>
+        <v>0.143573</v>
       </c>
       <c r="C97" t="n">
-        <v>0.25528</v>
+        <v>0.108006</v>
       </c>
       <c r="D97" t="n">
-        <v>0.256398</v>
+        <v>0.101306</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.292913</v>
+        <v>0.14732</v>
       </c>
       <c r="C98" t="n">
-        <v>0.257222</v>
+        <v>0.118521</v>
       </c>
       <c r="D98" t="n">
-        <v>0.257583</v>
+        <v>0.103026</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.296523</v>
+        <v>0.151452</v>
       </c>
       <c r="C99" t="n">
-        <v>0.259186</v>
+        <v>0.121756</v>
       </c>
       <c r="D99" t="n">
-        <v>0.258208</v>
+        <v>0.104544</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.301328</v>
+        <v>0.163151</v>
       </c>
       <c r="C100" t="n">
-        <v>0.262832</v>
+        <v>0.128442</v>
       </c>
       <c r="D100" t="n">
-        <v>0.259651</v>
+        <v>0.107183</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.307865</v>
+        <v>0.165072</v>
       </c>
       <c r="C101" t="n">
-        <v>0.266371</v>
+        <v>0.127349</v>
       </c>
       <c r="D101" t="n">
-        <v>0.261277</v>
+        <v>0.110196</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.315793</v>
+        <v>0.175633</v>
       </c>
       <c r="C102" t="n">
-        <v>0.271929</v>
+        <v>0.146608</v>
       </c>
       <c r="D102" t="n">
-        <v>0.262389</v>
+        <v>0.113256</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.326376</v>
+        <v>0.187145</v>
       </c>
       <c r="C103" t="n">
-        <v>0.279946</v>
+        <v>0.145343</v>
       </c>
       <c r="D103" t="n">
-        <v>0.264478</v>
+        <v>0.117692</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.340734</v>
+        <v>0.202685</v>
       </c>
       <c r="C104" t="n">
-        <v>0.290869</v>
+        <v>0.160975</v>
       </c>
       <c r="D104" t="n">
-        <v>0.268017</v>
+        <v>0.122973</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.365177</v>
+        <v>0.224899</v>
       </c>
       <c r="C105" t="n">
-        <v>0.304886</v>
+        <v>0.171091</v>
       </c>
       <c r="D105" t="n">
-        <v>0.272925</v>
+        <v>0.12976</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.388662</v>
+        <v>0.259822</v>
       </c>
       <c r="C106" t="n">
-        <v>0.326578</v>
+        <v>0.18433</v>
       </c>
       <c r="D106" t="n">
-        <v>0.280554</v>
+        <v>0.139363</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.431172</v>
+        <v>0.299909</v>
       </c>
       <c r="C107" t="n">
-        <v>0.355785</v>
+        <v>0.215731</v>
       </c>
       <c r="D107" t="n">
-        <v>0.294273</v>
+        <v>0.155981</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.500219</v>
+        <v>0.355089</v>
       </c>
       <c r="C108" t="n">
-        <v>0.404758</v>
+        <v>0.262617</v>
       </c>
       <c r="D108" t="n">
-        <v>0.259115</v>
+        <v>0.117576</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.592611</v>
+        <v>0.441748</v>
       </c>
       <c r="C109" t="n">
-        <v>0.481473</v>
+        <v>0.325419</v>
       </c>
       <c r="D109" t="n">
-        <v>0.260226</v>
+        <v>0.119487</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.294293</v>
+        <v>0.162053</v>
       </c>
       <c r="C110" t="n">
-        <v>0.270686</v>
+        <v>0.13839</v>
       </c>
       <c r="D110" t="n">
-        <v>0.260794</v>
+        <v>0.121659</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.296792</v>
+        <v>0.165978</v>
       </c>
       <c r="C111" t="n">
-        <v>0.275154</v>
+        <v>0.141231</v>
       </c>
       <c r="D111" t="n">
-        <v>0.261633</v>
+        <v>0.124239</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.300224</v>
+        <v>0.170261</v>
       </c>
       <c r="C112" t="n">
-        <v>0.281054</v>
+        <v>0.151333</v>
       </c>
       <c r="D112" t="n">
-        <v>0.263222</v>
+        <v>0.126423</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.304861</v>
+        <v>0.175029</v>
       </c>
       <c r="C113" t="n">
-        <v>0.287219</v>
+        <v>0.149103</v>
       </c>
       <c r="D113" t="n">
-        <v>0.264536</v>
+        <v>0.128553</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.310509</v>
+        <v>0.182127</v>
       </c>
       <c r="C114" t="n">
-        <v>0.294191</v>
+        <v>0.152709</v>
       </c>
       <c r="D114" t="n">
-        <v>0.26714</v>
+        <v>0.138276</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.318758</v>
+        <v>0.188457</v>
       </c>
       <c r="C115" t="n">
-        <v>0.302958</v>
+        <v>0.157546</v>
       </c>
       <c r="D115" t="n">
-        <v>0.26955</v>
+        <v>0.133539</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.329829</v>
+        <v>0.197997</v>
       </c>
       <c r="C116" t="n">
-        <v>0.312044</v>
+        <v>0.164344</v>
       </c>
       <c r="D116" t="n">
-        <v>0.273654</v>
+        <v>0.139564</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.345437</v>
+        <v>0.211979</v>
       </c>
       <c r="C117" t="n">
-        <v>0.324139</v>
+        <v>0.172285</v>
       </c>
       <c r="D117" t="n">
-        <v>0.278479</v>
+        <v>0.140254</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.361887</v>
+        <v>0.223904</v>
       </c>
       <c r="C118" t="n">
-        <v>0.337457</v>
+        <v>0.182566</v>
       </c>
       <c r="D118" t="n">
-        <v>0.283617</v>
+        <v>0.144744</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.384811</v>
+        <v>0.250731</v>
       </c>
       <c r="C119" t="n">
-        <v>0.355281</v>
+        <v>0.196283</v>
       </c>
       <c r="D119" t="n">
-        <v>0.293845</v>
+        <v>0.150538</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.423911</v>
+        <v>0.27779</v>
       </c>
       <c r="C120" t="n">
-        <v>0.378912</v>
+        <v>0.219224</v>
       </c>
       <c r="D120" t="n">
-        <v>0.305417</v>
+        <v>0.159105</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.470631</v>
+        <v>0.322171</v>
       </c>
       <c r="C121" t="n">
-        <v>0.412384</v>
+        <v>0.259289</v>
       </c>
       <c r="D121" t="n">
-        <v>0.32031</v>
+        <v>0.175136</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.548071</v>
+        <v>0.369033</v>
       </c>
       <c r="C122" t="n">
-        <v>0.462809</v>
+        <v>0.288278</v>
       </c>
       <c r="D122" t="n">
-        <v>0.34732</v>
+        <v>0.19364</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.635273</v>
+        <v>0.471969</v>
       </c>
       <c r="C123" t="n">
-        <v>0.545957</v>
+        <v>0.364262</v>
       </c>
       <c r="D123" t="n">
-        <v>0.285778</v>
+        <v>0.135207</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.319863</v>
+        <v>0.180744</v>
       </c>
       <c r="C124" t="n">
-        <v>0.318561</v>
+        <v>0.16496</v>
       </c>
       <c r="D124" t="n">
-        <v>0.292026</v>
+        <v>0.145455</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.326725</v>
+        <v>0.185147</v>
       </c>
       <c r="C125" t="n">
-        <v>0.323085</v>
+        <v>0.170245</v>
       </c>
       <c r="D125" t="n">
-        <v>0.294468</v>
+        <v>0.139464</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.330982</v>
+        <v>0.188662</v>
       </c>
       <c r="C126" t="n">
-        <v>0.329799</v>
+        <v>0.172209</v>
       </c>
       <c r="D126" t="n">
-        <v>0.297523</v>
+        <v>0.149365</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.338774</v>
+        <v>0.194021</v>
       </c>
       <c r="C127" t="n">
-        <v>0.332409</v>
+        <v>0.173629</v>
       </c>
       <c r="D127" t="n">
-        <v>0.300403</v>
+        <v>0.144335</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.346251</v>
+        <v>0.197575</v>
       </c>
       <c r="C128" t="n">
-        <v>0.338377</v>
+        <v>0.173126</v>
       </c>
       <c r="D128" t="n">
-        <v>0.303748</v>
+        <v>0.145517</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.353256</v>
+        <v>0.204992</v>
       </c>
       <c r="C129" t="n">
-        <v>0.345967</v>
+        <v>0.181349</v>
       </c>
       <c r="D129" t="n">
-        <v>0.312186</v>
+        <v>0.14774</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.366235</v>
+        <v>0.216868</v>
       </c>
       <c r="C130" t="n">
-        <v>0.355205</v>
+        <v>0.189123</v>
       </c>
       <c r="D130" t="n">
-        <v>0.311107</v>
+        <v>0.151051</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.376669</v>
+        <v>0.231679</v>
       </c>
       <c r="C131" t="n">
-        <v>0.363959</v>
+        <v>0.200339</v>
       </c>
       <c r="D131" t="n">
-        <v>0.317969</v>
+        <v>0.153932</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.392778</v>
+        <v>0.243849</v>
       </c>
       <c r="C132" t="n">
-        <v>0.38004</v>
+        <v>0.205002</v>
       </c>
       <c r="D132" t="n">
-        <v>0.318295</v>
+        <v>0.164252</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.416045</v>
+        <v>0.263115</v>
       </c>
       <c r="C133" t="n">
-        <v>0.397995</v>
+        <v>0.218209</v>
       </c>
       <c r="D133" t="n">
-        <v>0.326153</v>
+        <v>0.165719</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.450042</v>
+        <v>0.291928</v>
       </c>
       <c r="C134" t="n">
-        <v>0.421643</v>
+        <v>0.244629</v>
       </c>
       <c r="D134" t="n">
-        <v>0.336871</v>
+        <v>0.172956</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.493612</v>
+        <v>0.32932</v>
       </c>
       <c r="C135" t="n">
-        <v>0.456236</v>
+        <v>0.269437</v>
       </c>
       <c r="D135" t="n">
-        <v>0.357268</v>
+        <v>0.187074</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.5566</v>
+        <v>0.40421</v>
       </c>
       <c r="C136" t="n">
-        <v>0.504574</v>
+        <v>0.314889</v>
       </c>
       <c r="D136" t="n">
-        <v>0.380131</v>
+        <v>0.214741</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.6582170000000001</v>
+        <v>0.491732</v>
       </c>
       <c r="C137" t="n">
-        <v>0.5922190000000001</v>
+        <v>0.400964</v>
       </c>
       <c r="D137" t="n">
-        <v>0.416853</v>
+        <v>0.246111</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.448886</v>
+        <v>0.316378</v>
       </c>
       <c r="C138" t="n">
-        <v>0.459514</v>
+        <v>0.262481</v>
       </c>
       <c r="D138" t="n">
-        <v>0.418</v>
+        <v>0.247215</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.45972</v>
+        <v>0.323618</v>
       </c>
       <c r="C139" t="n">
-        <v>0.47264</v>
+        <v>0.266874</v>
       </c>
       <c r="D139" t="n">
-        <v>0.434217</v>
+        <v>0.247988</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.463829</v>
+        <v>0.328971</v>
       </c>
       <c r="C140" t="n">
-        <v>0.470014</v>
+        <v>0.268693</v>
       </c>
       <c r="D140" t="n">
-        <v>0.430836</v>
+        <v>0.24761</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.466959</v>
+        <v>0.331204</v>
       </c>
       <c r="C141" t="n">
-        <v>0.480241</v>
+        <v>0.272872</v>
       </c>
       <c r="D141" t="n">
-        <v>0.438632</v>
+        <v>0.250609</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.483604</v>
+        <v>0.338142</v>
       </c>
       <c r="C142" t="n">
-        <v>0.491199</v>
+        <v>0.278997</v>
       </c>
       <c r="D142" t="n">
-        <v>0.440686</v>
+        <v>0.253114</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.488884</v>
+        <v>0.343722</v>
       </c>
       <c r="C143" t="n">
-        <v>0.492132</v>
+        <v>0.28286</v>
       </c>
       <c r="D143" t="n">
-        <v>0.448005</v>
+        <v>0.256371</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0985123</v>
+        <v>0.103063</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0603829</v>
+        <v>0.0613338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0703275</v>
+        <v>0.07037450000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.106551</v>
+        <v>0.110987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0613001</v>
+        <v>0.062209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707344</v>
+        <v>0.0707356</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.118882</v>
+        <v>0.122119</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0638186</v>
+        <v>0.06523610000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0692711</v>
+        <v>0.0691722</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140335</v>
+        <v>0.150589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0736692</v>
+        <v>0.07246809999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0704983</v>
+        <v>0.0699767</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.165459</v>
+        <v>0.179718</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0891965</v>
+        <v>0.0899008</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07152550000000001</v>
+        <v>0.0716147</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.202944</v>
+        <v>0.218182</v>
       </c>
       <c r="C7" t="n">
-        <v>0.110926</v>
+        <v>0.11283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07451579999999999</v>
+        <v>0.0758952</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.240846</v>
+        <v>0.273399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.150769</v>
+        <v>0.160389</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0885338</v>
+        <v>0.08885709999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.284092</v>
+        <v>0.325606</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191095</v>
+        <v>0.19259</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0699337</v>
+        <v>0.0703215</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0906547</v>
+        <v>0.0949469</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0609813</v>
+        <v>0.0631052</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0702488</v>
+        <v>0.0703804</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0915816</v>
+        <v>0.09594510000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0599627</v>
+        <v>0.0619259</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07028760000000001</v>
+        <v>0.07046910000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0927627</v>
+        <v>0.09737270000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0601483</v>
+        <v>0.0634521</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0704186</v>
+        <v>0.0705727</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09490560000000001</v>
+        <v>0.0994689</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0603389</v>
+        <v>0.0626062</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0704709</v>
+        <v>0.0707969</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.097332</v>
+        <v>0.102755</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0610497</v>
+        <v>0.06299680000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07089529999999999</v>
+        <v>0.0710066</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.100719</v>
+        <v>0.108257</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06360300000000001</v>
+        <v>0.0633445</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07102940000000001</v>
+        <v>0.0712868</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.105629</v>
+        <v>0.112273</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06936150000000001</v>
+        <v>0.066775</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07136770000000001</v>
+        <v>0.0715037</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.113625</v>
+        <v>0.123206</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0708148</v>
+        <v>0.070981</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07169780000000001</v>
+        <v>0.07184840000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.125373</v>
+        <v>0.133145</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0799956</v>
+        <v>0.08113910000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0718526</v>
+        <v>0.0720039</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.143215</v>
+        <v>0.149825</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0894689</v>
+        <v>0.091278</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0733574</v>
+        <v>0.0733231</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.164049</v>
+        <v>0.173041</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106492</v>
+        <v>0.104339</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07694380000000001</v>
+        <v>0.0769102</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192735</v>
+        <v>0.202846</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120249</v>
+        <v>0.121175</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08495469999999999</v>
+        <v>0.0872663</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235078</v>
+        <v>0.235344</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154046</v>
+        <v>0.15882</v>
       </c>
       <c r="D22" t="n">
-        <v>0.10245</v>
+        <v>0.102796</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.27651</v>
+        <v>0.286522</v>
       </c>
       <c r="C23" t="n">
-        <v>0.208299</v>
+        <v>0.195701</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0717604</v>
+        <v>0.0723738</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0956465</v>
+        <v>0.100525</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07530249999999999</v>
+        <v>0.0663787</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0727184</v>
+        <v>0.0725215</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.09688570000000001</v>
+        <v>0.103183</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0750962</v>
+        <v>0.0665462</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0759097</v>
+        <v>0.07266019999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.09910819999999999</v>
+        <v>0.103432</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0661403</v>
+        <v>0.06725970000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0733383</v>
+        <v>0.07282230000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.101223</v>
+        <v>0.105426</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0770337</v>
+        <v>0.0685282</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0725367</v>
+        <v>0.07660069999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.104061</v>
+        <v>0.108756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06829349999999999</v>
+        <v>0.06841410000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0741484</v>
+        <v>0.0733951</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.108072</v>
+        <v>0.113422</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0785666</v>
+        <v>0.0708389</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07396610000000001</v>
+        <v>0.07480249999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.114236</v>
+        <v>0.120814</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07776329999999999</v>
+        <v>0.0743209</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0747811</v>
+        <v>0.0741294</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12224</v>
+        <v>0.129376</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0904232</v>
+        <v>0.0848163</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0780486</v>
+        <v>0.0761073</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.133752</v>
+        <v>0.139081</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0846432</v>
+        <v>0.085091</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0766756</v>
+        <v>0.0767206</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.147311</v>
+        <v>0.150193</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09226520000000001</v>
+        <v>0.0931027</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0871792</v>
+        <v>0.0777615</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.165901</v>
+        <v>0.168212</v>
       </c>
       <c r="C34" t="n">
-        <v>0.104902</v>
+        <v>0.113686</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0828338</v>
+        <v>0.0836759</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.192468</v>
+        <v>0.197411</v>
       </c>
       <c r="C35" t="n">
-        <v>0.132408</v>
+        <v>0.122913</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0963841</v>
+        <v>0.0920443</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227138</v>
+        <v>0.236015</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146592</v>
+        <v>0.148492</v>
       </c>
       <c r="D36" t="n">
-        <v>0.107257</v>
+        <v>0.104618</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.271111</v>
+        <v>0.285408</v>
       </c>
       <c r="C37" t="n">
-        <v>0.189317</v>
+        <v>0.190334</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07400569999999999</v>
+        <v>0.0738535</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.0995318</v>
+        <v>0.107129</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07823869999999999</v>
+        <v>0.0692875</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0745335</v>
+        <v>0.0739031</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.108823</v>
+        <v>0.10525</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07043629999999999</v>
+        <v>0.0700897</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07391010000000001</v>
+        <v>0.0741243</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.110966</v>
+        <v>0.107547</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0803141</v>
+        <v>0.0728221</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07510550000000001</v>
+        <v>0.0754507</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.113924</v>
+        <v>0.109057</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0736889</v>
+        <v>0.0846932</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0855269</v>
+        <v>0.074826</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.116877</v>
+        <v>0.112438</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07369240000000001</v>
+        <v>0.0737255</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0756648</v>
+        <v>0.0756679</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.111864</v>
+        <v>0.116474</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0759179</v>
+        <v>0.0760195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0846816</v>
+        <v>0.0757261</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.116832</v>
+        <v>0.126432</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0778913</v>
+        <v>0.0785676</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0796303</v>
+        <v>0.0762693</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1327</v>
+        <v>0.129213</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0843467</v>
+        <v>0.0818528</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0788155</v>
+        <v>0.0772394</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.132895</v>
+        <v>0.141097</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09199839999999999</v>
+        <v>0.087504</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0798483</v>
+        <v>0.0871594</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.144863</v>
+        <v>0.154766</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0948104</v>
+        <v>0.0953714</v>
       </c>
       <c r="D47" t="n">
-        <v>0.081567</v>
+        <v>0.0829845</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.164891</v>
+        <v>0.169025</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101918</v>
+        <v>0.103154</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08939130000000001</v>
+        <v>0.0863275</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186732</v>
+        <v>0.19165</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115338</v>
+        <v>0.116281</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100746</v>
+        <v>0.0907456</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.221106</v>
+        <v>0.233464</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136104</v>
+        <v>0.137904</v>
       </c>
       <c r="D50" t="n">
-        <v>0.105168</v>
+        <v>0.100064</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.258976</v>
+        <v>0.283332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.171288</v>
+        <v>0.172916</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0868041</v>
+        <v>0.07581739999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322471</v>
+        <v>0.330263</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227358</v>
+        <v>0.249322</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07993989999999999</v>
+        <v>0.08126410000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.112958</v>
+        <v>0.121015</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0867904</v>
+        <v>0.0774344</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0862185</v>
+        <v>0.0868694</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.106267</v>
+        <v>0.114413</v>
       </c>
       <c r="C54" t="n">
-        <v>0.084479</v>
+        <v>0.0825113</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0852392</v>
+        <v>0.087254</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.116883</v>
+        <v>0.120159</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0810514</v>
+        <v>0.0758704</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08851299999999999</v>
+        <v>0.0835649</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.114276</v>
+        <v>0.129039</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0773501</v>
+        <v>0.0850109</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0777312</v>
+        <v>0.07760880000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.115039</v>
+        <v>0.122745</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0878355</v>
+        <v>0.08536340000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0783648</v>
+        <v>0.08278430000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.119517</v>
+        <v>0.133577</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08526110000000001</v>
+        <v>0.0819912</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08266419999999999</v>
+        <v>0.07983560000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.136385</v>
+        <v>0.134454</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0891972</v>
+        <v>0.0894639</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08093259999999999</v>
+        <v>0.0807049</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.13755</v>
+        <v>0.141193</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09768540000000001</v>
+        <v>0.09290900000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0813241</v>
+        <v>0.0891557</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.155207</v>
+        <v>0.150556</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0942099</v>
+        <v>0.0976423</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0912227</v>
+        <v>0.0837861</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.161017</v>
+        <v>0.16792</v>
       </c>
       <c r="C62" t="n">
-        <v>0.106418</v>
+        <v>0.103907</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08974269999999999</v>
+        <v>0.08761149999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.181145</v>
+        <v>0.197631</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116086</v>
+        <v>0.11705</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0947691</v>
+        <v>0.0918414</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.21279</v>
+        <v>0.216753</v>
       </c>
       <c r="C64" t="n">
-        <v>0.135323</v>
+        <v>0.141966</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10567</v>
+        <v>0.100472</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263927</v>
+        <v>0.26477</v>
       </c>
       <c r="C65" t="n">
-        <v>0.167807</v>
+        <v>0.170581</v>
       </c>
       <c r="D65" t="n">
-        <v>0.114451</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.303436</v>
+        <v>0.317315</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219327</v>
+        <v>0.238064</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08308309999999999</v>
+        <v>0.08575670000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.116074</v>
+        <v>0.130874</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08497010000000001</v>
+        <v>0.08642039999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0831134</v>
+        <v>0.08339009999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.118396</v>
+        <v>0.122597</v>
       </c>
       <c r="C68" t="n">
-        <v>0.084884</v>
+        <v>0.08363669999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0837777</v>
+        <v>0.08392230000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.11996</v>
+        <v>0.135159</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0822312</v>
+        <v>0.08834839999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0839155</v>
+        <v>0.0876106</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.122929</v>
+        <v>0.128369</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0880403</v>
+        <v>0.08441120000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0844292</v>
+        <v>0.08847530000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.127262</v>
+        <v>0.13267</v>
       </c>
       <c r="C71" t="n">
-        <v>0.090322</v>
+        <v>0.09123290000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0898516</v>
+        <v>0.096138</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137414</v>
+        <v>0.146262</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0935063</v>
+        <v>0.09526419999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0872479</v>
+        <v>0.08666889999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.137554</v>
+        <v>0.141488</v>
       </c>
       <c r="C73" t="n">
-        <v>0.090298</v>
+        <v>0.099565</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0866281</v>
+        <v>0.0925937</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.15034</v>
+        <v>0.157786</v>
       </c>
       <c r="C74" t="n">
-        <v>0.100137</v>
+        <v>0.098126</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0888891</v>
+        <v>0.0900995</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.156047</v>
+        <v>0.163046</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103061</v>
+        <v>0.114534</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0896383</v>
+        <v>0.0910646</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175346</v>
+        <v>0.175016</v>
       </c>
       <c r="C76" t="n">
-        <v>0.10984</v>
+        <v>0.119022</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0935016</v>
+        <v>0.09583469999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.193342</v>
+        <v>0.206185</v>
       </c>
       <c r="C77" t="n">
-        <v>0.118675</v>
+        <v>0.121895</v>
       </c>
       <c r="D77" t="n">
-        <v>0.112226</v>
+        <v>0.0979969</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.217572</v>
+        <v>0.22207</v>
       </c>
       <c r="C78" t="n">
-        <v>0.147683</v>
+        <v>0.140017</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111684</v>
+        <v>0.111959</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266354</v>
+        <v>0.266693</v>
       </c>
       <c r="C79" t="n">
-        <v>0.174756</v>
+        <v>0.177655</v>
       </c>
       <c r="D79" t="n">
-        <v>0.123936</v>
+        <v>0.118987</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.327294</v>
+        <v>0.320649</v>
       </c>
       <c r="C80" t="n">
-        <v>0.214259</v>
+        <v>0.216798</v>
       </c>
       <c r="D80" t="n">
-        <v>0.095081</v>
+        <v>0.0919975</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.129328</v>
+        <v>0.145188</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09227399999999999</v>
+        <v>0.0903958</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0909436</v>
+        <v>0.0923581</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.13107</v>
+        <v>0.137545</v>
       </c>
       <c r="C82" t="n">
-        <v>0.08954579999999999</v>
+        <v>0.0910125</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09152780000000001</v>
+        <v>0.09280099999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139539</v>
+        <v>0.139283</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0888919</v>
+        <v>0.0974836</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0918742</v>
+        <v>0.0932255</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.135348</v>
+        <v>0.15138</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0902323</v>
+        <v>0.0941729</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0921498</v>
+        <v>0.0943851</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.140448</v>
+        <v>0.155713</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0919801</v>
+        <v>0.0975155</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0931355</v>
+        <v>0.0947959</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.143388</v>
+        <v>0.159262</v>
       </c>
       <c r="C86" t="n">
-        <v>0.0967696</v>
+        <v>0.105768</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0936652</v>
+        <v>0.09567249999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.149822</v>
+        <v>0.156052</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09776799999999999</v>
+        <v>0.102846</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0947688</v>
+        <v>0.096273</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.156665</v>
+        <v>0.163388</v>
       </c>
       <c r="C88" t="n">
-        <v>0.105044</v>
+        <v>0.109281</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09615219999999999</v>
+        <v>0.0982388</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.171556</v>
+        <v>0.177146</v>
       </c>
       <c r="C89" t="n">
-        <v>0.108268</v>
+        <v>0.12322</v>
       </c>
       <c r="D89" t="n">
-        <v>0.0983419</v>
+        <v>0.103707</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.181524</v>
+        <v>0.200799</v>
       </c>
       <c r="C90" t="n">
-        <v>0.12371</v>
+        <v>0.129725</v>
       </c>
       <c r="D90" t="n">
-        <v>0.10136</v>
+        <v>0.103475</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.202068</v>
+        <v>0.208202</v>
       </c>
       <c r="C91" t="n">
-        <v>0.13386</v>
+        <v>0.140918</v>
       </c>
       <c r="D91" t="n">
-        <v>0.11554</v>
+        <v>0.108561</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.236613</v>
+        <v>0.247516</v>
       </c>
       <c r="C92" t="n">
-        <v>0.156351</v>
+        <v>0.161771</v>
       </c>
       <c r="D92" t="n">
-        <v>0.113537</v>
+        <v>0.116985</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.273807</v>
+        <v>0.281564</v>
       </c>
       <c r="C93" t="n">
-        <v>0.186251</v>
+        <v>0.194767</v>
       </c>
       <c r="D93" t="n">
-        <v>0.125042</v>
+        <v>0.129711</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.337385</v>
+        <v>0.345074</v>
       </c>
       <c r="C94" t="n">
-        <v>0.217754</v>
+        <v>0.272418</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0976582</v>
+        <v>0.0988179</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.137588</v>
+        <v>0.145023</v>
       </c>
       <c r="C95" t="n">
-        <v>0.105557</v>
+        <v>0.111845</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0988701</v>
+        <v>0.09969409999999999</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.140236</v>
+        <v>0.148042</v>
       </c>
       <c r="C96" t="n">
-        <v>0.104194</v>
+        <v>0.113443</v>
       </c>
       <c r="D96" t="n">
-        <v>0.108395</v>
+        <v>0.10114</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.143573</v>
+        <v>0.150783</v>
       </c>
       <c r="C97" t="n">
-        <v>0.108006</v>
+        <v>0.117768</v>
       </c>
       <c r="D97" t="n">
-        <v>0.101306</v>
+        <v>0.103142</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.14732</v>
+        <v>0.154833</v>
       </c>
       <c r="C98" t="n">
-        <v>0.118521</v>
+        <v>0.122618</v>
       </c>
       <c r="D98" t="n">
-        <v>0.103026</v>
+        <v>0.105292</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.151452</v>
+        <v>0.162303</v>
       </c>
       <c r="C99" t="n">
-        <v>0.121756</v>
+        <v>0.128992</v>
       </c>
       <c r="D99" t="n">
-        <v>0.104544</v>
+        <v>0.107716</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.163151</v>
+        <v>0.167867</v>
       </c>
       <c r="C100" t="n">
-        <v>0.128442</v>
+        <v>0.140831</v>
       </c>
       <c r="D100" t="n">
-        <v>0.107183</v>
+        <v>0.11089</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.165072</v>
+        <v>0.187717</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127349</v>
+        <v>0.141679</v>
       </c>
       <c r="D101" t="n">
-        <v>0.110196</v>
+        <v>0.114649</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.175633</v>
+        <v>0.197536</v>
       </c>
       <c r="C102" t="n">
-        <v>0.146608</v>
+        <v>0.149944</v>
       </c>
       <c r="D102" t="n">
-        <v>0.113256</v>
+        <v>0.118752</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.187145</v>
+        <v>0.212716</v>
       </c>
       <c r="C103" t="n">
-        <v>0.145343</v>
+        <v>0.159615</v>
       </c>
       <c r="D103" t="n">
-        <v>0.117692</v>
+        <v>0.125187</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.202685</v>
+        <v>0.219521</v>
       </c>
       <c r="C104" t="n">
-        <v>0.160975</v>
+        <v>0.17227</v>
       </c>
       <c r="D104" t="n">
-        <v>0.122973</v>
+        <v>0.130111</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.224899</v>
+        <v>0.246461</v>
       </c>
       <c r="C105" t="n">
-        <v>0.171091</v>
+        <v>0.187941</v>
       </c>
       <c r="D105" t="n">
-        <v>0.12976</v>
+        <v>0.142779</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.259822</v>
+        <v>0.280616</v>
       </c>
       <c r="C106" t="n">
-        <v>0.18433</v>
+        <v>0.209144</v>
       </c>
       <c r="D106" t="n">
-        <v>0.139363</v>
+        <v>0.149285</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.299909</v>
+        <v>0.319358</v>
       </c>
       <c r="C107" t="n">
-        <v>0.215731</v>
+        <v>0.240648</v>
       </c>
       <c r="D107" t="n">
-        <v>0.155981</v>
+        <v>0.164906</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.355089</v>
+        <v>0.404134</v>
       </c>
       <c r="C108" t="n">
-        <v>0.262617</v>
+        <v>0.290116</v>
       </c>
       <c r="D108" t="n">
-        <v>0.117576</v>
+        <v>0.119942</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.441748</v>
+        <v>0.479274</v>
       </c>
       <c r="C109" t="n">
-        <v>0.325419</v>
+        <v>0.390946</v>
       </c>
       <c r="D109" t="n">
-        <v>0.119487</v>
+        <v>0.122235</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162053</v>
+        <v>0.171033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13839</v>
+        <v>0.143304</v>
       </c>
       <c r="D110" t="n">
-        <v>0.121659</v>
+        <v>0.123841</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.165978</v>
+        <v>0.185139</v>
       </c>
       <c r="C111" t="n">
-        <v>0.141231</v>
+        <v>0.146985</v>
       </c>
       <c r="D111" t="n">
-        <v>0.124239</v>
+        <v>0.126012</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.170261</v>
+        <v>0.186842</v>
       </c>
       <c r="C112" t="n">
-        <v>0.151333</v>
+        <v>0.150881</v>
       </c>
       <c r="D112" t="n">
-        <v>0.126423</v>
+        <v>0.129296</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.175029</v>
+        <v>0.191789</v>
       </c>
       <c r="C113" t="n">
-        <v>0.149103</v>
+        <v>0.154826</v>
       </c>
       <c r="D113" t="n">
-        <v>0.128553</v>
+        <v>0.131618</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.182127</v>
+        <v>0.202257</v>
       </c>
       <c r="C114" t="n">
-        <v>0.152709</v>
+        <v>0.159703</v>
       </c>
       <c r="D114" t="n">
-        <v>0.138276</v>
+        <v>0.134246</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.188457</v>
+        <v>0.207902</v>
       </c>
       <c r="C115" t="n">
-        <v>0.157546</v>
+        <v>0.165247</v>
       </c>
       <c r="D115" t="n">
-        <v>0.133539</v>
+        <v>0.137481</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.197997</v>
+        <v>0.213177</v>
       </c>
       <c r="C116" t="n">
-        <v>0.164344</v>
+        <v>0.172264</v>
       </c>
       <c r="D116" t="n">
-        <v>0.139564</v>
+        <v>0.140783</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211979</v>
+        <v>0.231336</v>
       </c>
       <c r="C117" t="n">
-        <v>0.172285</v>
+        <v>0.180765</v>
       </c>
       <c r="D117" t="n">
-        <v>0.140254</v>
+        <v>0.144501</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.223904</v>
+        <v>0.238256</v>
       </c>
       <c r="C118" t="n">
-        <v>0.182566</v>
+        <v>0.19212</v>
       </c>
       <c r="D118" t="n">
-        <v>0.144744</v>
+        <v>0.149285</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.250731</v>
+        <v>0.264563</v>
       </c>
       <c r="C119" t="n">
-        <v>0.196283</v>
+        <v>0.207663</v>
       </c>
       <c r="D119" t="n">
-        <v>0.150538</v>
+        <v>0.155847</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.27779</v>
+        <v>0.300431</v>
       </c>
       <c r="C120" t="n">
-        <v>0.219224</v>
+        <v>0.228012</v>
       </c>
       <c r="D120" t="n">
-        <v>0.159105</v>
+        <v>0.164703</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.322171</v>
+        <v>0.333432</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259289</v>
+        <v>0.25922</v>
       </c>
       <c r="D121" t="n">
-        <v>0.175136</v>
+        <v>0.183012</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.369033</v>
+        <v>0.403386</v>
       </c>
       <c r="C122" t="n">
-        <v>0.288278</v>
+        <v>0.307824</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19364</v>
+        <v>0.201006</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.471969</v>
+        <v>0.495919</v>
       </c>
       <c r="C123" t="n">
-        <v>0.364262</v>
+        <v>0.389626</v>
       </c>
       <c r="D123" t="n">
-        <v>0.135207</v>
+        <v>0.14106</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.180744</v>
+        <v>0.187608</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16496</v>
+        <v>0.159667</v>
       </c>
       <c r="D124" t="n">
-        <v>0.145455</v>
+        <v>0.140601</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.185147</v>
+        <v>0.198505</v>
       </c>
       <c r="C125" t="n">
-        <v>0.170245</v>
+        <v>0.16482</v>
       </c>
       <c r="D125" t="n">
-        <v>0.139464</v>
+        <v>0.139874</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.188662</v>
+        <v>0.204388</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172209</v>
+        <v>0.166455</v>
       </c>
       <c r="D126" t="n">
-        <v>0.149365</v>
+        <v>0.144103</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.194021</v>
+        <v>0.206066</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173629</v>
+        <v>0.174075</v>
       </c>
       <c r="D127" t="n">
-        <v>0.144335</v>
+        <v>0.150336</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.197575</v>
+        <v>0.218925</v>
       </c>
       <c r="C128" t="n">
-        <v>0.173126</v>
+        <v>0.181901</v>
       </c>
       <c r="D128" t="n">
-        <v>0.145517</v>
+        <v>0.153913</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.204992</v>
+        <v>0.218113</v>
       </c>
       <c r="C129" t="n">
-        <v>0.181349</v>
+        <v>0.183004</v>
       </c>
       <c r="D129" t="n">
-        <v>0.14774</v>
+        <v>0.150026</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.216868</v>
+        <v>0.235548</v>
       </c>
       <c r="C130" t="n">
-        <v>0.189123</v>
+        <v>0.193779</v>
       </c>
       <c r="D130" t="n">
-        <v>0.151051</v>
+        <v>0.152584</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.231679</v>
+        <v>0.244099</v>
       </c>
       <c r="C131" t="n">
-        <v>0.200339</v>
+        <v>0.214165</v>
       </c>
       <c r="D131" t="n">
-        <v>0.153932</v>
+        <v>0.158351</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.243849</v>
+        <v>0.264535</v>
       </c>
       <c r="C132" t="n">
-        <v>0.205002</v>
+        <v>0.210404</v>
       </c>
       <c r="D132" t="n">
-        <v>0.164252</v>
+        <v>0.162006</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.263115</v>
+        <v>0.275321</v>
       </c>
       <c r="C133" t="n">
-        <v>0.218209</v>
+        <v>0.225845</v>
       </c>
       <c r="D133" t="n">
-        <v>0.165719</v>
+        <v>0.172053</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.291928</v>
+        <v>0.306937</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244629</v>
+        <v>0.256875</v>
       </c>
       <c r="D134" t="n">
-        <v>0.172956</v>
+        <v>0.179991</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.32932</v>
+        <v>0.358276</v>
       </c>
       <c r="C135" t="n">
-        <v>0.269437</v>
+        <v>0.275876</v>
       </c>
       <c r="D135" t="n">
-        <v>0.187074</v>
+        <v>0.193165</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.40421</v>
+        <v>0.410341</v>
       </c>
       <c r="C136" t="n">
-        <v>0.314889</v>
+        <v>0.3325</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214741</v>
+        <v>0.210337</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.491732</v>
+        <v>0.519018</v>
       </c>
       <c r="C137" t="n">
-        <v>0.400964</v>
+        <v>0.413702</v>
       </c>
       <c r="D137" t="n">
-        <v>0.246111</v>
+        <v>0.248706</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.316378</v>
+        <v>0.331721</v>
       </c>
       <c r="C138" t="n">
-        <v>0.262481</v>
+        <v>0.26942</v>
       </c>
       <c r="D138" t="n">
-        <v>0.247215</v>
+        <v>0.253122</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.323618</v>
+        <v>0.331598</v>
       </c>
       <c r="C139" t="n">
-        <v>0.266874</v>
+        <v>0.273651</v>
       </c>
       <c r="D139" t="n">
-        <v>0.247988</v>
+        <v>0.255533</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.328971</v>
+        <v>0.338357</v>
       </c>
       <c r="C140" t="n">
-        <v>0.268693</v>
+        <v>0.276513</v>
       </c>
       <c r="D140" t="n">
-        <v>0.24761</v>
+        <v>0.256563</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.331204</v>
+        <v>0.347393</v>
       </c>
       <c r="C141" t="n">
-        <v>0.272872</v>
+        <v>0.280185</v>
       </c>
       <c r="D141" t="n">
-        <v>0.250609</v>
+        <v>0.261459</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.338142</v>
+        <v>0.349866</v>
       </c>
       <c r="C142" t="n">
-        <v>0.278997</v>
+        <v>0.283255</v>
       </c>
       <c r="D142" t="n">
-        <v>0.253114</v>
+        <v>0.259462</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.343722</v>
+        <v>0.359099</v>
       </c>
       <c r="C143" t="n">
-        <v>0.28286</v>
+        <v>0.288956</v>
       </c>
       <c r="D143" t="n">
-        <v>0.256371</v>
+        <v>0.265619</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,7 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_set</v>
+            <v>absl::flat_hash_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +553,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.185383</v>
+                  <v>0.0199746</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.185607</v>
+                  <v>0.0223711</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.186605</v>
+                  <v>0.0279843</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.187124</v>
+                  <v>0.0374557</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.188247</v>
+                  <v>0.0541003</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.189644</v>
+                  <v>0.0739308</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.191261</v>
+                  <v>0.0908332</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.193866</v>
+                  <v>0.119418</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.189625</v>
+                  <v>0.0160955</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.189347</v>
+                  <v>0.0165233</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.18967</v>
+                  <v>0.0170052</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.189651</v>
+                  <v>0.0176545</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.189799</v>
+                  <v>0.018734</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.190668</v>
+                  <v>0.020118</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.190507</v>
+                  <v>0.0231423</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.190882</v>
+                  <v>0.0275752</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.191645</v>
+                  <v>0.0337269</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.192909</v>
+                  <v>0.0441174</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.194129</v>
+                  <v>0.0560327</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.196017</v>
+                  <v>0.0735251</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.198191</v>
+                  <v>0.09810720000000001</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.201494</v>
+                  <v>0.118682</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.19585</v>
+                  <v>0.0168617</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.195797</v>
+                  <v>0.017117</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.195992</v>
+                  <v>0.0179684</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.195994</v>
+                  <v>0.018842</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.196362</v>
+                  <v>0.020762</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.196625</v>
+                  <v>0.0229493</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.196864</v>
+                  <v>0.0261253</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.197264</v>
+                  <v>0.0299548</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.198098</v>
+                  <v>0.0351932</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.199083</v>
+                  <v>0.0437828</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.200285</v>
+                  <v>0.0554948</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.202461</v>
+                  <v>0.07231650000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.20494</v>
+                  <v>0.09074749999999999</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.208708</v>
+                  <v>0.117374</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.204984</v>
+                  <v>0.0170956</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.20572</v>
+                  <v>0.0178543</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.20395</v>
+                  <v>0.0189841</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.206755</v>
+                  <v>0.0200948</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.206874</v>
+                  <v>0.0217684</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.206643</v>
+                  <v>0.0244338</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.207752</v>
+                  <v>0.0277674</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.206632</v>
+                  <v>0.0324631</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.208039</v>
+                  <v>0.0387566</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.208508</v>
+                  <v>0.044976</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.21314</v>
+                  <v>0.0559175</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.214405</v>
+                  <v>0.0710027</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.216212</v>
+                  <v>0.0908212</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.220277</v>
+                  <v>0.117424</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.225836</v>
+                  <v>0.140864</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239701</v>
+                  <v>0.0189027</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239374</v>
+                  <v>0.0201008</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.239406</v>
+                  <v>0.021583</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.239685</v>
+                  <v>0.0235148</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.240074</v>
+                  <v>0.0261005</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.239923</v>
+                  <v>0.0293833</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.240387</v>
+                  <v>0.0337692</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.240948</v>
+                  <v>0.0392899</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.241596</v>
+                  <v>0.046662</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.242725</v>
+                  <v>0.0562823</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.2443</v>
+                  <v>0.0701638</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.246192</v>
+                  <v>0.0890341</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.249543</v>
+                  <v>0.114833</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.254656</v>
+                  <v>0.144939</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.255606</v>
+                  <v>0.0197502</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.25724</v>
+                  <v>0.0210028</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.258741</v>
+                  <v>0.0227789</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.256833</v>
+                  <v>0.0246593</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.257274</v>
+                  <v>0.0270269</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.262396</v>
+                  <v>0.0302493</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.25894</v>
+                  <v>0.0342455</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.261004</v>
+                  <v>0.0395435</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.260554</v>
+                  <v>0.0466214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.260622</v>
+                  <v>0.0559597</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.265311</v>
+                  <v>0.0685593</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.27449</v>
+                  <v>0.0867699</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.282328</v>
+                  <v>0.111201</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.283954</v>
+                  <v>0.141494</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.434666</v>
+                  <v>0.0200207</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.448057</v>
+                  <v>0.0212269</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.385917</v>
+                  <v>0.0226945</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.399879</v>
+                  <v>0.0246895</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.455774</v>
+                  <v>0.0274303</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.443092</v>
+                  <v>0.0301632</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.39204</v>
+                  <v>0.0343383</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.360522</v>
+                  <v>0.0393209</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.359055</v>
+                  <v>0.0454285</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.395665</v>
+                  <v>0.0543419</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.376249</v>
+                  <v>0.06590409999999999</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.379278</v>
+                  <v>0.08316999999999999</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.403744</v>
+                  <v>0.106615</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.437741</v>
+                  <v>0.136838</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.550984</v>
+                  <v>0.0207148</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56246</v>
+                  <v>0.0218231</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.528468</v>
+                  <v>0.0235618</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.522787</v>
+                  <v>0.0254205</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.522766</v>
+                  <v>0.0277238</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.541872</v>
+                  <v>0.0309717</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.485955</v>
+                  <v>0.034493</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.504454</v>
+                  <v>0.0401348</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.513336</v>
+                  <v>0.0464552</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.443294</v>
+                  <v>0.0546064</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.449806</v>
+                  <v>0.065411</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.508251</v>
+                  <v>0.08111790000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.455857</v>
+                  <v>0.10261</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.506961</v>
+                  <v>0.131855</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.497047</v>
+                  <v>0.167859</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.5698029999999999</v>
+                  <v>0.0308739</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.62543</v>
+                  <v>0.032613</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.578956</v>
+                  <v>0.034221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.64242</v>
+                  <v>0.0360225</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.590384</v>
+                  <v>0.0383657</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.5832270000000001</v>
+                  <v>0.0408546</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.55203</v>
+                  <v>0.0441552</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.551107</v>
+                  <v>0.0485179</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.5461549999999999</v>
+                  <v>0.0552273</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.558638</v>
+                  <v>0.06492580000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.546427</v>
+                  <v>0.0791367</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.541991</v>
+                  <v>0.0999347</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.530105</v>
+                  <v>0.128094</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.574083</v>
+                  <v>0.163548</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.678766</v>
+                  <v>0.0346339</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.691848</v>
+                  <v>0.0355354</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.627237</v>
+                  <v>0.0372352</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.6081220000000001</v>
+                  <v>0.0385047</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.639138</v>
+                  <v>0.0411049</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.632568</v>
+                  <v>0.0439798</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.64813</v>
+                  <v>0.04739</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6033500000000001</v>
+                  <v>0.0521658</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.6096279999999999</v>
+                  <v>0.0586895</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.666418</v>
+                  <v>0.0680711</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.722901</v>
+                  <v>0.0820838</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.6843399999999999</v>
+                  <v>0.101855</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.691974</v>
+                  <v>0.12951</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.7238830000000001</v>
+                  <v>0.163867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.767194</v>
+                  <v>0.0468922</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.7875</v>
+                  <v>0.0482012</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.791062</v>
+                  <v>0.0491648</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.758329</v>
+                  <v>0.0527207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.770876</v>
+                  <v>0.0528154</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.737333</v>
+                  <v>0.055782</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +987,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_set</v>
+            <v>foa_unordered_rc16_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1447,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.207513</v>
+                  <v>0.0185839</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.207817</v>
+                  <v>0.0180835</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.208593</v>
+                  <v>0.0186575</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.209369</v>
+                  <v>0.0219409</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.211344</v>
+                  <v>0.0348619</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.212097</v>
+                  <v>0.046746</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.213952</v>
+                  <v>0.0887013</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.217604</v>
+                  <v>0.119804</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.207746</v>
+                  <v>0.0180709</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.209665</v>
+                  <v>0.0184204</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.20981</v>
+                  <v>0.0189457</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.210476</v>
+                  <v>0.0193755</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.210732</v>
+                  <v>0.0198448</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.211696</v>
+                  <v>0.020306</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.212256</v>
+                  <v>0.0209034</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.212852</v>
+                  <v>0.0227075</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.213634</v>
+                  <v>0.0253999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.215167</v>
+                  <v>0.0319034</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.215972</v>
+                  <v>0.0383341</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.21763</v>
+                  <v>0.0568493</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.220112</v>
+                  <v>0.0838647</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.223056</v>
+                  <v>0.131653</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.209433</v>
+                  <v>0.0187591</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.209564</v>
+                  <v>0.0191409</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.210185</v>
+                  <v>0.0197405</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.210438</v>
+                  <v>0.020439</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.211247</v>
+                  <v>0.0212415</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.211254</v>
+                  <v>0.0219892</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.212385</v>
+                  <v>0.0234121</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.213096</v>
+                  <v>0.0264304</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.214233</v>
+                  <v>0.0302305</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.215302</v>
+                  <v>0.0366198</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.21649</v>
+                  <v>0.0459437</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.21861</v>
+                  <v>0.0594599</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.221448</v>
+                  <v>0.0878531</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.22576</v>
+                  <v>0.129282</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.213927</v>
+                  <v>0.0198852</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.214925</v>
+                  <v>0.0203496</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.215476</v>
+                  <v>0.0210131</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.215189</v>
+                  <v>0.0216736</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.216189</v>
+                  <v>0.0228112</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.21693</v>
+                  <v>0.0240973</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.218236</v>
+                  <v>0.0257658</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.219015</v>
+                  <v>0.0290975</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.221901</v>
+                  <v>0.0349767</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.219659</v>
+                  <v>0.0398391</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.222921</v>
+                  <v>0.0491529</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.224707</v>
+                  <v>0.06340750000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.229186</v>
+                  <v>0.0843724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.233644</v>
+                  <v>0.121267</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.241295</v>
+                  <v>0.167097</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.239069</v>
+                  <v>0.0213247</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.239541</v>
+                  <v>0.0219345</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.240295</v>
+                  <v>0.022889</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.242151</v>
+                  <v>0.0238477</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.243641</v>
+                  <v>0.0253224</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.243783</v>
+                  <v>0.0275992</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.244885</v>
+                  <v>0.0302451</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.246437</v>
+                  <v>0.0345438</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.247802</v>
+                  <v>0.0408319</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.249783</v>
+                  <v>0.0492235</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.252535</v>
+                  <v>0.061553</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.256059</v>
+                  <v>0.0805206</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.260138</v>
+                  <v>0.113447</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.268357</v>
+                  <v>0.161291</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.275224</v>
+                  <v>0.0217627</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.276503</v>
+                  <v>0.022553</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.277776</v>
+                  <v>0.0235574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.278297</v>
+                  <v>0.0246975</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.280737</v>
+                  <v>0.0260874</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.28054</v>
+                  <v>0.0279758</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.281726</v>
+                  <v>0.030811</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.282924</v>
+                  <v>0.034622</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285336</v>
+                  <v>0.0402214</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.287671</v>
+                  <v>0.047952</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.291509</v>
+                  <v>0.0592906</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.2952</v>
+                  <v>0.07559440000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307095</v>
+                  <v>0.103124</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.312665</v>
+                  <v>0.148399</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.287846</v>
+                  <v>0.0223391</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.302136</v>
+                  <v>0.0231769</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.27906</v>
+                  <v>0.0241129</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.304678</v>
+                  <v>0.0252673</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.356345</v>
+                  <v>0.0268372</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.288947</v>
+                  <v>0.0286828</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.290747</v>
+                  <v>0.0310672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.28432</v>
+                  <v>0.0345672</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.296649</v>
+                  <v>0.0394295</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.295213</v>
+                  <v>0.0468561</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.314524</v>
+                  <v>0.0569589</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.322241</v>
+                  <v>0.07245</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.336039</v>
+                  <v>0.09784569999999999</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.321098</v>
+                  <v>0.139669</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.484726</v>
+                  <v>0.0237499</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.498166</v>
+                  <v>0.0249294</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.517987</v>
+                  <v>0.0266465</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.532666</v>
+                  <v>0.0293475</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.495137</v>
+                  <v>0.0325618</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.449602</v>
+                  <v>0.0359918</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.413912</v>
+                  <v>0.0391962</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.546197</v>
+                  <v>0.0423199</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.382799</v>
+                  <v>0.0459227</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.377815</v>
+                  <v>0.0516739</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.521379</v>
+                  <v>0.0586182</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.421292</v>
+                  <v>0.07141210000000001</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438736</v>
+                  <v>0.09303640000000001</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.521957</v>
+                  <v>0.131746</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.475413</v>
+                  <v>0.183631</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.617764</v>
+                  <v>0.0382801</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.654273</v>
+                  <v>0.0392846</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.6944939999999999</v>
+                  <v>0.040221</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.656334</v>
+                  <v>0.0413197</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.649984</v>
+                  <v>0.0426685</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.531063</v>
+                  <v>0.0443478</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.550509</v>
+                  <v>0.0465075</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.5761579999999999</v>
+                  <v>0.0495102</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.578</v>
+                  <v>0.0538235</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.647649</v>
+                  <v>0.0601526</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.63648</v>
+                  <v>0.0710412</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.628615</v>
+                  <v>0.0895113</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.59633</v>
+                  <v>0.122948</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.625355</v>
+                  <v>0.172866</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.659179</v>
+                  <v>0.0424721</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.666982</v>
+                  <v>0.0434258</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.656903</v>
+                  <v>0.044818</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.657123</v>
+                  <v>0.0458006</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.711487</v>
+                  <v>0.0473031</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.689036</v>
+                  <v>0.0493497</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.707103</v>
+                  <v>0.0516778</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.6603290000000001</v>
+                  <v>0.0546998</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.687039</v>
+                  <v>0.0591634</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.737206</v>
+                  <v>0.0653265</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.720435</v>
+                  <v>0.0752591</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.759125</v>
+                  <v>0.0919177</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.798233</v>
+                  <v>0.121142</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.809383</v>
+                  <v>0.1684</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.738269</v>
+                  <v>0.0552701</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.739426</v>
+                  <v>0.0564094</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.752214</v>
+                  <v>0.0574369</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.772877</v>
+                  <v>0.0586381</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.746614</v>
+                  <v>0.0601686</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.761084</v>
+                  <v>0.0620335</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1881,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_set</v>
+            <v>foa_unordered_rc15_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2341,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.216837</v>
+                  <v>0.0201621</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.218104</v>
+                  <v>0.0205927</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.219175</v>
+                  <v>0.0213328</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.220505</v>
+                  <v>0.0224255</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.221362</v>
+                  <v>0.0228236</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.224182</v>
+                  <v>0.0246502</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.228887</v>
+                  <v>0.0289321</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.21728</v>
+                  <v>0.0176491</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.217315</v>
+                  <v>0.0179043</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.21793</v>
+                  <v>0.0181965</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.217787</v>
+                  <v>0.0185586</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.217923</v>
+                  <v>0.0189253</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.218541</v>
+                  <v>0.0192987</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.21938</v>
+                  <v>0.0198485</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.220115</v>
+                  <v>0.0203825</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.22137</v>
+                  <v>0.0208815</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.222222</v>
+                  <v>0.0220019</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.223529</v>
+                  <v>0.022769</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.22549</v>
+                  <v>0.0243123</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.228447</v>
+                  <v>0.0273683</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.232987</v>
+                  <v>0.0323586</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.219102</v>
+                  <v>0.017563</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.219541</v>
+                  <v>0.0179077</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.219748</v>
+                  <v>0.0181191</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.219959</v>
+                  <v>0.0185128</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.220642</v>
+                  <v>0.0188997</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.221022</v>
+                  <v>0.0193475</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.221462</v>
+                  <v>0.0197701</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.222167</v>
+                  <v>0.0202878</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.223124</v>
+                  <v>0.0211156</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.224288</v>
+                  <v>0.0221556</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.225905</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.227744</v>
+                  <v>0.0249746</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.230598</v>
+                  <v>0.0282488</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.236023</v>
+                  <v>0.0352729</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.223464</v>
+                  <v>0.017949</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.224531</v>
+                  <v>0.0182123</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.224587</v>
+                  <v>0.0184241</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.224483</v>
+                  <v>0.0187582</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.224507</v>
+                  <v>0.0191191</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.224405</v>
+                  <v>0.0195615</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.226664</v>
+                  <v>0.0201191</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.22932</v>
+                  <v>0.0206961</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.227395</v>
+                  <v>0.0215587</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.229934</v>
+                  <v>0.0226734</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.230548</v>
+                  <v>0.0242101</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.233495</v>
+                  <v>0.0265092</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.236796</v>
+                  <v>0.0299203</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.241887</v>
+                  <v>0.0362318</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.249886</v>
+                  <v>0.018616</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.250123</v>
+                  <v>0.0188728</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.250994</v>
+                  <v>0.0191354</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.250755</v>
+                  <v>0.0194676</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.252193</v>
+                  <v>0.0198285</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.253215</v>
+                  <v>0.0202084</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.254239</v>
+                  <v>0.0207233</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.254333</v>
+                  <v>0.0213995</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.254855</v>
+                  <v>0.0222513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.25697</v>
+                  <v>0.023328</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.258883</v>
+                  <v>0.0249404</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.260853</v>
+                  <v>0.027529</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.264751</v>
+                  <v>0.0313116</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.269732</v>
+                  <v>0.0376983</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.276114</v>
+                  <v>0.0489477</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.273031</v>
+                  <v>0.019011</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.273085</v>
+                  <v>0.0193203</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.274781</v>
+                  <v>0.0197232</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.276111</v>
+                  <v>0.0201442</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.276388</v>
+                  <v>0.0205764</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.279423</v>
+                  <v>0.0210852</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.279404</v>
+                  <v>0.0217122</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.283286</v>
+                  <v>0.022629</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.283068</v>
+                  <v>0.0237333</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.285769</v>
+                  <v>0.0254197</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.290016</v>
+                  <v>0.0277608</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.294341</v>
+                  <v>0.0313383</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.299975</v>
+                  <v>0.037026</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.307466</v>
+                  <v>0.0465119</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.35631</v>
+                  <v>0.0192382</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.346467</v>
+                  <v>0.0195643</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.341993</v>
+                  <v>0.0199296</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.343153</v>
+                  <v>0.0204282</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.401885</v>
+                  <v>0.0208927</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.397565</v>
+                  <v>0.021538</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.332944</v>
+                  <v>0.0222851</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.344294</v>
+                  <v>0.0232149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.325342</v>
+                  <v>0.0244507</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.352167</v>
+                  <v>0.0259784</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.337268</v>
+                  <v>0.0282943</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.36583</v>
+                  <v>0.0314579</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.380756</v>
+                  <v>0.0365879</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.421928</v>
+                  <v>0.0450952</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.501549</v>
+                  <v>0.0208871</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.537262</v>
+                  <v>0.0214555</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.56011</v>
+                  <v>0.0220137</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.5275609999999999</v>
+                  <v>0.0225922</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.495897</v>
+                  <v>0.0232915</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.572755</v>
+                  <v>0.0246113</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.498945</v>
+                  <v>0.0266287</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.449178</v>
+                  <v>0.0293725</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.547782</v>
+                  <v>0.0323838</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.415949</v>
+                  <v>0.0353862</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.390068</v>
+                  <v>0.0384466</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.52965</v>
+                  <v>0.0416202</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.403388</v>
+                  <v>0.0456443</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.438826</v>
+                  <v>0.0519131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.602194</v>
+                  <v>0.0324166</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.620428</v>
+                  <v>0.0334394</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.725276</v>
+                  <v>0.0342435</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.702693</v>
+                  <v>0.0350556</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.73215</v>
+                  <v>0.0358717</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.661095</v>
+                  <v>0.0366873</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.606508</v>
+                  <v>0.0376708</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.582412</v>
+                  <v>0.0386302</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.6140600000000001</v>
+                  <v>0.0398146</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.607225</v>
+                  <v>0.0412212</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.58941</v>
+                  <v>0.0429427</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.744695</v>
+                  <v>0.0455556</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.644252</v>
+                  <v>0.0491536</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.5756869999999999</v>
+                  <v>0.054736</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.654726</v>
+                  <v>0.0644487</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.742186</v>
+                  <v>0.0379716</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.727647</v>
+                  <v>0.0387374</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.695211</v>
+                  <v>0.039425</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.797323</v>
+                  <v>0.0400483</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.741178</v>
+                  <v>0.0410584</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.736914</v>
+                  <v>0.0419449</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.781694</v>
+                  <v>0.0429313</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.746709</v>
+                  <v>0.0441977</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.689246</v>
+                  <v>0.0457638</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.72965</v>
+                  <v>0.0475294</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.8171620000000001</v>
+                  <v>0.0500786</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.776553</v>
+                  <v>0.0536186</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.784866</v>
+                  <v>0.0591599</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.837244</v>
+                  <v>0.0689019</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.8127220000000001</v>
+                  <v>0.0534654</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.830338</v>
+                  <v>0.0539555</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.815751</v>
+                  <v>0.0548494</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.825283</v>
+                  <v>0.0553747</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.822431</v>
+                  <v>0.0561235</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.828008</v>
+                  <v>0.0611306</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.854793</v>
+                  <v>0.0579442</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3210,36 +3210,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Hoja1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="2" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="3" style="1" width="11.42578125"/>
+    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="B1" t="inlineStr">
         <is>
-          <t>absl::flat_hash_set</t>
+          <t>absl::flat_hash_map</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_set</t>
+          <t>foa_unordered_rc16_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_set</t>
+          <t>foa_unordered_rc15_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103063</v>
+        <v>0.10328</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0613338</v>
+        <v>0.0612495</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07037450000000001</v>
+        <v>0.0702574</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110987</v>
+        <v>0.110693</v>
       </c>
       <c r="C3" t="n">
-        <v>0.062209</v>
+        <v>0.0622437</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0707356</v>
+        <v>0.0710061</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122119</v>
+        <v>0.122523</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06523610000000001</v>
+        <v>0.06505320000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0691722</v>
+        <v>0.069104</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.150589</v>
+        <v>0.143407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07246809999999999</v>
+        <v>0.0737839</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0699767</v>
+        <v>0.070034</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.179718</v>
+        <v>0.17038</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0899008</v>
+        <v>0.0895132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0716147</v>
+        <v>0.0711878</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.218182</v>
+        <v>0.205683</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11283</v>
+        <v>0.112117</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0758952</v>
+        <v>0.0745292</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.273399</v>
+        <v>0.253002</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160389</v>
+        <v>0.152209</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08885709999999999</v>
+        <v>0.0890314</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.325606</v>
+        <v>0.305757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19259</v>
+        <v>0.191009</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0703215</v>
+        <v>0.0702956</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0949469</v>
+        <v>0.0948621</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0631052</v>
+        <v>0.06319089999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0703804</v>
+        <v>0.0703738</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09594510000000001</v>
+        <v>0.0956733</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0619259</v>
+        <v>0.0628227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07046910000000001</v>
+        <v>0.0704784</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09737270000000001</v>
+        <v>0.0980067</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0634521</v>
+        <v>0.06336700000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0705727</v>
+        <v>0.0705538</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0994689</v>
+        <v>0.100019</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0626062</v>
+        <v>0.06273910000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0707969</v>
+        <v>0.0707207</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102755</v>
+        <v>0.102293</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06299680000000001</v>
+        <v>0.06318650000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0710066</v>
+        <v>0.0709873</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108257</v>
+        <v>0.107057</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0633445</v>
+        <v>0.0635159</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0712868</v>
+        <v>0.0712696</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112273</v>
+        <v>0.112023</v>
       </c>
       <c r="C16" t="n">
-        <v>0.066775</v>
+        <v>0.066814</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0715037</v>
+        <v>0.0714455</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123206</v>
+        <v>0.121324</v>
       </c>
       <c r="C17" t="n">
-        <v>0.070981</v>
+        <v>0.07067950000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07184840000000001</v>
+        <v>0.0718068</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133145</v>
+        <v>0.133396</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08113910000000001</v>
+        <v>0.08021830000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0720039</v>
+        <v>0.0719187</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149825</v>
+        <v>0.149752</v>
       </c>
       <c r="C19" t="n">
-        <v>0.091278</v>
+        <v>0.09126339999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0733231</v>
+        <v>0.07327119999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.173041</v>
+        <v>0.170951</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104339</v>
+        <v>0.110774</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0769102</v>
+        <v>0.0769806</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.202846</v>
+        <v>0.198593</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121175</v>
+        <v>0.121162</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0872663</v>
+        <v>0.0856399</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235344</v>
+        <v>0.241432</v>
       </c>
       <c r="C22" t="n">
-        <v>0.15882</v>
+        <v>0.154688</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102796</v>
+        <v>0.102848</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286522</v>
+        <v>0.293531</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195701</v>
+        <v>0.195965</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0723738</v>
+        <v>0.0722024</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100525</v>
+        <v>0.100564</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0663787</v>
+        <v>0.0665813</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0725215</v>
+        <v>0.07240679999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103183</v>
+        <v>0.102332</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0665462</v>
+        <v>0.0747766</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07266019999999999</v>
+        <v>0.0726139</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103432</v>
+        <v>0.103436</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06725970000000001</v>
+        <v>0.06763280000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07282230000000001</v>
+        <v>0.0845907</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105426</v>
+        <v>0.109812</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0685282</v>
+        <v>0.0685651</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07660069999999999</v>
+        <v>0.07418279999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108756</v>
+        <v>0.122079</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06841410000000001</v>
+        <v>0.0692677</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0733951</v>
+        <v>0.085045</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113422</v>
+        <v>0.115446</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0708389</v>
+        <v>0.0710954</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07480249999999999</v>
+        <v>0.0743451</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120814</v>
+        <v>0.133601</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0743209</v>
+        <v>0.0747341</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0741294</v>
+        <v>0.0781731</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.129376</v>
+        <v>0.132563</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0848163</v>
+        <v>0.0796002</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0761073</v>
+        <v>0.075849</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139081</v>
+        <v>0.138794</v>
       </c>
       <c r="C32" t="n">
-        <v>0.085091</v>
+        <v>0.0850376</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0767206</v>
+        <v>0.08748300000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150193</v>
+        <v>0.153018</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0931027</v>
+        <v>0.09814829999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0777615</v>
+        <v>0.0782736</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168212</v>
+        <v>0.171963</v>
       </c>
       <c r="C34" t="n">
-        <v>0.113686</v>
+        <v>0.105698</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0836759</v>
+        <v>0.0943753</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197411</v>
+        <v>0.208736</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122913</v>
+        <v>0.132091</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0920443</v>
+        <v>0.107237</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236015</v>
+        <v>0.239125</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148492</v>
+        <v>0.157937</v>
       </c>
       <c r="D36" t="n">
-        <v>0.104618</v>
+        <v>0.110725</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285408</v>
+        <v>0.283858</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190334</v>
+        <v>0.190715</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0738535</v>
+        <v>0.0775444</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.107129</v>
+        <v>0.107704</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0692875</v>
+        <v>0.0771651</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0739031</v>
+        <v>0.07461810000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10525</v>
+        <v>0.107884</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0700897</v>
+        <v>0.07114040000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0741243</v>
+        <v>0.0856523</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107547</v>
+        <v>0.108091</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0728221</v>
+        <v>0.0713956</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0754507</v>
+        <v>0.075517</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109057</v>
+        <v>0.113186</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0846932</v>
+        <v>0.0726604</v>
       </c>
       <c r="D41" t="n">
-        <v>0.074826</v>
+        <v>0.0828303</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112438</v>
+        <v>0.113268</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0737255</v>
+        <v>0.0736849</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0756679</v>
+        <v>0.0767785</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116474</v>
+        <v>0.119092</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0760195</v>
+        <v>0.08162949999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0757261</v>
+        <v>0.08524909999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.126432</v>
+        <v>0.125381</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0785676</v>
+        <v>0.07840660000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0762693</v>
+        <v>0.07628500000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129213</v>
+        <v>0.129172</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0818528</v>
+        <v>0.0818975</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0772394</v>
+        <v>0.0775771</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.141097</v>
+        <v>0.138287</v>
       </c>
       <c r="C46" t="n">
-        <v>0.087504</v>
+        <v>0.0866929</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0871594</v>
+        <v>0.0786765</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.154766</v>
+        <v>0.150633</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0953714</v>
+        <v>0.0932045</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0829845</v>
+        <v>0.0850887</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169025</v>
+        <v>0.167826</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103154</v>
+        <v>0.102693</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0863275</v>
+        <v>0.08495750000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19165</v>
+        <v>0.19397</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116281</v>
+        <v>0.123288</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0907456</v>
+        <v>0.0907394</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.233464</v>
+        <v>0.224944</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137904</v>
+        <v>0.137746</v>
       </c>
       <c r="D50" t="n">
-        <v>0.100064</v>
+        <v>0.0997195</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.283332</v>
+        <v>0.269273</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172916</v>
+        <v>0.171722</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07581739999999999</v>
+        <v>0.0766535</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.330263</v>
+        <v>0.324589</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249322</v>
+        <v>0.24899</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08126410000000001</v>
+        <v>0.0799464</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.121015</v>
+        <v>0.11076</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0774344</v>
+        <v>0.0788522</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0868694</v>
+        <v>0.0869055</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114413</v>
+        <v>0.114803</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0825113</v>
+        <v>0.08358690000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.087254</v>
+        <v>0.0858691</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120159</v>
+        <v>0.118142</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0758704</v>
+        <v>0.08352800000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0835649</v>
+        <v>0.0862637</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.129039</v>
+        <v>0.12651</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0850109</v>
+        <v>0.08329839999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07760880000000001</v>
+        <v>0.0809184</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.122745</v>
+        <v>0.124211</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08536340000000001</v>
+        <v>0.085205</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08278430000000001</v>
+        <v>0.07921250000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.133577</v>
+        <v>0.125303</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0819912</v>
+        <v>0.0874084</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07983560000000001</v>
+        <v>0.0804788</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134454</v>
+        <v>0.133423</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0894639</v>
+        <v>0.0904744</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0807049</v>
+        <v>0.0837431</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141193</v>
+        <v>0.139597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09290900000000001</v>
+        <v>0.0888945</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0891557</v>
+        <v>0.08329739999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150556</v>
+        <v>0.151093</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0976423</v>
+        <v>0.0947426</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837861</v>
+        <v>0.08416849999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16792</v>
+        <v>0.173232</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103907</v>
+        <v>0.103687</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08761149999999999</v>
+        <v>0.09728779999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197631</v>
+        <v>0.194309</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11705</v>
+        <v>0.125229</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0918414</v>
+        <v>0.10295</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.216753</v>
+        <v>0.216197</v>
       </c>
       <c r="C64" t="n">
-        <v>0.141966</v>
+        <v>0.1373</v>
       </c>
       <c r="D64" t="n">
-        <v>0.100472</v>
+        <v>0.108033</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26477</v>
+        <v>0.264546</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170581</v>
+        <v>0.171509</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115</v>
+        <v>0.119779</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.317315</v>
+        <v>0.322996</v>
       </c>
       <c r="C66" t="n">
-        <v>0.238064</v>
+        <v>0.218281</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08575670000000001</v>
+        <v>0.0931858</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130874</v>
+        <v>0.121214</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08642039999999999</v>
+        <v>0.08105950000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08339009999999999</v>
+        <v>0.0841031</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.122597</v>
+        <v>0.131728</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08363669999999999</v>
+        <v>0.08670750000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08392230000000001</v>
+        <v>0.0851807</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.135159</v>
+        <v>0.128638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08834839999999999</v>
+        <v>0.0836399</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0876106</v>
+        <v>0.08403389999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128369</v>
+        <v>0.127248</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08441120000000001</v>
+        <v>0.0893746</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08847530000000001</v>
+        <v>0.08527700000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.13267</v>
+        <v>0.132113</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09123290000000001</v>
+        <v>0.0941009</v>
       </c>
       <c r="D71" t="n">
-        <v>0.096138</v>
+        <v>0.0901285</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146262</v>
+        <v>0.135543</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09526419999999999</v>
+        <v>0.0938595</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08666889999999999</v>
+        <v>0.0862401</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.141488</v>
+        <v>0.151677</v>
       </c>
       <c r="C73" t="n">
-        <v>0.099565</v>
+        <v>0.09995850000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0925937</v>
+        <v>0.08734840000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.157786</v>
+        <v>0.150565</v>
       </c>
       <c r="C74" t="n">
-        <v>0.098126</v>
+        <v>0.0970741</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0900995</v>
+        <v>0.09030059999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.163046</v>
+        <v>0.161868</v>
       </c>
       <c r="C75" t="n">
-        <v>0.114534</v>
+        <v>0.101851</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0910646</v>
+        <v>0.0917946</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175016</v>
+        <v>0.1799</v>
       </c>
       <c r="C76" t="n">
-        <v>0.119022</v>
+        <v>0.118434</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09583469999999999</v>
+        <v>0.09863959999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.206185</v>
+        <v>0.211013</v>
       </c>
       <c r="C77" t="n">
-        <v>0.121895</v>
+        <v>0.129823</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0979969</v>
+        <v>0.103824</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22207</v>
+        <v>0.230474</v>
       </c>
       <c r="C78" t="n">
-        <v>0.140017</v>
+        <v>0.152674</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111959</v>
+        <v>0.107282</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266693</v>
+        <v>0.280706</v>
       </c>
       <c r="C79" t="n">
-        <v>0.177655</v>
+        <v>0.182667</v>
       </c>
       <c r="D79" t="n">
-        <v>0.118987</v>
+        <v>0.119311</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.320649</v>
+        <v>0.324911</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216798</v>
+        <v>0.233826</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0919975</v>
+        <v>0.0922598</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145188</v>
+        <v>0.135348</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0903958</v>
+        <v>0.09254179999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0923581</v>
+        <v>0.09224640000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137545</v>
+        <v>0.146671</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0910125</v>
+        <v>0.09050759999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09280099999999999</v>
+        <v>0.0933765</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139283</v>
+        <v>0.148963</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0974836</v>
+        <v>0.0922014</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0932255</v>
+        <v>0.0937375</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.15138</v>
+        <v>0.150159</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0941729</v>
+        <v>0.0938814</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0943851</v>
+        <v>0.0941895</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.155713</v>
+        <v>0.152113</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0975155</v>
+        <v>0.0954424</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0947959</v>
+        <v>0.09852030000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.159262</v>
+        <v>0.150228</v>
       </c>
       <c r="C86" t="n">
-        <v>0.105768</v>
+        <v>0.103562</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09567249999999999</v>
+        <v>0.0959494</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.156052</v>
+        <v>0.165178</v>
       </c>
       <c r="C87" t="n">
-        <v>0.102846</v>
+        <v>0.103494</v>
       </c>
       <c r="D87" t="n">
-        <v>0.096273</v>
+        <v>0.09648370000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.163388</v>
+        <v>0.162853</v>
       </c>
       <c r="C88" t="n">
-        <v>0.109281</v>
+        <v>0.113521</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0982388</v>
+        <v>0.09811060000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177146</v>
+        <v>0.177251</v>
       </c>
       <c r="C89" t="n">
-        <v>0.12322</v>
+        <v>0.114506</v>
       </c>
       <c r="D89" t="n">
-        <v>0.103707</v>
+        <v>0.101119</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.200799</v>
+        <v>0.187191</v>
       </c>
       <c r="C90" t="n">
-        <v>0.129725</v>
+        <v>0.12631</v>
       </c>
       <c r="D90" t="n">
-        <v>0.103475</v>
+        <v>0.103577</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.208202</v>
+        <v>0.208008</v>
       </c>
       <c r="C91" t="n">
-        <v>0.140918</v>
+        <v>0.139473</v>
       </c>
       <c r="D91" t="n">
-        <v>0.108561</v>
+        <v>0.108024</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247516</v>
+        <v>0.246591</v>
       </c>
       <c r="C92" t="n">
-        <v>0.161771</v>
+        <v>0.160579</v>
       </c>
       <c r="D92" t="n">
-        <v>0.116985</v>
+        <v>0.116393</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.281564</v>
+        <v>0.277485</v>
       </c>
       <c r="C93" t="n">
-        <v>0.194767</v>
+        <v>0.205756</v>
       </c>
       <c r="D93" t="n">
-        <v>0.129711</v>
+        <v>0.128246</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.345074</v>
+        <v>0.355867</v>
       </c>
       <c r="C94" t="n">
-        <v>0.272418</v>
+        <v>0.256446</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0988179</v>
+        <v>0.09844890000000001</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145023</v>
+        <v>0.152306</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111845</v>
+        <v>0.10893</v>
       </c>
       <c r="D95" t="n">
-        <v>0.09969409999999999</v>
+        <v>0.0995928</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.148042</v>
+        <v>0.146917</v>
       </c>
       <c r="C96" t="n">
-        <v>0.113443</v>
+        <v>0.113226</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10114</v>
+        <v>0.101062</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.150783</v>
+        <v>0.150375</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117768</v>
+        <v>0.117337</v>
       </c>
       <c r="D97" t="n">
-        <v>0.103142</v>
+        <v>0.104927</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.154833</v>
+        <v>0.157713</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122618</v>
+        <v>0.122536</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105292</v>
+        <v>0.104476</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.162303</v>
+        <v>0.170078</v>
       </c>
       <c r="C99" t="n">
-        <v>0.128992</v>
+        <v>0.128609</v>
       </c>
       <c r="D99" t="n">
-        <v>0.107716</v>
+        <v>0.107521</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167867</v>
+        <v>0.166967</v>
       </c>
       <c r="C100" t="n">
-        <v>0.140831</v>
+        <v>0.134955</v>
       </c>
       <c r="D100" t="n">
-        <v>0.11089</v>
+        <v>0.110512</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187717</v>
+        <v>0.187298</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141679</v>
+        <v>0.141463</v>
       </c>
       <c r="D101" t="n">
-        <v>0.114649</v>
+        <v>0.114206</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.197536</v>
+        <v>0.187242</v>
       </c>
       <c r="C102" t="n">
-        <v>0.149944</v>
+        <v>0.150798</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118752</v>
+        <v>0.119005</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212716</v>
+        <v>0.212046</v>
       </c>
       <c r="C103" t="n">
-        <v>0.159615</v>
+        <v>0.160018</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125187</v>
+        <v>0.124232</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219521</v>
+        <v>0.2198</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17227</v>
+        <v>0.172176</v>
       </c>
       <c r="D104" t="n">
-        <v>0.130111</v>
+        <v>0.130781</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.246461</v>
+        <v>0.244988</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187941</v>
+        <v>0.1882</v>
       </c>
       <c r="D105" t="n">
-        <v>0.142779</v>
+        <v>0.140499</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.280616</v>
+        <v>0.275664</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209144</v>
+        <v>0.209385</v>
       </c>
       <c r="D106" t="n">
-        <v>0.149285</v>
+        <v>0.153338</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.319358</v>
+        <v>0.323641</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240648</v>
+        <v>0.240656</v>
       </c>
       <c r="D107" t="n">
-        <v>0.164906</v>
+        <v>0.164648</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.404134</v>
+        <v>0.385581</v>
       </c>
       <c r="C108" t="n">
-        <v>0.290116</v>
+        <v>0.300173</v>
       </c>
       <c r="D108" t="n">
-        <v>0.119942</v>
+        <v>0.119523</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.479274</v>
+        <v>0.481758</v>
       </c>
       <c r="C109" t="n">
-        <v>0.390946</v>
+        <v>0.372036</v>
       </c>
       <c r="D109" t="n">
-        <v>0.122235</v>
+        <v>0.122107</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.171033</v>
+        <v>0.171205</v>
       </c>
       <c r="C110" t="n">
-        <v>0.143304</v>
+        <v>0.143526</v>
       </c>
       <c r="D110" t="n">
-        <v>0.123841</v>
+        <v>0.124711</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.185139</v>
+        <v>0.175069</v>
       </c>
       <c r="C111" t="n">
-        <v>0.146985</v>
+        <v>0.147019</v>
       </c>
       <c r="D111" t="n">
-        <v>0.126012</v>
+        <v>0.127046</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.186842</v>
+        <v>0.179964</v>
       </c>
       <c r="C112" t="n">
-        <v>0.150881</v>
+        <v>0.15073</v>
       </c>
       <c r="D112" t="n">
-        <v>0.129296</v>
+        <v>0.129085</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.191789</v>
+        <v>0.185048</v>
       </c>
       <c r="C113" t="n">
-        <v>0.154826</v>
+        <v>0.154876</v>
       </c>
       <c r="D113" t="n">
-        <v>0.131618</v>
+        <v>0.131953</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.202257</v>
+        <v>0.202186</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159703</v>
+        <v>0.159614</v>
       </c>
       <c r="D114" t="n">
-        <v>0.134246</v>
+        <v>0.134554</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.207902</v>
+        <v>0.199382</v>
       </c>
       <c r="C115" t="n">
-        <v>0.165247</v>
+        <v>0.164988</v>
       </c>
       <c r="D115" t="n">
-        <v>0.137481</v>
+        <v>0.137317</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.213177</v>
+        <v>0.208696</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172264</v>
+        <v>0.172151</v>
       </c>
       <c r="D116" t="n">
-        <v>0.140783</v>
+        <v>0.147364</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.231336</v>
+        <v>0.221377</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180765</v>
+        <v>0.180795</v>
       </c>
       <c r="D117" t="n">
-        <v>0.144501</v>
+        <v>0.14439</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238256</v>
+        <v>0.236915</v>
       </c>
       <c r="C118" t="n">
-        <v>0.19212</v>
+        <v>0.192111</v>
       </c>
       <c r="D118" t="n">
-        <v>0.149285</v>
+        <v>0.149337</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.264563</v>
+        <v>0.259718</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207663</v>
+        <v>0.207831</v>
       </c>
       <c r="D119" t="n">
-        <v>0.155847</v>
+        <v>0.155763</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.300431</v>
+        <v>0.289282</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228012</v>
+        <v>0.228026</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164703</v>
+        <v>0.164648</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333432</v>
+        <v>0.332441</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25922</v>
+        <v>0.25887</v>
       </c>
       <c r="D121" t="n">
-        <v>0.183012</v>
+        <v>0.181408</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403386</v>
+        <v>0.399729</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307824</v>
+        <v>0.307671</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201006</v>
+        <v>0.200694</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.495919</v>
+        <v>0.494973</v>
       </c>
       <c r="C123" t="n">
-        <v>0.389626</v>
+        <v>0.406024</v>
       </c>
       <c r="D123" t="n">
-        <v>0.14106</v>
+        <v>0.139622</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.187608</v>
+        <v>0.188349</v>
       </c>
       <c r="C124" t="n">
-        <v>0.159667</v>
+        <v>0.159309</v>
       </c>
       <c r="D124" t="n">
-        <v>0.140601</v>
+        <v>0.137758</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.198505</v>
+        <v>0.19993</v>
       </c>
       <c r="C125" t="n">
-        <v>0.16482</v>
+        <v>0.163121</v>
       </c>
       <c r="D125" t="n">
-        <v>0.139874</v>
+        <v>0.13889</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.204388</v>
+        <v>0.205389</v>
       </c>
       <c r="C126" t="n">
-        <v>0.166455</v>
+        <v>0.171053</v>
       </c>
       <c r="D126" t="n">
-        <v>0.144103</v>
+        <v>0.14328</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.206066</v>
+        <v>0.206633</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174075</v>
+        <v>0.171524</v>
       </c>
       <c r="D127" t="n">
-        <v>0.150336</v>
+        <v>0.150247</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218925</v>
+        <v>0.216519</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181901</v>
+        <v>0.182596</v>
       </c>
       <c r="D128" t="n">
-        <v>0.153913</v>
+        <v>0.149117</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218113</v>
+        <v>0.224284</v>
       </c>
       <c r="C129" t="n">
-        <v>0.183004</v>
+        <v>0.182501</v>
       </c>
       <c r="D129" t="n">
-        <v>0.150026</v>
+        <v>0.151958</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.235548</v>
+        <v>0.226254</v>
       </c>
       <c r="C130" t="n">
-        <v>0.193779</v>
+        <v>0.190223</v>
       </c>
       <c r="D130" t="n">
-        <v>0.152584</v>
+        <v>0.153229</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.244099</v>
+        <v>0.238653</v>
       </c>
       <c r="C131" t="n">
-        <v>0.214165</v>
+        <v>0.203092</v>
       </c>
       <c r="D131" t="n">
-        <v>0.158351</v>
+        <v>0.158366</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.264535</v>
+        <v>0.257789</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210404</v>
+        <v>0.209965</v>
       </c>
       <c r="D132" t="n">
-        <v>0.162006</v>
+        <v>0.163598</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275321</v>
+        <v>0.279818</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225845</v>
+        <v>0.226229</v>
       </c>
       <c r="D133" t="n">
-        <v>0.172053</v>
+        <v>0.173848</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.306937</v>
+        <v>0.31438</v>
       </c>
       <c r="C134" t="n">
-        <v>0.256875</v>
+        <v>0.24594</v>
       </c>
       <c r="D134" t="n">
-        <v>0.179991</v>
+        <v>0.178691</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.358276</v>
+        <v>0.341627</v>
       </c>
       <c r="C135" t="n">
-        <v>0.275876</v>
+        <v>0.274605</v>
       </c>
       <c r="D135" t="n">
-        <v>0.193165</v>
+        <v>0.190453</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.410341</v>
+        <v>0.406194</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3325</v>
+        <v>0.323217</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210337</v>
+        <v>0.211243</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.519018</v>
+        <v>0.507095</v>
       </c>
       <c r="C137" t="n">
-        <v>0.413702</v>
+        <v>0.412645</v>
       </c>
       <c r="D137" t="n">
-        <v>0.248706</v>
+        <v>0.250812</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.331721</v>
+        <v>0.332514</v>
       </c>
       <c r="C138" t="n">
-        <v>0.26942</v>
+        <v>0.269246</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253122</v>
+        <v>0.255547</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.331598</v>
+        <v>0.332714</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273651</v>
+        <v>0.270345</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255533</v>
+        <v>0.251391</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338357</v>
+        <v>0.338627</v>
       </c>
       <c r="C140" t="n">
-        <v>0.276513</v>
+        <v>0.274068</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256563</v>
+        <v>0.254787</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347393</v>
+        <v>0.343595</v>
       </c>
       <c r="C141" t="n">
-        <v>0.280185</v>
+        <v>0.2803</v>
       </c>
       <c r="D141" t="n">
-        <v>0.261459</v>
+        <v>0.256838</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.349866</v>
+        <v>0.349939</v>
       </c>
       <c r="C142" t="n">
-        <v>0.283255</v>
+        <v>0.283143</v>
       </c>
       <c r="D142" t="n">
-        <v>0.259462</v>
+        <v>0.262385</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.359099</v>
+        <v>0.360434</v>
       </c>
       <c r="C143" t="n">
-        <v>0.288956</v>
+        <v>0.288621</v>
       </c>
       <c r="D143" t="n">
-        <v>0.265619</v>
+        <v>0.266224</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10328</v>
+        <v>0.103053</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612495</v>
+        <v>0.0612237</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0702574</v>
+        <v>0.07031850000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110693</v>
+        <v>0.111195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0622437</v>
+        <v>0.0622765</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0710061</v>
+        <v>0.0706118</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122523</v>
+        <v>0.122718</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06505320000000001</v>
+        <v>0.0650954</v>
       </c>
       <c r="D4" t="n">
-        <v>0.069104</v>
+        <v>0.06924959999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143407</v>
+        <v>0.143644</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0737839</v>
+        <v>0.072879</v>
       </c>
       <c r="D5" t="n">
-        <v>0.070034</v>
+        <v>0.0700086</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17038</v>
+        <v>0.170399</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0895132</v>
+        <v>0.0893664</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0711878</v>
+        <v>0.0711402</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205683</v>
+        <v>0.207853</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112117</v>
+        <v>0.112182</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0745292</v>
+        <v>0.07529230000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253002</v>
+        <v>0.253401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152209</v>
+        <v>0.152269</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0890314</v>
+        <v>0.0893516</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305757</v>
+        <v>0.305698</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191009</v>
+        <v>0.193798</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0702956</v>
+        <v>0.07009890000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0948621</v>
+        <v>0.09460109999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06319089999999999</v>
+        <v>0.0634561</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0703738</v>
+        <v>0.07037160000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0956733</v>
+        <v>0.0961378</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0628227</v>
+        <v>0.0621267</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0704784</v>
+        <v>0.0704627</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0980067</v>
+        <v>0.09797210000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06336700000000001</v>
+        <v>0.0622182</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0705538</v>
+        <v>0.0705995</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100019</v>
+        <v>0.100153</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06273910000000001</v>
+        <v>0.0629802</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0707207</v>
+        <v>0.070869</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102293</v>
+        <v>0.102377</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06318650000000001</v>
+        <v>0.0632075</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0709873</v>
+        <v>0.0710749</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107057</v>
+        <v>0.10645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635159</v>
+        <v>0.06382160000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0712696</v>
+        <v>0.07148400000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112023</v>
+        <v>0.112174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.066814</v>
+        <v>0.06790789999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0714455</v>
+        <v>0.07173939999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121324</v>
+        <v>0.12145</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07067950000000001</v>
+        <v>0.07089579999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0718068</v>
+        <v>0.0718106</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133396</v>
+        <v>0.133194</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08021830000000001</v>
+        <v>0.08086260000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0719187</v>
+        <v>0.0742934</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149752</v>
+        <v>0.14955</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09126339999999999</v>
+        <v>0.0918329</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07327119999999999</v>
+        <v>0.07341499999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170951</v>
+        <v>0.171546</v>
       </c>
       <c r="C20" t="n">
-        <v>0.110774</v>
+        <v>0.104612</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0769806</v>
+        <v>0.0770856</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198593</v>
+        <v>0.202982</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121162</v>
+        <v>0.121376</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0856399</v>
+        <v>0.0855181</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241432</v>
+        <v>0.240758</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154688</v>
+        <v>0.154723</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102848</v>
+        <v>0.105312</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.293531</v>
+        <v>0.291564</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195965</v>
+        <v>0.196086</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0722024</v>
+        <v>0.07228229999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100564</v>
+        <v>0.100596</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665813</v>
+        <v>0.0666578</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07240679999999999</v>
+        <v>0.0723573</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102332</v>
+        <v>0.10188</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0747766</v>
+        <v>0.06667770000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0726139</v>
+        <v>0.0726864</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103436</v>
+        <v>0.105362</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06763280000000001</v>
+        <v>0.0673356</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0845907</v>
+        <v>0.07292079999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.109812</v>
+        <v>0.106433</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0685651</v>
+        <v>0.0702131</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07418279999999999</v>
+        <v>0.0732397</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.122079</v>
+        <v>0.111394</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0692677</v>
+        <v>0.0688687</v>
       </c>
       <c r="D28" t="n">
-        <v>0.085045</v>
+        <v>0.0735003</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115446</v>
+        <v>0.116754</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0710954</v>
+        <v>0.0713912</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0743451</v>
+        <v>0.07480729999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.133601</v>
+        <v>0.119827</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0747341</v>
+        <v>0.07488789999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0781731</v>
+        <v>0.07535650000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.132563</v>
+        <v>0.129575</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0796002</v>
+        <v>0.079069</v>
       </c>
       <c r="D31" t="n">
-        <v>0.075849</v>
+        <v>0.0754939</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138794</v>
+        <v>0.140303</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0850376</v>
+        <v>0.0852614</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08748300000000001</v>
+        <v>0.0767842</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.153018</v>
+        <v>0.150269</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09814829999999999</v>
+        <v>0.0932142</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0782736</v>
+        <v>0.0877616</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171963</v>
+        <v>0.173163</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105698</v>
+        <v>0.105725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0943753</v>
+        <v>0.0850404</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.208736</v>
+        <v>0.210948</v>
       </c>
       <c r="C35" t="n">
-        <v>0.132091</v>
+        <v>0.123359</v>
       </c>
       <c r="D35" t="n">
-        <v>0.107237</v>
+        <v>0.0929828</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.239125</v>
+        <v>0.235089</v>
       </c>
       <c r="C36" t="n">
-        <v>0.157937</v>
+        <v>0.148577</v>
       </c>
       <c r="D36" t="n">
-        <v>0.110725</v>
+        <v>0.10973</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283858</v>
+        <v>0.284847</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190715</v>
+        <v>0.189792</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0775444</v>
+        <v>0.07466970000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.107704</v>
+        <v>0.108807</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0771651</v>
+        <v>0.0697436</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07461810000000001</v>
+        <v>0.0831896</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107884</v>
+        <v>0.106151</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07114040000000001</v>
+        <v>0.0704572</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0856523</v>
+        <v>0.0843633</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108091</v>
+        <v>0.108648</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0713956</v>
+        <v>0.0710563</v>
       </c>
       <c r="D40" t="n">
-        <v>0.075517</v>
+        <v>0.08463420000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.113186</v>
+        <v>0.109335</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0726604</v>
+        <v>0.0801683</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0828303</v>
+        <v>0.0783906</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113268</v>
+        <v>0.112772</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0736849</v>
+        <v>0.07392319999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0767785</v>
+        <v>0.0849837</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119092</v>
+        <v>0.118056</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08162949999999999</v>
+        <v>0.0761406</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08524909999999999</v>
+        <v>0.08480310000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125381</v>
+        <v>0.123835</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07840660000000001</v>
+        <v>0.07845729999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07628500000000001</v>
+        <v>0.0841606</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129172</v>
+        <v>0.130885</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0818975</v>
+        <v>0.0819125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0775771</v>
+        <v>0.081192</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138287</v>
+        <v>0.138276</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0866929</v>
+        <v>0.0895444</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0786765</v>
+        <v>0.08267579999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150633</v>
+        <v>0.156782</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0932045</v>
+        <v>0.101693</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0850887</v>
+        <v>0.0890333</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167826</v>
+        <v>0.167879</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102693</v>
+        <v>0.102862</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08495750000000001</v>
+        <v>0.0850104</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19397</v>
+        <v>0.191585</v>
       </c>
       <c r="C49" t="n">
-        <v>0.123288</v>
+        <v>0.116712</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0907394</v>
+        <v>0.0978084</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224944</v>
+        <v>0.226982</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137746</v>
+        <v>0.142648</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0997195</v>
+        <v>0.0996616</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.269273</v>
+        <v>0.268228</v>
       </c>
       <c r="C51" t="n">
-        <v>0.171722</v>
+        <v>0.174169</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0766535</v>
+        <v>0.08659699999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.324589</v>
+        <v>0.323269</v>
       </c>
       <c r="C52" t="n">
-        <v>0.24899</v>
+        <v>0.251107</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0799464</v>
+        <v>0.080154</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.11076</v>
+        <v>0.112754</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0788522</v>
+        <v>0.081593</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0869055</v>
+        <v>0.08714330000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114803</v>
+        <v>0.114113</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08358690000000001</v>
+        <v>0.0802086</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0858691</v>
+        <v>0.0875214</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.118142</v>
+        <v>0.116623</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08352800000000001</v>
+        <v>0.0832499</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0862637</v>
+        <v>0.0773442</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.12651</v>
+        <v>0.117489</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08329839999999999</v>
+        <v>0.08035929999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0809184</v>
+        <v>0.0881015</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.124211</v>
+        <v>0.12215</v>
       </c>
       <c r="C57" t="n">
-        <v>0.085205</v>
+        <v>0.0857272</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07921250000000001</v>
+        <v>0.0897541</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125303</v>
+        <v>0.125176</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0874084</v>
+        <v>0.0894842</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0804788</v>
+        <v>0.0816574</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133423</v>
+        <v>0.133975</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0904744</v>
+        <v>0.09122950000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0837431</v>
+        <v>0.0910876</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139597</v>
+        <v>0.148741</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0888945</v>
+        <v>0.09820479999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08329739999999999</v>
+        <v>0.0924707</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151093</v>
+        <v>0.150355</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0947426</v>
+        <v>0.0986354</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08416849999999999</v>
+        <v>0.0950802</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173232</v>
+        <v>0.166377</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103687</v>
+        <v>0.105764</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09728779999999999</v>
+        <v>0.09925100000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.194309</v>
+        <v>0.187179</v>
       </c>
       <c r="C63" t="n">
-        <v>0.125229</v>
+        <v>0.126447</v>
       </c>
       <c r="D63" t="n">
-        <v>0.10295</v>
+        <v>0.104444</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.216197</v>
+        <v>0.21952</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1373</v>
+        <v>0.14837</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108033</v>
+        <v>0.102587</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.264546</v>
+        <v>0.259665</v>
       </c>
       <c r="C65" t="n">
-        <v>0.171509</v>
+        <v>0.187272</v>
       </c>
       <c r="D65" t="n">
-        <v>0.119779</v>
+        <v>0.122602</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.322996</v>
+        <v>0.31974</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218281</v>
+        <v>0.242496</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0931858</v>
+        <v>0.08311060000000001</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121214</v>
+        <v>0.12812</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08105950000000001</v>
+        <v>0.08713129999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0841031</v>
+        <v>0.0847687</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.131728</v>
+        <v>0.132738</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08670750000000001</v>
+        <v>0.08803270000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0851807</v>
+        <v>0.084633</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.128638</v>
+        <v>0.125442</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0836399</v>
+        <v>0.0850683</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08403389999999999</v>
+        <v>0.08484</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.127248</v>
+        <v>0.136595</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0893746</v>
+        <v>0.0857233</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08527700000000001</v>
+        <v>0.08910559999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132113</v>
+        <v>0.131095</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0941009</v>
+        <v>0.08738020000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0901285</v>
+        <v>0.0851464</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135543</v>
+        <v>0.135676</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0938595</v>
+        <v>0.0951364</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0862401</v>
+        <v>0.0965587</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.151677</v>
+        <v>0.152268</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09995850000000001</v>
+        <v>0.09573379999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08734840000000001</v>
+        <v>0.08727169999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150565</v>
+        <v>0.152287</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0970741</v>
+        <v>0.0962136</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09030059999999999</v>
+        <v>0.08858530000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161868</v>
+        <v>0.16098</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101851</v>
+        <v>0.102718</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0917946</v>
+        <v>0.092386</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1799</v>
+        <v>0.179691</v>
       </c>
       <c r="C76" t="n">
-        <v>0.118434</v>
+        <v>0.117303</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09863959999999999</v>
+        <v>0.0935274</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.211013</v>
+        <v>0.197656</v>
       </c>
       <c r="C77" t="n">
-        <v>0.129823</v>
+        <v>0.129426</v>
       </c>
       <c r="D77" t="n">
-        <v>0.103824</v>
+        <v>0.09861490000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.230474</v>
+        <v>0.22411</v>
       </c>
       <c r="C78" t="n">
-        <v>0.152674</v>
+        <v>0.148258</v>
       </c>
       <c r="D78" t="n">
-        <v>0.107282</v>
+        <v>0.106275</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280706</v>
+        <v>0.26936</v>
       </c>
       <c r="C79" t="n">
-        <v>0.182667</v>
+        <v>0.183865</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119311</v>
+        <v>0.119716</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324911</v>
+        <v>0.320101</v>
       </c>
       <c r="C80" t="n">
-        <v>0.233826</v>
+        <v>0.216925</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0922598</v>
+        <v>0.0919533</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135348</v>
+        <v>0.143282</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09254179999999999</v>
+        <v>0.09569950000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09224640000000001</v>
+        <v>0.0925564</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146671</v>
+        <v>0.146707</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09050759999999999</v>
+        <v>0.0978687</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0933765</v>
+        <v>0.0933156</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148963</v>
+        <v>0.139329</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0922014</v>
+        <v>0.09900639999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0937375</v>
+        <v>0.094042</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.150159</v>
+        <v>0.142239</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0938814</v>
+        <v>0.0977346</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0941895</v>
+        <v>0.0943114</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.152113</v>
+        <v>0.145798</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0954424</v>
+        <v>0.100875</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09852030000000001</v>
+        <v>0.09589979999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150228</v>
+        <v>0.156272</v>
       </c>
       <c r="C86" t="n">
-        <v>0.103562</v>
+        <v>0.10468</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0959494</v>
+        <v>0.0968104</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.165178</v>
+        <v>0.160074</v>
       </c>
       <c r="C87" t="n">
-        <v>0.103494</v>
+        <v>0.110464</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09648370000000001</v>
+        <v>0.0983222</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.162853</v>
+        <v>0.166673</v>
       </c>
       <c r="C88" t="n">
-        <v>0.113521</v>
+        <v>0.120773</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09811060000000001</v>
+        <v>0.101156</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177251</v>
+        <v>0.188173</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114506</v>
+        <v>0.126823</v>
       </c>
       <c r="D89" t="n">
-        <v>0.101119</v>
+        <v>0.10398</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187191</v>
+        <v>0.204176</v>
       </c>
       <c r="C90" t="n">
-        <v>0.12631</v>
+        <v>0.140813</v>
       </c>
       <c r="D90" t="n">
-        <v>0.103577</v>
+        <v>0.108071</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.208008</v>
+        <v>0.220052</v>
       </c>
       <c r="C91" t="n">
-        <v>0.139473</v>
+        <v>0.156437</v>
       </c>
       <c r="D91" t="n">
-        <v>0.108024</v>
+        <v>0.114263</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246591</v>
+        <v>0.242747</v>
       </c>
       <c r="C92" t="n">
-        <v>0.160579</v>
+        <v>0.16745</v>
       </c>
       <c r="D92" t="n">
-        <v>0.116393</v>
+        <v>0.123104</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.277485</v>
+        <v>0.294568</v>
       </c>
       <c r="C93" t="n">
-        <v>0.205756</v>
+        <v>0.210479</v>
       </c>
       <c r="D93" t="n">
-        <v>0.128246</v>
+        <v>0.136759</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.355867</v>
+        <v>0.364221</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256446</v>
+        <v>0.246371</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09844890000000001</v>
+        <v>0.103537</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.152306</v>
+        <v>0.160171</v>
       </c>
       <c r="C95" t="n">
-        <v>0.10893</v>
+        <v>0.11363</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0995928</v>
+        <v>0.105479</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.146917</v>
+        <v>0.152945</v>
       </c>
       <c r="C96" t="n">
-        <v>0.113226</v>
+        <v>0.116949</v>
       </c>
       <c r="D96" t="n">
-        <v>0.101062</v>
+        <v>0.107344</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.150375</v>
+        <v>0.156517</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117337</v>
+        <v>0.123703</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104927</v>
+        <v>0.108718</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.157713</v>
+        <v>0.159969</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122536</v>
+        <v>0.122811</v>
       </c>
       <c r="D98" t="n">
-        <v>0.104476</v>
+        <v>0.110947</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.170078</v>
+        <v>0.175373</v>
       </c>
       <c r="C99" t="n">
-        <v>0.128609</v>
+        <v>0.126254</v>
       </c>
       <c r="D99" t="n">
-        <v>0.107521</v>
+        <v>0.113017</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.166967</v>
+        <v>0.181388</v>
       </c>
       <c r="C100" t="n">
-        <v>0.134955</v>
+        <v>0.130812</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110512</v>
+        <v>0.115059</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187298</v>
+        <v>0.18903</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141463</v>
+        <v>0.136191</v>
       </c>
       <c r="D101" t="n">
-        <v>0.114206</v>
+        <v>0.119986</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.187242</v>
+        <v>0.186508</v>
       </c>
       <c r="C102" t="n">
-        <v>0.150798</v>
+        <v>0.14353</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119005</v>
+        <v>0.119374</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212046</v>
+        <v>0.200785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160018</v>
+        <v>0.151692</v>
       </c>
       <c r="D103" t="n">
-        <v>0.124232</v>
+        <v>0.12286</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2198</v>
+        <v>0.2129</v>
       </c>
       <c r="C104" t="n">
-        <v>0.172176</v>
+        <v>0.163337</v>
       </c>
       <c r="D104" t="n">
-        <v>0.130781</v>
+        <v>0.126628</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244988</v>
+        <v>0.240306</v>
       </c>
       <c r="C105" t="n">
-        <v>0.1882</v>
+        <v>0.179063</v>
       </c>
       <c r="D105" t="n">
-        <v>0.140499</v>
+        <v>0.132147</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.275664</v>
+        <v>0.269226</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209385</v>
+        <v>0.20868</v>
       </c>
       <c r="D106" t="n">
-        <v>0.153338</v>
+        <v>0.140829</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.323641</v>
+        <v>0.317462</v>
       </c>
       <c r="C107" t="n">
-        <v>0.240656</v>
+        <v>0.233668</v>
       </c>
       <c r="D107" t="n">
-        <v>0.164648</v>
+        <v>0.154446</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385581</v>
+        <v>0.37772</v>
       </c>
       <c r="C108" t="n">
-        <v>0.300173</v>
+        <v>0.284644</v>
       </c>
       <c r="D108" t="n">
-        <v>0.119523</v>
+        <v>0.112894</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.481758</v>
+        <v>0.482036</v>
       </c>
       <c r="C109" t="n">
-        <v>0.372036</v>
+        <v>0.387181</v>
       </c>
       <c r="D109" t="n">
-        <v>0.122107</v>
+        <v>0.114201</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.171205</v>
+        <v>0.168235</v>
       </c>
       <c r="C110" t="n">
-        <v>0.143526</v>
+        <v>0.135105</v>
       </c>
       <c r="D110" t="n">
-        <v>0.124711</v>
+        <v>0.115625</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175069</v>
+        <v>0.164629</v>
       </c>
       <c r="C111" t="n">
-        <v>0.147019</v>
+        <v>0.139299</v>
       </c>
       <c r="D111" t="n">
-        <v>0.127046</v>
+        <v>0.117115</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179964</v>
+        <v>0.178694</v>
       </c>
       <c r="C112" t="n">
-        <v>0.15073</v>
+        <v>0.143195</v>
       </c>
       <c r="D112" t="n">
-        <v>0.129085</v>
+        <v>0.118181</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185048</v>
+        <v>0.184641</v>
       </c>
       <c r="C113" t="n">
-        <v>0.154876</v>
+        <v>0.14831</v>
       </c>
       <c r="D113" t="n">
-        <v>0.131953</v>
+        <v>0.120279</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.202186</v>
+        <v>0.180447</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159614</v>
+        <v>0.153876</v>
       </c>
       <c r="D114" t="n">
-        <v>0.134554</v>
+        <v>0.122904</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199382</v>
+        <v>0.190411</v>
       </c>
       <c r="C115" t="n">
-        <v>0.164988</v>
+        <v>0.160123</v>
       </c>
       <c r="D115" t="n">
-        <v>0.137317</v>
+        <v>0.125907</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208696</v>
+        <v>0.202212</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172151</v>
+        <v>0.167757</v>
       </c>
       <c r="D116" t="n">
-        <v>0.147364</v>
+        <v>0.128829</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.221377</v>
+        <v>0.22231</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180795</v>
+        <v>0.178873</v>
       </c>
       <c r="D117" t="n">
-        <v>0.14439</v>
+        <v>0.134096</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.236915</v>
+        <v>0.229647</v>
       </c>
       <c r="C118" t="n">
-        <v>0.192111</v>
+        <v>0.189384</v>
       </c>
       <c r="D118" t="n">
-        <v>0.149337</v>
+        <v>0.139817</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259718</v>
+        <v>0.259701</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207831</v>
+        <v>0.206015</v>
       </c>
       <c r="D119" t="n">
-        <v>0.155763</v>
+        <v>0.14757</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.289282</v>
+        <v>0.293656</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228026</v>
+        <v>0.231296</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164648</v>
+        <v>0.15822</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.332441</v>
+        <v>0.340542</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25887</v>
+        <v>0.258015</v>
       </c>
       <c r="D121" t="n">
-        <v>0.181408</v>
+        <v>0.174048</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.399729</v>
+        <v>0.408513</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307671</v>
+        <v>0.307195</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200694</v>
+        <v>0.199803</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494973</v>
+        <v>0.494253</v>
       </c>
       <c r="C123" t="n">
-        <v>0.406024</v>
+        <v>0.406309</v>
       </c>
       <c r="D123" t="n">
-        <v>0.139622</v>
+        <v>0.137468</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.188349</v>
+        <v>0.200136</v>
       </c>
       <c r="C124" t="n">
-        <v>0.159309</v>
+        <v>0.16116</v>
       </c>
       <c r="D124" t="n">
-        <v>0.137758</v>
+        <v>0.143162</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.19993</v>
+        <v>0.204103</v>
       </c>
       <c r="C125" t="n">
-        <v>0.163121</v>
+        <v>0.16516</v>
       </c>
       <c r="D125" t="n">
-        <v>0.13889</v>
+        <v>0.147873</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.205389</v>
+        <v>0.2071</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171053</v>
+        <v>0.171277</v>
       </c>
       <c r="D126" t="n">
-        <v>0.14328</v>
+        <v>0.14684</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.206633</v>
+        <v>0.214712</v>
       </c>
       <c r="C127" t="n">
-        <v>0.171524</v>
+        <v>0.175596</v>
       </c>
       <c r="D127" t="n">
-        <v>0.150247</v>
+        <v>0.148327</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.216519</v>
+        <v>0.217786</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182596</v>
+        <v>0.179223</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149117</v>
+        <v>0.149823</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224284</v>
+        <v>0.227856</v>
       </c>
       <c r="C129" t="n">
-        <v>0.182501</v>
+        <v>0.183643</v>
       </c>
       <c r="D129" t="n">
-        <v>0.151958</v>
+        <v>0.152034</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.226254</v>
+        <v>0.240579</v>
       </c>
       <c r="C130" t="n">
-        <v>0.190223</v>
+        <v>0.191796</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153229</v>
+        <v>0.154674</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.238653</v>
+        <v>0.247037</v>
       </c>
       <c r="C131" t="n">
-        <v>0.203092</v>
+        <v>0.202765</v>
       </c>
       <c r="D131" t="n">
-        <v>0.158366</v>
+        <v>0.157944</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.257789</v>
+        <v>0.253456</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209965</v>
+        <v>0.211274</v>
       </c>
       <c r="D132" t="n">
-        <v>0.163598</v>
+        <v>0.164868</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279818</v>
+        <v>0.285287</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226229</v>
+        <v>0.226114</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173848</v>
+        <v>0.16863</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.31438</v>
+        <v>0.309538</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24594</v>
+        <v>0.246061</v>
       </c>
       <c r="D134" t="n">
-        <v>0.178691</v>
+        <v>0.178281</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.341627</v>
+        <v>0.351997</v>
       </c>
       <c r="C135" t="n">
-        <v>0.274605</v>
+        <v>0.277473</v>
       </c>
       <c r="D135" t="n">
-        <v>0.190453</v>
+        <v>0.19059</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.406194</v>
+        <v>0.410357</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323217</v>
+        <v>0.329761</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211243</v>
+        <v>0.217181</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.507095</v>
+        <v>0.50944</v>
       </c>
       <c r="C137" t="n">
-        <v>0.412645</v>
+        <v>0.415428</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250812</v>
+        <v>0.253171</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.332514</v>
+        <v>0.337185</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269246</v>
+        <v>0.270633</v>
       </c>
       <c r="D138" t="n">
-        <v>0.255547</v>
+        <v>0.252998</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.332714</v>
+        <v>0.337258</v>
       </c>
       <c r="C139" t="n">
-        <v>0.270345</v>
+        <v>0.273894</v>
       </c>
       <c r="D139" t="n">
-        <v>0.251391</v>
+        <v>0.255509</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338627</v>
+        <v>0.348801</v>
       </c>
       <c r="C140" t="n">
-        <v>0.274068</v>
+        <v>0.276451</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254787</v>
+        <v>0.254758</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.343595</v>
+        <v>0.342628</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2803</v>
+        <v>0.281093</v>
       </c>
       <c r="D141" t="n">
-        <v>0.256838</v>
+        <v>0.260959</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.349939</v>
+        <v>0.35495</v>
       </c>
       <c r="C142" t="n">
-        <v>0.283143</v>
+        <v>0.285208</v>
       </c>
       <c r="D142" t="n">
-        <v>0.262385</v>
+        <v>0.261894</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.360434</v>
+        <v>0.36344</v>
       </c>
       <c r="C143" t="n">
-        <v>0.288621</v>
+        <v>0.290459</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266224</v>
+        <v>0.263813</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103053</v>
+        <v>0.103296</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612237</v>
+        <v>0.0612287</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07031850000000001</v>
+        <v>0.0702642</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111195</v>
+        <v>0.110863</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0622765</v>
+        <v>0.0626562</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0706118</v>
+        <v>0.0697198</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122718</v>
+        <v>0.122671</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0650954</v>
+        <v>0.0656342</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06924959999999999</v>
+        <v>0.0692006</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143644</v>
+        <v>0.143629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.072879</v>
+        <v>0.0736253</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0700086</v>
+        <v>0.0698324</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170399</v>
+        <v>0.170462</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0893664</v>
+        <v>0.0896105</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0711402</v>
+        <v>0.0714993</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.207853</v>
+        <v>0.205818</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112182</v>
+        <v>0.112546</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07529230000000001</v>
+        <v>0.0753076</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253401</v>
+        <v>0.253175</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152269</v>
+        <v>0.152069</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0893516</v>
+        <v>0.0886344</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305698</v>
+        <v>0.305911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.193798</v>
+        <v>0.191032</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07009890000000001</v>
+        <v>0.0702714</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09460109999999999</v>
+        <v>0.0946598</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0634561</v>
+        <v>0.0624132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07037160000000001</v>
+        <v>0.0704465</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0961378</v>
+        <v>0.09613049999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0621267</v>
+        <v>0.0616866</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0704627</v>
+        <v>0.07056709999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09797210000000001</v>
+        <v>0.09745089999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0622182</v>
+        <v>0.0624209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0705995</v>
+        <v>0.070614</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100153</v>
+        <v>0.09954209999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0629802</v>
+        <v>0.0628165</v>
       </c>
       <c r="D13" t="n">
-        <v>0.070869</v>
+        <v>0.0707855</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102377</v>
+        <v>0.102839</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0632075</v>
+        <v>0.06319329999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0710749</v>
+        <v>0.0711117</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10645</v>
+        <v>0.106912</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06382160000000001</v>
+        <v>0.0634304</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07148400000000001</v>
+        <v>0.07135859999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112174</v>
+        <v>0.11246</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06790789999999999</v>
+        <v>0.0673613</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07173939999999999</v>
+        <v>0.07148690000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12145</v>
+        <v>0.121221</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07089579999999999</v>
+        <v>0.0705088</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0718106</v>
+        <v>0.07193860000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133194</v>
+        <v>0.133192</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08086260000000001</v>
+        <v>0.07987760000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0742934</v>
+        <v>0.0725877</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.14955</v>
+        <v>0.150191</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0918329</v>
+        <v>0.0913663</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07341499999999999</v>
+        <v>0.0731878</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171546</v>
+        <v>0.170972</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104612</v>
+        <v>0.104183</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0770856</v>
+        <v>0.07716339999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.202982</v>
+        <v>0.19847</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121376</v>
+        <v>0.121354</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0855181</v>
+        <v>0.08550919999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240758</v>
+        <v>0.236022</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154723</v>
+        <v>0.154694</v>
       </c>
       <c r="D22" t="n">
-        <v>0.105312</v>
+        <v>0.102635</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291564</v>
+        <v>0.286904</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196086</v>
+        <v>0.21609</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07228229999999999</v>
+        <v>0.0723617</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100596</v>
+        <v>0.100515</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0666578</v>
+        <v>0.06627669999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0723573</v>
+        <v>0.0722737</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10188</v>
+        <v>0.101837</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06667770000000001</v>
+        <v>0.06623179999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0726864</v>
+        <v>0.0726586</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.105362</v>
+        <v>0.103414</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0673356</v>
+        <v>0.0671018</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07292079999999999</v>
+        <v>0.0729282</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106433</v>
+        <v>0.105446</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0702131</v>
+        <v>0.0674254</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0732397</v>
+        <v>0.0732469</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111394</v>
+        <v>0.108725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0688687</v>
+        <v>0.0686358</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0735003</v>
+        <v>0.07351530000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.116754</v>
+        <v>0.113323</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0713912</v>
+        <v>0.07041310000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07480729999999999</v>
+        <v>0.07362059999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119827</v>
+        <v>0.119577</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07488789999999999</v>
+        <v>0.0742304</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07535650000000001</v>
+        <v>0.0741913</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.129575</v>
+        <v>0.127108</v>
       </c>
       <c r="C31" t="n">
-        <v>0.079069</v>
+        <v>0.0789956</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0754939</v>
+        <v>0.07466349999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140303</v>
+        <v>0.137195</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0852614</v>
+        <v>0.0850426</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0767842</v>
+        <v>0.0757613</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150269</v>
+        <v>0.15015</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0932142</v>
+        <v>0.09277290000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0877616</v>
+        <v>0.0777741</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.173163</v>
+        <v>0.168172</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105725</v>
+        <v>0.105472</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0850404</v>
+        <v>0.0830197</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.210948</v>
+        <v>0.194852</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123359</v>
+        <v>0.122815</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0929828</v>
+        <v>0.0916202</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235089</v>
+        <v>0.232438</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148577</v>
+        <v>0.147832</v>
       </c>
       <c r="D36" t="n">
-        <v>0.10973</v>
+        <v>0.103483</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284847</v>
+        <v>0.280494</v>
       </c>
       <c r="C37" t="n">
-        <v>0.189792</v>
+        <v>0.190482</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07466970000000001</v>
+        <v>0.0736098</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.108807</v>
+        <v>0.103674</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0697436</v>
+        <v>0.06920850000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0831896</v>
+        <v>0.07387589999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106151</v>
+        <v>0.105056</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0704572</v>
+        <v>0.06997639999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0843633</v>
+        <v>0.07411909999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108648</v>
+        <v>0.106751</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0710563</v>
+        <v>0.07093820000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08463420000000001</v>
+        <v>0.0744924</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109335</v>
+        <v>0.108912</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0801683</v>
+        <v>0.0720978</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0783906</v>
+        <v>0.0747401</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112772</v>
+        <v>0.112129</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07392319999999999</v>
+        <v>0.07352450000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0849837</v>
+        <v>0.07506400000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.118056</v>
+        <v>0.116295</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0761406</v>
+        <v>0.07583090000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.08480310000000001</v>
+        <v>0.0754721</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.123835</v>
+        <v>0.122247</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07845729999999999</v>
+        <v>0.07843849999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0841606</v>
+        <v>0.07613880000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130885</v>
+        <v>0.130718</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0819125</v>
+        <v>0.08173519999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.081192</v>
+        <v>0.07707700000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138276</v>
+        <v>0.138764</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0895444</v>
+        <v>0.0866012</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08267579999999999</v>
+        <v>0.0785083</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156782</v>
+        <v>0.150683</v>
       </c>
       <c r="C47" t="n">
-        <v>0.101693</v>
+        <v>0.0932154</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0890333</v>
+        <v>0.0809216</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167879</v>
+        <v>0.168029</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102862</v>
+        <v>0.102731</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0850104</v>
+        <v>0.08494350000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191585</v>
+        <v>0.191869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116712</v>
+        <v>0.116303</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0978084</v>
+        <v>0.0906158</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.226982</v>
+        <v>0.223075</v>
       </c>
       <c r="C50" t="n">
-        <v>0.142648</v>
+        <v>0.138203</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0996616</v>
+        <v>0.0995448</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268228</v>
+        <v>0.283805</v>
       </c>
       <c r="C51" t="n">
-        <v>0.174169</v>
+        <v>0.172606</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08659699999999999</v>
+        <v>0.0757355</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.323269</v>
+        <v>0.322304</v>
       </c>
       <c r="C52" t="n">
-        <v>0.251107</v>
+        <v>0.226885</v>
       </c>
       <c r="D52" t="n">
-        <v>0.080154</v>
+        <v>0.0759287</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.112754</v>
+        <v>0.109272</v>
       </c>
       <c r="C53" t="n">
-        <v>0.081593</v>
+        <v>0.07978879999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08714330000000001</v>
+        <v>0.08508830000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114113</v>
+        <v>0.110743</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0802086</v>
+        <v>0.0745934</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0875214</v>
+        <v>0.0764638</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.116623</v>
+        <v>0.112255</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0832499</v>
+        <v>0.0756826</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0773442</v>
+        <v>0.0773542</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117489</v>
+        <v>0.116279</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08035929999999999</v>
+        <v>0.0772477</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0881015</v>
+        <v>0.0773857</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12215</v>
+        <v>0.119794</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0857272</v>
+        <v>0.0795169</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0897541</v>
+        <v>0.0782603</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125176</v>
+        <v>0.125238</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0894842</v>
+        <v>0.0820166</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0816574</v>
+        <v>0.07918799999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133975</v>
+        <v>0.130402</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09122950000000001</v>
+        <v>0.08493390000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0910876</v>
+        <v>0.08008560000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.148741</v>
+        <v>0.13848</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09820479999999999</v>
+        <v>0.0887714</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0924707</v>
+        <v>0.0813764</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150355</v>
+        <v>0.150101</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0986354</v>
+        <v>0.0947829</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0950802</v>
+        <v>0.08391460000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166377</v>
+        <v>0.164887</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105764</v>
+        <v>0.103862</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09925100000000001</v>
+        <v>0.087158</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187179</v>
+        <v>0.186892</v>
       </c>
       <c r="C63" t="n">
-        <v>0.126447</v>
+        <v>0.11688</v>
       </c>
       <c r="D63" t="n">
-        <v>0.104444</v>
+        <v>0.0920629</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.21952</v>
+        <v>0.217838</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14837</v>
+        <v>0.137635</v>
       </c>
       <c r="D64" t="n">
-        <v>0.102587</v>
+        <v>0.10073</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.259665</v>
+        <v>0.258999</v>
       </c>
       <c r="C65" t="n">
-        <v>0.187272</v>
+        <v>0.183116</v>
       </c>
       <c r="D65" t="n">
-        <v>0.122602</v>
+        <v>0.115392</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31974</v>
+        <v>0.325476</v>
       </c>
       <c r="C66" t="n">
-        <v>0.242496</v>
+        <v>0.241711</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08311060000000001</v>
+        <v>0.0825289</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.12812</v>
+        <v>0.121897</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08713129999999999</v>
+        <v>0.0814805</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0847687</v>
+        <v>0.08417669999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.132738</v>
+        <v>0.123976</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08803270000000001</v>
+        <v>0.0814288</v>
       </c>
       <c r="D68" t="n">
-        <v>0.084633</v>
+        <v>0.0834883</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125442</v>
+        <v>0.1239</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0850683</v>
+        <v>0.0827454</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08484</v>
+        <v>0.0845091</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.136595</v>
+        <v>0.127817</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0857233</v>
+        <v>0.08427030000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08910559999999999</v>
+        <v>0.0852919</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131095</v>
+        <v>0.131243</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08738020000000001</v>
+        <v>0.0858256</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0851464</v>
+        <v>0.0853701</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135676</v>
+        <v>0.136471</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0951364</v>
+        <v>0.08826299999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0965587</v>
+        <v>0.086114</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.152268</v>
+        <v>0.142303</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09573379999999999</v>
+        <v>0.0916708</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08727169999999999</v>
+        <v>0.08734749999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152287</v>
+        <v>0.153103</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0962136</v>
+        <v>0.0956885</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08858530000000001</v>
+        <v>0.0884593</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.16098</v>
+        <v>0.164671</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102718</v>
+        <v>0.101949</v>
       </c>
       <c r="D75" t="n">
-        <v>0.092386</v>
+        <v>0.09061660000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.179691</v>
+        <v>0.175857</v>
       </c>
       <c r="C76" t="n">
-        <v>0.117303</v>
+        <v>0.110675</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0935274</v>
+        <v>0.09458800000000001</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197656</v>
+        <v>0.197582</v>
       </c>
       <c r="C77" t="n">
-        <v>0.129426</v>
+        <v>0.129801</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09861490000000001</v>
+        <v>0.09823320000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22411</v>
+        <v>0.225602</v>
       </c>
       <c r="C78" t="n">
-        <v>0.148258</v>
+        <v>0.14132</v>
       </c>
       <c r="D78" t="n">
-        <v>0.106275</v>
+        <v>0.10639</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26936</v>
+        <v>0.266745</v>
       </c>
       <c r="C79" t="n">
-        <v>0.183865</v>
+        <v>0.17954</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119716</v>
+        <v>0.119519</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.320101</v>
+        <v>0.322612</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216925</v>
+        <v>0.217197</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0919533</v>
+        <v>0.09176140000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.143282</v>
+        <v>0.13476</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09569950000000001</v>
+        <v>0.0907699</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0925564</v>
+        <v>0.0925002</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146707</v>
+        <v>0.145382</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0978687</v>
+        <v>0.0929058</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0933156</v>
+        <v>0.0929932</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139329</v>
+        <v>0.144429</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09900639999999999</v>
+        <v>0.0947612</v>
       </c>
       <c r="D83" t="n">
-        <v>0.094042</v>
+        <v>0.0935356</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142239</v>
+        <v>0.148943</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0977346</v>
+        <v>0.0964361</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0943114</v>
+        <v>0.094775</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145798</v>
+        <v>0.146011</v>
       </c>
       <c r="C85" t="n">
-        <v>0.100875</v>
+        <v>0.100701</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09589979999999999</v>
+        <v>0.09615799999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.156272</v>
+        <v>0.161367</v>
       </c>
       <c r="C86" t="n">
-        <v>0.10468</v>
+        <v>0.103911</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0968104</v>
+        <v>0.0967467</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.160074</v>
+        <v>0.159664</v>
       </c>
       <c r="C87" t="n">
-        <v>0.110464</v>
+        <v>0.113436</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0983222</v>
+        <v>0.09862</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166673</v>
+        <v>0.175625</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120773</v>
+        <v>0.120274</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101156</v>
+        <v>0.103553</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188173</v>
+        <v>0.179955</v>
       </c>
       <c r="C89" t="n">
-        <v>0.126823</v>
+        <v>0.122765</v>
       </c>
       <c r="D89" t="n">
-        <v>0.10398</v>
+        <v>0.104108</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204176</v>
+        <v>0.192429</v>
       </c>
       <c r="C90" t="n">
-        <v>0.140813</v>
+        <v>0.135857</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108071</v>
+        <v>0.108924</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.220052</v>
+        <v>0.215721</v>
       </c>
       <c r="C91" t="n">
-        <v>0.156437</v>
+        <v>0.151779</v>
       </c>
       <c r="D91" t="n">
-        <v>0.114263</v>
+        <v>0.115166</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242747</v>
+        <v>0.247666</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16745</v>
+        <v>0.166702</v>
       </c>
       <c r="D92" t="n">
-        <v>0.123104</v>
+        <v>0.123449</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.294568</v>
+        <v>0.286927</v>
       </c>
       <c r="C93" t="n">
-        <v>0.210479</v>
+        <v>0.196739</v>
       </c>
       <c r="D93" t="n">
-        <v>0.136759</v>
+        <v>0.14522</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.364221</v>
+        <v>0.351055</v>
       </c>
       <c r="C94" t="n">
-        <v>0.246371</v>
+        <v>0.243812</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103537</v>
+        <v>0.103832</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160171</v>
+        <v>0.149279</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11363</v>
+        <v>0.112469</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105479</v>
+        <v>0.105812</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152945</v>
+        <v>0.163049</v>
       </c>
       <c r="C96" t="n">
-        <v>0.116949</v>
+        <v>0.115293</v>
       </c>
       <c r="D96" t="n">
-        <v>0.107344</v>
+        <v>0.107041</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156517</v>
+        <v>0.157355</v>
       </c>
       <c r="C97" t="n">
-        <v>0.123703</v>
+        <v>0.118206</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108718</v>
+        <v>0.108573</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.159969</v>
+        <v>0.159808</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122811</v>
+        <v>0.121067</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110947</v>
+        <v>0.110396</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.175373</v>
+        <v>0.164276</v>
       </c>
       <c r="C99" t="n">
-        <v>0.126254</v>
+        <v>0.125248</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113017</v>
+        <v>0.1122</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181388</v>
+        <v>0.180528</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130812</v>
+        <v>0.129645</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115059</v>
+        <v>0.114537</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.18903</v>
+        <v>0.181098</v>
       </c>
       <c r="C101" t="n">
-        <v>0.136191</v>
+        <v>0.134955</v>
       </c>
       <c r="D101" t="n">
-        <v>0.119986</v>
+        <v>0.116748</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186508</v>
+        <v>0.191955</v>
       </c>
       <c r="C102" t="n">
-        <v>0.14353</v>
+        <v>0.142083</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119374</v>
+        <v>0.118988</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.200785</v>
+        <v>0.196919</v>
       </c>
       <c r="C103" t="n">
-        <v>0.151692</v>
+        <v>0.150396</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12286</v>
+        <v>0.12222</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.2129</v>
+        <v>0.214507</v>
       </c>
       <c r="C104" t="n">
-        <v>0.163337</v>
+        <v>0.16175</v>
       </c>
       <c r="D104" t="n">
-        <v>0.126628</v>
+        <v>0.126557</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.240306</v>
+        <v>0.23254</v>
       </c>
       <c r="C105" t="n">
-        <v>0.179063</v>
+        <v>0.176968</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132147</v>
+        <v>0.131896</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.269226</v>
+        <v>0.261313</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20868</v>
+        <v>0.199677</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140829</v>
+        <v>0.140194</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317462</v>
+        <v>0.307047</v>
       </c>
       <c r="C107" t="n">
-        <v>0.233668</v>
+        <v>0.232216</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154446</v>
+        <v>0.15389</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37772</v>
+        <v>0.373237</v>
       </c>
       <c r="C108" t="n">
-        <v>0.284644</v>
+        <v>0.296905</v>
       </c>
       <c r="D108" t="n">
-        <v>0.112894</v>
+        <v>0.1127</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482036</v>
+        <v>0.470342</v>
       </c>
       <c r="C109" t="n">
-        <v>0.387181</v>
+        <v>0.366635</v>
       </c>
       <c r="D109" t="n">
-        <v>0.114201</v>
+        <v>0.113983</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.168235</v>
+        <v>0.161343</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135105</v>
+        <v>0.13428</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115625</v>
+        <v>0.115052</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.164629</v>
+        <v>0.16447</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139299</v>
+        <v>0.137942</v>
       </c>
       <c r="D111" t="n">
-        <v>0.117115</v>
+        <v>0.116623</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.178694</v>
+        <v>0.168205</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143195</v>
+        <v>0.142449</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118181</v>
+        <v>0.118345</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.184641</v>
+        <v>0.173269</v>
       </c>
       <c r="C113" t="n">
-        <v>0.14831</v>
+        <v>0.147485</v>
       </c>
       <c r="D113" t="n">
-        <v>0.120279</v>
+        <v>0.120344</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180447</v>
+        <v>0.179428</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153876</v>
+        <v>0.154023</v>
       </c>
       <c r="D114" t="n">
-        <v>0.122904</v>
+        <v>0.122587</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.190411</v>
+        <v>0.187501</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160123</v>
+        <v>0.15949</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125907</v>
+        <v>0.125357</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.202212</v>
+        <v>0.198714</v>
       </c>
       <c r="C116" t="n">
-        <v>0.167757</v>
+        <v>0.167282</v>
       </c>
       <c r="D116" t="n">
-        <v>0.128829</v>
+        <v>0.130128</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.22231</v>
+        <v>0.222251</v>
       </c>
       <c r="C117" t="n">
-        <v>0.178873</v>
+        <v>0.176881</v>
       </c>
       <c r="D117" t="n">
-        <v>0.134096</v>
+        <v>0.134019</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.229647</v>
+        <v>0.233231</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189384</v>
+        <v>0.188632</v>
       </c>
       <c r="D118" t="n">
-        <v>0.139817</v>
+        <v>0.139832</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259701</v>
+        <v>0.255582</v>
       </c>
       <c r="C119" t="n">
-        <v>0.206015</v>
+        <v>0.204308</v>
       </c>
       <c r="D119" t="n">
-        <v>0.14757</v>
+        <v>0.14726</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.293656</v>
+        <v>0.284372</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231296</v>
+        <v>0.231636</v>
       </c>
       <c r="D120" t="n">
-        <v>0.15822</v>
+        <v>0.157528</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.340542</v>
+        <v>0.329729</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258015</v>
+        <v>0.266516</v>
       </c>
       <c r="D121" t="n">
-        <v>0.174048</v>
+        <v>0.173139</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.408513</v>
+        <v>0.411657</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307195</v>
+        <v>0.318905</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199803</v>
+        <v>0.19752</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494253</v>
+        <v>0.49285</v>
       </c>
       <c r="C123" t="n">
-        <v>0.406309</v>
+        <v>0.404765</v>
       </c>
       <c r="D123" t="n">
-        <v>0.137468</v>
+        <v>0.136224</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.200136</v>
+        <v>0.197525</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16116</v>
+        <v>0.164496</v>
       </c>
       <c r="D124" t="n">
-        <v>0.143162</v>
+        <v>0.139748</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.204103</v>
+        <v>0.203048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.16516</v>
+        <v>0.164053</v>
       </c>
       <c r="D125" t="n">
-        <v>0.147873</v>
+        <v>0.141579</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.2071</v>
+        <v>0.19666</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171277</v>
+        <v>0.169725</v>
       </c>
       <c r="D126" t="n">
-        <v>0.14684</v>
+        <v>0.145267</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.214712</v>
+        <v>0.203583</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175596</v>
+        <v>0.17101</v>
       </c>
       <c r="D127" t="n">
-        <v>0.148327</v>
+        <v>0.145394</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.217786</v>
+        <v>0.208548</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179223</v>
+        <v>0.181088</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149823</v>
+        <v>0.148512</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.227856</v>
+        <v>0.217782</v>
       </c>
       <c r="C129" t="n">
-        <v>0.183643</v>
+        <v>0.183887</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152034</v>
+        <v>0.151195</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.240579</v>
+        <v>0.227225</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191796</v>
+        <v>0.190969</v>
       </c>
       <c r="D130" t="n">
-        <v>0.154674</v>
+        <v>0.153513</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.247037</v>
+        <v>0.24957</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202765</v>
+        <v>0.201825</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157944</v>
+        <v>0.15698</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253456</v>
+        <v>0.254214</v>
       </c>
       <c r="C132" t="n">
-        <v>0.211274</v>
+        <v>0.209826</v>
       </c>
       <c r="D132" t="n">
-        <v>0.164868</v>
+        <v>0.16222</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.285287</v>
+        <v>0.280297</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226114</v>
+        <v>0.227626</v>
       </c>
       <c r="D133" t="n">
-        <v>0.16863</v>
+        <v>0.170536</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.309538</v>
+        <v>0.305092</v>
       </c>
       <c r="C134" t="n">
-        <v>0.246061</v>
+        <v>0.244936</v>
       </c>
       <c r="D134" t="n">
-        <v>0.178281</v>
+        <v>0.181354</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.351997</v>
+        <v>0.348305</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277473</v>
+        <v>0.275384</v>
       </c>
       <c r="D135" t="n">
-        <v>0.19059</v>
+        <v>0.18994</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.410357</v>
+        <v>0.416023</v>
       </c>
       <c r="C136" t="n">
-        <v>0.329761</v>
+        <v>0.322199</v>
       </c>
       <c r="D136" t="n">
-        <v>0.217181</v>
+        <v>0.212328</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.50944</v>
+        <v>0.519198</v>
       </c>
       <c r="C137" t="n">
-        <v>0.415428</v>
+        <v>0.39905</v>
       </c>
       <c r="D137" t="n">
-        <v>0.253171</v>
+        <v>0.250228</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.337185</v>
+        <v>0.331342</v>
       </c>
       <c r="C138" t="n">
-        <v>0.270633</v>
+        <v>0.269246</v>
       </c>
       <c r="D138" t="n">
-        <v>0.252998</v>
+        <v>0.251004</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.337258</v>
+        <v>0.334874</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273894</v>
+        <v>0.276768</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255509</v>
+        <v>0.252762</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.348801</v>
+        <v>0.343522</v>
       </c>
       <c r="C140" t="n">
-        <v>0.276451</v>
+        <v>0.274864</v>
       </c>
       <c r="D140" t="n">
-        <v>0.254758</v>
+        <v>0.253555</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.342628</v>
+        <v>0.346751</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281093</v>
+        <v>0.278787</v>
       </c>
       <c r="D141" t="n">
-        <v>0.260959</v>
+        <v>0.257575</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35495</v>
+        <v>0.360863</v>
       </c>
       <c r="C142" t="n">
-        <v>0.285208</v>
+        <v>0.283181</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261894</v>
+        <v>0.26054</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.36344</v>
+        <v>0.357076</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290459</v>
+        <v>0.287925</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263813</v>
+        <v>0.262794</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103296</v>
+        <v>0.1035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612287</v>
+        <v>0.0614509</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0702642</v>
+        <v>0.07059609999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110863</v>
+        <v>0.111707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0626562</v>
+        <v>0.0624156</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0697198</v>
+        <v>0.0697538</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122671</v>
+        <v>0.122302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0656342</v>
+        <v>0.0652609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0692006</v>
+        <v>0.069275</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143629</v>
+        <v>0.143367</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0736253</v>
+        <v>0.07349899999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0698324</v>
+        <v>0.0698332</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170462</v>
+        <v>0.17032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0896105</v>
+        <v>0.08852980000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0714993</v>
+        <v>0.0713316</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205818</v>
+        <v>0.205508</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112546</v>
+        <v>0.112047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0753076</v>
+        <v>0.0746893</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253175</v>
+        <v>0.252926</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152069</v>
+        <v>0.152155</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0886344</v>
+        <v>0.08821370000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305911</v>
+        <v>0.305599</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191032</v>
+        <v>0.204186</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0702714</v>
+        <v>0.07054390000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946598</v>
+        <v>0.0952103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0624132</v>
+        <v>0.0630058</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704465</v>
+        <v>0.07086240000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09613049999999999</v>
+        <v>0.0962244</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0616866</v>
+        <v>0.0627178</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07056709999999999</v>
+        <v>0.0707938</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09745089999999999</v>
+        <v>0.09755510000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0624209</v>
+        <v>0.0633819</v>
       </c>
       <c r="D12" t="n">
-        <v>0.070614</v>
+        <v>0.0708464</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09954209999999999</v>
+        <v>0.100142</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0628165</v>
+        <v>0.0633012</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0707855</v>
+        <v>0.07113220000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102839</v>
+        <v>0.102749</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06319329999999999</v>
+        <v>0.0636386</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0711117</v>
+        <v>0.0713101</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106912</v>
+        <v>0.10691</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0634304</v>
+        <v>0.06366339999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07135859999999999</v>
+        <v>0.07146950000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11246</v>
+        <v>0.112639</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0673613</v>
+        <v>0.0670384</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07148690000000001</v>
+        <v>0.0718231</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121221</v>
+        <v>0.121301</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0705088</v>
+        <v>0.0708635</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07193860000000001</v>
+        <v>0.07208489999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133192</v>
+        <v>0.133089</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07987760000000001</v>
+        <v>0.0806374</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0725877</v>
+        <v>0.07288509999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150191</v>
+        <v>0.149867</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0913663</v>
+        <v>0.0915161</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0731878</v>
+        <v>0.0731217</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170972</v>
+        <v>0.171589</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104183</v>
+        <v>0.104222</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07716339999999999</v>
+        <v>0.0766331</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19847</v>
+        <v>0.198254</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121354</v>
+        <v>0.120633</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08550919999999999</v>
+        <v>0.08668240000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236022</v>
+        <v>0.241577</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154694</v>
+        <v>0.154774</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102635</v>
+        <v>0.1028</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286904</v>
+        <v>0.286556</v>
       </c>
       <c r="C23" t="n">
-        <v>0.21609</v>
+        <v>0.19603</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0723617</v>
+        <v>0.072467</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100515</v>
+        <v>0.100585</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06627669999999999</v>
+        <v>0.0665332</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0722737</v>
+        <v>0.0725639</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101837</v>
+        <v>0.101826</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06623179999999999</v>
+        <v>0.0666307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0726586</v>
+        <v>0.0727722</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103414</v>
+        <v>0.103474</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0671018</v>
+        <v>0.0669278</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0729282</v>
+        <v>0.07300139999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105446</v>
+        <v>0.105433</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0674254</v>
+        <v>0.0676131</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0732469</v>
+        <v>0.0733345</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108725</v>
+        <v>0.108788</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0686358</v>
+        <v>0.0687971</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07351530000000001</v>
+        <v>0.0735677</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113323</v>
+        <v>0.113377</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07041310000000001</v>
+        <v>0.0706846</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07362059999999999</v>
+        <v>0.0749093</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119577</v>
+        <v>0.122742</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0742304</v>
+        <v>0.0743986</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0741913</v>
+        <v>0.0743014</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127108</v>
+        <v>0.130337</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0789956</v>
+        <v>0.0796712</v>
       </c>
       <c r="D31" t="n">
-        <v>0.07466349999999999</v>
+        <v>0.0764706</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137195</v>
+        <v>0.139305</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0850426</v>
+        <v>0.0854249</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0757613</v>
+        <v>0.0774161</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.15015</v>
+        <v>0.153019</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09277290000000001</v>
+        <v>0.0934923</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0777741</v>
+        <v>0.07827530000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168172</v>
+        <v>0.16834</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105472</v>
+        <v>0.10564</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0830197</v>
+        <v>0.0925039</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194852</v>
+        <v>0.196472</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122815</v>
+        <v>0.12358</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0916202</v>
+        <v>0.09665360000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232438</v>
+        <v>0.236494</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147832</v>
+        <v>0.148011</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103483</v>
+        <v>0.105554</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280494</v>
+        <v>0.291306</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190482</v>
+        <v>0.209089</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0736098</v>
+        <v>0.0738125</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103674</v>
+        <v>0.104691</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06920850000000001</v>
+        <v>0.07406500000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07387589999999999</v>
+        <v>0.08492769999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105056</v>
+        <v>0.109412</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06997639999999999</v>
+        <v>0.0702357</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07411909999999999</v>
+        <v>0.0852005</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106751</v>
+        <v>0.108184</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07093820000000001</v>
+        <v>0.0793541</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0744924</v>
+        <v>0.0840578</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108912</v>
+        <v>0.114418</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0720978</v>
+        <v>0.0724144</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0747401</v>
+        <v>0.0753814</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112129</v>
+        <v>0.11303</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07352450000000001</v>
+        <v>0.07362730000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07506400000000001</v>
+        <v>0.0865793</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116295</v>
+        <v>0.116406</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07583090000000001</v>
+        <v>0.07602349999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0754721</v>
+        <v>0.0754837</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122247</v>
+        <v>0.123617</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07843849999999999</v>
+        <v>0.0789429</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07613880000000001</v>
+        <v>0.0770733</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130718</v>
+        <v>0.129193</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08173519999999999</v>
+        <v>0.08192049999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07707700000000001</v>
+        <v>0.07716820000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138764</v>
+        <v>0.139533</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0866012</v>
+        <v>0.08678669999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0785083</v>
+        <v>0.079404</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150683</v>
+        <v>0.152342</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0932154</v>
+        <v>0.09338200000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0809216</v>
+        <v>0.08108269999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168029</v>
+        <v>0.1709</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102731</v>
+        <v>0.102766</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08494350000000001</v>
+        <v>0.093917</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191869</v>
+        <v>0.195485</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116303</v>
+        <v>0.126201</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0906158</v>
+        <v>0.100011</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223075</v>
+        <v>0.22711</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138203</v>
+        <v>0.138252</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0995448</v>
+        <v>0.105439</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.283805</v>
+        <v>0.27966</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172606</v>
+        <v>0.172778</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0757355</v>
+        <v>0.0903347</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322304</v>
+        <v>0.334617</v>
       </c>
       <c r="C52" t="n">
-        <v>0.226885</v>
+        <v>0.227704</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0759287</v>
+        <v>0.0765917</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.109272</v>
+        <v>0.119921</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07978879999999999</v>
+        <v>0.07973239999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08508830000000001</v>
+        <v>0.0870756</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110743</v>
+        <v>0.114315</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0745934</v>
+        <v>0.0799298</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0764638</v>
+        <v>0.086854</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.112255</v>
+        <v>0.12296</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0756826</v>
+        <v>0.08195620000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0773542</v>
+        <v>0.08781369999999999</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116279</v>
+        <v>0.119487</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0772477</v>
+        <v>0.09079280000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0773857</v>
+        <v>0.0793478</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119794</v>
+        <v>0.122625</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0795169</v>
+        <v>0.0814759</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0782603</v>
+        <v>0.0886362</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125238</v>
+        <v>0.129512</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0820166</v>
+        <v>0.0881272</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07918799999999999</v>
+        <v>0.0798336</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130402</v>
+        <v>0.135045</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08493390000000001</v>
+        <v>0.0935732</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08008560000000001</v>
+        <v>0.09145349999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.13848</v>
+        <v>0.142728</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0887714</v>
+        <v>0.0886752</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0813764</v>
+        <v>0.091187</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150101</v>
+        <v>0.160836</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0947829</v>
+        <v>0.0947051</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08391460000000001</v>
+        <v>0.0843038</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.164887</v>
+        <v>0.166322</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103862</v>
+        <v>0.103584</v>
       </c>
       <c r="D62" t="n">
-        <v>0.087158</v>
+        <v>0.0979382</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186892</v>
+        <v>0.191164</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11688</v>
+        <v>0.122806</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0920629</v>
+        <v>0.102482</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217838</v>
+        <v>0.222869</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137635</v>
+        <v>0.147104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10073</v>
+        <v>0.109156</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258999</v>
+        <v>0.261709</v>
       </c>
       <c r="C65" t="n">
-        <v>0.183116</v>
+        <v>0.181967</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115392</v>
+        <v>0.123339</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.325476</v>
+        <v>0.328125</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241711</v>
+        <v>0.235565</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0825289</v>
+        <v>0.0838021</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121897</v>
+        <v>0.130238</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0814805</v>
+        <v>0.09223099999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08417669999999999</v>
+        <v>0.0873724</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123976</v>
+        <v>0.122588</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0814288</v>
+        <v>0.089548</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0834883</v>
+        <v>0.0850626</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1239</v>
+        <v>0.125601</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0827454</v>
+        <v>0.0925631</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0845091</v>
+        <v>0.0846793</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.127817</v>
+        <v>0.136824</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08427030000000001</v>
+        <v>0.0950257</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0852919</v>
+        <v>0.0888038</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131243</v>
+        <v>0.14158</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0858256</v>
+        <v>0.0922847</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0853701</v>
+        <v>0.0897968</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.136471</v>
+        <v>0.135676</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08826299999999999</v>
+        <v>0.094684</v>
       </c>
       <c r="D72" t="n">
-        <v>0.086114</v>
+        <v>0.0870412</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142303</v>
+        <v>0.152264</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0916708</v>
+        <v>0.0924543</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08734749999999999</v>
+        <v>0.0874272</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.153103</v>
+        <v>0.150059</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0956885</v>
+        <v>0.102846</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0884593</v>
+        <v>0.0890059</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.164671</v>
+        <v>0.164987</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101949</v>
+        <v>0.101803</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09061660000000001</v>
+        <v>0.0914575</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175857</v>
+        <v>0.178913</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110675</v>
+        <v>0.11909</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09458800000000001</v>
+        <v>0.102606</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197582</v>
+        <v>0.196747</v>
       </c>
       <c r="C77" t="n">
-        <v>0.129801</v>
+        <v>0.126338</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09823320000000001</v>
+        <v>0.09943630000000001</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225602</v>
+        <v>0.229053</v>
       </c>
       <c r="C78" t="n">
-        <v>0.14132</v>
+        <v>0.155447</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10639</v>
+        <v>0.105703</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266745</v>
+        <v>0.266829</v>
       </c>
       <c r="C79" t="n">
-        <v>0.17954</v>
+        <v>0.184647</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119519</v>
+        <v>0.119857</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322612</v>
+        <v>0.321093</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217197</v>
+        <v>0.222711</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09176140000000001</v>
+        <v>0.0919817</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.13476</v>
+        <v>0.145313</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0907699</v>
+        <v>0.09696970000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0925002</v>
+        <v>0.09244810000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.145382</v>
+        <v>0.137167</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0929058</v>
+        <v>0.0932688</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0929932</v>
+        <v>0.09295059999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.144429</v>
+        <v>0.142791</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0947612</v>
+        <v>0.0949159</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0935356</v>
+        <v>0.0945694</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148943</v>
+        <v>0.151977</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0964361</v>
+        <v>0.0974174</v>
       </c>
       <c r="D84" t="n">
-        <v>0.094775</v>
+        <v>0.0952543</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146011</v>
+        <v>0.154826</v>
       </c>
       <c r="C85" t="n">
-        <v>0.100701</v>
+        <v>0.09988610000000001</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09615799999999999</v>
+        <v>0.0964436</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161367</v>
+        <v>0.154643</v>
       </c>
       <c r="C86" t="n">
-        <v>0.103911</v>
+        <v>0.107821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0967467</v>
+        <v>0.09739970000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.159664</v>
+        <v>0.169178</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113436</v>
+        <v>0.108913</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09862</v>
+        <v>0.09930750000000001</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175625</v>
+        <v>0.176669</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120274</v>
+        <v>0.114959</v>
       </c>
       <c r="D88" t="n">
-        <v>0.103553</v>
+        <v>0.101564</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179955</v>
+        <v>0.177485</v>
       </c>
       <c r="C89" t="n">
-        <v>0.122765</v>
+        <v>0.127382</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104108</v>
+        <v>0.104417</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192429</v>
+        <v>0.204208</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135857</v>
+        <v>0.132755</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108924</v>
+        <v>0.108281</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215721</v>
+        <v>0.217825</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151779</v>
+        <v>0.14679</v>
       </c>
       <c r="D91" t="n">
-        <v>0.115166</v>
+        <v>0.112628</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247666</v>
+        <v>0.24435</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166702</v>
+        <v>0.166037</v>
       </c>
       <c r="D92" t="n">
-        <v>0.123449</v>
+        <v>0.12241</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286927</v>
+        <v>0.29369</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196739</v>
+        <v>0.196384</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14522</v>
+        <v>0.135922</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.351055</v>
+        <v>0.355715</v>
       </c>
       <c r="C94" t="n">
-        <v>0.243812</v>
+        <v>0.271563</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103832</v>
+        <v>0.111846</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149279</v>
+        <v>0.149908</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112469</v>
+        <v>0.113027</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105812</v>
+        <v>0.105148</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163049</v>
+        <v>0.161326</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115293</v>
+        <v>0.120002</v>
       </c>
       <c r="D96" t="n">
-        <v>0.107041</v>
+        <v>0.108374</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157355</v>
+        <v>0.166213</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118206</v>
+        <v>0.11875</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108573</v>
+        <v>0.10865</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.159808</v>
+        <v>0.170621</v>
       </c>
       <c r="C98" t="n">
-        <v>0.121067</v>
+        <v>0.119808</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110396</v>
+        <v>0.108671</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164276</v>
+        <v>0.169404</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125248</v>
+        <v>0.125774</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1122</v>
+        <v>0.111344</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.180528</v>
+        <v>0.171093</v>
       </c>
       <c r="C100" t="n">
-        <v>0.129645</v>
+        <v>0.13024</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114537</v>
+        <v>0.114552</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.181098</v>
+        <v>0.180321</v>
       </c>
       <c r="C101" t="n">
-        <v>0.134955</v>
+        <v>0.135541</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116748</v>
+        <v>0.116915</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.191955</v>
+        <v>0.186563</v>
       </c>
       <c r="C102" t="n">
-        <v>0.142083</v>
+        <v>0.143021</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118988</v>
+        <v>0.119234</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.196919</v>
+        <v>0.209124</v>
       </c>
       <c r="C103" t="n">
-        <v>0.150396</v>
+        <v>0.151121</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12222</v>
+        <v>0.122607</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.214507</v>
+        <v>0.213962</v>
       </c>
       <c r="C104" t="n">
-        <v>0.16175</v>
+        <v>0.164308</v>
       </c>
       <c r="D104" t="n">
-        <v>0.126557</v>
+        <v>0.12522</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.23254</v>
+        <v>0.238677</v>
       </c>
       <c r="C105" t="n">
-        <v>0.176968</v>
+        <v>0.17842</v>
       </c>
       <c r="D105" t="n">
-        <v>0.131896</v>
+        <v>0.131986</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261313</v>
+        <v>0.270242</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199677</v>
+        <v>0.19735</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140194</v>
+        <v>0.144891</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307047</v>
+        <v>0.308675</v>
       </c>
       <c r="C107" t="n">
-        <v>0.232216</v>
+        <v>0.241896</v>
       </c>
       <c r="D107" t="n">
-        <v>0.15389</v>
+        <v>0.15394</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.373237</v>
+        <v>0.389797</v>
       </c>
       <c r="C108" t="n">
-        <v>0.296905</v>
+        <v>0.291083</v>
       </c>
       <c r="D108" t="n">
-        <v>0.1127</v>
+        <v>0.113215</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470342</v>
+        <v>0.476307</v>
       </c>
       <c r="C109" t="n">
-        <v>0.366635</v>
+        <v>0.387835</v>
       </c>
       <c r="D109" t="n">
-        <v>0.113983</v>
+        <v>0.114149</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161343</v>
+        <v>0.161986</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13428</v>
+        <v>0.13498</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115052</v>
+        <v>0.115398</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.16447</v>
+        <v>0.173398</v>
       </c>
       <c r="C111" t="n">
-        <v>0.137942</v>
+        <v>0.138668</v>
       </c>
       <c r="D111" t="n">
-        <v>0.116623</v>
+        <v>0.116937</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168205</v>
+        <v>0.16887</v>
       </c>
       <c r="C112" t="n">
-        <v>0.142449</v>
+        <v>0.143412</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118345</v>
+        <v>0.118511</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173269</v>
+        <v>0.173994</v>
       </c>
       <c r="C113" t="n">
-        <v>0.147485</v>
+        <v>0.148616</v>
       </c>
       <c r="D113" t="n">
-        <v>0.120344</v>
+        <v>0.12031</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.179428</v>
+        <v>0.179743</v>
       </c>
       <c r="C114" t="n">
-        <v>0.154023</v>
+        <v>0.153933</v>
       </c>
       <c r="D114" t="n">
-        <v>0.122587</v>
+        <v>0.122889</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.187501</v>
+        <v>0.18791</v>
       </c>
       <c r="C115" t="n">
-        <v>0.15949</v>
+        <v>0.160336</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125357</v>
+        <v>0.126111</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198714</v>
+        <v>0.201635</v>
       </c>
       <c r="C116" t="n">
-        <v>0.167282</v>
+        <v>0.167963</v>
       </c>
       <c r="D116" t="n">
-        <v>0.130128</v>
+        <v>0.129169</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222251</v>
+        <v>0.212125</v>
       </c>
       <c r="C117" t="n">
-        <v>0.176881</v>
+        <v>0.177497</v>
       </c>
       <c r="D117" t="n">
-        <v>0.134019</v>
+        <v>0.140423</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.233231</v>
+        <v>0.237997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.188632</v>
+        <v>0.189859</v>
       </c>
       <c r="D118" t="n">
-        <v>0.139832</v>
+        <v>0.139672</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.255582</v>
+        <v>0.26157</v>
       </c>
       <c r="C119" t="n">
-        <v>0.204308</v>
+        <v>0.205768</v>
       </c>
       <c r="D119" t="n">
-        <v>0.14726</v>
+        <v>0.148383</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.284372</v>
+        <v>0.292864</v>
       </c>
       <c r="C120" t="n">
-        <v>0.231636</v>
+        <v>0.227112</v>
       </c>
       <c r="D120" t="n">
-        <v>0.157528</v>
+        <v>0.159247</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.329729</v>
+        <v>0.3376</v>
       </c>
       <c r="C121" t="n">
-        <v>0.266516</v>
+        <v>0.257035</v>
       </c>
       <c r="D121" t="n">
-        <v>0.173139</v>
+        <v>0.174477</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.411657</v>
+        <v>0.399266</v>
       </c>
       <c r="C122" t="n">
-        <v>0.318905</v>
+        <v>0.308432</v>
       </c>
       <c r="D122" t="n">
-        <v>0.19752</v>
+        <v>0.198547</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.49285</v>
+        <v>0.510372</v>
       </c>
       <c r="C123" t="n">
-        <v>0.404765</v>
+        <v>0.390189</v>
       </c>
       <c r="D123" t="n">
-        <v>0.136224</v>
+        <v>0.13875</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.197525</v>
+        <v>0.195238</v>
       </c>
       <c r="C124" t="n">
-        <v>0.164496</v>
+        <v>0.162648</v>
       </c>
       <c r="D124" t="n">
-        <v>0.139748</v>
+        <v>0.145206</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.203048</v>
+        <v>0.204465</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164053</v>
+        <v>0.168831</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141579</v>
+        <v>0.141975</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.19666</v>
+        <v>0.199522</v>
       </c>
       <c r="C126" t="n">
-        <v>0.169725</v>
+        <v>0.171393</v>
       </c>
       <c r="D126" t="n">
-        <v>0.145267</v>
+        <v>0.142814</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.203583</v>
+        <v>0.20041</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17101</v>
+        <v>0.173726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.145394</v>
+        <v>0.144608</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.208548</v>
+        <v>0.208479</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181088</v>
+        <v>0.179429</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148512</v>
+        <v>0.149374</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217782</v>
+        <v>0.215786</v>
       </c>
       <c r="C129" t="n">
-        <v>0.183887</v>
+        <v>0.185268</v>
       </c>
       <c r="D129" t="n">
-        <v>0.151195</v>
+        <v>0.151236</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.227225</v>
+        <v>0.234685</v>
       </c>
       <c r="C130" t="n">
-        <v>0.190969</v>
+        <v>0.189173</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153513</v>
+        <v>0.155699</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24957</v>
+        <v>0.237279</v>
       </c>
       <c r="C131" t="n">
-        <v>0.201825</v>
+        <v>0.200544</v>
       </c>
       <c r="D131" t="n">
-        <v>0.15698</v>
+        <v>0.158734</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.254214</v>
+        <v>0.254428</v>
       </c>
       <c r="C132" t="n">
-        <v>0.209826</v>
+        <v>0.210753</v>
       </c>
       <c r="D132" t="n">
-        <v>0.16222</v>
+        <v>0.166006</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.280297</v>
+        <v>0.279891</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227626</v>
+        <v>0.224861</v>
       </c>
       <c r="D133" t="n">
-        <v>0.170536</v>
+        <v>0.177376</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.305092</v>
+        <v>0.302638</v>
       </c>
       <c r="C134" t="n">
-        <v>0.244936</v>
+        <v>0.249032</v>
       </c>
       <c r="D134" t="n">
-        <v>0.181354</v>
+        <v>0.181237</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.348305</v>
+        <v>0.348876</v>
       </c>
       <c r="C135" t="n">
-        <v>0.275384</v>
+        <v>0.287122</v>
       </c>
       <c r="D135" t="n">
-        <v>0.18994</v>
+        <v>0.192605</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.416023</v>
+        <v>0.412453</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322199</v>
+        <v>0.323579</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212328</v>
+        <v>0.211586</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.519198</v>
+        <v>0.513852</v>
       </c>
       <c r="C137" t="n">
-        <v>0.39905</v>
+        <v>0.415346</v>
       </c>
       <c r="D137" t="n">
-        <v>0.250228</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.331342</v>
+        <v>0.329126</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269246</v>
+        <v>0.27073</v>
       </c>
       <c r="D138" t="n">
-        <v>0.251004</v>
+        <v>0.253816</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334874</v>
+        <v>0.332739</v>
       </c>
       <c r="C139" t="n">
-        <v>0.276768</v>
+        <v>0.272557</v>
       </c>
       <c r="D139" t="n">
-        <v>0.252762</v>
+        <v>0.255266</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.343522</v>
+        <v>0.343797</v>
       </c>
       <c r="C140" t="n">
-        <v>0.274864</v>
+        <v>0.278238</v>
       </c>
       <c r="D140" t="n">
-        <v>0.253555</v>
+        <v>0.25954</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346751</v>
+        <v>0.341911</v>
       </c>
       <c r="C141" t="n">
-        <v>0.278787</v>
+        <v>0.283113</v>
       </c>
       <c r="D141" t="n">
-        <v>0.257575</v>
+        <v>0.258498</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.360863</v>
+        <v>0.352787</v>
       </c>
       <c r="C142" t="n">
-        <v>0.283181</v>
+        <v>0.288865</v>
       </c>
       <c r="D142" t="n">
-        <v>0.26054</v>
+        <v>0.263627</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.357076</v>
+        <v>0.359564</v>
       </c>
       <c r="C143" t="n">
-        <v>0.287925</v>
+        <v>0.2904</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262794</v>
+        <v>0.264197</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1035</v>
+        <v>0.103449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0614509</v>
+        <v>0.0612082</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07059609999999999</v>
+        <v>0.0703251</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111707</v>
+        <v>0.11082</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0624156</v>
+        <v>0.0621882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0697538</v>
+        <v>0.06964819999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122302</v>
+        <v>0.122532</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0652609</v>
+        <v>0.0654875</v>
       </c>
       <c r="D4" t="n">
-        <v>0.069275</v>
+        <v>0.06905940000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143367</v>
+        <v>0.143024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07349899999999999</v>
+        <v>0.07395259999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0698332</v>
+        <v>0.06996239999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.17032</v>
+        <v>0.170167</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08852980000000001</v>
+        <v>0.0897042</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0713316</v>
+        <v>0.0712713</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205508</v>
+        <v>0.20507</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112047</v>
+        <v>0.112135</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0746893</v>
+        <v>0.07453600000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252926</v>
+        <v>0.252967</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152155</v>
+        <v>0.152429</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08821370000000001</v>
+        <v>0.0887956</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305599</v>
+        <v>0.305727</v>
       </c>
       <c r="C9" t="n">
-        <v>0.204186</v>
+        <v>0.190427</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07054390000000001</v>
+        <v>0.07038999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0952103</v>
+        <v>0.0949619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0630058</v>
+        <v>0.0632461</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07086240000000001</v>
+        <v>0.07049709999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0962244</v>
+        <v>0.0959274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0627178</v>
+        <v>0.06283270000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0707938</v>
+        <v>0.0705934</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09755510000000001</v>
+        <v>0.0975847</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0633819</v>
+        <v>0.0621155</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0708464</v>
+        <v>0.0707484</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100142</v>
+        <v>0.09982870000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0633012</v>
+        <v>0.06283469999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07113220000000001</v>
+        <v>0.07106079999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102749</v>
+        <v>0.102964</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0636386</v>
+        <v>0.0631777</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0713101</v>
+        <v>0.0712429</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10691</v>
+        <v>0.107076</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06366339999999999</v>
+        <v>0.0635487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07146950000000001</v>
+        <v>0.0713998</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112639</v>
+        <v>0.112367</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0670384</v>
+        <v>0.06742720000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0718231</v>
+        <v>0.0719359</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121301</v>
+        <v>0.121292</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0708635</v>
+        <v>0.07110089999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07208489999999999</v>
+        <v>0.07223069999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133089</v>
+        <v>0.134048</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0806374</v>
+        <v>0.0803672</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07288509999999999</v>
+        <v>0.07214</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149867</v>
+        <v>0.149861</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0915161</v>
+        <v>0.09132469999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0731217</v>
+        <v>0.07361520000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171589</v>
+        <v>0.170878</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104222</v>
+        <v>0.104041</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0766331</v>
+        <v>0.0770105</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198254</v>
+        <v>0.198615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.120633</v>
+        <v>0.121187</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08668240000000001</v>
+        <v>0.08527999999999999</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241577</v>
+        <v>0.238906</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154774</v>
+        <v>0.154667</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1028</v>
+        <v>0.103366</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286556</v>
+        <v>0.292211</v>
       </c>
       <c r="C23" t="n">
-        <v>0.19603</v>
+        <v>0.195843</v>
       </c>
       <c r="D23" t="n">
-        <v>0.072467</v>
+        <v>0.0725793</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100585</v>
+        <v>0.100723</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665332</v>
+        <v>0.06652130000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0725639</v>
+        <v>0.0725488</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101826</v>
+        <v>0.102003</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0666307</v>
+        <v>0.06642439999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0727722</v>
+        <v>0.0727976</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103474</v>
+        <v>0.103607</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0669278</v>
+        <v>0.0670712</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07300139999999999</v>
+        <v>0.0729563</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105433</v>
+        <v>0.105444</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0676131</v>
+        <v>0.06750829999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0733345</v>
+        <v>0.0732453</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108788</v>
+        <v>0.109004</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0687971</v>
+        <v>0.0687668</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0735677</v>
+        <v>0.0735765</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113377</v>
+        <v>0.113494</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0706846</v>
+        <v>0.07050430000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0749093</v>
+        <v>0.0737522</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.122742</v>
+        <v>0.119773</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0743986</v>
+        <v>0.07410219999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0743014</v>
+        <v>0.0741855</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.130337</v>
+        <v>0.127347</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0796712</v>
+        <v>0.0789344</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0764706</v>
+        <v>0.0748074</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139305</v>
+        <v>0.137407</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0854249</v>
+        <v>0.0848506</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0774161</v>
+        <v>0.07547420000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.153019</v>
+        <v>0.150396</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0934923</v>
+        <v>0.0928494</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07827530000000001</v>
+        <v>0.07793269999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.16834</v>
+        <v>0.168451</v>
       </c>
       <c r="C34" t="n">
-        <v>0.10564</v>
+        <v>0.10561</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0925039</v>
+        <v>0.0831808</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196472</v>
+        <v>0.195021</v>
       </c>
       <c r="C35" t="n">
-        <v>0.12358</v>
+        <v>0.123204</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09665360000000001</v>
+        <v>0.091637</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236494</v>
+        <v>0.238361</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148011</v>
+        <v>0.147506</v>
       </c>
       <c r="D36" t="n">
-        <v>0.105554</v>
+        <v>0.103521</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.291306</v>
+        <v>0.296053</v>
       </c>
       <c r="C37" t="n">
-        <v>0.209089</v>
+        <v>0.190357</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0738125</v>
+        <v>0.0737462</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104691</v>
+        <v>0.103514</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07406500000000001</v>
+        <v>0.06912790000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08492769999999999</v>
+        <v>0.07389759999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109412</v>
+        <v>0.105614</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0702357</v>
+        <v>0.0697807</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0852005</v>
+        <v>0.0740832</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108184</v>
+        <v>0.107577</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0793541</v>
+        <v>0.07099469999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0840578</v>
+        <v>0.0745635</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.114418</v>
+        <v>0.109066</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0724144</v>
+        <v>0.0719335</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0753814</v>
+        <v>0.0748962</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.11303</v>
+        <v>0.112168</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07362730000000001</v>
+        <v>0.0735344</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0865793</v>
+        <v>0.0751013</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116406</v>
+        <v>0.116573</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07602349999999999</v>
+        <v>0.07578219999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0754837</v>
+        <v>0.07553609999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.123617</v>
+        <v>0.122407</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0789429</v>
+        <v>0.078233</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0770733</v>
+        <v>0.07619190000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129193</v>
+        <v>0.129257</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08192049999999999</v>
+        <v>0.0816713</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07716820000000001</v>
+        <v>0.0770446</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139533</v>
+        <v>0.138221</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08678669999999999</v>
+        <v>0.0865023</v>
       </c>
       <c r="D46" t="n">
-        <v>0.079404</v>
+        <v>0.07858950000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152342</v>
+        <v>0.150709</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09338200000000001</v>
+        <v>0.0930899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08108269999999999</v>
+        <v>0.08090079999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1709</v>
+        <v>0.169239</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102766</v>
+        <v>0.10251</v>
       </c>
       <c r="D48" t="n">
-        <v>0.093917</v>
+        <v>0.0849921</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195485</v>
+        <v>0.19174</v>
       </c>
       <c r="C49" t="n">
-        <v>0.126201</v>
+        <v>0.116264</v>
       </c>
       <c r="D49" t="n">
-        <v>0.100011</v>
+        <v>0.0906222</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22711</v>
+        <v>0.224876</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138252</v>
+        <v>0.137974</v>
       </c>
       <c r="D50" t="n">
-        <v>0.105439</v>
+        <v>0.0995061</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27966</v>
+        <v>0.274661</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172778</v>
+        <v>0.172765</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0903347</v>
+        <v>0.07550080000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334617</v>
+        <v>0.324795</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227704</v>
+        <v>0.227675</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0765917</v>
+        <v>0.0762442</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.119921</v>
+        <v>0.108769</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07973239999999999</v>
+        <v>0.08212700000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0870756</v>
+        <v>0.0777335</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114315</v>
+        <v>0.110917</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0799298</v>
+        <v>0.0760764</v>
       </c>
       <c r="D54" t="n">
-        <v>0.086854</v>
+        <v>0.0818131</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.12296</v>
+        <v>0.114889</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08195620000000001</v>
+        <v>0.07617740000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08781369999999999</v>
+        <v>0.0783769</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119487</v>
+        <v>0.116398</v>
       </c>
       <c r="C56" t="n">
-        <v>0.09079280000000001</v>
+        <v>0.07718990000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0793478</v>
+        <v>0.0779683</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.122625</v>
+        <v>0.119205</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0814759</v>
+        <v>0.0789424</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0886362</v>
+        <v>0.08746039999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.129512</v>
+        <v>0.125169</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0881272</v>
+        <v>0.0813822</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0798336</v>
+        <v>0.07913100000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.135045</v>
+        <v>0.130607</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0935732</v>
+        <v>0.08431569999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09145349999999999</v>
+        <v>0.0802673</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142728</v>
+        <v>0.138468</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0886752</v>
+        <v>0.0881026</v>
       </c>
       <c r="D60" t="n">
-        <v>0.091187</v>
+        <v>0.08128870000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.160836</v>
+        <v>0.149458</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0947051</v>
+        <v>0.09431779999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0843038</v>
+        <v>0.08341519999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166322</v>
+        <v>0.171751</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103584</v>
+        <v>0.103127</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0979382</v>
+        <v>0.086743</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191164</v>
+        <v>0.186482</v>
       </c>
       <c r="C63" t="n">
-        <v>0.122806</v>
+        <v>0.116262</v>
       </c>
       <c r="D63" t="n">
-        <v>0.102482</v>
+        <v>0.0914546</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.222869</v>
+        <v>0.231851</v>
       </c>
       <c r="C64" t="n">
-        <v>0.147104</v>
+        <v>0.136699</v>
       </c>
       <c r="D64" t="n">
-        <v>0.109156</v>
+        <v>0.0999834</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261709</v>
+        <v>0.258931</v>
       </c>
       <c r="C65" t="n">
-        <v>0.181967</v>
+        <v>0.169948</v>
       </c>
       <c r="D65" t="n">
-        <v>0.123339</v>
+        <v>0.114661</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.328125</v>
+        <v>0.329243</v>
       </c>
       <c r="C66" t="n">
-        <v>0.235565</v>
+        <v>0.220661</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0838021</v>
+        <v>0.0828783</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130238</v>
+        <v>0.121067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09223099999999999</v>
+        <v>0.0805878</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0873724</v>
+        <v>0.0829498</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.122588</v>
+        <v>0.12325</v>
       </c>
       <c r="C68" t="n">
-        <v>0.089548</v>
+        <v>0.0818739</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0850626</v>
+        <v>0.0836017</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125601</v>
+        <v>0.124881</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0925631</v>
+        <v>0.0885229</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0846793</v>
+        <v>0.0847146</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.136824</v>
+        <v>0.12813</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0950257</v>
+        <v>0.08432240000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0888038</v>
+        <v>0.085011</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.14158</v>
+        <v>0.132248</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0922847</v>
+        <v>0.0889514</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0897968</v>
+        <v>0.0848805</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135676</v>
+        <v>0.13707</v>
       </c>
       <c r="C72" t="n">
-        <v>0.094684</v>
+        <v>0.08794929999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0870412</v>
+        <v>0.0861973</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.152264</v>
+        <v>0.141695</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0924543</v>
+        <v>0.0924862</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0874272</v>
+        <v>0.09146840000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150059</v>
+        <v>0.150209</v>
       </c>
       <c r="C74" t="n">
-        <v>0.102846</v>
+        <v>0.09648950000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0890059</v>
+        <v>0.0889199</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.164987</v>
+        <v>0.1613</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101803</v>
+        <v>0.101519</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0914575</v>
+        <v>0.09072760000000001</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.178913</v>
+        <v>0.17914</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11909</v>
+        <v>0.110336</v>
       </c>
       <c r="D76" t="n">
-        <v>0.102606</v>
+        <v>0.0938618</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196747</v>
+        <v>0.195453</v>
       </c>
       <c r="C77" t="n">
-        <v>0.126338</v>
+        <v>0.129334</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09943630000000001</v>
+        <v>0.0988516</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.229053</v>
+        <v>0.224317</v>
       </c>
       <c r="C78" t="n">
-        <v>0.155447</v>
+        <v>0.139699</v>
       </c>
       <c r="D78" t="n">
-        <v>0.105703</v>
+        <v>0.105158</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266829</v>
+        <v>0.266597</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184647</v>
+        <v>0.170378</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119857</v>
+        <v>0.125835</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321093</v>
+        <v>0.324809</v>
       </c>
       <c r="C80" t="n">
-        <v>0.222711</v>
+        <v>0.217093</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0919817</v>
+        <v>0.0912307</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145313</v>
+        <v>0.135327</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09696970000000001</v>
+        <v>0.0905671</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09244810000000001</v>
+        <v>0.0920381</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137167</v>
+        <v>0.136992</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0932688</v>
+        <v>0.0920155</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09295059999999999</v>
+        <v>0.0928887</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.142791</v>
+        <v>0.139435</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0949159</v>
+        <v>0.0967568</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0945694</v>
+        <v>0.09349250000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151977</v>
+        <v>0.142329</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0974174</v>
+        <v>0.0965811</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0952543</v>
+        <v>0.0942998</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.154826</v>
+        <v>0.146469</v>
       </c>
       <c r="C85" t="n">
-        <v>0.09988610000000001</v>
+        <v>0.0994782</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0964436</v>
+        <v>0.0951121</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.154643</v>
+        <v>0.150912</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107821</v>
+        <v>0.109937</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09739970000000001</v>
+        <v>0.09707730000000001</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.169178</v>
+        <v>0.157633</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108913</v>
+        <v>0.108059</v>
       </c>
       <c r="D87" t="n">
-        <v>0.09930750000000001</v>
+        <v>0.100583</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.176669</v>
+        <v>0.168726</v>
       </c>
       <c r="C88" t="n">
-        <v>0.114959</v>
+        <v>0.114474</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101564</v>
+        <v>0.102285</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177485</v>
+        <v>0.184589</v>
       </c>
       <c r="C89" t="n">
-        <v>0.127382</v>
+        <v>0.122235</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104417</v>
+        <v>0.104168</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204208</v>
+        <v>0.193943</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132755</v>
+        <v>0.139966</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108281</v>
+        <v>0.107662</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.217825</v>
+        <v>0.226873</v>
       </c>
       <c r="C91" t="n">
-        <v>0.14679</v>
+        <v>0.155027</v>
       </c>
       <c r="D91" t="n">
-        <v>0.112628</v>
+        <v>0.119455</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24435</v>
+        <v>0.244447</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166037</v>
+        <v>0.167528</v>
       </c>
       <c r="D92" t="n">
-        <v>0.12241</v>
+        <v>0.122459</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.29369</v>
+        <v>0.296216</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196384</v>
+        <v>0.207983</v>
       </c>
       <c r="D93" t="n">
-        <v>0.135922</v>
+        <v>0.1364</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.355715</v>
+        <v>0.349722</v>
       </c>
       <c r="C94" t="n">
-        <v>0.271563</v>
+        <v>0.245866</v>
       </c>
       <c r="D94" t="n">
-        <v>0.111846</v>
+        <v>0.103854</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149908</v>
+        <v>0.150091</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113027</v>
+        <v>0.113486</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105148</v>
+        <v>0.105671</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.161326</v>
+        <v>0.161863</v>
       </c>
       <c r="C96" t="n">
-        <v>0.120002</v>
+        <v>0.11364</v>
       </c>
       <c r="D96" t="n">
-        <v>0.108374</v>
+        <v>0.107213</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.166213</v>
+        <v>0.164792</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11875</v>
+        <v>0.119179</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10865</v>
+        <v>0.10903</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170621</v>
+        <v>0.160184</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119808</v>
+        <v>0.122146</v>
       </c>
       <c r="D98" t="n">
-        <v>0.108671</v>
+        <v>0.119228</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.169404</v>
+        <v>0.1652</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125774</v>
+        <v>0.123087</v>
       </c>
       <c r="D99" t="n">
-        <v>0.111344</v>
+        <v>0.11095</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.171093</v>
+        <v>0.172203</v>
       </c>
       <c r="C100" t="n">
-        <v>0.13024</v>
+        <v>0.130386</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114552</v>
+        <v>0.114884</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.180321</v>
+        <v>0.181217</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135541</v>
+        <v>0.135868</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116915</v>
+        <v>0.116891</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186563</v>
+        <v>0.188273</v>
       </c>
       <c r="C102" t="n">
-        <v>0.143021</v>
+        <v>0.142764</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119234</v>
+        <v>0.121274</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.209124</v>
+        <v>0.197904</v>
       </c>
       <c r="C103" t="n">
-        <v>0.151121</v>
+        <v>0.151819</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122607</v>
+        <v>0.120956</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.213962</v>
+        <v>0.212772</v>
       </c>
       <c r="C104" t="n">
-        <v>0.164308</v>
+        <v>0.163433</v>
       </c>
       <c r="D104" t="n">
-        <v>0.12522</v>
+        <v>0.124812</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.238677</v>
+        <v>0.232909</v>
       </c>
       <c r="C105" t="n">
-        <v>0.17842</v>
+        <v>0.178862</v>
       </c>
       <c r="D105" t="n">
-        <v>0.131986</v>
+        <v>0.132301</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270242</v>
+        <v>0.261941</v>
       </c>
       <c r="C106" t="n">
-        <v>0.19735</v>
+        <v>0.198182</v>
       </c>
       <c r="D106" t="n">
-        <v>0.144891</v>
+        <v>0.140181</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.308675</v>
+        <v>0.321455</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241896</v>
+        <v>0.236647</v>
       </c>
       <c r="D107" t="n">
-        <v>0.15394</v>
+        <v>0.154355</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.389797</v>
+        <v>0.372291</v>
       </c>
       <c r="C108" t="n">
-        <v>0.291083</v>
+        <v>0.285029</v>
       </c>
       <c r="D108" t="n">
-        <v>0.113215</v>
+        <v>0.120724</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.476307</v>
+        <v>0.47563</v>
       </c>
       <c r="C109" t="n">
-        <v>0.387835</v>
+        <v>0.388387</v>
       </c>
       <c r="D109" t="n">
-        <v>0.114149</v>
+        <v>0.114388</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161986</v>
+        <v>0.162079</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13498</v>
+        <v>0.13443</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115398</v>
+        <v>0.11537</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.173398</v>
+        <v>0.164525</v>
       </c>
       <c r="C111" t="n">
-        <v>0.138668</v>
+        <v>0.138605</v>
       </c>
       <c r="D111" t="n">
-        <v>0.116937</v>
+        <v>0.117056</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.16887</v>
+        <v>0.175527</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143412</v>
+        <v>0.14329</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118511</v>
+        <v>0.118782</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173994</v>
+        <v>0.177881</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148616</v>
+        <v>0.148311</v>
       </c>
       <c r="D113" t="n">
-        <v>0.12031</v>
+        <v>0.120853</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.179743</v>
+        <v>0.179785</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153933</v>
+        <v>0.154011</v>
       </c>
       <c r="D114" t="n">
-        <v>0.122889</v>
+        <v>0.123465</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.18791</v>
+        <v>0.187947</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160336</v>
+        <v>0.160177</v>
       </c>
       <c r="D115" t="n">
-        <v>0.126111</v>
+        <v>0.125864</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.201635</v>
+        <v>0.198306</v>
       </c>
       <c r="C116" t="n">
-        <v>0.167963</v>
+        <v>0.168085</v>
       </c>
       <c r="D116" t="n">
-        <v>0.129169</v>
+        <v>0.129634</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212125</v>
+        <v>0.212392</v>
       </c>
       <c r="C117" t="n">
-        <v>0.177497</v>
+        <v>0.177684</v>
       </c>
       <c r="D117" t="n">
-        <v>0.140423</v>
+        <v>0.134449</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.237997</v>
+        <v>0.230229</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189859</v>
+        <v>0.188685</v>
       </c>
       <c r="D118" t="n">
-        <v>0.139672</v>
+        <v>0.140191</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.26157</v>
+        <v>0.255659</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205768</v>
+        <v>0.20544</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148383</v>
+        <v>0.148907</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.292864</v>
+        <v>0.29148</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227112</v>
+        <v>0.22692</v>
       </c>
       <c r="D120" t="n">
-        <v>0.159247</v>
+        <v>0.162435</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.3376</v>
+        <v>0.330763</v>
       </c>
       <c r="C121" t="n">
-        <v>0.257035</v>
+        <v>0.266313</v>
       </c>
       <c r="D121" t="n">
-        <v>0.174477</v>
+        <v>0.17421</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.399266</v>
+        <v>0.406297</v>
       </c>
       <c r="C122" t="n">
-        <v>0.308432</v>
+        <v>0.309241</v>
       </c>
       <c r="D122" t="n">
-        <v>0.198547</v>
+        <v>0.197701</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.510372</v>
+        <v>0.493768</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390189</v>
+        <v>0.407111</v>
       </c>
       <c r="D123" t="n">
-        <v>0.13875</v>
+        <v>0.136397</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.195238</v>
+        <v>0.197505</v>
       </c>
       <c r="C124" t="n">
-        <v>0.162648</v>
+        <v>0.163419</v>
       </c>
       <c r="D124" t="n">
-        <v>0.145206</v>
+        <v>0.146715</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.204465</v>
+        <v>0.193674</v>
       </c>
       <c r="C125" t="n">
-        <v>0.168831</v>
+        <v>0.164937</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141975</v>
+        <v>0.145629</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.199522</v>
+        <v>0.197939</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171393</v>
+        <v>0.172004</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142814</v>
+        <v>0.15159</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.20041</v>
+        <v>0.202148</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173726</v>
+        <v>0.174161</v>
       </c>
       <c r="D127" t="n">
-        <v>0.144608</v>
+        <v>0.154052</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.208479</v>
+        <v>0.209717</v>
       </c>
       <c r="C128" t="n">
-        <v>0.179429</v>
+        <v>0.178141</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149374</v>
+        <v>0.149677</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215786</v>
+        <v>0.214742</v>
       </c>
       <c r="C129" t="n">
-        <v>0.185268</v>
+        <v>0.184029</v>
       </c>
       <c r="D129" t="n">
-        <v>0.151236</v>
+        <v>0.151392</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.234685</v>
+        <v>0.225932</v>
       </c>
       <c r="C130" t="n">
-        <v>0.189173</v>
+        <v>0.191084</v>
       </c>
       <c r="D130" t="n">
-        <v>0.155699</v>
+        <v>0.15673</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.237279</v>
+        <v>0.252775</v>
       </c>
       <c r="C131" t="n">
-        <v>0.200544</v>
+        <v>0.199904</v>
       </c>
       <c r="D131" t="n">
-        <v>0.158734</v>
+        <v>0.158765</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.254428</v>
+        <v>0.255644</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210753</v>
+        <v>0.212831</v>
       </c>
       <c r="D132" t="n">
-        <v>0.166006</v>
+        <v>0.171456</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279891</v>
+        <v>0.276589</v>
       </c>
       <c r="C133" t="n">
-        <v>0.224861</v>
+        <v>0.229887</v>
       </c>
       <c r="D133" t="n">
-        <v>0.177376</v>
+        <v>0.168728</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.302638</v>
+        <v>0.314415</v>
       </c>
       <c r="C134" t="n">
-        <v>0.249032</v>
+        <v>0.251448</v>
       </c>
       <c r="D134" t="n">
-        <v>0.181237</v>
+        <v>0.177868</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.348876</v>
+        <v>0.353978</v>
       </c>
       <c r="C135" t="n">
-        <v>0.287122</v>
+        <v>0.278303</v>
       </c>
       <c r="D135" t="n">
-        <v>0.192605</v>
+        <v>0.19119</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.412453</v>
+        <v>0.411369</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323579</v>
+        <v>0.335104</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211586</v>
+        <v>0.21233</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.513852</v>
+        <v>0.515726</v>
       </c>
       <c r="C137" t="n">
-        <v>0.415346</v>
+        <v>0.401922</v>
       </c>
       <c r="D137" t="n">
-        <v>0.2522</v>
+        <v>0.253768</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329126</v>
+        <v>0.329308</v>
       </c>
       <c r="C138" t="n">
-        <v>0.27073</v>
+        <v>0.269975</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253816</v>
+        <v>0.250417</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.332739</v>
+        <v>0.333811</v>
       </c>
       <c r="C139" t="n">
-        <v>0.272557</v>
+        <v>0.273004</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255266</v>
+        <v>0.25479</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.343797</v>
+        <v>0.338242</v>
       </c>
       <c r="C140" t="n">
-        <v>0.278238</v>
+        <v>0.275986</v>
       </c>
       <c r="D140" t="n">
-        <v>0.25954</v>
+        <v>0.257513</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.341911</v>
+        <v>0.345201</v>
       </c>
       <c r="C141" t="n">
-        <v>0.283113</v>
+        <v>0.280152</v>
       </c>
       <c r="D141" t="n">
-        <v>0.258498</v>
+        <v>0.262497</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.352787</v>
+        <v>0.350941</v>
       </c>
       <c r="C142" t="n">
-        <v>0.288865</v>
+        <v>0.284287</v>
       </c>
       <c r="D142" t="n">
-        <v>0.263627</v>
+        <v>0.261361</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.359564</v>
+        <v>0.357907</v>
       </c>
       <c r="C143" t="n">
-        <v>0.2904</v>
+        <v>0.29043</v>
       </c>
       <c r="D143" t="n">
-        <v>0.264197</v>
+        <v>0.266846</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103449</v>
+        <v>0.103378</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612082</v>
+        <v>0.0615682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0703251</v>
+        <v>0.0703874</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11082</v>
+        <v>0.111111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0621882</v>
+        <v>0.0625892</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06964819999999999</v>
+        <v>0.0696917</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122532</v>
+        <v>0.122511</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0654875</v>
+        <v>0.0656706</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06905940000000001</v>
+        <v>0.0690866</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143024</v>
+        <v>0.143037</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07395259999999999</v>
+        <v>0.0732462</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06996239999999999</v>
+        <v>0.0699891</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170167</v>
+        <v>0.170643</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0897042</v>
+        <v>0.0896448</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0712713</v>
+        <v>0.07115109999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20507</v>
+        <v>0.205481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112135</v>
+        <v>0.111916</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07453600000000001</v>
+        <v>0.0751318</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252967</v>
+        <v>0.252985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152429</v>
+        <v>0.152368</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0887956</v>
+        <v>0.0889392</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305727</v>
+        <v>0.305834</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190427</v>
+        <v>0.190753</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07038999999999999</v>
+        <v>0.0706498</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0949619</v>
+        <v>0.09493020000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0632461</v>
+        <v>0.0631818</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07049709999999999</v>
+        <v>0.0711381</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0959274</v>
+        <v>0.09559280000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06283270000000001</v>
+        <v>0.0619802</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0705934</v>
+        <v>0.07117420000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0975847</v>
+        <v>0.09745470000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0621155</v>
+        <v>0.0622902</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0707484</v>
+        <v>0.0713033</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09982870000000001</v>
+        <v>0.100034</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06283469999999999</v>
+        <v>0.0628975</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07106079999999999</v>
+        <v>0.071358</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102964</v>
+        <v>0.102849</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0631777</v>
+        <v>0.06317589999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0712429</v>
+        <v>0.0714462</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107076</v>
+        <v>0.107179</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635487</v>
+        <v>0.063651</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0713998</v>
+        <v>0.0717401</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112367</v>
+        <v>0.11238</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06742720000000001</v>
+        <v>0.06738</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0719359</v>
+        <v>0.07191450000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121292</v>
+        <v>0.121701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07110089999999999</v>
+        <v>0.0710925</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07223069999999999</v>
+        <v>0.07202600000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134048</v>
+        <v>0.133171</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0803672</v>
+        <v>0.080253</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07214</v>
+        <v>0.0726744</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149861</v>
+        <v>0.149597</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09132469999999999</v>
+        <v>0.09154370000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07361520000000001</v>
+        <v>0.0735422</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170878</v>
+        <v>0.171673</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104041</v>
+        <v>0.104286</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0770105</v>
+        <v>0.0771548</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198615</v>
+        <v>0.204043</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121187</v>
+        <v>0.121186</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08527999999999999</v>
+        <v>0.0855863</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.238906</v>
+        <v>0.239078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154667</v>
+        <v>0.154696</v>
       </c>
       <c r="D22" t="n">
-        <v>0.103366</v>
+        <v>0.102702</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.292211</v>
+        <v>0.291149</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195843</v>
+        <v>0.195685</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0725793</v>
+        <v>0.07312349999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100723</v>
+        <v>0.10522</v>
       </c>
       <c r="C24" t="n">
-        <v>0.06652130000000001</v>
+        <v>0.0670803</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0725488</v>
+        <v>0.07381799999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102003</v>
+        <v>0.103743</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06642439999999999</v>
+        <v>0.06642290000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0727976</v>
+        <v>0.07685649999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103607</v>
+        <v>0.110301</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0670712</v>
+        <v>0.07096719999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0729563</v>
+        <v>0.0854982</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105444</v>
+        <v>0.107737</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06750829999999999</v>
+        <v>0.0685104</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0732453</v>
+        <v>0.0884818</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109004</v>
+        <v>0.11767</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0687668</v>
+        <v>0.0739262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0735765</v>
+        <v>0.0786998</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113494</v>
+        <v>0.116303</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07050430000000001</v>
+        <v>0.0791216</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0737522</v>
+        <v>0.0782611</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119773</v>
+        <v>0.121165</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07410219999999999</v>
+        <v>0.0746792</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0741855</v>
+        <v>0.0867305</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127347</v>
+        <v>0.129572</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0789344</v>
+        <v>0.07948810000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0748074</v>
+        <v>0.0831712</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137407</v>
+        <v>0.144231</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0848506</v>
+        <v>0.0851132</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07547420000000001</v>
+        <v>0.0776579</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150396</v>
+        <v>0.150567</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0928494</v>
+        <v>0.09294719999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.07793269999999999</v>
+        <v>0.0793502</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168451</v>
+        <v>0.177179</v>
       </c>
       <c r="C34" t="n">
-        <v>0.10561</v>
+        <v>0.116079</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0831808</v>
+        <v>0.0845316</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195021</v>
+        <v>0.202882</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123204</v>
+        <v>0.133659</v>
       </c>
       <c r="D35" t="n">
-        <v>0.091637</v>
+        <v>0.09257170000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238361</v>
+        <v>0.238866</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147506</v>
+        <v>0.148505</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103521</v>
+        <v>0.114392</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.296053</v>
+        <v>0.290777</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190357</v>
+        <v>0.190714</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0737462</v>
+        <v>0.0807734</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103514</v>
+        <v>0.107883</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06912790000000001</v>
+        <v>0.0728424</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07389759999999999</v>
+        <v>0.0758596</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105614</v>
+        <v>0.107244</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0697807</v>
+        <v>0.0703187</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0740832</v>
+        <v>0.07566489999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107577</v>
+        <v>0.11153</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07099469999999999</v>
+        <v>0.0711416</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0745635</v>
+        <v>0.0757656</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109066</v>
+        <v>0.113666</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0719335</v>
+        <v>0.0778359</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0748962</v>
+        <v>0.074881</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112168</v>
+        <v>0.115155</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0735344</v>
+        <v>0.0815852</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0751013</v>
+        <v>0.08623169999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116573</v>
+        <v>0.12216</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07578219999999999</v>
+        <v>0.0815449</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07553609999999999</v>
+        <v>0.0759156</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122407</v>
+        <v>0.123893</v>
       </c>
       <c r="C44" t="n">
-        <v>0.078233</v>
+        <v>0.0785238</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07619190000000001</v>
+        <v>0.0876357</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129257</v>
+        <v>0.132371</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0816713</v>
+        <v>0.0818667</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0770446</v>
+        <v>0.0785405</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138221</v>
+        <v>0.14835</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0865023</v>
+        <v>0.08673119999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07858950000000001</v>
+        <v>0.0790343</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150709</v>
+        <v>0.155531</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0930899</v>
+        <v>0.0933274</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08090079999999999</v>
+        <v>0.0811364</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169239</v>
+        <v>0.175234</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10251</v>
+        <v>0.102711</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0849921</v>
+        <v>0.08573020000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19174</v>
+        <v>0.198476</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116264</v>
+        <v>0.116498</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0906222</v>
+        <v>0.0908617</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224876</v>
+        <v>0.241318</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137974</v>
+        <v>0.138576</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0995061</v>
+        <v>0.10139</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.274661</v>
+        <v>0.27991</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172765</v>
+        <v>0.180441</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07550080000000001</v>
+        <v>0.0769439</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.324795</v>
+        <v>0.329687</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227675</v>
+        <v>0.22863</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0762442</v>
+        <v>0.08647729999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108769</v>
+        <v>0.111909</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08212700000000001</v>
+        <v>0.0817871</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0777335</v>
+        <v>0.0774977</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110917</v>
+        <v>0.113277</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0760764</v>
+        <v>0.0824756</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0818131</v>
+        <v>0.08546090000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.114889</v>
+        <v>0.113921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07617740000000001</v>
+        <v>0.0871893</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0783769</v>
+        <v>0.0808017</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116398</v>
+        <v>0.117472</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07718990000000001</v>
+        <v>0.08559269999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0779683</v>
+        <v>0.0879557</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119205</v>
+        <v>0.134687</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0789424</v>
+        <v>0.08516319999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08746039999999999</v>
+        <v>0.07877489999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125169</v>
+        <v>0.130208</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0813822</v>
+        <v>0.0863109</v>
       </c>
       <c r="D58" t="n">
-        <v>0.07913100000000001</v>
+        <v>0.08951779999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130607</v>
+        <v>0.134864</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08431569999999999</v>
+        <v>0.0901313</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0802673</v>
+        <v>0.0911488</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138468</v>
+        <v>0.141108</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0881026</v>
+        <v>0.0979247</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08128870000000001</v>
+        <v>0.0821003</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149458</v>
+        <v>0.152897</v>
       </c>
       <c r="C61" t="n">
-        <v>0.09431779999999999</v>
+        <v>0.101768</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08341519999999999</v>
+        <v>0.08473600000000001</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171751</v>
+        <v>0.178076</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103127</v>
+        <v>0.112697</v>
       </c>
       <c r="D62" t="n">
-        <v>0.086743</v>
+        <v>0.0979449</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186482</v>
+        <v>0.193366</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116262</v>
+        <v>0.125427</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0914546</v>
+        <v>0.0928792</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.231851</v>
+        <v>0.22623</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136699</v>
+        <v>0.136831</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0999834</v>
+        <v>0.110174</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258931</v>
+        <v>0.283509</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169948</v>
+        <v>0.184461</v>
       </c>
       <c r="D65" t="n">
-        <v>0.114661</v>
+        <v>0.126382</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.329243</v>
+        <v>0.327134</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220661</v>
+        <v>0.240147</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0828783</v>
+        <v>0.0840313</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121067</v>
+        <v>0.131658</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0805878</v>
+        <v>0.08805549999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0829498</v>
+        <v>0.0840675</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.12325</v>
+        <v>0.124522</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0818739</v>
+        <v>0.0877925</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0836017</v>
+        <v>0.0842729</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.124881</v>
+        <v>0.127697</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0885229</v>
+        <v>0.0876266</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0847146</v>
+        <v>0.08578379999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.12813</v>
+        <v>0.130541</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08432240000000001</v>
+        <v>0.09228450000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.085011</v>
+        <v>0.08548890000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132248</v>
+        <v>0.13201</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0889514</v>
+        <v>0.087307</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0848805</v>
+        <v>0.0873775</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13707</v>
+        <v>0.147249</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08794929999999999</v>
+        <v>0.0966699</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0861973</v>
+        <v>0.08616020000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.141695</v>
+        <v>0.143621</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0924862</v>
+        <v>0.0919832</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09146840000000001</v>
+        <v>0.08711199999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150209</v>
+        <v>0.151365</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09648950000000001</v>
+        <v>0.0970456</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0889199</v>
+        <v>0.0887319</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1613</v>
+        <v>0.161518</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101519</v>
+        <v>0.102453</v>
       </c>
       <c r="D75" t="n">
-        <v>0.09072760000000001</v>
+        <v>0.0919184</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.17914</v>
+        <v>0.187706</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110336</v>
+        <v>0.119362</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0938618</v>
+        <v>0.103873</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.195453</v>
+        <v>0.197584</v>
       </c>
       <c r="C77" t="n">
-        <v>0.129334</v>
+        <v>0.12227</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0988516</v>
+        <v>0.0988883</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.224317</v>
+        <v>0.234611</v>
       </c>
       <c r="C78" t="n">
-        <v>0.139699</v>
+        <v>0.141487</v>
       </c>
       <c r="D78" t="n">
-        <v>0.105158</v>
+        <v>0.106171</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266597</v>
+        <v>0.280354</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170378</v>
+        <v>0.175768</v>
       </c>
       <c r="D79" t="n">
-        <v>0.125835</v>
+        <v>0.120318</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324809</v>
+        <v>0.323407</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217093</v>
+        <v>0.235893</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0912307</v>
+        <v>0.0922047</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135327</v>
+        <v>0.135533</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0905671</v>
+        <v>0.090722</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0920381</v>
+        <v>0.09260549999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.136992</v>
+        <v>0.147216</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0920155</v>
+        <v>0.0929072</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0928887</v>
+        <v>0.0927996</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139435</v>
+        <v>0.1413</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0967568</v>
+        <v>0.0967503</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09349250000000001</v>
+        <v>0.09374440000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142329</v>
+        <v>0.147162</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0965811</v>
+        <v>0.105699</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0942998</v>
+        <v>0.0944989</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146469</v>
+        <v>0.147951</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0994782</v>
+        <v>0.104593</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0951121</v>
+        <v>0.0957404</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150912</v>
+        <v>0.152497</v>
       </c>
       <c r="C86" t="n">
-        <v>0.109937</v>
+        <v>0.1054</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09707730000000001</v>
+        <v>0.0965319</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157633</v>
+        <v>0.157579</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108059</v>
+        <v>0.11629</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100583</v>
+        <v>0.0984353</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.168726</v>
+        <v>0.168441</v>
       </c>
       <c r="C88" t="n">
-        <v>0.114474</v>
+        <v>0.121049</v>
       </c>
       <c r="D88" t="n">
-        <v>0.102285</v>
+        <v>0.101175</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184589</v>
+        <v>0.188147</v>
       </c>
       <c r="C89" t="n">
-        <v>0.122235</v>
+        <v>0.12254</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104168</v>
+        <v>0.10411</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.193943</v>
+        <v>0.193411</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139966</v>
+        <v>0.133382</v>
       </c>
       <c r="D90" t="n">
-        <v>0.107662</v>
+        <v>0.108119</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.226873</v>
+        <v>0.225107</v>
       </c>
       <c r="C91" t="n">
-        <v>0.155027</v>
+        <v>0.152502</v>
       </c>
       <c r="D91" t="n">
-        <v>0.119455</v>
+        <v>0.118649</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244447</v>
+        <v>0.261213</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167528</v>
+        <v>0.166893</v>
       </c>
       <c r="D92" t="n">
-        <v>0.122459</v>
+        <v>0.123359</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.296216</v>
+        <v>0.306186</v>
       </c>
       <c r="C93" t="n">
-        <v>0.207983</v>
+        <v>0.206364</v>
       </c>
       <c r="D93" t="n">
-        <v>0.1364</v>
+        <v>0.136461</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.349722</v>
+        <v>0.362491</v>
       </c>
       <c r="C94" t="n">
-        <v>0.245866</v>
+        <v>0.271449</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103854</v>
+        <v>0.103388</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.150091</v>
+        <v>0.151285</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113486</v>
+        <v>0.113239</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105671</v>
+        <v>0.104363</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.161863</v>
+        <v>0.163525</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11364</v>
+        <v>0.115984</v>
       </c>
       <c r="D96" t="n">
-        <v>0.107213</v>
+        <v>0.106202</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.164792</v>
+        <v>0.157882</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119179</v>
+        <v>0.11965</v>
       </c>
       <c r="D97" t="n">
-        <v>0.10903</v>
+        <v>0.108229</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160184</v>
+        <v>0.161611</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122146</v>
+        <v>0.122106</v>
       </c>
       <c r="D98" t="n">
-        <v>0.119228</v>
+        <v>0.110015</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1652</v>
+        <v>0.166454</v>
       </c>
       <c r="C99" t="n">
-        <v>0.123087</v>
+        <v>0.125905</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11095</v>
+        <v>0.118158</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.172203</v>
+        <v>0.172526</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130386</v>
+        <v>0.130973</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114884</v>
+        <v>0.113935</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.181217</v>
+        <v>0.189882</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135868</v>
+        <v>0.142871</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116891</v>
+        <v>0.118673</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.188273</v>
+        <v>0.196768</v>
       </c>
       <c r="C102" t="n">
-        <v>0.142764</v>
+        <v>0.142508</v>
       </c>
       <c r="D102" t="n">
-        <v>0.121274</v>
+        <v>0.121768</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197904</v>
+        <v>0.211276</v>
       </c>
       <c r="C103" t="n">
-        <v>0.151819</v>
+        <v>0.15126</v>
       </c>
       <c r="D103" t="n">
-        <v>0.120956</v>
+        <v>0.121703</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212772</v>
+        <v>0.226188</v>
       </c>
       <c r="C104" t="n">
-        <v>0.163433</v>
+        <v>0.163194</v>
       </c>
       <c r="D104" t="n">
-        <v>0.124812</v>
+        <v>0.125842</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.232909</v>
+        <v>0.241245</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178862</v>
+        <v>0.179142</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132301</v>
+        <v>0.131211</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261941</v>
+        <v>0.280128</v>
       </c>
       <c r="C106" t="n">
-        <v>0.198182</v>
+        <v>0.20394</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140181</v>
+        <v>0.139499</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.321455</v>
+        <v>0.316736</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236647</v>
+        <v>0.23383</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154355</v>
+        <v>0.154205</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.372291</v>
+        <v>0.387669</v>
       </c>
       <c r="C108" t="n">
-        <v>0.285029</v>
+        <v>0.29996</v>
       </c>
       <c r="D108" t="n">
-        <v>0.120724</v>
+        <v>0.113101</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.47563</v>
+        <v>0.479483</v>
       </c>
       <c r="C109" t="n">
-        <v>0.388387</v>
+        <v>0.368537</v>
       </c>
       <c r="D109" t="n">
-        <v>0.114388</v>
+        <v>0.114024</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162079</v>
+        <v>0.17377</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13443</v>
+        <v>0.135012</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11537</v>
+        <v>0.115272</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.164525</v>
+        <v>0.166396</v>
       </c>
       <c r="C111" t="n">
-        <v>0.138605</v>
+        <v>0.139419</v>
       </c>
       <c r="D111" t="n">
-        <v>0.117056</v>
+        <v>0.117074</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.175527</v>
+        <v>0.180097</v>
       </c>
       <c r="C112" t="n">
-        <v>0.14329</v>
+        <v>0.143582</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118782</v>
+        <v>0.118823</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.177881</v>
+        <v>0.174668</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148311</v>
+        <v>0.1486</v>
       </c>
       <c r="D113" t="n">
-        <v>0.120853</v>
+        <v>0.124316</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.179785</v>
+        <v>0.180274</v>
       </c>
       <c r="C114" t="n">
-        <v>0.154011</v>
+        <v>0.153655</v>
       </c>
       <c r="D114" t="n">
-        <v>0.123465</v>
+        <v>0.122961</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.187947</v>
+        <v>0.190049</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160177</v>
+        <v>0.159769</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125864</v>
+        <v>0.125814</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198306</v>
+        <v>0.200457</v>
       </c>
       <c r="C116" t="n">
-        <v>0.168085</v>
+        <v>0.168441</v>
       </c>
       <c r="D116" t="n">
-        <v>0.129634</v>
+        <v>0.128962</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212392</v>
+        <v>0.224851</v>
       </c>
       <c r="C117" t="n">
-        <v>0.177684</v>
+        <v>0.18429</v>
       </c>
       <c r="D117" t="n">
-        <v>0.134449</v>
+        <v>0.133808</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.230229</v>
+        <v>0.236148</v>
       </c>
       <c r="C118" t="n">
-        <v>0.188685</v>
+        <v>0.188712</v>
       </c>
       <c r="D118" t="n">
-        <v>0.140191</v>
+        <v>0.140157</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.255659</v>
+        <v>0.257784</v>
       </c>
       <c r="C119" t="n">
-        <v>0.20544</v>
+        <v>0.21176</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148907</v>
+        <v>0.147788</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29148</v>
+        <v>0.294486</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22692</v>
+        <v>0.228179</v>
       </c>
       <c r="D120" t="n">
-        <v>0.162435</v>
+        <v>0.159531</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330763</v>
+        <v>0.335987</v>
       </c>
       <c r="C121" t="n">
-        <v>0.266313</v>
+        <v>0.256864</v>
       </c>
       <c r="D121" t="n">
-        <v>0.17421</v>
+        <v>0.176369</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.406297</v>
+        <v>0.410951</v>
       </c>
       <c r="C122" t="n">
-        <v>0.309241</v>
+        <v>0.319734</v>
       </c>
       <c r="D122" t="n">
-        <v>0.197701</v>
+        <v>0.199199</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.493768</v>
+        <v>0.504132</v>
       </c>
       <c r="C123" t="n">
-        <v>0.407111</v>
+        <v>0.405168</v>
       </c>
       <c r="D123" t="n">
-        <v>0.136397</v>
+        <v>0.138867</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.197505</v>
+        <v>0.188418</v>
       </c>
       <c r="C124" t="n">
-        <v>0.163419</v>
+        <v>0.161345</v>
       </c>
       <c r="D124" t="n">
-        <v>0.146715</v>
+        <v>0.139364</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.193674</v>
+        <v>0.202246</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164937</v>
+        <v>0.164815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.145629</v>
+        <v>0.151461</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.197939</v>
+        <v>0.198427</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172004</v>
+        <v>0.170249</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15159</v>
+        <v>0.144546</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.202148</v>
+        <v>0.203952</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174161</v>
+        <v>0.172999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.154052</v>
+        <v>0.146936</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.209717</v>
+        <v>0.217118</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178141</v>
+        <v>0.178525</v>
       </c>
       <c r="D128" t="n">
-        <v>0.149677</v>
+        <v>0.15384</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.214742</v>
+        <v>0.215075</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184029</v>
+        <v>0.190093</v>
       </c>
       <c r="D129" t="n">
-        <v>0.151392</v>
+        <v>0.152975</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.225932</v>
+        <v>0.227796</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191084</v>
+        <v>0.190805</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15673</v>
+        <v>0.153749</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.252775</v>
+        <v>0.240614</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199904</v>
+        <v>0.209159</v>
       </c>
       <c r="D131" t="n">
-        <v>0.158765</v>
+        <v>0.159404</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.255644</v>
+        <v>0.258314</v>
       </c>
       <c r="C132" t="n">
-        <v>0.212831</v>
+        <v>0.208767</v>
       </c>
       <c r="D132" t="n">
-        <v>0.171456</v>
+        <v>0.164805</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276589</v>
+        <v>0.287369</v>
       </c>
       <c r="C133" t="n">
-        <v>0.229887</v>
+        <v>0.23413</v>
       </c>
       <c r="D133" t="n">
-        <v>0.168728</v>
+        <v>0.170689</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.314415</v>
+        <v>0.307449</v>
       </c>
       <c r="C134" t="n">
-        <v>0.251448</v>
+        <v>0.247355</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177868</v>
+        <v>0.177068</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.353978</v>
+        <v>0.351159</v>
       </c>
       <c r="C135" t="n">
-        <v>0.278303</v>
+        <v>0.277774</v>
       </c>
       <c r="D135" t="n">
-        <v>0.19119</v>
+        <v>0.194495</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411369</v>
+        <v>0.417036</v>
       </c>
       <c r="C136" t="n">
-        <v>0.335104</v>
+        <v>0.322728</v>
       </c>
       <c r="D136" t="n">
-        <v>0.21233</v>
+        <v>0.214505</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.515726</v>
+        <v>0.515011</v>
       </c>
       <c r="C137" t="n">
-        <v>0.401922</v>
+        <v>0.399754</v>
       </c>
       <c r="D137" t="n">
-        <v>0.253768</v>
+        <v>0.251823</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329308</v>
+        <v>0.332444</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269975</v>
+        <v>0.271357</v>
       </c>
       <c r="D138" t="n">
-        <v>0.250417</v>
+        <v>0.254006</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.333811</v>
+        <v>0.334646</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273004</v>
+        <v>0.27648</v>
       </c>
       <c r="D139" t="n">
-        <v>0.25479</v>
+        <v>0.255531</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338242</v>
+        <v>0.337874</v>
       </c>
       <c r="C140" t="n">
-        <v>0.275986</v>
+        <v>0.276734</v>
       </c>
       <c r="D140" t="n">
-        <v>0.257513</v>
+        <v>0.258853</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345201</v>
+        <v>0.345511</v>
       </c>
       <c r="C141" t="n">
-        <v>0.280152</v>
+        <v>0.282627</v>
       </c>
       <c r="D141" t="n">
-        <v>0.262497</v>
+        <v>0.259031</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.350941</v>
+        <v>0.355588</v>
       </c>
       <c r="C142" t="n">
-        <v>0.284287</v>
+        <v>0.286248</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261361</v>
+        <v>0.261189</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.357907</v>
+        <v>0.363488</v>
       </c>
       <c r="C143" t="n">
-        <v>0.29043</v>
+        <v>0.292013</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266846</v>
+        <v>0.266236</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103378</v>
+        <v>0.103478</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0615682</v>
+        <v>0.0611019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0703874</v>
+        <v>0.0703715</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111111</v>
+        <v>0.111012</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0625892</v>
+        <v>0.0623461</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0696917</v>
+        <v>0.069746</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122511</v>
+        <v>0.122482</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0656706</v>
+        <v>0.0653092</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0690866</v>
+        <v>0.0689203</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143037</v>
+        <v>0.143215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0732462</v>
+        <v>0.07275330000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0699891</v>
+        <v>0.0699075</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170643</v>
+        <v>0.170077</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0896448</v>
+        <v>0.08951530000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07115109999999999</v>
+        <v>0.07150239999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205481</v>
+        <v>0.205203</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111916</v>
+        <v>0.111987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0751318</v>
+        <v>0.07466929999999999</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252985</v>
+        <v>0.252671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152368</v>
+        <v>0.151875</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0889392</v>
+        <v>0.08885120000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305834</v>
+        <v>0.30548</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190753</v>
+        <v>0.190071</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0706498</v>
+        <v>0.0707528</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09493020000000001</v>
+        <v>0.0951009</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0631818</v>
+        <v>0.0624325</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0711381</v>
+        <v>0.0712063</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09559280000000001</v>
+        <v>0.09613530000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0619802</v>
+        <v>0.0626042</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07117420000000001</v>
+        <v>0.07139040000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09745470000000001</v>
+        <v>0.0978946</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0622902</v>
+        <v>0.06338920000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0713033</v>
+        <v>0.0715259</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100034</v>
+        <v>0.100059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0628975</v>
+        <v>0.0628838</v>
       </c>
       <c r="D13" t="n">
-        <v>0.071358</v>
+        <v>0.07149079999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102849</v>
+        <v>0.102974</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06317589999999999</v>
+        <v>0.0629088</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0714462</v>
+        <v>0.0715234</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107179</v>
+        <v>0.107004</v>
       </c>
       <c r="C15" t="n">
-        <v>0.063651</v>
+        <v>0.0635665</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0717401</v>
+        <v>0.07196139999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11238</v>
+        <v>0.112744</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06738</v>
+        <v>0.0676346</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07191450000000001</v>
+        <v>0.07207959999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121701</v>
+        <v>0.121873</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0710925</v>
+        <v>0.071091</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07202600000000001</v>
+        <v>0.0723596</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133171</v>
+        <v>0.133723</v>
       </c>
       <c r="C18" t="n">
-        <v>0.080253</v>
+        <v>0.0808213</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0726744</v>
+        <v>0.0729316</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149597</v>
+        <v>0.150476</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09154370000000001</v>
+        <v>0.09183769999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0735422</v>
+        <v>0.0735922</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171673</v>
+        <v>0.171462</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104286</v>
+        <v>0.104702</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0771548</v>
+        <v>0.07721980000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.204043</v>
+        <v>0.198956</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121186</v>
+        <v>0.12173</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0855863</v>
+        <v>0.0863684</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239078</v>
+        <v>0.236939</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154696</v>
+        <v>0.155376</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102702</v>
+        <v>0.103238</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291149</v>
+        <v>0.287565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195685</v>
+        <v>0.196145</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07312349999999999</v>
+        <v>0.07306020000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10522</v>
+        <v>0.100494</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0670803</v>
+        <v>0.0661761</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07381799999999999</v>
+        <v>0.0731366</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103743</v>
+        <v>0.101717</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06642290000000001</v>
+        <v>0.0662831</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07685649999999999</v>
+        <v>0.0734561</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110301</v>
+        <v>0.103398</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07096719999999999</v>
+        <v>0.0667804</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0854982</v>
+        <v>0.0737109</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107737</v>
+        <v>0.105301</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0685104</v>
+        <v>0.0671891</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0884818</v>
+        <v>0.0739113</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.11767</v>
+        <v>0.108638</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0739262</v>
+        <v>0.0685832</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0786998</v>
+        <v>0.0740923</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.116303</v>
+        <v>0.113253</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0791216</v>
+        <v>0.0706625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0782611</v>
+        <v>0.0743621</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.121165</v>
+        <v>0.119423</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0746792</v>
+        <v>0.0739885</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0867305</v>
+        <v>0.07484399999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.129572</v>
+        <v>0.127142</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07948810000000001</v>
+        <v>0.0787028</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0831712</v>
+        <v>0.0757246</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.144231</v>
+        <v>0.137227</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0851132</v>
+        <v>0.084955</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0776579</v>
+        <v>0.0758726</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150567</v>
+        <v>0.149979</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09294719999999999</v>
+        <v>0.0926435</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0793502</v>
+        <v>0.0780211</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.177179</v>
+        <v>0.168136</v>
       </c>
       <c r="C34" t="n">
-        <v>0.116079</v>
+        <v>0.105444</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0845316</v>
+        <v>0.082965</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.202882</v>
+        <v>0.194772</v>
       </c>
       <c r="C35" t="n">
-        <v>0.133659</v>
+        <v>0.123362</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09257170000000001</v>
+        <v>0.09182940000000001</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238866</v>
+        <v>0.23231</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148505</v>
+        <v>0.148112</v>
       </c>
       <c r="D36" t="n">
-        <v>0.114392</v>
+        <v>0.103786</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.290777</v>
+        <v>0.284622</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190714</v>
+        <v>0.20933</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0807734</v>
+        <v>0.0735315</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.107883</v>
+        <v>0.103421</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0728424</v>
+        <v>0.0690306</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0758596</v>
+        <v>0.0737438</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107244</v>
+        <v>0.104723</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0703187</v>
+        <v>0.06966940000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07566489999999999</v>
+        <v>0.0739176</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.11153</v>
+        <v>0.106684</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0711416</v>
+        <v>0.0705954</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0757656</v>
+        <v>0.0742403</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.113666</v>
+        <v>0.10882</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0778359</v>
+        <v>0.0716282</v>
       </c>
       <c r="D41" t="n">
-        <v>0.074881</v>
+        <v>0.07451430000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115155</v>
+        <v>0.11193</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0815852</v>
+        <v>0.0736911</v>
       </c>
       <c r="D42" t="n">
-        <v>0.08623169999999999</v>
+        <v>0.0754502</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.12216</v>
+        <v>0.116208</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0815449</v>
+        <v>0.0755463</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0759156</v>
+        <v>0.0751515</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.123893</v>
+        <v>0.122258</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0785238</v>
+        <v>0.0780883</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0876357</v>
+        <v>0.0760382</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132371</v>
+        <v>0.128948</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0818667</v>
+        <v>0.08162999999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0785405</v>
+        <v>0.0770067</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14835</v>
+        <v>0.1381</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08673119999999999</v>
+        <v>0.0866989</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0790343</v>
+        <v>0.0785192</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.155531</v>
+        <v>0.150373</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0933274</v>
+        <v>0.0930077</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0811364</v>
+        <v>0.0807491</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175234</v>
+        <v>0.167908</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102711</v>
+        <v>0.102759</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08573020000000001</v>
+        <v>0.08494549999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198476</v>
+        <v>0.191431</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116498</v>
+        <v>0.116761</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0908617</v>
+        <v>0.0907089</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.241318</v>
+        <v>0.223149</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138576</v>
+        <v>0.137849</v>
       </c>
       <c r="D50" t="n">
-        <v>0.10139</v>
+        <v>0.0992923</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27991</v>
+        <v>0.268865</v>
       </c>
       <c r="C51" t="n">
-        <v>0.180441</v>
+        <v>0.173196</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0769439</v>
+        <v>0.0753535</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.329687</v>
+        <v>0.322076</v>
       </c>
       <c r="C52" t="n">
-        <v>0.22863</v>
+        <v>0.250019</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08647729999999999</v>
+        <v>0.07574649999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111909</v>
+        <v>0.108336</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0817871</v>
+        <v>0.0742097</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0774977</v>
+        <v>0.0768142</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.113277</v>
+        <v>0.110563</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0824756</v>
+        <v>0.0748114</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08546090000000001</v>
+        <v>0.0766939</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113921</v>
+        <v>0.112766</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0871893</v>
+        <v>0.0753323</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0808017</v>
+        <v>0.0766141</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117472</v>
+        <v>0.115877</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08559269999999999</v>
+        <v>0.0773799</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0879557</v>
+        <v>0.0777183</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.134687</v>
+        <v>0.119091</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08516319999999999</v>
+        <v>0.07868600000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07877489999999999</v>
+        <v>0.0775874</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.130208</v>
+        <v>0.124083</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0863109</v>
+        <v>0.0814373</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08951779999999999</v>
+        <v>0.0787548</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134864</v>
+        <v>0.130348</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0901313</v>
+        <v>0.0850122</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0911488</v>
+        <v>0.0803222</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141108</v>
+        <v>0.138667</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0979247</v>
+        <v>0.0893467</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0821003</v>
+        <v>0.08189009999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.152897</v>
+        <v>0.15029</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101768</v>
+        <v>0.0960348</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08473600000000001</v>
+        <v>0.0845825</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.178076</v>
+        <v>0.16612</v>
       </c>
       <c r="C62" t="n">
-        <v>0.112697</v>
+        <v>0.104739</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0979449</v>
+        <v>0.0875348</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.193366</v>
+        <v>0.187235</v>
       </c>
       <c r="C63" t="n">
-        <v>0.125427</v>
+        <v>0.117651</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0928792</v>
+        <v>0.09213730000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.22623</v>
+        <v>0.21774</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136831</v>
+        <v>0.138933</v>
       </c>
       <c r="D64" t="n">
-        <v>0.110174</v>
+        <v>0.100978</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.283509</v>
+        <v>0.260437</v>
       </c>
       <c r="C65" t="n">
-        <v>0.184461</v>
+        <v>0.172624</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126382</v>
+        <v>0.115814</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.327134</v>
+        <v>0.315833</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240147</v>
+        <v>0.243814</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0840313</v>
+        <v>0.0830278</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.131658</v>
+        <v>0.121758</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08805549999999999</v>
+        <v>0.08072120000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0840675</v>
+        <v>0.083455</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124522</v>
+        <v>0.123281</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0877925</v>
+        <v>0.0819135</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0842729</v>
+        <v>0.0844159</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.127697</v>
+        <v>0.125139</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0876266</v>
+        <v>0.0825002</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08578379999999999</v>
+        <v>0.084216</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.130541</v>
+        <v>0.127937</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09228450000000001</v>
+        <v>0.0837707</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08548890000000001</v>
+        <v>0.08477800000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.13201</v>
+        <v>0.131198</v>
       </c>
       <c r="C71" t="n">
-        <v>0.087307</v>
+        <v>0.0859785</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0873775</v>
+        <v>0.08571289999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.147249</v>
+        <v>0.136209</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0966699</v>
+        <v>0.0884356</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08616020000000001</v>
+        <v>0.0862197</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143621</v>
+        <v>0.142889</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0919832</v>
+        <v>0.0915406</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08711199999999999</v>
+        <v>0.0875455</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.151365</v>
+        <v>0.149671</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0970456</v>
+        <v>0.0956603</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0887319</v>
+        <v>0.0887869</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161518</v>
+        <v>0.161554</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102453</v>
+        <v>0.101903</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0919184</v>
+        <v>0.0912413</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187706</v>
+        <v>0.176227</v>
       </c>
       <c r="C76" t="n">
-        <v>0.119362</v>
+        <v>0.110265</v>
       </c>
       <c r="D76" t="n">
-        <v>0.103873</v>
+        <v>0.0941449</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197584</v>
+        <v>0.197461</v>
       </c>
       <c r="C77" t="n">
-        <v>0.12227</v>
+        <v>0.123461</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0988883</v>
+        <v>0.0989058</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.234611</v>
+        <v>0.225194</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141487</v>
+        <v>0.141576</v>
       </c>
       <c r="D78" t="n">
-        <v>0.106171</v>
+        <v>0.105752</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.280354</v>
+        <v>0.26723</v>
       </c>
       <c r="C79" t="n">
-        <v>0.175768</v>
+        <v>0.172054</v>
       </c>
       <c r="D79" t="n">
-        <v>0.120318</v>
+        <v>0.119472</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323407</v>
+        <v>0.327934</v>
       </c>
       <c r="C80" t="n">
-        <v>0.235893</v>
+        <v>0.239978</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0922047</v>
+        <v>0.0920575</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135533</v>
+        <v>0.134702</v>
       </c>
       <c r="C81" t="n">
-        <v>0.090722</v>
+        <v>0.0909223</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09260549999999999</v>
+        <v>0.09233189999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.147216</v>
+        <v>0.137102</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0929072</v>
+        <v>0.09274159999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0927996</v>
+        <v>0.09284630000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.1413</v>
+        <v>0.139027</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0967503</v>
+        <v>0.0940153</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09374440000000001</v>
+        <v>0.09347469999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.147162</v>
+        <v>0.141758</v>
       </c>
       <c r="C84" t="n">
-        <v>0.105699</v>
+        <v>0.09674149999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0944989</v>
+        <v>0.09421160000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147951</v>
+        <v>0.146103</v>
       </c>
       <c r="C85" t="n">
-        <v>0.104593</v>
+        <v>0.1</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0957404</v>
+        <v>0.095024</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.152497</v>
+        <v>0.150937</v>
       </c>
       <c r="C86" t="n">
-        <v>0.1054</v>
+        <v>0.10441</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0965319</v>
+        <v>0.0968823</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157579</v>
+        <v>0.167226</v>
       </c>
       <c r="C87" t="n">
-        <v>0.11629</v>
+        <v>0.109297</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0984353</v>
+        <v>0.0990357</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.168441</v>
+        <v>0.170775</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121049</v>
+        <v>0.115618</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101175</v>
+        <v>0.100903</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188147</v>
+        <v>0.177355</v>
       </c>
       <c r="C89" t="n">
-        <v>0.12254</v>
+        <v>0.123499</v>
       </c>
       <c r="D89" t="n">
-        <v>0.10411</v>
+        <v>0.104146</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.193411</v>
+        <v>0.195618</v>
       </c>
       <c r="C90" t="n">
-        <v>0.133382</v>
+        <v>0.134847</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108119</v>
+        <v>0.108552</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.225107</v>
+        <v>0.214619</v>
       </c>
       <c r="C91" t="n">
-        <v>0.152502</v>
+        <v>0.148778</v>
       </c>
       <c r="D91" t="n">
-        <v>0.118649</v>
+        <v>0.114423</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.261213</v>
+        <v>0.24456</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166893</v>
+        <v>0.169838</v>
       </c>
       <c r="D92" t="n">
-        <v>0.123359</v>
+        <v>0.123965</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.306186</v>
+        <v>0.299997</v>
       </c>
       <c r="C93" t="n">
-        <v>0.206364</v>
+        <v>0.20514</v>
       </c>
       <c r="D93" t="n">
-        <v>0.136461</v>
+        <v>0.137625</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362491</v>
+        <v>0.354783</v>
       </c>
       <c r="C94" t="n">
-        <v>0.271449</v>
+        <v>0.251789</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103388</v>
+        <v>0.103839</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.151285</v>
+        <v>0.151675</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113239</v>
+        <v>0.112966</v>
       </c>
       <c r="D95" t="n">
-        <v>0.104363</v>
+        <v>0.105957</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163525</v>
+        <v>0.153212</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115984</v>
+        <v>0.116031</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106202</v>
+        <v>0.107837</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157882</v>
+        <v>0.156805</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11965</v>
+        <v>0.118982</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108229</v>
+        <v>0.109596</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.161611</v>
+        <v>0.160906</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122106</v>
+        <v>0.122545</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110015</v>
+        <v>0.111849</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.166454</v>
+        <v>0.171156</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125905</v>
+        <v>0.130183</v>
       </c>
       <c r="D99" t="n">
-        <v>0.118158</v>
+        <v>0.11421</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.172526</v>
+        <v>0.182333</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130973</v>
+        <v>0.130956</v>
       </c>
       <c r="D100" t="n">
-        <v>0.113935</v>
+        <v>0.116275</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.189882</v>
+        <v>0.179236</v>
       </c>
       <c r="C101" t="n">
-        <v>0.142871</v>
+        <v>0.139223</v>
       </c>
       <c r="D101" t="n">
-        <v>0.118673</v>
+        <v>0.118577</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196768</v>
+        <v>0.187981</v>
       </c>
       <c r="C102" t="n">
-        <v>0.142508</v>
+        <v>0.14381</v>
       </c>
       <c r="D102" t="n">
-        <v>0.121768</v>
+        <v>0.121586</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211276</v>
+        <v>0.203659</v>
       </c>
       <c r="C103" t="n">
-        <v>0.15126</v>
+        <v>0.152895</v>
       </c>
       <c r="D103" t="n">
-        <v>0.121703</v>
+        <v>0.124786</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.226188</v>
+        <v>0.225992</v>
       </c>
       <c r="C104" t="n">
-        <v>0.163194</v>
+        <v>0.167524</v>
       </c>
       <c r="D104" t="n">
-        <v>0.125842</v>
+        <v>0.127291</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.241245</v>
+        <v>0.246879</v>
       </c>
       <c r="C105" t="n">
-        <v>0.179142</v>
+        <v>0.184242</v>
       </c>
       <c r="D105" t="n">
-        <v>0.131211</v>
+        <v>0.134549</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.280128</v>
+        <v>0.273579</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20394</v>
+        <v>0.207363</v>
       </c>
       <c r="D106" t="n">
-        <v>0.139499</v>
+        <v>0.143307</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.316736</v>
+        <v>0.314458</v>
       </c>
       <c r="C107" t="n">
-        <v>0.23383</v>
+        <v>0.24449</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154205</v>
+        <v>0.157177</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.387669</v>
+        <v>0.381301</v>
       </c>
       <c r="C108" t="n">
-        <v>0.29996</v>
+        <v>0.295591</v>
       </c>
       <c r="D108" t="n">
-        <v>0.113101</v>
+        <v>0.11457</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.479483</v>
+        <v>0.484197</v>
       </c>
       <c r="C109" t="n">
-        <v>0.368537</v>
+        <v>0.382211</v>
       </c>
       <c r="D109" t="n">
-        <v>0.114024</v>
+        <v>0.1157</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.17377</v>
+        <v>0.175026</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135012</v>
+        <v>0.139119</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115272</v>
+        <v>0.116982</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.166396</v>
+        <v>0.1761</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139419</v>
+        <v>0.143577</v>
       </c>
       <c r="D111" t="n">
-        <v>0.117074</v>
+        <v>0.118718</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.180097</v>
+        <v>0.17609</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143582</v>
+        <v>0.148104</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118823</v>
+        <v>0.120541</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.174668</v>
+        <v>0.176054</v>
       </c>
       <c r="C113" t="n">
-        <v>0.1486</v>
+        <v>0.153652</v>
       </c>
       <c r="D113" t="n">
-        <v>0.124316</v>
+        <v>0.122713</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180274</v>
+        <v>0.190936</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153655</v>
+        <v>0.159227</v>
       </c>
       <c r="D114" t="n">
-        <v>0.122961</v>
+        <v>0.124558</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.190049</v>
+        <v>0.19615</v>
       </c>
       <c r="C115" t="n">
-        <v>0.159769</v>
+        <v>0.166245</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125814</v>
+        <v>0.128527</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.200457</v>
+        <v>0.201177</v>
       </c>
       <c r="C116" t="n">
-        <v>0.168441</v>
+        <v>0.174492</v>
       </c>
       <c r="D116" t="n">
-        <v>0.128962</v>
+        <v>0.13226</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224851</v>
+        <v>0.227178</v>
       </c>
       <c r="C117" t="n">
-        <v>0.18429</v>
+        <v>0.184373</v>
       </c>
       <c r="D117" t="n">
-        <v>0.133808</v>
+        <v>0.139637</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.236148</v>
+        <v>0.234409</v>
       </c>
       <c r="C118" t="n">
-        <v>0.188712</v>
+        <v>0.197185</v>
       </c>
       <c r="D118" t="n">
-        <v>0.140157</v>
+        <v>0.142652</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.257784</v>
+        <v>0.268419</v>
       </c>
       <c r="C119" t="n">
-        <v>0.21176</v>
+        <v>0.218887</v>
       </c>
       <c r="D119" t="n">
-        <v>0.147788</v>
+        <v>0.15209</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294486</v>
+        <v>0.291497</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228179</v>
+        <v>0.236734</v>
       </c>
       <c r="D120" t="n">
-        <v>0.159531</v>
+        <v>0.162937</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.335987</v>
+        <v>0.343897</v>
       </c>
       <c r="C121" t="n">
-        <v>0.256864</v>
+        <v>0.268733</v>
       </c>
       <c r="D121" t="n">
-        <v>0.176369</v>
+        <v>0.184261</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.410951</v>
+        <v>0.40652</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319734</v>
+        <v>0.320779</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199199</v>
+        <v>0.21354</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.504132</v>
+        <v>0.5039940000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.405168</v>
+        <v>0.423038</v>
       </c>
       <c r="D123" t="n">
-        <v>0.138867</v>
+        <v>0.147628</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.188418</v>
+        <v>0.200069</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161345</v>
+        <v>0.168658</v>
       </c>
       <c r="D124" t="n">
-        <v>0.139364</v>
+        <v>0.144218</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.202246</v>
+        <v>0.204617</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164815</v>
+        <v>0.172087</v>
       </c>
       <c r="D125" t="n">
-        <v>0.151461</v>
+        <v>0.146566</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.198427</v>
+        <v>0.210333</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170249</v>
+        <v>0.172723</v>
       </c>
       <c r="D126" t="n">
-        <v>0.144546</v>
+        <v>0.148607</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.203952</v>
+        <v>0.21516</v>
       </c>
       <c r="C127" t="n">
-        <v>0.172999</v>
+        <v>0.18053</v>
       </c>
       <c r="D127" t="n">
-        <v>0.146936</v>
+        <v>0.149884</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.217118</v>
+        <v>0.222305</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178525</v>
+        <v>0.1887</v>
       </c>
       <c r="D128" t="n">
-        <v>0.15384</v>
+        <v>0.152307</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215075</v>
+        <v>0.229621</v>
       </c>
       <c r="C129" t="n">
-        <v>0.190093</v>
+        <v>0.192483</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152975</v>
+        <v>0.158252</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.227796</v>
+        <v>0.232486</v>
       </c>
       <c r="C130" t="n">
-        <v>0.190805</v>
+        <v>0.199441</v>
       </c>
       <c r="D130" t="n">
-        <v>0.153749</v>
+        <v>0.164858</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240614</v>
+        <v>0.256815</v>
       </c>
       <c r="C131" t="n">
-        <v>0.209159</v>
+        <v>0.210219</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159404</v>
+        <v>0.166851</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258314</v>
+        <v>0.270185</v>
       </c>
       <c r="C132" t="n">
-        <v>0.208767</v>
+        <v>0.224437</v>
       </c>
       <c r="D132" t="n">
-        <v>0.164805</v>
+        <v>0.168926</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287369</v>
+        <v>0.287941</v>
       </c>
       <c r="C133" t="n">
-        <v>0.23413</v>
+        <v>0.238736</v>
       </c>
       <c r="D133" t="n">
-        <v>0.170689</v>
+        <v>0.182466</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.307449</v>
+        <v>0.319388</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247355</v>
+        <v>0.258153</v>
       </c>
       <c r="D134" t="n">
-        <v>0.177068</v>
+        <v>0.185147</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.351159</v>
+        <v>0.355803</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277774</v>
+        <v>0.289331</v>
       </c>
       <c r="D135" t="n">
-        <v>0.194495</v>
+        <v>0.198079</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.417036</v>
+        <v>0.417169</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322728</v>
+        <v>0.338081</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214505</v>
+        <v>0.221986</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.515011</v>
+        <v>0.525012</v>
       </c>
       <c r="C137" t="n">
-        <v>0.399754</v>
+        <v>0.428053</v>
       </c>
       <c r="D137" t="n">
-        <v>0.251823</v>
+        <v>0.273573</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.332444</v>
+        <v>0.356646</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271357</v>
+        <v>0.29306</v>
       </c>
       <c r="D138" t="n">
-        <v>0.254006</v>
+        <v>0.27191</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334646</v>
+        <v>0.369877</v>
       </c>
       <c r="C139" t="n">
-        <v>0.27648</v>
+        <v>0.296252</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255531</v>
+        <v>0.275797</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.337874</v>
+        <v>0.367898</v>
       </c>
       <c r="C140" t="n">
-        <v>0.276734</v>
+        <v>0.299268</v>
       </c>
       <c r="D140" t="n">
-        <v>0.258853</v>
+        <v>0.277744</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345511</v>
+        <v>0.376897</v>
       </c>
       <c r="C141" t="n">
-        <v>0.282627</v>
+        <v>0.302811</v>
       </c>
       <c r="D141" t="n">
-        <v>0.259031</v>
+        <v>0.285017</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.355588</v>
+        <v>0.379739</v>
       </c>
       <c r="C142" t="n">
-        <v>0.286248</v>
+        <v>0.308469</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261189</v>
+        <v>0.282655</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.363488</v>
+        <v>0.383457</v>
       </c>
       <c r="C143" t="n">
-        <v>0.292013</v>
+        <v>0.313015</v>
       </c>
       <c r="D143" t="n">
-        <v>0.266236</v>
+        <v>0.285623</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103478</v>
+        <v>0.103379</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611019</v>
+        <v>0.061496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0703715</v>
+        <v>0.0705505</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111012</v>
+        <v>0.111375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623461</v>
+        <v>0.06251139999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.069746</v>
+        <v>0.0699274</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122482</v>
+        <v>0.12231</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0653092</v>
+        <v>0.0657064</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0689203</v>
+        <v>0.0691677</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143215</v>
+        <v>0.143395</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07275330000000001</v>
+        <v>0.07381260000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0699075</v>
+        <v>0.06990490000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170077</v>
+        <v>0.170545</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08951530000000001</v>
+        <v>0.0895373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07150239999999999</v>
+        <v>0.07158829999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205203</v>
+        <v>0.205753</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111987</v>
+        <v>0.112428</v>
       </c>
       <c r="D7" t="n">
-        <v>0.07466929999999999</v>
+        <v>0.0752346</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252671</v>
+        <v>0.253174</v>
       </c>
       <c r="C8" t="n">
-        <v>0.151875</v>
+        <v>0.158683</v>
       </c>
       <c r="D8" t="n">
-        <v>0.08885120000000001</v>
+        <v>0.0885016</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30548</v>
+        <v>0.305911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190071</v>
+        <v>0.191152</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0707528</v>
+        <v>0.0701948</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951009</v>
+        <v>0.0951811</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0624325</v>
+        <v>0.0649073</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0712063</v>
+        <v>0.0704586</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09613530000000001</v>
+        <v>0.095667</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0626042</v>
+        <v>0.06388679999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07139040000000001</v>
+        <v>0.07061489999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0978946</v>
+        <v>0.0978836</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06338920000000001</v>
+        <v>0.063805</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0715259</v>
+        <v>0.072671</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100059</v>
+        <v>0.09956039999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0628838</v>
+        <v>0.070465</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07149079999999999</v>
+        <v>0.0726876</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102974</v>
+        <v>0.102381</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0629088</v>
+        <v>0.07290389999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0715234</v>
+        <v>0.0711056</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107004</v>
+        <v>0.111746</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635665</v>
+        <v>0.0736488</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07196139999999999</v>
+        <v>0.0713464</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112744</v>
+        <v>0.112134</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0676346</v>
+        <v>0.0718676</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07207959999999999</v>
+        <v>0.0715881</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121873</v>
+        <v>0.121298</v>
       </c>
       <c r="C17" t="n">
-        <v>0.071091</v>
+        <v>0.0710808</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0723596</v>
+        <v>0.0719332</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133723</v>
+        <v>0.133668</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0808213</v>
+        <v>0.0817027</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0729316</v>
+        <v>0.0727541</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150476</v>
+        <v>0.155674</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09183769999999999</v>
+        <v>0.09186370000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0735922</v>
+        <v>0.0738858</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171462</v>
+        <v>0.177993</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104702</v>
+        <v>0.105168</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07721980000000001</v>
+        <v>0.0771271</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198956</v>
+        <v>0.199549</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12173</v>
+        <v>0.122149</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0863684</v>
+        <v>0.09989720000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236939</v>
+        <v>0.237779</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155376</v>
+        <v>0.155263</v>
       </c>
       <c r="D22" t="n">
-        <v>0.103238</v>
+        <v>0.104461</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287565</v>
+        <v>0.291755</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196145</v>
+        <v>0.197434</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07306020000000001</v>
+        <v>0.0723959</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100494</v>
+        <v>0.109212</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0661761</v>
+        <v>0.0667142</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0731366</v>
+        <v>0.0723432</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101717</v>
+        <v>0.103155</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0662831</v>
+        <v>0.072184</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0734561</v>
+        <v>0.0735664</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103398</v>
+        <v>0.105972</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0667804</v>
+        <v>0.0683402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0737109</v>
+        <v>0.07286090000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105301</v>
+        <v>0.105477</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0671891</v>
+        <v>0.0681563</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0739113</v>
+        <v>0.0747772</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108638</v>
+        <v>0.112967</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0685832</v>
+        <v>0.0763089</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0740923</v>
+        <v>0.073433</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113253</v>
+        <v>0.11344</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0706625</v>
+        <v>0.0709994</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0743621</v>
+        <v>0.07482709999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119423</v>
+        <v>0.119611</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0739885</v>
+        <v>0.0747068</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07484399999999999</v>
+        <v>0.0779873</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127142</v>
+        <v>0.136825</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0787028</v>
+        <v>0.0793247</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0757246</v>
+        <v>0.0763056</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137227</v>
+        <v>0.137221</v>
       </c>
       <c r="C32" t="n">
-        <v>0.084955</v>
+        <v>0.09132419999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0758726</v>
+        <v>0.0824273</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.149979</v>
+        <v>0.150093</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0926435</v>
+        <v>0.09268079999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0780211</v>
+        <v>0.0786568</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168136</v>
+        <v>0.175722</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105444</v>
+        <v>0.10558</v>
       </c>
       <c r="D34" t="n">
-        <v>0.082965</v>
+        <v>0.0840434</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194772</v>
+        <v>0.194802</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123362</v>
+        <v>0.13319</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09182940000000001</v>
+        <v>0.0930266</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23231</v>
+        <v>0.233017</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148112</v>
+        <v>0.148269</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103786</v>
+        <v>0.11347</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284622</v>
+        <v>0.29941</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20933</v>
+        <v>0.208521</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0735315</v>
+        <v>0.07414709999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103421</v>
+        <v>0.108218</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0690306</v>
+        <v>0.07480439999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0737438</v>
+        <v>0.0738825</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104723</v>
+        <v>0.110496</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06966940000000001</v>
+        <v>0.07346809999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0739176</v>
+        <v>0.0740227</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106684</v>
+        <v>0.110989</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0705954</v>
+        <v>0.0709596</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0742403</v>
+        <v>0.0748265</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.10882</v>
+        <v>0.111218</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0716282</v>
+        <v>0.0723033</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07451430000000001</v>
+        <v>0.075168</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.11193</v>
+        <v>0.112774</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0736911</v>
+        <v>0.0819117</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0754502</v>
+        <v>0.07570490000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116208</v>
+        <v>0.12465</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0755463</v>
+        <v>0.0758091</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0751515</v>
+        <v>0.07846259999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122258</v>
+        <v>0.12569</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0780883</v>
+        <v>0.08679050000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0760382</v>
+        <v>0.07625079999999999</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128948</v>
+        <v>0.136209</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08162999999999999</v>
+        <v>0.08211110000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0770067</v>
+        <v>0.0813999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.1381</v>
+        <v>0.143189</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0866989</v>
+        <v>0.0868531</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0785192</v>
+        <v>0.0867661</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150373</v>
+        <v>0.152435</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0930077</v>
+        <v>0.0933172</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0807491</v>
+        <v>0.0818189</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167908</v>
+        <v>0.172047</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102759</v>
+        <v>0.102915</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08494549999999999</v>
+        <v>0.0854661</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191431</v>
+        <v>0.193942</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116761</v>
+        <v>0.116538</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0907089</v>
+        <v>0.0907391</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223149</v>
+        <v>0.234105</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137849</v>
+        <v>0.137636</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0992923</v>
+        <v>0.099547</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268865</v>
+        <v>0.275127</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173196</v>
+        <v>0.188791</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0753535</v>
+        <v>0.079442</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322076</v>
+        <v>0.349758</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250019</v>
+        <v>0.227882</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07574649999999999</v>
+        <v>0.0764314</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108336</v>
+        <v>0.111885</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0742097</v>
+        <v>0.07925649999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0768142</v>
+        <v>0.0777727</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110563</v>
+        <v>0.113204</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0748114</v>
+        <v>0.076359</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0766939</v>
+        <v>0.0821595</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.112766</v>
+        <v>0.117737</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0753323</v>
+        <v>0.08456660000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0766141</v>
+        <v>0.0917347</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115877</v>
+        <v>0.11931</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0773799</v>
+        <v>0.0839285</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0777183</v>
+        <v>0.0826279</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119091</v>
+        <v>0.121973</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07868600000000001</v>
+        <v>0.08902880000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0775874</v>
+        <v>0.0802648</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.124083</v>
+        <v>0.12802</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0814373</v>
+        <v>0.0910093</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0787548</v>
+        <v>0.0842378</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130348</v>
+        <v>0.134077</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0850122</v>
+        <v>0.0994341</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0803222</v>
+        <v>0.09175369999999999</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138667</v>
+        <v>0.142885</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0893467</v>
+        <v>0.0960244</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08189009999999999</v>
+        <v>0.0946777</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.15029</v>
+        <v>0.162797</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0960348</v>
+        <v>0.103381</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0845825</v>
+        <v>0.0937183</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16612</v>
+        <v>0.169195</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104739</v>
+        <v>0.112513</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0875348</v>
+        <v>0.09892339999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187235</v>
+        <v>0.196237</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117651</v>
+        <v>0.126823</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09213730000000001</v>
+        <v>0.09798510000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.21774</v>
+        <v>0.221558</v>
       </c>
       <c r="C64" t="n">
-        <v>0.138933</v>
+        <v>0.138152</v>
       </c>
       <c r="D64" t="n">
-        <v>0.100978</v>
+        <v>0.113184</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260437</v>
+        <v>0.266574</v>
       </c>
       <c r="C65" t="n">
-        <v>0.172624</v>
+        <v>0.170587</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115814</v>
+        <v>0.127429</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.315833</v>
+        <v>0.320333</v>
       </c>
       <c r="C66" t="n">
-        <v>0.243814</v>
+        <v>0.240127</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0830278</v>
+        <v>0.08347259999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121758</v>
+        <v>0.129077</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08072120000000001</v>
+        <v>0.0873255</v>
       </c>
       <c r="D67" t="n">
-        <v>0.083455</v>
+        <v>0.0843083</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123281</v>
+        <v>0.132835</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0819135</v>
+        <v>0.08687979999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0844159</v>
+        <v>0.0842025</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125139</v>
+        <v>0.135252</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0825002</v>
+        <v>0.08840770000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.084216</v>
+        <v>0.085091</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.127937</v>
+        <v>0.132636</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0837707</v>
+        <v>0.0853922</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08477800000000001</v>
+        <v>0.085808</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131198</v>
+        <v>0.140723</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0859785</v>
+        <v>0.0984155</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08571289999999999</v>
+        <v>0.0944955</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.136209</v>
+        <v>0.13753</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0884356</v>
+        <v>0.0898376</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0862197</v>
+        <v>0.0863289</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142889</v>
+        <v>0.14345</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0915406</v>
+        <v>0.100224</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0875455</v>
+        <v>0.0885768</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.149671</v>
+        <v>0.153467</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0956603</v>
+        <v>0.101015</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0887869</v>
+        <v>0.0892085</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161554</v>
+        <v>0.161412</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101903</v>
+        <v>0.102213</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0912413</v>
+        <v>0.090988</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176227</v>
+        <v>0.178562</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110265</v>
+        <v>0.120668</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0941449</v>
+        <v>0.094555</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197461</v>
+        <v>0.214694</v>
       </c>
       <c r="C77" t="n">
-        <v>0.123461</v>
+        <v>0.130875</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0989058</v>
+        <v>0.0990862</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225194</v>
+        <v>0.229214</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141576</v>
+        <v>0.141166</v>
       </c>
       <c r="D78" t="n">
-        <v>0.105752</v>
+        <v>0.111758</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26723</v>
+        <v>0.263459</v>
       </c>
       <c r="C79" t="n">
-        <v>0.172054</v>
+        <v>0.177491</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119472</v>
+        <v>0.119128</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.327934</v>
+        <v>0.323761</v>
       </c>
       <c r="C80" t="n">
-        <v>0.239978</v>
+        <v>0.236367</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0920575</v>
+        <v>0.09251810000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.134702</v>
+        <v>0.136822</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0909223</v>
+        <v>0.0912463</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09233189999999999</v>
+        <v>0.09250410000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137102</v>
+        <v>0.137808</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09274159999999999</v>
+        <v>0.0935772</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09284630000000001</v>
+        <v>0.0932481</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139027</v>
+        <v>0.148504</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0940153</v>
+        <v>0.0950505</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09347469999999999</v>
+        <v>0.0938881</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.141758</v>
+        <v>0.144241</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09674149999999999</v>
+        <v>0.09702089999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09421160000000001</v>
+        <v>0.0946941</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146103</v>
+        <v>0.146325</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1</v>
+        <v>0.105281</v>
       </c>
       <c r="D85" t="n">
-        <v>0.095024</v>
+        <v>0.0958352</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150937</v>
+        <v>0.161149</v>
       </c>
       <c r="C86" t="n">
-        <v>0.10441</v>
+        <v>0.104373</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0968823</v>
+        <v>0.0976243</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.167226</v>
+        <v>0.1674</v>
       </c>
       <c r="C87" t="n">
-        <v>0.109297</v>
+        <v>0.113599</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0990357</v>
+        <v>0.0985524</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.170775</v>
+        <v>0.166557</v>
       </c>
       <c r="C88" t="n">
-        <v>0.115618</v>
+        <v>0.11534</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100903</v>
+        <v>0.109752</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177355</v>
+        <v>0.178134</v>
       </c>
       <c r="C89" t="n">
-        <v>0.123499</v>
+        <v>0.1218</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104146</v>
+        <v>0.104392</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195618</v>
+        <v>0.203617</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134847</v>
+        <v>0.133803</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108552</v>
+        <v>0.112976</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214619</v>
+        <v>0.225773</v>
       </c>
       <c r="C91" t="n">
-        <v>0.148778</v>
+        <v>0.147972</v>
       </c>
       <c r="D91" t="n">
-        <v>0.114423</v>
+        <v>0.113965</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24456</v>
+        <v>0.247058</v>
       </c>
       <c r="C92" t="n">
-        <v>0.169838</v>
+        <v>0.167059</v>
       </c>
       <c r="D92" t="n">
-        <v>0.123965</v>
+        <v>0.122893</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.299997</v>
+        <v>0.286334</v>
       </c>
       <c r="C93" t="n">
-        <v>0.20514</v>
+        <v>0.200747</v>
       </c>
       <c r="D93" t="n">
-        <v>0.137625</v>
+        <v>0.143286</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.354783</v>
+        <v>0.370793</v>
       </c>
       <c r="C94" t="n">
-        <v>0.251789</v>
+        <v>0.261238</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103839</v>
+        <v>0.103277</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.151675</v>
+        <v>0.149678</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112966</v>
+        <v>0.113366</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105957</v>
+        <v>0.105098</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153212</v>
+        <v>0.152761</v>
       </c>
       <c r="C96" t="n">
-        <v>0.116031</v>
+        <v>0.116775</v>
       </c>
       <c r="D96" t="n">
-        <v>0.107837</v>
+        <v>0.113609</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156805</v>
+        <v>0.166393</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118982</v>
+        <v>0.11986</v>
       </c>
       <c r="D97" t="n">
-        <v>0.109596</v>
+        <v>0.108424</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160906</v>
+        <v>0.159938</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122545</v>
+        <v>0.122155</v>
       </c>
       <c r="D98" t="n">
-        <v>0.111849</v>
+        <v>0.110239</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.171156</v>
+        <v>0.164843</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130183</v>
+        <v>0.131821</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11421</v>
+        <v>0.110747</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.182333</v>
+        <v>0.172444</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130956</v>
+        <v>0.131167</v>
       </c>
       <c r="D100" t="n">
-        <v>0.116275</v>
+        <v>0.114359</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.179236</v>
+        <v>0.188243</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139223</v>
+        <v>0.139987</v>
       </c>
       <c r="D101" t="n">
-        <v>0.118577</v>
+        <v>0.116348</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.187981</v>
+        <v>0.186507</v>
       </c>
       <c r="C102" t="n">
-        <v>0.14381</v>
+        <v>0.144415</v>
       </c>
       <c r="D102" t="n">
-        <v>0.121586</v>
+        <v>0.119286</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.203659</v>
+        <v>0.209198</v>
       </c>
       <c r="C103" t="n">
-        <v>0.152895</v>
+        <v>0.147747</v>
       </c>
       <c r="D103" t="n">
-        <v>0.124786</v>
+        <v>0.122157</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.225992</v>
+        <v>0.213195</v>
       </c>
       <c r="C104" t="n">
-        <v>0.167524</v>
+        <v>0.15961</v>
       </c>
       <c r="D104" t="n">
-        <v>0.127291</v>
+        <v>0.126675</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.246879</v>
+        <v>0.243445</v>
       </c>
       <c r="C105" t="n">
-        <v>0.184242</v>
+        <v>0.178989</v>
       </c>
       <c r="D105" t="n">
-        <v>0.134549</v>
+        <v>0.131997</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.273579</v>
+        <v>0.268761</v>
       </c>
       <c r="C106" t="n">
-        <v>0.207363</v>
+        <v>0.200495</v>
       </c>
       <c r="D106" t="n">
-        <v>0.143307</v>
+        <v>0.14061</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.314458</v>
+        <v>0.319189</v>
       </c>
       <c r="C107" t="n">
-        <v>0.24449</v>
+        <v>0.233173</v>
       </c>
       <c r="D107" t="n">
-        <v>0.157177</v>
+        <v>0.154075</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.381301</v>
+        <v>0.377746</v>
       </c>
       <c r="C108" t="n">
-        <v>0.295591</v>
+        <v>0.284477</v>
       </c>
       <c r="D108" t="n">
-        <v>0.11457</v>
+        <v>0.112474</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.484197</v>
+        <v>0.474242</v>
       </c>
       <c r="C109" t="n">
-        <v>0.382211</v>
+        <v>0.387928</v>
       </c>
       <c r="D109" t="n">
-        <v>0.1157</v>
+        <v>0.122435</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.175026</v>
+        <v>0.161905</v>
       </c>
       <c r="C110" t="n">
-        <v>0.139119</v>
+        <v>0.135114</v>
       </c>
       <c r="D110" t="n">
-        <v>0.116982</v>
+        <v>0.120428</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.1761</v>
+        <v>0.176042</v>
       </c>
       <c r="C111" t="n">
-        <v>0.143577</v>
+        <v>0.139334</v>
       </c>
       <c r="D111" t="n">
-        <v>0.118718</v>
+        <v>0.125085</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.17609</v>
+        <v>0.168787</v>
       </c>
       <c r="C112" t="n">
-        <v>0.148104</v>
+        <v>0.143857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.120541</v>
+        <v>0.12143</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.176054</v>
+        <v>0.173574</v>
       </c>
       <c r="C113" t="n">
-        <v>0.153652</v>
+        <v>0.149056</v>
       </c>
       <c r="D113" t="n">
-        <v>0.122713</v>
+        <v>0.120555</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.190936</v>
+        <v>0.18617</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159227</v>
+        <v>0.154631</v>
       </c>
       <c r="D114" t="n">
-        <v>0.124558</v>
+        <v>0.122371</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.19615</v>
+        <v>0.200111</v>
       </c>
       <c r="C115" t="n">
-        <v>0.166245</v>
+        <v>0.166733</v>
       </c>
       <c r="D115" t="n">
-        <v>0.128527</v>
+        <v>0.134572</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.201177</v>
+        <v>0.202679</v>
       </c>
       <c r="C116" t="n">
-        <v>0.174492</v>
+        <v>0.170057</v>
       </c>
       <c r="D116" t="n">
-        <v>0.13226</v>
+        <v>0.13266</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.227178</v>
+        <v>0.228032</v>
       </c>
       <c r="C117" t="n">
-        <v>0.184373</v>
+        <v>0.184651</v>
       </c>
       <c r="D117" t="n">
-        <v>0.139637</v>
+        <v>0.139145</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.234409</v>
+        <v>0.245956</v>
       </c>
       <c r="C118" t="n">
-        <v>0.197185</v>
+        <v>0.191725</v>
       </c>
       <c r="D118" t="n">
-        <v>0.142652</v>
+        <v>0.146665</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.268419</v>
+        <v>0.26997</v>
       </c>
       <c r="C119" t="n">
-        <v>0.218887</v>
+        <v>0.208913</v>
       </c>
       <c r="D119" t="n">
-        <v>0.15209</v>
+        <v>0.154008</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.291497</v>
+        <v>0.29561</v>
       </c>
       <c r="C120" t="n">
-        <v>0.236734</v>
+        <v>0.228318</v>
       </c>
       <c r="D120" t="n">
-        <v>0.162937</v>
+        <v>0.164149</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.343897</v>
+        <v>0.332568</v>
       </c>
       <c r="C121" t="n">
-        <v>0.268733</v>
+        <v>0.259077</v>
       </c>
       <c r="D121" t="n">
-        <v>0.184261</v>
+        <v>0.177791</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.40652</v>
+        <v>0.400663</v>
       </c>
       <c r="C122" t="n">
-        <v>0.320779</v>
+        <v>0.319696</v>
       </c>
       <c r="D122" t="n">
-        <v>0.21354</v>
+        <v>0.200813</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5039940000000001</v>
+        <v>0.495568</v>
       </c>
       <c r="C123" t="n">
-        <v>0.423038</v>
+        <v>0.390571</v>
       </c>
       <c r="D123" t="n">
-        <v>0.147628</v>
+        <v>0.139406</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.200069</v>
+        <v>0.204243</v>
       </c>
       <c r="C124" t="n">
-        <v>0.168658</v>
+        <v>0.164097</v>
       </c>
       <c r="D124" t="n">
-        <v>0.144218</v>
+        <v>0.14096</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.204617</v>
+        <v>0.197203</v>
       </c>
       <c r="C125" t="n">
-        <v>0.172087</v>
+        <v>0.17646</v>
       </c>
       <c r="D125" t="n">
-        <v>0.146566</v>
+        <v>0.148991</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.210333</v>
+        <v>0.212336</v>
       </c>
       <c r="C126" t="n">
-        <v>0.172723</v>
+        <v>0.179511</v>
       </c>
       <c r="D126" t="n">
-        <v>0.148607</v>
+        <v>0.152571</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.21516</v>
+        <v>0.215718</v>
       </c>
       <c r="C127" t="n">
-        <v>0.18053</v>
+        <v>0.175856</v>
       </c>
       <c r="D127" t="n">
-        <v>0.149884</v>
+        <v>0.147571</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.222305</v>
+        <v>0.221426</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1887</v>
+        <v>0.182613</v>
       </c>
       <c r="D128" t="n">
-        <v>0.152307</v>
+        <v>0.148452</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229621</v>
+        <v>0.229</v>
       </c>
       <c r="C129" t="n">
-        <v>0.192483</v>
+        <v>0.184547</v>
       </c>
       <c r="D129" t="n">
-        <v>0.158252</v>
+        <v>0.160701</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.232486</v>
+        <v>0.241433</v>
       </c>
       <c r="C130" t="n">
-        <v>0.199441</v>
+        <v>0.195458</v>
       </c>
       <c r="D130" t="n">
-        <v>0.164858</v>
+        <v>0.161127</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.256815</v>
+        <v>0.240235</v>
       </c>
       <c r="C131" t="n">
-        <v>0.210219</v>
+        <v>0.207892</v>
       </c>
       <c r="D131" t="n">
-        <v>0.166851</v>
+        <v>0.16528</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.270185</v>
+        <v>0.264274</v>
       </c>
       <c r="C132" t="n">
-        <v>0.224437</v>
+        <v>0.212723</v>
       </c>
       <c r="D132" t="n">
-        <v>0.168926</v>
+        <v>0.168431</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287941</v>
+        <v>0.280788</v>
       </c>
       <c r="C133" t="n">
-        <v>0.238736</v>
+        <v>0.229667</v>
       </c>
       <c r="D133" t="n">
-        <v>0.182466</v>
+        <v>0.177535</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.319388</v>
+        <v>0.309243</v>
       </c>
       <c r="C134" t="n">
-        <v>0.258153</v>
+        <v>0.245301</v>
       </c>
       <c r="D134" t="n">
-        <v>0.185147</v>
+        <v>0.178955</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.355803</v>
+        <v>0.357825</v>
       </c>
       <c r="C135" t="n">
-        <v>0.289331</v>
+        <v>0.285729</v>
       </c>
       <c r="D135" t="n">
-        <v>0.198079</v>
+        <v>0.192155</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.417169</v>
+        <v>0.410148</v>
       </c>
       <c r="C136" t="n">
-        <v>0.338081</v>
+        <v>0.323177</v>
       </c>
       <c r="D136" t="n">
-        <v>0.221986</v>
+        <v>0.211316</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.525012</v>
+        <v>0.512108</v>
       </c>
       <c r="C137" t="n">
-        <v>0.428053</v>
+        <v>0.416991</v>
       </c>
       <c r="D137" t="n">
-        <v>0.273573</v>
+        <v>0.259108</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.356646</v>
+        <v>0.329412</v>
       </c>
       <c r="C138" t="n">
-        <v>0.29306</v>
+        <v>0.271544</v>
       </c>
       <c r="D138" t="n">
-        <v>0.27191</v>
+        <v>0.253856</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.369877</v>
+        <v>0.342533</v>
       </c>
       <c r="C139" t="n">
-        <v>0.296252</v>
+        <v>0.273667</v>
       </c>
       <c r="D139" t="n">
-        <v>0.275797</v>
+        <v>0.25625</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.367898</v>
+        <v>0.345958</v>
       </c>
       <c r="C140" t="n">
-        <v>0.299268</v>
+        <v>0.277424</v>
       </c>
       <c r="D140" t="n">
-        <v>0.277744</v>
+        <v>0.261746</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.376897</v>
+        <v>0.356466</v>
       </c>
       <c r="C141" t="n">
-        <v>0.302811</v>
+        <v>0.286568</v>
       </c>
       <c r="D141" t="n">
-        <v>0.285017</v>
+        <v>0.260341</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.379739</v>
+        <v>0.348921</v>
       </c>
       <c r="C142" t="n">
-        <v>0.308469</v>
+        <v>0.284713</v>
       </c>
       <c r="D142" t="n">
-        <v>0.282655</v>
+        <v>0.26539</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.383457</v>
+        <v>0.360035</v>
       </c>
       <c r="C143" t="n">
-        <v>0.313015</v>
+        <v>0.289565</v>
       </c>
       <c r="D143" t="n">
-        <v>0.285623</v>
+        <v>0.270306</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103379</v>
+        <v>0.103377</v>
       </c>
       <c r="C2" t="n">
-        <v>0.061496</v>
+        <v>0.0614041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0705505</v>
+        <v>0.0704094</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111375</v>
+        <v>0.111152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06251139999999999</v>
+        <v>0.0620572</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0699274</v>
+        <v>0.07112110000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12231</v>
+        <v>0.122667</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0657064</v>
+        <v>0.0651106</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0691677</v>
+        <v>0.0692092</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143395</v>
+        <v>0.143269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07381260000000001</v>
+        <v>0.0735962</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06990490000000001</v>
+        <v>0.0699963</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170545</v>
+        <v>0.170229</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0895373</v>
+        <v>0.0894216</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07158829999999999</v>
+        <v>0.0714144</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205753</v>
+        <v>0.205752</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112428</v>
+        <v>0.111639</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0752346</v>
+        <v>0.0752443</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.253174</v>
+        <v>0.252644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.158683</v>
+        <v>0.152424</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0885016</v>
+        <v>0.0893318</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305911</v>
+        <v>0.306107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191152</v>
+        <v>0.190569</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0701948</v>
+        <v>0.070962</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951811</v>
+        <v>0.09514839999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0649073</v>
+        <v>0.0628302</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704586</v>
+        <v>0.0713351</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.095667</v>
+        <v>0.096163</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06388679999999999</v>
+        <v>0.0622123</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07061489999999999</v>
+        <v>0.07129489999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0978836</v>
+        <v>0.0980343</v>
       </c>
       <c r="C12" t="n">
-        <v>0.063805</v>
+        <v>0.0621355</v>
       </c>
       <c r="D12" t="n">
-        <v>0.072671</v>
+        <v>0.0715552</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09956039999999999</v>
+        <v>0.100267</v>
       </c>
       <c r="C13" t="n">
-        <v>0.070465</v>
+        <v>0.0632398</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0726876</v>
+        <v>0.07151349999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102381</v>
+        <v>0.102879</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07290389999999999</v>
+        <v>0.06312769999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0711056</v>
+        <v>0.0716088</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.111746</v>
+        <v>0.10717</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0736488</v>
+        <v>0.0634918</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0713464</v>
+        <v>0.07208150000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112134</v>
+        <v>0.11278</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0718676</v>
+        <v>0.067051</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0715881</v>
+        <v>0.0720819</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121298</v>
+        <v>0.121898</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0710808</v>
+        <v>0.0705832</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0719332</v>
+        <v>0.07229049999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133668</v>
+        <v>0.133728</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0817027</v>
+        <v>0.0802686</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0727541</v>
+        <v>0.0728809</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.155674</v>
+        <v>0.150186</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09186370000000001</v>
+        <v>0.0913141</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0738858</v>
+        <v>0.0734448</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.177993</v>
+        <v>0.17162</v>
       </c>
       <c r="C20" t="n">
-        <v>0.105168</v>
+        <v>0.104304</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0771271</v>
+        <v>0.0767014</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199549</v>
+        <v>0.198551</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122149</v>
+        <v>0.121247</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09989720000000001</v>
+        <v>0.0855993</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.237779</v>
+        <v>0.236796</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155263</v>
+        <v>0.169174</v>
       </c>
       <c r="D22" t="n">
-        <v>0.104461</v>
+        <v>0.102751</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291755</v>
+        <v>0.286945</v>
       </c>
       <c r="C23" t="n">
-        <v>0.197434</v>
+        <v>0.195769</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0723959</v>
+        <v>0.07325520000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.109212</v>
+        <v>0.100574</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0667142</v>
+        <v>0.0665193</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0723432</v>
+        <v>0.07339469999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103155</v>
+        <v>0.101838</v>
       </c>
       <c r="C25" t="n">
-        <v>0.072184</v>
+        <v>0.0664785</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0735664</v>
+        <v>0.0735913</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.105972</v>
+        <v>0.103473</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0683402</v>
+        <v>0.0669604</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07286090000000001</v>
+        <v>0.07290149999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105477</v>
+        <v>0.105467</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0681563</v>
+        <v>0.0674541</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0747772</v>
+        <v>0.0732246</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.112967</v>
+        <v>0.108835</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0763089</v>
+        <v>0.06864480000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.073433</v>
+        <v>0.0735857</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.11344</v>
+        <v>0.113349</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0709994</v>
+        <v>0.0702231</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07482709999999999</v>
+        <v>0.073696</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119611</v>
+        <v>0.119605</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0747068</v>
+        <v>0.0742568</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0779873</v>
+        <v>0.0776558</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136825</v>
+        <v>0.12722</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0793247</v>
+        <v>0.0790759</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0763056</v>
+        <v>0.074698</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137221</v>
+        <v>0.137154</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09132419999999999</v>
+        <v>0.08514579999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0824273</v>
+        <v>0.0755543</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150093</v>
+        <v>0.150133</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09268079999999999</v>
+        <v>0.0929352</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0786568</v>
+        <v>0.0776945</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.175722</v>
+        <v>0.168161</v>
       </c>
       <c r="C34" t="n">
-        <v>0.10558</v>
+        <v>0.105571</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0840434</v>
+        <v>0.0831858</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194802</v>
+        <v>0.194754</v>
       </c>
       <c r="C35" t="n">
-        <v>0.13319</v>
+        <v>0.123305</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0930266</v>
+        <v>0.0915923</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233017</v>
+        <v>0.232335</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148269</v>
+        <v>0.148083</v>
       </c>
       <c r="D36" t="n">
-        <v>0.11347</v>
+        <v>0.103707</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.29941</v>
+        <v>0.280289</v>
       </c>
       <c r="C37" t="n">
-        <v>0.208521</v>
+        <v>0.190483</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07414709999999999</v>
+        <v>0.073756</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.108218</v>
+        <v>0.10338</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07480439999999999</v>
+        <v>0.06932099999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0738825</v>
+        <v>0.0739196</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.110496</v>
+        <v>0.105064</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07346809999999999</v>
+        <v>0.070103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0740227</v>
+        <v>0.0741583</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.110989</v>
+        <v>0.106793</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0709596</v>
+        <v>0.070898</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0748265</v>
+        <v>0.0743497</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111218</v>
+        <v>0.108822</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0723033</v>
+        <v>0.0721194</v>
       </c>
       <c r="D41" t="n">
-        <v>0.075168</v>
+        <v>0.0747317</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112774</v>
+        <v>0.112059</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0819117</v>
+        <v>0.07359010000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07570490000000001</v>
+        <v>0.075049</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.12465</v>
+        <v>0.116341</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0758091</v>
+        <v>0.0758781</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07846259999999999</v>
+        <v>0.075443</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12569</v>
+        <v>0.122264</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08679050000000001</v>
+        <v>0.07842109999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.07625079999999999</v>
+        <v>0.076113</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.136209</v>
+        <v>0.129026</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08211110000000001</v>
+        <v>0.081813</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0813999</v>
+        <v>0.0770882</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.143189</v>
+        <v>0.138107</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0868531</v>
+        <v>0.08671760000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0867661</v>
+        <v>0.0786251</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152435</v>
+        <v>0.151795</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0933172</v>
+        <v>0.0932492</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0818189</v>
+        <v>0.0809425</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.172047</v>
+        <v>0.167771</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102915</v>
+        <v>0.102968</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0854661</v>
+        <v>0.0851336</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.193942</v>
+        <v>0.19143</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116538</v>
+        <v>0.116514</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0907391</v>
+        <v>0.09073059999999999</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.234105</v>
+        <v>0.22321</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137636</v>
+        <v>0.137815</v>
       </c>
       <c r="D50" t="n">
-        <v>0.099547</v>
+        <v>0.0996591</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.275127</v>
+        <v>0.268851</v>
       </c>
       <c r="C51" t="n">
-        <v>0.188791</v>
+        <v>0.178423</v>
       </c>
       <c r="D51" t="n">
-        <v>0.079442</v>
+        <v>0.07533670000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.349758</v>
+        <v>0.321795</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227882</v>
+        <v>0.250071</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0764314</v>
+        <v>0.07553600000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111885</v>
+        <v>0.108447</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07925649999999999</v>
+        <v>0.07361090000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0777727</v>
+        <v>0.0760463</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.113204</v>
+        <v>0.110168</v>
       </c>
       <c r="C54" t="n">
-        <v>0.076359</v>
+        <v>0.0745121</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0821595</v>
+        <v>0.07633620000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117737</v>
+        <v>0.11456</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08456660000000001</v>
+        <v>0.07571559999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0917347</v>
+        <v>0.0768959</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.11931</v>
+        <v>0.116358</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0839285</v>
+        <v>0.0774513</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0826279</v>
+        <v>0.07776230000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121973</v>
+        <v>0.119964</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08902880000000001</v>
+        <v>0.0796737</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0802648</v>
+        <v>0.07869</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12802</v>
+        <v>0.126845</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0910093</v>
+        <v>0.0822711</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0842378</v>
+        <v>0.0794605</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134077</v>
+        <v>0.131749</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0994341</v>
+        <v>0.084854</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09175369999999999</v>
+        <v>0.0803191</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142885</v>
+        <v>0.139556</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0960244</v>
+        <v>0.08868860000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0946777</v>
+        <v>0.0813947</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.162797</v>
+        <v>0.149456</v>
       </c>
       <c r="C61" t="n">
-        <v>0.103381</v>
+        <v>0.0951013</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0937183</v>
+        <v>0.0841828</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169195</v>
+        <v>0.166103</v>
       </c>
       <c r="C62" t="n">
-        <v>0.112513</v>
+        <v>0.104343</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09892339999999999</v>
+        <v>0.087477</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.196237</v>
+        <v>0.188148</v>
       </c>
       <c r="C63" t="n">
-        <v>0.126823</v>
+        <v>0.11777</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09798510000000001</v>
+        <v>0.09292640000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.221558</v>
+        <v>0.218389</v>
       </c>
       <c r="C64" t="n">
-        <v>0.138152</v>
+        <v>0.137849</v>
       </c>
       <c r="D64" t="n">
-        <v>0.113184</v>
+        <v>0.100605</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266574</v>
+        <v>0.258667</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170587</v>
+        <v>0.185986</v>
       </c>
       <c r="D65" t="n">
-        <v>0.127429</v>
+        <v>0.115016</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.320333</v>
+        <v>0.314299</v>
       </c>
       <c r="C66" t="n">
-        <v>0.240127</v>
+        <v>0.241064</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08347259999999999</v>
+        <v>0.0826438</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.129077</v>
+        <v>0.121266</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0873255</v>
+        <v>0.0809646</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0843083</v>
+        <v>0.0833294</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.132835</v>
+        <v>0.123081</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08687979999999999</v>
+        <v>0.0813836</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0842025</v>
+        <v>0.084012</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.135252</v>
+        <v>0.125031</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08840770000000001</v>
+        <v>0.08277760000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.085091</v>
+        <v>0.08401699999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.132636</v>
+        <v>0.126951</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0853922</v>
+        <v>0.0841436</v>
       </c>
       <c r="D70" t="n">
-        <v>0.085808</v>
+        <v>0.0844809</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.140723</v>
+        <v>0.130494</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0984155</v>
+        <v>0.0861552</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0944955</v>
+        <v>0.08954620000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.13753</v>
+        <v>0.135868</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0898376</v>
+        <v>0.0887449</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0863289</v>
+        <v>0.0863351</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.14345</v>
+        <v>0.143833</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100224</v>
+        <v>0.0914828</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0885768</v>
+        <v>0.08775719999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.153467</v>
+        <v>0.152588</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101015</v>
+        <v>0.09573760000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0892085</v>
+        <v>0.0889037</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161412</v>
+        <v>0.160838</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102213</v>
+        <v>0.102144</v>
       </c>
       <c r="D75" t="n">
-        <v>0.090988</v>
+        <v>0.0913094</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.178562</v>
+        <v>0.176278</v>
       </c>
       <c r="C76" t="n">
-        <v>0.120668</v>
+        <v>0.109972</v>
       </c>
       <c r="D76" t="n">
-        <v>0.094555</v>
+        <v>0.09354129999999999</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.214694</v>
+        <v>0.196747</v>
       </c>
       <c r="C77" t="n">
-        <v>0.130875</v>
+        <v>0.122726</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0990862</v>
+        <v>0.0979719</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.229214</v>
+        <v>0.225888</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141166</v>
+        <v>0.144685</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111758</v>
+        <v>0.10635</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.263459</v>
+        <v>0.265805</v>
       </c>
       <c r="C79" t="n">
-        <v>0.177491</v>
+        <v>0.169536</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119128</v>
+        <v>0.119395</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323761</v>
+        <v>0.325773</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236367</v>
+        <v>0.236077</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09251810000000001</v>
+        <v>0.09186370000000001</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.136822</v>
+        <v>0.134914</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0912463</v>
+        <v>0.09125510000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09250410000000001</v>
+        <v>0.0924551</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137808</v>
+        <v>0.137016</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0935772</v>
+        <v>0.0925535</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0932481</v>
+        <v>0.0929125</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148504</v>
+        <v>0.139484</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0950505</v>
+        <v>0.0943616</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0938881</v>
+        <v>0.0937238</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.144241</v>
+        <v>0.14192</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09702089999999999</v>
+        <v>0.0967981</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0946941</v>
+        <v>0.0946661</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146325</v>
+        <v>0.146262</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105281</v>
+        <v>0.0996244</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0958352</v>
+        <v>0.0953769</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161149</v>
+        <v>0.150936</v>
       </c>
       <c r="C86" t="n">
-        <v>0.104373</v>
+        <v>0.103493</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0976243</v>
+        <v>0.101058</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.1674</v>
+        <v>0.166615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.113599</v>
+        <v>0.108302</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0985524</v>
+        <v>0.0986209</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166557</v>
+        <v>0.166299</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11534</v>
+        <v>0.11499</v>
       </c>
       <c r="D88" t="n">
-        <v>0.109752</v>
+        <v>0.100819</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178134</v>
+        <v>0.178188</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1218</v>
+        <v>0.122096</v>
       </c>
       <c r="D89" t="n">
-        <v>0.104392</v>
+        <v>0.105547</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203617</v>
+        <v>0.192842</v>
       </c>
       <c r="C90" t="n">
-        <v>0.133803</v>
+        <v>0.133062</v>
       </c>
       <c r="D90" t="n">
-        <v>0.112976</v>
+        <v>0.108048</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.225773</v>
+        <v>0.213311</v>
       </c>
       <c r="C91" t="n">
-        <v>0.147972</v>
+        <v>0.150994</v>
       </c>
       <c r="D91" t="n">
-        <v>0.113965</v>
+        <v>0.113829</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.247058</v>
+        <v>0.244735</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167059</v>
+        <v>0.167685</v>
       </c>
       <c r="D92" t="n">
-        <v>0.122893</v>
+        <v>0.122151</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286334</v>
+        <v>0.299564</v>
       </c>
       <c r="C93" t="n">
-        <v>0.200747</v>
+        <v>0.198006</v>
       </c>
       <c r="D93" t="n">
-        <v>0.143286</v>
+        <v>0.13619</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.370793</v>
+        <v>0.349049</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261238</v>
+        <v>0.259733</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103277</v>
+        <v>0.103537</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149678</v>
+        <v>0.149565</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113366</v>
+        <v>0.112733</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105098</v>
+        <v>0.105051</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152761</v>
+        <v>0.163032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.116775</v>
+        <v>0.117055</v>
       </c>
       <c r="D96" t="n">
-        <v>0.113609</v>
+        <v>0.106851</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.166393</v>
+        <v>0.159837</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11986</v>
+        <v>0.118567</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108424</v>
+        <v>0.108908</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.159938</v>
+        <v>0.165818</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122155</v>
+        <v>0.122124</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110239</v>
+        <v>0.110349</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164843</v>
+        <v>0.17535</v>
       </c>
       <c r="C99" t="n">
-        <v>0.131821</v>
+        <v>0.125997</v>
       </c>
       <c r="D99" t="n">
-        <v>0.110747</v>
+        <v>0.11593</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.172444</v>
+        <v>0.181125</v>
       </c>
       <c r="C100" t="n">
-        <v>0.131167</v>
+        <v>0.135185</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114359</v>
+        <v>0.114613</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.188243</v>
+        <v>0.177594</v>
       </c>
       <c r="C101" t="n">
-        <v>0.139987</v>
+        <v>0.135501</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116348</v>
+        <v>0.116955</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186507</v>
+        <v>0.186377</v>
       </c>
       <c r="C102" t="n">
-        <v>0.144415</v>
+        <v>0.142069</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119286</v>
+        <v>0.119414</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.209198</v>
+        <v>0.197502</v>
       </c>
       <c r="C103" t="n">
-        <v>0.147747</v>
+        <v>0.150772</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122157</v>
+        <v>0.122818</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.213195</v>
+        <v>0.21262</v>
       </c>
       <c r="C104" t="n">
-        <v>0.15961</v>
+        <v>0.162743</v>
       </c>
       <c r="D104" t="n">
-        <v>0.126675</v>
+        <v>0.128493</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243445</v>
+        <v>0.244838</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178989</v>
+        <v>0.178082</v>
       </c>
       <c r="D105" t="n">
-        <v>0.131997</v>
+        <v>0.132331</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.268761</v>
+        <v>0.261848</v>
       </c>
       <c r="C106" t="n">
-        <v>0.200495</v>
+        <v>0.200618</v>
       </c>
       <c r="D106" t="n">
-        <v>0.14061</v>
+        <v>0.140791</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.319189</v>
+        <v>0.30783</v>
       </c>
       <c r="C107" t="n">
-        <v>0.233173</v>
+        <v>0.239305</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154075</v>
+        <v>0.154333</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.377746</v>
+        <v>0.37694</v>
       </c>
       <c r="C108" t="n">
-        <v>0.284477</v>
+        <v>0.299944</v>
       </c>
       <c r="D108" t="n">
-        <v>0.112474</v>
+        <v>0.113191</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474242</v>
+        <v>0.472217</v>
       </c>
       <c r="C109" t="n">
-        <v>0.387928</v>
+        <v>0.369203</v>
       </c>
       <c r="D109" t="n">
-        <v>0.122435</v>
+        <v>0.11427</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161905</v>
+        <v>0.161644</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135114</v>
+        <v>0.135117</v>
       </c>
       <c r="D110" t="n">
-        <v>0.120428</v>
+        <v>0.115625</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.176042</v>
+        <v>0.164811</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139334</v>
+        <v>0.138852</v>
       </c>
       <c r="D111" t="n">
-        <v>0.125085</v>
+        <v>0.11651</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168787</v>
+        <v>0.168393</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143857</v>
+        <v>0.143242</v>
       </c>
       <c r="D112" t="n">
-        <v>0.12143</v>
+        <v>0.118811</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173574</v>
+        <v>0.173402</v>
       </c>
       <c r="C113" t="n">
-        <v>0.149056</v>
+        <v>0.148475</v>
       </c>
       <c r="D113" t="n">
-        <v>0.120555</v>
+        <v>0.120765</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.18617</v>
+        <v>0.190513</v>
       </c>
       <c r="C114" t="n">
-        <v>0.154631</v>
+        <v>0.153588</v>
       </c>
       <c r="D114" t="n">
-        <v>0.122371</v>
+        <v>0.123025</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200111</v>
+        <v>0.187833</v>
       </c>
       <c r="C115" t="n">
-        <v>0.166733</v>
+        <v>0.160017</v>
       </c>
       <c r="D115" t="n">
-        <v>0.134572</v>
+        <v>0.125941</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.202679</v>
+        <v>0.198293</v>
       </c>
       <c r="C116" t="n">
-        <v>0.170057</v>
+        <v>0.167915</v>
       </c>
       <c r="D116" t="n">
-        <v>0.13266</v>
+        <v>0.137779</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.228032</v>
+        <v>0.211856</v>
       </c>
       <c r="C117" t="n">
-        <v>0.184651</v>
+        <v>0.18075</v>
       </c>
       <c r="D117" t="n">
-        <v>0.139145</v>
+        <v>0.133956</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.245956</v>
+        <v>0.232384</v>
       </c>
       <c r="C118" t="n">
-        <v>0.191725</v>
+        <v>0.189614</v>
       </c>
       <c r="D118" t="n">
-        <v>0.146665</v>
+        <v>0.143216</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.26997</v>
+        <v>0.259082</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208913</v>
+        <v>0.205254</v>
       </c>
       <c r="D119" t="n">
-        <v>0.154008</v>
+        <v>0.148119</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.29561</v>
+        <v>0.2857</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228318</v>
+        <v>0.226981</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164149</v>
+        <v>0.159307</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.332568</v>
+        <v>0.330485</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259077</v>
+        <v>0.258528</v>
       </c>
       <c r="D121" t="n">
-        <v>0.177791</v>
+        <v>0.17464</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.400663</v>
+        <v>0.395822</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319696</v>
+        <v>0.307841</v>
       </c>
       <c r="D122" t="n">
-        <v>0.200813</v>
+        <v>0.199081</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.495568</v>
+        <v>0.494977</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390571</v>
+        <v>0.407086</v>
       </c>
       <c r="D123" t="n">
-        <v>0.139406</v>
+        <v>0.140357</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.204243</v>
+        <v>0.194867</v>
       </c>
       <c r="C124" t="n">
-        <v>0.164097</v>
+        <v>0.161853</v>
       </c>
       <c r="D124" t="n">
-        <v>0.14096</v>
+        <v>0.144909</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.197203</v>
+        <v>0.206589</v>
       </c>
       <c r="C125" t="n">
-        <v>0.17646</v>
+        <v>0.169745</v>
       </c>
       <c r="D125" t="n">
-        <v>0.148991</v>
+        <v>0.143301</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.212336</v>
+        <v>0.197612</v>
       </c>
       <c r="C126" t="n">
-        <v>0.179511</v>
+        <v>0.170852</v>
       </c>
       <c r="D126" t="n">
-        <v>0.152571</v>
+        <v>0.146261</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.215718</v>
+        <v>0.201878</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175856</v>
+        <v>0.172936</v>
       </c>
       <c r="D127" t="n">
-        <v>0.147571</v>
+        <v>0.14996</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.221426</v>
+        <v>0.214178</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182613</v>
+        <v>0.1808</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148452</v>
+        <v>0.150655</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229</v>
+        <v>0.219793</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184547</v>
+        <v>0.185077</v>
       </c>
       <c r="D129" t="n">
-        <v>0.160701</v>
+        <v>0.154884</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.241433</v>
+        <v>0.228308</v>
       </c>
       <c r="C130" t="n">
-        <v>0.195458</v>
+        <v>0.191649</v>
       </c>
       <c r="D130" t="n">
-        <v>0.161127</v>
+        <v>0.15427</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240235</v>
+        <v>0.242034</v>
       </c>
       <c r="C131" t="n">
-        <v>0.207892</v>
+        <v>0.20183</v>
       </c>
       <c r="D131" t="n">
-        <v>0.16528</v>
+        <v>0.159284</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.264274</v>
+        <v>0.261395</v>
       </c>
       <c r="C132" t="n">
-        <v>0.212723</v>
+        <v>0.211352</v>
       </c>
       <c r="D132" t="n">
-        <v>0.168431</v>
+        <v>0.163756</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.280788</v>
+        <v>0.28327</v>
       </c>
       <c r="C133" t="n">
-        <v>0.229667</v>
+        <v>0.226941</v>
       </c>
       <c r="D133" t="n">
-        <v>0.177535</v>
+        <v>0.170625</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.309243</v>
+        <v>0.313623</v>
       </c>
       <c r="C134" t="n">
-        <v>0.245301</v>
+        <v>0.248336</v>
       </c>
       <c r="D134" t="n">
-        <v>0.178955</v>
+        <v>0.178385</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.357825</v>
+        <v>0.354059</v>
       </c>
       <c r="C135" t="n">
-        <v>0.285729</v>
+        <v>0.280763</v>
       </c>
       <c r="D135" t="n">
-        <v>0.192155</v>
+        <v>0.190676</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.410148</v>
+        <v>0.418306</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323177</v>
+        <v>0.335337</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211316</v>
+        <v>0.217074</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.512108</v>
+        <v>0.510203</v>
       </c>
       <c r="C137" t="n">
-        <v>0.416991</v>
+        <v>0.39932</v>
       </c>
       <c r="D137" t="n">
-        <v>0.259108</v>
+        <v>0.252072</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329412</v>
+        <v>0.334554</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271544</v>
+        <v>0.271226</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253856</v>
+        <v>0.253899</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342533</v>
+        <v>0.344317</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273667</v>
+        <v>0.274394</v>
       </c>
       <c r="D139" t="n">
-        <v>0.25625</v>
+        <v>0.258742</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345958</v>
+        <v>0.338175</v>
       </c>
       <c r="C140" t="n">
-        <v>0.277424</v>
+        <v>0.278658</v>
       </c>
       <c r="D140" t="n">
-        <v>0.261746</v>
+        <v>0.256688</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.356466</v>
+        <v>0.349152</v>
       </c>
       <c r="C141" t="n">
-        <v>0.286568</v>
+        <v>0.281226</v>
       </c>
       <c r="D141" t="n">
-        <v>0.260341</v>
+        <v>0.26283</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.348921</v>
+        <v>0.35233</v>
       </c>
       <c r="C142" t="n">
-        <v>0.284713</v>
+        <v>0.286969</v>
       </c>
       <c r="D142" t="n">
-        <v>0.26539</v>
+        <v>0.264327</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.360035</v>
+        <v>0.367603</v>
       </c>
       <c r="C143" t="n">
-        <v>0.289565</v>
+        <v>0.290896</v>
       </c>
       <c r="D143" t="n">
-        <v>0.270306</v>
+        <v>0.263528</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103377</v>
+        <v>0.102216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0614041</v>
+        <v>0.102432</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0704094</v>
+        <v>0.0720533</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111152</v>
+        <v>0.109644</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0620572</v>
+        <v>0.104959</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07112110000000001</v>
+        <v>0.0713684</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122667</v>
+        <v>0.120153</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0651106</v>
+        <v>0.110112</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0692092</v>
+        <v>0.0720213</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143269</v>
+        <v>0.139868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0735962</v>
+        <v>0.117214</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0699963</v>
+        <v>0.0719825</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170229</v>
+        <v>0.164191</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0894216</v>
+        <v>0.130002</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0714144</v>
+        <v>0.0736998</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205752</v>
+        <v>0.199404</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111639</v>
+        <v>0.148742</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0752443</v>
+        <v>0.0769846</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252644</v>
+        <v>0.248599</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152424</v>
+        <v>0.0947701</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0893318</v>
+        <v>0.0915034</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306107</v>
+        <v>0.3014</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190569</v>
+        <v>0.09539209999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.070962</v>
+        <v>0.07201</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09514839999999999</v>
+        <v>0.0953103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0628302</v>
+        <v>0.09486459999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0713351</v>
+        <v>0.0721456</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.096163</v>
+        <v>0.0963798</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0622123</v>
+        <v>0.09527090000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07129489999999999</v>
+        <v>0.0721237</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0980343</v>
+        <v>0.097632</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0621355</v>
+        <v>0.0961414</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0715552</v>
+        <v>0.0723683</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100267</v>
+        <v>0.0996406</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0632398</v>
+        <v>0.0978383</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07151349999999999</v>
+        <v>0.0726991</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102879</v>
+        <v>0.102267</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06312769999999999</v>
+        <v>0.0989413</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0716088</v>
+        <v>0.0728316</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10717</v>
+        <v>0.106915</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0634918</v>
+        <v>0.101078</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07208150000000001</v>
+        <v>0.0728694</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11278</v>
+        <v>0.111973</v>
       </c>
       <c r="C16" t="n">
-        <v>0.067051</v>
+        <v>0.104485</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0720819</v>
+        <v>0.0731059</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121898</v>
+        <v>0.119869</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0705832</v>
+        <v>0.108139</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07229049999999999</v>
+        <v>0.07351870000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133728</v>
+        <v>0.131369</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0802686</v>
+        <v>0.114839</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0728809</v>
+        <v>0.0737225</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150186</v>
+        <v>0.146633</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0913141</v>
+        <v>0.123381</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0734448</v>
+        <v>0.0748983</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.17162</v>
+        <v>0.16832</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104304</v>
+        <v>0.135984</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0767014</v>
+        <v>0.0781245</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198551</v>
+        <v>0.195716</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121247</v>
+        <v>0.152193</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0855993</v>
+        <v>0.0875705</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236796</v>
+        <v>0.2339</v>
       </c>
       <c r="C22" t="n">
-        <v>0.169174</v>
+        <v>0.103952</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102751</v>
+        <v>0.10006</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286945</v>
+        <v>0.288446</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195769</v>
+        <v>0.105115</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07325520000000001</v>
+        <v>0.0739616</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100574</v>
+        <v>0.100811</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665193</v>
+        <v>0.105244</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07339469999999999</v>
+        <v>0.07410609999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101838</v>
+        <v>0.102063</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0664785</v>
+        <v>0.1067</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0735913</v>
+        <v>0.0743859</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103473</v>
+        <v>0.10354</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0669604</v>
+        <v>0.106635</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07290149999999999</v>
+        <v>0.0748414</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105467</v>
+        <v>0.105879</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0674541</v>
+        <v>0.108044</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0732246</v>
+        <v>0.0747739</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108835</v>
+        <v>0.108756</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06864480000000001</v>
+        <v>0.120254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0735857</v>
+        <v>0.0751653</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113349</v>
+        <v>0.113017</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0702231</v>
+        <v>0.111998</v>
       </c>
       <c r="D29" t="n">
-        <v>0.073696</v>
+        <v>0.07535550000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119605</v>
+        <v>0.118947</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0742568</v>
+        <v>0.114379</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0776558</v>
+        <v>0.0759252</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12722</v>
+        <v>0.126099</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0790759</v>
+        <v>0.119094</v>
       </c>
       <c r="D31" t="n">
-        <v>0.074698</v>
+        <v>0.076297</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137154</v>
+        <v>0.135957</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08514579999999999</v>
+        <v>0.125078</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0755543</v>
+        <v>0.0773903</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150133</v>
+        <v>0.148386</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0929352</v>
+        <v>0.133047</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0776945</v>
+        <v>0.0792636</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168161</v>
+        <v>0.167026</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105571</v>
+        <v>0.144333</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0831858</v>
+        <v>0.08402709999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194754</v>
+        <v>0.192716</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123305</v>
+        <v>0.160985</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0915923</v>
+        <v>0.0905623</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232335</v>
+        <v>0.228171</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148083</v>
+        <v>0.180213</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103707</v>
+        <v>0.100815</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280289</v>
+        <v>0.290231</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190483</v>
+        <v>0.114373</v>
       </c>
       <c r="D37" t="n">
-        <v>0.073756</v>
+        <v>0.07493569999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10338</v>
+        <v>0.103275</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06932099999999999</v>
+        <v>0.115062</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0739196</v>
+        <v>0.07553799999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105064</v>
+        <v>0.104649</v>
       </c>
       <c r="C39" t="n">
-        <v>0.070103</v>
+        <v>0.115921</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0741583</v>
+        <v>0.07538590000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106793</v>
+        <v>0.106237</v>
       </c>
       <c r="C40" t="n">
-        <v>0.070898</v>
+        <v>0.116881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0743497</v>
+        <v>0.07575369999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108822</v>
+        <v>0.108609</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0721194</v>
+        <v>0.11823</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0747317</v>
+        <v>0.0760546</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112059</v>
+        <v>0.111862</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07359010000000001</v>
+        <v>0.119953</v>
       </c>
       <c r="D42" t="n">
-        <v>0.075049</v>
+        <v>0.0773659</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116341</v>
+        <v>0.115969</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0758781</v>
+        <v>0.123937</v>
       </c>
       <c r="D43" t="n">
-        <v>0.075443</v>
+        <v>0.0767563</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122264</v>
+        <v>0.121054</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07842109999999999</v>
+        <v>0.133846</v>
       </c>
       <c r="D44" t="n">
-        <v>0.076113</v>
+        <v>0.0774123</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129026</v>
+        <v>0.127961</v>
       </c>
       <c r="C45" t="n">
-        <v>0.081813</v>
+        <v>0.129691</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0770882</v>
+        <v>0.07847469999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138107</v>
+        <v>0.137523</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08671760000000001</v>
+        <v>0.135342</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0786251</v>
+        <v>0.0798036</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151795</v>
+        <v>0.149971</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0932492</v>
+        <v>0.143899</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0809425</v>
+        <v>0.08247699999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167771</v>
+        <v>0.165729</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102968</v>
+        <v>0.154288</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0851336</v>
+        <v>0.08620750000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19143</v>
+        <v>0.186998</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116514</v>
+        <v>0.16788</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09073059999999999</v>
+        <v>0.0918667</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22321</v>
+        <v>0.217792</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137815</v>
+        <v>0.193842</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0996591</v>
+        <v>0.101148</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268851</v>
+        <v>0.265045</v>
       </c>
       <c r="C51" t="n">
-        <v>0.178423</v>
+        <v>0.118474</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07533670000000001</v>
+        <v>0.0776196</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.321795</v>
+        <v>0.318793</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250071</v>
+        <v>0.119355</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07553600000000001</v>
+        <v>0.0771246</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108447</v>
+        <v>0.10841</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07361090000000001</v>
+        <v>0.120044</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0760463</v>
+        <v>0.0770825</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110168</v>
+        <v>0.110627</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0745121</v>
+        <v>0.122265</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07633620000000001</v>
+        <v>0.0776756</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11456</v>
+        <v>0.112507</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07571559999999999</v>
+        <v>0.122307</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0768959</v>
+        <v>0.0778674</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116358</v>
+        <v>0.115011</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0774513</v>
+        <v>0.124061</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07776230000000001</v>
+        <v>0.07835590000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119964</v>
+        <v>0.118325</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0796737</v>
+        <v>0.127065</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07869</v>
+        <v>0.0788595</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126845</v>
+        <v>0.123173</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0822711</v>
+        <v>0.129381</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0794605</v>
+        <v>0.0795284</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131749</v>
+        <v>0.13046</v>
       </c>
       <c r="C59" t="n">
-        <v>0.084854</v>
+        <v>0.133596</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0803191</v>
+        <v>0.0807678</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139556</v>
+        <v>0.137479</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08868860000000001</v>
+        <v>0.142789</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0813947</v>
+        <v>0.08209370000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149456</v>
+        <v>0.149094</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0951013</v>
+        <v>0.147245</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0841828</v>
+        <v>0.0845915</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166103</v>
+        <v>0.164223</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104343</v>
+        <v>0.158649</v>
       </c>
       <c r="D62" t="n">
-        <v>0.087477</v>
+        <v>0.08781170000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188148</v>
+        <v>0.187956</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11777</v>
+        <v>0.17968</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09292640000000001</v>
+        <v>0.09318129999999999</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218389</v>
+        <v>0.215031</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137849</v>
+        <v>0.200605</v>
       </c>
       <c r="D64" t="n">
-        <v>0.100605</v>
+        <v>0.101754</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258667</v>
+        <v>0.263111</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185986</v>
+        <v>0.125285</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115016</v>
+        <v>0.116026</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.314299</v>
+        <v>0.313223</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241064</v>
+        <v>0.120803</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0826438</v>
+        <v>0.08411159999999999</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121266</v>
+        <v>0.129506</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0809646</v>
+        <v>0.12566</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0833294</v>
+        <v>0.08528760000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123081</v>
+        <v>0.125783</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0813836</v>
+        <v>0.122797</v>
       </c>
       <c r="D68" t="n">
-        <v>0.084012</v>
+        <v>0.08658</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125031</v>
+        <v>0.124355</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08277760000000001</v>
+        <v>0.123816</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08401699999999999</v>
+        <v>0.0901904</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.126951</v>
+        <v>0.131126</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0841436</v>
+        <v>0.134526</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0844809</v>
+        <v>0.0870759</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.130494</v>
+        <v>0.132547</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0861552</v>
+        <v>0.128004</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08954620000000001</v>
+        <v>0.0878795</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135868</v>
+        <v>0.135736</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0887449</v>
+        <v>0.130976</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0863351</v>
+        <v>0.0926054</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143833</v>
+        <v>0.142362</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0914828</v>
+        <v>0.134939</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08775719999999999</v>
+        <v>0.0905116</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152588</v>
+        <v>0.150352</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09573760000000001</v>
+        <v>0.152322</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0889037</v>
+        <v>0.09109059999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.160838</v>
+        <v>0.163627</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102144</v>
+        <v>0.153711</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0913094</v>
+        <v>0.0930103</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176278</v>
+        <v>0.173925</v>
       </c>
       <c r="C76" t="n">
-        <v>0.109972</v>
+        <v>0.157337</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09354129999999999</v>
+        <v>0.0952114</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196747</v>
+        <v>0.194629</v>
       </c>
       <c r="C77" t="n">
-        <v>0.122726</v>
+        <v>0.172921</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0979719</v>
+        <v>0.0994039</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225888</v>
+        <v>0.224474</v>
       </c>
       <c r="C78" t="n">
-        <v>0.144685</v>
+        <v>0.188743</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10635</v>
+        <v>0.108428</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.265805</v>
+        <v>0.264048</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169536</v>
+        <v>0.129448</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119395</v>
+        <v>0.119928</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.325773</v>
+        <v>0.325849</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236077</v>
+        <v>0.126841</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09186370000000001</v>
+        <v>0.0980887</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.134914</v>
+        <v>0.144875</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09125510000000001</v>
+        <v>0.134784</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0924551</v>
+        <v>0.0944798</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137016</v>
+        <v>0.137125</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0925535</v>
+        <v>0.129988</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0929125</v>
+        <v>0.0945453</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139484</v>
+        <v>0.139511</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0943616</v>
+        <v>0.135115</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0937238</v>
+        <v>0.0956065</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14192</v>
+        <v>0.142414</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0967981</v>
+        <v>0.137688</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0946661</v>
+        <v>0.0976939</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146262</v>
+        <v>0.146301</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0996244</v>
+        <v>0.140244</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0953769</v>
+        <v>0.0997176</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150936</v>
+        <v>0.151669</v>
       </c>
       <c r="C86" t="n">
-        <v>0.103493</v>
+        <v>0.153651</v>
       </c>
       <c r="D86" t="n">
-        <v>0.101058</v>
+        <v>0.0980529</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.166615</v>
+        <v>0.156964</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108302</v>
+        <v>0.142361</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0986209</v>
+        <v>0.100455</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166299</v>
+        <v>0.165552</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11499</v>
+        <v>0.154071</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100819</v>
+        <v>0.103111</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178188</v>
+        <v>0.176654</v>
       </c>
       <c r="C89" t="n">
-        <v>0.122096</v>
+        <v>0.164697</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105547</v>
+        <v>0.105857</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192842</v>
+        <v>0.192741</v>
       </c>
       <c r="C90" t="n">
-        <v>0.133062</v>
+        <v>0.183363</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108048</v>
+        <v>0.109775</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213311</v>
+        <v>0.215412</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150994</v>
+        <v>0.189943</v>
       </c>
       <c r="D91" t="n">
-        <v>0.113829</v>
+        <v>0.115994</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244735</v>
+        <v>0.245598</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167685</v>
+        <v>0.20857</v>
       </c>
       <c r="D92" t="n">
-        <v>0.122151</v>
+        <v>0.124683</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.299564</v>
+        <v>0.285591</v>
       </c>
       <c r="C93" t="n">
-        <v>0.198006</v>
+        <v>0.22652</v>
       </c>
       <c r="D93" t="n">
-        <v>0.13619</v>
+        <v>0.138073</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.349049</v>
+        <v>0.345262</v>
       </c>
       <c r="C94" t="n">
-        <v>0.259733</v>
+        <v>0.273855</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103537</v>
+        <v>0.104919</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149565</v>
+        <v>0.149834</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112733</v>
+        <v>0.268363</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105051</v>
+        <v>0.107903</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163032</v>
+        <v>0.153037</v>
       </c>
       <c r="C96" t="n">
-        <v>0.117055</v>
+        <v>0.268546</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106851</v>
+        <v>0.108553</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.159837</v>
+        <v>0.16663</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118567</v>
+        <v>0.268201</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108908</v>
+        <v>0.114171</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.165818</v>
+        <v>0.170451</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122124</v>
+        <v>0.271226</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110349</v>
+        <v>0.111958</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.17535</v>
+        <v>0.164547</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125997</v>
+        <v>0.271296</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11593</v>
+        <v>0.113869</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181125</v>
+        <v>0.170267</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135185</v>
+        <v>0.278121</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114613</v>
+        <v>0.115953</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.177594</v>
+        <v>0.177631</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135501</v>
+        <v>0.279844</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116955</v>
+        <v>0.118302</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186377</v>
+        <v>0.186323</v>
       </c>
       <c r="C102" t="n">
-        <v>0.142069</v>
+        <v>0.284988</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119414</v>
+        <v>0.121291</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197502</v>
+        <v>0.197003</v>
       </c>
       <c r="C103" t="n">
-        <v>0.150772</v>
+        <v>0.29257</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122818</v>
+        <v>0.124014</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21262</v>
+        <v>0.212157</v>
       </c>
       <c r="C104" t="n">
-        <v>0.162743</v>
+        <v>0.296</v>
       </c>
       <c r="D104" t="n">
-        <v>0.128493</v>
+        <v>0.133144</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244838</v>
+        <v>0.2332</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178082</v>
+        <v>0.313119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132331</v>
+        <v>0.135527</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261848</v>
+        <v>0.263794</v>
       </c>
       <c r="C106" t="n">
-        <v>0.200618</v>
+        <v>0.321852</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140791</v>
+        <v>0.141556</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30783</v>
+        <v>0.311609</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239305</v>
+        <v>0.349434</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154333</v>
+        <v>0.156689</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37694</v>
+        <v>0.384824</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299944</v>
+        <v>0.418194</v>
       </c>
       <c r="D108" t="n">
-        <v>0.113191</v>
+        <v>0.114739</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472217</v>
+        <v>0.470864</v>
       </c>
       <c r="C109" t="n">
-        <v>0.369203</v>
+        <v>0.419036</v>
       </c>
       <c r="D109" t="n">
-        <v>0.11427</v>
+        <v>0.116136</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161644</v>
+        <v>0.168941</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135117</v>
+        <v>0.422878</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115625</v>
+        <v>0.117445</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.164811</v>
+        <v>0.165092</v>
       </c>
       <c r="C111" t="n">
-        <v>0.138852</v>
+        <v>0.421501</v>
       </c>
       <c r="D111" t="n">
-        <v>0.11651</v>
+        <v>0.118746</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168393</v>
+        <v>0.169918</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143242</v>
+        <v>0.421485</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118811</v>
+        <v>0.120223</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173402</v>
+        <v>0.180767</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148475</v>
+        <v>0.431141</v>
       </c>
       <c r="D113" t="n">
-        <v>0.120765</v>
+        <v>0.122356</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.190513</v>
+        <v>0.180253</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153588</v>
+        <v>0.428812</v>
       </c>
       <c r="D114" t="n">
-        <v>0.123025</v>
+        <v>0.124337</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.187833</v>
+        <v>0.188536</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160017</v>
+        <v>0.429626</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125941</v>
+        <v>0.12742</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198293</v>
+        <v>0.198972</v>
       </c>
       <c r="C116" t="n">
-        <v>0.167915</v>
+        <v>0.433226</v>
       </c>
       <c r="D116" t="n">
-        <v>0.137779</v>
+        <v>0.130742</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211856</v>
+        <v>0.211977</v>
       </c>
       <c r="C117" t="n">
-        <v>0.18075</v>
+        <v>0.438474</v>
       </c>
       <c r="D117" t="n">
-        <v>0.133956</v>
+        <v>0.135449</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232384</v>
+        <v>0.22974</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189614</v>
+        <v>0.445821</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143216</v>
+        <v>0.140057</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259082</v>
+        <v>0.252906</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205254</v>
+        <v>0.454345</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148119</v>
+        <v>0.150896</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2857</v>
+        <v>0.285113</v>
       </c>
       <c r="C120" t="n">
-        <v>0.226981</v>
+        <v>0.467934</v>
       </c>
       <c r="D120" t="n">
-        <v>0.159307</v>
+        <v>0.15833</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330485</v>
+        <v>0.333458</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258528</v>
+        <v>0.487246</v>
       </c>
       <c r="D121" t="n">
-        <v>0.17464</v>
+        <v>0.173834</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.395822</v>
+        <v>0.395455</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307841</v>
+        <v>0.472398</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199081</v>
+        <v>0.206292</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494977</v>
+        <v>0.493685</v>
       </c>
       <c r="C123" t="n">
-        <v>0.407086</v>
+        <v>0.473297</v>
       </c>
       <c r="D123" t="n">
-        <v>0.140357</v>
+        <v>0.139783</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.194867</v>
+        <v>0.188016</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161853</v>
+        <v>0.473711</v>
       </c>
       <c r="D124" t="n">
-        <v>0.144909</v>
+        <v>0.141848</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.206589</v>
+        <v>0.202724</v>
       </c>
       <c r="C125" t="n">
-        <v>0.169745</v>
+        <v>0.474802</v>
       </c>
       <c r="D125" t="n">
-        <v>0.143301</v>
+        <v>0.143312</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.197612</v>
+        <v>0.198283</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170852</v>
+        <v>0.475611</v>
       </c>
       <c r="D126" t="n">
-        <v>0.146261</v>
+        <v>0.146307</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201878</v>
+        <v>0.210751</v>
       </c>
       <c r="C127" t="n">
-        <v>0.172936</v>
+        <v>0.477201</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14996</v>
+        <v>0.146888</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.214178</v>
+        <v>0.219386</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1808</v>
+        <v>0.47953</v>
       </c>
       <c r="D128" t="n">
-        <v>0.150655</v>
+        <v>0.148051</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219793</v>
+        <v>0.220264</v>
       </c>
       <c r="C129" t="n">
-        <v>0.185077</v>
+        <v>0.487015</v>
       </c>
       <c r="D129" t="n">
-        <v>0.154884</v>
+        <v>0.152453</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.228308</v>
+        <v>0.232698</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191649</v>
+        <v>0.48689</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15427</v>
+        <v>0.155413</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.242034</v>
+        <v>0.239077</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20183</v>
+        <v>0.492158</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159284</v>
+        <v>0.162016</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261395</v>
+        <v>0.263175</v>
       </c>
       <c r="C132" t="n">
-        <v>0.211352</v>
+        <v>0.499384</v>
       </c>
       <c r="D132" t="n">
-        <v>0.163756</v>
+        <v>0.16302</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28327</v>
+        <v>0.286393</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226941</v>
+        <v>0.508359</v>
       </c>
       <c r="D133" t="n">
-        <v>0.170625</v>
+        <v>0.170496</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.313623</v>
+        <v>0.306328</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248336</v>
+        <v>0.520163</v>
       </c>
       <c r="D134" t="n">
-        <v>0.178385</v>
+        <v>0.179239</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.354059</v>
+        <v>0.34649</v>
       </c>
       <c r="C135" t="n">
-        <v>0.280763</v>
+        <v>0.550431</v>
       </c>
       <c r="D135" t="n">
-        <v>0.190676</v>
+        <v>0.19044</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.418306</v>
+        <v>0.409711</v>
       </c>
       <c r="C136" t="n">
-        <v>0.335337</v>
+        <v>0.498311</v>
       </c>
       <c r="D136" t="n">
-        <v>0.217074</v>
+        <v>0.212748</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.510203</v>
+        <v>0.506926</v>
       </c>
       <c r="C137" t="n">
-        <v>0.39932</v>
+        <v>0.500153</v>
       </c>
       <c r="D137" t="n">
-        <v>0.252072</v>
+        <v>0.249472</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334554</v>
+        <v>0.336711</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271226</v>
+        <v>0.505775</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253899</v>
+        <v>0.2522</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344317</v>
+        <v>0.336753</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274394</v>
+        <v>0.501046</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258742</v>
+        <v>0.255337</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338175</v>
+        <v>0.339748</v>
       </c>
       <c r="C140" t="n">
-        <v>0.278658</v>
+        <v>0.499217</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256688</v>
+        <v>0.255047</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.349152</v>
+        <v>0.34639</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281226</v>
+        <v>0.507953</v>
       </c>
       <c r="D141" t="n">
-        <v>0.26283</v>
+        <v>0.258289</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35233</v>
+        <v>0.353333</v>
       </c>
       <c r="C142" t="n">
-        <v>0.286969</v>
+        <v>0.506382</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264327</v>
+        <v>0.261444</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.367603</v>
+        <v>0.363102</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290896</v>
+        <v>0.510354</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263528</v>
+        <v>0.262217</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -93,7 +93,15 @@
           <idx val="3"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -553,430 +561,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.0177347</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0188852</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0234555</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0338857</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.0472317</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.0575473</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891636</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.114971</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.0165384</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0169788</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.017486</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.0179473</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0190006</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0210354</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0232111</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0273704</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.033242</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0424186</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0554736</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0712052</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.095737</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.120816</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0166553</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.0171951</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0178482</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0186904</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0199208</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0220798</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0261723</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0299174</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0360282</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0442657</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0555848</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.07283770000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.0951668</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118945</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0173426</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0180617</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.018949</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.020392</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.024542</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0279483</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0324731</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0380715</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0466525</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.056909</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0714974</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0912895</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.117883</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.142422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.019195</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0203607</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0218136</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0236284</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0264708</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297098</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0338513</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0398965</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0472513</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0571737</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0718768</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.09075809999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.116281</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.146073</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0198702</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.0212214</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0226574</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0247929</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.0271637</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0304312</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0345894</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0396103</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0467754</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.0560361</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0688766</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.08715820000000001</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.111126</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.142408</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0204979</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.021371</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0231017</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0250312</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0273671</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.030302</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.0342767</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392133</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0459474</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.0545635</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.066873</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.08354640000000001</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.106964</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0212266</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0219642</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0233059</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.024965</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.027507</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0303621</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.0349354</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0402101</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.0463648</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0548707</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0654704</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0815046</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103387</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132347</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.16884</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.031373</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.032779</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0342392</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.036179</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0382276</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0406218</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0440363</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0485942</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0553814</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.06523229999999999</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.0794011</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128268</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163701</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0346198</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354654</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0366085</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0388945</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0409798</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0433231</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0478824</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0522531</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0589284</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0684761</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08256520000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.102351</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.129668</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.164095</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0467531</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0489469</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0492735</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0513704</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529331</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0552064</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +995,15 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>ankerl::unordered_dense::map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1463,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0281637</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0303387</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.0343874</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0402264</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0512406</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.0595602</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.0203069</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.0208109</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0212582</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0219184</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0229526</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.0241664</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0254836</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0273195</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0296545</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0332014</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0379014</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0448099</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0539658</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.06603249999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.020671</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.0211785</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0218233</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0225927</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0234831</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0247358</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0261932</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.0277728</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0302705</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0337553</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.038208</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0438485</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.053142</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06538140000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.081438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.0211673</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0217646</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0225445</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0235978</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.0247356</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0261785</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.028181</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0306195</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0343078</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0390459</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0453654</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0534848</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0640006</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0778128</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.0213048</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.0219901</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0226809</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0235119</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0248035</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0261888</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0281</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0307155</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0340517</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.039017</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.0450472</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0537333</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0640087</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.0761191</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.0215671</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.022204</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0229249</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0238263</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.0250022</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0265029</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0283501</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0309632</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0342816</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0384953</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0444329</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0524612</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0624264</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0748988</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.025562</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.0275782</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0280806</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.0285806</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0282565</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0294624</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.0308743</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0341176</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0361708</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0410182</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0463375</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0537404</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.06263730000000001</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0750686</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.09099740000000001</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.0543355</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.055378</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0553167</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0560005</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0571877</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0572869</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.059316</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0627822</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0641979</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0676554</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0737056</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.0815784</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.0931374</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.108481</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.0822619</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.08355269999999999</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.08275150000000001</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0835095</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0843792</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0856725</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0874267</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0900903</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.093279</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.09896530000000001</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.106256</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.117781</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.133615</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.093722</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.094073</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0945521</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0951642</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.09592340000000001</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.09669759999999999</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.100979</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0998585</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.106291</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.106045</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.114325</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.118703</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.132586</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.144449</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.100829</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.101255</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.101684</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.102426</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.103294</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.104327</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.108111</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.107678</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1881,7 +1897,15 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>foa_unordered_rc15_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2341,430 +2365,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0250893</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.026459</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0281826</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0301669</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0330464</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.0400324</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0515425</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0219549</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0220185</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0223959</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0226063</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.022828</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0232419</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0238637</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0243176</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.0252184</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0262676</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0283896</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0314271</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.0373705</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0483472</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0216108</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0218212</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0221418</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0223588</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0227307</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0232391</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.0238749</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0245752</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0255408</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.026853</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0288755</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0325576</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0451778</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.0225246</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.022845</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0231005</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0234427</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0238108</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0242156</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0247109</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0253455</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0263488</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0275133</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0294802</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0325566</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0372371</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0445091</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0233299</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0235644</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.0237683</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0240722</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0244168</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0249086</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0254511</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0261448</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.027135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0284505</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0303024</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0330686</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0376382</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0447934</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.057162</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.024014</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0243849</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.02468</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0250072</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.02551</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0259831</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0267313</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0276698</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0288476</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0307247</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0333151</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0375379</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.043859</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0545188</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.0242604</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0245599</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0248882</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.025275</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0257971</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.02637</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.027152</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0281046</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0295407</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.0311837</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0336176</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0371264</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.0426593</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0519684</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0258587</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0264334</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0269028</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0275923</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0285702</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0300087</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0323097</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0365878</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0391818</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0416919</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0450736</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0484289</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0531234</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.059985</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0387026</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.039979</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0407366</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0414101</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0421872</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.0431039</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0440965</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0454494</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.046805</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.0482005</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0502533</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0531382</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0571138</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0631661</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0734669</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.045661</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0461072</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.047175</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.0476817</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0488919</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.0497329</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0514961</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0522748</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0539706</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0561519</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0589165</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0627973</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06854</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.0781154</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0641977</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0653511</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0658188</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0669466</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0672373</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0686155</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0692349</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3216,14 +3240,14 @@
   </sheetPr>
   <dimension ref="A1:D143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" style="1" width="11.42578125"/>
+    <col customWidth="1" max="16384" min="7" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3234,7 +3258,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>ankerl::unordered_dense::map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103377</v>
+        <v>0.103501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0614041</v>
+        <v>0.0610522</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0704094</v>
+        <v>0.0703077</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111152</v>
+        <v>0.111311</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0620572</v>
+        <v>0.0626751</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07112110000000001</v>
+        <v>0.0703918</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122667</v>
+        <v>0.122963</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0651106</v>
+        <v>0.0645338</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0692092</v>
+        <v>0.0694046</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143269</v>
+        <v>0.143488</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0735962</v>
+        <v>0.072451</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0699963</v>
+        <v>0.0699115</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170229</v>
+        <v>0.170528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0894216</v>
+        <v>0.0896599</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0714144</v>
+        <v>0.0712696</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205752</v>
+        <v>0.205325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111639</v>
+        <v>0.111301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0752443</v>
+        <v>0.0750672</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252644</v>
+        <v>0.252412</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152424</v>
+        <v>0.151254</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0893318</v>
+        <v>0.0881243</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306107</v>
+        <v>0.305818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190569</v>
+        <v>0.188805</v>
       </c>
       <c r="D9" t="n">
-        <v>0.070962</v>
+        <v>0.0703606</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09514839999999999</v>
+        <v>0.0951466</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0628302</v>
+        <v>0.0632848</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0713351</v>
+        <v>0.0704612</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.096163</v>
+        <v>0.0962124</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0622123</v>
+        <v>0.0620086</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07129489999999999</v>
+        <v>0.070608</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0980343</v>
+        <v>0.09745620000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0621355</v>
+        <v>0.0621938</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0715552</v>
+        <v>0.07068240000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100267</v>
+        <v>0.100292</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0632398</v>
+        <v>0.0621577</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07151349999999999</v>
+        <v>0.07082040000000001</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102879</v>
+        <v>0.102465</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06312769999999999</v>
+        <v>0.0623629</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0716088</v>
+        <v>0.0710181</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10717</v>
+        <v>0.107155</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0634918</v>
+        <v>0.0633469</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07208150000000001</v>
+        <v>0.071212</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11278</v>
+        <v>0.112191</v>
       </c>
       <c r="C16" t="n">
-        <v>0.067051</v>
+        <v>0.06670669999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0720819</v>
+        <v>0.0715532</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121898</v>
+        <v>0.122058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0705832</v>
+        <v>0.0706305</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07229049999999999</v>
+        <v>0.07230880000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133728</v>
+        <v>0.133334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0802686</v>
+        <v>0.08021010000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0728809</v>
+        <v>0.07269490000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150186</v>
+        <v>0.150169</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0913141</v>
+        <v>0.0904972</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0734448</v>
+        <v>0.0735514</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.17162</v>
+        <v>0.171505</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104304</v>
+        <v>0.102891</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0767014</v>
+        <v>0.07696500000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198551</v>
+        <v>0.19866</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121247</v>
+        <v>0.119985</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0855993</v>
+        <v>0.08501930000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236796</v>
+        <v>0.235564</v>
       </c>
       <c r="C22" t="n">
-        <v>0.169174</v>
+        <v>0.153295</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102751</v>
+        <v>0.102075</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286945</v>
+        <v>0.287104</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195769</v>
+        <v>0.193801</v>
       </c>
       <c r="D23" t="n">
-        <v>0.07325520000000001</v>
+        <v>0.0722483</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100574</v>
+        <v>0.100592</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665193</v>
+        <v>0.0664614</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07339469999999999</v>
+        <v>0.0722172</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101838</v>
+        <v>0.101907</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0664785</v>
+        <v>0.0665929</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0735913</v>
+        <v>0.0724793</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103473</v>
+        <v>0.103578</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0669604</v>
+        <v>0.0669613</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07290149999999999</v>
+        <v>0.0727121</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105467</v>
+        <v>0.105574</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0674541</v>
+        <v>0.06734759999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0732246</v>
+        <v>0.0730872</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108835</v>
+        <v>0.108949</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06864480000000001</v>
+        <v>0.06826019999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0735857</v>
+        <v>0.0732129</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113349</v>
+        <v>0.11349</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0702231</v>
+        <v>0.0700573</v>
       </c>
       <c r="D29" t="n">
-        <v>0.073696</v>
+        <v>0.0733066</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119605</v>
+        <v>0.119682</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0742568</v>
+        <v>0.0735446</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0776558</v>
+        <v>0.0737884</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12722</v>
+        <v>0.127259</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0790759</v>
+        <v>0.078373</v>
       </c>
       <c r="D31" t="n">
-        <v>0.074698</v>
+        <v>0.0747251</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137154</v>
+        <v>0.137393</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08514579999999999</v>
+        <v>0.0841131</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0755543</v>
+        <v>0.0766063</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150133</v>
+        <v>0.15022</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0929352</v>
+        <v>0.0916834</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0776945</v>
+        <v>0.077253</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168161</v>
+        <v>0.168302</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105571</v>
+        <v>0.104851</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0831858</v>
+        <v>0.082686</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194754</v>
+        <v>0.195056</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123305</v>
+        <v>0.122611</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0915923</v>
+        <v>0.0908929</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232335</v>
+        <v>0.24672</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148083</v>
+        <v>0.15955</v>
       </c>
       <c r="D36" t="n">
-        <v>0.103707</v>
+        <v>0.102677</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280289</v>
+        <v>0.280328</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190483</v>
+        <v>0.217686</v>
       </c>
       <c r="D37" t="n">
-        <v>0.073756</v>
+        <v>0.07338509999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.10338</v>
+        <v>0.103535</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06932099999999999</v>
+        <v>0.0689902</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0739196</v>
+        <v>0.073527</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105064</v>
+        <v>0.104906</v>
       </c>
       <c r="C39" t="n">
-        <v>0.070103</v>
+        <v>0.069704</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0741583</v>
+        <v>0.0736859</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106793</v>
+        <v>0.106917</v>
       </c>
       <c r="C40" t="n">
-        <v>0.070898</v>
+        <v>0.0706551</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0743497</v>
+        <v>0.07415099999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108822</v>
+        <v>0.10899</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0721194</v>
+        <v>0.0716354</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0747317</v>
+        <v>0.07556350000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112059</v>
+        <v>0.112114</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07359010000000001</v>
+        <v>0.07467210000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.075049</v>
+        <v>0.0747713</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116341</v>
+        <v>0.116449</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0758781</v>
+        <v>0.07563350000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.075443</v>
+        <v>0.07527639999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122264</v>
+        <v>0.122335</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07842109999999999</v>
+        <v>0.0777655</v>
       </c>
       <c r="D44" t="n">
-        <v>0.076113</v>
+        <v>0.0757845</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129026</v>
+        <v>0.129109</v>
       </c>
       <c r="C45" t="n">
-        <v>0.081813</v>
+        <v>0.08109089999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0770882</v>
+        <v>0.076776</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138107</v>
+        <v>0.138204</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08671760000000001</v>
+        <v>0.0858804</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0786251</v>
+        <v>0.0782239</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151795</v>
+        <v>0.150673</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0932492</v>
+        <v>0.09238159999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0809425</v>
+        <v>0.08041619999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167771</v>
+        <v>0.167827</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102968</v>
+        <v>0.101964</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0851336</v>
+        <v>0.0843792</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.19143</v>
+        <v>0.191801</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116514</v>
+        <v>0.115685</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09073059999999999</v>
+        <v>0.0900538</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22321</v>
+        <v>0.223562</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137815</v>
+        <v>0.137572</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0996591</v>
+        <v>0.09887940000000001</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268851</v>
+        <v>0.26904</v>
       </c>
       <c r="C51" t="n">
-        <v>0.178423</v>
+        <v>0.172401</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07533670000000001</v>
+        <v>0.07649259999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.321795</v>
+        <v>0.322332</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250071</v>
+        <v>0.224446</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07553600000000001</v>
+        <v>0.07549500000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108447</v>
+        <v>0.108857</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07361090000000001</v>
+        <v>0.0813918</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0760463</v>
+        <v>0.0760584</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110168</v>
+        <v>0.110175</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0745121</v>
+        <v>0.0744079</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07633620000000001</v>
+        <v>0.0768522</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11456</v>
+        <v>0.114312</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07571559999999999</v>
+        <v>0.0752197</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0768959</v>
+        <v>0.0767714</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116358</v>
+        <v>0.114854</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0774513</v>
+        <v>0.0764835</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07776230000000001</v>
+        <v>0.07711949999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119964</v>
+        <v>0.119131</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0796737</v>
+        <v>0.07865560000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.07869</v>
+        <v>0.0781772</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126845</v>
+        <v>0.126541</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0822711</v>
+        <v>0.08068640000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0794605</v>
+        <v>0.0797711</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131749</v>
+        <v>0.130861</v>
       </c>
       <c r="C59" t="n">
-        <v>0.084854</v>
+        <v>0.0866281</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0803191</v>
+        <v>0.0829852</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139556</v>
+        <v>0.138597</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08868860000000001</v>
+        <v>0.0880584</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0813947</v>
+        <v>0.0829323</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149456</v>
+        <v>0.152765</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0951013</v>
+        <v>0.0947441</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0841828</v>
+        <v>0.0837799</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166103</v>
+        <v>0.165652</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104343</v>
+        <v>0.103836</v>
       </c>
       <c r="D62" t="n">
-        <v>0.087477</v>
+        <v>0.0873487</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188148</v>
+        <v>0.18687</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11777</v>
+        <v>0.116158</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09292640000000001</v>
+        <v>0.0915025</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218389</v>
+        <v>0.217934</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137849</v>
+        <v>0.145353</v>
       </c>
       <c r="D64" t="n">
-        <v>0.100605</v>
+        <v>0.0995906</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258667</v>
+        <v>0.263346</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185986</v>
+        <v>0.171228</v>
       </c>
       <c r="D65" t="n">
-        <v>0.115016</v>
+        <v>0.121661</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.314299</v>
+        <v>0.327492</v>
       </c>
       <c r="C66" t="n">
-        <v>0.241064</v>
+        <v>0.218595</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0826438</v>
+        <v>0.0842463</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121266</v>
+        <v>0.120856</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0809646</v>
+        <v>0.08205419999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0833294</v>
+        <v>0.08452460000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123081</v>
+        <v>0.124252</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0813836</v>
+        <v>0.0817684</v>
       </c>
       <c r="D68" t="n">
-        <v>0.084012</v>
+        <v>0.08412269999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125031</v>
+        <v>0.126122</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08277760000000001</v>
+        <v>0.082942</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08401699999999999</v>
+        <v>0.0847335</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.126951</v>
+        <v>0.129717</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0841436</v>
+        <v>0.09672169999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0844809</v>
+        <v>0.0957252</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.130494</v>
+        <v>0.132117</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0861552</v>
+        <v>0.08561489999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08954620000000001</v>
+        <v>0.08543969999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135868</v>
+        <v>0.135783</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0887449</v>
+        <v>0.098217</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0863351</v>
+        <v>0.100749</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143833</v>
+        <v>0.142499</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0914828</v>
+        <v>0.0977304</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08775719999999999</v>
+        <v>0.0923027</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152588</v>
+        <v>0.150395</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09573760000000001</v>
+        <v>0.0949417</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0889037</v>
+        <v>0.0990214</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.160838</v>
+        <v>0.161869</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102144</v>
+        <v>0.108151</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0913094</v>
+        <v>0.0961694</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176278</v>
+        <v>0.176509</v>
       </c>
       <c r="C76" t="n">
-        <v>0.109972</v>
+        <v>0.117419</v>
       </c>
       <c r="D76" t="n">
-        <v>0.09354129999999999</v>
+        <v>0.0938711</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196747</v>
+        <v>0.197528</v>
       </c>
       <c r="C77" t="n">
-        <v>0.122726</v>
+        <v>0.122821</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0979719</v>
+        <v>0.10804</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225888</v>
+        <v>0.225702</v>
       </c>
       <c r="C78" t="n">
-        <v>0.144685</v>
+        <v>0.149453</v>
       </c>
       <c r="D78" t="n">
-        <v>0.10635</v>
+        <v>0.105792</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.265805</v>
+        <v>0.267134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169536</v>
+        <v>0.183892</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119395</v>
+        <v>0.129108</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.325773</v>
+        <v>0.321646</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236077</v>
+        <v>0.232952</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09186370000000001</v>
+        <v>0.0920031</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.134914</v>
+        <v>0.13529</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09125510000000001</v>
+        <v>0.0964441</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0924551</v>
+        <v>0.0914</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137016</v>
+        <v>0.137074</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0925535</v>
+        <v>0.100215</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0929125</v>
+        <v>0.0929349</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139484</v>
+        <v>0.139369</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0943616</v>
+        <v>0.0999372</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0937238</v>
+        <v>0.0935878</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14192</v>
+        <v>0.142194</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0967981</v>
+        <v>0.103899</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0946661</v>
+        <v>0.09412189999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146262</v>
+        <v>0.145947</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0996244</v>
+        <v>0.106383</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0953769</v>
+        <v>0.09924230000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150936</v>
+        <v>0.150954</v>
       </c>
       <c r="C86" t="n">
-        <v>0.103493</v>
+        <v>0.112677</v>
       </c>
       <c r="D86" t="n">
-        <v>0.101058</v>
+        <v>0.105212</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.166615</v>
+        <v>0.157588</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108302</v>
+        <v>0.110142</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0986209</v>
+        <v>0.103725</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166299</v>
+        <v>0.16713</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11499</v>
+        <v>0.121826</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100819</v>
+        <v>0.101479</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178188</v>
+        <v>0.179033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.122096</v>
+        <v>0.130551</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105547</v>
+        <v>0.118914</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192842</v>
+        <v>0.195519</v>
       </c>
       <c r="C90" t="n">
-        <v>0.133062</v>
+        <v>0.138891</v>
       </c>
       <c r="D90" t="n">
-        <v>0.108048</v>
+        <v>0.121356</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.213311</v>
+        <v>0.215584</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150994</v>
+        <v>0.157797</v>
       </c>
       <c r="D91" t="n">
-        <v>0.113829</v>
+        <v>0.130055</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.244735</v>
+        <v>0.245727</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167685</v>
+        <v>0.179017</v>
       </c>
       <c r="D92" t="n">
-        <v>0.122151</v>
+        <v>0.129636</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.299564</v>
+        <v>0.288697</v>
       </c>
       <c r="C93" t="n">
-        <v>0.198006</v>
+        <v>0.225462</v>
       </c>
       <c r="D93" t="n">
-        <v>0.13619</v>
+        <v>0.142499</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.349049</v>
+        <v>0.363216</v>
       </c>
       <c r="C94" t="n">
-        <v>0.259733</v>
+        <v>0.263016</v>
       </c>
       <c r="D94" t="n">
-        <v>0.103537</v>
+        <v>0.101786</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149565</v>
+        <v>0.149996</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112733</v>
+        <v>0.11705</v>
       </c>
       <c r="D95" t="n">
-        <v>0.105051</v>
+        <v>0.102892</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163032</v>
+        <v>0.151181</v>
       </c>
       <c r="C96" t="n">
-        <v>0.117055</v>
+        <v>0.11787</v>
       </c>
       <c r="D96" t="n">
-        <v>0.106851</v>
+        <v>0.10398</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.159837</v>
+        <v>0.15608</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118567</v>
+        <v>0.121557</v>
       </c>
       <c r="D97" t="n">
-        <v>0.108908</v>
+        <v>0.105887</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.165818</v>
+        <v>0.159111</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122124</v>
+        <v>0.12226</v>
       </c>
       <c r="D98" t="n">
-        <v>0.110349</v>
+        <v>0.109746</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.17535</v>
+        <v>0.163682</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125997</v>
+        <v>0.130475</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11593</v>
+        <v>0.118387</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181125</v>
+        <v>0.17006</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135185</v>
+        <v>0.136983</v>
       </c>
       <c r="D100" t="n">
-        <v>0.114613</v>
+        <v>0.116818</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.177594</v>
+        <v>0.177566</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135501</v>
+        <v>0.144671</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116955</v>
+        <v>0.116316</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186377</v>
+        <v>0.188475</v>
       </c>
       <c r="C102" t="n">
-        <v>0.142069</v>
+        <v>0.15798</v>
       </c>
       <c r="D102" t="n">
-        <v>0.119414</v>
+        <v>0.118104</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197502</v>
+        <v>0.205507</v>
       </c>
       <c r="C103" t="n">
-        <v>0.150772</v>
+        <v>0.16495</v>
       </c>
       <c r="D103" t="n">
-        <v>0.122818</v>
+        <v>0.128048</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21262</v>
+        <v>0.22164</v>
       </c>
       <c r="C104" t="n">
-        <v>0.162743</v>
+        <v>0.180444</v>
       </c>
       <c r="D104" t="n">
-        <v>0.128493</v>
+        <v>0.132023</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244838</v>
+        <v>0.24975</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178082</v>
+        <v>0.197113</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132331</v>
+        <v>0.141171</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.261848</v>
+        <v>0.280486</v>
       </c>
       <c r="C106" t="n">
-        <v>0.200618</v>
+        <v>0.219853</v>
       </c>
       <c r="D106" t="n">
-        <v>0.140791</v>
+        <v>0.151054</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.30783</v>
+        <v>0.327852</v>
       </c>
       <c r="C107" t="n">
-        <v>0.239305</v>
+        <v>0.25976</v>
       </c>
       <c r="D107" t="n">
-        <v>0.154333</v>
+        <v>0.17104</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37694</v>
+        <v>0.396569</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299944</v>
+        <v>0.320855</v>
       </c>
       <c r="D108" t="n">
-        <v>0.113191</v>
+        <v>0.122031</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472217</v>
+        <v>0.507848</v>
       </c>
       <c r="C109" t="n">
-        <v>0.369203</v>
+        <v>0.403533</v>
       </c>
       <c r="D109" t="n">
-        <v>0.11427</v>
+        <v>0.124935</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161644</v>
+        <v>0.175105</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135117</v>
+        <v>0.151121</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115625</v>
+        <v>0.136469</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.164811</v>
+        <v>0.179207</v>
       </c>
       <c r="C111" t="n">
-        <v>0.138852</v>
+        <v>0.159069</v>
       </c>
       <c r="D111" t="n">
-        <v>0.11651</v>
+        <v>0.130176</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168393</v>
+        <v>0.184233</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143242</v>
+        <v>0.158605</v>
       </c>
       <c r="D112" t="n">
-        <v>0.118811</v>
+        <v>0.133309</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173402</v>
+        <v>0.189752</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148475</v>
+        <v>0.163119</v>
       </c>
       <c r="D113" t="n">
-        <v>0.120765</v>
+        <v>0.135934</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.190513</v>
+        <v>0.196424</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153588</v>
+        <v>0.16748</v>
       </c>
       <c r="D114" t="n">
-        <v>0.123025</v>
+        <v>0.139271</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.187833</v>
+        <v>0.204762</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160017</v>
+        <v>0.174045</v>
       </c>
       <c r="D115" t="n">
-        <v>0.125941</v>
+        <v>0.141452</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198293</v>
+        <v>0.217469</v>
       </c>
       <c r="C116" t="n">
-        <v>0.167915</v>
+        <v>0.18451</v>
       </c>
       <c r="D116" t="n">
-        <v>0.137779</v>
+        <v>0.14521</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211856</v>
+        <v>0.227656</v>
       </c>
       <c r="C117" t="n">
-        <v>0.18075</v>
+        <v>0.195901</v>
       </c>
       <c r="D117" t="n">
-        <v>0.133956</v>
+        <v>0.149571</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.232384</v>
+        <v>0.245376</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189614</v>
+        <v>0.202524</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143216</v>
+        <v>0.154974</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259082</v>
+        <v>0.27106</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205254</v>
+        <v>0.226641</v>
       </c>
       <c r="D119" t="n">
-        <v>0.148119</v>
+        <v>0.161225</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.2857</v>
+        <v>0.304046</v>
       </c>
       <c r="C120" t="n">
-        <v>0.226981</v>
+        <v>0.245787</v>
       </c>
       <c r="D120" t="n">
-        <v>0.159307</v>
+        <v>0.17091</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330485</v>
+        <v>0.349092</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258528</v>
+        <v>0.277949</v>
       </c>
       <c r="D121" t="n">
-        <v>0.17464</v>
+        <v>0.184498</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.395822</v>
+        <v>0.421521</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307841</v>
+        <v>0.335211</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199081</v>
+        <v>0.208889</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494977</v>
+        <v>0.518706</v>
       </c>
       <c r="C123" t="n">
-        <v>0.407086</v>
+        <v>0.426201</v>
       </c>
       <c r="D123" t="n">
-        <v>0.140357</v>
+        <v>0.146483</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.194867</v>
+        <v>0.194157</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161853</v>
+        <v>0.183207</v>
       </c>
       <c r="D124" t="n">
-        <v>0.144909</v>
+        <v>0.144155</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.206589</v>
+        <v>0.200796</v>
       </c>
       <c r="C125" t="n">
-        <v>0.169745</v>
+        <v>0.179272</v>
       </c>
       <c r="D125" t="n">
-        <v>0.143301</v>
+        <v>0.1516</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.197612</v>
+        <v>0.204694</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170852</v>
+        <v>0.180452</v>
       </c>
       <c r="D126" t="n">
-        <v>0.146261</v>
+        <v>0.151058</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201878</v>
+        <v>0.212743</v>
       </c>
       <c r="C127" t="n">
-        <v>0.172936</v>
+        <v>0.190794</v>
       </c>
       <c r="D127" t="n">
-        <v>0.14996</v>
+        <v>0.15328</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.214178</v>
+        <v>0.217626</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1808</v>
+        <v>0.19148</v>
       </c>
       <c r="D128" t="n">
-        <v>0.150655</v>
+        <v>0.153295</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219793</v>
+        <v>0.224743</v>
       </c>
       <c r="C129" t="n">
-        <v>0.185077</v>
+        <v>0.205244</v>
       </c>
       <c r="D129" t="n">
-        <v>0.154884</v>
+        <v>0.157758</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.228308</v>
+        <v>0.240259</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191649</v>
+        <v>0.20455</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15427</v>
+        <v>0.16168</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.242034</v>
+        <v>0.24534</v>
       </c>
       <c r="C131" t="n">
-        <v>0.20183</v>
+        <v>0.213759</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159284</v>
+        <v>0.169703</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261395</v>
+        <v>0.266963</v>
       </c>
       <c r="C132" t="n">
-        <v>0.211352</v>
+        <v>0.224686</v>
       </c>
       <c r="D132" t="n">
-        <v>0.163756</v>
+        <v>0.17263</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.28327</v>
+        <v>0.288776</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226941</v>
+        <v>0.241745</v>
       </c>
       <c r="D133" t="n">
-        <v>0.170625</v>
+        <v>0.177384</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.313623</v>
+        <v>0.314943</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248336</v>
+        <v>0.272288</v>
       </c>
       <c r="D134" t="n">
-        <v>0.178385</v>
+        <v>0.191876</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.354059</v>
+        <v>0.362089</v>
       </c>
       <c r="C135" t="n">
-        <v>0.280763</v>
+        <v>0.305703</v>
       </c>
       <c r="D135" t="n">
-        <v>0.190676</v>
+        <v>0.212561</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.418306</v>
+        <v>0.437313</v>
       </c>
       <c r="C136" t="n">
-        <v>0.335337</v>
+        <v>0.358778</v>
       </c>
       <c r="D136" t="n">
-        <v>0.217074</v>
+        <v>0.224192</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.510203</v>
+        <v>0.538627</v>
       </c>
       <c r="C137" t="n">
-        <v>0.39932</v>
+        <v>0.455108</v>
       </c>
       <c r="D137" t="n">
-        <v>0.252072</v>
+        <v>0.276175</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334554</v>
+        <v>0.359371</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271226</v>
+        <v>0.298423</v>
       </c>
       <c r="D138" t="n">
-        <v>0.253899</v>
+        <v>0.279751</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.344317</v>
+        <v>0.367451</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274394</v>
+        <v>0.298615</v>
       </c>
       <c r="D139" t="n">
-        <v>0.258742</v>
+        <v>0.284102</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338175</v>
+        <v>0.366775</v>
       </c>
       <c r="C140" t="n">
-        <v>0.278658</v>
+        <v>0.303747</v>
       </c>
       <c r="D140" t="n">
-        <v>0.256688</v>
+        <v>0.282644</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.349152</v>
+        <v>0.375196</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281226</v>
+        <v>0.307584</v>
       </c>
       <c r="D141" t="n">
-        <v>0.26283</v>
+        <v>0.282135</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35233</v>
+        <v>0.379899</v>
       </c>
       <c r="C142" t="n">
-        <v>0.286969</v>
+        <v>0.316941</v>
       </c>
       <c r="D142" t="n">
-        <v>0.264327</v>
+        <v>0.288504</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.367603</v>
+        <v>0.386292</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290896</v>
+        <v>0.316583</v>
       </c>
       <c r="D143" t="n">
-        <v>0.263528</v>
+        <v>0.288874</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103501</v>
+        <v>0.103277</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0610522</v>
+        <v>0.0611808</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0703077</v>
+        <v>0.0674746</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111311</v>
+        <v>0.1105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0626751</v>
+        <v>0.0623636</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0703918</v>
+        <v>0.07502159999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122963</v>
+        <v>0.122099</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0645338</v>
+        <v>0.06514780000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0694046</v>
+        <v>0.0665965</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143488</v>
+        <v>0.143044</v>
       </c>
       <c r="C5" t="n">
-        <v>0.072451</v>
+        <v>0.0733051</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0699115</v>
+        <v>0.074405</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170528</v>
+        <v>0.170081</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0896599</v>
+        <v>0.0901684</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0712696</v>
+        <v>0.06856909999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205325</v>
+        <v>0.20543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111301</v>
+        <v>0.11171</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0750672</v>
+        <v>0.0725486</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252412</v>
+        <v>0.252501</v>
       </c>
       <c r="C8" t="n">
-        <v>0.151254</v>
+        <v>0.152115</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0881243</v>
+        <v>0.0939719</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305818</v>
+        <v>0.305643</v>
       </c>
       <c r="C9" t="n">
-        <v>0.188805</v>
+        <v>0.190426</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0703606</v>
+        <v>0.0677034</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951466</v>
+        <v>0.095225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0632848</v>
+        <v>0.0626478</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0704612</v>
+        <v>0.0679756</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0962124</v>
+        <v>0.0957128</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0620086</v>
+        <v>0.0627745</v>
       </c>
       <c r="D11" t="n">
-        <v>0.070608</v>
+        <v>0.0749032</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09745620000000001</v>
+        <v>0.0980384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0621938</v>
+        <v>0.06351080000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07068240000000001</v>
+        <v>0.068049</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100292</v>
+        <v>0.0997054</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0621577</v>
+        <v>0.063206</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07082040000000001</v>
+        <v>0.0751132</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102465</v>
+        <v>0.102403</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0623629</v>
+        <v>0.0633436</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0710181</v>
+        <v>0.0699844</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107155</v>
+        <v>0.106445</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0633469</v>
+        <v>0.06384289999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.071212</v>
+        <v>0.0756617</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112191</v>
+        <v>0.11277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06670669999999999</v>
+        <v>0.0672586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0715532</v>
+        <v>0.07608910000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122058</v>
+        <v>0.12204</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0706305</v>
+        <v>0.0709515</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07230880000000001</v>
+        <v>0.0744167</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133334</v>
+        <v>0.133917</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08021010000000001</v>
+        <v>0.0801481</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07269490000000001</v>
+        <v>0.07697710000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150169</v>
+        <v>0.150137</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0904972</v>
+        <v>0.09168419999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0735514</v>
+        <v>0.0707362</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171505</v>
+        <v>0.171033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.102891</v>
+        <v>0.104005</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07696500000000001</v>
+        <v>0.08165310000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19866</v>
+        <v>0.19917</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119985</v>
+        <v>0.121137</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08501930000000001</v>
+        <v>0.0830279</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.235564</v>
+        <v>0.23604</v>
       </c>
       <c r="C22" t="n">
-        <v>0.153295</v>
+        <v>0.15429</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102075</v>
+        <v>0.107833</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287104</v>
+        <v>0.287707</v>
       </c>
       <c r="C23" t="n">
-        <v>0.193801</v>
+        <v>0.216006</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0722483</v>
+        <v>0.0691585</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100592</v>
+        <v>0.100747</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0664614</v>
+        <v>0.0665355</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0722172</v>
+        <v>0.0769382</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101907</v>
+        <v>0.101975</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0665929</v>
+        <v>0.0663521</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0724793</v>
+        <v>0.0720191</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103578</v>
+        <v>0.103635</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0669613</v>
+        <v>0.0668759</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0727121</v>
+        <v>0.0773879</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105574</v>
+        <v>0.105681</v>
       </c>
       <c r="C27" t="n">
-        <v>0.06734759999999999</v>
+        <v>0.0674192</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0730872</v>
+        <v>0.0697981</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108949</v>
+        <v>0.108881</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06826019999999999</v>
+        <v>0.0689332</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0732129</v>
+        <v>0.0780325</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.11349</v>
+        <v>0.113555</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0700573</v>
+        <v>0.0706841</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0733066</v>
+        <v>0.0705722</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119682</v>
+        <v>0.119694</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0735446</v>
+        <v>0.0742179</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0737884</v>
+        <v>0.0708883</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127259</v>
+        <v>0.127433</v>
       </c>
       <c r="C31" t="n">
-        <v>0.078373</v>
+        <v>0.0789685</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0747251</v>
+        <v>0.0791785</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137393</v>
+        <v>0.137361</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0841131</v>
+        <v>0.0848483</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0766063</v>
+        <v>0.0801535</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.15022</v>
+        <v>0.15036</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0916834</v>
+        <v>0.0926901</v>
       </c>
       <c r="D33" t="n">
-        <v>0.077253</v>
+        <v>0.08273610000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168302</v>
+        <v>0.168714</v>
       </c>
       <c r="C34" t="n">
-        <v>0.104851</v>
+        <v>0.105417</v>
       </c>
       <c r="D34" t="n">
-        <v>0.082686</v>
+        <v>0.0876318</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195056</v>
+        <v>0.195048</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122611</v>
+        <v>0.123113</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0908929</v>
+        <v>0.0978282</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24672</v>
+        <v>0.236741</v>
       </c>
       <c r="C36" t="n">
-        <v>0.15955</v>
+        <v>0.147869</v>
       </c>
       <c r="D36" t="n">
-        <v>0.102677</v>
+        <v>0.100126</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280328</v>
+        <v>0.280537</v>
       </c>
       <c r="C37" t="n">
-        <v>0.217686</v>
+        <v>0.190464</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07338509999999999</v>
+        <v>0.0783802</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103535</v>
+        <v>0.103574</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0689902</v>
+        <v>0.0691457</v>
       </c>
       <c r="D38" t="n">
-        <v>0.073527</v>
+        <v>0.0703857</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104906</v>
+        <v>0.104954</v>
       </c>
       <c r="C39" t="n">
-        <v>0.069704</v>
+        <v>0.06974379999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0736859</v>
+        <v>0.0786126</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106917</v>
+        <v>0.107161</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0706551</v>
+        <v>0.0707662</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07415099999999999</v>
+        <v>0.0789815</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.10899</v>
+        <v>0.109259</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0716354</v>
+        <v>0.0719944</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07556350000000001</v>
+        <v>0.07126689999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112114</v>
+        <v>0.112229</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07467210000000001</v>
+        <v>0.0735219</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0747713</v>
+        <v>0.0716845</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116449</v>
+        <v>0.116384</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07563350000000001</v>
+        <v>0.0758964</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07527639999999999</v>
+        <v>0.0724612</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122335</v>
+        <v>0.122347</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0777655</v>
+        <v>0.07835930000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0757845</v>
+        <v>0.0729722</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129109</v>
+        <v>0.129262</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08109089999999999</v>
+        <v>0.0816731</v>
       </c>
       <c r="D45" t="n">
-        <v>0.076776</v>
+        <v>0.073686</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138204</v>
+        <v>0.138233</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0858804</v>
+        <v>0.08649800000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0782239</v>
+        <v>0.07548879999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150673</v>
+        <v>0.150715</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09238159999999999</v>
+        <v>0.0930018</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08041619999999999</v>
+        <v>0.0774579</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167827</v>
+        <v>0.167929</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101964</v>
+        <v>0.10246</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0843792</v>
+        <v>0.09012630000000001</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191801</v>
+        <v>0.191616</v>
       </c>
       <c r="C49" t="n">
-        <v>0.115685</v>
+        <v>0.116191</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0900538</v>
+        <v>0.09586500000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223562</v>
+        <v>0.223696</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137572</v>
+        <v>0.137813</v>
       </c>
       <c r="D50" t="n">
-        <v>0.09887940000000001</v>
+        <v>0.0959371</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.26904</v>
+        <v>0.268659</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172401</v>
+        <v>0.172708</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07649259999999999</v>
+        <v>0.07182819999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322332</v>
+        <v>0.322132</v>
       </c>
       <c r="C52" t="n">
-        <v>0.224446</v>
+        <v>0.249585</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07549500000000001</v>
+        <v>0.0724721</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108857</v>
+        <v>0.108616</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0813918</v>
+        <v>0.0736035</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0760584</v>
+        <v>0.074638</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110175</v>
+        <v>0.110731</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0744079</v>
+        <v>0.074207</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0768522</v>
+        <v>0.0745773</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.114312</v>
+        <v>0.113111</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0752197</v>
+        <v>0.07519190000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0767714</v>
+        <v>0.0813837</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.114854</v>
+        <v>0.115732</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0764835</v>
+        <v>0.07715950000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07711949999999999</v>
+        <v>0.07398299999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119131</v>
+        <v>0.119954</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07865560000000001</v>
+        <v>0.0794132</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0781772</v>
+        <v>0.08309419999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126541</v>
+        <v>0.124032</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08068640000000001</v>
+        <v>0.0819028</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0797711</v>
+        <v>0.0835798</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130861</v>
+        <v>0.130271</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0866281</v>
+        <v>0.0846368</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0829852</v>
+        <v>0.0763769</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138597</v>
+        <v>0.139111</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0880584</v>
+        <v>0.08856219999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0829323</v>
+        <v>0.0862142</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.152765</v>
+        <v>0.150782</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0947441</v>
+        <v>0.0948157</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0837799</v>
+        <v>0.080711</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165652</v>
+        <v>0.165086</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103836</v>
+        <v>0.104065</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0873487</v>
+        <v>0.0917372</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.18687</v>
+        <v>0.186968</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116158</v>
+        <v>0.117112</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0915025</v>
+        <v>0.0890957</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217934</v>
+        <v>0.218192</v>
       </c>
       <c r="C64" t="n">
-        <v>0.145353</v>
+        <v>0.137137</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0995906</v>
+        <v>0.105209</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263346</v>
+        <v>0.260356</v>
       </c>
       <c r="C65" t="n">
-        <v>0.171228</v>
+        <v>0.170382</v>
       </c>
       <c r="D65" t="n">
-        <v>0.121661</v>
+        <v>0.111168</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.327492</v>
+        <v>0.312767</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218595</v>
+        <v>0.220357</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0842463</v>
+        <v>0.087288</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120856</v>
+        <v>0.122609</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08205419999999999</v>
+        <v>0.0809747</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08452460000000001</v>
+        <v>0.08802359999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124252</v>
+        <v>0.123162</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0817684</v>
+        <v>0.0865233</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08412269999999999</v>
+        <v>0.0827054</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126122</v>
+        <v>0.126068</v>
       </c>
       <c r="C69" t="n">
-        <v>0.082942</v>
+        <v>0.08285090000000001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0847335</v>
+        <v>0.08061</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.129717</v>
+        <v>0.128272</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09672169999999999</v>
+        <v>0.083805</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0957252</v>
+        <v>0.0845939</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132117</v>
+        <v>0.132897</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08561489999999999</v>
+        <v>0.08528139999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08543969999999999</v>
+        <v>0.0827775</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135783</v>
+        <v>0.137255</v>
       </c>
       <c r="C72" t="n">
-        <v>0.098217</v>
+        <v>0.088811</v>
       </c>
       <c r="D72" t="n">
-        <v>0.100749</v>
+        <v>0.091459</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142499</v>
+        <v>0.142294</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0977304</v>
+        <v>0.09132469999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0923027</v>
+        <v>0.09167599999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150395</v>
+        <v>0.151049</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0949417</v>
+        <v>0.09484960000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0990214</v>
+        <v>0.08515060000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161869</v>
+        <v>0.160947</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108151</v>
+        <v>0.10157</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0961694</v>
+        <v>0.093027</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176509</v>
+        <v>0.184601</v>
       </c>
       <c r="C76" t="n">
-        <v>0.117419</v>
+        <v>0.110172</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0938711</v>
+        <v>0.0968151</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197528</v>
+        <v>0.19452</v>
       </c>
       <c r="C77" t="n">
-        <v>0.122821</v>
+        <v>0.121729</v>
       </c>
       <c r="D77" t="n">
-        <v>0.10804</v>
+        <v>0.0940756</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225702</v>
+        <v>0.226637</v>
       </c>
       <c r="C78" t="n">
-        <v>0.149453</v>
+        <v>0.146128</v>
       </c>
       <c r="D78" t="n">
-        <v>0.105792</v>
+        <v>0.111995</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.267134</v>
+        <v>0.27728</v>
       </c>
       <c r="C79" t="n">
-        <v>0.183892</v>
+        <v>0.170107</v>
       </c>
       <c r="D79" t="n">
-        <v>0.129108</v>
+        <v>0.12555</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.321646</v>
+        <v>0.324982</v>
       </c>
       <c r="C80" t="n">
-        <v>0.232952</v>
+        <v>0.23605</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0920031</v>
+        <v>0.0875425</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.13529</v>
+        <v>0.135356</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0964441</v>
+        <v>0.09069919999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0914</v>
+        <v>0.0913921</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137074</v>
+        <v>0.137109</v>
       </c>
       <c r="C82" t="n">
-        <v>0.100215</v>
+        <v>0.09225899999999999</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0929349</v>
+        <v>0.09545430000000001</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139369</v>
+        <v>0.139476</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0999372</v>
+        <v>0.0945093</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0935878</v>
+        <v>0.0947877</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142194</v>
+        <v>0.142039</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103899</v>
+        <v>0.0965428</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09412189999999999</v>
+        <v>0.0977748</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145947</v>
+        <v>0.14635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.106383</v>
+        <v>0.0995085</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09924230000000001</v>
+        <v>0.0971701</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150954</v>
+        <v>0.161638</v>
       </c>
       <c r="C86" t="n">
-        <v>0.112677</v>
+        <v>0.10375</v>
       </c>
       <c r="D86" t="n">
-        <v>0.105212</v>
+        <v>0.0993942</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157588</v>
+        <v>0.157931</v>
       </c>
       <c r="C87" t="n">
-        <v>0.110142</v>
+        <v>0.108296</v>
       </c>
       <c r="D87" t="n">
-        <v>0.103725</v>
+        <v>0.107425</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.16713</v>
+        <v>0.166197</v>
       </c>
       <c r="C88" t="n">
-        <v>0.121826</v>
+        <v>0.114376</v>
       </c>
       <c r="D88" t="n">
-        <v>0.101479</v>
+        <v>0.104864</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179033</v>
+        <v>0.177777</v>
       </c>
       <c r="C89" t="n">
-        <v>0.130551</v>
+        <v>0.122954</v>
       </c>
       <c r="D89" t="n">
-        <v>0.118914</v>
+        <v>0.108747</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195519</v>
+        <v>0.202508</v>
       </c>
       <c r="C90" t="n">
-        <v>0.138891</v>
+        <v>0.132889</v>
       </c>
       <c r="D90" t="n">
-        <v>0.121356</v>
+        <v>0.111795</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215584</v>
+        <v>0.214172</v>
       </c>
       <c r="C91" t="n">
-        <v>0.157797</v>
+        <v>0.146607</v>
       </c>
       <c r="D91" t="n">
-        <v>0.130055</v>
+        <v>0.111058</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245727</v>
+        <v>0.242757</v>
       </c>
       <c r="C92" t="n">
-        <v>0.179017</v>
+        <v>0.17525</v>
       </c>
       <c r="D92" t="n">
-        <v>0.129636</v>
+        <v>0.120862</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.288697</v>
+        <v>0.298877</v>
       </c>
       <c r="C93" t="n">
-        <v>0.225462</v>
+        <v>0.196986</v>
       </c>
       <c r="D93" t="n">
-        <v>0.142499</v>
+        <v>0.140827</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363216</v>
+        <v>0.348756</v>
       </c>
       <c r="C94" t="n">
-        <v>0.263016</v>
+        <v>0.24423</v>
       </c>
       <c r="D94" t="n">
-        <v>0.101786</v>
+        <v>0.101093</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149996</v>
+        <v>0.151443</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11705</v>
+        <v>0.112892</v>
       </c>
       <c r="D95" t="n">
-        <v>0.102892</v>
+        <v>0.108484</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.151181</v>
+        <v>0.160266</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11787</v>
+        <v>0.115968</v>
       </c>
       <c r="D96" t="n">
-        <v>0.10398</v>
+        <v>0.103051</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15608</v>
+        <v>0.162693</v>
       </c>
       <c r="C97" t="n">
-        <v>0.121557</v>
+        <v>0.118895</v>
       </c>
       <c r="D97" t="n">
-        <v>0.105887</v>
+        <v>0.111477</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.159111</v>
+        <v>0.170501</v>
       </c>
       <c r="C98" t="n">
-        <v>0.12226</v>
+        <v>0.121298</v>
       </c>
       <c r="D98" t="n">
-        <v>0.109746</v>
+        <v>0.11267</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.163682</v>
+        <v>0.174283</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130475</v>
+        <v>0.125636</v>
       </c>
       <c r="D99" t="n">
-        <v>0.118387</v>
+        <v>0.113983</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.17006</v>
+        <v>0.177171</v>
       </c>
       <c r="C100" t="n">
-        <v>0.136983</v>
+        <v>0.130083</v>
       </c>
       <c r="D100" t="n">
-        <v>0.116818</v>
+        <v>0.117415</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.177566</v>
+        <v>0.187826</v>
       </c>
       <c r="C101" t="n">
-        <v>0.144671</v>
+        <v>0.135334</v>
       </c>
       <c r="D101" t="n">
-        <v>0.116316</v>
+        <v>0.120271</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.188475</v>
+        <v>0.186456</v>
       </c>
       <c r="C102" t="n">
-        <v>0.15798</v>
+        <v>0.141507</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118104</v>
+        <v>0.126194</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205507</v>
+        <v>0.197713</v>
       </c>
       <c r="C103" t="n">
-        <v>0.16495</v>
+        <v>0.151381</v>
       </c>
       <c r="D103" t="n">
-        <v>0.128048</v>
+        <v>0.12841</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.22164</v>
+        <v>0.212773</v>
       </c>
       <c r="C104" t="n">
-        <v>0.180444</v>
+        <v>0.161994</v>
       </c>
       <c r="D104" t="n">
-        <v>0.132023</v>
+        <v>0.128333</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24975</v>
+        <v>0.232934</v>
       </c>
       <c r="C105" t="n">
-        <v>0.197113</v>
+        <v>0.177266</v>
       </c>
       <c r="D105" t="n">
-        <v>0.141171</v>
+        <v>0.130542</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.280486</v>
+        <v>0.269099</v>
       </c>
       <c r="C106" t="n">
-        <v>0.219853</v>
+        <v>0.20064</v>
       </c>
       <c r="D106" t="n">
-        <v>0.151054</v>
+        <v>0.144704</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.327852</v>
+        <v>0.305194</v>
       </c>
       <c r="C107" t="n">
-        <v>0.25976</v>
+        <v>0.233045</v>
       </c>
       <c r="D107" t="n">
-        <v>0.17104</v>
+        <v>0.156738</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.396569</v>
+        <v>0.388671</v>
       </c>
       <c r="C108" t="n">
-        <v>0.320855</v>
+        <v>0.299097</v>
       </c>
       <c r="D108" t="n">
-        <v>0.122031</v>
+        <v>0.114935</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.507848</v>
+        <v>0.478765</v>
       </c>
       <c r="C109" t="n">
-        <v>0.403533</v>
+        <v>0.366921</v>
       </c>
       <c r="D109" t="n">
-        <v>0.124935</v>
+        <v>0.116723</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.175105</v>
+        <v>0.164675</v>
       </c>
       <c r="C110" t="n">
-        <v>0.151121</v>
+        <v>0.135097</v>
       </c>
       <c r="D110" t="n">
-        <v>0.136469</v>
+        <v>0.117228</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.179207</v>
+        <v>0.175759</v>
       </c>
       <c r="C111" t="n">
-        <v>0.159069</v>
+        <v>0.139184</v>
       </c>
       <c r="D111" t="n">
-        <v>0.130176</v>
+        <v>0.113819</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.184233</v>
+        <v>0.179726</v>
       </c>
       <c r="C112" t="n">
-        <v>0.158605</v>
+        <v>0.14299</v>
       </c>
       <c r="D112" t="n">
-        <v>0.133309</v>
+        <v>0.121767</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.189752</v>
+        <v>0.173736</v>
       </c>
       <c r="C113" t="n">
-        <v>0.163119</v>
+        <v>0.147646</v>
       </c>
       <c r="D113" t="n">
-        <v>0.135934</v>
+        <v>0.12329</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.196424</v>
+        <v>0.180341</v>
       </c>
       <c r="C114" t="n">
-        <v>0.16748</v>
+        <v>0.15367</v>
       </c>
       <c r="D114" t="n">
-        <v>0.139271</v>
+        <v>0.126626</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.204762</v>
+        <v>0.187626</v>
       </c>
       <c r="C115" t="n">
-        <v>0.174045</v>
+        <v>0.159318</v>
       </c>
       <c r="D115" t="n">
-        <v>0.141452</v>
+        <v>0.128668</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.217469</v>
+        <v>0.202267</v>
       </c>
       <c r="C116" t="n">
-        <v>0.18451</v>
+        <v>0.168022</v>
       </c>
       <c r="D116" t="n">
-        <v>0.14521</v>
+        <v>0.12626</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.227656</v>
+        <v>0.212474</v>
       </c>
       <c r="C117" t="n">
-        <v>0.195901</v>
+        <v>0.177302</v>
       </c>
       <c r="D117" t="n">
-        <v>0.149571</v>
+        <v>0.133028</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.245376</v>
+        <v>0.230813</v>
       </c>
       <c r="C118" t="n">
-        <v>0.202524</v>
+        <v>0.18944</v>
       </c>
       <c r="D118" t="n">
-        <v>0.154974</v>
+        <v>0.136459</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27106</v>
+        <v>0.253952</v>
       </c>
       <c r="C119" t="n">
-        <v>0.226641</v>
+        <v>0.203967</v>
       </c>
       <c r="D119" t="n">
-        <v>0.161225</v>
+        <v>0.155994</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.304046</v>
+        <v>0.285478</v>
       </c>
       <c r="C120" t="n">
-        <v>0.245787</v>
+        <v>0.225538</v>
       </c>
       <c r="D120" t="n">
-        <v>0.17091</v>
+        <v>0.164631</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.349092</v>
+        <v>0.334052</v>
       </c>
       <c r="C121" t="n">
-        <v>0.277949</v>
+        <v>0.258253</v>
       </c>
       <c r="D121" t="n">
-        <v>0.184498</v>
+        <v>0.170512</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.421521</v>
+        <v>0.406855</v>
       </c>
       <c r="C122" t="n">
-        <v>0.335211</v>
+        <v>0.307155</v>
       </c>
       <c r="D122" t="n">
-        <v>0.208889</v>
+        <v>0.204472</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.518706</v>
+        <v>0.495252</v>
       </c>
       <c r="C123" t="n">
-        <v>0.426201</v>
+        <v>0.406669</v>
       </c>
       <c r="D123" t="n">
-        <v>0.146483</v>
+        <v>0.140856</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.194157</v>
+        <v>0.200883</v>
       </c>
       <c r="C124" t="n">
-        <v>0.183207</v>
+        <v>0.161482</v>
       </c>
       <c r="D124" t="n">
-        <v>0.144155</v>
+        <v>0.142774</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.200796</v>
+        <v>0.20501</v>
       </c>
       <c r="C125" t="n">
-        <v>0.179272</v>
+        <v>0.164507</v>
       </c>
       <c r="D125" t="n">
-        <v>0.1516</v>
+        <v>0.141271</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.204694</v>
+        <v>0.198476</v>
       </c>
       <c r="C126" t="n">
-        <v>0.180452</v>
+        <v>0.16807</v>
       </c>
       <c r="D126" t="n">
-        <v>0.151058</v>
+        <v>0.146856</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.212743</v>
+        <v>0.209192</v>
       </c>
       <c r="C127" t="n">
-        <v>0.190794</v>
+        <v>0.173016</v>
       </c>
       <c r="D127" t="n">
-        <v>0.15328</v>
+        <v>0.150965</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.217626</v>
+        <v>0.219615</v>
       </c>
       <c r="C128" t="n">
-        <v>0.19148</v>
+        <v>0.178834</v>
       </c>
       <c r="D128" t="n">
-        <v>0.153295</v>
+        <v>0.153824</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224743</v>
+        <v>0.217554</v>
       </c>
       <c r="C129" t="n">
-        <v>0.205244</v>
+        <v>0.184032</v>
       </c>
       <c r="D129" t="n">
-        <v>0.157758</v>
+        <v>0.150792</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.240259</v>
+        <v>0.224631</v>
       </c>
       <c r="C130" t="n">
-        <v>0.20455</v>
+        <v>0.190715</v>
       </c>
       <c r="D130" t="n">
-        <v>0.16168</v>
+        <v>0.157082</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24534</v>
+        <v>0.239784</v>
       </c>
       <c r="C131" t="n">
-        <v>0.213759</v>
+        <v>0.199023</v>
       </c>
       <c r="D131" t="n">
-        <v>0.169703</v>
+        <v>0.157263</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.266963</v>
+        <v>0.259312</v>
       </c>
       <c r="C132" t="n">
-        <v>0.224686</v>
+        <v>0.211275</v>
       </c>
       <c r="D132" t="n">
-        <v>0.17263</v>
+        <v>0.169074</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.288776</v>
+        <v>0.278799</v>
       </c>
       <c r="C133" t="n">
-        <v>0.241745</v>
+        <v>0.232354</v>
       </c>
       <c r="D133" t="n">
-        <v>0.177384</v>
+        <v>0.180736</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.314943</v>
+        <v>0.317364</v>
       </c>
       <c r="C134" t="n">
-        <v>0.272288</v>
+        <v>0.247292</v>
       </c>
       <c r="D134" t="n">
-        <v>0.191876</v>
+        <v>0.185063</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.362089</v>
+        <v>0.349734</v>
       </c>
       <c r="C135" t="n">
-        <v>0.305703</v>
+        <v>0.278327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212561</v>
+        <v>0.19698</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.437313</v>
+        <v>0.411213</v>
       </c>
       <c r="C136" t="n">
-        <v>0.358778</v>
+        <v>0.322158</v>
       </c>
       <c r="D136" t="n">
-        <v>0.224192</v>
+        <v>0.221631</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.538627</v>
+        <v>0.5032180000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.455108</v>
+        <v>0.398812</v>
       </c>
       <c r="D137" t="n">
-        <v>0.276175</v>
+        <v>0.260544</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.359371</v>
+        <v>0.329505</v>
       </c>
       <c r="C138" t="n">
-        <v>0.298423</v>
+        <v>0.269752</v>
       </c>
       <c r="D138" t="n">
-        <v>0.279751</v>
+        <v>0.257515</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.367451</v>
+        <v>0.336597</v>
       </c>
       <c r="C139" t="n">
-        <v>0.298615</v>
+        <v>0.275944</v>
       </c>
       <c r="D139" t="n">
-        <v>0.284102</v>
+        <v>0.257504</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.366775</v>
+        <v>0.343981</v>
       </c>
       <c r="C140" t="n">
-        <v>0.303747</v>
+        <v>0.2773</v>
       </c>
       <c r="D140" t="n">
-        <v>0.282644</v>
+        <v>0.263544</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.375196</v>
+        <v>0.342505</v>
       </c>
       <c r="C141" t="n">
-        <v>0.307584</v>
+        <v>0.278429</v>
       </c>
       <c r="D141" t="n">
-        <v>0.282135</v>
+        <v>0.270496</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.379899</v>
+        <v>0.351702</v>
       </c>
       <c r="C142" t="n">
-        <v>0.316941</v>
+        <v>0.287376</v>
       </c>
       <c r="D142" t="n">
-        <v>0.288504</v>
+        <v>0.269092</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.386292</v>
+        <v>0.365854</v>
       </c>
       <c r="C143" t="n">
-        <v>0.316583</v>
+        <v>0.290368</v>
       </c>
       <c r="D143" t="n">
-        <v>0.288874</v>
+        <v>0.272586</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103277</v>
+        <v>0.103246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611808</v>
+        <v>0.0611372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674746</v>
+        <v>0.0674592</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.1105</v>
+        <v>0.110899</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623636</v>
+        <v>0.0625042</v>
       </c>
       <c r="D3" t="n">
-        <v>0.07502159999999999</v>
+        <v>0.0672098</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122099</v>
+        <v>0.122216</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06514780000000001</v>
+        <v>0.065552</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0665965</v>
+        <v>0.06659470000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143044</v>
+        <v>0.143427</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0733051</v>
+        <v>0.0736709</v>
       </c>
       <c r="D5" t="n">
-        <v>0.074405</v>
+        <v>0.0671514</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170081</v>
+        <v>0.170297</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0901684</v>
+        <v>0.0895272</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06856909999999999</v>
+        <v>0.0755041</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20543</v>
+        <v>0.205765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.11171</v>
+        <v>0.112069</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0725486</v>
+        <v>0.0796973</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252501</v>
+        <v>0.252853</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152115</v>
+        <v>0.152201</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0939719</v>
+        <v>0.09174789999999999</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305643</v>
+        <v>0.306142</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190426</v>
+        <v>0.190623</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0677034</v>
+        <v>0.0685482</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.095225</v>
+        <v>0.0972713</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0626478</v>
+        <v>0.0634908</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0679756</v>
+        <v>0.0783961</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0957128</v>
+        <v>0.101304</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0627745</v>
+        <v>0.06219</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0749032</v>
+        <v>0.0748878</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0980384</v>
+        <v>0.0975823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06351080000000001</v>
+        <v>0.0685188</v>
       </c>
       <c r="D12" t="n">
-        <v>0.068049</v>
+        <v>0.0706662</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0997054</v>
+        <v>0.100241</v>
       </c>
       <c r="C13" t="n">
-        <v>0.063206</v>
+        <v>0.06469709999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0751132</v>
+        <v>0.0793268</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102403</v>
+        <v>0.105963</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0633436</v>
+        <v>0.06815160000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0699844</v>
+        <v>0.07939740000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106445</v>
+        <v>0.114924</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06384289999999999</v>
+        <v>0.0728972</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0756617</v>
+        <v>0.0800101</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11277</v>
+        <v>0.122118</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0672586</v>
+        <v>0.0726991</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07608910000000001</v>
+        <v>0.07993210000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12204</v>
+        <v>0.124483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0709515</v>
+        <v>0.0728594</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0744167</v>
+        <v>0.07232719999999999</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133917</v>
+        <v>0.141973</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0801481</v>
+        <v>0.08134039999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07697710000000001</v>
+        <v>0.0743019</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150137</v>
+        <v>0.161395</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09168419999999999</v>
+        <v>0.0954581</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0707362</v>
+        <v>0.08123320000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171033</v>
+        <v>0.185659</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104005</v>
+        <v>0.105233</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08165310000000001</v>
+        <v>0.0857347</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.19917</v>
+        <v>0.202897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121137</v>
+        <v>0.122385</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0830279</v>
+        <v>0.0888916</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23604</v>
+        <v>0.244711</v>
       </c>
       <c r="C22" t="n">
-        <v>0.15429</v>
+        <v>0.166741</v>
       </c>
       <c r="D22" t="n">
-        <v>0.107833</v>
+        <v>0.110509</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287707</v>
+        <v>0.287555</v>
       </c>
       <c r="C23" t="n">
-        <v>0.216006</v>
+        <v>0.207073</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0691585</v>
+        <v>0.072338</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100747</v>
+        <v>0.105537</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665355</v>
+        <v>0.0718013</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0769382</v>
+        <v>0.07912279999999999</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101975</v>
+        <v>0.113434</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0663521</v>
+        <v>0.0719577</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0720191</v>
+        <v>0.0787141</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103635</v>
+        <v>0.109722</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0668759</v>
+        <v>0.06784220000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0773879</v>
+        <v>0.0727308</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105681</v>
+        <v>0.114289</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0674192</v>
+        <v>0.0681464</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0697981</v>
+        <v>0.0812956</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108881</v>
+        <v>0.114275</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0689332</v>
+        <v>0.0740291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0780325</v>
+        <v>0.0743931</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113555</v>
+        <v>0.121668</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0706841</v>
+        <v>0.0712319</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0705722</v>
+        <v>0.0826138</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119694</v>
+        <v>0.121116</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0742179</v>
+        <v>0.0748403</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0708883</v>
+        <v>0.08324910000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127433</v>
+        <v>0.130833</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0789685</v>
+        <v>0.08431710000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0791785</v>
+        <v>0.08097070000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137361</v>
+        <v>0.143684</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0848483</v>
+        <v>0.0855181</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0801535</v>
+        <v>0.0840876</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.15036</v>
+        <v>0.158838</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0926901</v>
+        <v>0.10253</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08273610000000001</v>
+        <v>0.0850288</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168714</v>
+        <v>0.179941</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105417</v>
+        <v>0.105933</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0876318</v>
+        <v>0.08257349999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195048</v>
+        <v>0.198489</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123113</v>
+        <v>0.123176</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0978282</v>
+        <v>0.102996</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.236741</v>
+        <v>0.249806</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147869</v>
+        <v>0.150802</v>
       </c>
       <c r="D36" t="n">
-        <v>0.100126</v>
+        <v>0.109541</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280537</v>
+        <v>0.306474</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190464</v>
+        <v>0.190538</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0783802</v>
+        <v>0.07992249999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103574</v>
+        <v>0.106212</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0691457</v>
+        <v>0.0696891</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0703857</v>
+        <v>0.08174629999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104954</v>
+        <v>0.107796</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06974379999999999</v>
+        <v>0.0752956</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0786126</v>
+        <v>0.07492500000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107161</v>
+        <v>0.111304</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0707662</v>
+        <v>0.0715881</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0789815</v>
+        <v>0.07534200000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109259</v>
+        <v>0.110856</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0719944</v>
+        <v>0.0727424</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07126689999999999</v>
+        <v>0.0762071</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112229</v>
+        <v>0.117136</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0735219</v>
+        <v>0.07380399999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0716845</v>
+        <v>0.07536710000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116384</v>
+        <v>0.119115</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0758964</v>
+        <v>0.0815702</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0724612</v>
+        <v>0.0819626</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122347</v>
+        <v>0.126615</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07835930000000001</v>
+        <v>0.0787489</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0729722</v>
+        <v>0.075963</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129262</v>
+        <v>0.134857</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0816731</v>
+        <v>0.0821298</v>
       </c>
       <c r="D45" t="n">
-        <v>0.073686</v>
+        <v>0.0775301</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138233</v>
+        <v>0.142463</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08649800000000001</v>
+        <v>0.08662209999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07548879999999999</v>
+        <v>0.0842342</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150715</v>
+        <v>0.152209</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0930018</v>
+        <v>0.0951784</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0774579</v>
+        <v>0.08273030000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167929</v>
+        <v>0.169469</v>
       </c>
       <c r="C48" t="n">
-        <v>0.10246</v>
+        <v>0.108515</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09012630000000001</v>
+        <v>0.09177929999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191616</v>
+        <v>0.193041</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116191</v>
+        <v>0.116225</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09586500000000001</v>
+        <v>0.09621010000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223696</v>
+        <v>0.227063</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137813</v>
+        <v>0.146287</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0959371</v>
+        <v>0.105089</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268659</v>
+        <v>0.272959</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172708</v>
+        <v>0.186215</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07182819999999999</v>
+        <v>0.07825940000000001</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322132</v>
+        <v>0.324332</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249585</v>
+        <v>0.227537</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0724721</v>
+        <v>0.077177</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.108616</v>
+        <v>0.112248</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0736035</v>
+        <v>0.0858961</v>
       </c>
       <c r="D53" t="n">
-        <v>0.074638</v>
+        <v>0.08554390000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110731</v>
+        <v>0.122644</v>
       </c>
       <c r="C54" t="n">
-        <v>0.074207</v>
+        <v>0.08252429999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0745773</v>
+        <v>0.08387319999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113111</v>
+        <v>0.116757</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07519190000000001</v>
+        <v>0.0873038</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0813837</v>
+        <v>0.07808850000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115732</v>
+        <v>0.118377</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07715950000000001</v>
+        <v>0.0779545</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07398299999999999</v>
+        <v>0.0794546</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119954</v>
+        <v>0.12595</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0794132</v>
+        <v>0.0878495</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08309419999999999</v>
+        <v>0.08468299999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.124032</v>
+        <v>0.135674</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0819028</v>
+        <v>0.09030290000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0835798</v>
+        <v>0.08545</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130271</v>
+        <v>0.132311</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0846368</v>
+        <v>0.0854051</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0763769</v>
+        <v>0.0793475</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139111</v>
+        <v>0.140925</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08856219999999999</v>
+        <v>0.08953609999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0862142</v>
+        <v>0.0852503</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150782</v>
+        <v>0.151945</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0948157</v>
+        <v>0.0951655</v>
       </c>
       <c r="D61" t="n">
-        <v>0.080711</v>
+        <v>0.0902071</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165086</v>
+        <v>0.166969</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104065</v>
+        <v>0.111156</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0917372</v>
+        <v>0.09373960000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186968</v>
+        <v>0.188744</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117112</v>
+        <v>0.125215</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0890957</v>
+        <v>0.103428</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218192</v>
+        <v>0.233309</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137137</v>
+        <v>0.149723</v>
       </c>
       <c r="D64" t="n">
-        <v>0.105209</v>
+        <v>0.10798</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260356</v>
+        <v>0.267903</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170382</v>
+        <v>0.171035</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111168</v>
+        <v>0.121825</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312767</v>
+        <v>0.328621</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220357</v>
+        <v>0.219017</v>
       </c>
       <c r="D66" t="n">
-        <v>0.087288</v>
+        <v>0.0858295</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.122609</v>
+        <v>0.121167</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0809747</v>
+        <v>0.0878763</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08802359999999999</v>
+        <v>0.07944089999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123162</v>
+        <v>0.12785</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0865233</v>
+        <v>0.08339969999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0827054</v>
+        <v>0.0883792</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126068</v>
+        <v>0.127576</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08285090000000001</v>
+        <v>0.0890242</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08061</v>
+        <v>0.09320050000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128272</v>
+        <v>0.128947</v>
       </c>
       <c r="C70" t="n">
-        <v>0.083805</v>
+        <v>0.0902762</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0845939</v>
+        <v>0.0898822</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132897</v>
+        <v>0.135234</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08528139999999999</v>
+        <v>0.08812929999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0827775</v>
+        <v>0.0874772</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137255</v>
+        <v>0.145466</v>
       </c>
       <c r="C72" t="n">
-        <v>0.088811</v>
+        <v>0.08893330000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.091459</v>
+        <v>0.0956915</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142294</v>
+        <v>0.144328</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09132469999999999</v>
+        <v>0.0928795</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09167599999999999</v>
+        <v>0.09356589999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.151049</v>
+        <v>0.161567</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09484960000000001</v>
+        <v>0.109718</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08515060000000001</v>
+        <v>0.0943792</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.160947</v>
+        <v>0.175085</v>
       </c>
       <c r="C75" t="n">
-        <v>0.10157</v>
+        <v>0.102582</v>
       </c>
       <c r="D75" t="n">
-        <v>0.093027</v>
+        <v>0.0961907</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.184601</v>
+        <v>0.177032</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110172</v>
+        <v>0.116897</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0968151</v>
+        <v>0.0975673</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19452</v>
+        <v>0.202421</v>
       </c>
       <c r="C77" t="n">
-        <v>0.121729</v>
+        <v>0.139405</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0940756</v>
+        <v>0.104261</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.226637</v>
+        <v>0.227533</v>
       </c>
       <c r="C78" t="n">
-        <v>0.146128</v>
+        <v>0.15187</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111995</v>
+        <v>0.118267</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27728</v>
+        <v>0.281361</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170107</v>
+        <v>0.184906</v>
       </c>
       <c r="D79" t="n">
-        <v>0.12555</v>
+        <v>0.125218</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324982</v>
+        <v>0.325445</v>
       </c>
       <c r="C80" t="n">
-        <v>0.23605</v>
+        <v>0.22143</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0875425</v>
+        <v>0.09310499999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135356</v>
+        <v>0.145175</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09069919999999999</v>
+        <v>0.0965353</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0913921</v>
+        <v>0.0960988</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137109</v>
+        <v>0.137591</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09225899999999999</v>
+        <v>0.0951275</v>
       </c>
       <c r="D82" t="n">
-        <v>0.09545430000000001</v>
+        <v>0.0968986</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139476</v>
+        <v>0.149716</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0945093</v>
+        <v>0.09684619999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0947877</v>
+        <v>0.09107410000000001</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142039</v>
+        <v>0.142611</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0965428</v>
+        <v>0.1072</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0977748</v>
+        <v>0.103612</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.14635</v>
+        <v>0.155953</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0995085</v>
+        <v>0.105977</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0971701</v>
+        <v>0.0993363</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161638</v>
+        <v>0.151276</v>
       </c>
       <c r="C86" t="n">
-        <v>0.10375</v>
+        <v>0.104665</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0993942</v>
+        <v>0.105448</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157931</v>
+        <v>0.158641</v>
       </c>
       <c r="C87" t="n">
-        <v>0.108296</v>
+        <v>0.10985</v>
       </c>
       <c r="D87" t="n">
-        <v>0.107425</v>
+        <v>0.103154</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166197</v>
+        <v>0.172139</v>
       </c>
       <c r="C88" t="n">
-        <v>0.114376</v>
+        <v>0.115569</v>
       </c>
       <c r="D88" t="n">
-        <v>0.104864</v>
+        <v>0.104626</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177777</v>
+        <v>0.188226</v>
       </c>
       <c r="C89" t="n">
-        <v>0.122954</v>
+        <v>0.13386</v>
       </c>
       <c r="D89" t="n">
-        <v>0.108747</v>
+        <v>0.10719</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.202508</v>
+        <v>0.207745</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132889</v>
+        <v>0.134979</v>
       </c>
       <c r="D90" t="n">
-        <v>0.111795</v>
+        <v>0.106626</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214172</v>
+        <v>0.217538</v>
       </c>
       <c r="C91" t="n">
-        <v>0.146607</v>
+        <v>0.151551</v>
       </c>
       <c r="D91" t="n">
-        <v>0.111058</v>
+        <v>0.111278</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242757</v>
+        <v>0.255247</v>
       </c>
       <c r="C92" t="n">
-        <v>0.17525</v>
+        <v>0.167607</v>
       </c>
       <c r="D92" t="n">
-        <v>0.120862</v>
+        <v>0.128615</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.298877</v>
+        <v>0.288965</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196986</v>
+        <v>0.209296</v>
       </c>
       <c r="D93" t="n">
-        <v>0.140827</v>
+        <v>0.149648</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.348756</v>
+        <v>0.365351</v>
       </c>
       <c r="C94" t="n">
-        <v>0.24423</v>
+        <v>0.256854</v>
       </c>
       <c r="D94" t="n">
-        <v>0.101093</v>
+        <v>0.0978115</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.151443</v>
+        <v>0.150204</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112892</v>
+        <v>0.113285</v>
       </c>
       <c r="D95" t="n">
-        <v>0.108484</v>
+        <v>0.101208</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.160266</v>
+        <v>0.1591</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115968</v>
+        <v>0.116322</v>
       </c>
       <c r="D96" t="n">
-        <v>0.103051</v>
+        <v>0.109438</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.162693</v>
+        <v>0.158019</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118895</v>
+        <v>0.119321</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111477</v>
+        <v>0.111935</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170501</v>
+        <v>0.170464</v>
       </c>
       <c r="C98" t="n">
-        <v>0.121298</v>
+        <v>0.119908</v>
       </c>
       <c r="D98" t="n">
-        <v>0.11267</v>
+        <v>0.113323</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.174283</v>
+        <v>0.175712</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125636</v>
+        <v>0.126516</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113983</v>
+        <v>0.115109</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.177171</v>
+        <v>0.181569</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130083</v>
+        <v>0.135045</v>
       </c>
       <c r="D100" t="n">
-        <v>0.117415</v>
+        <v>0.115595</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187826</v>
+        <v>0.188044</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135334</v>
+        <v>0.140898</v>
       </c>
       <c r="D101" t="n">
-        <v>0.120271</v>
+        <v>0.124106</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186456</v>
+        <v>0.200195</v>
       </c>
       <c r="C102" t="n">
-        <v>0.141507</v>
+        <v>0.14266</v>
       </c>
       <c r="D102" t="n">
-        <v>0.126194</v>
+        <v>0.113628</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197713</v>
+        <v>0.200878</v>
       </c>
       <c r="C103" t="n">
-        <v>0.151381</v>
+        <v>0.160388</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12841</v>
+        <v>0.125357</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212773</v>
+        <v>0.226105</v>
       </c>
       <c r="C104" t="n">
-        <v>0.161994</v>
+        <v>0.16269</v>
       </c>
       <c r="D104" t="n">
-        <v>0.128333</v>
+        <v>0.126874</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.232934</v>
+        <v>0.238592</v>
       </c>
       <c r="C105" t="n">
-        <v>0.177266</v>
+        <v>0.175716</v>
       </c>
       <c r="D105" t="n">
-        <v>0.130542</v>
+        <v>0.136598</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.269099</v>
+        <v>0.275172</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20064</v>
+        <v>0.200708</v>
       </c>
       <c r="D106" t="n">
-        <v>0.144704</v>
+        <v>0.144696</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305194</v>
+        <v>0.315827</v>
       </c>
       <c r="C107" t="n">
-        <v>0.233045</v>
+        <v>0.230405</v>
       </c>
       <c r="D107" t="n">
-        <v>0.156738</v>
+        <v>0.156667</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.388671</v>
+        <v>0.37816</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299097</v>
+        <v>0.281738</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114935</v>
+        <v>0.108281</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.478765</v>
+        <v>0.492097</v>
       </c>
       <c r="C109" t="n">
-        <v>0.366921</v>
+        <v>0.388676</v>
       </c>
       <c r="D109" t="n">
-        <v>0.116723</v>
+        <v>0.116436</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.164675</v>
+        <v>0.173071</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135097</v>
+        <v>0.135358</v>
       </c>
       <c r="D110" t="n">
-        <v>0.117228</v>
+        <v>0.110905</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175759</v>
+        <v>0.176044</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139184</v>
+        <v>0.139252</v>
       </c>
       <c r="D111" t="n">
-        <v>0.113819</v>
+        <v>0.112725</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179726</v>
+        <v>0.178385</v>
       </c>
       <c r="C112" t="n">
-        <v>0.14299</v>
+        <v>0.143581</v>
       </c>
       <c r="D112" t="n">
-        <v>0.121767</v>
+        <v>0.121254</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173736</v>
+        <v>0.184576</v>
       </c>
       <c r="C113" t="n">
-        <v>0.147646</v>
+        <v>0.148097</v>
       </c>
       <c r="D113" t="n">
-        <v>0.12329</v>
+        <v>0.116125</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180341</v>
+        <v>0.190566</v>
       </c>
       <c r="C114" t="n">
-        <v>0.15367</v>
+        <v>0.154424</v>
       </c>
       <c r="D114" t="n">
-        <v>0.126626</v>
+        <v>0.124985</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.187626</v>
+        <v>0.188</v>
       </c>
       <c r="C115" t="n">
-        <v>0.159318</v>
+        <v>0.160224</v>
       </c>
       <c r="D115" t="n">
-        <v>0.128668</v>
+        <v>0.123762</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.202267</v>
+        <v>0.199656</v>
       </c>
       <c r="C116" t="n">
-        <v>0.168022</v>
+        <v>0.168463</v>
       </c>
       <c r="D116" t="n">
-        <v>0.12626</v>
+        <v>0.132459</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212474</v>
+        <v>0.215698</v>
       </c>
       <c r="C117" t="n">
-        <v>0.177302</v>
+        <v>0.177827</v>
       </c>
       <c r="D117" t="n">
-        <v>0.133028</v>
+        <v>0.129995</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.230813</v>
+        <v>0.240106</v>
       </c>
       <c r="C118" t="n">
-        <v>0.18944</v>
+        <v>0.190098</v>
       </c>
       <c r="D118" t="n">
-        <v>0.136459</v>
+        <v>0.143074</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.253952</v>
+        <v>0.254927</v>
       </c>
       <c r="C119" t="n">
-        <v>0.203967</v>
+        <v>0.204489</v>
       </c>
       <c r="D119" t="n">
-        <v>0.155994</v>
+        <v>0.151241</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.285478</v>
+        <v>0.286531</v>
       </c>
       <c r="C120" t="n">
-        <v>0.225538</v>
+        <v>0.227328</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164631</v>
+        <v>0.162254</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.334052</v>
+        <v>0.334157</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258253</v>
+        <v>0.265086</v>
       </c>
       <c r="D121" t="n">
-        <v>0.170512</v>
+        <v>0.179142</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.406855</v>
+        <v>0.396369</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307155</v>
+        <v>0.317728</v>
       </c>
       <c r="D122" t="n">
-        <v>0.204472</v>
+        <v>0.204395</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.495252</v>
+        <v>0.512042</v>
       </c>
       <c r="C123" t="n">
-        <v>0.406669</v>
+        <v>0.39077</v>
       </c>
       <c r="D123" t="n">
-        <v>0.140856</v>
+        <v>0.142488</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.200883</v>
+        <v>0.199132</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161482</v>
+        <v>0.162651</v>
       </c>
       <c r="D124" t="n">
-        <v>0.142774</v>
+        <v>0.145003</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.20501</v>
+        <v>0.192755</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164507</v>
+        <v>0.166603</v>
       </c>
       <c r="D125" t="n">
-        <v>0.141271</v>
+        <v>0.149348</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.198476</v>
+        <v>0.203684</v>
       </c>
       <c r="C126" t="n">
-        <v>0.16807</v>
+        <v>0.171503</v>
       </c>
       <c r="D126" t="n">
-        <v>0.146856</v>
+        <v>0.151529</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.209192</v>
+        <v>0.204115</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173016</v>
+        <v>0.17524</v>
       </c>
       <c r="D127" t="n">
-        <v>0.150965</v>
+        <v>0.150825</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.219615</v>
+        <v>0.21004</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178834</v>
+        <v>0.17886</v>
       </c>
       <c r="D128" t="n">
-        <v>0.153824</v>
+        <v>0.155014</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217554</v>
+        <v>0.218206</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184032</v>
+        <v>0.18483</v>
       </c>
       <c r="D129" t="n">
-        <v>0.150792</v>
+        <v>0.150382</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.224631</v>
+        <v>0.227992</v>
       </c>
       <c r="C130" t="n">
-        <v>0.190715</v>
+        <v>0.19221</v>
       </c>
       <c r="D130" t="n">
-        <v>0.157082</v>
+        <v>0.159191</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.239784</v>
+        <v>0.251952</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199023</v>
+        <v>0.200338</v>
       </c>
       <c r="D131" t="n">
-        <v>0.157263</v>
+        <v>0.164789</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.259312</v>
+        <v>0.265735</v>
       </c>
       <c r="C132" t="n">
-        <v>0.211275</v>
+        <v>0.210709</v>
       </c>
       <c r="D132" t="n">
-        <v>0.169074</v>
+        <v>0.175872</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.278799</v>
+        <v>0.280815</v>
       </c>
       <c r="C133" t="n">
-        <v>0.232354</v>
+        <v>0.232593</v>
       </c>
       <c r="D133" t="n">
-        <v>0.180736</v>
+        <v>0.173172</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.317364</v>
+        <v>0.312235</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247292</v>
+        <v>0.25008</v>
       </c>
       <c r="D134" t="n">
-        <v>0.185063</v>
+        <v>0.18462</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349734</v>
+        <v>0.346995</v>
       </c>
       <c r="C135" t="n">
-        <v>0.278327</v>
+        <v>0.294221</v>
       </c>
       <c r="D135" t="n">
-        <v>0.19698</v>
+        <v>0.198471</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411213</v>
+        <v>0.422418</v>
       </c>
       <c r="C136" t="n">
-        <v>0.322158</v>
+        <v>0.336454</v>
       </c>
       <c r="D136" t="n">
-        <v>0.221631</v>
+        <v>0.22022</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5032180000000001</v>
+        <v>0.5089360000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.398812</v>
+        <v>0.398925</v>
       </c>
       <c r="D137" t="n">
-        <v>0.260544</v>
+        <v>0.266949</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329505</v>
+        <v>0.338625</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269752</v>
+        <v>0.271806</v>
       </c>
       <c r="D138" t="n">
-        <v>0.257515</v>
+        <v>0.269267</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.336597</v>
+        <v>0.342626</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275944</v>
+        <v>0.275366</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257504</v>
+        <v>0.260808</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.343981</v>
+        <v>0.341432</v>
       </c>
       <c r="C140" t="n">
-        <v>0.2773</v>
+        <v>0.277754</v>
       </c>
       <c r="D140" t="n">
-        <v>0.263544</v>
+        <v>0.264944</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.342505</v>
+        <v>0.35327</v>
       </c>
       <c r="C141" t="n">
-        <v>0.278429</v>
+        <v>0.282915</v>
       </c>
       <c r="D141" t="n">
-        <v>0.270496</v>
+        <v>0.266237</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.351702</v>
+        <v>0.357131</v>
       </c>
       <c r="C142" t="n">
-        <v>0.287376</v>
+        <v>0.286349</v>
       </c>
       <c r="D142" t="n">
-        <v>0.269092</v>
+        <v>0.268596</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.365854</v>
+        <v>0.374029</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290368</v>
+        <v>0.293898</v>
       </c>
       <c r="D143" t="n">
-        <v>0.272586</v>
+        <v>0.279749</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103246</v>
+        <v>0.103289</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611372</v>
+        <v>0.0612338</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674592</v>
+        <v>0.06759709999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110899</v>
+        <v>0.110858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0625042</v>
+        <v>0.06272759999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0672098</v>
+        <v>0.0681768</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122216</v>
+        <v>0.122514</v>
       </c>
       <c r="C4" t="n">
-        <v>0.065552</v>
+        <v>0.06522169999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06659470000000001</v>
+        <v>0.07354330000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143427</v>
+        <v>0.143413</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0736709</v>
+        <v>0.0736516</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0671514</v>
+        <v>0.07427640000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170297</v>
+        <v>0.171349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0895272</v>
+        <v>0.08906</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0755041</v>
+        <v>0.0755159</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205765</v>
+        <v>0.205541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112069</v>
+        <v>0.111798</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0796973</v>
+        <v>0.079123</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252853</v>
+        <v>0.252697</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152201</v>
+        <v>0.152247</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09174789999999999</v>
+        <v>0.0855712</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306142</v>
+        <v>0.30596</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190623</v>
+        <v>0.190953</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0685482</v>
+        <v>0.0780575</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0972713</v>
+        <v>0.0951478</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0634908</v>
+        <v>0.0644448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0783961</v>
+        <v>0.07808809999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.101304</v>
+        <v>0.0956625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06219</v>
+        <v>0.06351320000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0748878</v>
+        <v>0.0800877</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0975823</v>
+        <v>0.0974001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0685188</v>
+        <v>0.0634972</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0706662</v>
+        <v>0.0786869</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100241</v>
+        <v>0.09957539999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06469709999999999</v>
+        <v>0.06251230000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0793268</v>
+        <v>0.0788422</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.105963</v>
+        <v>0.102264</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06815160000000001</v>
+        <v>0.0633423</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07939740000000001</v>
+        <v>0.0716569</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.114924</v>
+        <v>0.106353</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0728972</v>
+        <v>0.06375840000000001</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0800101</v>
+        <v>0.0805203</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.122118</v>
+        <v>0.112193</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0726991</v>
+        <v>0.0675173</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07993210000000001</v>
+        <v>0.0803137</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.124483</v>
+        <v>0.12125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0728594</v>
+        <v>0.07089529999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07232719999999999</v>
+        <v>0.0804412</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.141973</v>
+        <v>0.133789</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08134039999999999</v>
+        <v>0.08548020000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0743019</v>
+        <v>0.080986</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.161395</v>
+        <v>0.15043</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0954581</v>
+        <v>0.09805990000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08123320000000001</v>
+        <v>0.0831847</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.185659</v>
+        <v>0.170817</v>
       </c>
       <c r="C20" t="n">
-        <v>0.105233</v>
+        <v>0.104832</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0857347</v>
+        <v>0.08608209999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.202897</v>
+        <v>0.198428</v>
       </c>
       <c r="C21" t="n">
-        <v>0.122385</v>
+        <v>0.139406</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0888916</v>
+        <v>0.0851986</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244711</v>
+        <v>0.257722</v>
       </c>
       <c r="C22" t="n">
-        <v>0.166741</v>
+        <v>0.154515</v>
       </c>
       <c r="D22" t="n">
-        <v>0.110509</v>
+        <v>0.102505</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287555</v>
+        <v>0.302156</v>
       </c>
       <c r="C23" t="n">
-        <v>0.207073</v>
+        <v>0.215853</v>
       </c>
       <c r="D23" t="n">
-        <v>0.072338</v>
+        <v>0.0732097</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105537</v>
+        <v>0.111156</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0718013</v>
+        <v>0.0741222</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07912279999999999</v>
+        <v>0.0800608</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.113434</v>
+        <v>0.108402</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0719577</v>
+        <v>0.06757440000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0787141</v>
+        <v>0.07380970000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.109722</v>
+        <v>0.106006</v>
       </c>
       <c r="C26" t="n">
-        <v>0.06784220000000001</v>
+        <v>0.07220509999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0727308</v>
+        <v>0.0822032</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.114289</v>
+        <v>0.110364</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0681464</v>
+        <v>0.0761656</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0812956</v>
+        <v>0.0799672</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.114275</v>
+        <v>0.114037</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0740291</v>
+        <v>0.07381359999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0743931</v>
+        <v>0.0813493</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.121668</v>
+        <v>0.12279</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0712319</v>
+        <v>0.0710612</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0826138</v>
+        <v>0.07487969999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.121116</v>
+        <v>0.121907</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0748403</v>
+        <v>0.08275730000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08324910000000001</v>
+        <v>0.0805322</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.130833</v>
+        <v>0.129882</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08431710000000001</v>
+        <v>0.0795019</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08097070000000001</v>
+        <v>0.0815191</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.143684</v>
+        <v>0.140836</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0855181</v>
+        <v>0.09144040000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0840876</v>
+        <v>0.0810058</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.158838</v>
+        <v>0.153817</v>
       </c>
       <c r="C33" t="n">
-        <v>0.10253</v>
+        <v>0.102355</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0850288</v>
+        <v>0.0793944</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.179941</v>
+        <v>0.1697</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105933</v>
+        <v>0.115144</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08257349999999999</v>
+        <v>0.0831412</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.198489</v>
+        <v>0.194811</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123176</v>
+        <v>0.123327</v>
       </c>
       <c r="D35" t="n">
-        <v>0.102996</v>
+        <v>0.09086669999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.249806</v>
+        <v>0.237202</v>
       </c>
       <c r="C36" t="n">
-        <v>0.150802</v>
+        <v>0.147674</v>
       </c>
       <c r="D36" t="n">
-        <v>0.109541</v>
+        <v>0.11194</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.306474</v>
+        <v>0.280019</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190538</v>
+        <v>0.189447</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07992249999999999</v>
+        <v>0.0786113</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.106212</v>
+        <v>0.113375</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0696891</v>
+        <v>0.07485219999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08174629999999999</v>
+        <v>0.0756616</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107796</v>
+        <v>0.10753</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0752956</v>
+        <v>0.0707081</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07492500000000001</v>
+        <v>0.0738776</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.111304</v>
+        <v>0.116902</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0715881</v>
+        <v>0.0711942</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07534200000000001</v>
+        <v>0.0805987</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.110856</v>
+        <v>0.112021</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0727424</v>
+        <v>0.07237059999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0762071</v>
+        <v>0.0759104</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.117136</v>
+        <v>0.116176</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07380399999999999</v>
+        <v>0.0775952</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07536710000000001</v>
+        <v>0.0738716</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119115</v>
+        <v>0.119509</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0815702</v>
+        <v>0.0758448</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0819626</v>
+        <v>0.0808431</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.126615</v>
+        <v>0.125505</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0787489</v>
+        <v>0.0785752</v>
       </c>
       <c r="D44" t="n">
-        <v>0.075963</v>
+        <v>0.077338</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.134857</v>
+        <v>0.130906</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0821298</v>
+        <v>0.08185770000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0775301</v>
+        <v>0.086118</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142463</v>
+        <v>0.142447</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08662209999999999</v>
+        <v>0.0913253</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0842342</v>
+        <v>0.0851399</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152209</v>
+        <v>0.151804</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0951784</v>
+        <v>0.0932712</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08273030000000001</v>
+        <v>0.0820299</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169469</v>
+        <v>0.175177</v>
       </c>
       <c r="C48" t="n">
-        <v>0.108515</v>
+        <v>0.102664</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09177929999999999</v>
+        <v>0.0838077</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.193041</v>
+        <v>0.196897</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116225</v>
+        <v>0.116439</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09621010000000001</v>
+        <v>0.097528</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.227063</v>
+        <v>0.226479</v>
       </c>
       <c r="C50" t="n">
-        <v>0.146287</v>
+        <v>0.138147</v>
       </c>
       <c r="D50" t="n">
-        <v>0.105089</v>
+        <v>0.103645</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.272959</v>
+        <v>0.269402</v>
       </c>
       <c r="C51" t="n">
-        <v>0.186215</v>
+        <v>0.172765</v>
       </c>
       <c r="D51" t="n">
-        <v>0.07825940000000001</v>
+        <v>0.08177039999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.324332</v>
+        <v>0.329797</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227537</v>
+        <v>0.226266</v>
       </c>
       <c r="D52" t="n">
-        <v>0.077177</v>
+        <v>0.07662579999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.112248</v>
+        <v>0.119063</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0858961</v>
+        <v>0.0746243</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08554390000000001</v>
+        <v>0.07746409999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.122644</v>
+        <v>0.119901</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08252429999999999</v>
+        <v>0.08050599999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08387319999999999</v>
+        <v>0.08256810000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.116757</v>
+        <v>0.115004</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0873038</v>
+        <v>0.08113629999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.07808850000000001</v>
+        <v>0.0840463</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118377</v>
+        <v>0.125011</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0779545</v>
+        <v>0.0829059</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0794546</v>
+        <v>0.0783423</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12595</v>
+        <v>0.120112</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0878495</v>
+        <v>0.0806336</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08468299999999999</v>
+        <v>0.079875</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135674</v>
+        <v>0.12916</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09030290000000001</v>
+        <v>0.0877908</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08545</v>
+        <v>0.08541849999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132311</v>
+        <v>0.141393</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0854051</v>
+        <v>0.0930868</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0793475</v>
+        <v>0.0798358</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.140925</v>
+        <v>0.148564</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08953609999999999</v>
+        <v>0.0964106</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0852503</v>
+        <v>0.0871072</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151945</v>
+        <v>0.151622</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0951655</v>
+        <v>0.0948582</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0902071</v>
+        <v>0.08319799999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.166969</v>
+        <v>0.16704</v>
       </c>
       <c r="C62" t="n">
-        <v>0.111156</v>
+        <v>0.105428</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09373960000000001</v>
+        <v>0.0854785</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188744</v>
+        <v>0.189569</v>
       </c>
       <c r="C63" t="n">
-        <v>0.125215</v>
+        <v>0.116365</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103428</v>
+        <v>0.0891964</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.233309</v>
+        <v>0.216499</v>
       </c>
       <c r="C64" t="n">
-        <v>0.149723</v>
+        <v>0.148461</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10798</v>
+        <v>0.106371</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267903</v>
+        <v>0.27904</v>
       </c>
       <c r="C65" t="n">
-        <v>0.171035</v>
+        <v>0.169583</v>
       </c>
       <c r="D65" t="n">
-        <v>0.121825</v>
+        <v>0.112345</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.328621</v>
+        <v>0.324483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219017</v>
+        <v>0.218438</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0858295</v>
+        <v>0.0926801</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121167</v>
+        <v>0.121574</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0878763</v>
+        <v>0.0925951</v>
       </c>
       <c r="D67" t="n">
-        <v>0.07944089999999999</v>
+        <v>0.088575</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.12785</v>
+        <v>0.123887</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08339969999999999</v>
+        <v>0.0849381</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0883792</v>
+        <v>0.0903258</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.127576</v>
+        <v>0.126496</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0890242</v>
+        <v>0.0832899</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09320050000000001</v>
+        <v>0.0882283</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128947</v>
+        <v>0.128068</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0902762</v>
+        <v>0.0893148</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0898822</v>
+        <v>0.08709169999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.135234</v>
+        <v>0.130995</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08812929999999999</v>
+        <v>0.0936526</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0874772</v>
+        <v>0.0892669</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.145466</v>
+        <v>0.140535</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08893330000000001</v>
+        <v>0.097553</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0956915</v>
+        <v>0.0965867</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.144328</v>
+        <v>0.143337</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0928795</v>
+        <v>0.0975857</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09356589999999999</v>
+        <v>0.09331299999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161567</v>
+        <v>0.153281</v>
       </c>
       <c r="C74" t="n">
-        <v>0.109718</v>
+        <v>0.09650060000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0943792</v>
+        <v>0.0913809</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.175085</v>
+        <v>0.169877</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102582</v>
+        <v>0.102691</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0961907</v>
+        <v>0.0907761</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.177032</v>
+        <v>0.1784</v>
       </c>
       <c r="C76" t="n">
-        <v>0.116897</v>
+        <v>0.111587</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0975673</v>
+        <v>0.100316</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.202421</v>
+        <v>0.206831</v>
       </c>
       <c r="C77" t="n">
-        <v>0.139405</v>
+        <v>0.12251</v>
       </c>
       <c r="D77" t="n">
-        <v>0.104261</v>
+        <v>0.10417</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.227533</v>
+        <v>0.225728</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15187</v>
+        <v>0.140412</v>
       </c>
       <c r="D78" t="n">
-        <v>0.118267</v>
+        <v>0.119521</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.281361</v>
+        <v>0.26847</v>
       </c>
       <c r="C79" t="n">
-        <v>0.184906</v>
+        <v>0.170152</v>
       </c>
       <c r="D79" t="n">
-        <v>0.125218</v>
+        <v>0.125369</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.325445</v>
+        <v>0.338687</v>
       </c>
       <c r="C80" t="n">
-        <v>0.22143</v>
+        <v>0.216461</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09310499999999999</v>
+        <v>0.0891173</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145175</v>
+        <v>0.145258</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0965353</v>
+        <v>0.091368</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0960988</v>
+        <v>0.09627239999999999</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137591</v>
+        <v>0.137145</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0951275</v>
+        <v>0.0943851</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0968986</v>
+        <v>0.095139</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.149716</v>
+        <v>0.13965</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09684619999999999</v>
+        <v>0.0958434</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09107410000000001</v>
+        <v>0.0980356</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142611</v>
+        <v>0.152486</v>
       </c>
       <c r="C84" t="n">
-        <v>0.1072</v>
+        <v>0.0980615</v>
       </c>
       <c r="D84" t="n">
-        <v>0.103612</v>
+        <v>0.09790459999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.155953</v>
+        <v>0.153458</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105977</v>
+        <v>0.105361</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0993363</v>
+        <v>0.09975870000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.151276</v>
+        <v>0.15645</v>
       </c>
       <c r="C86" t="n">
-        <v>0.104665</v>
+        <v>0.104464</v>
       </c>
       <c r="D86" t="n">
-        <v>0.105448</v>
+        <v>0.0936456</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.158641</v>
+        <v>0.169127</v>
       </c>
       <c r="C87" t="n">
-        <v>0.10985</v>
+        <v>0.111977</v>
       </c>
       <c r="D87" t="n">
-        <v>0.103154</v>
+        <v>0.102072</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.172139</v>
+        <v>0.176688</v>
       </c>
       <c r="C88" t="n">
-        <v>0.115569</v>
+        <v>0.116346</v>
       </c>
       <c r="D88" t="n">
-        <v>0.104626</v>
+        <v>0.105764</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188226</v>
+        <v>0.186481</v>
       </c>
       <c r="C89" t="n">
-        <v>0.13386</v>
+        <v>0.128362</v>
       </c>
       <c r="D89" t="n">
-        <v>0.10719</v>
+        <v>0.114522</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.207745</v>
+        <v>0.196984</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134979</v>
+        <v>0.139648</v>
       </c>
       <c r="D90" t="n">
-        <v>0.106626</v>
+        <v>0.118046</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.217538</v>
+        <v>0.215291</v>
       </c>
       <c r="C91" t="n">
-        <v>0.151551</v>
+        <v>0.154534</v>
       </c>
       <c r="D91" t="n">
-        <v>0.111278</v>
+        <v>0.125275</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.255247</v>
+        <v>0.24472</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167607</v>
+        <v>0.167485</v>
       </c>
       <c r="D92" t="n">
-        <v>0.128615</v>
+        <v>0.126824</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.288965</v>
+        <v>0.293511</v>
       </c>
       <c r="C93" t="n">
-        <v>0.209296</v>
+        <v>0.203026</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149648</v>
+        <v>0.142533</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.365351</v>
+        <v>0.352314</v>
       </c>
       <c r="C94" t="n">
-        <v>0.256854</v>
+        <v>0.247697</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0978115</v>
+        <v>0.100052</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.150204</v>
+        <v>0.160318</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113285</v>
+        <v>0.112918</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101208</v>
+        <v>0.109107</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1591</v>
+        <v>0.152783</v>
       </c>
       <c r="C96" t="n">
-        <v>0.116322</v>
+        <v>0.115298</v>
       </c>
       <c r="D96" t="n">
-        <v>0.109438</v>
+        <v>0.110674</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.158019</v>
+        <v>0.155983</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119321</v>
+        <v>0.118998</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111935</v>
+        <v>0.112291</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170464</v>
+        <v>0.170314</v>
       </c>
       <c r="C98" t="n">
-        <v>0.119908</v>
+        <v>0.122028</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113323</v>
+        <v>0.113403</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.175712</v>
+        <v>0.173144</v>
       </c>
       <c r="C99" t="n">
-        <v>0.126516</v>
+        <v>0.12597</v>
       </c>
       <c r="D99" t="n">
-        <v>0.115109</v>
+        <v>0.115672</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181569</v>
+        <v>0.181221</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135045</v>
+        <v>0.130001</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115595</v>
+        <v>0.117302</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.188044</v>
+        <v>0.187895</v>
       </c>
       <c r="C101" t="n">
-        <v>0.140898</v>
+        <v>0.135726</v>
       </c>
       <c r="D101" t="n">
-        <v>0.124106</v>
+        <v>0.120379</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.200195</v>
+        <v>0.189639</v>
       </c>
       <c r="C102" t="n">
-        <v>0.14266</v>
+        <v>0.145506</v>
       </c>
       <c r="D102" t="n">
-        <v>0.113628</v>
+        <v>0.11621</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.200878</v>
+        <v>0.20682</v>
       </c>
       <c r="C103" t="n">
-        <v>0.160388</v>
+        <v>0.15096</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125357</v>
+        <v>0.12629</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.226105</v>
+        <v>0.216057</v>
       </c>
       <c r="C104" t="n">
-        <v>0.16269</v>
+        <v>0.17035</v>
       </c>
       <c r="D104" t="n">
-        <v>0.126874</v>
+        <v>0.123889</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.238592</v>
+        <v>0.234354</v>
       </c>
       <c r="C105" t="n">
-        <v>0.175716</v>
+        <v>0.178039</v>
       </c>
       <c r="D105" t="n">
-        <v>0.136598</v>
+        <v>0.133786</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.275172</v>
+        <v>0.272507</v>
       </c>
       <c r="C106" t="n">
-        <v>0.200708</v>
+        <v>0.199905</v>
       </c>
       <c r="D106" t="n">
-        <v>0.144696</v>
+        <v>0.15192</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.315827</v>
+        <v>0.307976</v>
       </c>
       <c r="C107" t="n">
-        <v>0.230405</v>
+        <v>0.236805</v>
       </c>
       <c r="D107" t="n">
-        <v>0.156667</v>
+        <v>0.155447</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37816</v>
+        <v>0.376224</v>
       </c>
       <c r="C108" t="n">
-        <v>0.281738</v>
+        <v>0.299396</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108281</v>
+        <v>0.115863</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.492097</v>
+        <v>0.474813</v>
       </c>
       <c r="C109" t="n">
-        <v>0.388676</v>
+        <v>0.386502</v>
       </c>
       <c r="D109" t="n">
-        <v>0.116436</v>
+        <v>0.112104</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.173071</v>
+        <v>0.162064</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135358</v>
+        <v>0.134819</v>
       </c>
       <c r="D110" t="n">
-        <v>0.110905</v>
+        <v>0.11834</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.176044</v>
+        <v>0.164988</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139252</v>
+        <v>0.139138</v>
       </c>
       <c r="D111" t="n">
-        <v>0.112725</v>
+        <v>0.125117</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.178385</v>
+        <v>0.168796</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143581</v>
+        <v>0.143247</v>
       </c>
       <c r="D112" t="n">
-        <v>0.121254</v>
+        <v>0.121857</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.184576</v>
+        <v>0.185252</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148097</v>
+        <v>0.148822</v>
       </c>
       <c r="D113" t="n">
-        <v>0.116125</v>
+        <v>0.117788</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.190566</v>
+        <v>0.191924</v>
       </c>
       <c r="C114" t="n">
-        <v>0.154424</v>
+        <v>0.155412</v>
       </c>
       <c r="D114" t="n">
-        <v>0.124985</v>
+        <v>0.120661</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.188</v>
+        <v>0.192522</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160224</v>
+        <v>0.161805</v>
       </c>
       <c r="D115" t="n">
-        <v>0.123762</v>
+        <v>0.132303</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.199656</v>
+        <v>0.208335</v>
       </c>
       <c r="C116" t="n">
-        <v>0.168463</v>
+        <v>0.169947</v>
       </c>
       <c r="D116" t="n">
-        <v>0.132459</v>
+        <v>0.139831</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.215698</v>
+        <v>0.216864</v>
       </c>
       <c r="C117" t="n">
-        <v>0.177827</v>
+        <v>0.179394</v>
       </c>
       <c r="D117" t="n">
-        <v>0.129995</v>
+        <v>0.142506</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240106</v>
+        <v>0.23467</v>
       </c>
       <c r="C118" t="n">
-        <v>0.190098</v>
+        <v>0.190825</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143074</v>
+        <v>0.148729</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254927</v>
+        <v>0.266747</v>
       </c>
       <c r="C119" t="n">
-        <v>0.204489</v>
+        <v>0.210302</v>
       </c>
       <c r="D119" t="n">
-        <v>0.151241</v>
+        <v>0.159282</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.286531</v>
+        <v>0.289247</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227328</v>
+        <v>0.227934</v>
       </c>
       <c r="D120" t="n">
-        <v>0.162254</v>
+        <v>0.167975</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.334157</v>
+        <v>0.330241</v>
       </c>
       <c r="C121" t="n">
-        <v>0.265086</v>
+        <v>0.258652</v>
       </c>
       <c r="D121" t="n">
-        <v>0.179142</v>
+        <v>0.188729</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.396369</v>
+        <v>0.407488</v>
       </c>
       <c r="C122" t="n">
-        <v>0.317728</v>
+        <v>0.307719</v>
       </c>
       <c r="D122" t="n">
-        <v>0.204395</v>
+        <v>0.207874</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.512042</v>
+        <v>0.496152</v>
       </c>
       <c r="C123" t="n">
-        <v>0.39077</v>
+        <v>0.389359</v>
       </c>
       <c r="D123" t="n">
-        <v>0.142488</v>
+        <v>0.13628</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.199132</v>
+        <v>0.1965</v>
       </c>
       <c r="C124" t="n">
-        <v>0.162651</v>
+        <v>0.16564</v>
       </c>
       <c r="D124" t="n">
-        <v>0.145003</v>
+        <v>0.149624</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192755</v>
+        <v>0.200774</v>
       </c>
       <c r="C125" t="n">
-        <v>0.166603</v>
+        <v>0.164789</v>
       </c>
       <c r="D125" t="n">
-        <v>0.149348</v>
+        <v>0.150788</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.203684</v>
+        <v>0.205976</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171503</v>
+        <v>0.171115</v>
       </c>
       <c r="D126" t="n">
-        <v>0.151529</v>
+        <v>0.146659</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.204115</v>
+        <v>0.21021</v>
       </c>
       <c r="C127" t="n">
-        <v>0.17524</v>
+        <v>0.173713</v>
       </c>
       <c r="D127" t="n">
-        <v>0.150825</v>
+        <v>0.151252</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21004</v>
+        <v>0.214188</v>
       </c>
       <c r="C128" t="n">
-        <v>0.17886</v>
+        <v>0.177313</v>
       </c>
       <c r="D128" t="n">
-        <v>0.155014</v>
+        <v>0.154889</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218206</v>
+        <v>0.215173</v>
       </c>
       <c r="C129" t="n">
-        <v>0.18483</v>
+        <v>0.18538</v>
       </c>
       <c r="D129" t="n">
-        <v>0.150382</v>
+        <v>0.155497</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.227992</v>
+        <v>0.23742</v>
       </c>
       <c r="C130" t="n">
-        <v>0.19221</v>
+        <v>0.193191</v>
       </c>
       <c r="D130" t="n">
-        <v>0.159191</v>
+        <v>0.15584</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.251952</v>
+        <v>0.240163</v>
       </c>
       <c r="C131" t="n">
-        <v>0.200338</v>
+        <v>0.199791</v>
       </c>
       <c r="D131" t="n">
-        <v>0.164789</v>
+        <v>0.154685</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265735</v>
+        <v>0.257646</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210709</v>
+        <v>0.213819</v>
       </c>
       <c r="D132" t="n">
-        <v>0.175872</v>
+        <v>0.169094</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.280815</v>
+        <v>0.273056</v>
       </c>
       <c r="C133" t="n">
-        <v>0.232593</v>
+        <v>0.225741</v>
       </c>
       <c r="D133" t="n">
-        <v>0.173172</v>
+        <v>0.176293</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.312235</v>
+        <v>0.306605</v>
       </c>
       <c r="C134" t="n">
-        <v>0.25008</v>
+        <v>0.246918</v>
       </c>
       <c r="D134" t="n">
-        <v>0.18462</v>
+        <v>0.182187</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.346995</v>
+        <v>0.349333</v>
       </c>
       <c r="C135" t="n">
-        <v>0.294221</v>
+        <v>0.275713</v>
       </c>
       <c r="D135" t="n">
-        <v>0.198471</v>
+        <v>0.194718</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.422418</v>
+        <v>0.416763</v>
       </c>
       <c r="C136" t="n">
-        <v>0.336454</v>
+        <v>0.321757</v>
       </c>
       <c r="D136" t="n">
-        <v>0.22022</v>
+        <v>0.220077</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5089360000000001</v>
+        <v>0.509196</v>
       </c>
       <c r="C137" t="n">
-        <v>0.398925</v>
+        <v>0.398685</v>
       </c>
       <c r="D137" t="n">
-        <v>0.266949</v>
+        <v>0.264593</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338625</v>
+        <v>0.341424</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271806</v>
+        <v>0.270317</v>
       </c>
       <c r="D138" t="n">
-        <v>0.269267</v>
+        <v>0.266544</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342626</v>
+        <v>0.335727</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275366</v>
+        <v>0.274911</v>
       </c>
       <c r="D139" t="n">
-        <v>0.260808</v>
+        <v>0.268046</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341432</v>
+        <v>0.339929</v>
       </c>
       <c r="C140" t="n">
-        <v>0.277754</v>
+        <v>0.278184</v>
       </c>
       <c r="D140" t="n">
-        <v>0.264944</v>
+        <v>0.26881</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.35327</v>
+        <v>0.345243</v>
       </c>
       <c r="C141" t="n">
-        <v>0.282915</v>
+        <v>0.28382</v>
       </c>
       <c r="D141" t="n">
-        <v>0.266237</v>
+        <v>0.267759</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.357131</v>
+        <v>0.359407</v>
       </c>
       <c r="C142" t="n">
-        <v>0.286349</v>
+        <v>0.287503</v>
       </c>
       <c r="D142" t="n">
-        <v>0.268596</v>
+        <v>0.265655</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.374029</v>
+        <v>0.359381</v>
       </c>
       <c r="C143" t="n">
-        <v>0.293898</v>
+        <v>0.290859</v>
       </c>
       <c r="D143" t="n">
-        <v>0.279749</v>
+        <v>0.269079</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103289</v>
+        <v>0.103308</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612338</v>
+        <v>0.0611939</v>
       </c>
       <c r="D2" t="n">
-        <v>0.06759709999999999</v>
+        <v>0.0674081</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110858</v>
+        <v>0.110809</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06272759999999999</v>
+        <v>0.0620626</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0681768</v>
+        <v>0.0755987</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122514</v>
+        <v>0.122224</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06522169999999999</v>
+        <v>0.06555329999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07354330000000001</v>
+        <v>0.0665676</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143413</v>
+        <v>0.142954</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0736516</v>
+        <v>0.0734952</v>
       </c>
       <c r="D5" t="n">
-        <v>0.07427640000000001</v>
+        <v>0.06700979999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.171349</v>
+        <v>0.170292</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08906</v>
+        <v>0.08949650000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0755159</v>
+        <v>0.0755536</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205541</v>
+        <v>0.20532</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111798</v>
+        <v>0.111583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.079123</v>
+        <v>0.0792337</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252697</v>
+        <v>0.252652</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152247</v>
+        <v>0.151623</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0855712</v>
+        <v>0.0943529</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.30596</v>
+        <v>0.305592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190953</v>
+        <v>0.19106</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0780575</v>
+        <v>0.132378</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951478</v>
+        <v>0.09509339999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0644448</v>
+        <v>0.0621607</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07808809999999999</v>
+        <v>0.067764</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0956625</v>
+        <v>0.09615360000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06351320000000001</v>
+        <v>0.0621684</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0800877</v>
+        <v>0.0754102</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0974001</v>
+        <v>0.09804549999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0634972</v>
+        <v>0.0624627</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0786869</v>
+        <v>0.0755407</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09957539999999999</v>
+        <v>0.100108</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06251230000000001</v>
+        <v>0.0628416</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0788422</v>
+        <v>0.0757659</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102264</v>
+        <v>0.102921</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0633423</v>
+        <v>0.0634444</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0716569</v>
+        <v>0.07600990000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106353</v>
+        <v>0.107065</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06375840000000001</v>
+        <v>0.0640912</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0805203</v>
+        <v>0.0761091</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112193</v>
+        <v>0.112719</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0675173</v>
+        <v>0.06757870000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0803137</v>
+        <v>0.07656159999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.12125</v>
+        <v>0.121872</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07089529999999999</v>
+        <v>0.0713336</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0804412</v>
+        <v>0.0694925</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133789</v>
+        <v>0.133813</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08548020000000001</v>
+        <v>0.08077769999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.080986</v>
+        <v>0.0774251</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15043</v>
+        <v>0.150283</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09805990000000001</v>
+        <v>0.0917999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0831847</v>
+        <v>0.0765709</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170817</v>
+        <v>0.171658</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104832</v>
+        <v>0.104514</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08608209999999999</v>
+        <v>0.07467360000000001</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198428</v>
+        <v>0.199162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.139406</v>
+        <v>0.121712</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0851986</v>
+        <v>0.0908992</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.257722</v>
+        <v>0.247439</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154515</v>
+        <v>0.155152</v>
       </c>
       <c r="D22" t="n">
-        <v>0.102505</v>
+        <v>0.0999226</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.302156</v>
+        <v>0.29051</v>
       </c>
       <c r="C23" t="n">
-        <v>0.215853</v>
+        <v>0.196592</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0732097</v>
+        <v>0.13504</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.111156</v>
+        <v>0.100573</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0741222</v>
+        <v>0.066679</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0800608</v>
+        <v>0.0773554</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.108402</v>
+        <v>0.107166</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06757440000000001</v>
+        <v>0.0666384</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07380970000000001</v>
+        <v>0.0695219</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.106006</v>
+        <v>0.103514</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07220509999999999</v>
+        <v>0.0725693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0822032</v>
+        <v>0.0726889</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.110364</v>
+        <v>0.114089</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0761656</v>
+        <v>0.0677302</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0799672</v>
+        <v>0.06985669999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.114037</v>
+        <v>0.118781</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07381359999999999</v>
+        <v>0.0740456</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0813493</v>
+        <v>0.0801979</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.12279</v>
+        <v>0.116129</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0710612</v>
+        <v>0.07618270000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07487969999999999</v>
+        <v>0.0784199</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.121907</v>
+        <v>0.123182</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08275730000000001</v>
+        <v>0.0798278</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0805322</v>
+        <v>0.070913</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.129882</v>
+        <v>0.12835</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0795019</v>
+        <v>0.0845722</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0815191</v>
+        <v>0.0758216</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140836</v>
+        <v>0.13816</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09144040000000001</v>
+        <v>0.0935272</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0810058</v>
+        <v>0.0751622</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.153817</v>
+        <v>0.159094</v>
       </c>
       <c r="C33" t="n">
-        <v>0.102355</v>
+        <v>0.0928007</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0793944</v>
+        <v>0.0828252</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.1697</v>
+        <v>0.177299</v>
       </c>
       <c r="C34" t="n">
-        <v>0.115144</v>
+        <v>0.106139</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0831412</v>
+        <v>0.0883834</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194811</v>
+        <v>0.210473</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123327</v>
+        <v>0.123916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09086669999999999</v>
+        <v>0.0971598</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.237202</v>
+        <v>0.232422</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147674</v>
+        <v>0.14852</v>
       </c>
       <c r="D36" t="n">
-        <v>0.11194</v>
+        <v>0.109702</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280019</v>
+        <v>0.280517</v>
       </c>
       <c r="C37" t="n">
-        <v>0.189447</v>
+        <v>0.201708</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0786113</v>
+        <v>0.132943</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.113375</v>
+        <v>0.108445</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07485219999999999</v>
+        <v>0.0695638</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0756616</v>
+        <v>0.0811347</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10753</v>
+        <v>0.10701</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0707081</v>
+        <v>0.0778938</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0738776</v>
+        <v>0.075091</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.116902</v>
+        <v>0.108006</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0711942</v>
+        <v>0.07878019999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0805987</v>
+        <v>0.0806289</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.112021</v>
+        <v>0.110919</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07237059999999999</v>
+        <v>0.07195169999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0759104</v>
+        <v>0.08178729999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.116176</v>
+        <v>0.114986</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0775952</v>
+        <v>0.07363169999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0738716</v>
+        <v>0.0757835</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.119509</v>
+        <v>0.118354</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0758448</v>
+        <v>0.07573439999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0808431</v>
+        <v>0.0822648</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125505</v>
+        <v>0.127184</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0785752</v>
+        <v>0.0866662</v>
       </c>
       <c r="D44" t="n">
-        <v>0.077338</v>
+        <v>0.08325780000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130906</v>
+        <v>0.134175</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08185770000000001</v>
+        <v>0.0816438</v>
       </c>
       <c r="D45" t="n">
-        <v>0.086118</v>
+        <v>0.0835322</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142447</v>
+        <v>0.141543</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0913253</v>
+        <v>0.0869385</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0851399</v>
+        <v>0.0786979</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151804</v>
+        <v>0.154002</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0932712</v>
+        <v>0.0930734</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0820299</v>
+        <v>0.0859721</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175177</v>
+        <v>0.1687</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102664</v>
+        <v>0.102586</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0838077</v>
+        <v>0.0862226</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.196897</v>
+        <v>0.195636</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116439</v>
+        <v>0.116603</v>
       </c>
       <c r="D49" t="n">
-        <v>0.097528</v>
+        <v>0.0884866</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.226479</v>
+        <v>0.227405</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138147</v>
+        <v>0.138329</v>
       </c>
       <c r="D50" t="n">
-        <v>0.103645</v>
+        <v>0.105753</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.269402</v>
+        <v>0.273352</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172765</v>
+        <v>0.172921</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08177039999999999</v>
+        <v>0.122421</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.329797</v>
+        <v>0.332316</v>
       </c>
       <c r="C52" t="n">
-        <v>0.226266</v>
+        <v>0.22767</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07662579999999999</v>
+        <v>0.146262</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.119063</v>
+        <v>0.111187</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0746243</v>
+        <v>0.0818461</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07746409999999999</v>
+        <v>0.085242</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.119901</v>
+        <v>0.113216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08050599999999999</v>
+        <v>0.083317</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08256810000000001</v>
+        <v>0.07621260000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115004</v>
+        <v>0.115938</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08113629999999999</v>
+        <v>0.08240749999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0840463</v>
+        <v>0.0761889</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.125011</v>
+        <v>0.125789</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0829059</v>
+        <v>0.0809922</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0783423</v>
+        <v>0.084855</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120112</v>
+        <v>0.1223</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0806336</v>
+        <v>0.0839143</v>
       </c>
       <c r="D57" t="n">
-        <v>0.079875</v>
+        <v>0.0857223</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12916</v>
+        <v>0.125989</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0877908</v>
+        <v>0.0885654</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08541849999999999</v>
+        <v>0.0894283</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.141393</v>
+        <v>0.133334</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0930868</v>
+        <v>0.0896851</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0798358</v>
+        <v>0.0867904</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.148564</v>
+        <v>0.142071</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0964106</v>
+        <v>0.0977151</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0871072</v>
+        <v>0.08808589999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151622</v>
+        <v>0.152727</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0948582</v>
+        <v>0.101438</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08319799999999999</v>
+        <v>0.0899813</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16704</v>
+        <v>0.180316</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105428</v>
+        <v>0.111926</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0854785</v>
+        <v>0.0919054</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189569</v>
+        <v>0.19082</v>
       </c>
       <c r="C63" t="n">
-        <v>0.116365</v>
+        <v>0.134095</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0891964</v>
+        <v>0.103567</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.216499</v>
+        <v>0.220016</v>
       </c>
       <c r="C64" t="n">
-        <v>0.148461</v>
+        <v>0.138595</v>
       </c>
       <c r="D64" t="n">
-        <v>0.106371</v>
+        <v>0.107665</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.27904</v>
+        <v>0.263141</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169583</v>
+        <v>0.175948</v>
       </c>
       <c r="D65" t="n">
-        <v>0.112345</v>
+        <v>0.125145</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.324483</v>
+        <v>0.336363</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218438</v>
+        <v>0.222653</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0926801</v>
+        <v>0.151802</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121574</v>
+        <v>0.131371</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0925951</v>
+        <v>0.0826248</v>
       </c>
       <c r="D67" t="n">
-        <v>0.088575</v>
+        <v>0.086557</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123887</v>
+        <v>0.133676</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0849381</v>
+        <v>0.0884564</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0903258</v>
+        <v>0.08641310000000001</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126496</v>
+        <v>0.125584</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0832899</v>
+        <v>0.08927259999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0882283</v>
+        <v>0.09089750000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128068</v>
+        <v>0.138807</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0893148</v>
+        <v>0.09633899999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08709169999999999</v>
+        <v>0.09447079999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.130995</v>
+        <v>0.142496</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0936526</v>
+        <v>0.0869021</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0892669</v>
+        <v>0.0889219</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.140535</v>
+        <v>0.146449</v>
       </c>
       <c r="C72" t="n">
-        <v>0.097553</v>
+        <v>0.09698519999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0965867</v>
+        <v>0.08644399999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143337</v>
+        <v>0.142348</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0975857</v>
+        <v>0.0997469</v>
       </c>
       <c r="D73" t="n">
-        <v>0.09331299999999999</v>
+        <v>0.0932153</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.153281</v>
+        <v>0.152476</v>
       </c>
       <c r="C74" t="n">
-        <v>0.09650060000000001</v>
+        <v>0.104122</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0913809</v>
+        <v>0.0898352</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.169877</v>
+        <v>0.166125</v>
       </c>
       <c r="C75" t="n">
-        <v>0.102691</v>
+        <v>0.109123</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0907761</v>
+        <v>0.10019</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.1784</v>
+        <v>0.176959</v>
       </c>
       <c r="C76" t="n">
-        <v>0.111587</v>
+        <v>0.110585</v>
       </c>
       <c r="D76" t="n">
-        <v>0.100316</v>
+        <v>0.0997176</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.206831</v>
+        <v>0.197152</v>
       </c>
       <c r="C77" t="n">
-        <v>0.12251</v>
+        <v>0.132984</v>
       </c>
       <c r="D77" t="n">
-        <v>0.10417</v>
+        <v>0.101653</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225728</v>
+        <v>0.228156</v>
       </c>
       <c r="C78" t="n">
-        <v>0.140412</v>
+        <v>0.155982</v>
       </c>
       <c r="D78" t="n">
-        <v>0.119521</v>
+        <v>0.111139</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26847</v>
+        <v>0.269664</v>
       </c>
       <c r="C79" t="n">
-        <v>0.170152</v>
+        <v>0.173063</v>
       </c>
       <c r="D79" t="n">
-        <v>0.125369</v>
+        <v>0.119792</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.338687</v>
+        <v>0.329864</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216461</v>
+        <v>0.241768</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0891173</v>
+        <v>0.162678</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145258</v>
+        <v>0.145101</v>
       </c>
       <c r="C81" t="n">
-        <v>0.091368</v>
+        <v>0.09891800000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09627239999999999</v>
+        <v>0.09535250000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137145</v>
+        <v>0.14732</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0943851</v>
+        <v>0.101209</v>
       </c>
       <c r="D82" t="n">
-        <v>0.095139</v>
+        <v>0.0891549</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.13965</v>
+        <v>0.149275</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0958434</v>
+        <v>0.0960207</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0980356</v>
+        <v>0.090919</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152486</v>
+        <v>0.152432</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0980615</v>
+        <v>0.0995176</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09790459999999999</v>
+        <v>0.0991857</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.153458</v>
+        <v>0.155917</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105361</v>
+        <v>0.106449</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09975870000000001</v>
+        <v>0.09967520000000001</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.15645</v>
+        <v>0.152426</v>
       </c>
       <c r="C86" t="n">
-        <v>0.104464</v>
+        <v>0.106337</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0936456</v>
+        <v>0.0954668</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.169127</v>
+        <v>0.168474</v>
       </c>
       <c r="C87" t="n">
-        <v>0.111977</v>
+        <v>0.123172</v>
       </c>
       <c r="D87" t="n">
-        <v>0.102072</v>
+        <v>0.103447</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.176688</v>
+        <v>0.177288</v>
       </c>
       <c r="C88" t="n">
-        <v>0.116346</v>
+        <v>0.123706</v>
       </c>
       <c r="D88" t="n">
-        <v>0.105764</v>
+        <v>0.105573</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186481</v>
+        <v>0.178091</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128362</v>
+        <v>0.125058</v>
       </c>
       <c r="D89" t="n">
-        <v>0.114522</v>
+        <v>0.107558</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196984</v>
+        <v>0.204823</v>
       </c>
       <c r="C90" t="n">
-        <v>0.139648</v>
+        <v>0.141159</v>
       </c>
       <c r="D90" t="n">
-        <v>0.118046</v>
+        <v>0.113582</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215291</v>
+        <v>0.215592</v>
       </c>
       <c r="C91" t="n">
-        <v>0.154534</v>
+        <v>0.149288</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125275</v>
+        <v>0.117207</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24472</v>
+        <v>0.252814</v>
       </c>
       <c r="C92" t="n">
-        <v>0.167485</v>
+        <v>0.169916</v>
       </c>
       <c r="D92" t="n">
-        <v>0.126824</v>
+        <v>0.120734</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.293511</v>
+        <v>0.299433</v>
       </c>
       <c r="C93" t="n">
-        <v>0.203026</v>
+        <v>0.213949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.142533</v>
+        <v>0.144095</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.352314</v>
+        <v>0.355266</v>
       </c>
       <c r="C94" t="n">
-        <v>0.247697</v>
+        <v>0.252308</v>
       </c>
       <c r="D94" t="n">
-        <v>0.100052</v>
+        <v>0.167552</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160318</v>
+        <v>0.159195</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112918</v>
+        <v>0.121948</v>
       </c>
       <c r="D95" t="n">
-        <v>0.109107</v>
+        <v>0.113817</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152783</v>
+        <v>0.163652</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115298</v>
+        <v>0.118741</v>
       </c>
       <c r="D96" t="n">
-        <v>0.110674</v>
+        <v>0.104631</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.155983</v>
+        <v>0.167501</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118998</v>
+        <v>0.127189</v>
       </c>
       <c r="D97" t="n">
-        <v>0.112291</v>
+        <v>0.119195</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170314</v>
+        <v>0.171967</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122028</v>
+        <v>0.132052</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113403</v>
+        <v>0.115468</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.173144</v>
+        <v>0.17697</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12597</v>
+        <v>0.130006</v>
       </c>
       <c r="D99" t="n">
-        <v>0.115672</v>
+        <v>0.113088</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181221</v>
+        <v>0.177853</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130001</v>
+        <v>0.134494</v>
       </c>
       <c r="D100" t="n">
-        <v>0.117302</v>
+        <v>0.119525</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187895</v>
+        <v>0.189915</v>
       </c>
       <c r="C101" t="n">
-        <v>0.135726</v>
+        <v>0.141873</v>
       </c>
       <c r="D101" t="n">
-        <v>0.120379</v>
+        <v>0.126941</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.189639</v>
+        <v>0.195489</v>
       </c>
       <c r="C102" t="n">
-        <v>0.145506</v>
+        <v>0.14889</v>
       </c>
       <c r="D102" t="n">
-        <v>0.11621</v>
+        <v>0.125048</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.20682</v>
+        <v>0.200826</v>
       </c>
       <c r="C103" t="n">
-        <v>0.15096</v>
+        <v>0.156518</v>
       </c>
       <c r="D103" t="n">
-        <v>0.12629</v>
+        <v>0.125188</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216057</v>
+        <v>0.220269</v>
       </c>
       <c r="C104" t="n">
-        <v>0.17035</v>
+        <v>0.168756</v>
       </c>
       <c r="D104" t="n">
-        <v>0.123889</v>
+        <v>0.132455</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.234354</v>
+        <v>0.236684</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178039</v>
+        <v>0.188609</v>
       </c>
       <c r="D105" t="n">
-        <v>0.133786</v>
+        <v>0.139117</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.272507</v>
+        <v>0.278274</v>
       </c>
       <c r="C106" t="n">
-        <v>0.199905</v>
+        <v>0.214827</v>
       </c>
       <c r="D106" t="n">
-        <v>0.15192</v>
+        <v>0.148574</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307976</v>
+        <v>0.323408</v>
       </c>
       <c r="C107" t="n">
-        <v>0.236805</v>
+        <v>0.244168</v>
       </c>
       <c r="D107" t="n">
-        <v>0.155447</v>
+        <v>0.170747</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.376224</v>
+        <v>0.392839</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299396</v>
+        <v>0.297823</v>
       </c>
       <c r="D108" t="n">
-        <v>0.115863</v>
+        <v>0.181038</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474813</v>
+        <v>0.484825</v>
       </c>
       <c r="C109" t="n">
-        <v>0.386502</v>
+        <v>0.385041</v>
       </c>
       <c r="D109" t="n">
-        <v>0.112104</v>
+        <v>0.232532</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162064</v>
+        <v>0.163895</v>
       </c>
       <c r="C110" t="n">
-        <v>0.134819</v>
+        <v>0.146669</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11834</v>
+        <v>0.115609</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.164988</v>
+        <v>0.17837</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139138</v>
+        <v>0.147539</v>
       </c>
       <c r="D111" t="n">
-        <v>0.125117</v>
+        <v>0.121086</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168796</v>
+        <v>0.17125</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143247</v>
+        <v>0.151857</v>
       </c>
       <c r="D112" t="n">
-        <v>0.121857</v>
+        <v>0.123729</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185252</v>
+        <v>0.187362</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148822</v>
+        <v>0.155658</v>
       </c>
       <c r="D113" t="n">
-        <v>0.117788</v>
+        <v>0.132516</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.191924</v>
+        <v>0.193795</v>
       </c>
       <c r="C114" t="n">
-        <v>0.155412</v>
+        <v>0.161587</v>
       </c>
       <c r="D114" t="n">
-        <v>0.120661</v>
+        <v>0.123957</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.192522</v>
+        <v>0.192199</v>
       </c>
       <c r="C115" t="n">
-        <v>0.161805</v>
+        <v>0.172373</v>
       </c>
       <c r="D115" t="n">
-        <v>0.132303</v>
+        <v>0.134037</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208335</v>
+        <v>0.203075</v>
       </c>
       <c r="C116" t="n">
-        <v>0.169947</v>
+        <v>0.17865</v>
       </c>
       <c r="D116" t="n">
-        <v>0.139831</v>
+        <v>0.131193</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.216864</v>
+        <v>0.217884</v>
       </c>
       <c r="C117" t="n">
-        <v>0.179394</v>
+        <v>0.188133</v>
       </c>
       <c r="D117" t="n">
-        <v>0.142506</v>
+        <v>0.143665</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.23467</v>
+        <v>0.248277</v>
       </c>
       <c r="C118" t="n">
-        <v>0.190825</v>
+        <v>0.20085</v>
       </c>
       <c r="D118" t="n">
-        <v>0.148729</v>
+        <v>0.143937</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.266747</v>
+        <v>0.27275</v>
       </c>
       <c r="C119" t="n">
-        <v>0.210302</v>
+        <v>0.218325</v>
       </c>
       <c r="D119" t="n">
-        <v>0.159282</v>
+        <v>0.160022</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.289247</v>
+        <v>0.304676</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227934</v>
+        <v>0.24047</v>
       </c>
       <c r="D120" t="n">
-        <v>0.167975</v>
+        <v>0.164337</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330241</v>
+        <v>0.348394</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258652</v>
+        <v>0.274098</v>
       </c>
       <c r="D121" t="n">
-        <v>0.188729</v>
+        <v>0.180748</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.407488</v>
+        <v>0.419728</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307719</v>
+        <v>0.33959</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207874</v>
+        <v>0.215001</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.496152</v>
+        <v>0.5211980000000001</v>
       </c>
       <c r="C123" t="n">
-        <v>0.389359</v>
+        <v>0.411987</v>
       </c>
       <c r="D123" t="n">
-        <v>0.13628</v>
+        <v>0.259034</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1965</v>
+        <v>0.193297</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16564</v>
+        <v>0.173002</v>
       </c>
       <c r="D124" t="n">
-        <v>0.149624</v>
+        <v>0.151129</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.200774</v>
+        <v>0.200124</v>
       </c>
       <c r="C125" t="n">
-        <v>0.164789</v>
+        <v>0.184172</v>
       </c>
       <c r="D125" t="n">
-        <v>0.150788</v>
+        <v>0.149292</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.205976</v>
+        <v>0.20167</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171115</v>
+        <v>0.182743</v>
       </c>
       <c r="D126" t="n">
-        <v>0.146659</v>
+        <v>0.158983</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.21021</v>
+        <v>0.217362</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173713</v>
+        <v>0.185791</v>
       </c>
       <c r="D127" t="n">
-        <v>0.151252</v>
+        <v>0.156634</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.214188</v>
+        <v>0.225927</v>
       </c>
       <c r="C128" t="n">
-        <v>0.177313</v>
+        <v>0.192617</v>
       </c>
       <c r="D128" t="n">
-        <v>0.154889</v>
+        <v>0.160985</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.215173</v>
+        <v>0.222025</v>
       </c>
       <c r="C129" t="n">
-        <v>0.18538</v>
+        <v>0.199996</v>
       </c>
       <c r="D129" t="n">
-        <v>0.155497</v>
+        <v>0.157201</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.23742</v>
+        <v>0.246184</v>
       </c>
       <c r="C130" t="n">
-        <v>0.193191</v>
+        <v>0.204965</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15584</v>
+        <v>0.163749</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240163</v>
+        <v>0.247657</v>
       </c>
       <c r="C131" t="n">
-        <v>0.199791</v>
+        <v>0.212538</v>
       </c>
       <c r="D131" t="n">
-        <v>0.154685</v>
+        <v>0.163325</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.257646</v>
+        <v>0.265169</v>
       </c>
       <c r="C132" t="n">
-        <v>0.213819</v>
+        <v>0.225386</v>
       </c>
       <c r="D132" t="n">
-        <v>0.169094</v>
+        <v>0.170446</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.273056</v>
+        <v>0.293091</v>
       </c>
       <c r="C133" t="n">
-        <v>0.225741</v>
+        <v>0.245178</v>
       </c>
       <c r="D133" t="n">
-        <v>0.176293</v>
+        <v>0.179241</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.306605</v>
+        <v>0.317558</v>
       </c>
       <c r="C134" t="n">
-        <v>0.246918</v>
+        <v>0.264449</v>
       </c>
       <c r="D134" t="n">
-        <v>0.182187</v>
+        <v>0.190894</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349333</v>
+        <v>0.369663</v>
       </c>
       <c r="C135" t="n">
-        <v>0.275713</v>
+        <v>0.294215</v>
       </c>
       <c r="D135" t="n">
-        <v>0.194718</v>
+        <v>0.20099</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.416763</v>
+        <v>0.431969</v>
       </c>
       <c r="C136" t="n">
-        <v>0.321757</v>
+        <v>0.344183</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220077</v>
+        <v>0.227204</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509196</v>
+        <v>0.531011</v>
       </c>
       <c r="C137" t="n">
-        <v>0.398685</v>
+        <v>0.428528</v>
       </c>
       <c r="D137" t="n">
-        <v>0.264593</v>
+        <v>0.274808</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.341424</v>
+        <v>0.367997</v>
       </c>
       <c r="C138" t="n">
-        <v>0.270317</v>
+        <v>0.295462</v>
       </c>
       <c r="D138" t="n">
-        <v>0.266544</v>
+        <v>0.280466</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.335727</v>
+        <v>0.368716</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274911</v>
+        <v>0.300866</v>
       </c>
       <c r="D139" t="n">
-        <v>0.268046</v>
+        <v>0.282991</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339929</v>
+        <v>0.375597</v>
       </c>
       <c r="C140" t="n">
-        <v>0.278184</v>
+        <v>0.306758</v>
       </c>
       <c r="D140" t="n">
-        <v>0.26881</v>
+        <v>0.289065</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345243</v>
+        <v>0.381733</v>
       </c>
       <c r="C141" t="n">
-        <v>0.28382</v>
+        <v>0.309584</v>
       </c>
       <c r="D141" t="n">
-        <v>0.267759</v>
+        <v>0.28908</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.359407</v>
+        <v>0.380539</v>
       </c>
       <c r="C142" t="n">
-        <v>0.287503</v>
+        <v>0.312947</v>
       </c>
       <c r="D142" t="n">
-        <v>0.265655</v>
+        <v>0.29049</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.359381</v>
+        <v>0.391349</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290859</v>
+        <v>0.320801</v>
       </c>
       <c r="D143" t="n">
-        <v>0.269079</v>
+        <v>0.290857</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103308</v>
+        <v>0.103255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611939</v>
+        <v>0.0612705</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674081</v>
+        <v>0.07470880000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110809</v>
+        <v>0.111049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0620626</v>
+        <v>0.0624312</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0755987</v>
+        <v>0.0756125</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122224</v>
+        <v>0.121933</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06555329999999999</v>
+        <v>0.0656417</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0665676</v>
+        <v>0.0732448</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142954</v>
+        <v>0.142703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0734952</v>
+        <v>0.07357080000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06700979999999999</v>
+        <v>0.0739799</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170292</v>
+        <v>0.170048</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08949650000000001</v>
+        <v>0.0892797</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0755536</v>
+        <v>0.0684408</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20532</v>
+        <v>0.205376</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111583</v>
+        <v>0.111952</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0792337</v>
+        <v>0.0725061</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252652</v>
+        <v>0.252433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.151623</v>
+        <v>0.152102</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0943529</v>
+        <v>0.0865441</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305592</v>
+        <v>0.305372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19106</v>
+        <v>0.190559</v>
       </c>
       <c r="D9" t="n">
-        <v>0.132378</v>
+        <v>0.132241</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09509339999999999</v>
+        <v>0.0951868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0621607</v>
+        <v>0.06300269999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.067764</v>
+        <v>0.0677735</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09615360000000001</v>
+        <v>0.0961215</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0621684</v>
+        <v>0.0635888</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0754102</v>
+        <v>0.0751489</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09804549999999999</v>
+        <v>0.0979004</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0624627</v>
+        <v>0.062831</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0755407</v>
+        <v>0.0754398</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100108</v>
+        <v>0.100101</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0628416</v>
+        <v>0.06298819999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0757659</v>
+        <v>0.0681996</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102921</v>
+        <v>0.102734</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0634444</v>
+        <v>0.0629835</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07600990000000001</v>
+        <v>0.06846380000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107065</v>
+        <v>0.107009</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0640912</v>
+        <v>0.0635855</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0761091</v>
+        <v>0.07616539999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112719</v>
+        <v>0.112695</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06757870000000001</v>
+        <v>0.067292</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07656159999999999</v>
+        <v>0.0689839</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121872</v>
+        <v>0.121799</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0713336</v>
+        <v>0.0711469</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0694925</v>
+        <v>0.0770319</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133813</v>
+        <v>0.133554</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08077769999999999</v>
+        <v>0.080194</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0774251</v>
+        <v>0.07739890000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150283</v>
+        <v>0.150194</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0917999</v>
+        <v>0.0917504</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0765709</v>
+        <v>0.07799689999999999</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171658</v>
+        <v>0.171602</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104514</v>
+        <v>0.104417</v>
       </c>
       <c r="D20" t="n">
-        <v>0.07467360000000001</v>
+        <v>0.0817375</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199162</v>
+        <v>0.199063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121712</v>
+        <v>0.121459</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0908992</v>
+        <v>0.09035410000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.247439</v>
+        <v>0.239194</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155152</v>
+        <v>0.1551</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0999226</v>
+        <v>0.110609</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.29051</v>
+        <v>0.287928</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196592</v>
+        <v>0.196229</v>
       </c>
       <c r="D23" t="n">
-        <v>0.13504</v>
+        <v>0.135015</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100573</v>
+        <v>0.100531</v>
       </c>
       <c r="C24" t="n">
-        <v>0.066679</v>
+        <v>0.0664052</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0773554</v>
+        <v>0.0773209</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.107166</v>
+        <v>0.102215</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0666384</v>
+        <v>0.0665655</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0695219</v>
+        <v>0.0774736</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103514</v>
+        <v>0.105182</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0725693</v>
+        <v>0.0669743</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0726889</v>
+        <v>0.0814329</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.114089</v>
+        <v>0.106198</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0677302</v>
+        <v>0.0675671</v>
       </c>
       <c r="D27" t="n">
-        <v>0.06985669999999999</v>
+        <v>0.0791596</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.118781</v>
+        <v>0.113324</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0740456</v>
+        <v>0.07539360000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0801979</v>
+        <v>0.0702073</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.116129</v>
+        <v>0.122394</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07618270000000001</v>
+        <v>0.0712624</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0784199</v>
+        <v>0.0704806</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.123182</v>
+        <v>0.119455</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0798278</v>
+        <v>0.0741877</v>
       </c>
       <c r="D30" t="n">
-        <v>0.070913</v>
+        <v>0.07482469999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.12835</v>
+        <v>0.129805</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0845722</v>
+        <v>0.07949059999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0758216</v>
+        <v>0.0757149</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13816</v>
+        <v>0.137211</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0935272</v>
+        <v>0.08534070000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0751622</v>
+        <v>0.0844728</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.159094</v>
+        <v>0.159204</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0928007</v>
+        <v>0.0926796</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0828252</v>
+        <v>0.0790752</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.177299</v>
+        <v>0.187687</v>
       </c>
       <c r="C34" t="n">
-        <v>0.106139</v>
+        <v>0.105479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0883834</v>
+        <v>0.08915729999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.210473</v>
+        <v>0.196367</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123916</v>
+        <v>0.133587</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0971598</v>
+        <v>0.09374109999999999</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232422</v>
+        <v>0.232554</v>
       </c>
       <c r="C36" t="n">
-        <v>0.14852</v>
+        <v>0.148035</v>
       </c>
       <c r="D36" t="n">
-        <v>0.109702</v>
+        <v>0.107604</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280517</v>
+        <v>0.285021</v>
       </c>
       <c r="C37" t="n">
-        <v>0.201708</v>
+        <v>0.190539</v>
       </c>
       <c r="D37" t="n">
-        <v>0.132943</v>
+        <v>0.133104</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.108445</v>
+        <v>0.106409</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0695638</v>
+        <v>0.0702546</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0811347</v>
+        <v>0.0814932</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10701</v>
+        <v>0.106816</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0778938</v>
+        <v>0.0699602</v>
       </c>
       <c r="D39" t="n">
-        <v>0.075091</v>
+        <v>0.0785889</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108006</v>
+        <v>0.108122</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07878019999999999</v>
+        <v>0.0736409</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0806289</v>
+        <v>0.0737186</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.110919</v>
+        <v>0.113416</v>
       </c>
       <c r="C41" t="n">
-        <v>0.07195169999999999</v>
+        <v>0.0720176</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08178729999999999</v>
+        <v>0.08329739999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114986</v>
+        <v>0.116391</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07363169999999999</v>
+        <v>0.08068019999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0757835</v>
+        <v>0.0795944</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.118354</v>
+        <v>0.130187</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07573439999999999</v>
+        <v>0.0757143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0822648</v>
+        <v>0.0754089</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.127184</v>
+        <v>0.126149</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0866662</v>
+        <v>0.0781041</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08325780000000001</v>
+        <v>0.08236930000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.134175</v>
+        <v>0.132685</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0816438</v>
+        <v>0.08171970000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0835322</v>
+        <v>0.0866714</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.141543</v>
+        <v>0.138624</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0869385</v>
+        <v>0.08655060000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0786979</v>
+        <v>0.08359800000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.154002</v>
+        <v>0.156012</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0930734</v>
+        <v>0.0931265</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0859721</v>
+        <v>0.0865848</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1687</v>
+        <v>0.167727</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102586</v>
+        <v>0.102694</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0862226</v>
+        <v>0.0827534</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195636</v>
+        <v>0.191496</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116603</v>
+        <v>0.116217</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0884866</v>
+        <v>0.0883603</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.227405</v>
+        <v>0.223428</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138329</v>
+        <v>0.138145</v>
       </c>
       <c r="D50" t="n">
-        <v>0.105753</v>
+        <v>0.105604</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.273352</v>
+        <v>0.271222</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172921</v>
+        <v>0.172913</v>
       </c>
       <c r="D51" t="n">
-        <v>0.122421</v>
+        <v>0.122103</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.332316</v>
+        <v>0.32929</v>
       </c>
       <c r="C52" t="n">
-        <v>0.22767</v>
+        <v>0.227922</v>
       </c>
       <c r="D52" t="n">
-        <v>0.146262</v>
+        <v>0.145926</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111187</v>
+        <v>0.112301</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0818461</v>
+        <v>0.0739597</v>
       </c>
       <c r="D53" t="n">
-        <v>0.085242</v>
+        <v>0.0866632</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.113216</v>
+        <v>0.120495</v>
       </c>
       <c r="C54" t="n">
-        <v>0.083317</v>
+        <v>0.08279400000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.07621260000000001</v>
+        <v>0.0854142</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115938</v>
+        <v>0.122897</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08240749999999999</v>
+        <v>0.0777504</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0761889</v>
+        <v>0.08350340000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.125789</v>
+        <v>0.119199</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0809922</v>
+        <v>0.0826095</v>
       </c>
       <c r="D56" t="n">
-        <v>0.084855</v>
+        <v>0.0765062</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1223</v>
+        <v>0.12415</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0839143</v>
+        <v>0.0797856</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0857223</v>
+        <v>0.08375879999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125989</v>
+        <v>0.137183</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0885654</v>
+        <v>0.087745</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0894283</v>
+        <v>0.0809542</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133334</v>
+        <v>0.140759</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0896851</v>
+        <v>0.0902678</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0867904</v>
+        <v>0.0802025</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142071</v>
+        <v>0.141962</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0977151</v>
+        <v>0.0887733</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08808589999999999</v>
+        <v>0.07879609999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.152727</v>
+        <v>0.15053</v>
       </c>
       <c r="C61" t="n">
-        <v>0.101438</v>
+        <v>0.097036</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0899813</v>
+        <v>0.09066399999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.180316</v>
+        <v>0.169748</v>
       </c>
       <c r="C62" t="n">
-        <v>0.111926</v>
+        <v>0.104539</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0919054</v>
+        <v>0.09346740000000001</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.19082</v>
+        <v>0.192088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.134095</v>
+        <v>0.118192</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103567</v>
+        <v>0.0991908</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220016</v>
+        <v>0.219844</v>
       </c>
       <c r="C64" t="n">
-        <v>0.138595</v>
+        <v>0.148837</v>
       </c>
       <c r="D64" t="n">
-        <v>0.107665</v>
+        <v>0.103163</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263141</v>
+        <v>0.271199</v>
       </c>
       <c r="C65" t="n">
-        <v>0.175948</v>
+        <v>0.173207</v>
       </c>
       <c r="D65" t="n">
-        <v>0.125145</v>
+        <v>0.114393</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.336363</v>
+        <v>0.319445</v>
       </c>
       <c r="C66" t="n">
-        <v>0.222653</v>
+        <v>0.233751</v>
       </c>
       <c r="D66" t="n">
-        <v>0.151802</v>
+        <v>0.143362</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.131371</v>
+        <v>0.129334</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0826248</v>
+        <v>0.08095049999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.086557</v>
+        <v>0.0893842</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.133676</v>
+        <v>0.132674</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0884564</v>
+        <v>0.0824434</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08641310000000001</v>
+        <v>0.0837131</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125584</v>
+        <v>0.12461</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08927259999999999</v>
+        <v>0.0882368</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09089750000000001</v>
+        <v>0.08236209999999999</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138807</v>
+        <v>0.130247</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09633899999999999</v>
+        <v>0.0899977</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09447079999999999</v>
+        <v>0.0877368</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142496</v>
+        <v>0.132637</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0869021</v>
+        <v>0.087146</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0889219</v>
+        <v>0.0890078</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146449</v>
+        <v>0.139122</v>
       </c>
       <c r="C72" t="n">
-        <v>0.09698519999999999</v>
+        <v>0.0924701</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08644399999999999</v>
+        <v>0.09544130000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142348</v>
+        <v>0.143051</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0997469</v>
+        <v>0.09736880000000001</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0932153</v>
+        <v>0.0949308</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152476</v>
+        <v>0.161694</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104122</v>
+        <v>0.0973103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0898352</v>
+        <v>0.09850109999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.166125</v>
+        <v>0.161631</v>
       </c>
       <c r="C75" t="n">
-        <v>0.109123</v>
+        <v>0.110107</v>
       </c>
       <c r="D75" t="n">
-        <v>0.10019</v>
+        <v>0.0962143</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176959</v>
+        <v>0.187738</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110585</v>
+        <v>0.111342</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0997176</v>
+        <v>0.0919082</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197152</v>
+        <v>0.196482</v>
       </c>
       <c r="C77" t="n">
-        <v>0.132984</v>
+        <v>0.125852</v>
       </c>
       <c r="D77" t="n">
-        <v>0.101653</v>
+        <v>0.106283</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.228156</v>
+        <v>0.228525</v>
       </c>
       <c r="C78" t="n">
-        <v>0.155982</v>
+        <v>0.153048</v>
       </c>
       <c r="D78" t="n">
-        <v>0.111139</v>
+        <v>0.112977</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.269664</v>
+        <v>0.267605</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173063</v>
+        <v>0.173921</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119792</v>
+        <v>0.122866</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.329864</v>
+        <v>0.330267</v>
       </c>
       <c r="C80" t="n">
-        <v>0.241768</v>
+        <v>0.242457</v>
       </c>
       <c r="D80" t="n">
-        <v>0.162678</v>
+        <v>0.154213</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145101</v>
+        <v>0.137453</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09891800000000001</v>
+        <v>0.09767389999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09535250000000001</v>
+        <v>0.088576</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.14732</v>
+        <v>0.137522</v>
       </c>
       <c r="C82" t="n">
-        <v>0.101209</v>
+        <v>0.0947572</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0891549</v>
+        <v>0.100881</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.149275</v>
+        <v>0.139702</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0960207</v>
+        <v>0.0962036</v>
       </c>
       <c r="D83" t="n">
-        <v>0.090919</v>
+        <v>0.09772599999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152432</v>
+        <v>0.148649</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0995176</v>
+        <v>0.0986966</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0991857</v>
+        <v>0.09348040000000001</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.155917</v>
+        <v>0.149217</v>
       </c>
       <c r="C85" t="n">
-        <v>0.106449</v>
+        <v>0.101719</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09967520000000001</v>
+        <v>0.0958965</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.152426</v>
+        <v>0.161772</v>
       </c>
       <c r="C86" t="n">
-        <v>0.106337</v>
+        <v>0.105913</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0954668</v>
+        <v>0.09420009999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168474</v>
+        <v>0.168726</v>
       </c>
       <c r="C87" t="n">
-        <v>0.123172</v>
+        <v>0.11237</v>
       </c>
       <c r="D87" t="n">
-        <v>0.103447</v>
+        <v>0.100568</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177288</v>
+        <v>0.175096</v>
       </c>
       <c r="C88" t="n">
-        <v>0.123706</v>
+        <v>0.117103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.105573</v>
+        <v>0.100273</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178091</v>
+        <v>0.17895</v>
       </c>
       <c r="C89" t="n">
-        <v>0.125058</v>
+        <v>0.125091</v>
       </c>
       <c r="D89" t="n">
-        <v>0.107558</v>
+        <v>0.109617</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.204823</v>
+        <v>0.194215</v>
       </c>
       <c r="C90" t="n">
-        <v>0.141159</v>
+        <v>0.136198</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113582</v>
+        <v>0.105869</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215592</v>
+        <v>0.223434</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149288</v>
+        <v>0.150891</v>
       </c>
       <c r="D91" t="n">
-        <v>0.117207</v>
+        <v>0.11319</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.252814</v>
+        <v>0.245671</v>
       </c>
       <c r="C92" t="n">
-        <v>0.169916</v>
+        <v>0.170966</v>
       </c>
       <c r="D92" t="n">
-        <v>0.120734</v>
+        <v>0.133653</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.299433</v>
+        <v>0.291584</v>
       </c>
       <c r="C93" t="n">
-        <v>0.213949</v>
+        <v>0.209703</v>
       </c>
       <c r="D93" t="n">
-        <v>0.144095</v>
+        <v>0.141835</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.355266</v>
+        <v>0.375697</v>
       </c>
       <c r="C94" t="n">
-        <v>0.252308</v>
+        <v>0.251662</v>
       </c>
       <c r="D94" t="n">
-        <v>0.167552</v>
+        <v>0.171595</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.159195</v>
+        <v>0.16124</v>
       </c>
       <c r="C95" t="n">
-        <v>0.121948</v>
+        <v>0.116047</v>
       </c>
       <c r="D95" t="n">
-        <v>0.113817</v>
+        <v>0.109597</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163652</v>
+        <v>0.162256</v>
       </c>
       <c r="C96" t="n">
-        <v>0.118741</v>
+        <v>0.118816</v>
       </c>
       <c r="D96" t="n">
-        <v>0.104631</v>
+        <v>0.111622</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.167501</v>
+        <v>0.157457</v>
       </c>
       <c r="C97" t="n">
-        <v>0.127189</v>
+        <v>0.122329</v>
       </c>
       <c r="D97" t="n">
-        <v>0.119195</v>
+        <v>0.1068</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.171967</v>
+        <v>0.172338</v>
       </c>
       <c r="C98" t="n">
-        <v>0.132052</v>
+        <v>0.12552</v>
       </c>
       <c r="D98" t="n">
-        <v>0.115468</v>
+        <v>0.11021</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.17697</v>
+        <v>0.169255</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130006</v>
+        <v>0.130456</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113088</v>
+        <v>0.117951</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.177853</v>
+        <v>0.181421</v>
       </c>
       <c r="C100" t="n">
-        <v>0.134494</v>
+        <v>0.135485</v>
       </c>
       <c r="D100" t="n">
-        <v>0.119525</v>
+        <v>0.113036</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.189915</v>
+        <v>0.182306</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141873</v>
+        <v>0.140403</v>
       </c>
       <c r="D101" t="n">
-        <v>0.126941</v>
+        <v>0.115237</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.195489</v>
+        <v>0.193068</v>
       </c>
       <c r="C102" t="n">
-        <v>0.14889</v>
+        <v>0.147084</v>
       </c>
       <c r="D102" t="n">
-        <v>0.125048</v>
+        <v>0.118451</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.200826</v>
+        <v>0.211173</v>
       </c>
       <c r="C103" t="n">
-        <v>0.156518</v>
+        <v>0.156389</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125188</v>
+        <v>0.125052</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220269</v>
+        <v>0.216883</v>
       </c>
       <c r="C104" t="n">
-        <v>0.168756</v>
+        <v>0.168388</v>
       </c>
       <c r="D104" t="n">
-        <v>0.132455</v>
+        <v>0.126423</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.236684</v>
+        <v>0.237402</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188609</v>
+        <v>0.190444</v>
       </c>
       <c r="D105" t="n">
-        <v>0.139117</v>
+        <v>0.136299</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.278274</v>
+        <v>0.272366</v>
       </c>
       <c r="C106" t="n">
-        <v>0.214827</v>
+        <v>0.208566</v>
       </c>
       <c r="D106" t="n">
-        <v>0.148574</v>
+        <v>0.153114</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.323408</v>
+        <v>0.321609</v>
       </c>
       <c r="C107" t="n">
-        <v>0.244168</v>
+        <v>0.243471</v>
       </c>
       <c r="D107" t="n">
-        <v>0.170747</v>
+        <v>0.164712</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.392839</v>
+        <v>0.38593</v>
       </c>
       <c r="C108" t="n">
-        <v>0.297823</v>
+        <v>0.297294</v>
       </c>
       <c r="D108" t="n">
-        <v>0.181038</v>
+        <v>0.189225</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.484825</v>
+        <v>0.484994</v>
       </c>
       <c r="C109" t="n">
-        <v>0.385041</v>
+        <v>0.404333</v>
       </c>
       <c r="D109" t="n">
-        <v>0.232532</v>
+        <v>0.256018</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.163895</v>
+        <v>0.174958</v>
       </c>
       <c r="C110" t="n">
-        <v>0.146669</v>
+        <v>0.140222</v>
       </c>
       <c r="D110" t="n">
-        <v>0.115609</v>
+        <v>0.114219</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17837</v>
+        <v>0.178111</v>
       </c>
       <c r="C111" t="n">
-        <v>0.147539</v>
+        <v>0.144388</v>
       </c>
       <c r="D111" t="n">
-        <v>0.121086</v>
+        <v>0.116145</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.17125</v>
+        <v>0.182139</v>
       </c>
       <c r="C112" t="n">
-        <v>0.151857</v>
+        <v>0.149093</v>
       </c>
       <c r="D112" t="n">
-        <v>0.123729</v>
+        <v>0.125006</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.187362</v>
+        <v>0.183848</v>
       </c>
       <c r="C113" t="n">
-        <v>0.155658</v>
+        <v>0.154275</v>
       </c>
       <c r="D113" t="n">
-        <v>0.132516</v>
+        <v>0.127701</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.193795</v>
+        <v>0.193202</v>
       </c>
       <c r="C114" t="n">
-        <v>0.161587</v>
+        <v>0.160496</v>
       </c>
       <c r="D114" t="n">
-        <v>0.123957</v>
+        <v>0.130593</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.192199</v>
+        <v>0.193349</v>
       </c>
       <c r="C115" t="n">
-        <v>0.172373</v>
+        <v>0.167644</v>
       </c>
       <c r="D115" t="n">
-        <v>0.134037</v>
+        <v>0.126971</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.203075</v>
+        <v>0.213236</v>
       </c>
       <c r="C116" t="n">
-        <v>0.17865</v>
+        <v>0.175786</v>
       </c>
       <c r="D116" t="n">
-        <v>0.131193</v>
+        <v>0.137204</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.217884</v>
+        <v>0.216427</v>
       </c>
       <c r="C117" t="n">
-        <v>0.188133</v>
+        <v>0.186226</v>
       </c>
       <c r="D117" t="n">
-        <v>0.143665</v>
+        <v>0.142445</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.248277</v>
+        <v>0.235693</v>
       </c>
       <c r="C118" t="n">
-        <v>0.20085</v>
+        <v>0.201215</v>
       </c>
       <c r="D118" t="n">
-        <v>0.143937</v>
+        <v>0.142767</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.27275</v>
+        <v>0.259541</v>
       </c>
       <c r="C119" t="n">
-        <v>0.218325</v>
+        <v>0.215342</v>
       </c>
       <c r="D119" t="n">
-        <v>0.160022</v>
+        <v>0.156929</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.304676</v>
+        <v>0.296215</v>
       </c>
       <c r="C120" t="n">
-        <v>0.24047</v>
+        <v>0.239104</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164337</v>
+        <v>0.169057</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.348394</v>
+        <v>0.34275</v>
       </c>
       <c r="C121" t="n">
-        <v>0.274098</v>
+        <v>0.272661</v>
       </c>
       <c r="D121" t="n">
-        <v>0.180748</v>
+        <v>0.187099</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.419728</v>
+        <v>0.412359</v>
       </c>
       <c r="C122" t="n">
-        <v>0.33959</v>
+        <v>0.32744</v>
       </c>
       <c r="D122" t="n">
-        <v>0.215001</v>
+        <v>0.212929</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.5211980000000001</v>
+        <v>0.52583</v>
       </c>
       <c r="C123" t="n">
-        <v>0.411987</v>
+        <v>0.427716</v>
       </c>
       <c r="D123" t="n">
-        <v>0.259034</v>
+        <v>0.253516</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.193297</v>
+        <v>0.195646</v>
       </c>
       <c r="C124" t="n">
-        <v>0.173002</v>
+        <v>0.168982</v>
       </c>
       <c r="D124" t="n">
-        <v>0.151129</v>
+        <v>0.145042</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.200124</v>
+        <v>0.198907</v>
       </c>
       <c r="C125" t="n">
-        <v>0.184172</v>
+        <v>0.176154</v>
       </c>
       <c r="D125" t="n">
-        <v>0.149292</v>
+        <v>0.147897</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.20167</v>
+        <v>0.21207</v>
       </c>
       <c r="C126" t="n">
-        <v>0.182743</v>
+        <v>0.177429</v>
       </c>
       <c r="D126" t="n">
-        <v>0.158983</v>
+        <v>0.147602</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.217362</v>
+        <v>0.221061</v>
       </c>
       <c r="C127" t="n">
-        <v>0.185791</v>
+        <v>0.183835</v>
       </c>
       <c r="D127" t="n">
-        <v>0.156634</v>
+        <v>0.151218</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.225927</v>
+        <v>0.216266</v>
       </c>
       <c r="C128" t="n">
-        <v>0.192617</v>
+        <v>0.19008</v>
       </c>
       <c r="D128" t="n">
-        <v>0.160985</v>
+        <v>0.152357</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.222025</v>
+        <v>0.234784</v>
       </c>
       <c r="C129" t="n">
-        <v>0.199996</v>
+        <v>0.196444</v>
       </c>
       <c r="D129" t="n">
-        <v>0.157201</v>
+        <v>0.164684</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.246184</v>
+        <v>0.233213</v>
       </c>
       <c r="C130" t="n">
-        <v>0.204965</v>
+        <v>0.202149</v>
       </c>
       <c r="D130" t="n">
-        <v>0.163749</v>
+        <v>0.161008</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.247657</v>
+        <v>0.248171</v>
       </c>
       <c r="C131" t="n">
-        <v>0.212538</v>
+        <v>0.212422</v>
       </c>
       <c r="D131" t="n">
-        <v>0.163325</v>
+        <v>0.175686</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265169</v>
+        <v>0.264407</v>
       </c>
       <c r="C132" t="n">
-        <v>0.225386</v>
+        <v>0.225875</v>
       </c>
       <c r="D132" t="n">
-        <v>0.170446</v>
+        <v>0.169599</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.293091</v>
+        <v>0.289933</v>
       </c>
       <c r="C133" t="n">
-        <v>0.245178</v>
+        <v>0.240645</v>
       </c>
       <c r="D133" t="n">
-        <v>0.179241</v>
+        <v>0.178228</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.317558</v>
+        <v>0.324203</v>
       </c>
       <c r="C134" t="n">
-        <v>0.264449</v>
+        <v>0.272813</v>
       </c>
       <c r="D134" t="n">
-        <v>0.190894</v>
+        <v>0.184744</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.369663</v>
+        <v>0.363274</v>
       </c>
       <c r="C135" t="n">
-        <v>0.294215</v>
+        <v>0.293539</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20099</v>
+        <v>0.205761</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.431969</v>
+        <v>0.426955</v>
       </c>
       <c r="C136" t="n">
-        <v>0.344183</v>
+        <v>0.352777</v>
       </c>
       <c r="D136" t="n">
-        <v>0.227204</v>
+        <v>0.224558</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.531011</v>
+        <v>0.531789</v>
       </c>
       <c r="C137" t="n">
-        <v>0.428528</v>
+        <v>0.42684</v>
       </c>
       <c r="D137" t="n">
-        <v>0.274808</v>
+        <v>0.273377</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.367997</v>
+        <v>0.366255</v>
       </c>
       <c r="C138" t="n">
-        <v>0.295462</v>
+        <v>0.295284</v>
       </c>
       <c r="D138" t="n">
-        <v>0.280466</v>
+        <v>0.280398</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.368716</v>
+        <v>0.371603</v>
       </c>
       <c r="C139" t="n">
-        <v>0.300866</v>
+        <v>0.29953</v>
       </c>
       <c r="D139" t="n">
-        <v>0.282991</v>
+        <v>0.284285</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.375597</v>
+        <v>0.373423</v>
       </c>
       <c r="C140" t="n">
-        <v>0.306758</v>
+        <v>0.301866</v>
       </c>
       <c r="D140" t="n">
-        <v>0.289065</v>
+        <v>0.290937</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.381733</v>
+        <v>0.377841</v>
       </c>
       <c r="C141" t="n">
-        <v>0.309584</v>
+        <v>0.307819</v>
       </c>
       <c r="D141" t="n">
-        <v>0.28908</v>
+        <v>0.294769</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.380539</v>
+        <v>0.37893</v>
       </c>
       <c r="C142" t="n">
-        <v>0.312947</v>
+        <v>0.311678</v>
       </c>
       <c r="D142" t="n">
-        <v>0.29049</v>
+        <v>0.29031</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.391349</v>
+        <v>0.3876</v>
       </c>
       <c r="C143" t="n">
-        <v>0.320801</v>
+        <v>0.318162</v>
       </c>
       <c r="D143" t="n">
-        <v>0.290857</v>
+        <v>0.300428</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103255</v>
+        <v>0.103456</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612705</v>
+        <v>0.0631028</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07470880000000001</v>
+        <v>0.07491390000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111049</v>
+        <v>0.110943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0624312</v>
+        <v>0.0625188</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0756125</v>
+        <v>0.0779575</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121933</v>
+        <v>0.122093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0656417</v>
+        <v>0.0640927</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0732448</v>
+        <v>0.07373449999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142703</v>
+        <v>0.142761</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07357080000000001</v>
+        <v>0.0784122</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0739799</v>
+        <v>0.0749981</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170048</v>
+        <v>0.170253</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0892797</v>
+        <v>0.0962978</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0684408</v>
+        <v>0.0786135</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205376</v>
+        <v>0.207481</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111952</v>
+        <v>0.120173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0725061</v>
+        <v>0.0808601</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252433</v>
+        <v>0.264202</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152102</v>
+        <v>0.153402</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0865441</v>
+        <v>0.0981506</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305372</v>
+        <v>0.305404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190559</v>
+        <v>0.190444</v>
       </c>
       <c r="D9" t="n">
-        <v>0.132241</v>
+        <v>0.138004</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951868</v>
+        <v>0.09516239999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06300269999999999</v>
+        <v>0.06319379999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0677735</v>
+        <v>0.0753311</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0961215</v>
+        <v>0.09839779999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0635888</v>
+        <v>0.0625259</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0751489</v>
+        <v>0.0753446</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0979004</v>
+        <v>0.0980466</v>
       </c>
       <c r="C12" t="n">
-        <v>0.062831</v>
+        <v>0.0624282</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0754398</v>
+        <v>0.0753315</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100101</v>
+        <v>0.10895</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06298819999999999</v>
+        <v>0.0644788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0681996</v>
+        <v>0.0756865</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102734</v>
+        <v>0.107155</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0629835</v>
+        <v>0.06745329999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.06846380000000001</v>
+        <v>0.0684458</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107009</v>
+        <v>0.11295</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0635855</v>
+        <v>0.0680897</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07616539999999999</v>
+        <v>0.0784528</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112695</v>
+        <v>0.114301</v>
       </c>
       <c r="C16" t="n">
-        <v>0.067292</v>
+        <v>0.0684625</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0689839</v>
+        <v>0.07903540000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121799</v>
+        <v>0.131581</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0711469</v>
+        <v>0.079873</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0770319</v>
+        <v>0.0803822</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133554</v>
+        <v>0.138842</v>
       </c>
       <c r="C18" t="n">
-        <v>0.080194</v>
+        <v>0.0850427</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07739890000000001</v>
+        <v>0.08126750000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150194</v>
+        <v>0.150238</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0917504</v>
+        <v>0.10486</v>
       </c>
       <c r="D19" t="n">
-        <v>0.07799689999999999</v>
+        <v>0.0845617</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171602</v>
+        <v>0.173805</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104417</v>
+        <v>0.105519</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0817375</v>
+        <v>0.0887381</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199063</v>
+        <v>0.208476</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121459</v>
+        <v>0.12261</v>
       </c>
       <c r="D21" t="n">
-        <v>0.09035410000000001</v>
+        <v>0.101493</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239194</v>
+        <v>0.246362</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1551</v>
+        <v>0.1698</v>
       </c>
       <c r="D22" t="n">
-        <v>0.110609</v>
+        <v>0.11848</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287928</v>
+        <v>0.291657</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196229</v>
+        <v>0.196918</v>
       </c>
       <c r="D23" t="n">
-        <v>0.135015</v>
+        <v>0.128825</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100531</v>
+        <v>0.105215</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0664052</v>
+        <v>0.07849200000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0773209</v>
+        <v>0.070616</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102215</v>
+        <v>0.10218</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0665655</v>
+        <v>0.06719550000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0774736</v>
+        <v>0.0791987</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.105182</v>
+        <v>0.111266</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0669743</v>
+        <v>0.0782383</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0814329</v>
+        <v>0.0786767</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106198</v>
+        <v>0.110449</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0675671</v>
+        <v>0.07797469999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0791596</v>
+        <v>0.0792016</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.113324</v>
+        <v>0.117085</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07539360000000001</v>
+        <v>0.06930840000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0702073</v>
+        <v>0.07972750000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.122394</v>
+        <v>0.113723</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0712624</v>
+        <v>0.07153370000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0704806</v>
+        <v>0.0801674</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119455</v>
+        <v>0.122158</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0741877</v>
+        <v>0.0799632</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07482469999999999</v>
+        <v>0.0823271</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.129805</v>
+        <v>0.128336</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07949059999999999</v>
+        <v>0.0790751</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0757149</v>
+        <v>0.08134520000000001</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137211</v>
+        <v>0.139173</v>
       </c>
       <c r="C32" t="n">
-        <v>0.08534070000000001</v>
+        <v>0.0855023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0844728</v>
+        <v>0.0833173</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.159204</v>
+        <v>0.150162</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0926796</v>
+        <v>0.0933413</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0790752</v>
+        <v>0.0902602</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.187687</v>
+        <v>0.169304</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105479</v>
+        <v>0.105906</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08915729999999999</v>
+        <v>0.08589280000000001</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196367</v>
+        <v>0.203373</v>
       </c>
       <c r="C35" t="n">
-        <v>0.133587</v>
+        <v>0.123534</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09374109999999999</v>
+        <v>0.100246</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232554</v>
+        <v>0.24594</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148035</v>
+        <v>0.147645</v>
       </c>
       <c r="D36" t="n">
-        <v>0.107604</v>
+        <v>0.108113</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285021</v>
+        <v>0.285513</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190539</v>
+        <v>0.193706</v>
       </c>
       <c r="D37" t="n">
-        <v>0.133104</v>
+        <v>0.134922</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.106409</v>
+        <v>0.107294</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0702546</v>
+        <v>0.06945129999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0814932</v>
+        <v>0.0799412</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106816</v>
+        <v>0.109422</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0699602</v>
+        <v>0.0779584</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0785889</v>
+        <v>0.0736285</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108122</v>
+        <v>0.108212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0736409</v>
+        <v>0.0710253</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0737186</v>
+        <v>0.0749229</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.113416</v>
+        <v>0.112692</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0720176</v>
+        <v>0.0802358</v>
       </c>
       <c r="D41" t="n">
-        <v>0.08329739999999999</v>
+        <v>0.0832442</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.116391</v>
+        <v>0.120499</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08068019999999999</v>
+        <v>0.08158700000000001</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0795944</v>
+        <v>0.07642930000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.130187</v>
+        <v>0.121258</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0757143</v>
+        <v>0.0770409</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0754089</v>
+        <v>0.0739542</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.126149</v>
+        <v>0.125895</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0781041</v>
+        <v>0.0789137</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08236930000000001</v>
+        <v>0.0818287</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132685</v>
+        <v>0.133692</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08171970000000001</v>
+        <v>0.08802400000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0866714</v>
+        <v>0.0797499</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138624</v>
+        <v>0.14162</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08655060000000001</v>
+        <v>0.09385110000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08359800000000001</v>
+        <v>0.0856667</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.156012</v>
+        <v>0.150531</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0931265</v>
+        <v>0.09320340000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0865848</v>
+        <v>0.0899075</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167727</v>
+        <v>0.167799</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102694</v>
+        <v>0.102929</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0827534</v>
+        <v>0.0888666</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191496</v>
+        <v>0.191473</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116217</v>
+        <v>0.132084</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0883603</v>
+        <v>0.0920697</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223428</v>
+        <v>0.223794</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138145</v>
+        <v>0.138337</v>
       </c>
       <c r="D50" t="n">
-        <v>0.105604</v>
+        <v>0.0992963</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.271222</v>
+        <v>0.273224</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172913</v>
+        <v>0.171658</v>
       </c>
       <c r="D51" t="n">
-        <v>0.122103</v>
+        <v>0.114763</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.32929</v>
+        <v>0.325339</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227922</v>
+        <v>0.227305</v>
       </c>
       <c r="D52" t="n">
-        <v>0.145926</v>
+        <v>0.15781</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.112301</v>
+        <v>0.111318</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0739597</v>
+        <v>0.0825758</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0866632</v>
+        <v>0.0855535</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.120495</v>
+        <v>0.113452</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08279400000000001</v>
+        <v>0.0750388</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0854142</v>
+        <v>0.0854997</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.122897</v>
+        <v>0.115165</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0777504</v>
+        <v>0.08361689999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.08350340000000001</v>
+        <v>0.0746251</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119199</v>
+        <v>0.117044</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0826095</v>
+        <v>0.0775597</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0765062</v>
+        <v>0.08191569999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12415</v>
+        <v>0.124801</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0797856</v>
+        <v>0.0850322</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08375879999999999</v>
+        <v>0.0789004</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.137183</v>
+        <v>0.130008</v>
       </c>
       <c r="C58" t="n">
-        <v>0.087745</v>
+        <v>0.0833653</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0809542</v>
+        <v>0.0807995</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.140759</v>
+        <v>0.132303</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0902678</v>
+        <v>0.09206399999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0802025</v>
+        <v>0.08780780000000001</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141962</v>
+        <v>0.142044</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0887733</v>
+        <v>0.0975916</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07879609999999999</v>
+        <v>0.09161660000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.15053</v>
+        <v>0.153491</v>
       </c>
       <c r="C61" t="n">
-        <v>0.097036</v>
+        <v>0.10098</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09066399999999999</v>
+        <v>0.0957857</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169748</v>
+        <v>0.168293</v>
       </c>
       <c r="C62" t="n">
-        <v>0.104539</v>
+        <v>0.113707</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09346740000000001</v>
+        <v>0.098274</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192088</v>
+        <v>0.191838</v>
       </c>
       <c r="C63" t="n">
-        <v>0.118192</v>
+        <v>0.117717</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0991908</v>
+        <v>0.09239020000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.219844</v>
+        <v>0.220536</v>
       </c>
       <c r="C64" t="n">
-        <v>0.148837</v>
+        <v>0.137236</v>
       </c>
       <c r="D64" t="n">
-        <v>0.103163</v>
+        <v>0.107309</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271199</v>
+        <v>0.271514</v>
       </c>
       <c r="C65" t="n">
-        <v>0.173207</v>
+        <v>0.185791</v>
       </c>
       <c r="D65" t="n">
-        <v>0.114393</v>
+        <v>0.124062</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.319445</v>
+        <v>0.335043</v>
       </c>
       <c r="C66" t="n">
-        <v>0.233751</v>
+        <v>0.237151</v>
       </c>
       <c r="D66" t="n">
-        <v>0.143362</v>
+        <v>0.152441</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.129334</v>
+        <v>0.121778</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08095049999999999</v>
+        <v>0.0864067</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0893842</v>
+        <v>0.0923539</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.132674</v>
+        <v>0.125875</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0824434</v>
+        <v>0.083442</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0837131</v>
+        <v>0.0816953</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.12461</v>
+        <v>0.124464</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0882368</v>
+        <v>0.0840091</v>
       </c>
       <c r="D69" t="n">
-        <v>0.08236209999999999</v>
+        <v>0.0933263</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.130247</v>
+        <v>0.127402</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0899977</v>
+        <v>0.0900189</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0877368</v>
+        <v>0.08684119999999999</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132637</v>
+        <v>0.131944</v>
       </c>
       <c r="C71" t="n">
-        <v>0.087146</v>
+        <v>0.0921221</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0890078</v>
+        <v>0.09292069999999999</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.139122</v>
+        <v>0.138758</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0924701</v>
+        <v>0.0901544</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09544130000000001</v>
+        <v>0.09243079999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143051</v>
+        <v>0.143972</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09736880000000001</v>
+        <v>0.0943643</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0949308</v>
+        <v>0.0935101</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161694</v>
+        <v>0.150285</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0973103</v>
+        <v>0.0958606</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09850109999999999</v>
+        <v>0.0950718</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161631</v>
+        <v>0.165192</v>
       </c>
       <c r="C75" t="n">
-        <v>0.110107</v>
+        <v>0.104168</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0962143</v>
+        <v>0.0978941</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187738</v>
+        <v>0.176388</v>
       </c>
       <c r="C76" t="n">
-        <v>0.111342</v>
+        <v>0.110157</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0919082</v>
+        <v>0.100956</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196482</v>
+        <v>0.207095</v>
       </c>
       <c r="C77" t="n">
-        <v>0.125852</v>
+        <v>0.122868</v>
       </c>
       <c r="D77" t="n">
-        <v>0.106283</v>
+        <v>0.110897</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.228525</v>
+        <v>0.225039</v>
       </c>
       <c r="C78" t="n">
-        <v>0.153048</v>
+        <v>0.147504</v>
       </c>
       <c r="D78" t="n">
-        <v>0.112977</v>
+        <v>0.113333</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.267605</v>
+        <v>0.268028</v>
       </c>
       <c r="C79" t="n">
-        <v>0.173921</v>
+        <v>0.169881</v>
       </c>
       <c r="D79" t="n">
-        <v>0.122866</v>
+        <v>0.128084</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.330267</v>
+        <v>0.323694</v>
       </c>
       <c r="C80" t="n">
-        <v>0.242457</v>
+        <v>0.237451</v>
       </c>
       <c r="D80" t="n">
-        <v>0.154213</v>
+        <v>0.163368</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.137453</v>
+        <v>0.135452</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09767389999999999</v>
+        <v>0.0912858</v>
       </c>
       <c r="D81" t="n">
-        <v>0.088576</v>
+        <v>0.09553150000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137522</v>
+        <v>0.1377</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0947572</v>
+        <v>0.0928549</v>
       </c>
       <c r="D82" t="n">
-        <v>0.100881</v>
+        <v>0.0957437</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139702</v>
+        <v>0.14808</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0962036</v>
+        <v>0.09456390000000001</v>
       </c>
       <c r="D83" t="n">
-        <v>0.09772599999999999</v>
+        <v>0.0968268</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148649</v>
+        <v>0.142057</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0986966</v>
+        <v>0.09659429999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09348040000000001</v>
+        <v>0.0944596</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.149217</v>
+        <v>0.145728</v>
       </c>
       <c r="C85" t="n">
-        <v>0.101719</v>
+        <v>0.0991918</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0958965</v>
+        <v>0.09959809999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161772</v>
+        <v>0.151911</v>
       </c>
       <c r="C86" t="n">
-        <v>0.105913</v>
+        <v>0.105624</v>
       </c>
       <c r="D86" t="n">
-        <v>0.09420009999999999</v>
+        <v>0.0940481</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168726</v>
+        <v>0.159315</v>
       </c>
       <c r="C87" t="n">
-        <v>0.11237</v>
+        <v>0.107983</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100568</v>
+        <v>0.0955104</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175096</v>
+        <v>0.174703</v>
       </c>
       <c r="C88" t="n">
-        <v>0.117103</v>
+        <v>0.120617</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100273</v>
+        <v>0.100663</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.17895</v>
+        <v>0.188094</v>
       </c>
       <c r="C89" t="n">
-        <v>0.125091</v>
+        <v>0.128486</v>
       </c>
       <c r="D89" t="n">
-        <v>0.109617</v>
+        <v>0.10901</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194215</v>
+        <v>0.201689</v>
       </c>
       <c r="C90" t="n">
-        <v>0.136198</v>
+        <v>0.134147</v>
       </c>
       <c r="D90" t="n">
-        <v>0.105869</v>
+        <v>0.114521</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.223434</v>
+        <v>0.214076</v>
       </c>
       <c r="C91" t="n">
-        <v>0.150891</v>
+        <v>0.149129</v>
       </c>
       <c r="D91" t="n">
-        <v>0.11319</v>
+        <v>0.121423</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245671</v>
+        <v>0.248409</v>
       </c>
       <c r="C92" t="n">
-        <v>0.170966</v>
+        <v>0.166251</v>
       </c>
       <c r="D92" t="n">
-        <v>0.133653</v>
+        <v>0.130961</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.291584</v>
+        <v>0.286637</v>
       </c>
       <c r="C93" t="n">
-        <v>0.209703</v>
+        <v>0.196675</v>
       </c>
       <c r="D93" t="n">
-        <v>0.141835</v>
+        <v>0.143273</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.375697</v>
+        <v>0.352078</v>
       </c>
       <c r="C94" t="n">
-        <v>0.251662</v>
+        <v>0.259258</v>
       </c>
       <c r="D94" t="n">
-        <v>0.171595</v>
+        <v>0.163181</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.16124</v>
+        <v>0.159341</v>
       </c>
       <c r="C95" t="n">
-        <v>0.116047</v>
+        <v>0.116604</v>
       </c>
       <c r="D95" t="n">
-        <v>0.109597</v>
+        <v>0.101417</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.162256</v>
+        <v>0.152476</v>
       </c>
       <c r="C96" t="n">
-        <v>0.118816</v>
+        <v>0.115941</v>
       </c>
       <c r="D96" t="n">
-        <v>0.111622</v>
+        <v>0.102142</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.157457</v>
+        <v>0.160607</v>
       </c>
       <c r="C97" t="n">
-        <v>0.122329</v>
+        <v>0.118698</v>
       </c>
       <c r="D97" t="n">
-        <v>0.1068</v>
+        <v>0.104152</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.172338</v>
+        <v>0.159728</v>
       </c>
       <c r="C98" t="n">
-        <v>0.12552</v>
+        <v>0.122036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.11021</v>
+        <v>0.11325</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.169255</v>
+        <v>0.164038</v>
       </c>
       <c r="C99" t="n">
-        <v>0.130456</v>
+        <v>0.1263</v>
       </c>
       <c r="D99" t="n">
-        <v>0.117951</v>
+        <v>0.107832</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181421</v>
+        <v>0.180851</v>
       </c>
       <c r="C100" t="n">
-        <v>0.135485</v>
+        <v>0.132044</v>
       </c>
       <c r="D100" t="n">
-        <v>0.113036</v>
+        <v>0.110452</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.182306</v>
+        <v>0.187519</v>
       </c>
       <c r="C101" t="n">
-        <v>0.140403</v>
+        <v>0.142714</v>
       </c>
       <c r="D101" t="n">
-        <v>0.115237</v>
+        <v>0.119265</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.193068</v>
+        <v>0.196791</v>
       </c>
       <c r="C102" t="n">
-        <v>0.147084</v>
+        <v>0.14719</v>
       </c>
       <c r="D102" t="n">
-        <v>0.118451</v>
+        <v>0.123298</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211173</v>
+        <v>0.199217</v>
       </c>
       <c r="C103" t="n">
-        <v>0.156389</v>
+        <v>0.157673</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125052</v>
+        <v>0.121588</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.216883</v>
+        <v>0.220299</v>
       </c>
       <c r="C104" t="n">
-        <v>0.168388</v>
+        <v>0.170498</v>
       </c>
       <c r="D104" t="n">
-        <v>0.126423</v>
+        <v>0.131552</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.237402</v>
+        <v>0.251474</v>
       </c>
       <c r="C105" t="n">
-        <v>0.190444</v>
+        <v>0.187721</v>
       </c>
       <c r="D105" t="n">
-        <v>0.136299</v>
+        <v>0.137058</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.272366</v>
+        <v>0.280583</v>
       </c>
       <c r="C106" t="n">
-        <v>0.208566</v>
+        <v>0.209286</v>
       </c>
       <c r="D106" t="n">
-        <v>0.153114</v>
+        <v>0.15478</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.321609</v>
+        <v>0.327251</v>
       </c>
       <c r="C107" t="n">
-        <v>0.243471</v>
+        <v>0.241467</v>
       </c>
       <c r="D107" t="n">
-        <v>0.164712</v>
+        <v>0.162918</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.38593</v>
+        <v>0.383859</v>
       </c>
       <c r="C108" t="n">
-        <v>0.297294</v>
+        <v>0.305508</v>
       </c>
       <c r="D108" t="n">
-        <v>0.189225</v>
+        <v>0.195396</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.484994</v>
+        <v>0.480385</v>
       </c>
       <c r="C109" t="n">
-        <v>0.404333</v>
+        <v>0.37361</v>
       </c>
       <c r="D109" t="n">
-        <v>0.256018</v>
+        <v>0.247503</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.174958</v>
+        <v>0.171566</v>
       </c>
       <c r="C110" t="n">
-        <v>0.140222</v>
+        <v>0.14403</v>
       </c>
       <c r="D110" t="n">
-        <v>0.114219</v>
+        <v>0.121413</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.178111</v>
+        <v>0.175757</v>
       </c>
       <c r="C111" t="n">
-        <v>0.144388</v>
+        <v>0.14713</v>
       </c>
       <c r="D111" t="n">
-        <v>0.116145</v>
+        <v>0.130326</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.182139</v>
+        <v>0.191176</v>
       </c>
       <c r="C112" t="n">
-        <v>0.149093</v>
+        <v>0.150796</v>
       </c>
       <c r="D112" t="n">
-        <v>0.125006</v>
+        <v>0.132466</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.183848</v>
+        <v>0.185529</v>
       </c>
       <c r="C113" t="n">
-        <v>0.154275</v>
+        <v>0.155357</v>
       </c>
       <c r="D113" t="n">
-        <v>0.127701</v>
+        <v>0.135045</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.193202</v>
+        <v>0.199286</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160496</v>
+        <v>0.160357</v>
       </c>
       <c r="D114" t="n">
-        <v>0.130593</v>
+        <v>0.138046</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.193349</v>
+        <v>0.210536</v>
       </c>
       <c r="C115" t="n">
-        <v>0.167644</v>
+        <v>0.16574</v>
       </c>
       <c r="D115" t="n">
-        <v>0.126971</v>
+        <v>0.134338</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.213236</v>
+        <v>0.209594</v>
       </c>
       <c r="C116" t="n">
-        <v>0.175786</v>
+        <v>0.172769</v>
       </c>
       <c r="D116" t="n">
-        <v>0.137204</v>
+        <v>0.138055</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.216427</v>
+        <v>0.221976</v>
       </c>
       <c r="C117" t="n">
-        <v>0.186226</v>
+        <v>0.181219</v>
       </c>
       <c r="D117" t="n">
-        <v>0.142445</v>
+        <v>0.149193</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.235693</v>
+        <v>0.2411</v>
       </c>
       <c r="C118" t="n">
-        <v>0.201215</v>
+        <v>0.191254</v>
       </c>
       <c r="D118" t="n">
-        <v>0.142767</v>
+        <v>0.148832</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259541</v>
+        <v>0.262027</v>
       </c>
       <c r="C119" t="n">
-        <v>0.215342</v>
+        <v>0.207338</v>
       </c>
       <c r="D119" t="n">
-        <v>0.156929</v>
+        <v>0.154415</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.296215</v>
+        <v>0.288874</v>
       </c>
       <c r="C120" t="n">
-        <v>0.239104</v>
+        <v>0.228226</v>
       </c>
       <c r="D120" t="n">
-        <v>0.169057</v>
+        <v>0.16616</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.34275</v>
+        <v>0.34373</v>
       </c>
       <c r="C121" t="n">
-        <v>0.272661</v>
+        <v>0.259188</v>
       </c>
       <c r="D121" t="n">
-        <v>0.187099</v>
+        <v>0.186293</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.412359</v>
+        <v>0.407034</v>
       </c>
       <c r="C122" t="n">
-        <v>0.32744</v>
+        <v>0.311123</v>
       </c>
       <c r="D122" t="n">
-        <v>0.212929</v>
+        <v>0.201364</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.52583</v>
+        <v>0.496177</v>
       </c>
       <c r="C123" t="n">
-        <v>0.427716</v>
+        <v>0.407381</v>
       </c>
       <c r="D123" t="n">
-        <v>0.253516</v>
+        <v>0.253222</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.195646</v>
+        <v>0.190296</v>
       </c>
       <c r="C124" t="n">
-        <v>0.168982</v>
+        <v>0.163336</v>
       </c>
       <c r="D124" t="n">
-        <v>0.145042</v>
+        <v>0.144688</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.198907</v>
+        <v>0.202467</v>
       </c>
       <c r="C125" t="n">
-        <v>0.176154</v>
+        <v>0.167982</v>
       </c>
       <c r="D125" t="n">
-        <v>0.147897</v>
+        <v>0.149139</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.21207</v>
+        <v>0.198735</v>
       </c>
       <c r="C126" t="n">
-        <v>0.177429</v>
+        <v>0.171174</v>
       </c>
       <c r="D126" t="n">
-        <v>0.147602</v>
+        <v>0.143406</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.221061</v>
+        <v>0.201984</v>
       </c>
       <c r="C127" t="n">
-        <v>0.183835</v>
+        <v>0.173734</v>
       </c>
       <c r="D127" t="n">
-        <v>0.151218</v>
+        <v>0.142516</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.216266</v>
+        <v>0.218131</v>
       </c>
       <c r="C128" t="n">
-        <v>0.19008</v>
+        <v>0.178913</v>
       </c>
       <c r="D128" t="n">
-        <v>0.152357</v>
+        <v>0.155364</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.234784</v>
+        <v>0.226241</v>
       </c>
       <c r="C129" t="n">
-        <v>0.196444</v>
+        <v>0.184604</v>
       </c>
       <c r="D129" t="n">
-        <v>0.164684</v>
+        <v>0.150964</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.233213</v>
+        <v>0.229121</v>
       </c>
       <c r="C130" t="n">
-        <v>0.202149</v>
+        <v>0.191108</v>
       </c>
       <c r="D130" t="n">
-        <v>0.161008</v>
+        <v>0.159499</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.248171</v>
+        <v>0.238108</v>
       </c>
       <c r="C131" t="n">
-        <v>0.212422</v>
+        <v>0.205355</v>
       </c>
       <c r="D131" t="n">
-        <v>0.175686</v>
+        <v>0.15997</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.264407</v>
+        <v>0.255402</v>
       </c>
       <c r="C132" t="n">
-        <v>0.225875</v>
+        <v>0.210733</v>
       </c>
       <c r="D132" t="n">
-        <v>0.169599</v>
+        <v>0.164474</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.289933</v>
+        <v>0.277773</v>
       </c>
       <c r="C133" t="n">
-        <v>0.240645</v>
+        <v>0.22951</v>
       </c>
       <c r="D133" t="n">
-        <v>0.178228</v>
+        <v>0.177763</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.324203</v>
+        <v>0.304729</v>
       </c>
       <c r="C134" t="n">
-        <v>0.272813</v>
+        <v>0.247049</v>
       </c>
       <c r="D134" t="n">
-        <v>0.184744</v>
+        <v>0.188561</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.363274</v>
+        <v>0.358838</v>
       </c>
       <c r="C135" t="n">
-        <v>0.293539</v>
+        <v>0.281058</v>
       </c>
       <c r="D135" t="n">
-        <v>0.205761</v>
+        <v>0.193026</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.426955</v>
+        <v>0.412103</v>
       </c>
       <c r="C136" t="n">
-        <v>0.352777</v>
+        <v>0.323811</v>
       </c>
       <c r="D136" t="n">
-        <v>0.224558</v>
+        <v>0.220217</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.531789</v>
+        <v>0.512585</v>
       </c>
       <c r="C137" t="n">
-        <v>0.42684</v>
+        <v>0.400414</v>
       </c>
       <c r="D137" t="n">
-        <v>0.273377</v>
+        <v>0.260738</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.366255</v>
+        <v>0.335615</v>
       </c>
       <c r="C138" t="n">
-        <v>0.295284</v>
+        <v>0.27101</v>
       </c>
       <c r="D138" t="n">
-        <v>0.280398</v>
+        <v>0.257707</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.371603</v>
+        <v>0.33681</v>
       </c>
       <c r="C139" t="n">
-        <v>0.29953</v>
+        <v>0.274769</v>
       </c>
       <c r="D139" t="n">
-        <v>0.284285</v>
+        <v>0.269417</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.373423</v>
+        <v>0.340844</v>
       </c>
       <c r="C140" t="n">
-        <v>0.301866</v>
+        <v>0.281086</v>
       </c>
       <c r="D140" t="n">
-        <v>0.290937</v>
+        <v>0.271323</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.377841</v>
+        <v>0.344135</v>
       </c>
       <c r="C141" t="n">
-        <v>0.307819</v>
+        <v>0.28238</v>
       </c>
       <c r="D141" t="n">
-        <v>0.294769</v>
+        <v>0.264207</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.37893</v>
+        <v>0.353474</v>
       </c>
       <c r="C142" t="n">
-        <v>0.311678</v>
+        <v>0.287072</v>
       </c>
       <c r="D142" t="n">
-        <v>0.29031</v>
+        <v>0.276698</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.3876</v>
+        <v>0.361473</v>
       </c>
       <c r="C143" t="n">
-        <v>0.318162</v>
+        <v>0.292076</v>
       </c>
       <c r="D143" t="n">
-        <v>0.300428</v>
+        <v>0.278939</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103456</v>
+        <v>0.103387</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0631028</v>
+        <v>0.0611534</v>
       </c>
       <c r="D2" t="n">
-        <v>0.07491390000000001</v>
+        <v>0.0674867</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110943</v>
+        <v>0.110956</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0625188</v>
+        <v>0.0623662</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0779575</v>
+        <v>0.0753342</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122093</v>
+        <v>0.122372</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0640927</v>
+        <v>0.06462370000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07373449999999999</v>
+        <v>0.0738504</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142761</v>
+        <v>0.142882</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0784122</v>
+        <v>0.07381840000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0749981</v>
+        <v>0.0749988</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170253</v>
+        <v>0.170113</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0962978</v>
+        <v>0.0905662</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0786135</v>
+        <v>0.07683329999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.207481</v>
+        <v>0.205286</v>
       </c>
       <c r="C7" t="n">
-        <v>0.120173</v>
+        <v>0.111888</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0808601</v>
+        <v>0.08152230000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.264202</v>
+        <v>0.252523</v>
       </c>
       <c r="C8" t="n">
-        <v>0.153402</v>
+        <v>0.152282</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0981506</v>
+        <v>0.09555950000000001</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305404</v>
+        <v>0.305509</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190444</v>
+        <v>0.19115</v>
       </c>
       <c r="D9" t="n">
-        <v>0.138004</v>
+        <v>0.122624</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09516239999999999</v>
+        <v>0.09507400000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06319379999999999</v>
+        <v>0.0636722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0753311</v>
+        <v>0.0751059</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09839779999999999</v>
+        <v>0.0961888</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0625259</v>
+        <v>0.0626486</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0753446</v>
+        <v>0.0751941</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0980466</v>
+        <v>0.09796290000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0624282</v>
+        <v>0.0626733</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0753315</v>
+        <v>0.07543030000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.10895</v>
+        <v>0.100336</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0644788</v>
+        <v>0.06305189999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0756865</v>
+        <v>0.0680598</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.107155</v>
+        <v>0.102766</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06745329999999999</v>
+        <v>0.0627731</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0684458</v>
+        <v>0.075756</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.11295</v>
+        <v>0.10705</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0680897</v>
+        <v>0.0638566</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0784528</v>
+        <v>0.0760441</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.114301</v>
+        <v>0.112718</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0684625</v>
+        <v>0.0670699</v>
       </c>
       <c r="D16" t="n">
-        <v>0.07903540000000001</v>
+        <v>0.0763803</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.131581</v>
+        <v>0.123589</v>
       </c>
       <c r="C17" t="n">
-        <v>0.079873</v>
+        <v>0.0708466</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0803822</v>
+        <v>0.06945030000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138842</v>
+        <v>0.134779</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0850427</v>
+        <v>0.08127910000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08126750000000001</v>
+        <v>0.0800177</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150238</v>
+        <v>0.150189</v>
       </c>
       <c r="C19" t="n">
-        <v>0.10486</v>
+        <v>0.0923745</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0845617</v>
+        <v>0.0813532</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.173805</v>
+        <v>0.170909</v>
       </c>
       <c r="C20" t="n">
-        <v>0.105519</v>
+        <v>0.104513</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0887381</v>
+        <v>0.0887865</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.208476</v>
+        <v>0.210328</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12261</v>
+        <v>0.12167</v>
       </c>
       <c r="D21" t="n">
-        <v>0.101493</v>
+        <v>0.0854698</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.246362</v>
+        <v>0.254089</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1698</v>
+        <v>0.154648</v>
       </c>
       <c r="D22" t="n">
-        <v>0.11848</v>
+        <v>0.111335</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.291657</v>
+        <v>0.290871</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196918</v>
+        <v>0.212159</v>
       </c>
       <c r="D23" t="n">
-        <v>0.128825</v>
+        <v>0.13735</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105215</v>
+        <v>0.105465</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07849200000000001</v>
+        <v>0.0709568</v>
       </c>
       <c r="D24" t="n">
-        <v>0.070616</v>
+        <v>0.07780910000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10218</v>
+        <v>0.106707</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06719550000000001</v>
+        <v>0.0747819</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0791987</v>
+        <v>0.0776413</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111266</v>
+        <v>0.111474</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0782383</v>
+        <v>0.0763379</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0786767</v>
+        <v>0.07257039999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.110449</v>
+        <v>0.113713</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07797469999999999</v>
+        <v>0.0690167</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0792016</v>
+        <v>0.08121250000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.117085</v>
+        <v>0.113153</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06930840000000001</v>
+        <v>0.06937889999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07972750000000001</v>
+        <v>0.0722295</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113723</v>
+        <v>0.115075</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07153370000000001</v>
+        <v>0.0785891</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0801674</v>
+        <v>0.0767134</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.122158</v>
+        <v>0.126344</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0799632</v>
+        <v>0.0748301</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0823271</v>
+        <v>0.07309599999999999</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.128336</v>
+        <v>0.130889</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0790751</v>
+        <v>0.08514960000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08134520000000001</v>
+        <v>0.08168259999999999</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139173</v>
+        <v>0.140021</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0855023</v>
+        <v>0.085178</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0833173</v>
+        <v>0.0817059</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150162</v>
+        <v>0.152621</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0933413</v>
+        <v>0.102258</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0902602</v>
+        <v>0.09006169999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169304</v>
+        <v>0.177818</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105906</v>
+        <v>0.11545</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08589280000000001</v>
+        <v>0.0932468</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.203373</v>
+        <v>0.20085</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123534</v>
+        <v>0.123368</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100246</v>
+        <v>0.100764</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.24594</v>
+        <v>0.235368</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147645</v>
+        <v>0.148318</v>
       </c>
       <c r="D36" t="n">
-        <v>0.108113</v>
+        <v>0.112188</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285513</v>
+        <v>0.285564</v>
       </c>
       <c r="C37" t="n">
-        <v>0.193706</v>
+        <v>0.190671</v>
       </c>
       <c r="D37" t="n">
-        <v>0.134922</v>
+        <v>0.123006</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.107294</v>
+        <v>0.105337</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06945129999999999</v>
+        <v>0.0694683</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0799412</v>
+        <v>0.0799044</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.109422</v>
+        <v>0.106832</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0779584</v>
+        <v>0.0779883</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0736285</v>
+        <v>0.07456450000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108212</v>
+        <v>0.11474</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0710253</v>
+        <v>0.07198649999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0749229</v>
+        <v>0.0730629</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.112692</v>
+        <v>0.112182</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0802358</v>
+        <v>0.0727695</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0832442</v>
+        <v>0.07983949999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.120499</v>
+        <v>0.11412</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08158700000000001</v>
+        <v>0.0743513</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07642930000000001</v>
+        <v>0.0814817</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.121258</v>
+        <v>0.117807</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0770409</v>
+        <v>0.0778799</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0739542</v>
+        <v>0.07645009999999999</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.125895</v>
+        <v>0.126065</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0789137</v>
+        <v>0.0870295</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0818287</v>
+        <v>0.0747062</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.133692</v>
+        <v>0.132529</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08802400000000001</v>
+        <v>0.08698699999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0797499</v>
+        <v>0.0801804</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14162</v>
+        <v>0.14149</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09385110000000001</v>
+        <v>0.0871141</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0856667</v>
+        <v>0.0853763</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150531</v>
+        <v>0.150588</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09320340000000001</v>
+        <v>0.093475</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0899075</v>
+        <v>0.08426839999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167799</v>
+        <v>0.167927</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102929</v>
+        <v>0.109644</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0888666</v>
+        <v>0.0893169</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191473</v>
+        <v>0.193013</v>
       </c>
       <c r="C49" t="n">
-        <v>0.132084</v>
+        <v>0.116343</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0920697</v>
+        <v>0.0993627</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223794</v>
+        <v>0.224692</v>
       </c>
       <c r="C50" t="n">
-        <v>0.138337</v>
+        <v>0.137893</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0992963</v>
+        <v>0.0976877</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.273224</v>
+        <v>0.272893</v>
       </c>
       <c r="C51" t="n">
-        <v>0.171658</v>
+        <v>0.172346</v>
       </c>
       <c r="D51" t="n">
-        <v>0.114763</v>
+        <v>0.113498</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.325339</v>
+        <v>0.322015</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227305</v>
+        <v>0.249508</v>
       </c>
       <c r="D52" t="n">
-        <v>0.15781</v>
+        <v>0.157318</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111318</v>
+        <v>0.110565</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0825758</v>
+        <v>0.086774</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0855535</v>
+        <v>0.0814844</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.113452</v>
+        <v>0.110574</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0750388</v>
+        <v>0.0756271</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0854997</v>
+        <v>0.0850138</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115165</v>
+        <v>0.117529</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08361689999999999</v>
+        <v>0.08187949999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0746251</v>
+        <v>0.0753506</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117044</v>
+        <v>0.118977</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0775597</v>
+        <v>0.0838129</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08191569999999999</v>
+        <v>0.0801249</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.124801</v>
+        <v>0.13123</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0850322</v>
+        <v>0.0802015</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0789004</v>
+        <v>0.081431</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.130008</v>
+        <v>0.135172</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0833653</v>
+        <v>0.0900677</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0807995</v>
+        <v>0.0843632</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132303</v>
+        <v>0.133345</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09206399999999999</v>
+        <v>0.085191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.08780780000000001</v>
+        <v>0.0877472</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142044</v>
+        <v>0.140427</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0975916</v>
+        <v>0.0885354</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09161660000000001</v>
+        <v>0.080622</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.153491</v>
+        <v>0.150825</v>
       </c>
       <c r="C61" t="n">
-        <v>0.10098</v>
+        <v>0.0953485</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0957857</v>
+        <v>0.0884515</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168293</v>
+        <v>0.169079</v>
       </c>
       <c r="C62" t="n">
-        <v>0.113707</v>
+        <v>0.110722</v>
       </c>
       <c r="D62" t="n">
-        <v>0.098274</v>
+        <v>0.0956149</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191838</v>
+        <v>0.199418</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117717</v>
+        <v>0.118047</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09239020000000001</v>
+        <v>0.09654020000000001</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220536</v>
+        <v>0.220861</v>
       </c>
       <c r="C64" t="n">
-        <v>0.137236</v>
+        <v>0.136739</v>
       </c>
       <c r="D64" t="n">
-        <v>0.107309</v>
+        <v>0.108734</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271514</v>
+        <v>0.262771</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185791</v>
+        <v>0.170228</v>
       </c>
       <c r="D65" t="n">
-        <v>0.124062</v>
+        <v>0.130157</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.335043</v>
+        <v>0.317727</v>
       </c>
       <c r="C66" t="n">
-        <v>0.237151</v>
+        <v>0.219924</v>
       </c>
       <c r="D66" t="n">
-        <v>0.152441</v>
+        <v>0.146614</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121778</v>
+        <v>0.120838</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0864067</v>
+        <v>0.0869089</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0923539</v>
+        <v>0.08946510000000001</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.125875</v>
+        <v>0.123736</v>
       </c>
       <c r="C68" t="n">
-        <v>0.083442</v>
+        <v>0.0839051</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0816953</v>
+        <v>0.08676639999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.124464</v>
+        <v>0.125035</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0840091</v>
+        <v>0.0910593</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0933263</v>
+        <v>0.0934178</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.127402</v>
+        <v>0.128504</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0900189</v>
+        <v>0.0937885</v>
       </c>
       <c r="D70" t="n">
-        <v>0.08684119999999999</v>
+        <v>0.0941439</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131944</v>
+        <v>0.141739</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0921221</v>
+        <v>0.091626</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09292069999999999</v>
+        <v>0.094818</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138758</v>
+        <v>0.138449</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0901544</v>
+        <v>0.0897386</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09243079999999999</v>
+        <v>0.09197180000000001</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143972</v>
+        <v>0.142049</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0943643</v>
+        <v>0.098151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0935101</v>
+        <v>0.08943280000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150285</v>
+        <v>0.153959</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0958606</v>
+        <v>0.101817</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0950718</v>
+        <v>0.0930424</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.165192</v>
+        <v>0.163114</v>
       </c>
       <c r="C75" t="n">
-        <v>0.104168</v>
+        <v>0.110635</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0978941</v>
+        <v>0.0961645</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176388</v>
+        <v>0.174605</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110157</v>
+        <v>0.116254</v>
       </c>
       <c r="D76" t="n">
-        <v>0.100956</v>
+        <v>0.0992565</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.207095</v>
+        <v>0.19767</v>
       </c>
       <c r="C77" t="n">
-        <v>0.122868</v>
+        <v>0.130788</v>
       </c>
       <c r="D77" t="n">
-        <v>0.110897</v>
+        <v>0.107163</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225039</v>
+        <v>0.225458</v>
       </c>
       <c r="C78" t="n">
-        <v>0.147504</v>
+        <v>0.15167</v>
       </c>
       <c r="D78" t="n">
-        <v>0.113333</v>
+        <v>0.109319</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.268028</v>
+        <v>0.266161</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169881</v>
+        <v>0.183971</v>
       </c>
       <c r="D79" t="n">
-        <v>0.128084</v>
+        <v>0.126651</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323694</v>
+        <v>0.323114</v>
       </c>
       <c r="C80" t="n">
-        <v>0.237451</v>
+        <v>0.236685</v>
       </c>
       <c r="D80" t="n">
-        <v>0.163368</v>
+        <v>0.151494</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135452</v>
+        <v>0.13564</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0912858</v>
+        <v>0.09180919999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.09553150000000001</v>
+        <v>0.0912625</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.1377</v>
+        <v>0.147024</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0928549</v>
+        <v>0.0963796</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0957437</v>
+        <v>0.096404</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.14808</v>
+        <v>0.145145</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09456390000000001</v>
+        <v>0.0999908</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0968268</v>
+        <v>0.090348</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142057</v>
+        <v>0.152096</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09659429999999999</v>
+        <v>0.103847</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0944596</v>
+        <v>0.09424009999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145728</v>
+        <v>0.156486</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0991918</v>
+        <v>0.1011</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09959809999999999</v>
+        <v>0.0983067</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.151911</v>
+        <v>0.153991</v>
       </c>
       <c r="C86" t="n">
-        <v>0.105624</v>
+        <v>0.113468</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0940481</v>
+        <v>0.101353</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.159315</v>
+        <v>0.167637</v>
       </c>
       <c r="C87" t="n">
-        <v>0.107983</v>
+        <v>0.114102</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0955104</v>
+        <v>0.107265</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.174703</v>
+        <v>0.166432</v>
       </c>
       <c r="C88" t="n">
-        <v>0.120617</v>
+        <v>0.116223</v>
       </c>
       <c r="D88" t="n">
-        <v>0.100663</v>
+        <v>0.106088</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188094</v>
+        <v>0.180761</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128486</v>
+        <v>0.12928</v>
       </c>
       <c r="D89" t="n">
-        <v>0.10901</v>
+        <v>0.109355</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.201689</v>
+        <v>0.195989</v>
       </c>
       <c r="C90" t="n">
-        <v>0.134147</v>
+        <v>0.132955</v>
       </c>
       <c r="D90" t="n">
-        <v>0.114521</v>
+        <v>0.106773</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214076</v>
+        <v>0.214709</v>
       </c>
       <c r="C91" t="n">
-        <v>0.149129</v>
+        <v>0.146808</v>
       </c>
       <c r="D91" t="n">
-        <v>0.121423</v>
+        <v>0.114916</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.248409</v>
+        <v>0.250907</v>
       </c>
       <c r="C92" t="n">
-        <v>0.166251</v>
+        <v>0.164571</v>
       </c>
       <c r="D92" t="n">
-        <v>0.130961</v>
+        <v>0.130948</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.286637</v>
+        <v>0.284394</v>
       </c>
       <c r="C93" t="n">
-        <v>0.196675</v>
+        <v>0.208178</v>
       </c>
       <c r="D93" t="n">
-        <v>0.143273</v>
+        <v>0.143563</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.352078</v>
+        <v>0.366702</v>
       </c>
       <c r="C94" t="n">
-        <v>0.259258</v>
+        <v>0.260756</v>
       </c>
       <c r="D94" t="n">
-        <v>0.163181</v>
+        <v>0.158764</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.159341</v>
+        <v>0.149993</v>
       </c>
       <c r="C95" t="n">
-        <v>0.116604</v>
+        <v>0.110945</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101417</v>
+        <v>0.101246</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152476</v>
+        <v>0.163134</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115941</v>
+        <v>0.11663</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102142</v>
+        <v>0.110307</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.160607</v>
+        <v>0.166702</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118698</v>
+        <v>0.119586</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104152</v>
+        <v>0.11203</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.159728</v>
+        <v>0.170594</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122036</v>
+        <v>0.120713</v>
       </c>
       <c r="D98" t="n">
-        <v>0.11325</v>
+        <v>0.107006</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164038</v>
+        <v>0.165451</v>
       </c>
       <c r="C99" t="n">
-        <v>0.1263</v>
+        <v>0.124168</v>
       </c>
       <c r="D99" t="n">
-        <v>0.107832</v>
+        <v>0.10931</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.180851</v>
+        <v>0.181463</v>
       </c>
       <c r="C100" t="n">
-        <v>0.132044</v>
+        <v>0.130745</v>
       </c>
       <c r="D100" t="n">
-        <v>0.110452</v>
+        <v>0.111469</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187519</v>
+        <v>0.188224</v>
       </c>
       <c r="C101" t="n">
-        <v>0.142714</v>
+        <v>0.133103</v>
       </c>
       <c r="D101" t="n">
-        <v>0.119265</v>
+        <v>0.119013</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196791</v>
+        <v>0.18696</v>
       </c>
       <c r="C102" t="n">
-        <v>0.14719</v>
+        <v>0.140141</v>
       </c>
       <c r="D102" t="n">
-        <v>0.123298</v>
+        <v>0.114919</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.199217</v>
+        <v>0.19827</v>
       </c>
       <c r="C103" t="n">
-        <v>0.157673</v>
+        <v>0.149248</v>
       </c>
       <c r="D103" t="n">
-        <v>0.121588</v>
+        <v>0.127863</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220299</v>
+        <v>0.21412</v>
       </c>
       <c r="C104" t="n">
-        <v>0.170498</v>
+        <v>0.16507</v>
       </c>
       <c r="D104" t="n">
-        <v>0.131552</v>
+        <v>0.133489</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.251474</v>
+        <v>0.234565</v>
       </c>
       <c r="C105" t="n">
-        <v>0.187721</v>
+        <v>0.178661</v>
       </c>
       <c r="D105" t="n">
-        <v>0.137058</v>
+        <v>0.129667</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.280583</v>
+        <v>0.268935</v>
       </c>
       <c r="C106" t="n">
-        <v>0.209286</v>
+        <v>0.20403</v>
       </c>
       <c r="D106" t="n">
-        <v>0.15478</v>
+        <v>0.146053</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.327251</v>
+        <v>0.312566</v>
       </c>
       <c r="C107" t="n">
-        <v>0.241467</v>
+        <v>0.237934</v>
       </c>
       <c r="D107" t="n">
-        <v>0.162918</v>
+        <v>0.156153</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.383859</v>
+        <v>0.381509</v>
       </c>
       <c r="C108" t="n">
-        <v>0.305508</v>
+        <v>0.292637</v>
       </c>
       <c r="D108" t="n">
-        <v>0.195396</v>
+        <v>0.191854</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480385</v>
+        <v>0.478383</v>
       </c>
       <c r="C109" t="n">
-        <v>0.37361</v>
+        <v>0.373253</v>
       </c>
       <c r="D109" t="n">
-        <v>0.247503</v>
+        <v>0.233182</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.171566</v>
+        <v>0.177933</v>
       </c>
       <c r="C110" t="n">
-        <v>0.14403</v>
+        <v>0.14343</v>
       </c>
       <c r="D110" t="n">
-        <v>0.121413</v>
+        <v>0.117755</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175757</v>
+        <v>0.183187</v>
       </c>
       <c r="C111" t="n">
-        <v>0.14713</v>
+        <v>0.147037</v>
       </c>
       <c r="D111" t="n">
-        <v>0.130326</v>
+        <v>0.127969</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.191176</v>
+        <v>0.178295</v>
       </c>
       <c r="C112" t="n">
-        <v>0.150796</v>
+        <v>0.151022</v>
       </c>
       <c r="D112" t="n">
-        <v>0.132466</v>
+        <v>0.124508</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185529</v>
+        <v>0.189984</v>
       </c>
       <c r="C113" t="n">
-        <v>0.155357</v>
+        <v>0.155439</v>
       </c>
       <c r="D113" t="n">
-        <v>0.135045</v>
+        <v>0.134378</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.199286</v>
+        <v>0.202036</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160357</v>
+        <v>0.160631</v>
       </c>
       <c r="D114" t="n">
-        <v>0.138046</v>
+        <v>0.131052</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.210536</v>
+        <v>0.199879</v>
       </c>
       <c r="C115" t="n">
-        <v>0.16574</v>
+        <v>0.166165</v>
       </c>
       <c r="D115" t="n">
-        <v>0.134338</v>
+        <v>0.134525</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209594</v>
+        <v>0.223087</v>
       </c>
       <c r="C116" t="n">
-        <v>0.172769</v>
+        <v>0.174333</v>
       </c>
       <c r="D116" t="n">
-        <v>0.138055</v>
+        <v>0.144927</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.221976</v>
+        <v>0.225773</v>
       </c>
       <c r="C117" t="n">
-        <v>0.181219</v>
+        <v>0.181771</v>
       </c>
       <c r="D117" t="n">
-        <v>0.149193</v>
+        <v>0.149492</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2411</v>
+        <v>0.241201</v>
       </c>
       <c r="C118" t="n">
-        <v>0.191254</v>
+        <v>0.193498</v>
       </c>
       <c r="D118" t="n">
-        <v>0.148832</v>
+        <v>0.155208</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262027</v>
+        <v>0.259534</v>
       </c>
       <c r="C119" t="n">
-        <v>0.207338</v>
+        <v>0.208508</v>
       </c>
       <c r="D119" t="n">
-        <v>0.154415</v>
+        <v>0.163249</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288874</v>
+        <v>0.292617</v>
       </c>
       <c r="C120" t="n">
-        <v>0.228226</v>
+        <v>0.229305</v>
       </c>
       <c r="D120" t="n">
-        <v>0.16616</v>
+        <v>0.165132</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.34373</v>
+        <v>0.338078</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259188</v>
+        <v>0.259976</v>
       </c>
       <c r="D121" t="n">
-        <v>0.186293</v>
+        <v>0.17912</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.407034</v>
+        <v>0.409302</v>
       </c>
       <c r="C122" t="n">
-        <v>0.311123</v>
+        <v>0.308935</v>
       </c>
       <c r="D122" t="n">
-        <v>0.201364</v>
+        <v>0.202379</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.496177</v>
+        <v>0.496705</v>
       </c>
       <c r="C123" t="n">
-        <v>0.407381</v>
+        <v>0.408494</v>
       </c>
       <c r="D123" t="n">
-        <v>0.253222</v>
+        <v>0.243689</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.190296</v>
+        <v>0.191369</v>
       </c>
       <c r="C124" t="n">
-        <v>0.163336</v>
+        <v>0.161406</v>
       </c>
       <c r="D124" t="n">
-        <v>0.144688</v>
+        <v>0.145207</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.202467</v>
+        <v>0.195508</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167982</v>
+        <v>0.169614</v>
       </c>
       <c r="D125" t="n">
-        <v>0.149139</v>
+        <v>0.144449</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.198735</v>
+        <v>0.204998</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171174</v>
+        <v>0.171313</v>
       </c>
       <c r="D126" t="n">
-        <v>0.143406</v>
+        <v>0.147801</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201984</v>
+        <v>0.211628</v>
       </c>
       <c r="C127" t="n">
-        <v>0.173734</v>
+        <v>0.175216</v>
       </c>
       <c r="D127" t="n">
-        <v>0.142516</v>
+        <v>0.149907</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.218131</v>
+        <v>0.214699</v>
       </c>
       <c r="C128" t="n">
-        <v>0.178913</v>
+        <v>0.181205</v>
       </c>
       <c r="D128" t="n">
-        <v>0.155364</v>
+        <v>0.148199</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226241</v>
+        <v>0.224614</v>
       </c>
       <c r="C129" t="n">
-        <v>0.184604</v>
+        <v>0.187118</v>
       </c>
       <c r="D129" t="n">
-        <v>0.150964</v>
+        <v>0.148812</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229121</v>
+        <v>0.237387</v>
       </c>
       <c r="C130" t="n">
-        <v>0.191108</v>
+        <v>0.194917</v>
       </c>
       <c r="D130" t="n">
-        <v>0.159499</v>
+        <v>0.152428</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.238108</v>
+        <v>0.251783</v>
       </c>
       <c r="C131" t="n">
-        <v>0.205355</v>
+        <v>0.197934</v>
       </c>
       <c r="D131" t="n">
-        <v>0.15997</v>
+        <v>0.159554</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.255402</v>
+        <v>0.265983</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210733</v>
+        <v>0.212217</v>
       </c>
       <c r="D132" t="n">
-        <v>0.164474</v>
+        <v>0.172721</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277773</v>
+        <v>0.287962</v>
       </c>
       <c r="C133" t="n">
-        <v>0.22951</v>
+        <v>0.232787</v>
       </c>
       <c r="D133" t="n">
-        <v>0.177763</v>
+        <v>0.169846</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.304729</v>
+        <v>0.305174</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247049</v>
+        <v>0.255073</v>
       </c>
       <c r="D134" t="n">
-        <v>0.188561</v>
+        <v>0.179468</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.358838</v>
+        <v>0.346072</v>
       </c>
       <c r="C135" t="n">
-        <v>0.281058</v>
+        <v>0.280444</v>
       </c>
       <c r="D135" t="n">
-        <v>0.193026</v>
+        <v>0.20128</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.412103</v>
+        <v>0.422181</v>
       </c>
       <c r="C136" t="n">
-        <v>0.323811</v>
+        <v>0.3253</v>
       </c>
       <c r="D136" t="n">
-        <v>0.220217</v>
+        <v>0.225434</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.512585</v>
+        <v>0.51108</v>
       </c>
       <c r="C137" t="n">
-        <v>0.400414</v>
+        <v>0.417418</v>
       </c>
       <c r="D137" t="n">
-        <v>0.260738</v>
+        <v>0.258761</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.335615</v>
+        <v>0.334506</v>
       </c>
       <c r="C138" t="n">
-        <v>0.27101</v>
+        <v>0.27285</v>
       </c>
       <c r="D138" t="n">
-        <v>0.257707</v>
+        <v>0.265608</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.33681</v>
+        <v>0.345066</v>
       </c>
       <c r="C139" t="n">
-        <v>0.274769</v>
+        <v>0.275314</v>
       </c>
       <c r="D139" t="n">
-        <v>0.269417</v>
+        <v>0.261785</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340844</v>
+        <v>0.349994</v>
       </c>
       <c r="C140" t="n">
-        <v>0.281086</v>
+        <v>0.280328</v>
       </c>
       <c r="D140" t="n">
-        <v>0.271323</v>
+        <v>0.270616</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.344135</v>
+        <v>0.357944</v>
       </c>
       <c r="C141" t="n">
-        <v>0.28238</v>
+        <v>0.281012</v>
       </c>
       <c r="D141" t="n">
-        <v>0.264207</v>
+        <v>0.267174</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.353474</v>
+        <v>0.353189</v>
       </c>
       <c r="C142" t="n">
-        <v>0.287072</v>
+        <v>0.287497</v>
       </c>
       <c r="D142" t="n">
-        <v>0.276698</v>
+        <v>0.270242</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.361473</v>
+        <v>0.358927</v>
       </c>
       <c r="C143" t="n">
-        <v>0.292076</v>
+        <v>0.292747</v>
       </c>
       <c r="D143" t="n">
-        <v>0.278939</v>
+        <v>0.277789</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103387</v>
+        <v>0.103425</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611534</v>
+        <v>0.0613515</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0674867</v>
+        <v>0.0747104</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110956</v>
+        <v>0.11123</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623662</v>
+        <v>0.0623318</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0753342</v>
+        <v>0.0748161</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122372</v>
+        <v>0.122192</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06462370000000001</v>
+        <v>0.06422310000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0738504</v>
+        <v>0.07360510000000001</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142882</v>
+        <v>0.143322</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07381840000000001</v>
+        <v>0.0734929</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0749988</v>
+        <v>0.0677961</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170113</v>
+        <v>0.170681</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0905662</v>
+        <v>0.09015720000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07683329999999999</v>
+        <v>0.06955939999999999</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205286</v>
+        <v>0.205434</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111888</v>
+        <v>0.112263</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08152230000000001</v>
+        <v>0.0742758</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252523</v>
+        <v>0.252866</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152282</v>
+        <v>0.152552</v>
       </c>
       <c r="D8" t="n">
-        <v>0.09555950000000001</v>
+        <v>0.0960149</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305509</v>
+        <v>0.305866</v>
       </c>
       <c r="C9" t="n">
-        <v>0.19115</v>
+        <v>0.191341</v>
       </c>
       <c r="D9" t="n">
-        <v>0.122624</v>
+        <v>0.0747829</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09507400000000001</v>
+        <v>0.09470000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0636722</v>
+        <v>0.06270779999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0751059</v>
+        <v>0.0749755</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0961888</v>
+        <v>0.09566230000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0626486</v>
+        <v>0.0622092</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0751941</v>
+        <v>0.0750923</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09796290000000001</v>
+        <v>0.09761259999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0626733</v>
+        <v>0.0634255</v>
       </c>
       <c r="D12" t="n">
-        <v>0.07543030000000001</v>
+        <v>0.0750943</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100336</v>
+        <v>0.0996108</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06305189999999999</v>
+        <v>0.0625151</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0680598</v>
+        <v>0.07530489999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102766</v>
+        <v>0.102331</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0627731</v>
+        <v>0.0632566</v>
       </c>
       <c r="D14" t="n">
-        <v>0.075756</v>
+        <v>0.0755017</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10705</v>
+        <v>0.106646</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0638566</v>
+        <v>0.0636482</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0760441</v>
+        <v>0.0758418</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112718</v>
+        <v>0.112183</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0670699</v>
+        <v>0.0668038</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0763803</v>
+        <v>0.0763228</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123589</v>
+        <v>0.121207</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0708466</v>
+        <v>0.0705915</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06945030000000001</v>
+        <v>0.0767375</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134779</v>
+        <v>0.133777</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08127910000000001</v>
+        <v>0.0803209</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0800177</v>
+        <v>0.07754709999999999</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150189</v>
+        <v>0.149891</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0923745</v>
+        <v>0.0914098</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0813532</v>
+        <v>0.0807794</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170909</v>
+        <v>0.171019</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104513</v>
+        <v>0.104233</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0887865</v>
+        <v>0.0777849</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.210328</v>
+        <v>0.198576</v>
       </c>
       <c r="C21" t="n">
-        <v>0.12167</v>
+        <v>0.121299</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0854698</v>
+        <v>0.0940394</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.254089</v>
+        <v>0.236078</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154648</v>
+        <v>0.154817</v>
       </c>
       <c r="D22" t="n">
-        <v>0.111335</v>
+        <v>0.111014</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290871</v>
+        <v>0.300979</v>
       </c>
       <c r="C23" t="n">
-        <v>0.212159</v>
+        <v>0.195952</v>
       </c>
       <c r="D23" t="n">
-        <v>0.13735</v>
+        <v>0.0692502</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105465</v>
+        <v>0.10072</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0709568</v>
+        <v>0.0665533</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07780910000000001</v>
+        <v>0.0770773</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.106707</v>
+        <v>0.101901</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0747819</v>
+        <v>0.06622939999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0776413</v>
+        <v>0.07735300000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.111474</v>
+        <v>0.103632</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0763379</v>
+        <v>0.0670466</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07257039999999999</v>
+        <v>0.07739840000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.113713</v>
+        <v>0.10552</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0690167</v>
+        <v>0.0674573</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08121250000000001</v>
+        <v>0.07776280000000001</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.113153</v>
+        <v>0.108912</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06937889999999999</v>
+        <v>0.0684758</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0722295</v>
+        <v>0.07023989999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115075</v>
+        <v>0.113286</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0785891</v>
+        <v>0.0705112</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0767134</v>
+        <v>0.0783837</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.126344</v>
+        <v>0.119615</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0748301</v>
+        <v>0.0741378</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07309599999999999</v>
+        <v>0.0789243</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.130889</v>
+        <v>0.127442</v>
       </c>
       <c r="C31" t="n">
-        <v>0.08514960000000001</v>
+        <v>0.0789912</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08168259999999999</v>
+        <v>0.0798077</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140021</v>
+        <v>0.13735</v>
       </c>
       <c r="C32" t="n">
-        <v>0.085178</v>
+        <v>0.0847835</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0817059</v>
+        <v>0.0810501</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.152621</v>
+        <v>0.150252</v>
       </c>
       <c r="C33" t="n">
-        <v>0.102258</v>
+        <v>0.0926019</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09006169999999999</v>
+        <v>0.08517180000000001</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.177818</v>
+        <v>0.16806</v>
       </c>
       <c r="C34" t="n">
-        <v>0.11545</v>
+        <v>0.105545</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0932468</v>
+        <v>0.09257</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.20085</v>
+        <v>0.194498</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123368</v>
+        <v>0.122879</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100764</v>
+        <v>0.0902323</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.235368</v>
+        <v>0.232419</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148318</v>
+        <v>0.147414</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112188</v>
+        <v>0.101993</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285564</v>
+        <v>0.280554</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190671</v>
+        <v>0.190277</v>
       </c>
       <c r="D37" t="n">
-        <v>0.123006</v>
+        <v>0.0771725</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105337</v>
+        <v>0.103651</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0694683</v>
+        <v>0.0691818</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0799044</v>
+        <v>0.07869180000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106832</v>
+        <v>0.104958</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0779883</v>
+        <v>0.06981270000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07456450000000001</v>
+        <v>0.07892059999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.11474</v>
+        <v>0.106936</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07198649999999999</v>
+        <v>0.0707523</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0730629</v>
+        <v>0.0709596</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.112182</v>
+        <v>0.10909</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0727695</v>
+        <v>0.071965</v>
       </c>
       <c r="D41" t="n">
-        <v>0.07983949999999999</v>
+        <v>0.0795619</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.11412</v>
+        <v>0.112203</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0743513</v>
+        <v>0.0733887</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0814817</v>
+        <v>0.079975</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117807</v>
+        <v>0.116574</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0778799</v>
+        <v>0.0758798</v>
       </c>
       <c r="D43" t="n">
-        <v>0.07645009999999999</v>
+        <v>0.0803985</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.126065</v>
+        <v>0.122468</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0870295</v>
+        <v>0.07835590000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0747062</v>
+        <v>0.08125830000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.132529</v>
+        <v>0.129468</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08698699999999999</v>
+        <v>0.0817788</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0801804</v>
+        <v>0.0823917</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14149</v>
+        <v>0.138627</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0871141</v>
+        <v>0.0873588</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0853763</v>
+        <v>0.07733719999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150588</v>
+        <v>0.150629</v>
       </c>
       <c r="C47" t="n">
-        <v>0.093475</v>
+        <v>0.0930955</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08426839999999999</v>
+        <v>0.07943790000000001</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167927</v>
+        <v>0.167665</v>
       </c>
       <c r="C48" t="n">
-        <v>0.109644</v>
+        <v>0.102561</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0893169</v>
+        <v>0.0842483</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.193013</v>
+        <v>0.194019</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116343</v>
+        <v>0.1162</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0993627</v>
+        <v>0.0992471</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224692</v>
+        <v>0.223596</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137893</v>
+        <v>0.137449</v>
       </c>
       <c r="D50" t="n">
-        <v>0.0976877</v>
+        <v>0.098539</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.272893</v>
+        <v>0.269304</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172346</v>
+        <v>0.172756</v>
       </c>
       <c r="D51" t="n">
-        <v>0.113498</v>
+        <v>0.0801191</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322015</v>
+        <v>0.331864</v>
       </c>
       <c r="C52" t="n">
-        <v>0.249508</v>
+        <v>0.227155</v>
       </c>
       <c r="D52" t="n">
-        <v>0.157318</v>
+        <v>0.0802582</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.110565</v>
+        <v>0.109075</v>
       </c>
       <c r="C53" t="n">
-        <v>0.086774</v>
+        <v>0.0736972</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0814844</v>
+        <v>0.08110920000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110574</v>
+        <v>0.112225</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0756271</v>
+        <v>0.07479570000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0850138</v>
+        <v>0.0733925</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117529</v>
+        <v>0.11343</v>
       </c>
       <c r="C55" t="n">
-        <v>0.08187949999999999</v>
+        <v>0.0757616</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0753506</v>
+        <v>0.0815661</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118977</v>
+        <v>0.116513</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0838129</v>
+        <v>0.0769794</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0801249</v>
+        <v>0.07399699999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.13123</v>
+        <v>0.119545</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0802015</v>
+        <v>0.07894859999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.081431</v>
+        <v>0.0746315</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.135172</v>
+        <v>0.134263</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0900677</v>
+        <v>0.0812968</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0843632</v>
+        <v>0.0836707</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133345</v>
+        <v>0.13045</v>
       </c>
       <c r="C59" t="n">
-        <v>0.085191</v>
+        <v>0.0845578</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0877472</v>
+        <v>0.0769503</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.140427</v>
+        <v>0.148148</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0885354</v>
+        <v>0.0880189</v>
       </c>
       <c r="D60" t="n">
-        <v>0.080622</v>
+        <v>0.07821649999999999</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150825</v>
+        <v>0.150763</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0953485</v>
+        <v>0.0942698</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0884515</v>
+        <v>0.0811934</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169079</v>
+        <v>0.164744</v>
       </c>
       <c r="C62" t="n">
-        <v>0.110722</v>
+        <v>0.103195</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0956149</v>
+        <v>0.08500439999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.199418</v>
+        <v>0.186879</v>
       </c>
       <c r="C63" t="n">
-        <v>0.118047</v>
+        <v>0.11676</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09654020000000001</v>
+        <v>0.0989526</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220861</v>
+        <v>0.216722</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136739</v>
+        <v>0.136808</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108734</v>
+        <v>0.10743</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262771</v>
+        <v>0.259949</v>
       </c>
       <c r="C65" t="n">
-        <v>0.170228</v>
+        <v>0.169555</v>
       </c>
       <c r="D65" t="n">
-        <v>0.130157</v>
+        <v>0.121899</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.317727</v>
+        <v>0.312789</v>
       </c>
       <c r="C66" t="n">
-        <v>0.219924</v>
+        <v>0.24053</v>
       </c>
       <c r="D66" t="n">
-        <v>0.146614</v>
+        <v>0.0799454</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120838</v>
+        <v>0.133033</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0869089</v>
+        <v>0.08057739999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08946510000000001</v>
+        <v>0.0789007</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123736</v>
+        <v>0.122434</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0839051</v>
+        <v>0.0868907</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08676639999999999</v>
+        <v>0.087418</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125035</v>
+        <v>0.125869</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0910593</v>
+        <v>0.0822705</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0934178</v>
+        <v>0.0875393</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128504</v>
+        <v>0.128208</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0937885</v>
+        <v>0.0858912</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0941439</v>
+        <v>0.0934996</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.141739</v>
+        <v>0.131181</v>
       </c>
       <c r="C71" t="n">
-        <v>0.091626</v>
+        <v>0.0860417</v>
       </c>
       <c r="D71" t="n">
-        <v>0.094818</v>
+        <v>0.09252050000000001</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138449</v>
+        <v>0.135895</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0897386</v>
+        <v>0.08837739999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09197180000000001</v>
+        <v>0.08999119999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142049</v>
+        <v>0.141575</v>
       </c>
       <c r="C73" t="n">
-        <v>0.098151</v>
+        <v>0.09190909999999999</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08943280000000001</v>
+        <v>0.0840591</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.153959</v>
+        <v>0.150818</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101817</v>
+        <v>0.0956325</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0930424</v>
+        <v>0.09479219999999999</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.163114</v>
+        <v>0.160117</v>
       </c>
       <c r="C75" t="n">
-        <v>0.110635</v>
+        <v>0.101316</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0961645</v>
+        <v>0.095786</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.174605</v>
+        <v>0.180361</v>
       </c>
       <c r="C76" t="n">
-        <v>0.116254</v>
+        <v>0.110166</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0992565</v>
+        <v>0.0997851</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19767</v>
+        <v>0.196044</v>
       </c>
       <c r="C77" t="n">
-        <v>0.130788</v>
+        <v>0.122409</v>
       </c>
       <c r="D77" t="n">
-        <v>0.107163</v>
+        <v>0.0958968</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225458</v>
+        <v>0.225088</v>
       </c>
       <c r="C78" t="n">
-        <v>0.15167</v>
+        <v>0.140748</v>
       </c>
       <c r="D78" t="n">
-        <v>0.109319</v>
+        <v>0.105011</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266161</v>
+        <v>0.279065</v>
       </c>
       <c r="C79" t="n">
-        <v>0.183971</v>
+        <v>0.169546</v>
       </c>
       <c r="D79" t="n">
-        <v>0.126651</v>
+        <v>0.126645</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323114</v>
+        <v>0.320286</v>
       </c>
       <c r="C80" t="n">
-        <v>0.236685</v>
+        <v>0.216649</v>
       </c>
       <c r="D80" t="n">
-        <v>0.151494</v>
+        <v>0.0868776</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.13564</v>
+        <v>0.135229</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09180919999999999</v>
+        <v>0.09078269999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0912625</v>
+        <v>0.095294</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.147024</v>
+        <v>0.137041</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0963796</v>
+        <v>0.0916037</v>
       </c>
       <c r="D82" t="n">
-        <v>0.096404</v>
+        <v>0.08806269999999999</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.145145</v>
+        <v>0.139606</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0999908</v>
+        <v>0.0934223</v>
       </c>
       <c r="D83" t="n">
-        <v>0.090348</v>
+        <v>0.0963</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152096</v>
+        <v>0.142518</v>
       </c>
       <c r="C84" t="n">
-        <v>0.103847</v>
+        <v>0.09624729999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.09424009999999999</v>
+        <v>0.08982279999999999</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.156486</v>
+        <v>0.146061</v>
       </c>
       <c r="C85" t="n">
-        <v>0.1011</v>
+        <v>0.09964779999999999</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0983067</v>
+        <v>0.0989459</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.153991</v>
+        <v>0.156128</v>
       </c>
       <c r="C86" t="n">
-        <v>0.113468</v>
+        <v>0.103308</v>
       </c>
       <c r="D86" t="n">
-        <v>0.101353</v>
+        <v>0.0924355</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.167637</v>
+        <v>0.15788</v>
       </c>
       <c r="C87" t="n">
-        <v>0.114102</v>
+        <v>0.111332</v>
       </c>
       <c r="D87" t="n">
-        <v>0.107265</v>
+        <v>0.0942601</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166432</v>
+        <v>0.166327</v>
       </c>
       <c r="C88" t="n">
-        <v>0.116223</v>
+        <v>0.115074</v>
       </c>
       <c r="D88" t="n">
-        <v>0.106088</v>
+        <v>0.09790450000000001</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180761</v>
+        <v>0.178736</v>
       </c>
       <c r="C89" t="n">
-        <v>0.12928</v>
+        <v>0.128445</v>
       </c>
       <c r="D89" t="n">
-        <v>0.109355</v>
+        <v>0.107925</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195989</v>
+        <v>0.194183</v>
       </c>
       <c r="C90" t="n">
-        <v>0.132955</v>
+        <v>0.133959</v>
       </c>
       <c r="D90" t="n">
-        <v>0.106773</v>
+        <v>0.113627</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214709</v>
+        <v>0.215169</v>
       </c>
       <c r="C91" t="n">
-        <v>0.146808</v>
+        <v>0.146858</v>
       </c>
       <c r="D91" t="n">
-        <v>0.114916</v>
+        <v>0.112397</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.250907</v>
+        <v>0.250527</v>
       </c>
       <c r="C92" t="n">
-        <v>0.164571</v>
+        <v>0.16611</v>
       </c>
       <c r="D92" t="n">
-        <v>0.130948</v>
+        <v>0.130378</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.284394</v>
+        <v>0.29631</v>
       </c>
       <c r="C93" t="n">
-        <v>0.208178</v>
+        <v>0.197741</v>
       </c>
       <c r="D93" t="n">
-        <v>0.143563</v>
+        <v>0.142295</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.366702</v>
+        <v>0.350557</v>
       </c>
       <c r="C94" t="n">
-        <v>0.260756</v>
+        <v>0.261423</v>
       </c>
       <c r="D94" t="n">
-        <v>0.158764</v>
+        <v>0.0974739</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149993</v>
+        <v>0.15646</v>
       </c>
       <c r="C95" t="n">
-        <v>0.110945</v>
+        <v>0.113112</v>
       </c>
       <c r="D95" t="n">
-        <v>0.101246</v>
+        <v>0.0987869</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163134</v>
+        <v>0.153325</v>
       </c>
       <c r="C96" t="n">
-        <v>0.11663</v>
+        <v>0.115813</v>
       </c>
       <c r="D96" t="n">
-        <v>0.110307</v>
+        <v>0.100904</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.166702</v>
+        <v>0.16658</v>
       </c>
       <c r="C97" t="n">
-        <v>0.119586</v>
+        <v>0.116468</v>
       </c>
       <c r="D97" t="n">
-        <v>0.11203</v>
+        <v>0.111549</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170594</v>
+        <v>0.170754</v>
       </c>
       <c r="C98" t="n">
-        <v>0.120713</v>
+        <v>0.122404</v>
       </c>
       <c r="D98" t="n">
-        <v>0.107006</v>
+        <v>0.105974</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.165451</v>
+        <v>0.165362</v>
       </c>
       <c r="C99" t="n">
-        <v>0.124168</v>
+        <v>0.126425</v>
       </c>
       <c r="D99" t="n">
-        <v>0.10931</v>
+        <v>0.109871</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.181463</v>
+        <v>0.170932</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130745</v>
+        <v>0.130615</v>
       </c>
       <c r="D100" t="n">
-        <v>0.111469</v>
+        <v>0.108568</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.188224</v>
+        <v>0.17806</v>
       </c>
       <c r="C101" t="n">
-        <v>0.133103</v>
+        <v>0.136016</v>
       </c>
       <c r="D101" t="n">
-        <v>0.119013</v>
+        <v>0.118439</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.18696</v>
+        <v>0.189695</v>
       </c>
       <c r="C102" t="n">
-        <v>0.140141</v>
+        <v>0.140032</v>
       </c>
       <c r="D102" t="n">
-        <v>0.114919</v>
+        <v>0.115726</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.19827</v>
+        <v>0.199152</v>
       </c>
       <c r="C103" t="n">
-        <v>0.149248</v>
+        <v>0.151523</v>
       </c>
       <c r="D103" t="n">
-        <v>0.127863</v>
+        <v>0.120463</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21412</v>
+        <v>0.21413</v>
       </c>
       <c r="C104" t="n">
-        <v>0.16507</v>
+        <v>0.160234</v>
       </c>
       <c r="D104" t="n">
-        <v>0.133489</v>
+        <v>0.124973</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.234565</v>
+        <v>0.235301</v>
       </c>
       <c r="C105" t="n">
-        <v>0.178661</v>
+        <v>0.179319</v>
       </c>
       <c r="D105" t="n">
-        <v>0.129667</v>
+        <v>0.132127</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.268935</v>
+        <v>0.270877</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20403</v>
+        <v>0.210372</v>
       </c>
       <c r="D106" t="n">
-        <v>0.146053</v>
+        <v>0.147559</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.312566</v>
+        <v>0.315389</v>
       </c>
       <c r="C107" t="n">
-        <v>0.237934</v>
+        <v>0.234303</v>
       </c>
       <c r="D107" t="n">
-        <v>0.156153</v>
+        <v>0.155852</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.381509</v>
+        <v>0.373516</v>
       </c>
       <c r="C108" t="n">
-        <v>0.292637</v>
+        <v>0.299044</v>
       </c>
       <c r="D108" t="n">
-        <v>0.191854</v>
+        <v>0.108188</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.478383</v>
+        <v>0.472853</v>
       </c>
       <c r="C109" t="n">
-        <v>0.373253</v>
+        <v>0.368526</v>
       </c>
       <c r="D109" t="n">
-        <v>0.233182</v>
+        <v>0.109533</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.177933</v>
+        <v>0.173072</v>
       </c>
       <c r="C110" t="n">
-        <v>0.14343</v>
+        <v>0.135016</v>
       </c>
       <c r="D110" t="n">
-        <v>0.117755</v>
+        <v>0.117901</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.183187</v>
+        <v>0.169097</v>
       </c>
       <c r="C111" t="n">
-        <v>0.147037</v>
+        <v>0.139324</v>
       </c>
       <c r="D111" t="n">
-        <v>0.127969</v>
+        <v>0.112726</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.178295</v>
+        <v>0.177423</v>
       </c>
       <c r="C112" t="n">
-        <v>0.151022</v>
+        <v>0.143501</v>
       </c>
       <c r="D112" t="n">
-        <v>0.124508</v>
+        <v>0.114216</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.189984</v>
+        <v>0.173628</v>
       </c>
       <c r="C113" t="n">
-        <v>0.155439</v>
+        <v>0.148208</v>
       </c>
       <c r="D113" t="n">
-        <v>0.134378</v>
+        <v>0.123801</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.202036</v>
+        <v>0.180487</v>
       </c>
       <c r="C114" t="n">
-        <v>0.160631</v>
+        <v>0.153847</v>
       </c>
       <c r="D114" t="n">
-        <v>0.131052</v>
+        <v>0.119367</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199879</v>
+        <v>0.190322</v>
       </c>
       <c r="C115" t="n">
-        <v>0.166165</v>
+        <v>0.160585</v>
       </c>
       <c r="D115" t="n">
-        <v>0.134525</v>
+        <v>0.129763</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.223087</v>
+        <v>0.21122</v>
       </c>
       <c r="C116" t="n">
-        <v>0.174333</v>
+        <v>0.168823</v>
       </c>
       <c r="D116" t="n">
-        <v>0.144927</v>
+        <v>0.12801</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.225773</v>
+        <v>0.21466</v>
       </c>
       <c r="C117" t="n">
-        <v>0.181771</v>
+        <v>0.177755</v>
       </c>
       <c r="D117" t="n">
-        <v>0.149492</v>
+        <v>0.133642</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241201</v>
+        <v>0.241734</v>
       </c>
       <c r="C118" t="n">
-        <v>0.193498</v>
+        <v>0.191157</v>
       </c>
       <c r="D118" t="n">
-        <v>0.155208</v>
+        <v>0.149076</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259534</v>
+        <v>0.265862</v>
       </c>
       <c r="C119" t="n">
-        <v>0.208508</v>
+        <v>0.205015</v>
       </c>
       <c r="D119" t="n">
-        <v>0.163249</v>
+        <v>0.157982</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.292617</v>
+        <v>0.297332</v>
       </c>
       <c r="C120" t="n">
-        <v>0.229305</v>
+        <v>0.22769</v>
       </c>
       <c r="D120" t="n">
-        <v>0.165132</v>
+        <v>0.168205</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.338078</v>
+        <v>0.336459</v>
       </c>
       <c r="C121" t="n">
-        <v>0.259976</v>
+        <v>0.264226</v>
       </c>
       <c r="D121" t="n">
-        <v>0.17912</v>
+        <v>0.183956</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.409302</v>
+        <v>0.401365</v>
       </c>
       <c r="C122" t="n">
-        <v>0.308935</v>
+        <v>0.319824</v>
       </c>
       <c r="D122" t="n">
-        <v>0.202379</v>
+        <v>0.199641</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.496705</v>
+        <v>0.492925</v>
       </c>
       <c r="C123" t="n">
-        <v>0.408494</v>
+        <v>0.390482</v>
       </c>
       <c r="D123" t="n">
-        <v>0.243689</v>
+        <v>0.1338</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.191369</v>
+        <v>0.19878</v>
       </c>
       <c r="C124" t="n">
-        <v>0.161406</v>
+        <v>0.159337</v>
       </c>
       <c r="D124" t="n">
-        <v>0.145207</v>
+        <v>0.143573</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.195508</v>
+        <v>0.193212</v>
       </c>
       <c r="C125" t="n">
-        <v>0.169614</v>
+        <v>0.16947</v>
       </c>
       <c r="D125" t="n">
-        <v>0.144449</v>
+        <v>0.137747</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.204998</v>
+        <v>0.20795</v>
       </c>
       <c r="C126" t="n">
-        <v>0.171313</v>
+        <v>0.176258</v>
       </c>
       <c r="D126" t="n">
-        <v>0.147801</v>
+        <v>0.142326</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.211628</v>
+        <v>0.201987</v>
       </c>
       <c r="C127" t="n">
-        <v>0.175216</v>
+        <v>0.174076</v>
       </c>
       <c r="D127" t="n">
-        <v>0.149907</v>
+        <v>0.149872</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.214699</v>
+        <v>0.209151</v>
       </c>
       <c r="C128" t="n">
-        <v>0.181205</v>
+        <v>0.182088</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148199</v>
+        <v>0.157419</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224614</v>
+        <v>0.218234</v>
       </c>
       <c r="C129" t="n">
-        <v>0.187118</v>
+        <v>0.186669</v>
       </c>
       <c r="D129" t="n">
-        <v>0.148812</v>
+        <v>0.149576</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.237387</v>
+        <v>0.225638</v>
       </c>
       <c r="C130" t="n">
-        <v>0.194917</v>
+        <v>0.192098</v>
       </c>
       <c r="D130" t="n">
-        <v>0.152428</v>
+        <v>0.15968</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.251783</v>
+        <v>0.250856</v>
       </c>
       <c r="C131" t="n">
-        <v>0.197934</v>
+        <v>0.2007</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159554</v>
+        <v>0.163307</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265983</v>
+        <v>0.256859</v>
       </c>
       <c r="C132" t="n">
-        <v>0.212217</v>
+        <v>0.210701</v>
       </c>
       <c r="D132" t="n">
-        <v>0.172721</v>
+        <v>0.167703</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287962</v>
+        <v>0.286397</v>
       </c>
       <c r="C133" t="n">
-        <v>0.232787</v>
+        <v>0.226404</v>
       </c>
       <c r="D133" t="n">
-        <v>0.169846</v>
+        <v>0.166457</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.305174</v>
+        <v>0.310604</v>
       </c>
       <c r="C134" t="n">
-        <v>0.255073</v>
+        <v>0.247608</v>
       </c>
       <c r="D134" t="n">
-        <v>0.179468</v>
+        <v>0.184775</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.346072</v>
+        <v>0.35514</v>
       </c>
       <c r="C135" t="n">
-        <v>0.280444</v>
+        <v>0.277011</v>
       </c>
       <c r="D135" t="n">
-        <v>0.20128</v>
+        <v>0.200077</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.422181</v>
+        <v>0.411535</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3253</v>
+        <v>0.324539</v>
       </c>
       <c r="D136" t="n">
-        <v>0.225434</v>
+        <v>0.211484</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.51108</v>
+        <v>0.511928</v>
       </c>
       <c r="C137" t="n">
-        <v>0.417418</v>
+        <v>0.418418</v>
       </c>
       <c r="D137" t="n">
-        <v>0.258761</v>
+        <v>0.263277</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334506</v>
+        <v>0.341932</v>
       </c>
       <c r="C138" t="n">
-        <v>0.27285</v>
+        <v>0.272436</v>
       </c>
       <c r="D138" t="n">
-        <v>0.265608</v>
+        <v>0.268061</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.345066</v>
+        <v>0.348883</v>
       </c>
       <c r="C139" t="n">
-        <v>0.275314</v>
+        <v>0.276432</v>
       </c>
       <c r="D139" t="n">
-        <v>0.261785</v>
+        <v>0.262049</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.349994</v>
+        <v>0.345266</v>
       </c>
       <c r="C140" t="n">
-        <v>0.280328</v>
+        <v>0.279363</v>
       </c>
       <c r="D140" t="n">
-        <v>0.270616</v>
+        <v>0.266537</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.357944</v>
+        <v>0.346579</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281012</v>
+        <v>0.28404</v>
       </c>
       <c r="D141" t="n">
-        <v>0.267174</v>
+        <v>0.267497</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.353189</v>
+        <v>0.362171</v>
       </c>
       <c r="C142" t="n">
-        <v>0.287497</v>
+        <v>0.288391</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270242</v>
+        <v>0.270128</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.358927</v>
+        <v>0.36548</v>
       </c>
       <c r="C143" t="n">
-        <v>0.292747</v>
+        <v>0.294051</v>
       </c>
       <c r="D143" t="n">
-        <v>0.277789</v>
+        <v>0.272012</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103425</v>
+        <v>0.103243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0613515</v>
+        <v>0.0612926</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0747104</v>
+        <v>0.0747854</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11123</v>
+        <v>0.111132</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0623318</v>
+        <v>0.0621977</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0748161</v>
+        <v>0.0748313</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122192</v>
+        <v>0.122816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06422310000000001</v>
+        <v>0.0644575</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07360510000000001</v>
+        <v>0.0737174</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143322</v>
+        <v>0.142918</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0734929</v>
+        <v>0.0732926</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0677961</v>
+        <v>0.0747082</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170681</v>
+        <v>0.170461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09015720000000001</v>
+        <v>0.09011470000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.06955939999999999</v>
+        <v>0.0693589</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205434</v>
+        <v>0.2057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112263</v>
+        <v>0.112334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0742758</v>
+        <v>0.0734885</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252866</v>
+        <v>0.252709</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152552</v>
+        <v>0.152458</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0960149</v>
+        <v>0.0955613</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305866</v>
+        <v>0.305833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191341</v>
+        <v>0.191416</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0747829</v>
+        <v>0.07695490000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09470000000000001</v>
+        <v>0.09641089999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06270779999999999</v>
+        <v>0.0636258</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0749755</v>
+        <v>0.0749766</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09566230000000001</v>
+        <v>0.09817670000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0622092</v>
+        <v>0.06293319999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0750923</v>
+        <v>0.0678525</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09761259999999999</v>
+        <v>0.09747740000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0634255</v>
+        <v>0.06372949999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0750943</v>
+        <v>0.075114</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0996108</v>
+        <v>0.100172</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0625151</v>
+        <v>0.06302339999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07530489999999999</v>
+        <v>0.075207</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102331</v>
+        <v>0.102778</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0632566</v>
+        <v>0.06410490000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0755017</v>
+        <v>0.0718336</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106646</v>
+        <v>0.109979</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0636482</v>
+        <v>0.0680055</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0758418</v>
+        <v>0.0791404</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112183</v>
+        <v>0.114433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0668038</v>
+        <v>0.06862210000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0763228</v>
+        <v>0.0794125</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121207</v>
+        <v>0.129779</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0705915</v>
+        <v>0.0752232</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0767375</v>
+        <v>0.079317</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133777</v>
+        <v>0.139874</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0803209</v>
+        <v>0.0852401</v>
       </c>
       <c r="D18" t="n">
-        <v>0.07754709999999999</v>
+        <v>0.0812673</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149891</v>
+        <v>0.154739</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0914098</v>
+        <v>0.100745</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0807794</v>
+        <v>0.0835055</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171019</v>
+        <v>0.176087</v>
       </c>
       <c r="C20" t="n">
-        <v>0.104233</v>
+        <v>0.10551</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0777849</v>
+        <v>0.0877894</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198576</v>
+        <v>0.208511</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121299</v>
+        <v>0.121919</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0940394</v>
+        <v>0.0969218</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236078</v>
+        <v>0.243558</v>
       </c>
       <c r="C22" t="n">
-        <v>0.154817</v>
+        <v>0.155782</v>
       </c>
       <c r="D22" t="n">
-        <v>0.111014</v>
+        <v>0.113307</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.300979</v>
+        <v>0.290038</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195952</v>
+        <v>0.217062</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0692502</v>
+        <v>0.0740408</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10072</v>
+        <v>0.105432</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0665533</v>
+        <v>0.07040390000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0770773</v>
+        <v>0.0729945</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101901</v>
+        <v>0.108338</v>
       </c>
       <c r="C25" t="n">
-        <v>0.06622939999999999</v>
+        <v>0.0672555</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07735300000000001</v>
+        <v>0.0711847</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103632</v>
+        <v>0.10411</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0670466</v>
+        <v>0.0703348</v>
       </c>
       <c r="D26" t="n">
-        <v>0.07739840000000001</v>
+        <v>0.0790076</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.10552</v>
+        <v>0.110745</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0674573</v>
+        <v>0.076171</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07776280000000001</v>
+        <v>0.0781178</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108912</v>
+        <v>0.109489</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0684758</v>
+        <v>0.0690479</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07023989999999999</v>
+        <v>0.0813966</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113286</v>
+        <v>0.1148</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0705112</v>
+        <v>0.07910159999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0783837</v>
+        <v>0.0799864</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119615</v>
+        <v>0.123065</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0741378</v>
+        <v>0.08314299999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0789243</v>
+        <v>0.0756439</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127442</v>
+        <v>0.132488</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0789912</v>
+        <v>0.0794074</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0798077</v>
+        <v>0.0767731</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.13735</v>
+        <v>0.137235</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0847835</v>
+        <v>0.09332360000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0810501</v>
+        <v>0.0816254</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150252</v>
+        <v>0.155944</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0926019</v>
+        <v>0.0933653</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08517180000000001</v>
+        <v>0.0825446</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.16806</v>
+        <v>0.168235</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105545</v>
+        <v>0.105744</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09257</v>
+        <v>0.0983266</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194498</v>
+        <v>0.207874</v>
       </c>
       <c r="C35" t="n">
-        <v>0.122879</v>
+        <v>0.123916</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0902323</v>
+        <v>0.100093</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232419</v>
+        <v>0.237623</v>
       </c>
       <c r="C36" t="n">
-        <v>0.147414</v>
+        <v>0.148653</v>
       </c>
       <c r="D36" t="n">
-        <v>0.101993</v>
+        <v>0.113213</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280554</v>
+        <v>0.285015</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190277</v>
+        <v>0.209596</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0771725</v>
+        <v>0.0786369</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103651</v>
+        <v>0.106718</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0691818</v>
+        <v>0.0777669</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07869180000000001</v>
+        <v>0.0788917</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104958</v>
+        <v>0.117067</v>
       </c>
       <c r="C39" t="n">
-        <v>0.06981270000000001</v>
+        <v>0.0715045</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07892059999999999</v>
+        <v>0.08048569999999999</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106936</v>
+        <v>0.109984</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0707523</v>
+        <v>0.07116989999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0709596</v>
+        <v>0.07561229999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.10909</v>
+        <v>0.111223</v>
       </c>
       <c r="C41" t="n">
-        <v>0.071965</v>
+        <v>0.0826542</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0795619</v>
+        <v>0.0756735</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112203</v>
+        <v>0.122541</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0733887</v>
+        <v>0.07935109999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.079975</v>
+        <v>0.0802732</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116574</v>
+        <v>0.120807</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0758798</v>
+        <v>0.0764948</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0803985</v>
+        <v>0.0806292</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122468</v>
+        <v>0.126759</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07835590000000001</v>
+        <v>0.08589819999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08125830000000001</v>
+        <v>0.0772269</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129468</v>
+        <v>0.130765</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0817788</v>
+        <v>0.08200060000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0823917</v>
+        <v>0.0781825</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138627</v>
+        <v>0.14004</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0873588</v>
+        <v>0.08668480000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.07733719999999999</v>
+        <v>0.0892309</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150629</v>
+        <v>0.151948</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0930955</v>
+        <v>0.09341140000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.07943790000000001</v>
+        <v>0.0920019</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167665</v>
+        <v>0.167626</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102561</v>
+        <v>0.103097</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0842483</v>
+        <v>0.0846293</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.194019</v>
+        <v>0.193734</v>
       </c>
       <c r="C49" t="n">
-        <v>0.1162</v>
+        <v>0.116427</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0992471</v>
+        <v>0.105052</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.223596</v>
+        <v>0.23818</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137449</v>
+        <v>0.137299</v>
       </c>
       <c r="D50" t="n">
-        <v>0.098539</v>
+        <v>0.107695</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.269304</v>
+        <v>0.292061</v>
       </c>
       <c r="C51" t="n">
-        <v>0.172756</v>
+        <v>0.173184</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0801191</v>
+        <v>0.0762634</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331864</v>
+        <v>0.337607</v>
       </c>
       <c r="C52" t="n">
-        <v>0.227155</v>
+        <v>0.250354</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0802582</v>
+        <v>0.07507809999999999</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.109075</v>
+        <v>0.114025</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0736972</v>
+        <v>0.08137179999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.08110920000000001</v>
+        <v>0.0845322</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.112225</v>
+        <v>0.111177</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07479570000000001</v>
+        <v>0.08277859999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0733925</v>
+        <v>0.0747444</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11343</v>
+        <v>0.117148</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0757616</v>
+        <v>0.07689360000000001</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0815661</v>
+        <v>0.0830695</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116513</v>
+        <v>0.126942</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0769794</v>
+        <v>0.0833347</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07399699999999999</v>
+        <v>0.08634409999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.119545</v>
+        <v>0.122629</v>
       </c>
       <c r="C57" t="n">
-        <v>0.07894859999999999</v>
+        <v>0.0876871</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0746315</v>
+        <v>0.0845011</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134263</v>
+        <v>0.12853</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0812968</v>
+        <v>0.08285869999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0836707</v>
+        <v>0.0882064</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13045</v>
+        <v>0.134073</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0845578</v>
+        <v>0.0847719</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0769503</v>
+        <v>0.0820384</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.148148</v>
+        <v>0.15218</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0880189</v>
+        <v>0.09515319999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.07821649999999999</v>
+        <v>0.0870214</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150763</v>
+        <v>0.157082</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0942698</v>
+        <v>0.0947809</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0811934</v>
+        <v>0.08761049999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.164744</v>
+        <v>0.175047</v>
       </c>
       <c r="C62" t="n">
-        <v>0.103195</v>
+        <v>0.10704</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08500439999999999</v>
+        <v>0.0942079</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.186879</v>
+        <v>0.197981</v>
       </c>
       <c r="C63" t="n">
-        <v>0.11676</v>
+        <v>0.117527</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0989526</v>
+        <v>0.105795</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.216722</v>
+        <v>0.22137</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136808</v>
+        <v>0.14391</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10743</v>
+        <v>0.108869</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.259949</v>
+        <v>0.280794</v>
       </c>
       <c r="C65" t="n">
-        <v>0.169555</v>
+        <v>0.185928</v>
       </c>
       <c r="D65" t="n">
-        <v>0.121899</v>
+        <v>0.119034</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312789</v>
+        <v>0.328805</v>
       </c>
       <c r="C66" t="n">
-        <v>0.24053</v>
+        <v>0.220114</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0799454</v>
+        <v>0.0817136</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.133033</v>
+        <v>0.124038</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08057739999999999</v>
+        <v>0.092603</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0789007</v>
+        <v>0.0921756</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.122434</v>
+        <v>0.131888</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0868907</v>
+        <v>0.08815480000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.087418</v>
+        <v>0.0883852</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125869</v>
+        <v>0.133448</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0822705</v>
+        <v>0.0836629</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0875393</v>
+        <v>0.0912475</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128208</v>
+        <v>0.136962</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0858912</v>
+        <v>0.08928220000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0934996</v>
+        <v>0.0935327</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131181</v>
+        <v>0.131936</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0860417</v>
+        <v>0.0992138</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09252050000000001</v>
+        <v>0.0934161</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135895</v>
+        <v>0.136919</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08837739999999999</v>
+        <v>0.0949337</v>
       </c>
       <c r="D72" t="n">
-        <v>0.08999119999999999</v>
+        <v>0.0874675</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.141575</v>
+        <v>0.143474</v>
       </c>
       <c r="C73" t="n">
-        <v>0.09190909999999999</v>
+        <v>0.093039</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0840591</v>
+        <v>0.08621470000000001</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150818</v>
+        <v>0.152804</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0956325</v>
+        <v>0.102715</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09479219999999999</v>
+        <v>0.0866002</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.160117</v>
+        <v>0.172622</v>
       </c>
       <c r="C75" t="n">
-        <v>0.101316</v>
+        <v>0.108426</v>
       </c>
       <c r="D75" t="n">
-        <v>0.095786</v>
+        <v>0.0960476</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.180361</v>
+        <v>0.182011</v>
       </c>
       <c r="C76" t="n">
-        <v>0.110166</v>
+        <v>0.11774</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0997851</v>
+        <v>0.0997508</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196044</v>
+        <v>0.208035</v>
       </c>
       <c r="C77" t="n">
-        <v>0.122409</v>
+        <v>0.131095</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0958968</v>
+        <v>0.09825689999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225088</v>
+        <v>0.225768</v>
       </c>
       <c r="C78" t="n">
-        <v>0.140748</v>
+        <v>0.141151</v>
       </c>
       <c r="D78" t="n">
-        <v>0.105011</v>
+        <v>0.114472</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.279065</v>
+        <v>0.28237</v>
       </c>
       <c r="C79" t="n">
-        <v>0.169546</v>
+        <v>0.178886</v>
       </c>
       <c r="D79" t="n">
-        <v>0.126645</v>
+        <v>0.135566</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.320286</v>
+        <v>0.337968</v>
       </c>
       <c r="C80" t="n">
-        <v>0.216649</v>
+        <v>0.217041</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0868776</v>
+        <v>0.09466769999999999</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135229</v>
+        <v>0.1448</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09078269999999999</v>
+        <v>0.09492879999999999</v>
       </c>
       <c r="D81" t="n">
-        <v>0.095294</v>
+        <v>0.0882558</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137041</v>
+        <v>0.146782</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0916037</v>
+        <v>0.09370290000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.08806269999999999</v>
+        <v>0.0888145</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139606</v>
+        <v>0.139918</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0934223</v>
+        <v>0.09503689999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0963</v>
+        <v>0.0968522</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142518</v>
+        <v>0.14261</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09624729999999999</v>
+        <v>0.09695810000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.08982279999999999</v>
+        <v>0.0981659</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146061</v>
+        <v>0.146038</v>
       </c>
       <c r="C85" t="n">
-        <v>0.09964779999999999</v>
+        <v>0.100968</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0989459</v>
+        <v>0.0994495</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.156128</v>
+        <v>0.161187</v>
       </c>
       <c r="C86" t="n">
-        <v>0.103308</v>
+        <v>0.109187</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0924355</v>
+        <v>0.098832</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.15788</v>
+        <v>0.167925</v>
       </c>
       <c r="C87" t="n">
-        <v>0.111332</v>
+        <v>0.111982</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0942601</v>
+        <v>0.102626</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166327</v>
+        <v>0.176565</v>
       </c>
       <c r="C88" t="n">
-        <v>0.115074</v>
+        <v>0.115337</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09790450000000001</v>
+        <v>0.09834859999999999</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178736</v>
+        <v>0.18159</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128445</v>
+        <v>0.128279</v>
       </c>
       <c r="D89" t="n">
-        <v>0.107925</v>
+        <v>0.108885</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194183</v>
+        <v>0.203292</v>
       </c>
       <c r="C90" t="n">
-        <v>0.133959</v>
+        <v>0.135114</v>
       </c>
       <c r="D90" t="n">
-        <v>0.113627</v>
+        <v>0.11547</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215169</v>
+        <v>0.223089</v>
       </c>
       <c r="C91" t="n">
-        <v>0.146858</v>
+        <v>0.15542</v>
       </c>
       <c r="D91" t="n">
-        <v>0.112397</v>
+        <v>0.12505</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.250527</v>
+        <v>0.245289</v>
       </c>
       <c r="C92" t="n">
-        <v>0.16611</v>
+        <v>0.173732</v>
       </c>
       <c r="D92" t="n">
-        <v>0.130378</v>
+        <v>0.123151</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.29631</v>
+        <v>0.296504</v>
       </c>
       <c r="C93" t="n">
-        <v>0.197741</v>
+        <v>0.201175</v>
       </c>
       <c r="D93" t="n">
-        <v>0.142295</v>
+        <v>0.135184</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.350557</v>
+        <v>0.362194</v>
       </c>
       <c r="C94" t="n">
-        <v>0.261423</v>
+        <v>0.253627</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0974739</v>
+        <v>0.0976347</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.15646</v>
+        <v>0.1584</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113112</v>
+        <v>0.113039</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0987869</v>
+        <v>0.111003</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153325</v>
+        <v>0.163183</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115813</v>
+        <v>0.113336</v>
       </c>
       <c r="D96" t="n">
-        <v>0.100904</v>
+        <v>0.102631</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.16658</v>
+        <v>0.166457</v>
       </c>
       <c r="C97" t="n">
-        <v>0.116468</v>
+        <v>0.118637</v>
       </c>
       <c r="D97" t="n">
-        <v>0.111549</v>
+        <v>0.104135</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170754</v>
+        <v>0.160545</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122404</v>
+        <v>0.122052</v>
       </c>
       <c r="D98" t="n">
-        <v>0.105974</v>
+        <v>0.106524</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.165362</v>
+        <v>0.175196</v>
       </c>
       <c r="C99" t="n">
-        <v>0.126425</v>
+        <v>0.125721</v>
       </c>
       <c r="D99" t="n">
-        <v>0.109871</v>
+        <v>0.113711</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170932</v>
+        <v>0.170812</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130615</v>
+        <v>0.130546</v>
       </c>
       <c r="D100" t="n">
-        <v>0.108568</v>
+        <v>0.117861</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.17806</v>
+        <v>0.186426</v>
       </c>
       <c r="C101" t="n">
-        <v>0.136016</v>
+        <v>0.133289</v>
       </c>
       <c r="D101" t="n">
-        <v>0.118439</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.189695</v>
+        <v>0.197012</v>
       </c>
       <c r="C102" t="n">
-        <v>0.140032</v>
+        <v>0.14243</v>
       </c>
       <c r="D102" t="n">
-        <v>0.115726</v>
+        <v>0.123191</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.199152</v>
+        <v>0.197851</v>
       </c>
       <c r="C103" t="n">
-        <v>0.151523</v>
+        <v>0.151446</v>
       </c>
       <c r="D103" t="n">
-        <v>0.120463</v>
+        <v>0.125645</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.21413</v>
+        <v>0.212558</v>
       </c>
       <c r="C104" t="n">
-        <v>0.160234</v>
+        <v>0.164902</v>
       </c>
       <c r="D104" t="n">
-        <v>0.124973</v>
+        <v>0.131068</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.235301</v>
+        <v>0.238697</v>
       </c>
       <c r="C105" t="n">
-        <v>0.179319</v>
+        <v>0.179103</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132127</v>
+        <v>0.132591</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.270877</v>
+        <v>0.264839</v>
       </c>
       <c r="C106" t="n">
-        <v>0.210372</v>
+        <v>0.204679</v>
       </c>
       <c r="D106" t="n">
-        <v>0.147559</v>
+        <v>0.138903</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.315389</v>
+        <v>0.317424</v>
       </c>
       <c r="C107" t="n">
-        <v>0.234303</v>
+        <v>0.229329</v>
       </c>
       <c r="D107" t="n">
-        <v>0.155852</v>
+        <v>0.151924</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.373516</v>
+        <v>0.374633</v>
       </c>
       <c r="C108" t="n">
-        <v>0.299044</v>
+        <v>0.284854</v>
       </c>
       <c r="D108" t="n">
-        <v>0.108188</v>
+        <v>0.115583</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.472853</v>
+        <v>0.490759</v>
       </c>
       <c r="C109" t="n">
-        <v>0.368526</v>
+        <v>0.388252</v>
       </c>
       <c r="D109" t="n">
-        <v>0.109533</v>
+        <v>0.113405</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.173072</v>
+        <v>0.161947</v>
       </c>
       <c r="C110" t="n">
-        <v>0.135016</v>
+        <v>0.134919</v>
       </c>
       <c r="D110" t="n">
-        <v>0.117901</v>
+        <v>0.11796</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.169097</v>
+        <v>0.17407</v>
       </c>
       <c r="C111" t="n">
-        <v>0.139324</v>
+        <v>0.138283</v>
       </c>
       <c r="D111" t="n">
-        <v>0.112726</v>
+        <v>0.119797</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.177423</v>
+        <v>0.168738</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143501</v>
+        <v>0.143226</v>
       </c>
       <c r="D112" t="n">
-        <v>0.114216</v>
+        <v>0.121128</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173628</v>
+        <v>0.173506</v>
       </c>
       <c r="C113" t="n">
-        <v>0.148208</v>
+        <v>0.147836</v>
       </c>
       <c r="D113" t="n">
-        <v>0.123801</v>
+        <v>0.116353</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180487</v>
+        <v>0.179522</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153847</v>
+        <v>0.153825</v>
       </c>
       <c r="D114" t="n">
-        <v>0.119367</v>
+        <v>0.118737</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.190322</v>
+        <v>0.187862</v>
       </c>
       <c r="C115" t="n">
-        <v>0.160585</v>
+        <v>0.159946</v>
       </c>
       <c r="D115" t="n">
-        <v>0.129763</v>
+        <v>0.128545</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.21122</v>
+        <v>0.198164</v>
       </c>
       <c r="C116" t="n">
-        <v>0.168823</v>
+        <v>0.168906</v>
       </c>
       <c r="D116" t="n">
-        <v>0.12801</v>
+        <v>0.132536</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21466</v>
+        <v>0.211811</v>
       </c>
       <c r="C117" t="n">
-        <v>0.177755</v>
+        <v>0.177359</v>
       </c>
       <c r="D117" t="n">
-        <v>0.133642</v>
+        <v>0.138261</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.241734</v>
+        <v>0.230525</v>
       </c>
       <c r="C118" t="n">
-        <v>0.191157</v>
+        <v>0.189441</v>
       </c>
       <c r="D118" t="n">
-        <v>0.149076</v>
+        <v>0.144933</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.265862</v>
+        <v>0.258912</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205015</v>
+        <v>0.205216</v>
       </c>
       <c r="D119" t="n">
-        <v>0.157982</v>
+        <v>0.15435</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.297332</v>
+        <v>0.285633</v>
       </c>
       <c r="C120" t="n">
-        <v>0.22769</v>
+        <v>0.226892</v>
       </c>
       <c r="D120" t="n">
-        <v>0.168205</v>
+        <v>0.164822</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.336459</v>
+        <v>0.33339</v>
       </c>
       <c r="C121" t="n">
-        <v>0.264226</v>
+        <v>0.258083</v>
       </c>
       <c r="D121" t="n">
-        <v>0.183956</v>
+        <v>0.173366</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.401365</v>
+        <v>0.403636</v>
       </c>
       <c r="C122" t="n">
-        <v>0.319824</v>
+        <v>0.320134</v>
       </c>
       <c r="D122" t="n">
-        <v>0.199641</v>
+        <v>0.205958</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492925</v>
+        <v>0.494865</v>
       </c>
       <c r="C123" t="n">
-        <v>0.390482</v>
+        <v>0.404782</v>
       </c>
       <c r="D123" t="n">
-        <v>0.1338</v>
+        <v>0.140112</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.19878</v>
+        <v>0.200209</v>
       </c>
       <c r="C124" t="n">
-        <v>0.159337</v>
+        <v>0.16148</v>
       </c>
       <c r="D124" t="n">
-        <v>0.143573</v>
+        <v>0.142031</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.193212</v>
+        <v>0.204401</v>
       </c>
       <c r="C125" t="n">
-        <v>0.16947</v>
+        <v>0.167077</v>
       </c>
       <c r="D125" t="n">
-        <v>0.137747</v>
+        <v>0.146502</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.20795</v>
+        <v>0.197255</v>
       </c>
       <c r="C126" t="n">
-        <v>0.176258</v>
+        <v>0.168945</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142326</v>
+        <v>0.141207</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201987</v>
+        <v>0.206502</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174076</v>
+        <v>0.174993</v>
       </c>
       <c r="D127" t="n">
-        <v>0.149872</v>
+        <v>0.147816</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.209151</v>
+        <v>0.210613</v>
       </c>
       <c r="C128" t="n">
-        <v>0.182088</v>
+        <v>0.177735</v>
       </c>
       <c r="D128" t="n">
-        <v>0.157419</v>
+        <v>0.152056</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.218234</v>
+        <v>0.224913</v>
       </c>
       <c r="C129" t="n">
-        <v>0.186669</v>
+        <v>0.188669</v>
       </c>
       <c r="D129" t="n">
-        <v>0.149576</v>
+        <v>0.147599</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.225638</v>
+        <v>0.229602</v>
       </c>
       <c r="C130" t="n">
-        <v>0.192098</v>
+        <v>0.199515</v>
       </c>
       <c r="D130" t="n">
-        <v>0.15968</v>
+        <v>0.163236</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.250856</v>
+        <v>0.237223</v>
       </c>
       <c r="C131" t="n">
-        <v>0.2007</v>
+        <v>0.202776</v>
       </c>
       <c r="D131" t="n">
-        <v>0.163307</v>
+        <v>0.159238</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.256859</v>
+        <v>0.254232</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210701</v>
+        <v>0.210312</v>
       </c>
       <c r="D132" t="n">
-        <v>0.167703</v>
+        <v>0.168775</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286397</v>
+        <v>0.279983</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226404</v>
+        <v>0.226378</v>
       </c>
       <c r="D133" t="n">
-        <v>0.166457</v>
+        <v>0.175046</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.310604</v>
+        <v>0.315452</v>
       </c>
       <c r="C134" t="n">
-        <v>0.247608</v>
+        <v>0.248383</v>
       </c>
       <c r="D134" t="n">
-        <v>0.184775</v>
+        <v>0.192726</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.35514</v>
+        <v>0.35008</v>
       </c>
       <c r="C135" t="n">
-        <v>0.277011</v>
+        <v>0.27798</v>
       </c>
       <c r="D135" t="n">
-        <v>0.200077</v>
+        <v>0.192966</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411535</v>
+        <v>0.420894</v>
       </c>
       <c r="C136" t="n">
-        <v>0.324539</v>
+        <v>0.334079</v>
       </c>
       <c r="D136" t="n">
-        <v>0.211484</v>
+        <v>0.214304</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.511928</v>
+        <v>0.512606</v>
       </c>
       <c r="C137" t="n">
-        <v>0.418418</v>
+        <v>0.417269</v>
       </c>
       <c r="D137" t="n">
-        <v>0.263277</v>
+        <v>0.258614</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.341932</v>
+        <v>0.330405</v>
       </c>
       <c r="C138" t="n">
-        <v>0.272436</v>
+        <v>0.271999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.268061</v>
+        <v>0.259693</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.348883</v>
+        <v>0.33456</v>
       </c>
       <c r="C139" t="n">
-        <v>0.276432</v>
+        <v>0.276721</v>
       </c>
       <c r="D139" t="n">
-        <v>0.262049</v>
+        <v>0.257842</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.345266</v>
+        <v>0.340268</v>
       </c>
       <c r="C140" t="n">
-        <v>0.279363</v>
+        <v>0.277747</v>
       </c>
       <c r="D140" t="n">
-        <v>0.266537</v>
+        <v>0.268734</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346579</v>
+        <v>0.346017</v>
       </c>
       <c r="C141" t="n">
-        <v>0.28404</v>
+        <v>0.281401</v>
       </c>
       <c r="D141" t="n">
-        <v>0.267497</v>
+        <v>0.272879</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.362171</v>
+        <v>0.355078</v>
       </c>
       <c r="C142" t="n">
-        <v>0.288391</v>
+        <v>0.286198</v>
       </c>
       <c r="D142" t="n">
-        <v>0.270128</v>
+        <v>0.274745</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.36548</v>
+        <v>0.361547</v>
       </c>
       <c r="C143" t="n">
-        <v>0.294051</v>
+        <v>0.288851</v>
       </c>
       <c r="D143" t="n">
-        <v>0.272012</v>
+        <v>0.276973</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103243</v>
+        <v>0.10322</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612926</v>
+        <v>0.0612928</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0747854</v>
+        <v>0.0746135</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111132</v>
+        <v>0.111196</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0621977</v>
+        <v>0.06260540000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0748313</v>
+        <v>0.0745314</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122816</v>
+        <v>0.123038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0644575</v>
+        <v>0.064277</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0737174</v>
+        <v>0.07374219999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142918</v>
+        <v>0.142949</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0732926</v>
+        <v>0.0733544</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0747082</v>
+        <v>0.0744615</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170461</v>
+        <v>0.170617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09011470000000001</v>
+        <v>0.090582</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0693589</v>
+        <v>0.0695451</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2057</v>
+        <v>0.205789</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112334</v>
+        <v>0.111917</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0734885</v>
+        <v>0.08028490000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252709</v>
+        <v>0.252924</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152458</v>
+        <v>0.152537</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0955613</v>
+        <v>0.0958106</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.305833</v>
+        <v>0.306253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.191416</v>
+        <v>0.190523</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07695490000000001</v>
+        <v>0.07474020000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09641089999999999</v>
+        <v>0.0951063</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0636258</v>
+        <v>0.06317059999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0749766</v>
+        <v>0.06775399999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09817670000000001</v>
+        <v>0.0961822</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06293319999999999</v>
+        <v>0.0628143</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0678525</v>
+        <v>0.07499699999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09747740000000001</v>
+        <v>0.0978747</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06372949999999999</v>
+        <v>0.0622918</v>
       </c>
       <c r="D12" t="n">
-        <v>0.075114</v>
+        <v>0.0679631</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100172</v>
+        <v>0.10018</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06302339999999999</v>
+        <v>0.0624706</v>
       </c>
       <c r="D13" t="n">
-        <v>0.075207</v>
+        <v>0.07520259999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102778</v>
+        <v>0.102906</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06410490000000001</v>
+        <v>0.06306390000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0718336</v>
+        <v>0.07544919999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.109979</v>
+        <v>0.107119</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0680055</v>
+        <v>0.0632824</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0791404</v>
+        <v>0.07583139999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.114433</v>
+        <v>0.112566</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06862210000000001</v>
+        <v>0.06642670000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0794125</v>
+        <v>0.0761749</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.129779</v>
+        <v>0.121811</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0752232</v>
+        <v>0.07697909999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.079317</v>
+        <v>0.0765641</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.139874</v>
+        <v>0.133201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0852401</v>
+        <v>0.080013</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0812673</v>
+        <v>0.0770236</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.154739</v>
+        <v>0.150357</v>
       </c>
       <c r="C19" t="n">
-        <v>0.100745</v>
+        <v>0.0912511</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0835055</v>
+        <v>0.0809284</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.176087</v>
+        <v>0.171651</v>
       </c>
       <c r="C20" t="n">
-        <v>0.10551</v>
+        <v>0.106066</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0877894</v>
+        <v>0.085692</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.208511</v>
+        <v>0.199321</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121919</v>
+        <v>0.121348</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0969218</v>
+        <v>0.0949035</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243558</v>
+        <v>0.236785</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155782</v>
+        <v>0.155234</v>
       </c>
       <c r="D22" t="n">
-        <v>0.113307</v>
+        <v>0.111247</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290038</v>
+        <v>0.287138</v>
       </c>
       <c r="C23" t="n">
-        <v>0.217062</v>
+        <v>0.196148</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0740408</v>
+        <v>0.0770902</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105432</v>
+        <v>0.10056</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07040390000000001</v>
+        <v>0.0664611</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0729945</v>
+        <v>0.07285560000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.108338</v>
+        <v>0.101788</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0672555</v>
+        <v>0.0661173</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0711847</v>
+        <v>0.07361479999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.10411</v>
+        <v>0.103477</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0703348</v>
+        <v>0.0669575</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0790076</v>
+        <v>0.0697744</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.110745</v>
+        <v>0.105563</v>
       </c>
       <c r="C27" t="n">
-        <v>0.076171</v>
+        <v>0.0673494</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0781178</v>
+        <v>0.07000339999999999</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109489</v>
+        <v>0.108904</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0690479</v>
+        <v>0.0688874</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0813966</v>
+        <v>0.07819669999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1148</v>
+        <v>0.11351</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07910159999999999</v>
+        <v>0.070648</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0799864</v>
+        <v>0.077821</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.123065</v>
+        <v>0.119655</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08314299999999999</v>
+        <v>0.0741764</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0756439</v>
+        <v>0.0711398</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.132488</v>
+        <v>0.127296</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0794074</v>
+        <v>0.0789749</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0767731</v>
+        <v>0.0798802</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137235</v>
+        <v>0.137385</v>
       </c>
       <c r="C32" t="n">
-        <v>0.09332360000000001</v>
+        <v>0.0849881</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0816254</v>
+        <v>0.0813685</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.155944</v>
+        <v>0.150274</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0933653</v>
+        <v>0.09280869999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0825446</v>
+        <v>0.0778161</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168235</v>
+        <v>0.168569</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105744</v>
+        <v>0.105562</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0983266</v>
+        <v>0.0914244</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.207874</v>
+        <v>0.195267</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123916</v>
+        <v>0.123047</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100093</v>
+        <v>0.100171</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.237623</v>
+        <v>0.232759</v>
       </c>
       <c r="C36" t="n">
-        <v>0.148653</v>
+        <v>0.14791</v>
       </c>
       <c r="D36" t="n">
-        <v>0.113213</v>
+        <v>0.112001</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285015</v>
+        <v>0.285562</v>
       </c>
       <c r="C37" t="n">
-        <v>0.209596</v>
+        <v>0.190531</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0786369</v>
+        <v>0.07028089999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.106718</v>
+        <v>0.103527</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0777669</v>
+        <v>0.06914770000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0788917</v>
+        <v>0.07045609999999999</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.117067</v>
+        <v>0.104892</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0715045</v>
+        <v>0.0698666</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08048569999999999</v>
+        <v>0.0788393</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.109984</v>
+        <v>0.108083</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07116989999999999</v>
+        <v>0.07076730000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07561229999999999</v>
+        <v>0.0763924</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111223</v>
+        <v>0.108927</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0826542</v>
+        <v>0.0719756</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0756735</v>
+        <v>0.0713396</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.122541</v>
+        <v>0.112181</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07935109999999999</v>
+        <v>0.0733856</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0802732</v>
+        <v>0.07168919999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.120807</v>
+        <v>0.116427</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0764948</v>
+        <v>0.0759435</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0806292</v>
+        <v>0.072145</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.126759</v>
+        <v>0.122393</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08589819999999999</v>
+        <v>0.07830239999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0772269</v>
+        <v>0.0813033</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130765</v>
+        <v>0.129137</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08200060000000001</v>
+        <v>0.08169269999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0781825</v>
+        <v>0.0813846</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.14004</v>
+        <v>0.138351</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08668480000000001</v>
+        <v>0.0864553</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0892309</v>
+        <v>0.0839989</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151948</v>
+        <v>0.150663</v>
       </c>
       <c r="C47" t="n">
-        <v>0.09341140000000001</v>
+        <v>0.0930086</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0920019</v>
+        <v>0.0795636</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167626</v>
+        <v>0.167911</v>
       </c>
       <c r="C48" t="n">
-        <v>0.103097</v>
+        <v>0.102558</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0846293</v>
+        <v>0.084192</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.193734</v>
+        <v>0.191858</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116427</v>
+        <v>0.116308</v>
       </c>
       <c r="D49" t="n">
-        <v>0.105052</v>
+        <v>0.09881760000000001</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23818</v>
+        <v>0.22366</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137299</v>
+        <v>0.137762</v>
       </c>
       <c r="D50" t="n">
-        <v>0.107695</v>
+        <v>0.105742</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.292061</v>
+        <v>0.268997</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173184</v>
+        <v>0.173063</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0762634</v>
+        <v>0.07253039999999999</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3948,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.337607</v>
+        <v>0.321417</v>
       </c>
       <c r="C52" t="n">
-        <v>0.250354</v>
+        <v>0.228331</v>
       </c>
       <c r="D52" t="n">
-        <v>0.07507809999999999</v>
+        <v>0.0808822</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3962,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.114025</v>
+        <v>0.108774</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08137179999999999</v>
+        <v>0.0735475</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0845322</v>
+        <v>0.0807403</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3976,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.111177</v>
+        <v>0.11029</v>
       </c>
       <c r="C54" t="n">
-        <v>0.08277859999999999</v>
+        <v>0.0744674</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0747444</v>
+        <v>0.08110340000000001</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3990,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117148</v>
+        <v>0.112459</v>
       </c>
       <c r="C55" t="n">
-        <v>0.07689360000000001</v>
+        <v>0.0753842</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0830695</v>
+        <v>0.0731749</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4004,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.126942</v>
+        <v>0.11536</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0833347</v>
+        <v>0.07698380000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.08634409999999999</v>
+        <v>0.0738418</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4018,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.122629</v>
+        <v>0.11944</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0876871</v>
+        <v>0.07869279999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0845011</v>
+        <v>0.0826495</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4032,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12853</v>
+        <v>0.123926</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08285869999999999</v>
+        <v>0.0809042</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0882064</v>
+        <v>0.0753624</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4046,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.134073</v>
+        <v>0.141349</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0847719</v>
+        <v>0.0840834</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0820384</v>
+        <v>0.0845315</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4060,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.15218</v>
+        <v>0.138682</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09515319999999999</v>
+        <v>0.0882811</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0870214</v>
+        <v>0.0786703</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4074,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.157082</v>
+        <v>0.160145</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0947809</v>
+        <v>0.0946781</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08761049999999999</v>
+        <v>0.090781</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4088,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.175047</v>
+        <v>0.164656</v>
       </c>
       <c r="C62" t="n">
-        <v>0.10704</v>
+        <v>0.103891</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0942079</v>
+        <v>0.08566319999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4102,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.197981</v>
+        <v>0.187193</v>
       </c>
       <c r="C63" t="n">
-        <v>0.117527</v>
+        <v>0.116351</v>
       </c>
       <c r="D63" t="n">
-        <v>0.105795</v>
+        <v>0.0905806</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4116,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.22137</v>
+        <v>0.219518</v>
       </c>
       <c r="C64" t="n">
-        <v>0.14391</v>
+        <v>0.136652</v>
       </c>
       <c r="D64" t="n">
-        <v>0.108869</v>
+        <v>0.09844260000000001</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4130,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.280794</v>
+        <v>0.261043</v>
       </c>
       <c r="C65" t="n">
-        <v>0.185928</v>
+        <v>0.169502</v>
       </c>
       <c r="D65" t="n">
-        <v>0.119034</v>
+        <v>0.111811</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4144,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.328805</v>
+        <v>0.312446</v>
       </c>
       <c r="C66" t="n">
-        <v>0.220114</v>
+        <v>0.22019</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0817136</v>
+        <v>0.0780994</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4158,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.124038</v>
+        <v>0.12067</v>
       </c>
       <c r="C67" t="n">
-        <v>0.092603</v>
+        <v>0.08647050000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0921756</v>
+        <v>0.07915609999999999</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4172,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.131888</v>
+        <v>0.123148</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08815480000000001</v>
+        <v>0.08449139999999999</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0883852</v>
+        <v>0.07985589999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4186,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.133448</v>
+        <v>0.124638</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0836629</v>
+        <v>0.082617</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0912475</v>
+        <v>0.07998520000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4200,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.136962</v>
+        <v>0.127767</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08928220000000001</v>
+        <v>0.0838318</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0935327</v>
+        <v>0.08829090000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4214,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131936</v>
+        <v>0.131995</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0992138</v>
+        <v>0.08981260000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0934161</v>
+        <v>0.0941586</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4228,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.136919</v>
+        <v>0.145548</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0949337</v>
+        <v>0.09519130000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0874675</v>
+        <v>0.09047819999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4242,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143474</v>
+        <v>0.142635</v>
       </c>
       <c r="C73" t="n">
-        <v>0.093039</v>
+        <v>0.091679</v>
       </c>
       <c r="D73" t="n">
-        <v>0.08621470000000001</v>
+        <v>0.08947579999999999</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4256,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152804</v>
+        <v>0.159836</v>
       </c>
       <c r="C74" t="n">
-        <v>0.102715</v>
+        <v>0.0956975</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0866002</v>
+        <v>0.08521670000000001</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4270,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.172622</v>
+        <v>0.160574</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108426</v>
+        <v>0.101641</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0960476</v>
+        <v>0.0959096</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4284,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.182011</v>
+        <v>0.175604</v>
       </c>
       <c r="C76" t="n">
-        <v>0.11774</v>
+        <v>0.117747</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0997508</v>
+        <v>0.100057</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4298,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.208035</v>
+        <v>0.196322</v>
       </c>
       <c r="C77" t="n">
-        <v>0.131095</v>
+        <v>0.122396</v>
       </c>
       <c r="D77" t="n">
-        <v>0.09825689999999999</v>
+        <v>0.0975418</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4312,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225768</v>
+        <v>0.224441</v>
       </c>
       <c r="C78" t="n">
-        <v>0.141151</v>
+        <v>0.140917</v>
       </c>
       <c r="D78" t="n">
-        <v>0.114472</v>
+        <v>0.112557</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4326,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.28237</v>
+        <v>0.27059</v>
       </c>
       <c r="C79" t="n">
-        <v>0.178886</v>
+        <v>0.169209</v>
       </c>
       <c r="D79" t="n">
-        <v>0.135566</v>
+        <v>0.116987</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4340,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.337968</v>
+        <v>0.320672</v>
       </c>
       <c r="C80" t="n">
-        <v>0.217041</v>
+        <v>0.216331</v>
       </c>
       <c r="D80" t="n">
-        <v>0.09466769999999999</v>
+        <v>0.0869834</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4354,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.1448</v>
+        <v>0.135371</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09492879999999999</v>
+        <v>0.09078020000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0882558</v>
+        <v>0.0948108</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4368,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146782</v>
+        <v>0.136689</v>
       </c>
       <c r="C82" t="n">
-        <v>0.09370290000000001</v>
+        <v>0.0923944</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0888145</v>
+        <v>0.0902869</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4382,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139918</v>
+        <v>0.138941</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09503689999999999</v>
+        <v>0.0941997</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0968522</v>
+        <v>0.09605229999999999</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4396,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14261</v>
+        <v>0.147834</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09695810000000001</v>
+        <v>0.0990832</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0981659</v>
+        <v>0.0893545</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4410,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146038</v>
+        <v>0.155848</v>
       </c>
       <c r="C85" t="n">
-        <v>0.100968</v>
+        <v>0.0992384</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0994495</v>
+        <v>0.0979805</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4424,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161187</v>
+        <v>0.151347</v>
       </c>
       <c r="C86" t="n">
-        <v>0.109187</v>
+        <v>0.10271</v>
       </c>
       <c r="D86" t="n">
-        <v>0.098832</v>
+        <v>0.0984978</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4438,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.167925</v>
+        <v>0.156704</v>
       </c>
       <c r="C87" t="n">
-        <v>0.111982</v>
+        <v>0.10829</v>
       </c>
       <c r="D87" t="n">
-        <v>0.102626</v>
+        <v>0.101449</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4452,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.176565</v>
+        <v>0.166108</v>
       </c>
       <c r="C88" t="n">
-        <v>0.115337</v>
+        <v>0.120385</v>
       </c>
       <c r="D88" t="n">
-        <v>0.09834859999999999</v>
+        <v>0.0971235</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4466,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.18159</v>
+        <v>0.18033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.128279</v>
+        <v>0.125325</v>
       </c>
       <c r="D89" t="n">
-        <v>0.108885</v>
+        <v>0.101112</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4480,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.203292</v>
+        <v>0.204466</v>
       </c>
       <c r="C90" t="n">
-        <v>0.135114</v>
+        <v>0.134317</v>
       </c>
       <c r="D90" t="n">
-        <v>0.11547</v>
+        <v>0.105903</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4494,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.223089</v>
+        <v>0.213057</v>
       </c>
       <c r="C91" t="n">
-        <v>0.15542</v>
+        <v>0.146695</v>
       </c>
       <c r="D91" t="n">
-        <v>0.12505</v>
+        <v>0.121324</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4508,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245289</v>
+        <v>0.24476</v>
       </c>
       <c r="C92" t="n">
-        <v>0.173732</v>
+        <v>0.166978</v>
       </c>
       <c r="D92" t="n">
-        <v>0.123151</v>
+        <v>0.130522</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4522,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.296504</v>
+        <v>0.298423</v>
       </c>
       <c r="C93" t="n">
-        <v>0.201175</v>
+        <v>0.207935</v>
       </c>
       <c r="D93" t="n">
-        <v>0.135184</v>
+        <v>0.135242</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4536,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362194</v>
+        <v>0.364254</v>
       </c>
       <c r="C94" t="n">
-        <v>0.253627</v>
+        <v>0.262746</v>
       </c>
       <c r="D94" t="n">
-        <v>0.0976347</v>
+        <v>0.105734</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4550,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.1584</v>
+        <v>0.149426</v>
       </c>
       <c r="C95" t="n">
-        <v>0.113039</v>
+        <v>0.113219</v>
       </c>
       <c r="D95" t="n">
-        <v>0.111003</v>
+        <v>0.106083</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4564,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163183</v>
+        <v>0.162511</v>
       </c>
       <c r="C96" t="n">
-        <v>0.113336</v>
+        <v>0.115567</v>
       </c>
       <c r="D96" t="n">
-        <v>0.102631</v>
+        <v>0.109223</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4578,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.166457</v>
+        <v>0.164909</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118637</v>
+        <v>0.11858</v>
       </c>
       <c r="D97" t="n">
-        <v>0.104135</v>
+        <v>0.1043</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4592,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160545</v>
+        <v>0.159835</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122052</v>
+        <v>0.122372</v>
       </c>
       <c r="D98" t="n">
-        <v>0.106524</v>
+        <v>0.105681</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4606,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.175196</v>
+        <v>0.164545</v>
       </c>
       <c r="C99" t="n">
-        <v>0.125721</v>
+        <v>0.122776</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113711</v>
+        <v>0.115054</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4620,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170812</v>
+        <v>0.170742</v>
       </c>
       <c r="C100" t="n">
-        <v>0.130546</v>
+        <v>0.131362</v>
       </c>
       <c r="D100" t="n">
-        <v>0.117861</v>
+        <v>0.11715</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4634,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.186426</v>
+        <v>0.182852</v>
       </c>
       <c r="C101" t="n">
-        <v>0.133289</v>
+        <v>0.135794</v>
       </c>
       <c r="D101" t="n">
-        <v>0.12</v>
+        <v>0.119468</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4648,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.197012</v>
+        <v>0.197694</v>
       </c>
       <c r="C102" t="n">
-        <v>0.14243</v>
+        <v>0.14267</v>
       </c>
       <c r="D102" t="n">
-        <v>0.123191</v>
+        <v>0.115693</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4662,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197851</v>
+        <v>0.198486</v>
       </c>
       <c r="C103" t="n">
-        <v>0.151446</v>
+        <v>0.148004</v>
       </c>
       <c r="D103" t="n">
-        <v>0.125645</v>
+        <v>0.124924</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4676,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212558</v>
+        <v>0.212538</v>
       </c>
       <c r="C104" t="n">
-        <v>0.164902</v>
+        <v>0.163193</v>
       </c>
       <c r="D104" t="n">
-        <v>0.131068</v>
+        <v>0.136441</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4690,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.238697</v>
+        <v>0.233207</v>
       </c>
       <c r="C105" t="n">
-        <v>0.179103</v>
+        <v>0.175158</v>
       </c>
       <c r="D105" t="n">
-        <v>0.132591</v>
+        <v>0.142437</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4704,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.264839</v>
+        <v>0.263389</v>
       </c>
       <c r="C106" t="n">
-        <v>0.204679</v>
+        <v>0.200957</v>
       </c>
       <c r="D106" t="n">
-        <v>0.138903</v>
+        <v>0.142053</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4718,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317424</v>
+        <v>0.309018</v>
       </c>
       <c r="C107" t="n">
-        <v>0.229329</v>
+        <v>0.244742</v>
       </c>
       <c r="D107" t="n">
-        <v>0.151924</v>
+        <v>0.157499</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4732,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.374633</v>
+        <v>0.375444</v>
       </c>
       <c r="C108" t="n">
-        <v>0.284854</v>
+        <v>0.299577</v>
       </c>
       <c r="D108" t="n">
-        <v>0.115583</v>
+        <v>0.115267</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4746,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.490759</v>
+        <v>0.475862</v>
       </c>
       <c r="C109" t="n">
-        <v>0.388252</v>
+        <v>0.368674</v>
       </c>
       <c r="D109" t="n">
-        <v>0.113405</v>
+        <v>0.109625</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4760,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161947</v>
+        <v>0.171191</v>
       </c>
       <c r="C110" t="n">
-        <v>0.134919</v>
+        <v>0.134767</v>
       </c>
       <c r="D110" t="n">
-        <v>0.11796</v>
+        <v>0.110915</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4774,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17407</v>
+        <v>0.164565</v>
       </c>
       <c r="C111" t="n">
-        <v>0.138283</v>
+        <v>0.139428</v>
       </c>
       <c r="D111" t="n">
-        <v>0.119797</v>
+        <v>0.112631</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4788,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168738</v>
+        <v>0.172049</v>
       </c>
       <c r="C112" t="n">
-        <v>0.143226</v>
+        <v>0.143839</v>
       </c>
       <c r="D112" t="n">
-        <v>0.121128</v>
+        <v>0.121086</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4802,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.173506</v>
+        <v>0.179418</v>
       </c>
       <c r="C113" t="n">
-        <v>0.147836</v>
+        <v>0.14767</v>
       </c>
       <c r="D113" t="n">
-        <v>0.116353</v>
+        <v>0.123298</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4816,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.179522</v>
+        <v>0.179389</v>
       </c>
       <c r="C114" t="n">
-        <v>0.153825</v>
+        <v>0.153431</v>
       </c>
       <c r="D114" t="n">
-        <v>0.118737</v>
+        <v>0.118584</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4830,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.187862</v>
+        <v>0.187922</v>
       </c>
       <c r="C115" t="n">
-        <v>0.159946</v>
+        <v>0.163451</v>
       </c>
       <c r="D115" t="n">
-        <v>0.128545</v>
+        <v>0.128735</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4844,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198164</v>
+        <v>0.198327</v>
       </c>
       <c r="C116" t="n">
-        <v>0.168906</v>
+        <v>0.173455</v>
       </c>
       <c r="D116" t="n">
-        <v>0.132536</v>
+        <v>0.126002</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4858,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211811</v>
+        <v>0.21199</v>
       </c>
       <c r="C117" t="n">
-        <v>0.177359</v>
+        <v>0.176543</v>
       </c>
       <c r="D117" t="n">
-        <v>0.138261</v>
+        <v>0.138504</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4872,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.230525</v>
+        <v>0.231198</v>
       </c>
       <c r="C118" t="n">
-        <v>0.189441</v>
+        <v>0.188671</v>
       </c>
       <c r="D118" t="n">
-        <v>0.144933</v>
+        <v>0.137828</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4886,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.258912</v>
+        <v>0.259808</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205216</v>
+        <v>0.205153</v>
       </c>
       <c r="D119" t="n">
-        <v>0.15435</v>
+        <v>0.154261</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4900,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.285633</v>
+        <v>0.28446</v>
       </c>
       <c r="C120" t="n">
-        <v>0.226892</v>
+        <v>0.225771</v>
       </c>
       <c r="D120" t="n">
-        <v>0.164822</v>
+        <v>0.165902</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4914,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.33339</v>
+        <v>0.329651</v>
       </c>
       <c r="C121" t="n">
-        <v>0.258083</v>
+        <v>0.258121</v>
       </c>
       <c r="D121" t="n">
-        <v>0.173366</v>
+        <v>0.182062</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4928,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403636</v>
+        <v>0.410161</v>
       </c>
       <c r="C122" t="n">
-        <v>0.320134</v>
+        <v>0.3076</v>
       </c>
       <c r="D122" t="n">
-        <v>0.205958</v>
+        <v>0.196981</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4942,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494865</v>
+        <v>0.509628</v>
       </c>
       <c r="C123" t="n">
-        <v>0.404782</v>
+        <v>0.390105</v>
       </c>
       <c r="D123" t="n">
-        <v>0.140112</v>
+        <v>0.139685</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4956,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.200209</v>
+        <v>0.189484</v>
       </c>
       <c r="C124" t="n">
-        <v>0.16148</v>
+        <v>0.161691</v>
       </c>
       <c r="D124" t="n">
-        <v>0.142031</v>
+        <v>0.139925</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4970,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.204401</v>
+        <v>0.204162</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167077</v>
+        <v>0.1688</v>
       </c>
       <c r="D125" t="n">
-        <v>0.146502</v>
+        <v>0.141327</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4984,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.197255</v>
+        <v>0.203236</v>
       </c>
       <c r="C126" t="n">
-        <v>0.168945</v>
+        <v>0.171407</v>
       </c>
       <c r="D126" t="n">
-        <v>0.141207</v>
+        <v>0.143383</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4998,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.206502</v>
+        <v>0.21274</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174993</v>
+        <v>0.173309</v>
       </c>
       <c r="D127" t="n">
-        <v>0.147816</v>
+        <v>0.149188</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5012,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.210613</v>
+        <v>0.208553</v>
       </c>
       <c r="C128" t="n">
-        <v>0.177735</v>
+        <v>0.176912</v>
       </c>
       <c r="D128" t="n">
-        <v>0.152056</v>
+        <v>0.152508</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5026,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.224913</v>
+        <v>0.217432</v>
       </c>
       <c r="C129" t="n">
-        <v>0.188669</v>
+        <v>0.184429</v>
       </c>
       <c r="D129" t="n">
-        <v>0.147599</v>
+        <v>0.150363</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5040,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229602</v>
+        <v>0.233283</v>
       </c>
       <c r="C130" t="n">
-        <v>0.199515</v>
+        <v>0.190685</v>
       </c>
       <c r="D130" t="n">
-        <v>0.163236</v>
+        <v>0.154746</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5054,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.237223</v>
+        <v>0.239004</v>
       </c>
       <c r="C131" t="n">
-        <v>0.202776</v>
+        <v>0.20068</v>
       </c>
       <c r="D131" t="n">
-        <v>0.159238</v>
+        <v>0.162566</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5068,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.254232</v>
+        <v>0.25239</v>
       </c>
       <c r="C132" t="n">
-        <v>0.210312</v>
+        <v>0.216007</v>
       </c>
       <c r="D132" t="n">
-        <v>0.168775</v>
+        <v>0.166474</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5082,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279983</v>
+        <v>0.286158</v>
       </c>
       <c r="C133" t="n">
-        <v>0.226378</v>
+        <v>0.225165</v>
       </c>
       <c r="D133" t="n">
-        <v>0.175046</v>
+        <v>0.178301</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5096,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.315452</v>
+        <v>0.309678</v>
       </c>
       <c r="C134" t="n">
-        <v>0.248383</v>
+        <v>0.2587</v>
       </c>
       <c r="D134" t="n">
-        <v>0.192726</v>
+        <v>0.184951</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5110,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.35008</v>
+        <v>0.351927</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27798</v>
+        <v>0.275266</v>
       </c>
       <c r="D135" t="n">
-        <v>0.192966</v>
+        <v>0.191802</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5124,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.420894</v>
+        <v>0.410335</v>
       </c>
       <c r="C136" t="n">
-        <v>0.334079</v>
+        <v>0.326405</v>
       </c>
       <c r="D136" t="n">
-        <v>0.214304</v>
+        <v>0.219612</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5138,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.512606</v>
+        <v>0.507669</v>
       </c>
       <c r="C137" t="n">
-        <v>0.417269</v>
+        <v>0.414994</v>
       </c>
       <c r="D137" t="n">
-        <v>0.258614</v>
+        <v>0.257944</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5152,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.330405</v>
+        <v>0.336045</v>
       </c>
       <c r="C138" t="n">
-        <v>0.271999</v>
+        <v>0.273524</v>
       </c>
       <c r="D138" t="n">
-        <v>0.259693</v>
+        <v>0.265882</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5166,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.33456</v>
+        <v>0.340065</v>
       </c>
       <c r="C139" t="n">
-        <v>0.276721</v>
+        <v>0.274444</v>
       </c>
       <c r="D139" t="n">
-        <v>0.257842</v>
+        <v>0.270739</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5180,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340268</v>
+        <v>0.34183</v>
       </c>
       <c r="C140" t="n">
-        <v>0.277747</v>
+        <v>0.277587</v>
       </c>
       <c r="D140" t="n">
-        <v>0.268734</v>
+        <v>0.271654</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5194,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346017</v>
+        <v>0.345949</v>
       </c>
       <c r="C141" t="n">
-        <v>0.281401</v>
+        <v>0.280794</v>
       </c>
       <c r="D141" t="n">
-        <v>0.272879</v>
+        <v>0.272</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5208,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.355078</v>
+        <v>0.354696</v>
       </c>
       <c r="C142" t="n">
-        <v>0.286198</v>
+        <v>0.286748</v>
       </c>
       <c r="D142" t="n">
-        <v>0.274745</v>
+        <v>0.275921</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5222,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.361547</v>
+        <v>0.359168</v>
       </c>
       <c r="C143" t="n">
-        <v>0.288851</v>
+        <v>0.292579</v>
       </c>
       <c r="D143" t="n">
-        <v>0.276973</v>
+        <v>0.275174</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3272,13 +3272,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102216</v>
+        <v>0.10197</v>
       </c>
       <c r="C2" t="n">
-        <v>0.102432</v>
+        <v>0.102345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0720533</v>
+        <v>0.0693622</v>
       </c>
     </row>
     <row r="3">
@@ -3286,13 +3286,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.109644</v>
+        <v>0.109992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.104959</v>
+        <v>0.104985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0713684</v>
+        <v>0.06960189999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3300,13 +3300,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.120153</v>
+        <v>0.120174</v>
       </c>
       <c r="C4" t="n">
-        <v>0.110112</v>
+        <v>0.110257</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0720213</v>
+        <v>0.0702054</v>
       </c>
     </row>
     <row r="5">
@@ -3314,13 +3314,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.139868</v>
+        <v>0.13971</v>
       </c>
       <c r="C5" t="n">
-        <v>0.117214</v>
+        <v>0.117195</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0719825</v>
+        <v>0.0685477</v>
       </c>
     </row>
     <row r="6">
@@ -3328,13 +3328,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.164191</v>
+        <v>0.164031</v>
       </c>
       <c r="C6" t="n">
-        <v>0.130002</v>
+        <v>0.130262</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0736998</v>
+        <v>0.0701686</v>
       </c>
     </row>
     <row r="7">
@@ -3342,13 +3342,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.199404</v>
+        <v>0.199614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.148742</v>
+        <v>0.148486</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0769846</v>
+        <v>0.0737284</v>
       </c>
     </row>
     <row r="8">
@@ -3356,13 +3356,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248599</v>
+        <v>0.248571</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0947701</v>
+        <v>0.0935643</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0915034</v>
+        <v>0.0876416</v>
       </c>
     </row>
     <row r="9">
@@ -3370,13 +3370,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3014</v>
+        <v>0.301012</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09539209999999999</v>
+        <v>0.09387719999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07201</v>
+        <v>0.0686959</v>
       </c>
     </row>
     <row r="10">
@@ -3384,13 +3384,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0953103</v>
+        <v>0.0951308</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09486459999999999</v>
+        <v>0.0941636</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0721456</v>
+        <v>0.06866029999999999</v>
       </c>
     </row>
     <row r="11">
@@ -3398,13 +3398,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0963798</v>
+        <v>0.09627239999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09527090000000001</v>
+        <v>0.0949874</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0721237</v>
+        <v>0.06906660000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3412,13 +3412,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.097632</v>
+        <v>0.0979597</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0961414</v>
+        <v>0.0960173</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0723683</v>
+        <v>0.0691046</v>
       </c>
     </row>
     <row r="13">
@@ -3426,13 +3426,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0996406</v>
+        <v>0.103001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0978383</v>
+        <v>0.0971484</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0726991</v>
+        <v>0.069303</v>
       </c>
     </row>
     <row r="14">
@@ -3440,13 +3440,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102267</v>
+        <v>0.103284</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0989413</v>
+        <v>0.0995682</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0728316</v>
+        <v>0.0697154</v>
       </c>
     </row>
     <row r="15">
@@ -3454,13 +3454,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106915</v>
+        <v>0.106687</v>
       </c>
       <c r="C15" t="n">
-        <v>0.101078</v>
+        <v>0.100764</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0728694</v>
+        <v>0.06999619999999999</v>
       </c>
     </row>
     <row r="16">
@@ -3468,13 +3468,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111973</v>
+        <v>0.112432</v>
       </c>
       <c r="C16" t="n">
-        <v>0.104485</v>
+        <v>0.103255</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0731059</v>
+        <v>0.0704176</v>
       </c>
     </row>
     <row r="17">
@@ -3482,13 +3482,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.119869</v>
+        <v>0.120483</v>
       </c>
       <c r="C17" t="n">
-        <v>0.108139</v>
+        <v>0.10791</v>
       </c>
       <c r="D17" t="n">
-        <v>0.07351870000000001</v>
+        <v>0.0707786</v>
       </c>
     </row>
     <row r="18">
@@ -3496,13 +3496,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.131369</v>
+        <v>0.131767</v>
       </c>
       <c r="C18" t="n">
-        <v>0.114839</v>
+        <v>0.114052</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0737225</v>
+        <v>0.0710493</v>
       </c>
     </row>
     <row r="19">
@@ -3510,13 +3510,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.146633</v>
+        <v>0.147022</v>
       </c>
       <c r="C19" t="n">
-        <v>0.123381</v>
+        <v>0.124308</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0748983</v>
+        <v>0.0717933</v>
       </c>
     </row>
     <row r="20">
@@ -3524,13 +3524,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.16832</v>
+        <v>0.168721</v>
       </c>
       <c r="C20" t="n">
-        <v>0.135984</v>
+        <v>0.135955</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0781245</v>
+        <v>0.0752314</v>
       </c>
     </row>
     <row r="21">
@@ -3538,13 +3538,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195716</v>
+        <v>0.196125</v>
       </c>
       <c r="C21" t="n">
-        <v>0.152193</v>
+        <v>0.151854</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0875705</v>
+        <v>0.08338370000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3552,13 +3552,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2339</v>
+        <v>0.236853</v>
       </c>
       <c r="C22" t="n">
-        <v>0.103952</v>
+        <v>0.102943</v>
       </c>
       <c r="D22" t="n">
-        <v>0.10006</v>
+        <v>0.0973106</v>
       </c>
     </row>
     <row r="23">
@@ -3566,13 +3566,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.288446</v>
+        <v>0.288769</v>
       </c>
       <c r="C23" t="n">
-        <v>0.105115</v>
+        <v>0.10391</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0739616</v>
+        <v>0.07080980000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3580,13 +3580,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100811</v>
+        <v>0.100671</v>
       </c>
       <c r="C24" t="n">
-        <v>0.105244</v>
+        <v>0.105254</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07410609999999999</v>
+        <v>0.0709673</v>
       </c>
     </row>
     <row r="25">
@@ -3594,13 +3594,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102063</v>
+        <v>0.10194</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1067</v>
+        <v>0.106664</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0743859</v>
+        <v>0.07126010000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3608,13 +3608,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.10354</v>
+        <v>0.103444</v>
       </c>
       <c r="C26" t="n">
-        <v>0.106635</v>
+        <v>0.107924</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0748414</v>
+        <v>0.0714519</v>
       </c>
     </row>
     <row r="27">
@@ -3622,13 +3622,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105879</v>
+        <v>0.105733</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108044</v>
+        <v>0.114556</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0747739</v>
+        <v>0.0717275</v>
       </c>
     </row>
     <row r="28">
@@ -3636,13 +3636,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108756</v>
+        <v>0.108581</v>
       </c>
       <c r="C28" t="n">
-        <v>0.120254</v>
+        <v>0.112153</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0751653</v>
+        <v>0.07204140000000001</v>
       </c>
     </row>
     <row r="29">
@@ -3650,13 +3650,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113017</v>
+        <v>0.112872</v>
       </c>
       <c r="C29" t="n">
-        <v>0.111998</v>
+        <v>0.111782</v>
       </c>
       <c r="D29" t="n">
-        <v>0.07535550000000001</v>
+        <v>0.0723683</v>
       </c>
     </row>
     <row r="30">
@@ -3664,13 +3664,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118947</v>
+        <v>0.118818</v>
       </c>
       <c r="C30" t="n">
-        <v>0.114379</v>
+        <v>0.114121</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0759252</v>
+        <v>0.07271130000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3678,13 +3678,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126099</v>
+        <v>0.126022</v>
       </c>
       <c r="C31" t="n">
-        <v>0.119094</v>
+        <v>0.118345</v>
       </c>
       <c r="D31" t="n">
-        <v>0.076297</v>
+        <v>0.0731593</v>
       </c>
     </row>
     <row r="32">
@@ -3692,13 +3692,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.135957</v>
+        <v>0.135748</v>
       </c>
       <c r="C32" t="n">
-        <v>0.125078</v>
+        <v>0.133931</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0773903</v>
+        <v>0.0742638</v>
       </c>
     </row>
     <row r="33">
@@ -3706,13 +3706,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.148386</v>
+        <v>0.153061</v>
       </c>
       <c r="C33" t="n">
-        <v>0.133047</v>
+        <v>0.132577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0792636</v>
+        <v>0.0761207</v>
       </c>
     </row>
     <row r="34">
@@ -3720,13 +3720,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.167026</v>
+        <v>0.167097</v>
       </c>
       <c r="C34" t="n">
-        <v>0.144333</v>
+        <v>0.143407</v>
       </c>
       <c r="D34" t="n">
-        <v>0.08402709999999999</v>
+        <v>0.0808078</v>
       </c>
     </row>
     <row r="35">
@@ -3734,13 +3734,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.192716</v>
+        <v>0.202363</v>
       </c>
       <c r="C35" t="n">
-        <v>0.160985</v>
+        <v>0.162298</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0905623</v>
+        <v>0.0874833</v>
       </c>
     </row>
     <row r="36">
@@ -3748,13 +3748,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228171</v>
+        <v>0.238567</v>
       </c>
       <c r="C36" t="n">
-        <v>0.180213</v>
+        <v>0.178964</v>
       </c>
       <c r="D36" t="n">
-        <v>0.100815</v>
+        <v>0.0979732</v>
       </c>
     </row>
     <row r="37">
@@ -3762,13 +3762,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.290231</v>
+        <v>0.277612</v>
       </c>
       <c r="C37" t="n">
-        <v>0.114373</v>
+        <v>0.114263</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07493569999999999</v>
+        <v>0.0716354</v>
       </c>
     </row>
     <row r="38">
@@ -3776,13 +3776,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103275</v>
+        <v>0.103067</v>
       </c>
       <c r="C38" t="n">
-        <v>0.115062</v>
+        <v>0.11509</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07553799999999999</v>
+        <v>0.0720045</v>
       </c>
     </row>
     <row r="39">
@@ -3790,13 +3790,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104649</v>
+        <v>0.104625</v>
       </c>
       <c r="C39" t="n">
-        <v>0.115921</v>
+        <v>0.117261</v>
       </c>
       <c r="D39" t="n">
-        <v>0.07538590000000001</v>
+        <v>0.0722245</v>
       </c>
     </row>
     <row r="40">
@@ -3804,13 +3804,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106237</v>
+        <v>0.106031</v>
       </c>
       <c r="C40" t="n">
-        <v>0.116881</v>
+        <v>0.116797</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07575369999999999</v>
+        <v>0.0724847</v>
       </c>
     </row>
     <row r="41">
@@ -3818,13 +3818,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108609</v>
+        <v>0.10911</v>
       </c>
       <c r="C41" t="n">
-        <v>0.11823</v>
+        <v>0.118087</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0760546</v>
+        <v>0.07283299999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3832,13 +3832,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.111862</v>
+        <v>0.111677</v>
       </c>
       <c r="C42" t="n">
-        <v>0.119953</v>
+        <v>0.119552</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0773659</v>
+        <v>0.0730783</v>
       </c>
     </row>
     <row r="43">
@@ -3846,13 +3846,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.115969</v>
+        <v>0.118743</v>
       </c>
       <c r="C43" t="n">
-        <v>0.123937</v>
+        <v>0.122126</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0767563</v>
+        <v>0.0735806</v>
       </c>
     </row>
     <row r="44">
@@ -3860,13 +3860,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.121054</v>
+        <v>0.121067</v>
       </c>
       <c r="C44" t="n">
-        <v>0.133846</v>
+        <v>0.124817</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0774123</v>
+        <v>0.0742213</v>
       </c>
     </row>
     <row r="45">
@@ -3874,13 +3874,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.127961</v>
+        <v>0.128884</v>
       </c>
       <c r="C45" t="n">
-        <v>0.129691</v>
+        <v>0.129806</v>
       </c>
       <c r="D45" t="n">
-        <v>0.07847469999999999</v>
+        <v>0.0751743</v>
       </c>
     </row>
     <row r="46">
@@ -3888,13 +3888,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137523</v>
+        <v>0.137267</v>
       </c>
       <c r="C46" t="n">
-        <v>0.135342</v>
+        <v>0.135264</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0798036</v>
+        <v>0.07672859999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3902,13 +3902,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149971</v>
+        <v>0.149948</v>
       </c>
       <c r="C47" t="n">
-        <v>0.143899</v>
+        <v>0.143548</v>
       </c>
       <c r="D47" t="n">
-        <v>0.08247699999999999</v>
+        <v>0.07938199999999999</v>
       </c>
     </row>
     <row r="48">
@@ -3916,13 +3916,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165729</v>
+        <v>0.167303</v>
       </c>
       <c r="C48" t="n">
-        <v>0.154288</v>
+        <v>0.154172</v>
       </c>
       <c r="D48" t="n">
-        <v>0.08620750000000001</v>
+        <v>0.0830589</v>
       </c>
     </row>
     <row r="49">
@@ -3930,13 +3930,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.186998</v>
+        <v>0.187963</v>
       </c>
       <c r="C49" t="n">
-        <v>0.16788</v>
+        <v>0.167957</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0918667</v>
+        <v>0.0887463</v>
       </c>
     </row>
     <row r="50">
@@ -3944,13 +3944,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.217792</v>
+        <v>0.218019</v>
       </c>
       <c r="C50" t="n">
-        <v>0.193842</v>
+        <v>0.186464</v>
       </c>
       <c r="D50" t="n">
-        <v>0.101148</v>
+        <v>0.0990738</v>
       </c>
     </row>
     <row r="51">
@@ -3958,13 +3958,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.265045</v>
+        <v>0.26355</v>
       </c>
       <c r="C51" t="n">
-        <v>0.118474</v>
+        <v>0.118665</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0776196</v>
+        <v>0.0737312</v>
       </c>
     </row>
     <row r="52">
@@ -3972,13 +3972,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318793</v>
+        <v>0.330903</v>
       </c>
       <c r="C52" t="n">
-        <v>0.119355</v>
+        <v>0.119254</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0771246</v>
+        <v>0.0747927</v>
       </c>
     </row>
     <row r="53">
@@ -3986,13 +3986,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.10841</v>
+        <v>0.109211</v>
       </c>
       <c r="C53" t="n">
-        <v>0.120044</v>
+        <v>0.122192</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0770825</v>
+        <v>0.0747241</v>
       </c>
     </row>
     <row r="54">
@@ -4000,13 +4000,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110627</v>
+        <v>0.110048</v>
       </c>
       <c r="C54" t="n">
-        <v>0.122265</v>
+        <v>0.120888</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0776756</v>
+        <v>0.07546559999999999</v>
       </c>
     </row>
     <row r="55">
@@ -4014,13 +4014,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.112507</v>
+        <v>0.112006</v>
       </c>
       <c r="C55" t="n">
-        <v>0.122307</v>
+        <v>0.122261</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0778674</v>
+        <v>0.0753989</v>
       </c>
     </row>
     <row r="56">
@@ -4028,13 +4028,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115011</v>
+        <v>0.125824</v>
       </c>
       <c r="C56" t="n">
-        <v>0.124061</v>
+        <v>0.123962</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07835590000000001</v>
+        <v>0.0755405</v>
       </c>
     </row>
     <row r="57">
@@ -4042,13 +4042,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118325</v>
+        <v>0.124059</v>
       </c>
       <c r="C57" t="n">
-        <v>0.127065</v>
+        <v>0.126457</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0788595</v>
+        <v>0.07634059999999999</v>
       </c>
     </row>
     <row r="58">
@@ -4056,13 +4056,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.123173</v>
+        <v>0.133944</v>
       </c>
       <c r="C58" t="n">
-        <v>0.129381</v>
+        <v>0.130755</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0795284</v>
+        <v>0.0768901</v>
       </c>
     </row>
     <row r="59">
@@ -4070,13 +4070,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13046</v>
+        <v>0.129019</v>
       </c>
       <c r="C59" t="n">
-        <v>0.133596</v>
+        <v>0.136571</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0807678</v>
+        <v>0.0784281</v>
       </c>
     </row>
     <row r="60">
@@ -4084,13 +4084,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.137479</v>
+        <v>0.139348</v>
       </c>
       <c r="C60" t="n">
-        <v>0.142789</v>
+        <v>0.139486</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08209370000000001</v>
+        <v>0.07982300000000001</v>
       </c>
     </row>
     <row r="61">
@@ -4098,13 +4098,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149094</v>
+        <v>0.15684</v>
       </c>
       <c r="C61" t="n">
-        <v>0.147245</v>
+        <v>0.14824</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0845915</v>
+        <v>0.08192339999999999</v>
       </c>
     </row>
     <row r="62">
@@ -4112,13 +4112,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.164223</v>
+        <v>0.163324</v>
       </c>
       <c r="C62" t="n">
-        <v>0.158649</v>
+        <v>0.160729</v>
       </c>
       <c r="D62" t="n">
-        <v>0.08781170000000001</v>
+        <v>0.08482629999999999</v>
       </c>
     </row>
     <row r="63">
@@ -4126,13 +4126,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187956</v>
+        <v>0.201088</v>
       </c>
       <c r="C63" t="n">
-        <v>0.17968</v>
+        <v>0.17798</v>
       </c>
       <c r="D63" t="n">
-        <v>0.09318129999999999</v>
+        <v>0.0903019</v>
       </c>
     </row>
     <row r="64">
@@ -4140,13 +4140,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.215031</v>
+        <v>0.217077</v>
       </c>
       <c r="C64" t="n">
-        <v>0.200605</v>
+        <v>0.20667</v>
       </c>
       <c r="D64" t="n">
-        <v>0.101754</v>
+        <v>0.0989543</v>
       </c>
     </row>
     <row r="65">
@@ -4154,13 +4154,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263111</v>
+        <v>0.259066</v>
       </c>
       <c r="C65" t="n">
-        <v>0.125285</v>
+        <v>0.120226</v>
       </c>
       <c r="D65" t="n">
-        <v>0.116026</v>
+        <v>0.113885</v>
       </c>
     </row>
     <row r="66">
@@ -4168,13 +4168,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.313223</v>
+        <v>0.330438</v>
       </c>
       <c r="C66" t="n">
-        <v>0.120803</v>
+        <v>0.120794</v>
       </c>
       <c r="D66" t="n">
-        <v>0.08411159999999999</v>
+        <v>0.0804899</v>
       </c>
     </row>
     <row r="67">
@@ -4182,13 +4182,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.129506</v>
+        <v>0.121583</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12566</v>
+        <v>0.123618</v>
       </c>
       <c r="D67" t="n">
-        <v>0.08528760000000001</v>
+        <v>0.0809034</v>
       </c>
     </row>
     <row r="68">
@@ -4196,13 +4196,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.125783</v>
+        <v>0.132279</v>
       </c>
       <c r="C68" t="n">
-        <v>0.122797</v>
+        <v>0.127236</v>
       </c>
       <c r="D68" t="n">
-        <v>0.08658</v>
+        <v>0.08237559999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4210,13 +4210,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.124355</v>
+        <v>0.135446</v>
       </c>
       <c r="C69" t="n">
-        <v>0.123816</v>
+        <v>0.129753</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0901904</v>
+        <v>0.08164200000000001</v>
       </c>
     </row>
     <row r="70">
@@ -4224,13 +4224,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.131126</v>
+        <v>0.127505</v>
       </c>
       <c r="C70" t="n">
-        <v>0.134526</v>
+        <v>0.125664</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0870759</v>
+        <v>0.0822426</v>
       </c>
     </row>
     <row r="71">
@@ -4238,13 +4238,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132547</v>
+        <v>0.13064</v>
       </c>
       <c r="C71" t="n">
-        <v>0.128004</v>
+        <v>0.128076</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0878795</v>
+        <v>0.0844574</v>
       </c>
     </row>
     <row r="72">
@@ -4252,13 +4252,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135736</v>
+        <v>0.145307</v>
       </c>
       <c r="C72" t="n">
-        <v>0.130976</v>
+        <v>0.139698</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0926054</v>
+        <v>0.0835312</v>
       </c>
     </row>
     <row r="73">
@@ -4266,13 +4266,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142362</v>
+        <v>0.140845</v>
       </c>
       <c r="C73" t="n">
-        <v>0.134939</v>
+        <v>0.134975</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0905116</v>
+        <v>0.0860291</v>
       </c>
     </row>
     <row r="74">
@@ -4280,13 +4280,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150352</v>
+        <v>0.152424</v>
       </c>
       <c r="C74" t="n">
-        <v>0.152322</v>
+        <v>0.14211</v>
       </c>
       <c r="D74" t="n">
-        <v>0.09109059999999999</v>
+        <v>0.0862831</v>
       </c>
     </row>
     <row r="75">
@@ -4294,13 +4294,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.163627</v>
+        <v>0.16002</v>
       </c>
       <c r="C75" t="n">
-        <v>0.153711</v>
+        <v>0.158052</v>
       </c>
       <c r="D75" t="n">
-        <v>0.0930103</v>
+        <v>0.0892549</v>
       </c>
     </row>
     <row r="76">
@@ -4308,13 +4308,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.173925</v>
+        <v>0.176021</v>
       </c>
       <c r="C76" t="n">
-        <v>0.157337</v>
+        <v>0.162615</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0952114</v>
+        <v>0.0921376</v>
       </c>
     </row>
     <row r="77">
@@ -4322,13 +4322,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194629</v>
+        <v>0.194438</v>
       </c>
       <c r="C77" t="n">
-        <v>0.172921</v>
+        <v>0.175845</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0994039</v>
+        <v>0.09827959999999999</v>
       </c>
     </row>
     <row r="78">
@@ -4336,13 +4336,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.224474</v>
+        <v>0.238129</v>
       </c>
       <c r="C78" t="n">
-        <v>0.188743</v>
+        <v>0.196894</v>
       </c>
       <c r="D78" t="n">
-        <v>0.108428</v>
+        <v>0.104168</v>
       </c>
     </row>
     <row r="79">
@@ -4350,13 +4350,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.264048</v>
+        <v>0.262042</v>
       </c>
       <c r="C79" t="n">
-        <v>0.129448</v>
+        <v>0.139741</v>
       </c>
       <c r="D79" t="n">
-        <v>0.119928</v>
+        <v>0.117942</v>
       </c>
     </row>
     <row r="80">
@@ -4364,13 +4364,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.325849</v>
+        <v>0.345902</v>
       </c>
       <c r="C80" t="n">
-        <v>0.126841</v>
+        <v>0.134019</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0980887</v>
+        <v>0.0905349</v>
       </c>
     </row>
     <row r="81">
@@ -4378,13 +4378,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.144875</v>
+        <v>0.135737</v>
       </c>
       <c r="C81" t="n">
-        <v>0.134784</v>
+        <v>0.132303</v>
       </c>
       <c r="D81" t="n">
-        <v>0.0944798</v>
+        <v>0.09302000000000001</v>
       </c>
     </row>
     <row r="82">
@@ -4392,13 +4392,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137125</v>
+        <v>0.137149</v>
       </c>
       <c r="C82" t="n">
-        <v>0.129988</v>
+        <v>0.139367</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0945453</v>
+        <v>0.0896107</v>
       </c>
     </row>
     <row r="83">
@@ -4406,13 +4406,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139511</v>
+        <v>0.15028</v>
       </c>
       <c r="C83" t="n">
-        <v>0.135115</v>
+        <v>0.140367</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0956065</v>
+        <v>0.0904079</v>
       </c>
     </row>
     <row r="84">
@@ -4420,13 +4420,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142414</v>
+        <v>0.1427</v>
       </c>
       <c r="C84" t="n">
-        <v>0.137688</v>
+        <v>0.132231</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0976939</v>
+        <v>0.0927359</v>
       </c>
     </row>
     <row r="85">
@@ -4434,13 +4434,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146301</v>
+        <v>0.146852</v>
       </c>
       <c r="C85" t="n">
-        <v>0.140244</v>
+        <v>0.141406</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0997176</v>
+        <v>0.09393609999999999</v>
       </c>
     </row>
     <row r="86">
@@ -4448,13 +4448,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.151669</v>
+        <v>0.162054</v>
       </c>
       <c r="C86" t="n">
-        <v>0.153651</v>
+        <v>0.149466</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0980529</v>
+        <v>0.09570629999999999</v>
       </c>
     </row>
     <row r="87">
@@ -4462,13 +4462,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.156964</v>
+        <v>0.168335</v>
       </c>
       <c r="C87" t="n">
-        <v>0.142361</v>
+        <v>0.141526</v>
       </c>
       <c r="D87" t="n">
-        <v>0.100455</v>
+        <v>0.0960612</v>
       </c>
     </row>
     <row r="88">
@@ -4476,13 +4476,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.165552</v>
+        <v>0.169652</v>
       </c>
       <c r="C88" t="n">
-        <v>0.154071</v>
+        <v>0.148187</v>
       </c>
       <c r="D88" t="n">
-        <v>0.103111</v>
+        <v>0.104201</v>
       </c>
     </row>
     <row r="89">
@@ -4490,13 +4490,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.176654</v>
+        <v>0.188295</v>
       </c>
       <c r="C89" t="n">
-        <v>0.164697</v>
+        <v>0.172533</v>
       </c>
       <c r="D89" t="n">
-        <v>0.105857</v>
+        <v>0.102852</v>
       </c>
     </row>
     <row r="90">
@@ -4504,13 +4504,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.192741</v>
+        <v>0.203662</v>
       </c>
       <c r="C90" t="n">
-        <v>0.183363</v>
+        <v>0.164388</v>
       </c>
       <c r="D90" t="n">
-        <v>0.109775</v>
+        <v>0.112201</v>
       </c>
     </row>
     <row r="91">
@@ -4518,13 +4518,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215412</v>
+        <v>0.22931</v>
       </c>
       <c r="C91" t="n">
-        <v>0.189943</v>
+        <v>0.18343</v>
       </c>
       <c r="D91" t="n">
-        <v>0.115994</v>
+        <v>0.115188</v>
       </c>
     </row>
     <row r="92">
@@ -4532,13 +4532,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245598</v>
+        <v>0.25534</v>
       </c>
       <c r="C92" t="n">
-        <v>0.20857</v>
+        <v>0.202519</v>
       </c>
       <c r="D92" t="n">
-        <v>0.124683</v>
+        <v>0.120769</v>
       </c>
     </row>
     <row r="93">
@@ -4546,13 +4546,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.285591</v>
+        <v>0.295308</v>
       </c>
       <c r="C93" t="n">
-        <v>0.22652</v>
+        <v>0.226073</v>
       </c>
       <c r="D93" t="n">
-        <v>0.138073</v>
+        <v>0.132618</v>
       </c>
     </row>
     <row r="94">
@@ -4560,13 +4560,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.345262</v>
+        <v>0.360322</v>
       </c>
       <c r="C94" t="n">
-        <v>0.273855</v>
+        <v>0.27035</v>
       </c>
       <c r="D94" t="n">
-        <v>0.104919</v>
+        <v>0.102017</v>
       </c>
     </row>
     <row r="95">
@@ -4574,13 +4574,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149834</v>
+        <v>0.149957</v>
       </c>
       <c r="C95" t="n">
-        <v>0.268363</v>
+        <v>0.267627</v>
       </c>
       <c r="D95" t="n">
-        <v>0.107903</v>
+        <v>0.102301</v>
       </c>
     </row>
     <row r="96">
@@ -4588,13 +4588,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153037</v>
+        <v>0.153354</v>
       </c>
       <c r="C96" t="n">
-        <v>0.268546</v>
+        <v>0.27293</v>
       </c>
       <c r="D96" t="n">
-        <v>0.108553</v>
+        <v>0.103181</v>
       </c>
     </row>
     <row r="97">
@@ -4602,13 +4602,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.16663</v>
+        <v>0.166707</v>
       </c>
       <c r="C97" t="n">
-        <v>0.268201</v>
+        <v>0.271213</v>
       </c>
       <c r="D97" t="n">
-        <v>0.114171</v>
+        <v>0.105076</v>
       </c>
     </row>
     <row r="98">
@@ -4616,13 +4616,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170451</v>
+        <v>0.160106</v>
       </c>
       <c r="C98" t="n">
-        <v>0.271226</v>
+        <v>0.265519</v>
       </c>
       <c r="D98" t="n">
-        <v>0.111958</v>
+        <v>0.105364</v>
       </c>
     </row>
     <row r="99">
@@ -4630,13 +4630,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164547</v>
+        <v>0.175444</v>
       </c>
       <c r="C99" t="n">
-        <v>0.271296</v>
+        <v>0.285711</v>
       </c>
       <c r="D99" t="n">
-        <v>0.113869</v>
+        <v>0.109064</v>
       </c>
     </row>
     <row r="100">
@@ -4644,13 +4644,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170267</v>
+        <v>0.172921</v>
       </c>
       <c r="C100" t="n">
-        <v>0.278121</v>
+        <v>0.28282</v>
       </c>
       <c r="D100" t="n">
-        <v>0.115953</v>
+        <v>0.109775</v>
       </c>
     </row>
     <row r="101">
@@ -4658,13 +4658,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.177631</v>
+        <v>0.177805</v>
       </c>
       <c r="C101" t="n">
-        <v>0.279844</v>
+        <v>0.280103</v>
       </c>
       <c r="D101" t="n">
-        <v>0.118302</v>
+        <v>0.113997</v>
       </c>
     </row>
     <row r="102">
@@ -4672,13 +4672,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186323</v>
+        <v>0.197059</v>
       </c>
       <c r="C102" t="n">
-        <v>0.284988</v>
+        <v>0.28846</v>
       </c>
       <c r="D102" t="n">
-        <v>0.121291</v>
+        <v>0.116086</v>
       </c>
     </row>
     <row r="103">
@@ -4686,13 +4686,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.197003</v>
+        <v>0.208583</v>
       </c>
       <c r="C103" t="n">
-        <v>0.29257</v>
+        <v>0.300112</v>
       </c>
       <c r="D103" t="n">
-        <v>0.124014</v>
+        <v>0.119233</v>
       </c>
     </row>
     <row r="104">
@@ -4700,13 +4700,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212157</v>
+        <v>0.21359</v>
       </c>
       <c r="C104" t="n">
-        <v>0.296</v>
+        <v>0.300183</v>
       </c>
       <c r="D104" t="n">
-        <v>0.133144</v>
+        <v>0.123393</v>
       </c>
     </row>
     <row r="105">
@@ -4714,13 +4714,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.2332</v>
+        <v>0.233654</v>
       </c>
       <c r="C105" t="n">
-        <v>0.313119</v>
+        <v>0.307622</v>
       </c>
       <c r="D105" t="n">
-        <v>0.135527</v>
+        <v>0.127007</v>
       </c>
     </row>
     <row r="106">
@@ -4728,13 +4728,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263794</v>
+        <v>0.272881</v>
       </c>
       <c r="C106" t="n">
-        <v>0.321852</v>
+        <v>0.318221</v>
       </c>
       <c r="D106" t="n">
-        <v>0.141556</v>
+        <v>0.138032</v>
       </c>
     </row>
     <row r="107">
@@ -4742,13 +4742,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.311609</v>
+        <v>0.324088</v>
       </c>
       <c r="C107" t="n">
-        <v>0.349434</v>
+        <v>0.35069</v>
       </c>
       <c r="D107" t="n">
-        <v>0.156689</v>
+        <v>0.15073</v>
       </c>
     </row>
     <row r="108">
@@ -4756,13 +4756,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.384824</v>
+        <v>0.395638</v>
       </c>
       <c r="C108" t="n">
-        <v>0.418194</v>
+        <v>0.427273</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114739</v>
+        <v>0.109086</v>
       </c>
     </row>
     <row r="109">
@@ -4770,13 +4770,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470864</v>
+        <v>0.482892</v>
       </c>
       <c r="C109" t="n">
-        <v>0.419036</v>
+        <v>0.428281</v>
       </c>
       <c r="D109" t="n">
-        <v>0.116136</v>
+        <v>0.115875</v>
       </c>
     </row>
     <row r="110">
@@ -4784,13 +4784,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.168941</v>
+        <v>0.161809</v>
       </c>
       <c r="C110" t="n">
-        <v>0.422878</v>
+        <v>0.429684</v>
       </c>
       <c r="D110" t="n">
-        <v>0.117445</v>
+        <v>0.118054</v>
       </c>
     </row>
     <row r="111">
@@ -4798,13 +4798,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.165092</v>
+        <v>0.175871</v>
       </c>
       <c r="C111" t="n">
-        <v>0.421501</v>
+        <v>0.429224</v>
       </c>
       <c r="D111" t="n">
-        <v>0.118746</v>
+        <v>0.113608</v>
       </c>
     </row>
     <row r="112">
@@ -4812,13 +4812,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.169918</v>
+        <v>0.169025</v>
       </c>
       <c r="C112" t="n">
-        <v>0.421485</v>
+        <v>0.431296</v>
       </c>
       <c r="D112" t="n">
-        <v>0.120223</v>
+        <v>0.11502</v>
       </c>
     </row>
     <row r="113">
@@ -4826,13 +4826,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.180767</v>
+        <v>0.173779</v>
       </c>
       <c r="C113" t="n">
-        <v>0.431141</v>
+        <v>0.437306</v>
       </c>
       <c r="D113" t="n">
-        <v>0.122356</v>
+        <v>0.117348</v>
       </c>
     </row>
     <row r="114">
@@ -4840,13 +4840,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180253</v>
+        <v>0.180481</v>
       </c>
       <c r="C114" t="n">
-        <v>0.428812</v>
+        <v>0.434675</v>
       </c>
       <c r="D114" t="n">
-        <v>0.124337</v>
+        <v>0.121606</v>
       </c>
     </row>
     <row r="115">
@@ -4854,13 +4854,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.188536</v>
+        <v>0.188187</v>
       </c>
       <c r="C115" t="n">
-        <v>0.429626</v>
+        <v>0.43776</v>
       </c>
       <c r="D115" t="n">
-        <v>0.12742</v>
+        <v>0.122446</v>
       </c>
     </row>
     <row r="116">
@@ -4868,13 +4868,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.198972</v>
+        <v>0.210334</v>
       </c>
       <c r="C116" t="n">
-        <v>0.433226</v>
+        <v>0.441973</v>
       </c>
       <c r="D116" t="n">
-        <v>0.130742</v>
+        <v>0.130386</v>
       </c>
     </row>
     <row r="117">
@@ -4882,13 +4882,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.211977</v>
+        <v>0.222874</v>
       </c>
       <c r="C117" t="n">
-        <v>0.438474</v>
+        <v>0.447075</v>
       </c>
       <c r="D117" t="n">
-        <v>0.135449</v>
+        <v>0.130148</v>
       </c>
     </row>
     <row r="118">
@@ -4896,13 +4896,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.22974</v>
+        <v>0.24082</v>
       </c>
       <c r="C118" t="n">
-        <v>0.445821</v>
+        <v>0.454311</v>
       </c>
       <c r="D118" t="n">
-        <v>0.140057</v>
+        <v>0.135668</v>
       </c>
     </row>
     <row r="119">
@@ -4910,13 +4910,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252906</v>
+        <v>0.263588</v>
       </c>
       <c r="C119" t="n">
-        <v>0.454345</v>
+        <v>0.465856</v>
       </c>
       <c r="D119" t="n">
-        <v>0.150896</v>
+        <v>0.143605</v>
       </c>
     </row>
     <row r="120">
@@ -4924,13 +4924,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.285113</v>
+        <v>0.295701</v>
       </c>
       <c r="C120" t="n">
-        <v>0.467934</v>
+        <v>0.477718</v>
       </c>
       <c r="D120" t="n">
-        <v>0.15833</v>
+        <v>0.154974</v>
       </c>
     </row>
     <row r="121">
@@ -4938,13 +4938,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333458</v>
+        <v>0.342406</v>
       </c>
       <c r="C121" t="n">
-        <v>0.487246</v>
+        <v>0.5000520000000001</v>
       </c>
       <c r="D121" t="n">
-        <v>0.173834</v>
+        <v>0.170703</v>
       </c>
     </row>
     <row r="122">
@@ -4952,13 +4952,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.395455</v>
+        <v>0.405894</v>
       </c>
       <c r="C122" t="n">
-        <v>0.472398</v>
+        <v>0.473712</v>
       </c>
       <c r="D122" t="n">
-        <v>0.206292</v>
+        <v>0.203563</v>
       </c>
     </row>
     <row r="123">
@@ -4966,13 +4966,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.493685</v>
+        <v>0.503686</v>
       </c>
       <c r="C123" t="n">
-        <v>0.473297</v>
+        <v>0.474121</v>
       </c>
       <c r="D123" t="n">
-        <v>0.139783</v>
+        <v>0.136707</v>
       </c>
     </row>
     <row r="124">
@@ -4980,13 +4980,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.188016</v>
+        <v>0.186812</v>
       </c>
       <c r="C124" t="n">
-        <v>0.473711</v>
+        <v>0.474945</v>
       </c>
       <c r="D124" t="n">
-        <v>0.141848</v>
+        <v>0.138694</v>
       </c>
     </row>
     <row r="125">
@@ -4994,13 +4994,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.202724</v>
+        <v>0.196269</v>
       </c>
       <c r="C125" t="n">
-        <v>0.474802</v>
+        <v>0.482542</v>
       </c>
       <c r="D125" t="n">
-        <v>0.143312</v>
+        <v>0.137763</v>
       </c>
     </row>
     <row r="126">
@@ -5008,13 +5008,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.198283</v>
+        <v>0.197805</v>
       </c>
       <c r="C126" t="n">
-        <v>0.475611</v>
+        <v>0.483775</v>
       </c>
       <c r="D126" t="n">
-        <v>0.146307</v>
+        <v>0.1503</v>
       </c>
     </row>
     <row r="127">
@@ -5022,13 +5022,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.210751</v>
+        <v>0.201802</v>
       </c>
       <c r="C127" t="n">
-        <v>0.477201</v>
+        <v>0.485726</v>
       </c>
       <c r="D127" t="n">
-        <v>0.146888</v>
+        <v>0.142704</v>
       </c>
     </row>
     <row r="128">
@@ -5036,13 +5036,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.219386</v>
+        <v>0.207923</v>
       </c>
       <c r="C128" t="n">
-        <v>0.47953</v>
+        <v>0.48175</v>
       </c>
       <c r="D128" t="n">
-        <v>0.148051</v>
+        <v>0.147105</v>
       </c>
     </row>
     <row r="129">
@@ -5050,13 +5050,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.220264</v>
+        <v>0.218313</v>
       </c>
       <c r="C129" t="n">
-        <v>0.487015</v>
+        <v>0.49076</v>
       </c>
       <c r="D129" t="n">
-        <v>0.152453</v>
+        <v>0.150018</v>
       </c>
     </row>
     <row r="130">
@@ -5064,13 +5064,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.232698</v>
+        <v>0.235663</v>
       </c>
       <c r="C130" t="n">
-        <v>0.48689</v>
+        <v>0.502279</v>
       </c>
       <c r="D130" t="n">
-        <v>0.155413</v>
+        <v>0.156317</v>
       </c>
     </row>
     <row r="131">
@@ -5078,13 +5078,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.239077</v>
+        <v>0.246746</v>
       </c>
       <c r="C131" t="n">
-        <v>0.492158</v>
+        <v>0.499437</v>
       </c>
       <c r="D131" t="n">
-        <v>0.162016</v>
+        <v>0.154802</v>
       </c>
     </row>
     <row r="132">
@@ -5092,13 +5092,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.263175</v>
+        <v>0.255952</v>
       </c>
       <c r="C132" t="n">
-        <v>0.499384</v>
+        <v>0.501294</v>
       </c>
       <c r="D132" t="n">
-        <v>0.16302</v>
+        <v>0.163762</v>
       </c>
     </row>
     <row r="133">
@@ -5106,13 +5106,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286393</v>
+        <v>0.286749</v>
       </c>
       <c r="C133" t="n">
-        <v>0.508359</v>
+        <v>0.516494</v>
       </c>
       <c r="D133" t="n">
-        <v>0.170496</v>
+        <v>0.167521</v>
       </c>
     </row>
     <row r="134">
@@ -5120,13 +5120,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.306328</v>
+        <v>0.321587</v>
       </c>
       <c r="C134" t="n">
-        <v>0.520163</v>
+        <v>0.535748</v>
       </c>
       <c r="D134" t="n">
-        <v>0.179239</v>
+        <v>0.179543</v>
       </c>
     </row>
     <row r="135">
@@ -5134,13 +5134,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.34649</v>
+        <v>0.351676</v>
       </c>
       <c r="C135" t="n">
-        <v>0.550431</v>
+        <v>0.558114</v>
       </c>
       <c r="D135" t="n">
-        <v>0.19044</v>
+        <v>0.188287</v>
       </c>
     </row>
     <row r="136">
@@ -5148,13 +5148,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.409711</v>
+        <v>0.431434</v>
       </c>
       <c r="C136" t="n">
-        <v>0.498311</v>
+        <v>0.49918</v>
       </c>
       <c r="D136" t="n">
-        <v>0.212748</v>
+        <v>0.216071</v>
       </c>
     </row>
     <row r="137">
@@ -5162,13 +5162,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.506926</v>
+        <v>0.528172</v>
       </c>
       <c r="C137" t="n">
-        <v>0.500153</v>
+        <v>0.5036119999999999</v>
       </c>
       <c r="D137" t="n">
-        <v>0.249472</v>
+        <v>0.254059</v>
       </c>
     </row>
     <row r="138">
@@ -5176,13 +5176,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.336711</v>
+        <v>0.338381</v>
       </c>
       <c r="C138" t="n">
-        <v>0.505775</v>
+        <v>0.5048240000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>0.2522</v>
+        <v>0.262086</v>
       </c>
     </row>
     <row r="139">
@@ -5190,13 +5190,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.336753</v>
+        <v>0.346167</v>
       </c>
       <c r="C139" t="n">
-        <v>0.501046</v>
+        <v>0.506348</v>
       </c>
       <c r="D139" t="n">
-        <v>0.255337</v>
+        <v>0.25504</v>
       </c>
     </row>
     <row r="140">
@@ -5204,13 +5204,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339748</v>
+        <v>0.346022</v>
       </c>
       <c r="C140" t="n">
-        <v>0.499217</v>
+        <v>0.507617</v>
       </c>
       <c r="D140" t="n">
-        <v>0.255047</v>
+        <v>0.263881</v>
       </c>
     </row>
     <row r="141">
@@ -5218,13 +5218,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.34639</v>
+        <v>0.348181</v>
       </c>
       <c r="C141" t="n">
-        <v>0.507953</v>
+        <v>0.505049</v>
       </c>
       <c r="D141" t="n">
-        <v>0.258289</v>
+        <v>0.262311</v>
       </c>
     </row>
     <row r="142">
@@ -5232,13 +5232,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.353333</v>
+        <v>0.352689</v>
       </c>
       <c r="C142" t="n">
-        <v>0.506382</v>
+        <v>0.5138740000000001</v>
       </c>
       <c r="D142" t="n">
-        <v>0.261444</v>
+        <v>0.265179</v>
       </c>
     </row>
     <row r="143">
@@ -5246,13 +5246,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.363102</v>
+        <v>0.358405</v>
       </c>
       <c r="C143" t="n">
-        <v>0.510354</v>
+        <v>0.514791</v>
       </c>
       <c r="D143" t="n">
-        <v>0.262217</v>
+        <v>0.270976</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3248,13 +3248,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10322</v>
+        <v>0.103141</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0612928</v>
+        <v>0.0612213</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0746135</v>
+        <v>0.07475039999999999</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3262,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111196</v>
+        <v>0.111946</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06260540000000001</v>
+        <v>0.0625444</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0745314</v>
+        <v>0.06698759999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3276,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123038</v>
+        <v>0.122682</v>
       </c>
       <c r="C4" t="n">
-        <v>0.064277</v>
+        <v>0.06423470000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07374219999999999</v>
+        <v>0.07368039999999999</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3290,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142949</v>
+        <v>0.143176</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0733544</v>
+        <v>0.0739964</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0744615</v>
+        <v>0.0746376</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3304,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170617</v>
+        <v>0.170721</v>
       </c>
       <c r="C6" t="n">
-        <v>0.090582</v>
+        <v>0.0903514</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0695451</v>
+        <v>0.0768855</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3318,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205789</v>
+        <v>0.205651</v>
       </c>
       <c r="C7" t="n">
-        <v>0.111917</v>
+        <v>0.111982</v>
       </c>
       <c r="D7" t="n">
-        <v>0.08028490000000001</v>
+        <v>0.08074530000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3332,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252924</v>
+        <v>0.252664</v>
       </c>
       <c r="C8" t="n">
-        <v>0.152537</v>
+        <v>0.152524</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0958106</v>
+        <v>0.0964699</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3346,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.306253</v>
+        <v>0.311516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190523</v>
+        <v>0.193138</v>
       </c>
       <c r="D9" t="n">
-        <v>0.07474020000000001</v>
+        <v>0.07468809999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3360,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0951063</v>
+        <v>0.0950727</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06317059999999999</v>
+        <v>0.0619633</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06775399999999999</v>
+        <v>0.0749134</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3374,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0961822</v>
+        <v>0.0956195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0628143</v>
+        <v>0.0628422</v>
       </c>
       <c r="D11" t="n">
-        <v>0.07499699999999999</v>
+        <v>0.07504379999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3388,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0978747</v>
+        <v>0.097496</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0622918</v>
+        <v>0.06326560000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0679631</v>
+        <v>0.0679106</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3402,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.10018</v>
+        <v>0.09960960000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0624706</v>
+        <v>0.0632882</v>
       </c>
       <c r="D13" t="n">
-        <v>0.07520259999999999</v>
+        <v>0.0752666</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3416,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102906</v>
+        <v>0.102245</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06306390000000001</v>
+        <v>0.06266770000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>0.07544919999999999</v>
+        <v>0.07542500000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3430,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107119</v>
+        <v>0.107211</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0632824</v>
+        <v>0.0635309</v>
       </c>
       <c r="D15" t="n">
-        <v>0.07583139999999999</v>
+        <v>0.07579420000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3444,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112566</v>
+        <v>0.11222</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06642670000000001</v>
+        <v>0.0662572</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0761749</v>
+        <v>0.0689543</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3458,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121811</v>
+        <v>0.121177</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07697909999999999</v>
+        <v>0.0705349</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0765641</v>
+        <v>0.07682600000000001</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3472,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133201</v>
+        <v>0.133316</v>
       </c>
       <c r="C18" t="n">
-        <v>0.080013</v>
+        <v>0.08059760000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0770236</v>
+        <v>0.0702015</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3486,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150357</v>
+        <v>0.152038</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0912511</v>
+        <v>0.0916686</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0809284</v>
+        <v>0.0806571</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3500,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171651</v>
+        <v>0.170945</v>
       </c>
       <c r="C20" t="n">
-        <v>0.106066</v>
+        <v>0.108968</v>
       </c>
       <c r="D20" t="n">
-        <v>0.085692</v>
+        <v>0.084774</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3514,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199321</v>
+        <v>0.206208</v>
       </c>
       <c r="C21" t="n">
-        <v>0.121348</v>
+        <v>0.132094</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0949035</v>
+        <v>0.09355520000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3528,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.236785</v>
+        <v>0.238749</v>
       </c>
       <c r="C22" t="n">
-        <v>0.155234</v>
+        <v>0.16915</v>
       </c>
       <c r="D22" t="n">
-        <v>0.111247</v>
+        <v>0.102491</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3542,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287138</v>
+        <v>0.291235</v>
       </c>
       <c r="C23" t="n">
-        <v>0.196148</v>
+        <v>0.197157</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0770902</v>
+        <v>0.0776609</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3556,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10056</v>
+        <v>0.100559</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0664611</v>
+        <v>0.07506740000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.07285560000000001</v>
+        <v>0.0780771</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3570,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101788</v>
+        <v>0.101999</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0661173</v>
+        <v>0.0745195</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07361479999999999</v>
+        <v>0.0786015</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3584,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103477</v>
+        <v>0.103524</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0669575</v>
+        <v>0.0679936</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0697744</v>
+        <v>0.07897750000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3598,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105563</v>
+        <v>0.112967</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0673494</v>
+        <v>0.0722734</v>
       </c>
       <c r="D27" t="n">
-        <v>0.07000339999999999</v>
+        <v>0.0796187</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3612,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108904</v>
+        <v>0.113206</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0688874</v>
+        <v>0.0762723</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07819669999999999</v>
+        <v>0.0802721</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3626,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.11351</v>
+        <v>0.117795</v>
       </c>
       <c r="C29" t="n">
-        <v>0.070648</v>
+        <v>0.0751144</v>
       </c>
       <c r="D29" t="n">
-        <v>0.077821</v>
+        <v>0.079584</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3640,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119655</v>
+        <v>0.120984</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0741764</v>
+        <v>0.0742009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0711398</v>
+        <v>0.0825746</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3654,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127296</v>
+        <v>0.128526</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0789749</v>
+        <v>0.0879301</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0798802</v>
+        <v>0.080193</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3668,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137385</v>
+        <v>0.139712</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0849881</v>
+        <v>0.0853925</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0813685</v>
+        <v>0.0849439</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3682,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150274</v>
+        <v>0.159485</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09280869999999999</v>
+        <v>0.09758310000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0778161</v>
+        <v>0.0852036</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3696,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168569</v>
+        <v>0.170028</v>
       </c>
       <c r="C34" t="n">
-        <v>0.105562</v>
+        <v>0.106089</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0914244</v>
+        <v>0.08577419999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3710,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195267</v>
+        <v>0.207991</v>
       </c>
       <c r="C35" t="n">
-        <v>0.123047</v>
+        <v>0.124425</v>
       </c>
       <c r="D35" t="n">
-        <v>0.100171</v>
+        <v>0.100561</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3724,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232759</v>
+        <v>0.243875</v>
       </c>
       <c r="C36" t="n">
-        <v>0.14791</v>
+        <v>0.148445</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112001</v>
+        <v>0.112323</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3738,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.285562</v>
+        <v>0.283209</v>
       </c>
       <c r="C37" t="n">
-        <v>0.190531</v>
+        <v>0.208556</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07028089999999999</v>
+        <v>0.07324170000000001</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103527</v>
+        <v>0.108857</v>
       </c>
       <c r="C38" t="n">
-        <v>0.06914770000000001</v>
+        <v>0.0692357</v>
       </c>
       <c r="D38" t="n">
-        <v>0.07045609999999999</v>
+        <v>0.0777212</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3766,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.104892</v>
+        <v>0.108684</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0698666</v>
+        <v>0.0704723</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0788393</v>
+        <v>0.079666</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3780,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108083</v>
+        <v>0.108896</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07076730000000001</v>
+        <v>0.07871789999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0763924</v>
+        <v>0.07941380000000001</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3794,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108927</v>
+        <v>0.113455</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0719756</v>
+        <v>0.0720986</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0713396</v>
+        <v>0.072951</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3808,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112181</v>
+        <v>0.121981</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0733856</v>
+        <v>0.0735883</v>
       </c>
       <c r="D42" t="n">
-        <v>0.07168919999999999</v>
+        <v>0.0843724</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3822,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116427</v>
+        <v>0.124538</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0759435</v>
+        <v>0.0761313</v>
       </c>
       <c r="D43" t="n">
-        <v>0.072145</v>
+        <v>0.0834062</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3836,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122393</v>
+        <v>0.125701</v>
       </c>
       <c r="C44" t="n">
-        <v>0.07830239999999999</v>
+        <v>0.0784758</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0813033</v>
+        <v>0.0852154</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3850,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.129137</v>
+        <v>0.132588</v>
       </c>
       <c r="C45" t="n">
-        <v>0.08169269999999999</v>
+        <v>0.0821076</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0813846</v>
+        <v>0.0830005</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3864,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138351</v>
+        <v>0.138155</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0864553</v>
+        <v>0.0910933</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0839989</v>
+        <v>0.0849847</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3878,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150663</v>
+        <v>0.150474</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0930086</v>
+        <v>0.09343799999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0795636</v>
+        <v>0.0873859</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3892,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167911</v>
+        <v>0.167718</v>
       </c>
       <c r="C48" t="n">
-        <v>0.102558</v>
+        <v>0.102911</v>
       </c>
       <c r="D48" t="n">
-        <v>0.084192</v>
+        <v>0.0934734</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3906,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191858</v>
+        <v>0.200188</v>
       </c>
       <c r="C49" t="n">
-        <v>0.116308</v>
+        <v>0.116424</v>
       </c>
       <c r="D49" t="n">
-        <v>0.09881760000000001</v>
+        <v>0.099479</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3920,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22366</v>
+        <v>0.223283</v>
       </c>
       <c r="C50" t="n">
-        <v>0.137762</v>
+        <v>0.138175</v>
       </c>
       <c r="D50" t="n">
-        <v>0.105742</v>
+        <v>0.108421</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3934,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268997</v>
+        <v>0.285332</v>
       </c>
       <c r="C51" t="n">
-        <v>0.173063</v>
+        <v>0.172011</v>
       </c